--- a/tables.xlsx
+++ b/tables.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thomp\Desktop\Ch3_floweringrush\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A818A713-B005-45EC-A97B-26F56786B942}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE288B45-2C36-4A4C-8978-70AC6DF72FD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{94130567-C790-4197-BF09-72317C0E58C5}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{94130567-C790-4197-BF09-72317C0E58C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Space1" sheetId="1" r:id="rId1"/>
     <sheet name="Space1 (short)" sheetId="5" r:id="rId2"/>
-    <sheet name="Space 2" sheetId="6" r:id="rId3"/>
-    <sheet name="Space 2 (short)" sheetId="7" r:id="rId4"/>
-    <sheet name="OLD" sheetId="3" r:id="rId5"/>
+    <sheet name="Space1 (with C dat)" sheetId="9" r:id="rId3"/>
+    <sheet name="Space 2" sheetId="6" r:id="rId4"/>
+    <sheet name="Space 2 (short)" sheetId="7" r:id="rId5"/>
+    <sheet name="OLD" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Space 2'!$K$4:$L$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Space 2'!$K$4:$L$22</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="58">
   <si>
     <t>Location</t>
   </si>
@@ -416,6 +417,18 @@
       <t>0</t>
     </r>
   </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>A+C</t>
+  </si>
+  <si>
+    <t>A+C**</t>
+  </si>
 </sst>
 </file>
 
@@ -1767,7 +1780,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="444">
+  <cellXfs count="478">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2424,131 +2437,24 @@
     <xf numFmtId="164" fontId="7" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="7" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="8" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="8" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="8" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="8" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2558,9 +2464,6 @@
     <xf numFmtId="164" fontId="10" fillId="8" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2568,9 +2471,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2585,34 +2485,34 @@
     <xf numFmtId="164" fontId="10" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -2634,7 +2534,7 @@
     <xf numFmtId="164" fontId="10" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2667,25 +2567,13 @@
     <xf numFmtId="164" fontId="10" fillId="8" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="10" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="11" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2835,233 +2723,381 @@
     <xf numFmtId="164" fontId="7" fillId="10" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="10" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="10" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="10" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="10" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="10" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="8" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="10" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="10" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="11" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="11" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="11" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="11" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="12" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="12" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="12" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="12" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="12" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="12" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="12" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="12" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="12" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="12" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="12" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="12" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="12" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="12" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="12" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="12" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="12" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="12" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="12" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="12" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="12" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="12" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="12" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="12" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="12" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="12" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="12" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="12" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="12" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="12" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="12" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="10" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="10" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="10" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="10" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="10" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="8" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="10" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="10" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="11" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="11" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="11" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="11" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="12" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="12" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="12" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="12" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="12" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="12" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="12" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="12" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="12" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="12" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="12" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="12" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="12" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="12" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="12" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="12" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="12" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="12" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="12" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="12" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="12" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="12" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="12" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="12" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="12" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="12" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="12" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="12" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="12" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="12" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="12" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="72" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -3414,7 +3450,7 @@
     <col min="6" max="6" width="13.26953125" customWidth="1"/>
     <col min="7" max="7" width="10.1796875" customWidth="1"/>
     <col min="8" max="8" width="12.54296875" customWidth="1"/>
-    <col min="9" max="9" width="0.36328125" style="366" customWidth="1"/>
+    <col min="9" max="9" width="0.36328125" style="323" customWidth="1"/>
     <col min="10" max="10" width="12.54296875" customWidth="1"/>
     <col min="11" max="11" width="12.81640625" customWidth="1"/>
     <col min="12" max="12" width="11.81640625" customWidth="1"/>
@@ -3422,46 +3458,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="H1" s="279"/>
-      <c r="I1" s="279"/>
-      <c r="J1" s="279"/>
+      <c r="I1"/>
     </row>
     <row r="2" spans="2:13" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E2" s="280" t="s">
+      <c r="E2" s="402" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="281"/>
-      <c r="G2" s="281"/>
-      <c r="H2" s="282"/>
-      <c r="I2" s="367"/>
-      <c r="J2" s="280" t="s">
+      <c r="F2" s="403"/>
+      <c r="G2" s="403"/>
+      <c r="H2" s="404"/>
+      <c r="I2" s="324"/>
+      <c r="J2" s="402" t="s">
         <v>33</v>
       </c>
-      <c r="K2" s="281"/>
-      <c r="L2" s="282"/>
+      <c r="K2" s="403"/>
+      <c r="L2" s="404"/>
     </row>
     <row r="3" spans="2:13" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="252" t="s">
+      <c r="B3" s="411" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="253"/>
-      <c r="D3" s="254"/>
-      <c r="E3" s="389" t="s">
+      <c r="C3" s="412"/>
+      <c r="D3" s="413"/>
+      <c r="E3" s="408" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="390"/>
-      <c r="G3" s="391" t="s">
+      <c r="F3" s="409"/>
+      <c r="G3" s="410" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="390"/>
-      <c r="I3" s="368"/>
-      <c r="J3" s="286" t="s">
+      <c r="H3" s="409"/>
+      <c r="I3" s="325"/>
+      <c r="J3" s="250" t="s">
         <v>35</v>
       </c>
-      <c r="K3" s="287" t="s">
+      <c r="K3" s="251" t="s">
         <v>37</v>
       </c>
-      <c r="L3" s="287" t="s">
+      <c r="L3" s="251" t="s">
         <v>38</v>
       </c>
       <c r="M3" s="178"/>
@@ -3482,13 +3516,13 @@
       <c r="F4" s="146" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="299" t="s">
+      <c r="G4" s="260" t="s">
         <v>10</v>
       </c>
       <c r="H4" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="369"/>
+      <c r="I4" s="326"/>
       <c r="J4" s="145" t="s">
         <v>10</v>
       </c>
@@ -3501,10 +3535,10 @@
       <c r="M4" s="77"/>
     </row>
     <row r="5" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="249" t="s">
+      <c r="B5" s="405" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="255" t="s">
+      <c r="C5" s="397" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="151" t="s">
@@ -3522,7 +3556,7 @@
       <c r="H5" s="110">
         <v>0.55000000000000004</v>
       </c>
-      <c r="I5" s="370"/>
+      <c r="I5" s="327"/>
       <c r="J5" s="158">
         <v>0.22</v>
       </c>
@@ -3535,8 +3569,8 @@
       <c r="M5" s="79"/>
     </row>
     <row r="6" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="250"/>
-      <c r="C6" s="247"/>
+      <c r="B6" s="406"/>
+      <c r="C6" s="398"/>
       <c r="D6" s="150" t="s">
         <v>17</v>
       </c>
@@ -3552,7 +3586,7 @@
       <c r="H6" s="90">
         <v>0.55000000000000004</v>
       </c>
-      <c r="I6" s="371"/>
+      <c r="I6" s="328"/>
       <c r="J6" s="159">
         <v>0.221</v>
       </c>
@@ -3565,8 +3599,8 @@
       <c r="M6" s="79"/>
     </row>
     <row r="7" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="250"/>
-      <c r="C7" s="247"/>
+      <c r="B7" s="406"/>
+      <c r="C7" s="398"/>
       <c r="D7" s="151" t="s">
         <v>6</v>
       </c>
@@ -3582,7 +3616,7 @@
       <c r="H7" s="94">
         <v>0.625</v>
       </c>
-      <c r="I7" s="370"/>
+      <c r="I7" s="327"/>
       <c r="J7" s="160">
         <v>0.19470000000000001</v>
       </c>
@@ -3595,8 +3629,8 @@
       <c r="M7" s="79"/>
     </row>
     <row r="8" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="250"/>
-      <c r="C8" s="247"/>
+      <c r="B8" s="406"/>
+      <c r="C8" s="398"/>
       <c r="D8" s="150" t="s">
         <v>7</v>
       </c>
@@ -3612,7 +3646,7 @@
       <c r="H8" s="100">
         <v>0.5</v>
       </c>
-      <c r="I8" s="371"/>
+      <c r="I8" s="328"/>
       <c r="J8" s="161">
         <v>0.19600000000000001</v>
       </c>
@@ -3625,8 +3659,8 @@
       <c r="M8" s="79"/>
     </row>
     <row r="9" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="250"/>
-      <c r="C9" s="247"/>
+      <c r="B9" s="406"/>
+      <c r="C9" s="398"/>
       <c r="D9" s="150" t="s">
         <v>8</v>
       </c>
@@ -3642,8 +3676,8 @@
       <c r="H9" s="104">
         <v>0.5</v>
       </c>
-      <c r="I9" s="372"/>
-      <c r="J9" s="412">
+      <c r="I9" s="329"/>
+      <c r="J9" s="365">
         <v>0.182</v>
       </c>
       <c r="K9" s="161">
@@ -3655,8 +3689,8 @@
       <c r="M9" s="78"/>
     </row>
     <row r="10" spans="2:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B10" s="250"/>
-      <c r="C10" s="256"/>
+      <c r="B10" s="406"/>
+      <c r="C10" s="399"/>
       <c r="D10" s="152" t="s">
         <v>9</v>
       </c>
@@ -3672,7 +3706,7 @@
       <c r="H10" s="108">
         <v>0.47499999999999998</v>
       </c>
-      <c r="I10" s="373"/>
+      <c r="I10" s="330"/>
       <c r="J10" s="162">
         <v>0.20799999999999999</v>
       </c>
@@ -3685,8 +3719,8 @@
       <c r="M10" s="79"/>
     </row>
     <row r="11" spans="2:13" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="250"/>
-      <c r="C11" s="246" t="s">
+      <c r="B11" s="406"/>
+      <c r="C11" s="400" t="s">
         <v>3</v>
       </c>
       <c r="D11" s="151" t="s">
@@ -3704,7 +3738,7 @@
       <c r="H11" s="110">
         <v>0.47499999999999998</v>
       </c>
-      <c r="I11" s="370"/>
+      <c r="I11" s="327"/>
       <c r="J11" s="168">
         <v>0.22900000000000001</v>
       </c>
@@ -3717,8 +3751,8 @@
       <c r="M11" s="81"/>
     </row>
     <row r="12" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="250"/>
-      <c r="C12" s="247"/>
+      <c r="B12" s="406"/>
+      <c r="C12" s="398"/>
       <c r="D12" s="150" t="s">
         <v>17</v>
       </c>
@@ -3734,7 +3768,7 @@
       <c r="H12" s="90">
         <v>0.45</v>
       </c>
-      <c r="I12" s="371"/>
+      <c r="I12" s="328"/>
       <c r="J12" s="159">
         <v>0.22800000000000001</v>
       </c>
@@ -3747,8 +3781,8 @@
       <c r="M12" s="81"/>
     </row>
     <row r="13" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="250"/>
-      <c r="C13" s="247"/>
+      <c r="B13" s="406"/>
+      <c r="C13" s="398"/>
       <c r="D13" s="151" t="s">
         <v>6</v>
       </c>
@@ -3764,7 +3798,7 @@
       <c r="H13" s="96">
         <v>0.47499999999999998</v>
       </c>
-      <c r="I13" s="370"/>
+      <c r="I13" s="327"/>
       <c r="J13" s="160">
         <v>0.21199999999999999</v>
       </c>
@@ -3777,25 +3811,25 @@
       <c r="M13" s="80"/>
     </row>
     <row r="14" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="250"/>
-      <c r="C14" s="247"/>
+      <c r="B14" s="406"/>
+      <c r="C14" s="398"/>
       <c r="D14" s="150" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="417">
+      <c r="E14" s="370">
         <v>0.61275000000000002</v>
       </c>
       <c r="F14" s="90">
         <v>1.1499999999999999</v>
       </c>
-      <c r="G14" s="410">
+      <c r="G14" s="363">
         <v>0.20574999999999999</v>
       </c>
       <c r="H14" s="113">
         <v>0.47499999999999998</v>
       </c>
-      <c r="I14" s="374"/>
-      <c r="J14" s="412">
+      <c r="I14" s="331"/>
+      <c r="J14" s="365">
         <v>0.182</v>
       </c>
       <c r="K14" s="172">
@@ -3807,8 +3841,8 @@
       <c r="M14" s="79"/>
     </row>
     <row r="15" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="250"/>
-      <c r="C15" s="247"/>
+      <c r="B15" s="406"/>
+      <c r="C15" s="398"/>
       <c r="D15" s="150" t="s">
         <v>8</v>
       </c>
@@ -3824,7 +3858,7 @@
       <c r="H15" s="115">
         <v>0.625</v>
       </c>
-      <c r="I15" s="374"/>
+      <c r="I15" s="331"/>
       <c r="J15" s="161">
         <v>0.20100000000000001</v>
       </c>
@@ -3837,8 +3871,8 @@
       <c r="M15" s="79"/>
     </row>
     <row r="16" spans="2:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B16" s="250"/>
-      <c r="C16" s="256"/>
+      <c r="B16" s="406"/>
+      <c r="C16" s="399"/>
       <c r="D16" s="152" t="s">
         <v>9</v>
       </c>
@@ -3854,7 +3888,7 @@
       <c r="H16" s="108">
         <v>0.42499999999999999</v>
       </c>
-      <c r="I16" s="373"/>
+      <c r="I16" s="330"/>
       <c r="J16" s="162">
         <v>0.22700000000000001</v>
       </c>
@@ -3867,8 +3901,8 @@
       <c r="M16" s="79"/>
     </row>
     <row r="17" spans="2:13" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="250"/>
-      <c r="C17" s="246" t="s">
+      <c r="B17" s="406"/>
+      <c r="C17" s="400" t="s">
         <v>18</v>
       </c>
       <c r="D17" s="151" t="s">
@@ -3886,11 +3920,11 @@
       <c r="H17" s="92">
         <v>0.42499999999999999</v>
       </c>
-      <c r="I17" s="375"/>
+      <c r="I17" s="332"/>
       <c r="J17" s="164">
         <v>0.222</v>
       </c>
-      <c r="K17" s="413">
+      <c r="K17" s="366">
         <v>6.9699999999999996E-3</v>
       </c>
       <c r="L17" s="96">
@@ -3899,8 +3933,8 @@
       <c r="M17" s="179"/>
     </row>
     <row r="18" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="250"/>
-      <c r="C18" s="247"/>
+      <c r="B18" s="406"/>
+      <c r="C18" s="398"/>
       <c r="D18" s="150" t="s">
         <v>17</v>
       </c>
@@ -3913,10 +3947,10 @@
       <c r="G18" s="97">
         <v>0.249</v>
       </c>
-      <c r="H18" s="416">
+      <c r="H18" s="369">
         <v>0.38800000000000001</v>
       </c>
-      <c r="I18" s="374"/>
+      <c r="I18" s="331"/>
       <c r="J18" s="166">
         <v>0.221</v>
       </c>
@@ -3929,8 +3963,8 @@
       <c r="M18" s="79"/>
     </row>
     <row r="19" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="250"/>
-      <c r="C19" s="247"/>
+      <c r="B19" s="406"/>
+      <c r="C19" s="398"/>
       <c r="D19" s="151" t="s">
         <v>6</v>
       </c>
@@ -3946,7 +3980,7 @@
       <c r="H19" s="98">
         <v>0.438</v>
       </c>
-      <c r="I19" s="374"/>
+      <c r="I19" s="331"/>
       <c r="J19" s="166">
         <v>0.19400000000000001</v>
       </c>
@@ -3959,24 +3993,24 @@
       <c r="M19" s="79"/>
     </row>
     <row r="20" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="250"/>
-      <c r="C20" s="247"/>
+      <c r="B20" s="406"/>
+      <c r="C20" s="398"/>
       <c r="D20" s="150" t="s">
         <v>7</v>
       </c>
       <c r="E20" s="130">
         <v>0.67600000000000005</v>
       </c>
-      <c r="F20" s="416">
+      <c r="F20" s="369">
         <v>0.97499999999999998</v>
       </c>
       <c r="G20" s="116">
         <v>0.221</v>
       </c>
-      <c r="H20" s="416">
+      <c r="H20" s="369">
         <v>0.38800000000000001</v>
       </c>
-      <c r="I20" s="374"/>
+      <c r="I20" s="331"/>
       <c r="J20" s="166">
         <v>0.19600000000000001</v>
       </c>
@@ -3989,8 +4023,8 @@
       <c r="M20" s="79"/>
     </row>
     <row r="21" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="250"/>
-      <c r="C21" s="247"/>
+      <c r="B21" s="406"/>
+      <c r="C21" s="398"/>
       <c r="D21" s="150" t="s">
         <v>8</v>
       </c>
@@ -4006,8 +4040,8 @@
       <c r="H21" s="92">
         <v>0.4</v>
       </c>
-      <c r="I21" s="375"/>
-      <c r="J21" s="413">
+      <c r="I21" s="332"/>
+      <c r="J21" s="366">
         <v>0.182</v>
       </c>
       <c r="K21" s="164">
@@ -4019,8 +4053,8 @@
       <c r="M21" s="79"/>
     </row>
     <row r="22" spans="2:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B22" s="251"/>
-      <c r="C22" s="248"/>
+      <c r="B22" s="407"/>
+      <c r="C22" s="401"/>
       <c r="D22" s="192" t="s">
         <v>9</v>
       </c>
@@ -4036,14 +4070,14 @@
       <c r="H22" s="194">
         <v>0.45</v>
       </c>
-      <c r="I22" s="376"/>
+      <c r="I22" s="333"/>
       <c r="J22" s="196">
         <v>0.20799999999999999</v>
       </c>
       <c r="K22" s="196">
         <v>-0.20200000000000001</v>
       </c>
-      <c r="L22" s="443">
+      <c r="L22" s="396">
         <v>-4.0599999999999997E-2</v>
       </c>
       <c r="M22" s="79"/>
@@ -4062,10 +4096,10 @@
       <c r="L23" s="233"/>
     </row>
     <row r="24" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="249" t="s">
+      <c r="B24" s="405" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="255" t="s">
+      <c r="C24" s="397" t="s">
         <v>2</v>
       </c>
       <c r="D24" s="222" t="s">
@@ -4083,7 +4117,7 @@
       <c r="H24" s="133">
         <v>0.57499999999999996</v>
       </c>
-      <c r="I24" s="377"/>
+      <c r="I24" s="334"/>
       <c r="J24" s="158">
         <v>0.216</v>
       </c>
@@ -4095,8 +4129,8 @@
       </c>
     </row>
     <row r="25" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="250"/>
-      <c r="C25" s="247"/>
+      <c r="B25" s="406"/>
+      <c r="C25" s="398"/>
       <c r="D25" s="222" t="s">
         <v>17</v>
       </c>
@@ -4112,7 +4146,7 @@
       <c r="H25" s="134">
         <v>0.5</v>
       </c>
-      <c r="I25" s="378"/>
+      <c r="I25" s="335"/>
       <c r="J25" s="159">
         <v>0.216</v>
       </c>
@@ -4124,8 +4158,8 @@
       </c>
     </row>
     <row r="26" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="250"/>
-      <c r="C26" s="247"/>
+      <c r="B26" s="406"/>
+      <c r="C26" s="398"/>
       <c r="D26" s="222" t="s">
         <v>6</v>
       </c>
@@ -4141,7 +4175,7 @@
       <c r="H26" s="134">
         <v>0.5</v>
       </c>
-      <c r="I26" s="378"/>
+      <c r="I26" s="335"/>
       <c r="J26" s="161">
         <v>0.17799999999999999</v>
       </c>
@@ -4153,8 +4187,8 @@
       </c>
     </row>
     <row r="27" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="250"/>
-      <c r="C27" s="247"/>
+      <c r="B27" s="406"/>
+      <c r="C27" s="398"/>
       <c r="D27" s="84" t="s">
         <v>7</v>
       </c>
@@ -4170,7 +4204,7 @@
       <c r="H27" s="142">
         <v>0.42499999999999999</v>
       </c>
-      <c r="I27" s="379"/>
+      <c r="I27" s="336"/>
       <c r="J27" s="161">
         <v>0.17499999999999999</v>
       </c>
@@ -4182,8 +4216,8 @@
       </c>
     </row>
     <row r="28" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="250"/>
-      <c r="C28" s="247"/>
+      <c r="B28" s="406"/>
+      <c r="C28" s="398"/>
       <c r="D28" s="83" t="s">
         <v>8</v>
       </c>
@@ -4199,7 +4233,7 @@
       <c r="H28" s="232">
         <v>0.5</v>
       </c>
-      <c r="I28" s="380"/>
+      <c r="I28" s="337"/>
       <c r="J28" s="161">
         <v>0.157</v>
       </c>
@@ -4211,8 +4245,8 @@
       </c>
     </row>
     <row r="29" spans="2:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="250"/>
-      <c r="C29" s="256"/>
+      <c r="B29" s="406"/>
+      <c r="C29" s="399"/>
       <c r="D29" s="85" t="s">
         <v>9</v>
       </c>
@@ -4228,7 +4262,7 @@
       <c r="H29" s="144">
         <v>0.45</v>
       </c>
-      <c r="I29" s="381"/>
+      <c r="I29" s="338"/>
       <c r="J29" s="181">
         <v>0.192</v>
       </c>
@@ -4240,8 +4274,8 @@
       </c>
     </row>
     <row r="30" spans="2:13" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="250"/>
-      <c r="C30" s="246" t="s">
+      <c r="B30" s="406"/>
+      <c r="C30" s="400" t="s">
         <v>3</v>
       </c>
       <c r="D30" s="84" t="s">
@@ -4259,7 +4293,7 @@
       <c r="H30" s="139">
         <v>0.45</v>
       </c>
-      <c r="I30" s="382"/>
+      <c r="I30" s="339"/>
       <c r="J30" s="163">
         <v>0.17100000000000001</v>
       </c>
@@ -4272,8 +4306,8 @@
       <c r="M30" s="174"/>
     </row>
     <row r="31" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="250"/>
-      <c r="C31" s="247"/>
+      <c r="B31" s="406"/>
+      <c r="C31" s="398"/>
       <c r="D31" s="83" t="s">
         <v>17</v>
       </c>
@@ -4289,7 +4323,7 @@
       <c r="H31" s="134">
         <v>0.375</v>
       </c>
-      <c r="I31" s="378"/>
+      <c r="I31" s="335"/>
       <c r="J31" s="159">
         <v>0.17100000000000001</v>
       </c>
@@ -4301,8 +4335,8 @@
       </c>
     </row>
     <row r="32" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="250"/>
-      <c r="C32" s="247"/>
+      <c r="B32" s="406"/>
+      <c r="C32" s="398"/>
       <c r="D32" s="84" t="s">
         <v>6</v>
       </c>
@@ -4318,7 +4352,7 @@
       <c r="H32" s="135">
         <v>0.52500000000000002</v>
       </c>
-      <c r="I32" s="382"/>
+      <c r="I32" s="339"/>
       <c r="J32" s="160">
         <v>0.14699999999999999</v>
       </c>
@@ -4331,28 +4365,28 @@
       <c r="M32" s="174"/>
     </row>
     <row r="33" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="250"/>
-      <c r="C33" s="247"/>
+      <c r="B33" s="406"/>
+      <c r="C33" s="398"/>
       <c r="D33" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="E33" s="418">
+      <c r="E33" s="371">
         <v>0.41112500000000002</v>
       </c>
       <c r="F33" s="100">
         <v>0.95</v>
       </c>
-      <c r="G33" s="420">
+      <c r="G33" s="373">
         <v>0.144625</v>
       </c>
       <c r="H33" s="136">
         <v>0.375</v>
       </c>
-      <c r="I33" s="378"/>
+      <c r="I33" s="335"/>
       <c r="J33" s="161">
         <v>0.14499999999999999</v>
       </c>
-      <c r="K33" s="429">
+      <c r="K33" s="382">
         <v>5.7599999999999998E-2</v>
       </c>
       <c r="L33" s="161">
@@ -4360,8 +4394,8 @@
       </c>
     </row>
     <row r="34" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="250"/>
-      <c r="C34" s="247"/>
+      <c r="B34" s="406"/>
+      <c r="C34" s="398"/>
       <c r="D34" s="83" t="s">
         <v>8</v>
       </c>
@@ -4377,8 +4411,8 @@
       <c r="H34" s="234">
         <v>0.45</v>
       </c>
-      <c r="I34" s="379"/>
-      <c r="J34" s="412">
+      <c r="I34" s="336"/>
+      <c r="J34" s="365">
         <v>0.106</v>
       </c>
       <c r="K34" s="166">
@@ -4389,8 +4423,8 @@
       </c>
     </row>
     <row r="35" spans="2:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="250"/>
-      <c r="C35" s="256"/>
+      <c r="B35" s="406"/>
+      <c r="C35" s="399"/>
       <c r="D35" s="85" t="s">
         <v>9</v>
       </c>
@@ -4406,20 +4440,20 @@
       <c r="H35" s="235">
         <v>0.4</v>
       </c>
-      <c r="I35" s="383"/>
+      <c r="I35" s="340"/>
       <c r="J35" s="162">
         <v>0.11899999999999999</v>
       </c>
       <c r="K35" s="167">
         <v>-0.28699999999999998</v>
       </c>
-      <c r="L35" s="411">
+      <c r="L35" s="364">
         <v>-9.4700000000000006E-2</v>
       </c>
     </row>
     <row r="36" spans="2:12" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="250"/>
-      <c r="C36" s="246" t="s">
+      <c r="B36" s="406"/>
+      <c r="C36" s="400" t="s">
         <v>18</v>
       </c>
       <c r="D36" s="84" t="s">
@@ -4437,7 +4471,7 @@
       <c r="H36" s="141">
         <v>0.438</v>
       </c>
-      <c r="I36" s="384"/>
+      <c r="I36" s="341"/>
       <c r="J36" s="164">
         <v>0.215</v>
       </c>
@@ -4449,8 +4483,8 @@
       </c>
     </row>
     <row r="37" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="250"/>
-      <c r="C37" s="247"/>
+      <c r="B37" s="406"/>
+      <c r="C37" s="398"/>
       <c r="D37" s="83" t="s">
         <v>17</v>
       </c>
@@ -4463,10 +4497,10 @@
       <c r="G37" s="129">
         <v>0.20899999999999999</v>
       </c>
-      <c r="H37" s="415">
+      <c r="H37" s="368">
         <v>0.35</v>
       </c>
-      <c r="I37" s="379"/>
+      <c r="I37" s="336"/>
       <c r="J37" s="165">
         <v>0.23100000000000001</v>
       </c>
@@ -4478,8 +4512,8 @@
       </c>
     </row>
     <row r="38" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="250"/>
-      <c r="C38" s="247"/>
+      <c r="B38" s="406"/>
+      <c r="C38" s="398"/>
       <c r="D38" s="84" t="s">
         <v>6</v>
       </c>
@@ -4495,7 +4529,7 @@
       <c r="H38" s="142">
         <v>0.375</v>
       </c>
-      <c r="I38" s="379"/>
+      <c r="I38" s="336"/>
       <c r="J38" s="166">
         <v>0.16900000000000001</v>
       </c>
@@ -4507,15 +4541,15 @@
       </c>
     </row>
     <row r="39" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="250"/>
-      <c r="C39" s="247"/>
+      <c r="B39" s="406"/>
+      <c r="C39" s="398"/>
       <c r="D39" s="83" t="s">
         <v>7</v>
       </c>
       <c r="E39" s="129">
         <v>0.496</v>
       </c>
-      <c r="F39" s="416">
+      <c r="F39" s="369">
         <v>0.89200000000000002</v>
       </c>
       <c r="G39" s="129">
@@ -4524,7 +4558,7 @@
       <c r="H39" s="142">
         <v>0.35799999999999998</v>
       </c>
-      <c r="I39" s="379"/>
+      <c r="I39" s="336"/>
       <c r="J39" s="166">
         <v>0.16</v>
       </c>
@@ -4536,8 +4570,8 @@
       </c>
     </row>
     <row r="40" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="250"/>
-      <c r="C40" s="247"/>
+      <c r="B40" s="406"/>
+      <c r="C40" s="398"/>
       <c r="D40" s="83" t="s">
         <v>8</v>
       </c>
@@ -4553,7 +4587,7 @@
       <c r="H40" s="142">
         <v>0.41199999999999998</v>
       </c>
-      <c r="I40" s="384"/>
+      <c r="I40" s="341"/>
       <c r="J40" s="164">
         <v>0.14399999999999999</v>
       </c>
@@ -4565,8 +4599,8 @@
       </c>
     </row>
     <row r="41" spans="2:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B41" s="251"/>
-      <c r="C41" s="248"/>
+      <c r="B41" s="407"/>
+      <c r="C41" s="401"/>
       <c r="D41" s="230" t="s">
         <v>9</v>
       </c>
@@ -4582,7 +4616,7 @@
       <c r="H41" s="219">
         <v>0.4</v>
       </c>
-      <c r="I41" s="385"/>
+      <c r="I41" s="342"/>
       <c r="J41" s="227">
         <v>0.17100000000000001</v>
       </c>
@@ -4607,10 +4641,10 @@
       <c r="L42" s="199"/>
     </row>
     <row r="43" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="249" t="s">
+      <c r="B43" s="405" t="s">
         <v>26</v>
       </c>
-      <c r="C43" s="255" t="s">
+      <c r="C43" s="397" t="s">
         <v>2</v>
       </c>
       <c r="D43" s="238" t="s">
@@ -4628,7 +4662,7 @@
       <c r="H43" s="133">
         <v>0.52500000000000002</v>
       </c>
-      <c r="I43" s="377"/>
+      <c r="I43" s="334"/>
       <c r="J43" s="158">
         <v>0.20399999999999999</v>
       </c>
@@ -4640,8 +4674,8 @@
       </c>
     </row>
     <row r="44" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="250"/>
-      <c r="C44" s="247"/>
+      <c r="B44" s="406"/>
+      <c r="C44" s="398"/>
       <c r="D44" s="83" t="s">
         <v>17</v>
       </c>
@@ -4657,7 +4691,7 @@
       <c r="H44" s="134">
         <v>0.42499999999999999</v>
       </c>
-      <c r="I44" s="378"/>
+      <c r="I44" s="335"/>
       <c r="J44" s="173">
         <v>0.21199999999999999</v>
       </c>
@@ -4669,8 +4703,8 @@
       </c>
     </row>
     <row r="45" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="250"/>
-      <c r="C45" s="247"/>
+      <c r="B45" s="406"/>
+      <c r="C45" s="398"/>
       <c r="D45" s="84" t="s">
         <v>6</v>
       </c>
@@ -4686,7 +4720,7 @@
       <c r="H45" s="135">
         <v>0.47499999999999998</v>
       </c>
-      <c r="I45" s="382"/>
+      <c r="I45" s="339"/>
       <c r="J45" s="160">
         <v>0.14299999999999999</v>
       </c>
@@ -4698,8 +4732,8 @@
       </c>
     </row>
     <row r="46" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="250"/>
-      <c r="C46" s="247"/>
+      <c r="B46" s="406"/>
+      <c r="C46" s="398"/>
       <c r="D46" s="83" t="s">
         <v>7</v>
       </c>
@@ -4715,7 +4749,7 @@
       <c r="H46" s="136">
         <v>0.42499999999999999</v>
       </c>
-      <c r="I46" s="378"/>
+      <c r="I46" s="335"/>
       <c r="J46" s="161">
         <v>0.13900000000000001</v>
       </c>
@@ -4727,8 +4761,8 @@
       </c>
     </row>
     <row r="47" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="250"/>
-      <c r="C47" s="247"/>
+      <c r="B47" s="406"/>
+      <c r="C47" s="398"/>
       <c r="D47" s="83" t="s">
         <v>8</v>
       </c>
@@ -4744,7 +4778,7 @@
       <c r="H47" s="137">
         <v>0.47499999999999998</v>
       </c>
-      <c r="I47" s="386"/>
+      <c r="I47" s="343"/>
       <c r="J47" s="161">
         <v>0.10100000000000001</v>
       </c>
@@ -4756,8 +4790,8 @@
       </c>
     </row>
     <row r="48" spans="2:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B48" s="250"/>
-      <c r="C48" s="256"/>
+      <c r="B48" s="406"/>
+      <c r="C48" s="399"/>
       <c r="D48" s="85" t="s">
         <v>9</v>
       </c>
@@ -4773,20 +4807,20 @@
       <c r="H48" s="138">
         <v>0.4</v>
       </c>
-      <c r="I48" s="387"/>
+      <c r="I48" s="344"/>
       <c r="J48" s="162">
         <v>0.11</v>
       </c>
       <c r="K48" s="108">
         <v>-0.22</v>
       </c>
-      <c r="L48" s="423">
+      <c r="L48" s="376">
         <v>-0.11700000000000001</v>
       </c>
     </row>
     <row r="49" spans="2:12" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="250"/>
-      <c r="C49" s="246" t="s">
+      <c r="B49" s="406"/>
+      <c r="C49" s="400" t="s">
         <v>3</v>
       </c>
       <c r="D49" s="84" t="s">
@@ -4804,7 +4838,7 @@
       <c r="H49" s="139">
         <v>0.45</v>
       </c>
-      <c r="I49" s="382"/>
+      <c r="I49" s="339"/>
       <c r="J49" s="163">
         <v>0.17499999999999999</v>
       </c>
@@ -4816,8 +4850,8 @@
       </c>
     </row>
     <row r="50" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="250"/>
-      <c r="C50" s="247"/>
+      <c r="B50" s="406"/>
+      <c r="C50" s="398"/>
       <c r="D50" s="83" t="s">
         <v>17</v>
       </c>
@@ -4833,7 +4867,7 @@
       <c r="H50" s="134">
         <v>0.4</v>
       </c>
-      <c r="I50" s="378"/>
+      <c r="I50" s="335"/>
       <c r="J50" s="159">
         <v>0.18099999999999999</v>
       </c>
@@ -4845,8 +4879,8 @@
       </c>
     </row>
     <row r="51" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="250"/>
-      <c r="C51" s="247"/>
+      <c r="B51" s="406"/>
+      <c r="C51" s="398"/>
       <c r="D51" s="84" t="s">
         <v>6</v>
       </c>
@@ -4862,7 +4896,7 @@
       <c r="H51" s="135">
         <v>0.4</v>
       </c>
-      <c r="I51" s="382"/>
+      <c r="I51" s="339"/>
       <c r="J51" s="160">
         <v>0.13</v>
       </c>
@@ -4874,24 +4908,24 @@
       </c>
     </row>
     <row r="52" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="250"/>
-      <c r="C52" s="247"/>
+      <c r="B52" s="406"/>
+      <c r="C52" s="398"/>
       <c r="D52" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="E52" s="418">
+      <c r="E52" s="371">
         <v>0.29025000000000001</v>
       </c>
       <c r="F52" s="113">
         <v>0.8</v>
       </c>
-      <c r="G52" s="410">
+      <c r="G52" s="363">
         <v>0.113125</v>
       </c>
       <c r="H52" s="136">
         <v>0.32500000000000001</v>
       </c>
-      <c r="I52" s="378"/>
+      <c r="I52" s="335"/>
       <c r="J52" s="161">
         <v>0.127</v>
       </c>
@@ -4903,8 +4937,8 @@
       </c>
     </row>
     <row r="53" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="250"/>
-      <c r="C53" s="247"/>
+      <c r="B53" s="406"/>
+      <c r="C53" s="398"/>
       <c r="D53" s="83" t="s">
         <v>8</v>
       </c>
@@ -4920,7 +4954,7 @@
       <c r="H53" s="136">
         <v>0.42499999999999999</v>
       </c>
-      <c r="I53" s="378"/>
+      <c r="I53" s="335"/>
       <c r="J53" s="161">
         <v>0.111</v>
       </c>
@@ -4932,8 +4966,8 @@
       </c>
     </row>
     <row r="54" spans="2:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B54" s="250"/>
-      <c r="C54" s="256"/>
+      <c r="B54" s="406"/>
+      <c r="C54" s="399"/>
       <c r="D54" s="85" t="s">
         <v>9</v>
       </c>
@@ -4949,7 +4983,7 @@
       <c r="H54" s="140">
         <v>0.375</v>
       </c>
-      <c r="I54" s="387"/>
+      <c r="I54" s="344"/>
       <c r="J54" s="162">
         <v>0.123</v>
       </c>
@@ -4961,8 +4995,8 @@
       </c>
     </row>
     <row r="55" spans="2:12" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="250"/>
-      <c r="C55" s="246" t="s">
+      <c r="B55" s="406"/>
+      <c r="C55" s="400" t="s">
         <v>18</v>
       </c>
       <c r="D55" s="84" t="s">
@@ -4980,7 +5014,7 @@
       <c r="H55" s="141">
         <v>0.38800000000000001</v>
       </c>
-      <c r="I55" s="384"/>
+      <c r="I55" s="341"/>
       <c r="J55" s="164">
         <v>0.18099999999999999</v>
       </c>
@@ -4992,8 +5026,8 @@
       </c>
     </row>
     <row r="56" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="250"/>
-      <c r="C56" s="247"/>
+      <c r="B56" s="406"/>
+      <c r="C56" s="398"/>
       <c r="D56" s="83" t="s">
         <v>17</v>
       </c>
@@ -5009,7 +5043,7 @@
       <c r="H56" s="142">
         <v>0.36199999999999999</v>
       </c>
-      <c r="I56" s="379"/>
+      <c r="I56" s="336"/>
       <c r="J56" s="166">
         <v>0.19500000000000001</v>
       </c>
@@ -5021,8 +5055,8 @@
       </c>
     </row>
     <row r="57" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="250"/>
-      <c r="C57" s="247"/>
+      <c r="B57" s="406"/>
+      <c r="C57" s="398"/>
       <c r="D57" s="84" t="s">
         <v>6</v>
       </c>
@@ -5038,11 +5072,11 @@
       <c r="H57" s="142">
         <v>0.375</v>
       </c>
-      <c r="I57" s="379"/>
+      <c r="I57" s="336"/>
       <c r="J57" s="166">
         <v>0.13600000000000001</v>
       </c>
-      <c r="K57" s="422">
+      <c r="K57" s="375">
         <v>-7.7299999999999994E-2</v>
       </c>
       <c r="L57" s="154">
@@ -5050,24 +5084,24 @@
       </c>
     </row>
     <row r="58" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="250"/>
-      <c r="C58" s="247"/>
+      <c r="B58" s="406"/>
+      <c r="C58" s="398"/>
       <c r="D58" s="83" t="s">
         <v>7</v>
       </c>
       <c r="E58" s="129">
         <v>0.35199999999999998</v>
       </c>
-      <c r="F58" s="416">
+      <c r="F58" s="369">
         <v>0.74199999999999999</v>
       </c>
       <c r="G58" s="117">
         <v>0.128</v>
       </c>
-      <c r="H58" s="415">
+      <c r="H58" s="368">
         <v>0.317</v>
       </c>
-      <c r="I58" s="379"/>
+      <c r="I58" s="336"/>
       <c r="J58" s="166">
         <v>0.13700000000000001</v>
       </c>
@@ -5079,8 +5113,8 @@
       </c>
     </row>
     <row r="59" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="250"/>
-      <c r="C59" s="247"/>
+      <c r="B59" s="406"/>
+      <c r="C59" s="398"/>
       <c r="D59" s="83" t="s">
         <v>8</v>
       </c>
@@ -5096,7 +5130,7 @@
       <c r="H59" s="142">
         <v>0.33800000000000002</v>
       </c>
-      <c r="I59" s="384"/>
+      <c r="I59" s="341"/>
       <c r="J59" s="164">
         <v>0.10100000000000001</v>
       </c>
@@ -5108,8 +5142,8 @@
       </c>
     </row>
     <row r="60" spans="2:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B60" s="251"/>
-      <c r="C60" s="248"/>
+      <c r="B60" s="407"/>
+      <c r="C60" s="401"/>
       <c r="D60" s="217" t="s">
         <v>9</v>
       </c>
@@ -5125,8 +5159,8 @@
       <c r="H60" s="219">
         <v>0.375</v>
       </c>
-      <c r="I60" s="385"/>
-      <c r="J60" s="424">
+      <c r="I60" s="342"/>
+      <c r="J60" s="377">
         <v>9.7000000000000003E-2</v>
       </c>
       <c r="K60" s="220">
@@ -5137,171 +5171,103 @@
       </c>
     </row>
     <row r="61" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="H61" s="279"/>
-      <c r="I61" s="279"/>
-      <c r="J61" s="279"/>
+      <c r="I61"/>
     </row>
     <row r="62" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="H62" s="279"/>
-      <c r="I62" s="279"/>
-      <c r="J62" s="279"/>
+      <c r="I62"/>
     </row>
     <row r="63" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="H63" s="279"/>
-      <c r="I63" s="279"/>
-      <c r="J63" s="279"/>
+      <c r="I63"/>
     </row>
     <row r="64" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="H64" s="279"/>
-      <c r="I64" s="279"/>
-      <c r="J64" s="279"/>
-    </row>
-    <row r="65" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H65" s="279"/>
-      <c r="I65" s="279"/>
-      <c r="J65" s="279"/>
-    </row>
-    <row r="66" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H66" s="279"/>
-      <c r="I66" s="279"/>
-      <c r="J66" s="279"/>
-    </row>
-    <row r="67" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H67" s="279"/>
-      <c r="I67" s="279"/>
-      <c r="J67" s="279"/>
-    </row>
-    <row r="68" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H68" s="279"/>
-      <c r="I68" s="279"/>
-      <c r="J68" s="279"/>
-    </row>
-    <row r="69" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H69" s="279"/>
-      <c r="I69" s="279"/>
-      <c r="J69" s="279"/>
-    </row>
-    <row r="70" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H70" s="279"/>
-      <c r="I70" s="279"/>
-      <c r="J70" s="279"/>
-    </row>
-    <row r="71" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H71" s="279"/>
-      <c r="I71" s="279"/>
-      <c r="J71" s="279"/>
-    </row>
-    <row r="72" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H72" s="279"/>
-      <c r="I72" s="279"/>
-      <c r="J72" s="279"/>
-    </row>
-    <row r="73" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H73" s="279"/>
-      <c r="I73" s="279"/>
-      <c r="J73" s="279"/>
-    </row>
-    <row r="74" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H74" s="279"/>
-      <c r="I74" s="279"/>
-      <c r="J74" s="279"/>
-    </row>
-    <row r="75" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H75" s="279"/>
-      <c r="I75" s="279"/>
-      <c r="J75" s="279"/>
-    </row>
-    <row r="76" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H76" s="279"/>
-      <c r="I76" s="279"/>
-      <c r="J76" s="279"/>
-    </row>
-    <row r="77" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H77" s="279"/>
-      <c r="I77" s="279"/>
-      <c r="J77" s="279"/>
-    </row>
-    <row r="78" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H78" s="279"/>
-      <c r="I78" s="279"/>
-      <c r="J78" s="279"/>
-    </row>
-    <row r="79" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H79" s="279"/>
-      <c r="I79" s="279"/>
-      <c r="J79" s="279"/>
-    </row>
-    <row r="80" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H80" s="279"/>
-      <c r="I80" s="279"/>
-      <c r="J80" s="279"/>
-    </row>
-    <row r="81" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H81" s="279"/>
-      <c r="I81" s="279"/>
-      <c r="J81" s="279"/>
-    </row>
-    <row r="82" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H82" s="279"/>
-      <c r="I82" s="279"/>
-      <c r="J82" s="279"/>
-    </row>
-    <row r="83" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H83" s="279"/>
-      <c r="I83" s="279"/>
-      <c r="J83" s="279"/>
-    </row>
-    <row r="84" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H84" s="279"/>
-      <c r="I84" s="279"/>
-      <c r="J84" s="279"/>
-    </row>
-    <row r="85" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H85" s="279"/>
-      <c r="I85" s="279"/>
-      <c r="J85" s="279"/>
-    </row>
-    <row r="86" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H86" s="279"/>
-      <c r="I86" s="279"/>
-      <c r="J86" s="279"/>
-    </row>
-    <row r="87" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H87" s="279"/>
-      <c r="I87" s="279"/>
-      <c r="J87" s="279"/>
-    </row>
-    <row r="88" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H88" s="279"/>
-      <c r="I88" s="279"/>
-      <c r="J88" s="279"/>
-    </row>
-    <row r="89" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H89" s="279"/>
-      <c r="I89" s="279"/>
-      <c r="J89" s="279"/>
-    </row>
-    <row r="90" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H90" s="279"/>
-      <c r="I90" s="279"/>
-      <c r="J90" s="279"/>
-    </row>
-    <row r="91" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H91" s="279"/>
-      <c r="I91" s="279"/>
-      <c r="J91" s="279"/>
-    </row>
-    <row r="92" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H92" s="279"/>
-      <c r="I92" s="279"/>
-      <c r="J92" s="279"/>
+      <c r="I64"/>
+    </row>
+    <row r="65" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I65"/>
+    </row>
+    <row r="66" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I66"/>
+    </row>
+    <row r="67" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I67"/>
+    </row>
+    <row r="68" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I68"/>
+    </row>
+    <row r="69" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I69"/>
+    </row>
+    <row r="70" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I70"/>
+    </row>
+    <row r="71" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I71"/>
+    </row>
+    <row r="72" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I72"/>
+    </row>
+    <row r="73" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I73"/>
+    </row>
+    <row r="74" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I74"/>
+    </row>
+    <row r="75" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I75"/>
+    </row>
+    <row r="76" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I76"/>
+    </row>
+    <row r="77" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I77"/>
+    </row>
+    <row r="78" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I78"/>
+    </row>
+    <row r="79" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I79"/>
+    </row>
+    <row r="80" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I80"/>
+    </row>
+    <row r="81" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I81"/>
+    </row>
+    <row r="82" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I82"/>
+    </row>
+    <row r="83" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I83"/>
+    </row>
+    <row r="84" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I84"/>
+    </row>
+    <row r="85" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I85"/>
+    </row>
+    <row r="86" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I86"/>
+    </row>
+    <row r="87" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I87"/>
+    </row>
+    <row r="88" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I88"/>
+    </row>
+    <row r="89" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I89"/>
+    </row>
+    <row r="90" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I90"/>
+    </row>
+    <row r="91" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I91"/>
+    </row>
+    <row r="92" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I92"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="C49:C54"/>
-    <mergeCell ref="C55:C60"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="J2:L2"/>
     <mergeCell ref="B5:B22"/>
     <mergeCell ref="B24:B41"/>
     <mergeCell ref="B43:B60"/>
@@ -5315,6 +5281,10 @@
     <mergeCell ref="C30:C35"/>
     <mergeCell ref="C36:C41"/>
     <mergeCell ref="C43:C48"/>
+    <mergeCell ref="C49:C54"/>
+    <mergeCell ref="C55:C60"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="J2:L2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5325,8 +5295,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47F3A9D0-E715-4BA0-A12D-1EC62F0BA8AA}">
   <dimension ref="B1:N51"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5337,57 +5307,57 @@
     <col min="5" max="6" width="10.7265625" customWidth="1"/>
     <col min="7" max="8" width="9.26953125" customWidth="1"/>
     <col min="9" max="9" width="10.81640625" customWidth="1"/>
-    <col min="10" max="10" width="0.54296875" style="366" customWidth="1"/>
+    <col min="10" max="10" width="0.54296875" style="323" customWidth="1"/>
     <col min="11" max="14" width="10.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="J1" s="279"/>
+      <c r="J1"/>
     </row>
     <row r="2" spans="2:14" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E2" s="280" t="s">
+      <c r="E2" s="402" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="281"/>
-      <c r="G2" s="281"/>
-      <c r="H2" s="281"/>
-      <c r="I2" s="282"/>
-      <c r="J2" s="367"/>
-      <c r="K2" s="280" t="s">
+      <c r="F2" s="403"/>
+      <c r="G2" s="403"/>
+      <c r="H2" s="403"/>
+      <c r="I2" s="404"/>
+      <c r="J2" s="324"/>
+      <c r="K2" s="402" t="s">
         <v>33</v>
       </c>
-      <c r="L2" s="281"/>
-      <c r="M2" s="281"/>
-      <c r="N2" s="282"/>
+      <c r="L2" s="403"/>
+      <c r="M2" s="403"/>
+      <c r="N2" s="404"/>
     </row>
     <row r="3" spans="2:14" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="260" t="s">
+      <c r="B3" s="421" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="261"/>
-      <c r="D3" s="262"/>
-      <c r="E3" s="283" t="s">
+      <c r="C3" s="422"/>
+      <c r="D3" s="423"/>
+      <c r="E3" s="418" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="282"/>
-      <c r="G3" s="284" t="s">
+      <c r="F3" s="404"/>
+      <c r="G3" s="419" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="285"/>
-      <c r="I3" s="287" t="s">
+      <c r="H3" s="420"/>
+      <c r="I3" s="251" t="s">
         <v>40</v>
       </c>
-      <c r="J3" s="394"/>
-      <c r="K3" s="286" t="s">
+      <c r="J3" s="348"/>
+      <c r="K3" s="250" t="s">
         <v>34</v>
       </c>
-      <c r="L3" s="287" t="s">
+      <c r="L3" s="251" t="s">
         <v>36</v>
       </c>
-      <c r="M3" s="287" t="s">
+      <c r="M3" s="251" t="s">
         <v>53</v>
       </c>
-      <c r="N3" s="287" t="s">
+      <c r="N3" s="251" t="s">
         <v>40</v>
       </c>
     </row>
@@ -5407,16 +5377,16 @@
       <c r="F4" s="146" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="299" t="s">
+      <c r="G4" s="260" t="s">
         <v>10</v>
       </c>
       <c r="H4" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="318" t="s">
+      <c r="I4" s="279" t="s">
         <v>39</v>
       </c>
-      <c r="J4" s="369"/>
+      <c r="J4" s="326"/>
       <c r="K4" s="145" t="s">
         <v>10</v>
       </c>
@@ -5426,15 +5396,15 @@
       <c r="M4" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="N4" s="318" t="s">
+      <c r="N4" s="279" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="5" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="249" t="s">
+      <c r="B5" s="405" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="263" t="s">
+      <c r="C5" s="424" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="151" t="s">
@@ -5452,10 +5422,10 @@
       <c r="H5" s="139">
         <v>0.55000000000000004</v>
       </c>
-      <c r="I5" s="303" t="s">
+      <c r="I5" s="264" t="s">
         <v>48</v>
       </c>
-      <c r="J5" s="370"/>
+      <c r="J5" s="327"/>
       <c r="K5" s="158">
         <v>0.22</v>
       </c>
@@ -5465,13 +5435,13 @@
       <c r="M5" s="96">
         <v>-6.13E-2</v>
       </c>
-      <c r="N5" s="312" t="s">
+      <c r="N5" s="273" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="6" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="250"/>
-      <c r="C6" s="264"/>
+      <c r="B6" s="406"/>
+      <c r="C6" s="425"/>
       <c r="D6" s="151" t="s">
         <v>6</v>
       </c>
@@ -5484,13 +5454,13 @@
       <c r="G6" s="93">
         <v>0.269625</v>
       </c>
-      <c r="H6" s="298">
+      <c r="H6" s="259">
         <v>0.625</v>
       </c>
-      <c r="I6" s="312" t="s">
+      <c r="I6" s="273" t="s">
         <v>42</v>
       </c>
-      <c r="J6" s="370"/>
+      <c r="J6" s="327"/>
       <c r="K6" s="160">
         <v>0.19470000000000001</v>
       </c>
@@ -5500,13 +5470,13 @@
       <c r="M6" s="169">
         <v>-6.25E-2</v>
       </c>
-      <c r="N6" s="312" t="s">
+      <c r="N6" s="273" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="7" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="250"/>
-      <c r="C7" s="264"/>
+      <c r="B7" s="406"/>
+      <c r="C7" s="425"/>
       <c r="D7" s="150" t="s">
         <v>7</v>
       </c>
@@ -5522,10 +5492,10 @@
       <c r="H7" s="136">
         <v>0.5</v>
       </c>
-      <c r="I7" s="305" t="s">
+      <c r="I7" s="266" t="s">
         <v>43</v>
       </c>
-      <c r="J7" s="371"/>
+      <c r="J7" s="328"/>
       <c r="K7" s="161">
         <v>0.19600000000000001</v>
       </c>
@@ -5535,13 +5505,13 @@
       <c r="M7" s="176">
         <v>-9.4600000000000004E-2</v>
       </c>
-      <c r="N7" s="305" t="s">
+      <c r="N7" s="266" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="8" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="250"/>
-      <c r="C8" s="265"/>
+      <c r="B8" s="406"/>
+      <c r="C8" s="426"/>
       <c r="D8" s="152" t="s">
         <v>8</v>
       </c>
@@ -5554,14 +5524,14 @@
       <c r="G8" s="182">
         <v>0.26787499999999997</v>
       </c>
-      <c r="H8" s="297">
+      <c r="H8" s="258">
         <v>0.5</v>
       </c>
-      <c r="I8" s="304" t="s">
+      <c r="I8" s="265" t="s">
         <v>43</v>
       </c>
-      <c r="J8" s="395"/>
-      <c r="K8" s="411">
+      <c r="J8" s="349"/>
+      <c r="K8" s="364">
         <v>0.182</v>
       </c>
       <c r="L8" s="162">
@@ -5570,13 +5540,13 @@
       <c r="M8" s="171">
         <v>-6.2700000000000006E-2</v>
       </c>
-      <c r="N8" s="406" t="s">
+      <c r="N8" s="359" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="9" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="250"/>
-      <c r="C9" s="246" t="s">
+      <c r="B9" s="406"/>
+      <c r="C9" s="400" t="s">
         <v>3</v>
       </c>
       <c r="D9" s="151" t="s">
@@ -5594,10 +5564,10 @@
       <c r="H9" s="139">
         <v>0.47499999999999998</v>
       </c>
-      <c r="I9" s="312" t="s">
+      <c r="I9" s="273" t="s">
         <v>43</v>
       </c>
-      <c r="J9" s="370"/>
+      <c r="J9" s="327"/>
       <c r="K9" s="168">
         <v>0.22900000000000001</v>
       </c>
@@ -5607,33 +5577,33 @@
       <c r="M9" s="96">
         <v>-7.5800000000000006E-2</v>
       </c>
-      <c r="N9" s="312" t="s">
+      <c r="N9" s="273" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="10" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="250"/>
-      <c r="C10" s="247"/>
+      <c r="B10" s="406"/>
+      <c r="C10" s="398"/>
       <c r="D10" s="150" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="417">
+      <c r="E10" s="370">
         <v>0.61275000000000002</v>
       </c>
       <c r="F10" s="90">
         <v>1.1499999999999999</v>
       </c>
-      <c r="G10" s="410">
+      <c r="G10" s="363">
         <v>0.20574999999999999</v>
       </c>
       <c r="H10" s="234">
         <v>0.47499999999999998</v>
       </c>
-      <c r="I10" s="354" t="s">
+      <c r="I10" s="311" t="s">
         <v>49</v>
       </c>
-      <c r="J10" s="374"/>
-      <c r="K10" s="412">
+      <c r="J10" s="331"/>
+      <c r="K10" s="365">
         <v>0.182</v>
       </c>
       <c r="L10" s="172">
@@ -5642,13 +5612,13 @@
       <c r="M10" s="170">
         <v>-8.2600000000000007E-2</v>
       </c>
-      <c r="N10" s="308" t="s">
+      <c r="N10" s="269" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="11" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="250"/>
-      <c r="C11" s="256"/>
+      <c r="B11" s="406"/>
+      <c r="C11" s="399"/>
       <c r="D11" s="152" t="s">
         <v>8</v>
       </c>
@@ -5661,13 +5631,13 @@
       <c r="G11" s="107">
         <v>0.25362499999999999</v>
       </c>
-      <c r="H11" s="400">
+      <c r="H11" s="354">
         <v>0.625</v>
       </c>
-      <c r="I11" s="306" t="s">
+      <c r="I11" s="267" t="s">
         <v>48</v>
       </c>
-      <c r="J11" s="373"/>
+      <c r="J11" s="330"/>
       <c r="K11" s="162">
         <v>0.20100000000000001</v>
       </c>
@@ -5677,13 +5647,13 @@
       <c r="M11" s="171">
         <v>-7.4300000000000005E-2</v>
       </c>
-      <c r="N11" s="306" t="s">
+      <c r="N11" s="267" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="12" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="250"/>
-      <c r="C12" s="246" t="s">
+      <c r="B12" s="406"/>
+      <c r="C12" s="400" t="s">
         <v>18</v>
       </c>
       <c r="D12" s="151" t="s">
@@ -5701,26 +5671,26 @@
       <c r="H12" s="141">
         <v>0.42499999999999999</v>
       </c>
-      <c r="I12" s="307" t="s">
+      <c r="I12" s="268" t="s">
         <v>43</v>
       </c>
-      <c r="J12" s="375"/>
+      <c r="J12" s="332"/>
       <c r="K12" s="164">
         <v>0.222</v>
       </c>
-      <c r="L12" s="413">
+      <c r="L12" s="366">
         <v>6.9699999999999996E-3</v>
       </c>
       <c r="M12" s="96">
         <v>-0.06</v>
       </c>
-      <c r="N12" s="356" t="s">
+      <c r="N12" s="313" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="13" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="250"/>
-      <c r="C13" s="247"/>
+      <c r="B13" s="406"/>
+      <c r="C13" s="398"/>
       <c r="D13" s="150" t="s">
         <v>17</v>
       </c>
@@ -5733,13 +5703,13 @@
       <c r="G13" s="97">
         <v>0.249</v>
       </c>
-      <c r="H13" s="415">
+      <c r="H13" s="368">
         <v>0.38800000000000001</v>
       </c>
-      <c r="I13" s="308" t="s">
+      <c r="I13" s="269" t="s">
         <v>41</v>
       </c>
-      <c r="J13" s="374"/>
+      <c r="J13" s="331"/>
       <c r="K13" s="166">
         <v>0.221</v>
       </c>
@@ -5749,32 +5719,32 @@
       <c r="M13" s="100">
         <v>-5.9799999999999999E-2</v>
       </c>
-      <c r="N13" s="308" t="s">
+      <c r="N13" s="269" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="14" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="250"/>
-      <c r="C14" s="247"/>
+      <c r="B14" s="406"/>
+      <c r="C14" s="398"/>
       <c r="D14" s="150" t="s">
         <v>7</v>
       </c>
       <c r="E14" s="130">
         <v>0.67600000000000005</v>
       </c>
-      <c r="F14" s="416">
+      <c r="F14" s="369">
         <v>0.97499999999999998</v>
       </c>
       <c r="G14" s="116">
         <v>0.221</v>
       </c>
-      <c r="H14" s="415">
+      <c r="H14" s="368">
         <v>0.38800000000000001</v>
       </c>
-      <c r="I14" s="354" t="s">
+      <c r="I14" s="311" t="s">
         <v>49</v>
       </c>
-      <c r="J14" s="374"/>
+      <c r="J14" s="331"/>
       <c r="K14" s="166">
         <v>0.19600000000000001</v>
       </c>
@@ -5784,13 +5754,13 @@
       <c r="M14" s="170">
         <v>-7.0900000000000005E-2</v>
       </c>
-      <c r="N14" s="308" t="s">
+      <c r="N14" s="269" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="15" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="250"/>
-      <c r="C15" s="247"/>
+      <c r="B15" s="406"/>
+      <c r="C15" s="398"/>
       <c r="D15" s="150" t="s">
         <v>8</v>
       </c>
@@ -5806,11 +5776,11 @@
       <c r="H15" s="141">
         <v>0.4</v>
       </c>
-      <c r="I15" s="307" t="s">
+      <c r="I15" s="268" t="s">
         <v>43</v>
       </c>
-      <c r="J15" s="375"/>
-      <c r="K15" s="413">
+      <c r="J15" s="332"/>
+      <c r="K15" s="366">
         <v>0.182</v>
       </c>
       <c r="L15" s="164">
@@ -5819,13 +5789,13 @@
       <c r="M15" s="170">
         <v>-6.3799999999999996E-2</v>
       </c>
-      <c r="N15" s="307" t="s">
+      <c r="N15" s="268" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="16" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="251"/>
-      <c r="C16" s="256"/>
+      <c r="B16" s="407"/>
+      <c r="C16" s="399"/>
       <c r="D16" s="152" t="s">
         <v>9</v>
       </c>
@@ -5841,20 +5811,20 @@
       <c r="H16" s="144">
         <v>0.45</v>
       </c>
-      <c r="I16" s="306" t="s">
+      <c r="I16" s="267" t="s">
         <v>43</v>
       </c>
-      <c r="J16" s="373"/>
+      <c r="J16" s="330"/>
       <c r="K16" s="167">
         <v>0.20799999999999999</v>
       </c>
       <c r="L16" s="167">
         <v>-0.20200000000000001</v>
       </c>
-      <c r="M16" s="414">
+      <c r="M16" s="367">
         <v>-4.0599999999999997E-2</v>
       </c>
-      <c r="N16" s="338" t="s">
+      <c r="N16" s="295" t="s">
         <v>41</v>
       </c>
     </row>
@@ -5866,18 +5836,18 @@
       <c r="F17" s="211"/>
       <c r="G17" s="210"/>
       <c r="H17" s="211"/>
-      <c r="I17" s="402"/>
+      <c r="I17" s="355"/>
       <c r="J17" s="213"/>
       <c r="K17" s="212"/>
       <c r="L17" s="213"/>
       <c r="M17" s="212"/>
-      <c r="N17" s="402"/>
+      <c r="N17" s="355"/>
     </row>
     <row r="18" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="249" t="s">
+      <c r="B18" s="405" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="264" t="s">
+      <c r="C18" s="425" t="s">
         <v>2</v>
       </c>
       <c r="D18" s="222" t="s">
@@ -5895,10 +5865,10 @@
       <c r="H18" s="133">
         <v>0.57499999999999996</v>
       </c>
-      <c r="I18" s="303" t="s">
+      <c r="I18" s="264" t="s">
         <v>46</v>
       </c>
-      <c r="J18" s="396"/>
+      <c r="J18" s="350"/>
       <c r="K18" s="158">
         <v>0.216</v>
       </c>
@@ -5908,13 +5878,13 @@
       <c r="M18" s="88">
         <v>-0.10299999999999999</v>
       </c>
-      <c r="N18" s="303" t="s">
+      <c r="N18" s="264" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="19" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="250"/>
-      <c r="C19" s="265"/>
+      <c r="B19" s="406"/>
+      <c r="C19" s="426"/>
       <c r="D19" s="223" t="s">
         <v>8</v>
       </c>
@@ -5927,13 +5897,13 @@
       <c r="G19" s="124">
         <v>0.2445</v>
       </c>
-      <c r="H19" s="297">
+      <c r="H19" s="258">
         <v>0.5</v>
       </c>
-      <c r="I19" s="304" t="s">
+      <c r="I19" s="265" t="s">
         <v>43</v>
       </c>
-      <c r="J19" s="395"/>
+      <c r="J19" s="349"/>
       <c r="K19" s="162">
         <v>0.157</v>
       </c>
@@ -5943,13 +5913,13 @@
       <c r="M19" s="156">
         <v>-0.112</v>
       </c>
-      <c r="N19" s="304" t="s">
+      <c r="N19" s="265" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="20" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="250"/>
-      <c r="C20" s="266" t="s">
+      <c r="B20" s="406"/>
+      <c r="C20" s="427" t="s">
         <v>3</v>
       </c>
       <c r="D20" s="224" t="s">
@@ -5967,10 +5937,10 @@
       <c r="H20" s="134">
         <v>0.375</v>
       </c>
-      <c r="I20" s="305" t="s">
+      <c r="I20" s="266" t="s">
         <v>43</v>
       </c>
-      <c r="J20" s="371"/>
+      <c r="J20" s="328"/>
       <c r="K20" s="159">
         <v>0.17100000000000001</v>
       </c>
@@ -5980,48 +5950,48 @@
       <c r="M20" s="177">
         <v>-0.161</v>
       </c>
-      <c r="N20" s="305" t="s">
+      <c r="N20" s="266" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="21" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="250"/>
-      <c r="C21" s="264"/>
+      <c r="B21" s="406"/>
+      <c r="C21" s="425"/>
       <c r="D21" s="222" t="s">
         <v>7</v>
       </c>
-      <c r="E21" s="418">
+      <c r="E21" s="371">
         <v>0.41112500000000002</v>
       </c>
       <c r="F21" s="100">
         <v>0.95</v>
       </c>
-      <c r="G21" s="420">
+      <c r="G21" s="373">
         <v>0.144625</v>
       </c>
       <c r="H21" s="136">
         <v>0.375</v>
       </c>
-      <c r="I21" s="315" t="s">
+      <c r="I21" s="276" t="s">
         <v>49</v>
       </c>
-      <c r="J21" s="371"/>
+      <c r="J21" s="328"/>
       <c r="K21" s="161">
         <v>0.14499999999999999</v>
       </c>
-      <c r="L21" s="422">
+      <c r="L21" s="375">
         <v>5.7599999999999998E-2</v>
       </c>
       <c r="M21" s="155">
         <v>-0.14299999999999999</v>
       </c>
-      <c r="N21" s="315" t="s">
+      <c r="N21" s="276" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="22" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="250"/>
-      <c r="C22" s="264"/>
+      <c r="B22" s="406"/>
+      <c r="C22" s="425"/>
       <c r="D22" s="222" t="s">
         <v>8</v>
       </c>
@@ -6037,11 +6007,11 @@
       <c r="H22" s="234">
         <v>0.45</v>
       </c>
-      <c r="I22" s="308" t="s">
+      <c r="I22" s="269" t="s">
         <v>43</v>
       </c>
-      <c r="J22" s="374"/>
-      <c r="K22" s="412">
+      <c r="J22" s="331"/>
+      <c r="K22" s="365">
         <v>0.106</v>
       </c>
       <c r="L22" s="113">
@@ -6050,13 +6020,13 @@
       <c r="M22" s="155">
         <v>-0.11</v>
       </c>
-      <c r="N22" s="354" t="s">
+      <c r="N22" s="311" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="23" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="250"/>
-      <c r="C23" s="265"/>
+      <c r="B23" s="406"/>
+      <c r="C23" s="426"/>
       <c r="D23" s="223" t="s">
         <v>9</v>
       </c>
@@ -6072,26 +6042,26 @@
       <c r="H23" s="235">
         <v>0.4</v>
       </c>
-      <c r="I23" s="306" t="s">
+      <c r="I23" s="267" t="s">
         <v>43</v>
       </c>
-      <c r="J23" s="373"/>
+      <c r="J23" s="330"/>
       <c r="K23" s="162">
         <v>0.11899999999999999</v>
       </c>
       <c r="L23" s="108">
         <v>-0.28699999999999998</v>
       </c>
-      <c r="M23" s="423">
+      <c r="M23" s="376">
         <v>-9.4700000000000006E-2</v>
       </c>
-      <c r="N23" s="338" t="s">
+      <c r="N23" s="295" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="24" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="250"/>
-      <c r="C24" s="266" t="s">
+      <c r="B24" s="406"/>
+      <c r="C24" s="427" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="224" t="s">
@@ -6106,13 +6076,13 @@
       <c r="G24" s="205">
         <v>0.20899999999999999</v>
       </c>
-      <c r="H24" s="421">
+      <c r="H24" s="374">
         <v>0.35</v>
       </c>
-      <c r="I24" s="403" t="s">
+      <c r="I24" s="356" t="s">
         <v>41</v>
       </c>
-      <c r="J24" s="397"/>
+      <c r="J24" s="351"/>
       <c r="K24" s="206">
         <v>0.23100000000000001</v>
       </c>
@@ -6122,20 +6092,20 @@
       <c r="M24" s="208">
         <v>-0.129</v>
       </c>
-      <c r="N24" s="407" t="s">
+      <c r="N24" s="360" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="25" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="251"/>
-      <c r="C25" s="265"/>
+      <c r="B25" s="407"/>
+      <c r="C25" s="426"/>
       <c r="D25" s="223" t="s">
         <v>7</v>
       </c>
       <c r="E25" s="148">
         <v>0.496</v>
       </c>
-      <c r="F25" s="419">
+      <c r="F25" s="372">
         <v>0.89200000000000002</v>
       </c>
       <c r="G25" s="148">
@@ -6144,10 +6114,10 @@
       <c r="H25" s="219">
         <v>0.35799999999999998</v>
       </c>
-      <c r="I25" s="309" t="s">
+      <c r="I25" s="270" t="s">
         <v>41</v>
       </c>
-      <c r="J25" s="398"/>
+      <c r="J25" s="352"/>
       <c r="K25" s="227">
         <v>0.16</v>
       </c>
@@ -6157,30 +6127,30 @@
       <c r="M25" s="221">
         <v>-0.126</v>
       </c>
-      <c r="N25" s="309" t="s">
+      <c r="N25" s="270" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="26" spans="2:14" ht="2" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B26" s="214"/>
-      <c r="C26" s="259"/>
-      <c r="D26" s="258"/>
-      <c r="E26" s="257"/>
-      <c r="F26" s="258"/>
-      <c r="G26" s="257"/>
-      <c r="H26" s="401"/>
-      <c r="I26" s="404"/>
-      <c r="J26" s="393"/>
+      <c r="C26" s="417"/>
+      <c r="D26" s="415"/>
+      <c r="E26" s="414"/>
+      <c r="F26" s="415"/>
+      <c r="G26" s="414"/>
+      <c r="H26" s="416"/>
+      <c r="I26" s="357"/>
+      <c r="J26" s="347"/>
       <c r="K26" s="203"/>
       <c r="L26" s="215"/>
       <c r="M26" s="215"/>
-      <c r="N26" s="404"/>
+      <c r="N26" s="357"/>
     </row>
     <row r="27" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="249" t="s">
+      <c r="B27" s="405" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="255" t="s">
+      <c r="C27" s="397" t="s">
         <v>2</v>
       </c>
       <c r="D27" s="228" t="s">
@@ -6198,10 +6168,10 @@
       <c r="H27" s="133">
         <v>0.52500000000000002</v>
       </c>
-      <c r="I27" s="303" t="s">
+      <c r="I27" s="264" t="s">
         <v>46</v>
       </c>
-      <c r="J27" s="377"/>
+      <c r="J27" s="334"/>
       <c r="K27" s="158">
         <v>0.20399999999999999</v>
       </c>
@@ -6211,13 +6181,13 @@
       <c r="M27" s="88">
         <v>-0.126</v>
       </c>
-      <c r="N27" s="303" t="s">
+      <c r="N27" s="264" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="28" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="250"/>
-      <c r="C28" s="247"/>
+      <c r="B28" s="406"/>
+      <c r="C28" s="398"/>
       <c r="D28" s="222" t="s">
         <v>17</v>
       </c>
@@ -6233,10 +6203,10 @@
       <c r="H28" s="134">
         <v>0.42499999999999999</v>
       </c>
-      <c r="I28" s="305" t="s">
+      <c r="I28" s="266" t="s">
         <v>43</v>
       </c>
-      <c r="J28" s="378"/>
+      <c r="J28" s="335"/>
       <c r="K28" s="173">
         <v>0.21199999999999999</v>
       </c>
@@ -6246,13 +6216,13 @@
       <c r="M28" s="90">
         <v>-0.14599999999999999</v>
       </c>
-      <c r="N28" s="305" t="s">
+      <c r="N28" s="266" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="29" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="250"/>
-      <c r="C29" s="247"/>
+      <c r="B29" s="406"/>
+      <c r="C29" s="398"/>
       <c r="D29" s="222" t="s">
         <v>7</v>
       </c>
@@ -6268,10 +6238,10 @@
       <c r="H29" s="136">
         <v>0.42499999999999999</v>
       </c>
-      <c r="I29" s="305" t="s">
+      <c r="I29" s="266" t="s">
         <v>43</v>
       </c>
-      <c r="J29" s="378"/>
+      <c r="J29" s="335"/>
       <c r="K29" s="161">
         <v>0.13900000000000001</v>
       </c>
@@ -6281,13 +6251,13 @@
       <c r="M29" s="155">
         <v>-0.14699999999999999</v>
       </c>
-      <c r="N29" s="305" t="s">
+      <c r="N29" s="266" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="30" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="250"/>
-      <c r="C30" s="256"/>
+      <c r="B30" s="406"/>
+      <c r="C30" s="399"/>
       <c r="D30" s="223" t="s">
         <v>9</v>
       </c>
@@ -6303,47 +6273,47 @@
       <c r="H30" s="138">
         <v>0.4</v>
       </c>
-      <c r="I30" s="311" t="s">
+      <c r="I30" s="272" t="s">
         <v>43</v>
       </c>
-      <c r="J30" s="387"/>
+      <c r="J30" s="344"/>
       <c r="K30" s="162">
         <v>0.11</v>
       </c>
       <c r="L30" s="108">
         <v>-0.22</v>
       </c>
-      <c r="M30" s="423">
+      <c r="M30" s="376">
         <v>-0.11700000000000001</v>
       </c>
-      <c r="N30" s="314" t="s">
+      <c r="N30" s="275" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="31" spans="2:14" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B31" s="250"/>
+      <c r="B31" s="406"/>
       <c r="C31" s="240" t="s">
         <v>3</v>
       </c>
       <c r="D31" s="183" t="s">
         <v>7</v>
       </c>
-      <c r="E31" s="426">
+      <c r="E31" s="379">
         <v>0.29025000000000001</v>
       </c>
       <c r="F31" s="180">
         <v>0.8</v>
       </c>
-      <c r="G31" s="425">
+      <c r="G31" s="378">
         <v>0.113125</v>
       </c>
       <c r="H31" s="187">
         <v>0.32500000000000001</v>
       </c>
-      <c r="I31" s="409" t="s">
+      <c r="I31" s="362" t="s">
         <v>49</v>
       </c>
-      <c r="J31" s="399"/>
+      <c r="J31" s="353"/>
       <c r="K31" s="181">
         <v>0.127</v>
       </c>
@@ -6353,13 +6323,13 @@
       <c r="M31" s="188">
         <v>-0.20200000000000001</v>
       </c>
-      <c r="N31" s="405" t="s">
+      <c r="N31" s="358" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="32" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="250"/>
-      <c r="C32" s="246" t="s">
+      <c r="B32" s="406"/>
+      <c r="C32" s="400" t="s">
         <v>18</v>
       </c>
       <c r="D32" s="84" t="s">
@@ -6377,45 +6347,45 @@
       <c r="H32" s="142">
         <v>0.375</v>
       </c>
-      <c r="I32" s="308" t="s">
+      <c r="I32" s="269" t="s">
         <v>45</v>
       </c>
-      <c r="J32" s="379"/>
+      <c r="J32" s="336"/>
       <c r="K32" s="166">
         <v>0.13600000000000001</v>
       </c>
-      <c r="L32" s="422">
+      <c r="L32" s="375">
         <v>-7.7299999999999994E-2</v>
       </c>
       <c r="M32" s="154">
         <v>-0.14899999999999999</v>
       </c>
-      <c r="N32" s="354" t="s">
+      <c r="N32" s="311" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="33" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="250"/>
-      <c r="C33" s="247"/>
+      <c r="B33" s="406"/>
+      <c r="C33" s="398"/>
       <c r="D33" s="83" t="s">
         <v>7</v>
       </c>
       <c r="E33" s="129">
         <v>0.35199999999999998</v>
       </c>
-      <c r="F33" s="416">
+      <c r="F33" s="369">
         <v>0.74199999999999999</v>
       </c>
       <c r="G33" s="117">
         <v>0.128</v>
       </c>
-      <c r="H33" s="415">
+      <c r="H33" s="368">
         <v>0.317</v>
       </c>
-      <c r="I33" s="354" t="s">
+      <c r="I33" s="311" t="s">
         <v>49</v>
       </c>
-      <c r="J33" s="379"/>
+      <c r="J33" s="336"/>
       <c r="K33" s="166">
         <v>0.13700000000000001</v>
       </c>
@@ -6425,13 +6395,13 @@
       <c r="M33" s="155">
         <v>-0.17899999999999999</v>
       </c>
-      <c r="N33" s="308" t="s">
+      <c r="N33" s="269" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="34" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="251"/>
-      <c r="C34" s="248"/>
+      <c r="B34" s="407"/>
+      <c r="C34" s="401"/>
       <c r="D34" s="217" t="s">
         <v>9</v>
       </c>
@@ -6447,11 +6417,11 @@
       <c r="H34" s="219">
         <v>0.375</v>
       </c>
-      <c r="I34" s="309" t="s">
+      <c r="I34" s="270" t="s">
         <v>43</v>
       </c>
-      <c r="J34" s="385"/>
-      <c r="K34" s="424">
+      <c r="J34" s="342"/>
+      <c r="K34" s="377">
         <v>9.7000000000000003E-2</v>
       </c>
       <c r="L34" s="220">
@@ -6460,122 +6430,63 @@
       <c r="M34" s="221">
         <v>-0.13300000000000001</v>
       </c>
-      <c r="N34" s="408" t="s">
+      <c r="N34" s="361" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="H35" s="279"/>
-      <c r="I35" s="279"/>
-      <c r="J35" s="279"/>
-      <c r="K35" s="279"/>
+      <c r="J35"/>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="H36" s="279"/>
-      <c r="I36" s="279"/>
-      <c r="J36" s="279"/>
-      <c r="K36" s="279"/>
+      <c r="J36"/>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="H37" s="279"/>
-      <c r="I37" s="279"/>
-      <c r="J37" s="279"/>
-      <c r="K37" s="279"/>
+      <c r="J37"/>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="H38" s="279"/>
-      <c r="I38" s="279"/>
-      <c r="J38" s="279"/>
-      <c r="K38" s="279"/>
+      <c r="J38"/>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="H39" s="279"/>
-      <c r="I39" s="279"/>
-      <c r="J39" s="279"/>
-      <c r="K39" s="279"/>
+      <c r="J39"/>
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="H40" s="279"/>
-      <c r="I40" s="279"/>
-      <c r="J40" s="279"/>
-      <c r="K40" s="279"/>
+      <c r="J40"/>
     </row>
     <row r="41" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="H41" s="279"/>
-      <c r="I41" s="279"/>
-      <c r="J41" s="279"/>
-      <c r="K41" s="279"/>
+      <c r="J41"/>
     </row>
     <row r="42" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="H42" s="279"/>
-      <c r="I42" s="279"/>
-      <c r="J42" s="279"/>
-      <c r="K42" s="279"/>
+      <c r="J42"/>
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="H43" s="279"/>
-      <c r="I43" s="279"/>
-      <c r="J43" s="279"/>
-      <c r="K43" s="279"/>
+      <c r="J43"/>
     </row>
     <row r="44" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="H44" s="279"/>
-      <c r="I44" s="279"/>
-      <c r="J44" s="279"/>
-      <c r="K44" s="279"/>
+      <c r="J44"/>
     </row>
     <row r="45" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="H45" s="279"/>
-      <c r="I45" s="279"/>
-      <c r="J45" s="279"/>
-      <c r="K45" s="279"/>
+      <c r="J45"/>
     </row>
     <row r="46" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="H46" s="279"/>
-      <c r="I46" s="279"/>
-      <c r="J46" s="279"/>
-      <c r="K46" s="279"/>
+      <c r="J46"/>
     </row>
     <row r="47" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="H47" s="279"/>
-      <c r="I47" s="279"/>
-      <c r="J47" s="279"/>
-      <c r="K47" s="279"/>
+      <c r="J47"/>
     </row>
     <row r="48" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="H48" s="279"/>
-      <c r="I48" s="279"/>
-      <c r="J48" s="279"/>
-      <c r="K48" s="279"/>
-    </row>
-    <row r="49" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H49" s="279"/>
-      <c r="I49" s="279"/>
-      <c r="J49" s="279"/>
-      <c r="K49" s="279"/>
-    </row>
-    <row r="50" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H50" s="279"/>
-      <c r="I50" s="279"/>
-      <c r="J50" s="279"/>
-      <c r="K50" s="279"/>
-    </row>
-    <row r="51" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H51" s="279"/>
-      <c r="I51" s="279"/>
-      <c r="J51" s="279"/>
-      <c r="K51" s="279"/>
+      <c r="J48"/>
+    </row>
+    <row r="49" spans="10:10" x14ac:dyDescent="0.35">
+      <c r="J49"/>
+    </row>
+    <row r="50" spans="10:10" x14ac:dyDescent="0.35">
+      <c r="J50"/>
+    </row>
+    <row r="51" spans="10:10" x14ac:dyDescent="0.35">
+      <c r="J51"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B18:B25"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="B5:B16"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="C5:C8"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C12:C16"/>
     <mergeCell ref="C18:C19"/>
     <mergeCell ref="C20:C23"/>
     <mergeCell ref="C24:C25"/>
@@ -6587,6 +6498,14 @@
     <mergeCell ref="E26:F26"/>
     <mergeCell ref="G26:H26"/>
     <mergeCell ref="C26:D26"/>
+    <mergeCell ref="B18:B25"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="B5:B16"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="C5:C8"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C12:C16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6594,11 +6513,756 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B6757E6-FE7D-4C1B-B985-36D8C117B1C1}">
+  <dimension ref="B1:N57"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="89" zoomScaleNormal="100" zoomScaleSheetLayoutView="50" zoomScalePageLayoutView="40" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="17.54296875" customWidth="1"/>
+    <col min="2" max="2" width="11.26953125" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" customWidth="1"/>
+    <col min="5" max="5" width="6.6328125" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="7" max="7" width="13.26953125" customWidth="1"/>
+    <col min="8" max="8" width="10.1796875" customWidth="1"/>
+    <col min="9" max="9" width="12.54296875" customWidth="1"/>
+    <col min="10" max="10" width="0.36328125" style="323" customWidth="1"/>
+    <col min="11" max="11" width="12.54296875" customWidth="1"/>
+    <col min="12" max="12" width="12.81640625" customWidth="1"/>
+    <col min="13" max="13" width="11.81640625" customWidth="1"/>
+    <col min="14" max="14" width="12.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J1"/>
+    </row>
+    <row r="2" spans="2:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F2" s="402" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="403"/>
+      <c r="H2" s="403"/>
+      <c r="I2" s="404"/>
+      <c r="J2" s="324"/>
+      <c r="K2" s="402" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" s="403"/>
+      <c r="M2" s="404"/>
+    </row>
+    <row r="3" spans="2:14" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="421" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="422"/>
+      <c r="D3" s="422"/>
+      <c r="E3" s="422"/>
+      <c r="F3" s="408" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="409"/>
+      <c r="H3" s="410" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="409"/>
+      <c r="J3" s="325"/>
+      <c r="K3" s="250" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" s="251" t="s">
+        <v>37</v>
+      </c>
+      <c r="M3" s="251" t="s">
+        <v>38</v>
+      </c>
+      <c r="N3" s="178"/>
+    </row>
+    <row r="4" spans="2:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B4" s="201" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="464" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="439" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="439" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" s="200" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="146" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="260" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="82" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="326"/>
+      <c r="K4" s="145" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="82" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" s="82" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="77"/>
+    </row>
+    <row r="5" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B5" s="406" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="398" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="438" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="440" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="458">
+        <v>0.61275000000000002</v>
+      </c>
+      <c r="G5" s="90">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="H5" s="460">
+        <v>0.20574999999999999</v>
+      </c>
+      <c r="I5" s="113">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="J5" s="331"/>
+      <c r="K5" s="462">
+        <v>0.182</v>
+      </c>
+      <c r="L5" s="172">
+        <v>0.51200000000000001</v>
+      </c>
+      <c r="M5" s="170">
+        <v>-8.2600000000000007E-2</v>
+      </c>
+      <c r="N5" s="79"/>
+    </row>
+    <row r="6" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B6" s="406"/>
+      <c r="C6" s="399"/>
+      <c r="D6" s="444" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="445" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" s="447"/>
+      <c r="G6" s="448"/>
+      <c r="H6" s="449"/>
+      <c r="I6" s="450"/>
+      <c r="J6" s="330"/>
+      <c r="K6" s="451"/>
+      <c r="L6" s="451"/>
+      <c r="M6" s="452"/>
+      <c r="N6" s="79"/>
+    </row>
+    <row r="7" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="406"/>
+      <c r="C7" s="400" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="438" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="440" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" s="128">
+        <v>0.80900000000000005</v>
+      </c>
+      <c r="G7" s="92">
+        <v>1.08</v>
+      </c>
+      <c r="H7" s="91">
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="I7" s="92">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="J7" s="332"/>
+      <c r="K7" s="164">
+        <v>0.222</v>
+      </c>
+      <c r="L7" s="454">
+        <v>6.9699999999999996E-3</v>
+      </c>
+      <c r="M7" s="96">
+        <v>-0.06</v>
+      </c>
+      <c r="N7" s="179"/>
+    </row>
+    <row r="8" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="406"/>
+      <c r="C8" s="398"/>
+      <c r="D8" s="437" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="441" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="130"/>
+      <c r="G8" s="98"/>
+      <c r="H8" s="97"/>
+      <c r="I8" s="453"/>
+      <c r="J8" s="331"/>
+      <c r="K8" s="166"/>
+      <c r="L8" s="166"/>
+      <c r="M8" s="100"/>
+      <c r="N8" s="79"/>
+    </row>
+    <row r="9" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="406"/>
+      <c r="C9" s="398"/>
+      <c r="D9" s="437" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="441" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="130">
+        <v>0.67600000000000005</v>
+      </c>
+      <c r="G9" s="453">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="H9" s="116">
+        <v>0.221</v>
+      </c>
+      <c r="I9" s="453">
+        <v>0.38800000000000001</v>
+      </c>
+      <c r="J9" s="331"/>
+      <c r="K9" s="166">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="L9" s="166">
+        <v>3.44E-2</v>
+      </c>
+      <c r="M9" s="170">
+        <v>-7.0900000000000005E-2</v>
+      </c>
+      <c r="N9" s="79"/>
+    </row>
+    <row r="10" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B10" s="407"/>
+      <c r="C10" s="401"/>
+      <c r="D10" s="442" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="443" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="130"/>
+      <c r="G10" s="453"/>
+      <c r="H10" s="455"/>
+      <c r="I10" s="453"/>
+      <c r="J10" s="331"/>
+      <c r="K10" s="166"/>
+      <c r="L10" s="166"/>
+      <c r="M10" s="170"/>
+      <c r="N10" s="79"/>
+    </row>
+    <row r="11" spans="2:14" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="465"/>
+      <c r="C11" s="466"/>
+      <c r="D11" s="463"/>
+      <c r="E11" s="463"/>
+      <c r="F11" s="229"/>
+      <c r="G11" s="229"/>
+      <c r="H11" s="229"/>
+      <c r="I11" s="229"/>
+      <c r="J11" s="229"/>
+      <c r="K11" s="229"/>
+      <c r="L11" s="229"/>
+      <c r="M11" s="233"/>
+    </row>
+    <row r="12" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="406" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="398" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="83" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="441" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" s="459">
+        <v>0.41112500000000002</v>
+      </c>
+      <c r="G12" s="100">
+        <v>0.95</v>
+      </c>
+      <c r="H12" s="461">
+        <v>0.144625</v>
+      </c>
+      <c r="I12" s="136">
+        <v>0.375</v>
+      </c>
+      <c r="J12" s="335"/>
+      <c r="K12" s="161">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="L12" s="457">
+        <v>5.7599999999999998E-2</v>
+      </c>
+      <c r="M12" s="161">
+        <v>-0.14299999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="406"/>
+      <c r="C13" s="399"/>
+      <c r="D13" s="85" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="445" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="131"/>
+      <c r="G13" s="108"/>
+      <c r="H13" s="124"/>
+      <c r="I13" s="235"/>
+      <c r="J13" s="340"/>
+      <c r="K13" s="162"/>
+      <c r="L13" s="167"/>
+      <c r="M13" s="451"/>
+    </row>
+    <row r="14" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="406"/>
+      <c r="C14" s="400" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="84" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="467" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="127">
+        <v>0.70399999999999996</v>
+      </c>
+      <c r="G14" s="92">
+        <v>1.01</v>
+      </c>
+      <c r="H14" s="127">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="I14" s="141">
+        <v>0.438</v>
+      </c>
+      <c r="J14" s="341"/>
+      <c r="K14" s="164">
+        <v>0.215</v>
+      </c>
+      <c r="L14" s="164">
+        <v>-2.46E-2</v>
+      </c>
+      <c r="M14" s="163">
+        <v>-0.11600000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="406"/>
+      <c r="C15" s="398"/>
+      <c r="D15" s="84" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="441" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="129"/>
+      <c r="G15" s="98"/>
+      <c r="H15" s="129"/>
+      <c r="I15" s="456"/>
+      <c r="J15" s="336"/>
+      <c r="K15" s="457"/>
+      <c r="L15" s="166"/>
+      <c r="M15" s="159"/>
+    </row>
+    <row r="16" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="406"/>
+      <c r="C16" s="398"/>
+      <c r="D16" s="83" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="441" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" s="129">
+        <v>0.66800000000000004</v>
+      </c>
+      <c r="G16" s="98">
+        <v>1.06</v>
+      </c>
+      <c r="H16" s="129">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="I16" s="142">
+        <v>0.41199999999999998</v>
+      </c>
+      <c r="J16" s="341"/>
+      <c r="K16" s="164">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="L16" s="164">
+        <v>-0.188</v>
+      </c>
+      <c r="M16" s="161">
+        <v>-0.111</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="406"/>
+      <c r="C17" s="398"/>
+      <c r="D17" s="83" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="441" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" s="129"/>
+      <c r="G17" s="453"/>
+      <c r="H17" s="129"/>
+      <c r="I17" s="142"/>
+      <c r="J17" s="336"/>
+      <c r="K17" s="166"/>
+      <c r="L17" s="166"/>
+      <c r="M17" s="161"/>
+    </row>
+    <row r="18" spans="2:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B18" s="406"/>
+      <c r="C18" s="398"/>
+      <c r="D18" s="83" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="443" t="s">
+        <v>57</v>
+      </c>
+      <c r="F18" s="129"/>
+      <c r="G18" s="98"/>
+      <c r="H18" s="129"/>
+      <c r="I18" s="142"/>
+      <c r="J18" s="341"/>
+      <c r="K18" s="164"/>
+      <c r="L18" s="164"/>
+      <c r="M18" s="161"/>
+    </row>
+    <row r="19" spans="2:13" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="191"/>
+      <c r="C19" s="197"/>
+      <c r="D19" s="198"/>
+      <c r="E19" s="198"/>
+      <c r="F19" s="198"/>
+      <c r="G19" s="198"/>
+      <c r="H19" s="198"/>
+      <c r="I19" s="198"/>
+      <c r="J19" s="198"/>
+      <c r="K19" s="198"/>
+      <c r="L19" s="198"/>
+      <c r="M19" s="199"/>
+    </row>
+    <row r="20" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="405" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="397" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="238" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="470" t="s">
+        <v>55</v>
+      </c>
+      <c r="F20" s="471">
+        <v>0.29025000000000001</v>
+      </c>
+      <c r="G20" s="472">
+        <v>0.8</v>
+      </c>
+      <c r="H20" s="473">
+        <v>0.113125</v>
+      </c>
+      <c r="I20" s="474">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="J20" s="334"/>
+      <c r="K20" s="475">
+        <v>0.127</v>
+      </c>
+      <c r="L20" s="476">
+        <v>0.15</v>
+      </c>
+      <c r="M20" s="477">
+        <v>-0.20200000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="406"/>
+      <c r="C21" s="399"/>
+      <c r="D21" s="223" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="445" t="s">
+        <v>56</v>
+      </c>
+      <c r="F21" s="468"/>
+      <c r="G21" s="108"/>
+      <c r="H21" s="107"/>
+      <c r="I21" s="138"/>
+      <c r="J21" s="344"/>
+      <c r="K21" s="162"/>
+      <c r="L21" s="108"/>
+      <c r="M21" s="156"/>
+    </row>
+    <row r="22" spans="2:13" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="406"/>
+      <c r="C22" s="398" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="83" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="441" t="s">
+        <v>55</v>
+      </c>
+      <c r="F22" s="129">
+        <v>0.54200000000000004</v>
+      </c>
+      <c r="G22" s="98">
+        <v>0.83799999999999997</v>
+      </c>
+      <c r="H22" s="117">
+        <v>0.192</v>
+      </c>
+      <c r="I22" s="142">
+        <v>0.36199999999999999</v>
+      </c>
+      <c r="J22" s="336"/>
+      <c r="K22" s="166">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="L22" s="113">
+        <v>-0.316</v>
+      </c>
+      <c r="M22" s="90">
+        <v>-0.159</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="406"/>
+      <c r="C23" s="398"/>
+      <c r="D23" s="83" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="440" t="s">
+        <v>56</v>
+      </c>
+      <c r="F23" s="129"/>
+      <c r="G23" s="98"/>
+      <c r="H23" s="117"/>
+      <c r="I23" s="142"/>
+      <c r="J23" s="336"/>
+      <c r="K23" s="166"/>
+      <c r="L23" s="469"/>
+      <c r="M23" s="154"/>
+    </row>
+    <row r="24" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="406"/>
+      <c r="C24" s="398"/>
+      <c r="D24" s="83" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="441" t="s">
+        <v>55</v>
+      </c>
+      <c r="F24" s="129">
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="G24" s="369">
+        <v>0.74199999999999999</v>
+      </c>
+      <c r="H24" s="117">
+        <v>0.128</v>
+      </c>
+      <c r="I24" s="368">
+        <v>0.317</v>
+      </c>
+      <c r="J24" s="336"/>
+      <c r="K24" s="166">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="L24" s="113">
+        <v>1.18E-2</v>
+      </c>
+      <c r="M24" s="155">
+        <v>-0.17899999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B25" s="407"/>
+      <c r="C25" s="401"/>
+      <c r="D25" s="217" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="443" t="s">
+        <v>56</v>
+      </c>
+      <c r="F25" s="148"/>
+      <c r="G25" s="149"/>
+      <c r="H25" s="218"/>
+      <c r="I25" s="219"/>
+      <c r="J25" s="342"/>
+      <c r="K25" s="446"/>
+      <c r="L25" s="220"/>
+      <c r="M25" s="221"/>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="J26"/>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="J27"/>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="J28"/>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="J29"/>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="J30"/>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="J31"/>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="J32"/>
+    </row>
+    <row r="33" spans="10:10" x14ac:dyDescent="0.35">
+      <c r="J33"/>
+    </row>
+    <row r="34" spans="10:10" x14ac:dyDescent="0.35">
+      <c r="J34"/>
+    </row>
+    <row r="35" spans="10:10" x14ac:dyDescent="0.35">
+      <c r="J35"/>
+    </row>
+    <row r="36" spans="10:10" x14ac:dyDescent="0.35">
+      <c r="J36"/>
+    </row>
+    <row r="37" spans="10:10" x14ac:dyDescent="0.35">
+      <c r="J37"/>
+    </row>
+    <row r="38" spans="10:10" x14ac:dyDescent="0.35">
+      <c r="J38"/>
+    </row>
+    <row r="39" spans="10:10" x14ac:dyDescent="0.35">
+      <c r="J39"/>
+    </row>
+    <row r="40" spans="10:10" x14ac:dyDescent="0.35">
+      <c r="J40"/>
+    </row>
+    <row r="41" spans="10:10" x14ac:dyDescent="0.35">
+      <c r="J41"/>
+    </row>
+    <row r="42" spans="10:10" x14ac:dyDescent="0.35">
+      <c r="J42"/>
+    </row>
+    <row r="43" spans="10:10" x14ac:dyDescent="0.35">
+      <c r="J43"/>
+    </row>
+    <row r="44" spans="10:10" x14ac:dyDescent="0.35">
+      <c r="J44"/>
+    </row>
+    <row r="45" spans="10:10" x14ac:dyDescent="0.35">
+      <c r="J45"/>
+    </row>
+    <row r="46" spans="10:10" x14ac:dyDescent="0.35">
+      <c r="J46"/>
+    </row>
+    <row r="47" spans="10:10" x14ac:dyDescent="0.35">
+      <c r="J47"/>
+    </row>
+    <row r="48" spans="10:10" x14ac:dyDescent="0.35">
+      <c r="J48"/>
+    </row>
+    <row r="49" spans="10:10" x14ac:dyDescent="0.35">
+      <c r="J49"/>
+    </row>
+    <row r="50" spans="10:10" x14ac:dyDescent="0.35">
+      <c r="J50"/>
+    </row>
+    <row r="51" spans="10:10" x14ac:dyDescent="0.35">
+      <c r="J51"/>
+    </row>
+    <row r="52" spans="10:10" x14ac:dyDescent="0.35">
+      <c r="J52"/>
+    </row>
+    <row r="53" spans="10:10" x14ac:dyDescent="0.35">
+      <c r="J53"/>
+    </row>
+    <row r="54" spans="10:10" x14ac:dyDescent="0.35">
+      <c r="J54"/>
+    </row>
+    <row r="55" spans="10:10" x14ac:dyDescent="0.35">
+      <c r="J55"/>
+    </row>
+    <row r="56" spans="10:10" x14ac:dyDescent="0.35">
+      <c r="J56"/>
+    </row>
+    <row r="57" spans="10:10" x14ac:dyDescent="0.35">
+      <c r="J57"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="B12:B18"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="B20:B25"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="B5:B10"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="B3:E3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCC77F51-8841-499D-9960-AB716C23ECCC}">
   <dimension ref="B1:N72"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="50" zoomScalePageLayoutView="40" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView showGridLines="0" zoomScale="28" zoomScaleNormal="90" zoomScaleSheetLayoutView="50" zoomScalePageLayoutView="40" workbookViewId="0">
+      <selection activeCell="T24" sqref="T24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6610,7 +7274,7 @@
     <col min="5" max="5" width="10" customWidth="1"/>
     <col min="6" max="7" width="10.1796875" customWidth="1"/>
     <col min="8" max="8" width="10.453125" customWidth="1"/>
-    <col min="9" max="9" width="0.453125" style="366" customWidth="1"/>
+    <col min="9" max="9" width="0.453125" style="323" customWidth="1"/>
     <col min="10" max="10" width="12.54296875" customWidth="1"/>
     <col min="11" max="11" width="12.81640625" customWidth="1"/>
     <col min="12" max="12" width="11.81640625" customWidth="1"/>
@@ -6618,48 +7282,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E1" s="279"/>
-      <c r="F1" s="279"/>
-      <c r="G1" s="279"/>
-      <c r="H1" s="279"/>
-      <c r="I1" s="279"/>
+      <c r="I1"/>
     </row>
     <row r="2" spans="2:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E2" s="280" t="s">
+      <c r="E2" s="402" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="281"/>
-      <c r="G2" s="281"/>
-      <c r="H2" s="282"/>
-      <c r="I2" s="367"/>
-      <c r="J2" s="280" t="s">
+      <c r="F2" s="403"/>
+      <c r="G2" s="403"/>
+      <c r="H2" s="404"/>
+      <c r="I2" s="324"/>
+      <c r="J2" s="402" t="s">
         <v>33</v>
       </c>
-      <c r="K2" s="281"/>
-      <c r="L2" s="282"/>
+      <c r="K2" s="403"/>
+      <c r="L2" s="404"/>
     </row>
     <row r="3" spans="2:14" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="252" t="s">
+      <c r="B3" s="411" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="253"/>
-      <c r="D3" s="254"/>
-      <c r="E3" s="389" t="s">
+      <c r="C3" s="412"/>
+      <c r="D3" s="413"/>
+      <c r="E3" s="408" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="390"/>
-      <c r="G3" s="391" t="s">
+      <c r="F3" s="409"/>
+      <c r="G3" s="410" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="390"/>
-      <c r="I3" s="368"/>
-      <c r="J3" s="286" t="s">
+      <c r="H3" s="409"/>
+      <c r="I3" s="325"/>
+      <c r="J3" s="250" t="s">
         <v>35</v>
       </c>
-      <c r="K3" s="287" t="s">
+      <c r="K3" s="251" t="s">
         <v>37</v>
       </c>
-      <c r="L3" s="287" t="s">
+      <c r="L3" s="251" t="s">
         <v>38</v>
       </c>
       <c r="M3" s="178"/>
@@ -6680,13 +7340,13 @@
       <c r="F4" s="146" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="299" t="s">
+      <c r="G4" s="260" t="s">
         <v>10</v>
       </c>
       <c r="H4" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="369"/>
+      <c r="I4" s="326"/>
       <c r="J4" s="145" t="s">
         <v>10</v>
       </c>
@@ -6699,10 +7359,10 @@
       <c r="M4" s="77"/>
     </row>
     <row r="5" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="249" t="s">
+      <c r="B5" s="405" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="255" t="s">
+      <c r="C5" s="397" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="151" t="s">
@@ -6720,7 +7380,7 @@
       <c r="H5" s="110">
         <v>0.41249999999999998</v>
       </c>
-      <c r="I5" s="370"/>
+      <c r="I5" s="327"/>
       <c r="J5" s="158">
         <v>0.214</v>
       </c>
@@ -6733,8 +7393,8 @@
       <c r="M5" s="79"/>
     </row>
     <row r="6" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="250"/>
-      <c r="C6" s="247"/>
+      <c r="B6" s="406"/>
+      <c r="C6" s="398"/>
       <c r="D6" s="150" t="s">
         <v>17</v>
       </c>
@@ -6750,8 +7410,8 @@
       <c r="H6" s="90">
         <v>0.38750000000000001</v>
       </c>
-      <c r="I6" s="371"/>
-      <c r="J6" s="276">
+      <c r="I6" s="328"/>
+      <c r="J6" s="247">
         <v>0.223</v>
       </c>
       <c r="K6" s="159">
@@ -6763,8 +7423,8 @@
       <c r="M6" s="79"/>
     </row>
     <row r="7" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="250"/>
-      <c r="C7" s="247"/>
+      <c r="B7" s="406"/>
+      <c r="C7" s="398"/>
       <c r="D7" s="151" t="s">
         <v>6</v>
       </c>
@@ -6780,7 +7440,7 @@
       <c r="H7" s="96">
         <v>0.4</v>
       </c>
-      <c r="I7" s="370"/>
+      <c r="I7" s="327"/>
       <c r="J7" s="160">
         <v>0.19500000000000001</v>
       </c>
@@ -6793,8 +7453,8 @@
       <c r="M7" s="79"/>
     </row>
     <row r="8" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="250"/>
-      <c r="C8" s="247"/>
+      <c r="B8" s="406"/>
+      <c r="C8" s="398"/>
       <c r="D8" s="150" t="s">
         <v>7</v>
       </c>
@@ -6807,10 +7467,10 @@
       <c r="G8" s="101">
         <v>0.23641670000000001</v>
       </c>
-      <c r="H8" s="428">
+      <c r="H8" s="381">
         <v>0.36666670000000001</v>
       </c>
-      <c r="I8" s="371"/>
+      <c r="I8" s="328"/>
       <c r="J8" s="161">
         <v>0.20100000000000001</v>
       </c>
@@ -6823,8 +7483,8 @@
       <c r="M8" s="79"/>
     </row>
     <row r="9" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="250"/>
-      <c r="C9" s="247"/>
+      <c r="B9" s="406"/>
+      <c r="C9" s="398"/>
       <c r="D9" s="150" t="s">
         <v>8</v>
       </c>
@@ -6840,7 +7500,7 @@
       <c r="H9" s="104">
         <v>0.4375</v>
       </c>
-      <c r="I9" s="372"/>
+      <c r="I9" s="329"/>
       <c r="J9" s="161">
         <v>0.191</v>
       </c>
@@ -6853,8 +7513,8 @@
       <c r="M9" s="78"/>
     </row>
     <row r="10" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B10" s="250"/>
-      <c r="C10" s="256"/>
+      <c r="B10" s="406"/>
+      <c r="C10" s="399"/>
       <c r="D10" s="152" t="s">
         <v>9</v>
       </c>
@@ -6870,7 +7530,7 @@
       <c r="H10" s="186">
         <v>0.5</v>
       </c>
-      <c r="I10" s="373"/>
+      <c r="I10" s="330"/>
       <c r="J10" s="162">
         <v>0.19800000000000001</v>
       </c>
@@ -6883,8 +7543,8 @@
       <c r="M10" s="79"/>
     </row>
     <row r="11" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="250"/>
-      <c r="C11" s="246" t="s">
+      <c r="B11" s="406"/>
+      <c r="C11" s="400" t="s">
         <v>3</v>
       </c>
       <c r="D11" s="151" t="s">
@@ -6902,7 +7562,7 @@
       <c r="H11" s="110">
         <v>0.46250000000000002</v>
       </c>
-      <c r="I11" s="370"/>
+      <c r="I11" s="327"/>
       <c r="J11" s="163">
         <v>0.20499999999999999</v>
       </c>
@@ -6915,8 +7575,8 @@
       <c r="M11" s="81"/>
     </row>
     <row r="12" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="250"/>
-      <c r="C12" s="247"/>
+      <c r="B12" s="406"/>
+      <c r="C12" s="398"/>
       <c r="D12" s="150" t="s">
         <v>17</v>
       </c>
@@ -6932,7 +7592,7 @@
       <c r="H12" s="90">
         <v>0.375</v>
       </c>
-      <c r="I12" s="371"/>
+      <c r="I12" s="328"/>
       <c r="J12" s="159">
         <v>0.19900000000000001</v>
       </c>
@@ -6946,8 +7606,8 @@
       <c r="N12" s="174"/>
     </row>
     <row r="13" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="250"/>
-      <c r="C13" s="247"/>
+      <c r="B13" s="406"/>
+      <c r="C13" s="398"/>
       <c r="D13" s="151" t="s">
         <v>6</v>
       </c>
@@ -6963,7 +7623,7 @@
       <c r="H13" s="96">
         <v>0.42499999999999999</v>
       </c>
-      <c r="I13" s="370"/>
+      <c r="I13" s="327"/>
       <c r="J13" s="160">
         <v>0.182</v>
       </c>
@@ -6977,24 +7637,24 @@
       <c r="N13" s="174"/>
     </row>
     <row r="14" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="250"/>
-      <c r="C14" s="247"/>
+      <c r="B14" s="406"/>
+      <c r="C14" s="398"/>
       <c r="D14" s="150" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="417">
+      <c r="E14" s="370">
         <v>0.61599999999999999</v>
       </c>
-      <c r="F14" s="427">
+      <c r="F14" s="380">
         <v>0.94199999999999995</v>
       </c>
-      <c r="G14" s="410">
+      <c r="G14" s="363">
         <v>0.20674999999999999</v>
       </c>
       <c r="H14" s="113">
         <v>0.39166669999999998</v>
       </c>
-      <c r="I14" s="374"/>
+      <c r="I14" s="331"/>
       <c r="J14" s="161">
         <v>0.19</v>
       </c>
@@ -7007,8 +7667,8 @@
       <c r="M14" s="79"/>
     </row>
     <row r="15" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="250"/>
-      <c r="C15" s="247"/>
+      <c r="B15" s="406"/>
+      <c r="C15" s="398"/>
       <c r="D15" s="150" t="s">
         <v>8</v>
       </c>
@@ -7024,7 +7684,7 @@
       <c r="H15" s="113">
         <v>0.4</v>
       </c>
-      <c r="I15" s="374"/>
+      <c r="I15" s="331"/>
       <c r="J15" s="161">
         <v>0.17599999999999999</v>
       </c>
@@ -7037,8 +7697,8 @@
       <c r="M15" s="79"/>
     </row>
     <row r="16" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B16" s="250"/>
-      <c r="C16" s="256"/>
+      <c r="B16" s="406"/>
+      <c r="C16" s="399"/>
       <c r="D16" s="152" t="s">
         <v>9</v>
       </c>
@@ -7054,21 +7714,21 @@
       <c r="H16" s="108">
         <v>0.4</v>
       </c>
-      <c r="I16" s="373"/>
-      <c r="J16" s="411">
+      <c r="I16" s="330"/>
+      <c r="J16" s="364">
         <v>0.17299999999999999</v>
       </c>
       <c r="K16" s="162">
         <v>-0.28499999999999998</v>
       </c>
-      <c r="L16" s="414">
+      <c r="L16" s="367">
         <v>-3.3599999999999998E-2</v>
       </c>
       <c r="M16" s="79"/>
     </row>
     <row r="17" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="250"/>
-      <c r="C17" s="246" t="s">
+      <c r="B17" s="406"/>
+      <c r="C17" s="400" t="s">
         <v>18</v>
       </c>
       <c r="D17" s="151" t="s">
@@ -7080,13 +7740,13 @@
       <c r="F17" s="110">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G17" s="275">
+      <c r="G17" s="246">
         <v>0.270125</v>
       </c>
       <c r="H17" s="92">
         <v>0.46250000000000002</v>
       </c>
-      <c r="I17" s="375"/>
+      <c r="I17" s="332"/>
       <c r="J17" s="164">
         <v>0.20699999999999999</v>
       </c>
@@ -7099,8 +7759,8 @@
       <c r="M17" s="179"/>
     </row>
     <row r="18" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="250"/>
-      <c r="C18" s="247"/>
+      <c r="B18" s="406"/>
+      <c r="C18" s="398"/>
       <c r="D18" s="150" t="s">
         <v>17</v>
       </c>
@@ -7116,11 +7776,11 @@
       <c r="H18" s="98">
         <v>0.41249999999999998</v>
       </c>
-      <c r="I18" s="374"/>
+      <c r="I18" s="331"/>
       <c r="J18" s="166">
         <v>0.20899999999999999</v>
       </c>
-      <c r="K18" s="429">
+      <c r="K18" s="382">
         <v>2.4499999999999999E-3</v>
       </c>
       <c r="L18" s="100">
@@ -7129,8 +7789,8 @@
       <c r="M18" s="79"/>
     </row>
     <row r="19" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="250"/>
-      <c r="C19" s="247"/>
+      <c r="B19" s="406"/>
+      <c r="C19" s="398"/>
       <c r="D19" s="151" t="s">
         <v>6</v>
       </c>
@@ -7146,7 +7806,7 @@
       <c r="H19" s="98">
         <v>0.42499999999999999</v>
       </c>
-      <c r="I19" s="374"/>
+      <c r="I19" s="331"/>
       <c r="J19" s="166">
         <v>0.187</v>
       </c>
@@ -7159,8 +7819,8 @@
       <c r="M19" s="79"/>
     </row>
     <row r="20" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="250"/>
-      <c r="C20" s="247"/>
+      <c r="B20" s="406"/>
+      <c r="C20" s="398"/>
       <c r="D20" s="150" t="s">
         <v>7</v>
       </c>
@@ -7176,7 +7836,7 @@
       <c r="H20" s="98">
         <v>0.40833330000000001</v>
       </c>
-      <c r="I20" s="374"/>
+      <c r="I20" s="331"/>
       <c r="J20" s="166">
         <v>0.182</v>
       </c>
@@ -7189,8 +7849,8 @@
       <c r="M20" s="79"/>
     </row>
     <row r="21" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="250"/>
-      <c r="C21" s="247"/>
+      <c r="B21" s="406"/>
+      <c r="C21" s="398"/>
       <c r="D21" s="150" t="s">
         <v>8</v>
       </c>
@@ -7206,7 +7866,7 @@
       <c r="H21" s="92">
         <v>0.46250000000000002</v>
       </c>
-      <c r="I21" s="375"/>
+      <c r="I21" s="332"/>
       <c r="J21" s="164">
         <v>0.17399999999999999</v>
       </c>
@@ -7219,8 +7879,8 @@
       <c r="M21" s="79"/>
     </row>
     <row r="22" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B22" s="251"/>
-      <c r="C22" s="248"/>
+      <c r="B22" s="407"/>
+      <c r="C22" s="401"/>
       <c r="D22" s="192" t="s">
         <v>9</v>
       </c>
@@ -7236,7 +7896,7 @@
       <c r="H22" s="194">
         <v>0.5</v>
       </c>
-      <c r="I22" s="376"/>
+      <c r="I22" s="333"/>
       <c r="J22" s="196">
         <v>0.182</v>
       </c>
@@ -7262,10 +7922,10 @@
       <c r="L23" s="233"/>
     </row>
     <row r="24" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="249" t="s">
+      <c r="B24" s="405" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="255" t="s">
+      <c r="C24" s="397" t="s">
         <v>2</v>
       </c>
       <c r="D24" s="222" t="s">
@@ -7277,13 +7937,13 @@
       <c r="F24" s="147">
         <v>1.18</v>
       </c>
-      <c r="G24" s="357">
+      <c r="G24" s="314">
         <v>0.25800000000000001</v>
       </c>
       <c r="H24" s="133">
         <v>0.438</v>
       </c>
-      <c r="I24" s="377"/>
+      <c r="I24" s="334"/>
       <c r="J24" s="158">
         <v>0.19700000000000001</v>
       </c>
@@ -7295,8 +7955,8 @@
       </c>
     </row>
     <row r="25" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="250"/>
-      <c r="C25" s="247"/>
+      <c r="B25" s="406"/>
+      <c r="C25" s="398"/>
       <c r="D25" s="222" t="s">
         <v>17</v>
       </c>
@@ -7312,7 +7972,7 @@
       <c r="H25" s="134">
         <v>0.41199999999999998</v>
       </c>
-      <c r="I25" s="378"/>
+      <c r="I25" s="335"/>
       <c r="J25" s="159">
         <v>0.19500000000000001</v>
       </c>
@@ -7324,8 +7984,8 @@
       </c>
     </row>
     <row r="26" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="250"/>
-      <c r="C26" s="247"/>
+      <c r="B26" s="406"/>
+      <c r="C26" s="398"/>
       <c r="D26" s="222" t="s">
         <v>6</v>
       </c>
@@ -7335,13 +7995,13 @@
       <c r="F26" s="98">
         <v>1.01</v>
       </c>
-      <c r="G26" s="358">
+      <c r="G26" s="315">
         <v>0.23200000000000001</v>
       </c>
       <c r="H26" s="134">
         <v>0.38800000000000001</v>
       </c>
-      <c r="I26" s="378"/>
+      <c r="I26" s="335"/>
       <c r="J26" s="161">
         <v>0.16300000000000001</v>
       </c>
@@ -7353,8 +8013,8 @@
       </c>
     </row>
     <row r="27" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="250"/>
-      <c r="C27" s="247"/>
+      <c r="B27" s="406"/>
+      <c r="C27" s="398"/>
       <c r="D27" s="84" t="s">
         <v>7</v>
       </c>
@@ -7364,13 +8024,13 @@
       <c r="F27" s="98">
         <v>0.88300000000000001</v>
       </c>
-      <c r="G27" s="358">
+      <c r="G27" s="315">
         <v>0.189</v>
       </c>
       <c r="H27" s="142">
         <v>0.375</v>
       </c>
-      <c r="I27" s="379"/>
+      <c r="I27" s="336"/>
       <c r="J27" s="161">
         <v>0.16200000000000001</v>
       </c>
@@ -7382,24 +8042,24 @@
       </c>
     </row>
     <row r="28" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="250"/>
-      <c r="C28" s="247"/>
+      <c r="B28" s="406"/>
+      <c r="C28" s="398"/>
       <c r="D28" s="83" t="s">
         <v>8</v>
       </c>
       <c r="E28" s="129">
         <v>0.7</v>
       </c>
-      <c r="F28" s="365">
+      <c r="F28" s="322">
         <v>1.02</v>
       </c>
-      <c r="G28" s="358">
+      <c r="G28" s="315">
         <v>0.22900000000000001</v>
       </c>
       <c r="H28" s="232">
         <v>0.36199999999999999</v>
       </c>
-      <c r="I28" s="380"/>
+      <c r="I28" s="337"/>
       <c r="J28" s="161">
         <v>0.14199999999999999</v>
       </c>
@@ -7411,8 +8071,8 @@
       </c>
     </row>
     <row r="29" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="250"/>
-      <c r="C29" s="256"/>
+      <c r="B29" s="406"/>
+      <c r="C29" s="399"/>
       <c r="D29" s="85" t="s">
         <v>9</v>
       </c>
@@ -7422,13 +8082,13 @@
       <c r="F29" s="106">
         <v>0.95</v>
       </c>
-      <c r="G29" s="359">
+      <c r="G29" s="316">
         <v>0.19</v>
       </c>
       <c r="H29" s="144">
         <v>0.375</v>
       </c>
-      <c r="I29" s="381"/>
+      <c r="I29" s="338"/>
       <c r="J29" s="181">
         <v>0.151</v>
       </c>
@@ -7440,8 +8100,8 @@
       </c>
     </row>
     <row r="30" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="250"/>
-      <c r="C30" s="246" t="s">
+      <c r="B30" s="406"/>
+      <c r="C30" s="400" t="s">
         <v>3</v>
       </c>
       <c r="D30" s="84" t="s">
@@ -7459,7 +8119,7 @@
       <c r="H30" s="139">
         <v>0.42499999999999999</v>
       </c>
-      <c r="I30" s="382"/>
+      <c r="I30" s="339"/>
       <c r="J30" s="163">
         <v>0.193</v>
       </c>
@@ -7472,8 +8132,8 @@
       <c r="M30" s="174"/>
     </row>
     <row r="31" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="250"/>
-      <c r="C31" s="247"/>
+      <c r="B31" s="406"/>
+      <c r="C31" s="398"/>
       <c r="D31" s="83" t="s">
         <v>17</v>
       </c>
@@ -7489,21 +8149,21 @@
       <c r="H31" s="134">
         <v>0.375</v>
       </c>
-      <c r="I31" s="378"/>
+      <c r="I31" s="335"/>
       <c r="J31" s="159">
         <v>0.20499999999999999</v>
       </c>
-      <c r="K31" s="430">
+      <c r="K31" s="383">
         <v>9.9799999999999993E-3</v>
       </c>
-      <c r="L31" s="276">
+      <c r="L31" s="247">
         <v>-0.14199999999999999</v>
       </c>
       <c r="N31" s="174"/>
     </row>
     <row r="32" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="250"/>
-      <c r="C32" s="247"/>
+      <c r="B32" s="406"/>
+      <c r="C32" s="398"/>
       <c r="D32" s="84" t="s">
         <v>6</v>
       </c>
@@ -7513,13 +8173,13 @@
       <c r="F32" s="96">
         <v>0.93799999999999994</v>
       </c>
-      <c r="G32" s="360">
+      <c r="G32" s="317">
         <v>0.20300000000000001</v>
       </c>
       <c r="H32" s="135">
         <v>0.38800000000000001</v>
       </c>
-      <c r="I32" s="382"/>
+      <c r="I32" s="339"/>
       <c r="J32" s="160">
         <v>0.156</v>
       </c>
@@ -7533,24 +8193,24 @@
       <c r="N32" s="174"/>
     </row>
     <row r="33" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="250"/>
-      <c r="C33" s="247"/>
+      <c r="B33" s="406"/>
+      <c r="C33" s="398"/>
       <c r="D33" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="E33" s="418">
+      <c r="E33" s="371">
         <v>0.40400000000000003</v>
       </c>
-      <c r="F33" s="428">
+      <c r="F33" s="381">
         <v>0.79200000000000004</v>
       </c>
-      <c r="G33" s="432">
+      <c r="G33" s="385">
         <v>0.14399999999999999</v>
       </c>
-      <c r="H33" s="431">
+      <c r="H33" s="384">
         <v>0.317</v>
       </c>
-      <c r="I33" s="378"/>
+      <c r="I33" s="335"/>
       <c r="J33" s="161">
         <v>0.156</v>
       </c>
@@ -7562,8 +8222,8 @@
       </c>
     </row>
     <row r="34" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="250"/>
-      <c r="C34" s="247"/>
+      <c r="B34" s="406"/>
+      <c r="C34" s="398"/>
       <c r="D34" s="83" t="s">
         <v>8</v>
       </c>
@@ -7573,14 +8233,14 @@
       <c r="F34" s="100">
         <v>0.98799999999999999</v>
       </c>
-      <c r="G34" s="358">
+      <c r="G34" s="315">
         <v>0.214</v>
       </c>
       <c r="H34" s="234">
         <v>0.35</v>
       </c>
-      <c r="I34" s="379"/>
-      <c r="J34" s="412">
+      <c r="I34" s="336"/>
+      <c r="J34" s="365">
         <v>0.11899999999999999</v>
       </c>
       <c r="K34" s="166">
@@ -7591,8 +8251,8 @@
       </c>
     </row>
     <row r="35" spans="2:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="250"/>
-      <c r="C35" s="256"/>
+      <c r="B35" s="406"/>
+      <c r="C35" s="399"/>
       <c r="D35" s="85" t="s">
         <v>9</v>
       </c>
@@ -7602,13 +8262,13 @@
       <c r="F35" s="108">
         <v>1.02</v>
       </c>
-      <c r="G35" s="359">
+      <c r="G35" s="316">
         <v>0.16600000000000001</v>
       </c>
       <c r="H35" s="235">
         <v>0.35</v>
       </c>
-      <c r="I35" s="383"/>
+      <c r="I35" s="340"/>
       <c r="J35" s="162">
         <v>0.121</v>
       </c>
@@ -7620,8 +8280,8 @@
       </c>
     </row>
     <row r="36" spans="2:12" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="250"/>
-      <c r="C36" s="246" t="s">
+      <c r="B36" s="406"/>
+      <c r="C36" s="400" t="s">
         <v>18</v>
       </c>
       <c r="D36" s="84" t="s">
@@ -7633,13 +8293,13 @@
       <c r="F36" s="147">
         <v>1.08</v>
       </c>
-      <c r="G36" s="361">
+      <c r="G36" s="318">
         <v>0.249</v>
       </c>
       <c r="H36" s="141">
         <v>0.4</v>
       </c>
-      <c r="I36" s="384"/>
+      <c r="I36" s="341"/>
       <c r="J36" s="164">
         <v>0.20799999999999999</v>
       </c>
@@ -7651,8 +8311,8 @@
       </c>
     </row>
     <row r="37" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="250"/>
-      <c r="C37" s="247"/>
+      <c r="B37" s="406"/>
+      <c r="C37" s="398"/>
       <c r="D37" s="83" t="s">
         <v>17</v>
       </c>
@@ -7662,13 +8322,13 @@
       <c r="F37" s="98">
         <v>0.97499999999999998</v>
       </c>
-      <c r="G37" s="362">
+      <c r="G37" s="319">
         <v>0.217</v>
       </c>
       <c r="H37" s="142">
         <v>0.36199999999999999</v>
       </c>
-      <c r="I37" s="379"/>
+      <c r="I37" s="336"/>
       <c r="J37" s="165">
         <v>0.21</v>
       </c>
@@ -7680,8 +8340,8 @@
       </c>
     </row>
     <row r="38" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="250"/>
-      <c r="C38" s="247"/>
+      <c r="B38" s="406"/>
+      <c r="C38" s="398"/>
       <c r="D38" s="84" t="s">
         <v>6</v>
       </c>
@@ -7691,13 +8351,13 @@
       <c r="F38" s="98">
         <v>0.97499999999999998</v>
       </c>
-      <c r="G38" s="362">
+      <c r="G38" s="319">
         <v>0.214</v>
       </c>
       <c r="H38" s="142">
         <v>0.4</v>
       </c>
-      <c r="I38" s="379"/>
+      <c r="I38" s="336"/>
       <c r="J38" s="166">
         <v>0.16</v>
       </c>
@@ -7709,8 +8369,8 @@
       </c>
     </row>
     <row r="39" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="250"/>
-      <c r="C39" s="247"/>
+      <c r="B39" s="406"/>
+      <c r="C39" s="398"/>
       <c r="D39" s="83" t="s">
         <v>7</v>
       </c>
@@ -7720,13 +8380,13 @@
       <c r="F39" s="98">
         <v>1</v>
       </c>
-      <c r="G39" s="362">
+      <c r="G39" s="319">
         <v>0.186</v>
       </c>
       <c r="H39" s="142">
         <v>0.42499999999999999</v>
       </c>
-      <c r="I39" s="379"/>
+      <c r="I39" s="336"/>
       <c r="J39" s="166">
         <v>0.16900000000000001</v>
       </c>
@@ -7738,24 +8398,24 @@
       </c>
     </row>
     <row r="40" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="250"/>
-      <c r="C40" s="247"/>
+      <c r="B40" s="406"/>
+      <c r="C40" s="398"/>
       <c r="D40" s="83" t="s">
         <v>8</v>
       </c>
       <c r="E40" s="129">
         <v>0.67</v>
       </c>
-      <c r="F40" s="365">
+      <c r="F40" s="322">
         <v>1.06</v>
       </c>
-      <c r="G40" s="362">
+      <c r="G40" s="319">
         <v>0.22500000000000001</v>
       </c>
       <c r="H40" s="142">
         <v>0.36199999999999999</v>
       </c>
-      <c r="I40" s="384"/>
+      <c r="I40" s="341"/>
       <c r="J40" s="164">
         <v>0.13</v>
       </c>
@@ -7767,8 +8427,8 @@
       </c>
     </row>
     <row r="41" spans="2:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B41" s="251"/>
-      <c r="C41" s="248"/>
+      <c r="B41" s="407"/>
+      <c r="C41" s="401"/>
       <c r="D41" s="230" t="s">
         <v>9</v>
       </c>
@@ -7778,20 +8438,20 @@
       <c r="F41" s="149">
         <v>1.02</v>
       </c>
-      <c r="G41" s="363">
+      <c r="G41" s="320">
         <v>0.182</v>
       </c>
       <c r="H41" s="219">
         <v>0.42499999999999999</v>
       </c>
-      <c r="I41" s="385"/>
+      <c r="I41" s="342"/>
       <c r="J41" s="227">
         <v>0.13600000000000001</v>
       </c>
       <c r="K41" s="236">
         <v>-0.307</v>
       </c>
-      <c r="L41" s="433">
+      <c r="L41" s="386">
         <v>-8.5400000000000004E-2</v>
       </c>
     </row>
@@ -7799,8 +8459,8 @@
       <c r="B42" s="191"/>
       <c r="C42" s="197"/>
       <c r="D42" s="198"/>
-      <c r="E42" s="364"/>
-      <c r="F42" s="364"/>
+      <c r="E42" s="321"/>
+      <c r="F42" s="321"/>
       <c r="G42" s="198"/>
       <c r="H42" s="198"/>
       <c r="I42" s="198"/>
@@ -7809,10 +8469,10 @@
       <c r="L42" s="199"/>
     </row>
     <row r="43" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="249" t="s">
+      <c r="B43" s="405" t="s">
         <v>26</v>
       </c>
-      <c r="C43" s="255" t="s">
+      <c r="C43" s="397" t="s">
         <v>2</v>
       </c>
       <c r="D43" s="238" t="s">
@@ -7830,7 +8490,7 @@
       <c r="H43" s="244">
         <v>0.4</v>
       </c>
-      <c r="I43" s="377"/>
+      <c r="I43" s="334"/>
       <c r="J43" s="158">
         <v>0.19400000000000001</v>
       </c>
@@ -7842,8 +8502,8 @@
       </c>
     </row>
     <row r="44" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="250"/>
-      <c r="C44" s="247"/>
+      <c r="B44" s="406"/>
+      <c r="C44" s="398"/>
       <c r="D44" s="83" t="s">
         <v>17</v>
       </c>
@@ -7859,8 +8519,8 @@
       <c r="H44" s="134">
         <v>0.36199999999999999</v>
       </c>
-      <c r="I44" s="378"/>
-      <c r="J44" s="276">
+      <c r="I44" s="335"/>
+      <c r="J44" s="247">
         <v>0.21199999999999999</v>
       </c>
       <c r="K44" s="100">
@@ -7871,8 +8531,8 @@
       </c>
     </row>
     <row r="45" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="250"/>
-      <c r="C45" s="247"/>
+      <c r="B45" s="406"/>
+      <c r="C45" s="398"/>
       <c r="D45" s="84" t="s">
         <v>6</v>
       </c>
@@ -7888,7 +8548,7 @@
       <c r="H45" s="135">
         <v>0.38800000000000001</v>
       </c>
-      <c r="I45" s="382"/>
+      <c r="I45" s="339"/>
       <c r="J45" s="160">
         <v>0.14399999999999999</v>
       </c>
@@ -7900,8 +8560,8 @@
       </c>
     </row>
     <row r="46" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="250"/>
-      <c r="C46" s="247"/>
+      <c r="B46" s="406"/>
+      <c r="C46" s="398"/>
       <c r="D46" s="83" t="s">
         <v>7</v>
       </c>
@@ -7917,7 +8577,7 @@
       <c r="H46" s="136">
         <v>0.375</v>
       </c>
-      <c r="I46" s="378"/>
+      <c r="I46" s="335"/>
       <c r="J46" s="161">
         <v>0.13700000000000001</v>
       </c>
@@ -7929,8 +8589,8 @@
       </c>
     </row>
     <row r="47" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="250"/>
-      <c r="C47" s="247"/>
+      <c r="B47" s="406"/>
+      <c r="C47" s="398"/>
       <c r="D47" s="83" t="s">
         <v>8</v>
       </c>
@@ -7946,8 +8606,8 @@
       <c r="H47" s="137">
         <v>0.438</v>
       </c>
-      <c r="I47" s="386"/>
-      <c r="J47" s="412">
+      <c r="I47" s="343"/>
+      <c r="J47" s="365">
         <v>9.0399999999999994E-2</v>
       </c>
       <c r="K47" s="104">
@@ -7958,8 +8618,8 @@
       </c>
     </row>
     <row r="48" spans="2:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B48" s="250"/>
-      <c r="C48" s="256"/>
+      <c r="B48" s="406"/>
+      <c r="C48" s="399"/>
       <c r="D48" s="85" t="s">
         <v>9</v>
       </c>
@@ -7975,20 +8635,20 @@
       <c r="H48" s="138">
         <v>0.4</v>
       </c>
-      <c r="I48" s="387"/>
+      <c r="I48" s="344"/>
       <c r="J48" s="162">
         <v>9.5299999999999996E-2</v>
       </c>
       <c r="K48" s="108">
         <v>-0.22500000000000001</v>
       </c>
-      <c r="L48" s="423">
+      <c r="L48" s="376">
         <v>-0.10299999999999999</v>
       </c>
     </row>
     <row r="49" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="250"/>
-      <c r="C49" s="246" t="s">
+      <c r="B49" s="406"/>
+      <c r="C49" s="400" t="s">
         <v>3</v>
       </c>
       <c r="D49" s="84" t="s">
@@ -8003,14 +8663,14 @@
       <c r="G49" s="109">
         <v>0.23200000000000001</v>
       </c>
-      <c r="H49" s="278">
+      <c r="H49" s="249">
         <v>0.45</v>
       </c>
-      <c r="I49" s="382"/>
+      <c r="I49" s="339"/>
       <c r="J49" s="163">
         <v>0.159</v>
       </c>
-      <c r="K49" s="434">
+      <c r="K49" s="387">
         <v>6.94E-3</v>
       </c>
       <c r="L49" s="110">
@@ -8018,8 +8678,8 @@
       </c>
     </row>
     <row r="50" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="250"/>
-      <c r="C50" s="247"/>
+      <c r="B50" s="406"/>
+      <c r="C50" s="398"/>
       <c r="D50" s="83" t="s">
         <v>17</v>
       </c>
@@ -8035,7 +8695,7 @@
       <c r="H50" s="134">
         <v>0.375</v>
       </c>
-      <c r="I50" s="378"/>
+      <c r="I50" s="335"/>
       <c r="J50" s="159">
         <v>0.17299999999999999</v>
       </c>
@@ -8048,8 +8708,8 @@
       <c r="N50" s="174"/>
     </row>
     <row r="51" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="250"/>
-      <c r="C51" s="247"/>
+      <c r="B51" s="406"/>
+      <c r="C51" s="398"/>
       <c r="D51" s="84" t="s">
         <v>6</v>
       </c>
@@ -8065,7 +8725,7 @@
       <c r="H51" s="135">
         <v>0.33800000000000002</v>
       </c>
-      <c r="I51" s="382"/>
+      <c r="I51" s="339"/>
       <c r="J51" s="160">
         <v>0.11899999999999999</v>
       </c>
@@ -8078,8 +8738,8 @@
       <c r="N51" s="174"/>
     </row>
     <row r="52" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="250"/>
-      <c r="C52" s="247"/>
+      <c r="B52" s="406"/>
+      <c r="C52" s="398"/>
       <c r="D52" s="83" t="s">
         <v>7</v>
       </c>
@@ -8095,7 +8755,7 @@
       <c r="H52" s="136">
         <v>0.32500000000000001</v>
       </c>
-      <c r="I52" s="378"/>
+      <c r="I52" s="335"/>
       <c r="J52" s="161">
         <v>0.14199999999999999</v>
       </c>
@@ -8107,8 +8767,8 @@
       </c>
     </row>
     <row r="53" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="250"/>
-      <c r="C53" s="247"/>
+      <c r="B53" s="406"/>
+      <c r="C53" s="398"/>
       <c r="D53" s="83" t="s">
         <v>8</v>
       </c>
@@ -8124,7 +8784,7 @@
       <c r="H53" s="136">
         <v>0.32500000000000001</v>
       </c>
-      <c r="I53" s="378"/>
+      <c r="I53" s="335"/>
       <c r="J53" s="161">
         <v>0.106</v>
       </c>
@@ -8136,24 +8796,24 @@
       </c>
     </row>
     <row r="54" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B54" s="250"/>
-      <c r="C54" s="256"/>
+      <c r="B54" s="406"/>
+      <c r="C54" s="399"/>
       <c r="D54" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="E54" s="437">
+      <c r="E54" s="390">
         <v>0.33800000000000002</v>
       </c>
       <c r="F54" s="108">
         <v>0.82499999999999996</v>
       </c>
-      <c r="G54" s="436">
+      <c r="G54" s="389">
         <v>0.126</v>
       </c>
-      <c r="H54" s="435">
+      <c r="H54" s="388">
         <v>0.3</v>
       </c>
-      <c r="I54" s="387"/>
+      <c r="I54" s="344"/>
       <c r="J54" s="162">
         <v>0.109</v>
       </c>
@@ -8165,8 +8825,8 @@
       </c>
     </row>
     <row r="55" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="250"/>
-      <c r="C55" s="246" t="s">
+      <c r="B55" s="406"/>
+      <c r="C55" s="400" t="s">
         <v>18</v>
       </c>
       <c r="D55" s="84" t="s">
@@ -8175,7 +8835,7 @@
       <c r="E55" s="127">
         <v>0.69199999999999995</v>
       </c>
-      <c r="F55" s="277">
+      <c r="F55" s="248">
         <v>1.06</v>
       </c>
       <c r="G55" s="120">
@@ -8184,7 +8844,7 @@
       <c r="H55" s="141">
         <v>0.42499999999999999</v>
       </c>
-      <c r="I55" s="384"/>
+      <c r="I55" s="341"/>
       <c r="J55" s="158">
         <v>0.17100000000000001</v>
       </c>
@@ -8196,8 +8856,8 @@
       </c>
     </row>
     <row r="56" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="250"/>
-      <c r="C56" s="247"/>
+      <c r="B56" s="406"/>
+      <c r="C56" s="398"/>
       <c r="D56" s="83" t="s">
         <v>17</v>
       </c>
@@ -8213,7 +8873,7 @@
       <c r="H56" s="142">
         <v>0.38800000000000001</v>
       </c>
-      <c r="I56" s="379"/>
+      <c r="I56" s="336"/>
       <c r="J56" s="159">
         <v>0.192</v>
       </c>
@@ -8225,8 +8885,8 @@
       </c>
     </row>
     <row r="57" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="250"/>
-      <c r="C57" s="247"/>
+      <c r="B57" s="406"/>
+      <c r="C57" s="398"/>
       <c r="D57" s="84" t="s">
         <v>6</v>
       </c>
@@ -8242,7 +8902,7 @@
       <c r="H57" s="142">
         <v>0.35</v>
       </c>
-      <c r="I57" s="384"/>
+      <c r="I57" s="341"/>
       <c r="J57" s="160">
         <v>0.14199999999999999</v>
       </c>
@@ -8254,24 +8914,24 @@
       </c>
     </row>
     <row r="58" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="250"/>
-      <c r="C58" s="247"/>
+      <c r="B58" s="406"/>
+      <c r="C58" s="398"/>
       <c r="D58" s="83" t="s">
         <v>7</v>
       </c>
       <c r="E58" s="129">
         <v>0.36499999999999999</v>
       </c>
-      <c r="F58" s="416">
+      <c r="F58" s="369">
         <v>0.73299999999999998</v>
       </c>
       <c r="G58" s="117">
         <v>0.13400000000000001</v>
       </c>
-      <c r="H58" s="415">
+      <c r="H58" s="368">
         <v>0.3</v>
       </c>
-      <c r="I58" s="379"/>
+      <c r="I58" s="336"/>
       <c r="J58" s="161">
         <v>0.13800000000000001</v>
       </c>
@@ -8283,8 +8943,8 @@
       </c>
     </row>
     <row r="59" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="250"/>
-      <c r="C59" s="247"/>
+      <c r="B59" s="406"/>
+      <c r="C59" s="398"/>
       <c r="D59" s="83" t="s">
         <v>8</v>
       </c>
@@ -8300,7 +8960,7 @@
       <c r="H59" s="142">
         <v>0.375</v>
       </c>
-      <c r="I59" s="379"/>
+      <c r="I59" s="336"/>
       <c r="J59" s="161">
         <v>0.105</v>
       </c>
@@ -8312,8 +8972,8 @@
       </c>
     </row>
     <row r="60" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B60" s="251"/>
-      <c r="C60" s="248"/>
+      <c r="B60" s="407"/>
+      <c r="C60" s="401"/>
       <c r="D60" s="217" t="s">
         <v>9</v>
       </c>
@@ -8329,7 +8989,7 @@
       <c r="H60" s="219">
         <v>0.4</v>
       </c>
-      <c r="I60" s="388"/>
+      <c r="I60" s="345"/>
       <c r="J60" s="237">
         <v>0.106</v>
       </c>
@@ -8341,72 +9001,48 @@
       </c>
     </row>
     <row r="61" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="H61" s="279"/>
-      <c r="I61" s="279"/>
-      <c r="J61" s="279"/>
+      <c r="I61"/>
     </row>
     <row r="62" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="H62" s="279"/>
-      <c r="I62" s="279"/>
-      <c r="J62" s="279"/>
+      <c r="I62"/>
     </row>
     <row r="63" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="H63" s="279"/>
-      <c r="I63" s="279"/>
-      <c r="J63" s="279"/>
+      <c r="I63"/>
     </row>
     <row r="64" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="H64" s="279"/>
-      <c r="I64" s="279"/>
-      <c r="J64" s="279"/>
-    </row>
-    <row r="65" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H65" s="279"/>
-      <c r="I65" s="279"/>
-      <c r="J65" s="279"/>
-    </row>
-    <row r="66" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H66" s="279"/>
-      <c r="I66" s="279"/>
-      <c r="J66" s="279"/>
-    </row>
-    <row r="67" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H67" s="279"/>
-      <c r="I67" s="279"/>
-      <c r="J67" s="279"/>
-    </row>
-    <row r="68" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H68" s="279"/>
-      <c r="I68" s="279"/>
-      <c r="J68" s="279"/>
-    </row>
-    <row r="69" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H69" s="279"/>
-      <c r="I69" s="279"/>
-      <c r="J69" s="279"/>
-    </row>
-    <row r="70" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H70" s="279"/>
-      <c r="I70" s="279"/>
-      <c r="J70" s="279"/>
-    </row>
-    <row r="71" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H71" s="279"/>
-      <c r="I71" s="279"/>
-      <c r="J71" s="279"/>
-    </row>
-    <row r="72" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H72" s="279"/>
-      <c r="I72" s="279"/>
-      <c r="J72" s="279"/>
+      <c r="I64"/>
+    </row>
+    <row r="65" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I65"/>
+    </row>
+    <row r="66" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I66"/>
+    </row>
+    <row r="67" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I67"/>
+    </row>
+    <row r="68" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I68"/>
+    </row>
+    <row r="69" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I69"/>
+    </row>
+    <row r="70" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I70"/>
+    </row>
+    <row r="71" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I71"/>
+    </row>
+    <row r="72" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I72"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B5:B22"/>
-    <mergeCell ref="C5:C10"/>
-    <mergeCell ref="C11:C16"/>
-    <mergeCell ref="C17:C22"/>
     <mergeCell ref="E2:H2"/>
+    <mergeCell ref="B43:B60"/>
+    <mergeCell ref="C43:C48"/>
+    <mergeCell ref="C49:C54"/>
+    <mergeCell ref="C55:C60"/>
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="E3:F3"/>
@@ -8415,10 +9051,10 @@
     <mergeCell ref="C24:C29"/>
     <mergeCell ref="C30:C35"/>
     <mergeCell ref="C36:C41"/>
-    <mergeCell ref="B43:B60"/>
-    <mergeCell ref="C43:C48"/>
-    <mergeCell ref="C49:C54"/>
-    <mergeCell ref="C55:C60"/>
+    <mergeCell ref="B5:B22"/>
+    <mergeCell ref="C5:C10"/>
+    <mergeCell ref="C11:C16"/>
+    <mergeCell ref="C17:C22"/>
   </mergeCells>
   <conditionalFormatting sqref="N10">
     <cfRule type="colorScale" priority="3">
@@ -8437,11 +9073,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDEA84EF-1AE7-4154-9EA1-16D82C4A9094}">
-  <dimension ref="A1:S32"/>
+  <dimension ref="B1:S32"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="67" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="T12" sqref="T12"/>
     </sheetView>
   </sheetViews>
@@ -8458,73 +9094,55 @@
     <col min="14" max="14" width="10.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="288"/>
-      <c r="B1" s="288"/>
-      <c r="C1" s="288"/>
-      <c r="D1" s="288"/>
-      <c r="E1" s="288"/>
-      <c r="F1" s="288"/>
-      <c r="G1" s="288"/>
-      <c r="H1" s="288"/>
-      <c r="I1" s="288"/>
-      <c r="J1" s="288"/>
-      <c r="K1" s="288"/>
-      <c r="L1" s="288"/>
-      <c r="M1" s="288"/>
-      <c r="N1" s="288"/>
-    </row>
-    <row r="2" spans="1:19" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="288"/>
-      <c r="E2" s="280" t="s">
+    <row r="1" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:19" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E2" s="402" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="281"/>
-      <c r="G2" s="281"/>
-      <c r="H2" s="281"/>
-      <c r="I2" s="282"/>
-      <c r="J2" s="339"/>
-      <c r="K2" s="280" t="s">
+      <c r="F2" s="403"/>
+      <c r="G2" s="403"/>
+      <c r="H2" s="403"/>
+      <c r="I2" s="404"/>
+      <c r="J2" s="296"/>
+      <c r="K2" s="402" t="s">
         <v>33</v>
       </c>
-      <c r="L2" s="281"/>
-      <c r="M2" s="281"/>
-      <c r="N2" s="282"/>
-    </row>
-    <row r="3" spans="1:19" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="288"/>
-      <c r="B3" s="252" t="s">
+      <c r="L2" s="403"/>
+      <c r="M2" s="403"/>
+      <c r="N2" s="404"/>
+    </row>
+    <row r="3" spans="2:19" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="411" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="253"/>
-      <c r="D3" s="254"/>
-      <c r="E3" s="389" t="s">
+      <c r="C3" s="412"/>
+      <c r="D3" s="413"/>
+      <c r="E3" s="408" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="390"/>
-      <c r="G3" s="391" t="s">
+      <c r="F3" s="409"/>
+      <c r="G3" s="410" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="390"/>
-      <c r="I3" s="287" t="s">
+      <c r="H3" s="409"/>
+      <c r="I3" s="251" t="s">
         <v>40</v>
       </c>
-      <c r="J3" s="340"/>
-      <c r="K3" s="392" t="s">
+      <c r="J3" s="297"/>
+      <c r="K3" s="346" t="s">
         <v>35</v>
       </c>
-      <c r="L3" s="287" t="s">
+      <c r="L3" s="251" t="s">
         <v>37</v>
       </c>
-      <c r="M3" s="287" t="s">
+      <c r="M3" s="251" t="s">
         <v>38</v>
       </c>
-      <c r="N3" s="287" t="s">
+      <c r="N3" s="251" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="288"/>
+    <row r="4" spans="2:19" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="241" t="s">
         <v>23</v>
       </c>
@@ -8534,41 +9152,40 @@
       <c r="D4" s="189" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="316" t="s">
+      <c r="E4" s="277" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="317" t="s">
+      <c r="F4" s="278" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="316" t="s">
+      <c r="G4" s="277" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="317" t="s">
+      <c r="H4" s="278" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="318" t="s">
+      <c r="I4" s="279" t="s">
         <v>39</v>
       </c>
-      <c r="J4" s="341"/>
-      <c r="K4" s="318" t="s">
+      <c r="J4" s="298"/>
+      <c r="K4" s="279" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="318" t="s">
+      <c r="L4" s="279" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="318" t="s">
+      <c r="M4" s="279" t="s">
         <v>10</v>
       </c>
-      <c r="N4" s="320" t="s">
+      <c r="N4" s="281" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="288"/>
-      <c r="B5" s="249" t="s">
+    <row r="5" spans="2:19" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="405" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="255" t="s">
+      <c r="C5" s="397" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="151" t="s">
@@ -8586,10 +9203,10 @@
       <c r="H5" s="110">
         <v>0.41249999999999998</v>
       </c>
-      <c r="I5" s="312" t="s">
+      <c r="I5" s="273" t="s">
         <v>42</v>
       </c>
-      <c r="J5" s="342"/>
+      <c r="J5" s="299"/>
       <c r="K5" s="158">
         <v>0.214</v>
       </c>
@@ -8599,14 +9216,13 @@
       <c r="M5" s="135">
         <v>-6.0699999999999997E-2</v>
       </c>
-      <c r="N5" s="331" t="s">
+      <c r="N5" s="292" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="288"/>
-      <c r="B6" s="250"/>
-      <c r="C6" s="247"/>
+    <row r="6" spans="2:19" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="406"/>
+      <c r="C6" s="398"/>
       <c r="D6" s="150" t="s">
         <v>17</v>
       </c>
@@ -8622,11 +9238,11 @@
       <c r="H6" s="90">
         <v>0.38750000000000001</v>
       </c>
-      <c r="I6" s="305" t="s">
+      <c r="I6" s="266" t="s">
         <v>43</v>
       </c>
-      <c r="J6" s="343"/>
-      <c r="K6" s="276">
+      <c r="J6" s="300"/>
+      <c r="K6" s="247">
         <v>0.223</v>
       </c>
       <c r="L6" s="159">
@@ -8635,15 +9251,14 @@
       <c r="M6" s="136">
         <v>-6.0199999999999997E-2</v>
       </c>
-      <c r="N6" s="308" t="s">
+      <c r="N6" s="269" t="s">
         <v>42</v>
       </c>
-      <c r="S6" s="353"/>
-    </row>
-    <row r="7" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="288"/>
-      <c r="B7" s="250"/>
-      <c r="C7" s="247"/>
+      <c r="S6" s="310"/>
+    </row>
+    <row r="7" spans="2:19" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="406"/>
+      <c r="C7" s="398"/>
       <c r="D7" s="150" t="s">
         <v>7</v>
       </c>
@@ -8656,30 +9271,29 @@
       <c r="G7" s="101">
         <v>0.23641670000000001</v>
       </c>
-      <c r="H7" s="428">
+      <c r="H7" s="381">
         <v>0.36666670000000001</v>
       </c>
-      <c r="I7" s="305" t="s">
+      <c r="I7" s="266" t="s">
         <v>41</v>
       </c>
-      <c r="J7" s="343"/>
+      <c r="J7" s="300"/>
       <c r="K7" s="161">
         <v>0.20100000000000001</v>
       </c>
       <c r="L7" s="161">
         <v>-0.501</v>
       </c>
-      <c r="M7" s="319">
+      <c r="M7" s="280">
         <v>-6.6400000000000001E-2</v>
       </c>
-      <c r="N7" s="332" t="s">
+      <c r="N7" s="293" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="288"/>
-      <c r="B8" s="250"/>
-      <c r="C8" s="256"/>
+    <row r="8" spans="2:19" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="406"/>
+      <c r="C8" s="399"/>
       <c r="D8" s="152" t="s">
         <v>9</v>
       </c>
@@ -8695,65 +9309,63 @@
       <c r="H8" s="186">
         <v>0.5</v>
       </c>
-      <c r="I8" s="306" t="s">
+      <c r="I8" s="267" t="s">
         <v>41</v>
       </c>
-      <c r="J8" s="344"/>
+      <c r="J8" s="301"/>
       <c r="K8" s="162">
         <v>0.19800000000000001</v>
       </c>
       <c r="L8" s="162">
         <v>-0.16400000000000001</v>
       </c>
-      <c r="M8" s="297">
+      <c r="M8" s="258">
         <v>-4.4699999999999997E-2</v>
       </c>
-      <c r="N8" s="306" t="s">
+      <c r="N8" s="267" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="16" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="288"/>
-      <c r="B9" s="250"/>
-      <c r="C9" s="247" t="s">
+    <row r="9" spans="2:19" ht="16" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="406"/>
+      <c r="C9" s="398" t="s">
         <v>3</v>
       </c>
       <c r="D9" s="150" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="417">
+      <c r="E9" s="370">
         <v>0.61599999999999999</v>
       </c>
-      <c r="F9" s="427">
+      <c r="F9" s="380">
         <v>0.94199999999999995</v>
       </c>
-      <c r="G9" s="410">
+      <c r="G9" s="363">
         <v>0.20674999999999999</v>
       </c>
       <c r="H9" s="113">
         <v>0.39166669999999998</v>
       </c>
-      <c r="I9" s="354" t="s">
+      <c r="I9" s="311" t="s">
         <v>44</v>
       </c>
-      <c r="J9" s="345"/>
+      <c r="J9" s="302"/>
       <c r="K9" s="161">
         <v>0.19</v>
       </c>
       <c r="L9" s="172">
         <v>-0.52100000000000002</v>
       </c>
-      <c r="M9" s="321">
+      <c r="M9" s="282">
         <v>-5.8200000000000002E-2</v>
       </c>
-      <c r="N9" s="307" t="s">
+      <c r="N9" s="268" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="288"/>
-      <c r="B10" s="250"/>
-      <c r="C10" s="256"/>
+    <row r="10" spans="2:19" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="406"/>
+      <c r="C10" s="399"/>
       <c r="D10" s="152" t="s">
         <v>9</v>
       </c>
@@ -8769,27 +9381,26 @@
       <c r="H10" s="108">
         <v>0.4</v>
       </c>
-      <c r="I10" s="306" t="s">
+      <c r="I10" s="267" t="s">
         <v>45</v>
       </c>
-      <c r="J10" s="344"/>
-      <c r="K10" s="411">
+      <c r="J10" s="301"/>
+      <c r="K10" s="364">
         <v>0.17299999999999999</v>
       </c>
       <c r="L10" s="162">
         <v>-0.28499999999999998</v>
       </c>
-      <c r="M10" s="438">
+      <c r="M10" s="391">
         <v>-3.3599999999999998E-2</v>
       </c>
-      <c r="N10" s="338" t="s">
+      <c r="N10" s="295" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="16" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="288"/>
-      <c r="B11" s="250"/>
-      <c r="C11" s="246" t="s">
+    <row r="11" spans="2:19" ht="16" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="406"/>
+      <c r="C11" s="400" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="151" t="s">
@@ -8801,16 +9412,16 @@
       <c r="F11" s="110">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G11" s="275">
+      <c r="G11" s="246">
         <v>0.270125</v>
       </c>
       <c r="H11" s="92">
         <v>0.46250000000000002</v>
       </c>
-      <c r="I11" s="307" t="s">
+      <c r="I11" s="268" t="s">
         <v>42</v>
       </c>
-      <c r="J11" s="346"/>
+      <c r="J11" s="303"/>
       <c r="K11" s="164">
         <v>0.20699999999999999</v>
       </c>
@@ -8820,14 +9431,13 @@
       <c r="M11" s="135">
         <v>-5.8200000000000002E-2</v>
       </c>
-      <c r="N11" s="307" t="s">
+      <c r="N11" s="268" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="288"/>
-      <c r="B12" s="250"/>
-      <c r="C12" s="247"/>
+    <row r="12" spans="2:19" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="406"/>
+      <c r="C12" s="398"/>
       <c r="D12" s="150" t="s">
         <v>17</v>
       </c>
@@ -8843,27 +9453,26 @@
       <c r="H12" s="98">
         <v>0.41249999999999998</v>
       </c>
-      <c r="I12" s="308" t="s">
+      <c r="I12" s="269" t="s">
         <v>43</v>
       </c>
-      <c r="J12" s="345"/>
+      <c r="J12" s="302"/>
       <c r="K12" s="166">
         <v>0.20899999999999999</v>
       </c>
-      <c r="L12" s="429">
+      <c r="L12" s="382">
         <v>2.4499999999999999E-3</v>
       </c>
       <c r="M12" s="136">
         <v>-5.7700000000000001E-2</v>
       </c>
-      <c r="N12" s="308" t="s">
+      <c r="N12" s="269" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="288"/>
-      <c r="B13" s="251"/>
-      <c r="C13" s="248"/>
+    <row r="13" spans="2:19" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="407"/>
+      <c r="C13" s="401"/>
       <c r="D13" s="192" t="s">
         <v>9</v>
       </c>
@@ -8879,45 +9488,43 @@
       <c r="H13" s="194">
         <v>0.5</v>
       </c>
-      <c r="I13" s="309" t="s">
+      <c r="I13" s="270" t="s">
         <v>42</v>
       </c>
-      <c r="J13" s="347"/>
+      <c r="J13" s="304"/>
       <c r="K13" s="227">
         <v>0.182</v>
       </c>
       <c r="L13" s="196">
         <v>-0.217</v>
       </c>
-      <c r="M13" s="322">
+      <c r="M13" s="283">
         <v>-4.7100000000000003E-2</v>
       </c>
-      <c r="N13" s="309" t="s">
+      <c r="N13" s="270" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="2.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="288"/>
+    <row r="14" spans="2:19" ht="2.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B14" s="191"/>
-      <c r="C14" s="295"/>
+      <c r="C14" s="257"/>
       <c r="D14" s="229"/>
       <c r="E14" s="229"/>
       <c r="F14" s="229"/>
       <c r="G14" s="229"/>
       <c r="H14" s="229"/>
-      <c r="I14" s="300"/>
-      <c r="J14" s="300"/>
+      <c r="I14" s="261"/>
+      <c r="J14" s="261"/>
       <c r="K14" s="229"/>
       <c r="L14" s="229"/>
       <c r="M14" s="229"/>
-      <c r="N14" s="355"/>
-    </row>
-    <row r="15" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="288"/>
-      <c r="B15" s="249" t="s">
+      <c r="N14" s="312"/>
+    </row>
+    <row r="15" spans="2:19" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="405" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="296" t="s">
+      <c r="C15" s="428" t="s">
         <v>2</v>
       </c>
       <c r="D15" s="222" t="s">
@@ -8935,63 +9542,61 @@
       <c r="H15" s="133">
         <v>0.438</v>
       </c>
-      <c r="I15" s="303" t="s">
+      <c r="I15" s="264" t="s">
         <v>46</v>
       </c>
-      <c r="J15" s="348"/>
+      <c r="J15" s="305"/>
       <c r="K15" s="216">
         <v>0.19700000000000001</v>
       </c>
       <c r="L15" s="158">
         <v>-0.61</v>
       </c>
-      <c r="M15" s="323">
+      <c r="M15" s="284">
         <v>-9.7500000000000003E-2</v>
       </c>
-      <c r="N15" s="308" t="s">
+      <c r="N15" s="269" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="288"/>
-      <c r="B16" s="250"/>
-      <c r="C16" s="256"/>
+    <row r="16" spans="2:19" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="406"/>
+      <c r="C16" s="399"/>
       <c r="D16" s="223" t="s">
         <v>8</v>
       </c>
       <c r="E16" s="131">
         <v>0.7</v>
       </c>
-      <c r="F16" s="289">
+      <c r="F16" s="252">
         <v>1.02</v>
       </c>
       <c r="G16" s="107">
         <v>0.22900000000000001</v>
       </c>
-      <c r="H16" s="290">
+      <c r="H16" s="253">
         <v>0.36199999999999999</v>
       </c>
-      <c r="I16" s="304" t="s">
+      <c r="I16" s="265" t="s">
         <v>43</v>
       </c>
-      <c r="J16" s="349"/>
+      <c r="J16" s="306"/>
       <c r="K16" s="171">
         <v>0.14199999999999999</v>
       </c>
-      <c r="L16" s="291">
+      <c r="L16" s="254">
         <v>-0.82299999999999995</v>
       </c>
-      <c r="M16" s="324">
+      <c r="M16" s="285">
         <v>-0.105</v>
       </c>
-      <c r="N16" s="306" t="s">
+      <c r="N16" s="267" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="16" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="288"/>
-      <c r="B17" s="250"/>
-      <c r="C17" s="247" t="s">
+    <row r="17" spans="2:14" ht="16" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="406"/>
+      <c r="C17" s="398" t="s">
         <v>3</v>
       </c>
       <c r="D17" s="83" t="s">
@@ -9009,70 +9614,68 @@
       <c r="H17" s="134">
         <v>0.375</v>
       </c>
-      <c r="I17" s="305" t="s">
+      <c r="I17" s="266" t="s">
         <v>43</v>
       </c>
-      <c r="J17" s="343"/>
+      <c r="J17" s="300"/>
       <c r="K17" s="100">
         <v>0.20499999999999999</v>
       </c>
-      <c r="L17" s="430">
+      <c r="L17" s="383">
         <v>9.9799999999999993E-3</v>
       </c>
-      <c r="M17" s="325">
+      <c r="M17" s="286">
         <v>-0.14199999999999999</v>
       </c>
-      <c r="N17" s="307" t="s">
+      <c r="N17" s="268" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="288"/>
-      <c r="B18" s="250"/>
-      <c r="C18" s="247"/>
+    <row r="18" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="406"/>
+      <c r="C18" s="398"/>
       <c r="D18" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="418">
+      <c r="E18" s="371">
         <v>0.40400000000000003</v>
       </c>
-      <c r="F18" s="428">
+      <c r="F18" s="381">
         <v>0.79200000000000004</v>
       </c>
-      <c r="G18" s="420">
+      <c r="G18" s="373">
         <v>0.14399999999999999</v>
       </c>
-      <c r="H18" s="431">
+      <c r="H18" s="384">
         <v>0.317</v>
       </c>
-      <c r="I18" s="315" t="s">
+      <c r="I18" s="276" t="s">
         <v>47</v>
       </c>
-      <c r="J18" s="343"/>
+      <c r="J18" s="300"/>
       <c r="K18" s="170">
         <v>0.156</v>
       </c>
       <c r="L18" s="166">
         <v>0.27800000000000002</v>
       </c>
-      <c r="M18" s="326">
+      <c r="M18" s="287">
         <v>-0.14199999999999999</v>
       </c>
-      <c r="N18" s="308" t="s">
+      <c r="N18" s="269" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="288"/>
-      <c r="B19" s="250"/>
-      <c r="C19" s="247"/>
+    <row r="19" spans="2:14" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="406"/>
+      <c r="C19" s="398"/>
       <c r="D19" s="223" t="s">
         <v>8</v>
       </c>
       <c r="E19" s="131">
         <v>0.623</v>
       </c>
-      <c r="F19" s="294">
+      <c r="F19" s="256">
         <v>0.98799999999999999</v>
       </c>
       <c r="G19" s="124">
@@ -9081,27 +9684,26 @@
       <c r="H19" s="235">
         <v>0.35</v>
       </c>
-      <c r="I19" s="306" t="s">
+      <c r="I19" s="267" t="s">
         <v>43</v>
       </c>
-      <c r="J19" s="344"/>
-      <c r="K19" s="414">
+      <c r="J19" s="301"/>
+      <c r="K19" s="367">
         <v>0.11899999999999999</v>
       </c>
       <c r="L19" s="167">
         <v>-0.26400000000000001</v>
       </c>
-      <c r="M19" s="324">
+      <c r="M19" s="285">
         <v>-0.107</v>
       </c>
-      <c r="N19" s="338" t="s">
+      <c r="N19" s="295" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="16" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="288"/>
-      <c r="B20" s="250"/>
-      <c r="C20" s="246" t="s">
+    <row r="20" spans="2:14" ht="16" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="406"/>
+      <c r="C20" s="400" t="s">
         <v>18</v>
       </c>
       <c r="D20" s="84" t="s">
@@ -9110,7 +9712,7 @@
       <c r="E20" s="127">
         <v>0.73699999999999999</v>
       </c>
-      <c r="F20" s="275">
+      <c r="F20" s="246">
         <v>1.08</v>
       </c>
       <c r="G20" s="127">
@@ -9119,27 +9721,26 @@
       <c r="H20" s="141">
         <v>0.4</v>
       </c>
-      <c r="I20" s="307" t="s">
+      <c r="I20" s="268" t="s">
         <v>42</v>
       </c>
-      <c r="J20" s="346"/>
+      <c r="J20" s="303"/>
       <c r="K20" s="121">
         <v>0.20799999999999999</v>
       </c>
       <c r="L20" s="163">
         <v>-0.54600000000000004</v>
       </c>
-      <c r="M20" s="327">
+      <c r="M20" s="288">
         <v>-0.113</v>
       </c>
-      <c r="N20" s="307" t="s">
+      <c r="N20" s="268" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="288"/>
-      <c r="B21" s="250"/>
-      <c r="C21" s="247"/>
+    <row r="21" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="406"/>
+      <c r="C21" s="398"/>
       <c r="D21" s="83" t="s">
         <v>17</v>
       </c>
@@ -9155,26 +9756,26 @@
       <c r="H21" s="142">
         <v>0.36199999999999999</v>
       </c>
-      <c r="I21" s="308" t="s">
+      <c r="I21" s="269" t="s">
         <v>43</v>
       </c>
-      <c r="J21" s="345"/>
+      <c r="J21" s="302"/>
       <c r="K21" s="115">
         <v>0.21</v>
       </c>
       <c r="L21" s="159">
         <v>-0.71399999999999997</v>
       </c>
-      <c r="M21" s="328">
+      <c r="M21" s="289">
         <v>-0.126</v>
       </c>
-      <c r="N21" s="308" t="s">
+      <c r="N21" s="269" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="251"/>
-      <c r="C22" s="248"/>
+    <row r="22" spans="2:14" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B22" s="407"/>
+      <c r="C22" s="401"/>
       <c r="D22" s="230" t="s">
         <v>9</v>
       </c>
@@ -9190,24 +9791,24 @@
       <c r="H22" s="219">
         <v>0.42499999999999999</v>
       </c>
-      <c r="I22" s="309" t="s">
+      <c r="I22" s="270" t="s">
         <v>43</v>
       </c>
-      <c r="J22" s="350"/>
+      <c r="J22" s="307"/>
       <c r="K22" s="220">
         <v>0.13600000000000001</v>
       </c>
       <c r="L22" s="236">
         <v>-0.307</v>
       </c>
-      <c r="M22" s="442">
+      <c r="M22" s="395">
         <v>-8.5400000000000004E-2</v>
       </c>
-      <c r="N22" s="354" t="s">
+      <c r="N22" s="311" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="2.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:14" ht="2.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B23" s="191"/>
       <c r="C23" s="197"/>
       <c r="D23" s="198"/>
@@ -9215,18 +9816,18 @@
       <c r="F23" s="198"/>
       <c r="G23" s="198"/>
       <c r="H23" s="198"/>
-      <c r="I23" s="313"/>
-      <c r="J23" s="301"/>
+      <c r="I23" s="274"/>
+      <c r="J23" s="262"/>
       <c r="K23" s="198"/>
       <c r="L23" s="198"/>
       <c r="M23" s="198"/>
-      <c r="N23" s="333"/>
-    </row>
-    <row r="24" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="249" t="s">
+      <c r="N23" s="294"/>
+    </row>
+    <row r="24" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="405" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="255" t="s">
+      <c r="C24" s="397" t="s">
         <v>2</v>
       </c>
       <c r="D24" s="238" t="s">
@@ -9244,10 +9845,10 @@
       <c r="H24" s="244">
         <v>0.4</v>
       </c>
-      <c r="I24" s="303" t="s">
+      <c r="I24" s="264" t="s">
         <v>48</v>
       </c>
-      <c r="J24" s="348"/>
+      <c r="J24" s="305"/>
       <c r="K24" s="216">
         <v>0.19400000000000001</v>
       </c>
@@ -9257,13 +9858,13 @@
       <c r="M24" s="244">
         <v>-0.11700000000000001</v>
       </c>
-      <c r="N24" s="334" t="s">
+      <c r="N24" s="269" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="250"/>
-      <c r="C25" s="247"/>
+    <row r="25" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="406"/>
+      <c r="C25" s="398"/>
       <c r="D25" s="83" t="s">
         <v>17</v>
       </c>
@@ -9279,10 +9880,10 @@
       <c r="H25" s="134">
         <v>0.36199999999999999</v>
       </c>
-      <c r="I25" s="305" t="s">
+      <c r="I25" s="266" t="s">
         <v>43</v>
       </c>
-      <c r="J25" s="343"/>
+      <c r="J25" s="300"/>
       <c r="K25" s="102">
         <v>0.21199999999999999</v>
       </c>
@@ -9292,13 +9893,13 @@
       <c r="M25" s="134">
         <v>-0.13400000000000001</v>
       </c>
-      <c r="N25" s="334" t="s">
+      <c r="N25" s="269" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="250"/>
-      <c r="C26" s="247"/>
+    <row r="26" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="406"/>
+      <c r="C26" s="398"/>
       <c r="D26" s="83" t="s">
         <v>8</v>
       </c>
@@ -9311,14 +9912,14 @@
       <c r="G26" s="101">
         <v>0.21</v>
       </c>
-      <c r="H26" s="292">
+      <c r="H26" s="137">
         <v>0.438</v>
       </c>
-      <c r="I26" s="310" t="s">
+      <c r="I26" s="271" t="s">
         <v>43</v>
       </c>
-      <c r="J26" s="351"/>
-      <c r="K26" s="441">
+      <c r="J26" s="308"/>
+      <c r="K26" s="394">
         <v>9.0399999999999994E-2</v>
       </c>
       <c r="L26" s="104">
@@ -9327,13 +9928,13 @@
       <c r="M26" s="232">
         <v>-0.11899999999999999</v>
       </c>
-      <c r="N26" s="354" t="s">
+      <c r="N26" s="311" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="250"/>
-      <c r="C27" s="256"/>
+    <row r="27" spans="2:14" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B27" s="406"/>
+      <c r="C27" s="399"/>
       <c r="D27" s="85" t="s">
         <v>9</v>
       </c>
@@ -9349,26 +9950,26 @@
       <c r="H27" s="138">
         <v>0.4</v>
       </c>
-      <c r="I27" s="311" t="s">
+      <c r="I27" s="272" t="s">
         <v>43</v>
       </c>
-      <c r="J27" s="352"/>
+      <c r="J27" s="309"/>
       <c r="K27" s="171">
         <v>9.5299999999999996E-2</v>
       </c>
       <c r="L27" s="108">
         <v>-0.22500000000000001</v>
       </c>
-      <c r="M27" s="440">
+      <c r="M27" s="393">
         <v>-0.10299999999999999</v>
       </c>
-      <c r="N27" s="338" t="s">
+      <c r="N27" s="295" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="16" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="250"/>
-      <c r="C28" s="246" t="s">
+    <row r="28" spans="2:14" ht="16" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="406"/>
+      <c r="C28" s="400" t="s">
         <v>3</v>
       </c>
       <c r="D28" s="84" t="s">
@@ -9383,29 +9984,29 @@
       <c r="G28" s="109">
         <v>0.23200000000000001</v>
       </c>
-      <c r="H28" s="278">
+      <c r="H28" s="249">
         <v>0.45</v>
       </c>
-      <c r="I28" s="312" t="s">
+      <c r="I28" s="273" t="s">
         <v>42</v>
       </c>
-      <c r="J28" s="342"/>
+      <c r="J28" s="299"/>
       <c r="K28" s="96">
         <v>0.159</v>
       </c>
-      <c r="L28" s="434">
+      <c r="L28" s="387">
         <v>6.94E-3</v>
       </c>
       <c r="M28" s="139">
         <v>-0.13100000000000001</v>
       </c>
-      <c r="N28" s="356" t="s">
+      <c r="N28" s="313" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="250"/>
-      <c r="C29" s="247"/>
+    <row r="29" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="406"/>
+      <c r="C29" s="398"/>
       <c r="D29" s="84" t="s">
         <v>6</v>
       </c>
@@ -9421,61 +10022,61 @@
       <c r="H29" s="135">
         <v>0.33800000000000002</v>
       </c>
-      <c r="I29" s="312" t="s">
+      <c r="I29" s="273" t="s">
         <v>43</v>
       </c>
-      <c r="J29" s="342"/>
+      <c r="J29" s="299"/>
       <c r="K29" s="169">
         <v>0.11899999999999999</v>
       </c>
       <c r="L29" s="94">
         <v>-0.44400000000000001</v>
       </c>
-      <c r="M29" s="329">
+      <c r="M29" s="290">
         <v>-0.14499999999999999</v>
       </c>
-      <c r="N29" s="334" t="s">
+      <c r="N29" s="269" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="250"/>
-      <c r="C30" s="256"/>
+    <row r="30" spans="2:14" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B30" s="406"/>
+      <c r="C30" s="399"/>
       <c r="D30" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="E30" s="437">
+      <c r="E30" s="390">
         <v>0.33800000000000002</v>
       </c>
       <c r="F30" s="108">
         <v>0.82499999999999996</v>
       </c>
-      <c r="G30" s="436">
+      <c r="G30" s="389">
         <v>0.126</v>
       </c>
-      <c r="H30" s="435">
+      <c r="H30" s="388">
         <v>0.3</v>
       </c>
-      <c r="I30" s="314" t="s">
+      <c r="I30" s="275" t="s">
         <v>44</v>
       </c>
-      <c r="J30" s="352"/>
+      <c r="J30" s="309"/>
       <c r="K30" s="171">
         <v>0.109</v>
       </c>
       <c r="L30" s="108">
         <v>-0.23699999999999999</v>
       </c>
-      <c r="M30" s="290">
+      <c r="M30" s="253">
         <v>-0.14000000000000001</v>
       </c>
-      <c r="N30" s="335" t="s">
+      <c r="N30" s="267" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="16" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="250"/>
-      <c r="C31" s="246" t="s">
+    <row r="31" spans="2:14" ht="16" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="406"/>
+      <c r="C31" s="400" t="s">
         <v>18</v>
       </c>
       <c r="D31" s="84" t="s">
@@ -9484,7 +10085,7 @@
       <c r="E31" s="127">
         <v>0.69199999999999995</v>
       </c>
-      <c r="F31" s="277">
+      <c r="F31" s="248">
         <v>1.06</v>
       </c>
       <c r="G31" s="120">
@@ -9493,10 +10094,10 @@
       <c r="H31" s="141">
         <v>0.42499999999999999</v>
       </c>
-      <c r="I31" s="307" t="s">
+      <c r="I31" s="268" t="s">
         <v>42</v>
       </c>
-      <c r="J31" s="346"/>
+      <c r="J31" s="303"/>
       <c r="K31" s="216">
         <v>0.17100000000000001</v>
       </c>
@@ -9506,42 +10107,42 @@
       <c r="M31" s="244">
         <v>-0.12</v>
       </c>
-      <c r="N31" s="336" t="s">
+      <c r="N31" s="268" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B32" s="251"/>
-      <c r="C32" s="248"/>
+    <row r="32" spans="2:14" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B32" s="407"/>
+      <c r="C32" s="401"/>
       <c r="D32" s="217" t="s">
         <v>7</v>
       </c>
       <c r="E32" s="148">
         <v>0.36499999999999999</v>
       </c>
-      <c r="F32" s="419">
+      <c r="F32" s="372">
         <v>0.73299999999999998</v>
       </c>
       <c r="G32" s="218">
         <v>0.13400000000000001</v>
       </c>
-      <c r="H32" s="439">
+      <c r="H32" s="392">
         <v>0.3</v>
       </c>
-      <c r="I32" s="309" t="s">
+      <c r="I32" s="270" t="s">
         <v>49</v>
       </c>
-      <c r="J32" s="350"/>
-      <c r="K32" s="302">
+      <c r="J32" s="307"/>
+      <c r="K32" s="263">
         <v>0.13800000000000001</v>
       </c>
-      <c r="L32" s="293">
+      <c r="L32" s="255">
         <v>-0.22</v>
       </c>
-      <c r="M32" s="330">
+      <c r="M32" s="291">
         <v>-0.16200000000000001</v>
       </c>
-      <c r="N32" s="337" t="s">
+      <c r="N32" s="270" t="s">
         <v>52</v>
       </c>
     </row>
@@ -9570,7 +10171,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4E29B7B-D579-43D4-BFFA-681CF5D12D64}">
   <dimension ref="B1:O43"/>
   <sheetViews>
@@ -9597,32 +10198,32 @@
   <sheetData>
     <row r="1" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:15" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="269" t="s">
+      <c r="B2" s="431" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="270"/>
-      <c r="D2" s="271" t="s">
+      <c r="C2" s="432"/>
+      <c r="D2" s="433" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="272"/>
+      <c r="E2" s="434"/>
       <c r="F2" s="12"/>
-      <c r="G2" s="269" t="s">
+      <c r="G2" s="431" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="273"/>
-      <c r="I2" s="271" t="s">
+      <c r="H2" s="435"/>
+      <c r="I2" s="433" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="272"/>
+      <c r="J2" s="434"/>
       <c r="K2" s="12"/>
-      <c r="L2" s="269" t="s">
+      <c r="L2" s="431" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="273"/>
-      <c r="N2" s="274" t="s">
+      <c r="M2" s="435"/>
+      <c r="N2" s="436" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="272"/>
+      <c r="O2" s="434"/>
     </row>
     <row r="3" spans="2:15" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="7" t="s">
@@ -10276,32 +10877,32 @@
     </row>
     <row r="23" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="24" spans="2:15" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="269" t="s">
+      <c r="B24" s="431" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="270"/>
-      <c r="D24" s="267" t="s">
+      <c r="C24" s="432"/>
+      <c r="D24" s="429" t="s">
         <v>15</v>
       </c>
-      <c r="E24" s="268"/>
+      <c r="E24" s="430"/>
       <c r="F24" s="12"/>
-      <c r="G24" s="269" t="s">
+      <c r="G24" s="431" t="s">
         <v>13</v>
       </c>
-      <c r="H24" s="273"/>
-      <c r="I24" s="267" t="s">
+      <c r="H24" s="435"/>
+      <c r="I24" s="429" t="s">
         <v>15</v>
       </c>
-      <c r="J24" s="268"/>
+      <c r="J24" s="430"/>
       <c r="K24" s="12"/>
-      <c r="L24" s="269" t="s">
+      <c r="L24" s="431" t="s">
         <v>14</v>
       </c>
-      <c r="M24" s="273"/>
-      <c r="N24" s="267" t="s">
+      <c r="M24" s="435"/>
+      <c r="N24" s="429" t="s">
         <v>15</v>
       </c>
-      <c r="O24" s="268"/>
+      <c r="O24" s="430"/>
     </row>
     <row r="25" spans="2:15" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B25" s="7" t="s">

--- a/tables.xlsx
+++ b/tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thomp\Desktop\Ch3_floweringrush\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE288B45-2C36-4A4C-8978-70AC6DF72FD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E24C850B-5FAB-4018-B7BA-0AF32FDDA172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{94130567-C790-4197-BF09-72317C0E58C5}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{94130567-C790-4197-BF09-72317C0E58C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Space1" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="58">
   <si>
     <t>Location</t>
   </si>
@@ -1780,7 +1780,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="478">
+  <cellXfs count="460">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2876,29 +2876,35 @@
     <xf numFmtId="164" fontId="10" fillId="12" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2927,6 +2933,39 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2960,15 +2999,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2996,101 +3026,29 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="72" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3436,7 +3394,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A735158-88E3-4592-A032-033FAF873106}">
   <dimension ref="B1:M92"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="50" zoomScalePageLayoutView="40" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="50" zoomScalePageLayoutView="40" workbookViewId="0">
       <selection activeCell="K58" sqref="K58"/>
     </sheetView>
   </sheetViews>
@@ -3461,33 +3419,33 @@
       <c r="I1"/>
     </row>
     <row r="2" spans="2:13" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E2" s="402" t="s">
+      <c r="E2" s="425" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="403"/>
-      <c r="G2" s="403"/>
-      <c r="H2" s="404"/>
+      <c r="F2" s="426"/>
+      <c r="G2" s="426"/>
+      <c r="H2" s="427"/>
       <c r="I2" s="324"/>
-      <c r="J2" s="402" t="s">
+      <c r="J2" s="425" t="s">
         <v>33</v>
       </c>
-      <c r="K2" s="403"/>
-      <c r="L2" s="404"/>
+      <c r="K2" s="426"/>
+      <c r="L2" s="427"/>
     </row>
     <row r="3" spans="2:13" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="411" t="s">
+      <c r="B3" s="417" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="412"/>
-      <c r="D3" s="413"/>
-      <c r="E3" s="408" t="s">
+      <c r="C3" s="418"/>
+      <c r="D3" s="419"/>
+      <c r="E3" s="414" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="409"/>
-      <c r="G3" s="410" t="s">
+      <c r="F3" s="415"/>
+      <c r="G3" s="416" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="409"/>
+      <c r="H3" s="415"/>
       <c r="I3" s="325"/>
       <c r="J3" s="250" t="s">
         <v>35</v>
@@ -3535,10 +3493,10 @@
       <c r="M4" s="77"/>
     </row>
     <row r="5" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="405" t="s">
+      <c r="B5" s="411" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="397" t="s">
+      <c r="C5" s="420" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="151" t="s">
@@ -3569,8 +3527,8 @@
       <c r="M5" s="79"/>
     </row>
     <row r="6" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="406"/>
-      <c r="C6" s="398"/>
+      <c r="B6" s="412"/>
+      <c r="C6" s="421"/>
       <c r="D6" s="150" t="s">
         <v>17</v>
       </c>
@@ -3599,8 +3557,8 @@
       <c r="M6" s="79"/>
     </row>
     <row r="7" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="406"/>
-      <c r="C7" s="398"/>
+      <c r="B7" s="412"/>
+      <c r="C7" s="421"/>
       <c r="D7" s="151" t="s">
         <v>6</v>
       </c>
@@ -3629,8 +3587,8 @@
       <c r="M7" s="79"/>
     </row>
     <row r="8" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="406"/>
-      <c r="C8" s="398"/>
+      <c r="B8" s="412"/>
+      <c r="C8" s="421"/>
       <c r="D8" s="150" t="s">
         <v>7</v>
       </c>
@@ -3659,8 +3617,8 @@
       <c r="M8" s="79"/>
     </row>
     <row r="9" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="406"/>
-      <c r="C9" s="398"/>
+      <c r="B9" s="412"/>
+      <c r="C9" s="421"/>
       <c r="D9" s="150" t="s">
         <v>8</v>
       </c>
@@ -3689,8 +3647,8 @@
       <c r="M9" s="78"/>
     </row>
     <row r="10" spans="2:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B10" s="406"/>
-      <c r="C10" s="399"/>
+      <c r="B10" s="412"/>
+      <c r="C10" s="422"/>
       <c r="D10" s="152" t="s">
         <v>9</v>
       </c>
@@ -3719,8 +3677,8 @@
       <c r="M10" s="79"/>
     </row>
     <row r="11" spans="2:13" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="406"/>
-      <c r="C11" s="400" t="s">
+      <c r="B11" s="412"/>
+      <c r="C11" s="423" t="s">
         <v>3</v>
       </c>
       <c r="D11" s="151" t="s">
@@ -3751,8 +3709,8 @@
       <c r="M11" s="81"/>
     </row>
     <row r="12" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="406"/>
-      <c r="C12" s="398"/>
+      <c r="B12" s="412"/>
+      <c r="C12" s="421"/>
       <c r="D12" s="150" t="s">
         <v>17</v>
       </c>
@@ -3781,8 +3739,8 @@
       <c r="M12" s="81"/>
     </row>
     <row r="13" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="406"/>
-      <c r="C13" s="398"/>
+      <c r="B13" s="412"/>
+      <c r="C13" s="421"/>
       <c r="D13" s="151" t="s">
         <v>6</v>
       </c>
@@ -3811,8 +3769,8 @@
       <c r="M13" s="80"/>
     </row>
     <row r="14" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="406"/>
-      <c r="C14" s="398"/>
+      <c r="B14" s="412"/>
+      <c r="C14" s="421"/>
       <c r="D14" s="150" t="s">
         <v>7</v>
       </c>
@@ -3841,8 +3799,8 @@
       <c r="M14" s="79"/>
     </row>
     <row r="15" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="406"/>
-      <c r="C15" s="398"/>
+      <c r="B15" s="412"/>
+      <c r="C15" s="421"/>
       <c r="D15" s="150" t="s">
         <v>8</v>
       </c>
@@ -3871,8 +3829,8 @@
       <c r="M15" s="79"/>
     </row>
     <row r="16" spans="2:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B16" s="406"/>
-      <c r="C16" s="399"/>
+      <c r="B16" s="412"/>
+      <c r="C16" s="422"/>
       <c r="D16" s="152" t="s">
         <v>9</v>
       </c>
@@ -3901,8 +3859,8 @@
       <c r="M16" s="79"/>
     </row>
     <row r="17" spans="2:13" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="406"/>
-      <c r="C17" s="400" t="s">
+      <c r="B17" s="412"/>
+      <c r="C17" s="423" t="s">
         <v>18</v>
       </c>
       <c r="D17" s="151" t="s">
@@ -3933,8 +3891,8 @@
       <c r="M17" s="179"/>
     </row>
     <row r="18" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="406"/>
-      <c r="C18" s="398"/>
+      <c r="B18" s="412"/>
+      <c r="C18" s="421"/>
       <c r="D18" s="150" t="s">
         <v>17</v>
       </c>
@@ -3963,8 +3921,8 @@
       <c r="M18" s="79"/>
     </row>
     <row r="19" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="406"/>
-      <c r="C19" s="398"/>
+      <c r="B19" s="412"/>
+      <c r="C19" s="421"/>
       <c r="D19" s="151" t="s">
         <v>6</v>
       </c>
@@ -3993,8 +3951,8 @@
       <c r="M19" s="79"/>
     </row>
     <row r="20" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="406"/>
-      <c r="C20" s="398"/>
+      <c r="B20" s="412"/>
+      <c r="C20" s="421"/>
       <c r="D20" s="150" t="s">
         <v>7</v>
       </c>
@@ -4023,8 +3981,8 @@
       <c r="M20" s="79"/>
     </row>
     <row r="21" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="406"/>
-      <c r="C21" s="398"/>
+      <c r="B21" s="412"/>
+      <c r="C21" s="421"/>
       <c r="D21" s="150" t="s">
         <v>8</v>
       </c>
@@ -4053,8 +4011,8 @@
       <c r="M21" s="79"/>
     </row>
     <row r="22" spans="2:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B22" s="407"/>
-      <c r="C22" s="401"/>
+      <c r="B22" s="413"/>
+      <c r="C22" s="424"/>
       <c r="D22" s="192" t="s">
         <v>9</v>
       </c>
@@ -4096,10 +4054,10 @@
       <c r="L23" s="233"/>
     </row>
     <row r="24" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="405" t="s">
+      <c r="B24" s="411" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="397" t="s">
+      <c r="C24" s="420" t="s">
         <v>2</v>
       </c>
       <c r="D24" s="222" t="s">
@@ -4129,8 +4087,8 @@
       </c>
     </row>
     <row r="25" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="406"/>
-      <c r="C25" s="398"/>
+      <c r="B25" s="412"/>
+      <c r="C25" s="421"/>
       <c r="D25" s="222" t="s">
         <v>17</v>
       </c>
@@ -4158,8 +4116,8 @@
       </c>
     </row>
     <row r="26" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="406"/>
-      <c r="C26" s="398"/>
+      <c r="B26" s="412"/>
+      <c r="C26" s="421"/>
       <c r="D26" s="222" t="s">
         <v>6</v>
       </c>
@@ -4187,8 +4145,8 @@
       </c>
     </row>
     <row r="27" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="406"/>
-      <c r="C27" s="398"/>
+      <c r="B27" s="412"/>
+      <c r="C27" s="421"/>
       <c r="D27" s="84" t="s">
         <v>7</v>
       </c>
@@ -4216,8 +4174,8 @@
       </c>
     </row>
     <row r="28" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="406"/>
-      <c r="C28" s="398"/>
+      <c r="B28" s="412"/>
+      <c r="C28" s="421"/>
       <c r="D28" s="83" t="s">
         <v>8</v>
       </c>
@@ -4245,8 +4203,8 @@
       </c>
     </row>
     <row r="29" spans="2:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="406"/>
-      <c r="C29" s="399"/>
+      <c r="B29" s="412"/>
+      <c r="C29" s="422"/>
       <c r="D29" s="85" t="s">
         <v>9</v>
       </c>
@@ -4274,8 +4232,8 @@
       </c>
     </row>
     <row r="30" spans="2:13" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="406"/>
-      <c r="C30" s="400" t="s">
+      <c r="B30" s="412"/>
+      <c r="C30" s="423" t="s">
         <v>3</v>
       </c>
       <c r="D30" s="84" t="s">
@@ -4306,8 +4264,8 @@
       <c r="M30" s="174"/>
     </row>
     <row r="31" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="406"/>
-      <c r="C31" s="398"/>
+      <c r="B31" s="412"/>
+      <c r="C31" s="421"/>
       <c r="D31" s="83" t="s">
         <v>17</v>
       </c>
@@ -4335,8 +4293,8 @@
       </c>
     </row>
     <row r="32" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="406"/>
-      <c r="C32" s="398"/>
+      <c r="B32" s="412"/>
+      <c r="C32" s="421"/>
       <c r="D32" s="84" t="s">
         <v>6</v>
       </c>
@@ -4365,8 +4323,8 @@
       <c r="M32" s="174"/>
     </row>
     <row r="33" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="406"/>
-      <c r="C33" s="398"/>
+      <c r="B33" s="412"/>
+      <c r="C33" s="421"/>
       <c r="D33" s="83" t="s">
         <v>7</v>
       </c>
@@ -4394,8 +4352,8 @@
       </c>
     </row>
     <row r="34" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="406"/>
-      <c r="C34" s="398"/>
+      <c r="B34" s="412"/>
+      <c r="C34" s="421"/>
       <c r="D34" s="83" t="s">
         <v>8</v>
       </c>
@@ -4423,8 +4381,8 @@
       </c>
     </row>
     <row r="35" spans="2:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="406"/>
-      <c r="C35" s="399"/>
+      <c r="B35" s="412"/>
+      <c r="C35" s="422"/>
       <c r="D35" s="85" t="s">
         <v>9</v>
       </c>
@@ -4452,8 +4410,8 @@
       </c>
     </row>
     <row r="36" spans="2:12" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="406"/>
-      <c r="C36" s="400" t="s">
+      <c r="B36" s="412"/>
+      <c r="C36" s="423" t="s">
         <v>18</v>
       </c>
       <c r="D36" s="84" t="s">
@@ -4483,8 +4441,8 @@
       </c>
     </row>
     <row r="37" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="406"/>
-      <c r="C37" s="398"/>
+      <c r="B37" s="412"/>
+      <c r="C37" s="421"/>
       <c r="D37" s="83" t="s">
         <v>17</v>
       </c>
@@ -4512,8 +4470,8 @@
       </c>
     </row>
     <row r="38" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="406"/>
-      <c r="C38" s="398"/>
+      <c r="B38" s="412"/>
+      <c r="C38" s="421"/>
       <c r="D38" s="84" t="s">
         <v>6</v>
       </c>
@@ -4541,8 +4499,8 @@
       </c>
     </row>
     <row r="39" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="406"/>
-      <c r="C39" s="398"/>
+      <c r="B39" s="412"/>
+      <c r="C39" s="421"/>
       <c r="D39" s="83" t="s">
         <v>7</v>
       </c>
@@ -4570,8 +4528,8 @@
       </c>
     </row>
     <row r="40" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="406"/>
-      <c r="C40" s="398"/>
+      <c r="B40" s="412"/>
+      <c r="C40" s="421"/>
       <c r="D40" s="83" t="s">
         <v>8</v>
       </c>
@@ -4599,8 +4557,8 @@
       </c>
     </row>
     <row r="41" spans="2:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B41" s="407"/>
-      <c r="C41" s="401"/>
+      <c r="B41" s="413"/>
+      <c r="C41" s="424"/>
       <c r="D41" s="230" t="s">
         <v>9</v>
       </c>
@@ -4641,10 +4599,10 @@
       <c r="L42" s="199"/>
     </row>
     <row r="43" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="405" t="s">
+      <c r="B43" s="411" t="s">
         <v>26</v>
       </c>
-      <c r="C43" s="397" t="s">
+      <c r="C43" s="420" t="s">
         <v>2</v>
       </c>
       <c r="D43" s="238" t="s">
@@ -4674,8 +4632,8 @@
       </c>
     </row>
     <row r="44" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="406"/>
-      <c r="C44" s="398"/>
+      <c r="B44" s="412"/>
+      <c r="C44" s="421"/>
       <c r="D44" s="83" t="s">
         <v>17</v>
       </c>
@@ -4703,8 +4661,8 @@
       </c>
     </row>
     <row r="45" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="406"/>
-      <c r="C45" s="398"/>
+      <c r="B45" s="412"/>
+      <c r="C45" s="421"/>
       <c r="D45" s="84" t="s">
         <v>6</v>
       </c>
@@ -4732,8 +4690,8 @@
       </c>
     </row>
     <row r="46" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="406"/>
-      <c r="C46" s="398"/>
+      <c r="B46" s="412"/>
+      <c r="C46" s="421"/>
       <c r="D46" s="83" t="s">
         <v>7</v>
       </c>
@@ -4761,8 +4719,8 @@
       </c>
     </row>
     <row r="47" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="406"/>
-      <c r="C47" s="398"/>
+      <c r="B47" s="412"/>
+      <c r="C47" s="421"/>
       <c r="D47" s="83" t="s">
         <v>8</v>
       </c>
@@ -4790,8 +4748,8 @@
       </c>
     </row>
     <row r="48" spans="2:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B48" s="406"/>
-      <c r="C48" s="399"/>
+      <c r="B48" s="412"/>
+      <c r="C48" s="422"/>
       <c r="D48" s="85" t="s">
         <v>9</v>
       </c>
@@ -4819,8 +4777,8 @@
       </c>
     </row>
     <row r="49" spans="2:12" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="406"/>
-      <c r="C49" s="400" t="s">
+      <c r="B49" s="412"/>
+      <c r="C49" s="423" t="s">
         <v>3</v>
       </c>
       <c r="D49" s="84" t="s">
@@ -4850,8 +4808,8 @@
       </c>
     </row>
     <row r="50" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="406"/>
-      <c r="C50" s="398"/>
+      <c r="B50" s="412"/>
+      <c r="C50" s="421"/>
       <c r="D50" s="83" t="s">
         <v>17</v>
       </c>
@@ -4879,8 +4837,8 @@
       </c>
     </row>
     <row r="51" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="406"/>
-      <c r="C51" s="398"/>
+      <c r="B51" s="412"/>
+      <c r="C51" s="421"/>
       <c r="D51" s="84" t="s">
         <v>6</v>
       </c>
@@ -4908,8 +4866,8 @@
       </c>
     </row>
     <row r="52" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="406"/>
-      <c r="C52" s="398"/>
+      <c r="B52" s="412"/>
+      <c r="C52" s="421"/>
       <c r="D52" s="83" t="s">
         <v>7</v>
       </c>
@@ -4937,8 +4895,8 @@
       </c>
     </row>
     <row r="53" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="406"/>
-      <c r="C53" s="398"/>
+      <c r="B53" s="412"/>
+      <c r="C53" s="421"/>
       <c r="D53" s="83" t="s">
         <v>8</v>
       </c>
@@ -4966,8 +4924,8 @@
       </c>
     </row>
     <row r="54" spans="2:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B54" s="406"/>
-      <c r="C54" s="399"/>
+      <c r="B54" s="412"/>
+      <c r="C54" s="422"/>
       <c r="D54" s="85" t="s">
         <v>9</v>
       </c>
@@ -4995,8 +4953,8 @@
       </c>
     </row>
     <row r="55" spans="2:12" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="406"/>
-      <c r="C55" s="400" t="s">
+      <c r="B55" s="412"/>
+      <c r="C55" s="423" t="s">
         <v>18</v>
       </c>
       <c r="D55" s="84" t="s">
@@ -5026,8 +4984,8 @@
       </c>
     </row>
     <row r="56" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="406"/>
-      <c r="C56" s="398"/>
+      <c r="B56" s="412"/>
+      <c r="C56" s="421"/>
       <c r="D56" s="83" t="s">
         <v>17</v>
       </c>
@@ -5055,8 +5013,8 @@
       </c>
     </row>
     <row r="57" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="406"/>
-      <c r="C57" s="398"/>
+      <c r="B57" s="412"/>
+      <c r="C57" s="421"/>
       <c r="D57" s="84" t="s">
         <v>6</v>
       </c>
@@ -5084,8 +5042,8 @@
       </c>
     </row>
     <row r="58" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="406"/>
-      <c r="C58" s="398"/>
+      <c r="B58" s="412"/>
+      <c r="C58" s="421"/>
       <c r="D58" s="83" t="s">
         <v>7</v>
       </c>
@@ -5113,8 +5071,8 @@
       </c>
     </row>
     <row r="59" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="406"/>
-      <c r="C59" s="398"/>
+      <c r="B59" s="412"/>
+      <c r="C59" s="421"/>
       <c r="D59" s="83" t="s">
         <v>8</v>
       </c>
@@ -5142,8 +5100,8 @@
       </c>
     </row>
     <row r="60" spans="2:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B60" s="407"/>
-      <c r="C60" s="401"/>
+      <c r="B60" s="413"/>
+      <c r="C60" s="424"/>
       <c r="D60" s="217" t="s">
         <v>9</v>
       </c>
@@ -5268,6 +5226,8 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="J2:L2"/>
     <mergeCell ref="B5:B22"/>
     <mergeCell ref="B24:B41"/>
     <mergeCell ref="B43:B60"/>
@@ -5283,8 +5243,6 @@
     <mergeCell ref="C43:C48"/>
     <mergeCell ref="C49:C54"/>
     <mergeCell ref="C55:C60"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="J2:L2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5295,8 +5253,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47F3A9D0-E715-4BA0-A12D-1EC62F0BA8AA}">
   <dimension ref="B1:N51"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView showGridLines="0" topLeftCell="A8" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25:M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5315,35 +5273,35 @@
       <c r="J1"/>
     </row>
     <row r="2" spans="2:14" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E2" s="402" t="s">
+      <c r="E2" s="425" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="403"/>
-      <c r="G2" s="403"/>
-      <c r="H2" s="403"/>
-      <c r="I2" s="404"/>
+      <c r="F2" s="426"/>
+      <c r="G2" s="426"/>
+      <c r="H2" s="426"/>
+      <c r="I2" s="427"/>
       <c r="J2" s="324"/>
-      <c r="K2" s="402" t="s">
+      <c r="K2" s="425" t="s">
         <v>33</v>
       </c>
-      <c r="L2" s="403"/>
-      <c r="M2" s="403"/>
-      <c r="N2" s="404"/>
+      <c r="L2" s="426"/>
+      <c r="M2" s="426"/>
+      <c r="N2" s="427"/>
     </row>
     <row r="3" spans="2:14" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="421" t="s">
+      <c r="B3" s="438" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="422"/>
-      <c r="D3" s="423"/>
-      <c r="E3" s="418" t="s">
+      <c r="C3" s="439"/>
+      <c r="D3" s="440"/>
+      <c r="E3" s="435" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="404"/>
-      <c r="G3" s="419" t="s">
+      <c r="F3" s="427"/>
+      <c r="G3" s="436" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="420"/>
+      <c r="H3" s="437"/>
       <c r="I3" s="251" t="s">
         <v>40</v>
       </c>
@@ -5401,10 +5359,10 @@
       </c>
     </row>
     <row r="5" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="405" t="s">
+      <c r="B5" s="411" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="424" t="s">
+      <c r="C5" s="441" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="151" t="s">
@@ -5440,8 +5398,8 @@
       </c>
     </row>
     <row r="6" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="406"/>
-      <c r="C6" s="425"/>
+      <c r="B6" s="412"/>
+      <c r="C6" s="428"/>
       <c r="D6" s="151" t="s">
         <v>6</v>
       </c>
@@ -5475,8 +5433,8 @@
       </c>
     </row>
     <row r="7" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="406"/>
-      <c r="C7" s="425"/>
+      <c r="B7" s="412"/>
+      <c r="C7" s="428"/>
       <c r="D7" s="150" t="s">
         <v>7</v>
       </c>
@@ -5510,8 +5468,8 @@
       </c>
     </row>
     <row r="8" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="406"/>
-      <c r="C8" s="426"/>
+      <c r="B8" s="412"/>
+      <c r="C8" s="429"/>
       <c r="D8" s="152" t="s">
         <v>8</v>
       </c>
@@ -5545,8 +5503,8 @@
       </c>
     </row>
     <row r="9" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="406"/>
-      <c r="C9" s="400" t="s">
+      <c r="B9" s="412"/>
+      <c r="C9" s="423" t="s">
         <v>3</v>
       </c>
       <c r="D9" s="151" t="s">
@@ -5582,8 +5540,8 @@
       </c>
     </row>
     <row r="10" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="406"/>
-      <c r="C10" s="398"/>
+      <c r="B10" s="412"/>
+      <c r="C10" s="421"/>
       <c r="D10" s="150" t="s">
         <v>7</v>
       </c>
@@ -5617,8 +5575,8 @@
       </c>
     </row>
     <row r="11" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="406"/>
-      <c r="C11" s="399"/>
+      <c r="B11" s="412"/>
+      <c r="C11" s="422"/>
       <c r="D11" s="152" t="s">
         <v>8</v>
       </c>
@@ -5652,8 +5610,8 @@
       </c>
     </row>
     <row r="12" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="406"/>
-      <c r="C12" s="400" t="s">
+      <c r="B12" s="412"/>
+      <c r="C12" s="423" t="s">
         <v>18</v>
       </c>
       <c r="D12" s="151" t="s">
@@ -5689,8 +5647,8 @@
       </c>
     </row>
     <row r="13" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="406"/>
-      <c r="C13" s="398"/>
+      <c r="B13" s="412"/>
+      <c r="C13" s="421"/>
       <c r="D13" s="150" t="s">
         <v>17</v>
       </c>
@@ -5724,8 +5682,8 @@
       </c>
     </row>
     <row r="14" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="406"/>
-      <c r="C14" s="398"/>
+      <c r="B14" s="412"/>
+      <c r="C14" s="421"/>
       <c r="D14" s="150" t="s">
         <v>7</v>
       </c>
@@ -5759,8 +5717,8 @@
       </c>
     </row>
     <row r="15" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="406"/>
-      <c r="C15" s="398"/>
+      <c r="B15" s="412"/>
+      <c r="C15" s="421"/>
       <c r="D15" s="150" t="s">
         <v>8</v>
       </c>
@@ -5794,8 +5752,8 @@
       </c>
     </row>
     <row r="16" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="407"/>
-      <c r="C16" s="399"/>
+      <c r="B16" s="413"/>
+      <c r="C16" s="422"/>
       <c r="D16" s="152" t="s">
         <v>9</v>
       </c>
@@ -5844,10 +5802,10 @@
       <c r="N17" s="355"/>
     </row>
     <row r="18" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="405" t="s">
+      <c r="B18" s="411" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="425" t="s">
+      <c r="C18" s="428" t="s">
         <v>2</v>
       </c>
       <c r="D18" s="222" t="s">
@@ -5883,8 +5841,8 @@
       </c>
     </row>
     <row r="19" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="406"/>
-      <c r="C19" s="426"/>
+      <c r="B19" s="412"/>
+      <c r="C19" s="429"/>
       <c r="D19" s="223" t="s">
         <v>8</v>
       </c>
@@ -5918,8 +5876,8 @@
       </c>
     </row>
     <row r="20" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="406"/>
-      <c r="C20" s="427" t="s">
+      <c r="B20" s="412"/>
+      <c r="C20" s="430" t="s">
         <v>3</v>
       </c>
       <c r="D20" s="224" t="s">
@@ -5955,8 +5913,8 @@
       </c>
     </row>
     <row r="21" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="406"/>
-      <c r="C21" s="425"/>
+      <c r="B21" s="412"/>
+      <c r="C21" s="428"/>
       <c r="D21" s="222" t="s">
         <v>7</v>
       </c>
@@ -5990,8 +5948,8 @@
       </c>
     </row>
     <row r="22" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="406"/>
-      <c r="C22" s="425"/>
+      <c r="B22" s="412"/>
+      <c r="C22" s="428"/>
       <c r="D22" s="222" t="s">
         <v>8</v>
       </c>
@@ -6025,8 +5983,8 @@
       </c>
     </row>
     <row r="23" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="406"/>
-      <c r="C23" s="426"/>
+      <c r="B23" s="412"/>
+      <c r="C23" s="429"/>
       <c r="D23" s="223" t="s">
         <v>9</v>
       </c>
@@ -6060,8 +6018,8 @@
       </c>
     </row>
     <row r="24" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="406"/>
-      <c r="C24" s="427" t="s">
+      <c r="B24" s="412"/>
+      <c r="C24" s="430" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="224" t="s">
@@ -6097,8 +6055,8 @@
       </c>
     </row>
     <row r="25" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="407"/>
-      <c r="C25" s="426"/>
+      <c r="B25" s="413"/>
+      <c r="C25" s="429"/>
       <c r="D25" s="223" t="s">
         <v>7</v>
       </c>
@@ -6133,12 +6091,12 @@
     </row>
     <row r="26" spans="2:14" ht="2" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B26" s="214"/>
-      <c r="C26" s="417"/>
-      <c r="D26" s="415"/>
-      <c r="E26" s="414"/>
-      <c r="F26" s="415"/>
-      <c r="G26" s="414"/>
-      <c r="H26" s="416"/>
+      <c r="C26" s="434"/>
+      <c r="D26" s="432"/>
+      <c r="E26" s="431"/>
+      <c r="F26" s="432"/>
+      <c r="G26" s="431"/>
+      <c r="H26" s="433"/>
       <c r="I26" s="357"/>
       <c r="J26" s="347"/>
       <c r="K26" s="203"/>
@@ -6147,10 +6105,10 @@
       <c r="N26" s="357"/>
     </row>
     <row r="27" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="405" t="s">
+      <c r="B27" s="411" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="397" t="s">
+      <c r="C27" s="420" t="s">
         <v>2</v>
       </c>
       <c r="D27" s="228" t="s">
@@ -6186,8 +6144,8 @@
       </c>
     </row>
     <row r="28" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="406"/>
-      <c r="C28" s="398"/>
+      <c r="B28" s="412"/>
+      <c r="C28" s="421"/>
       <c r="D28" s="222" t="s">
         <v>17</v>
       </c>
@@ -6221,8 +6179,8 @@
       </c>
     </row>
     <row r="29" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="406"/>
-      <c r="C29" s="398"/>
+      <c r="B29" s="412"/>
+      <c r="C29" s="421"/>
       <c r="D29" s="222" t="s">
         <v>7</v>
       </c>
@@ -6256,8 +6214,8 @@
       </c>
     </row>
     <row r="30" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="406"/>
-      <c r="C30" s="399"/>
+      <c r="B30" s="412"/>
+      <c r="C30" s="422"/>
       <c r="D30" s="223" t="s">
         <v>9</v>
       </c>
@@ -6291,7 +6249,7 @@
       </c>
     </row>
     <row r="31" spans="2:14" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B31" s="406"/>
+      <c r="B31" s="412"/>
       <c r="C31" s="240" t="s">
         <v>3</v>
       </c>
@@ -6328,8 +6286,8 @@
       </c>
     </row>
     <row r="32" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="406"/>
-      <c r="C32" s="400" t="s">
+      <c r="B32" s="412"/>
+      <c r="C32" s="423" t="s">
         <v>18</v>
       </c>
       <c r="D32" s="84" t="s">
@@ -6365,8 +6323,8 @@
       </c>
     </row>
     <row r="33" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="406"/>
-      <c r="C33" s="398"/>
+      <c r="B33" s="412"/>
+      <c r="C33" s="421"/>
       <c r="D33" s="83" t="s">
         <v>7</v>
       </c>
@@ -6400,8 +6358,8 @@
       </c>
     </row>
     <row r="34" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="407"/>
-      <c r="C34" s="401"/>
+      <c r="B34" s="413"/>
+      <c r="C34" s="424"/>
       <c r="D34" s="217" t="s">
         <v>9</v>
       </c>
@@ -6487,17 +6445,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="E2:I2"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="B27:B34"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="C26:D26"/>
     <mergeCell ref="B18:B25"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="G3:H3"/>
@@ -6506,6 +6453,17 @@
     <mergeCell ref="C5:C8"/>
     <mergeCell ref="C9:C11"/>
     <mergeCell ref="C12:C16"/>
+    <mergeCell ref="B27:B34"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="E2:I2"/>
+    <mergeCell ref="K2:N2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6516,8 +6474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B6757E6-FE7D-4C1B-B985-36D8C117B1C1}">
   <dimension ref="B1:N57"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="89" zoomScaleNormal="100" zoomScaleSheetLayoutView="50" zoomScalePageLayoutView="40" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="50" zoomScalePageLayoutView="40" workbookViewId="0">
+      <selection activeCell="T12" sqref="T12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6542,34 +6500,34 @@
       <c r="J1"/>
     </row>
     <row r="2" spans="2:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="F2" s="402" t="s">
+      <c r="F2" s="425" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="403"/>
-      <c r="H2" s="403"/>
-      <c r="I2" s="404"/>
+      <c r="G2" s="426"/>
+      <c r="H2" s="426"/>
+      <c r="I2" s="427"/>
       <c r="J2" s="324"/>
-      <c r="K2" s="402" t="s">
+      <c r="K2" s="425" t="s">
         <v>33</v>
       </c>
-      <c r="L2" s="403"/>
-      <c r="M2" s="404"/>
+      <c r="L2" s="426"/>
+      <c r="M2" s="427"/>
     </row>
     <row r="3" spans="2:14" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="421" t="s">
+      <c r="B3" s="438" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="422"/>
-      <c r="D3" s="422"/>
-      <c r="E3" s="422"/>
-      <c r="F3" s="408" t="s">
+      <c r="C3" s="439"/>
+      <c r="D3" s="439"/>
+      <c r="E3" s="439"/>
+      <c r="F3" s="458" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="409"/>
-      <c r="H3" s="410" t="s">
+      <c r="G3" s="459"/>
+      <c r="H3" s="416" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="409"/>
+      <c r="I3" s="415"/>
       <c r="J3" s="325"/>
       <c r="K3" s="250" t="s">
         <v>35</v>
@@ -6586,13 +6544,13 @@
       <c r="B4" s="201" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="464" t="s">
+      <c r="C4" s="402" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="439" t="s">
+      <c r="D4" s="397" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="439" t="s">
+      <c r="E4" s="397" t="s">
         <v>54</v>
       </c>
       <c r="F4" s="200" t="s">
@@ -6620,35 +6578,35 @@
       <c r="N4" s="77"/>
     </row>
     <row r="5" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="406" t="s">
+      <c r="B5" s="412" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="398" t="s">
+      <c r="C5" s="421" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="438" t="s">
+      <c r="D5" s="420" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="440" t="s">
+      <c r="E5" s="398" t="s">
         <v>55</v>
       </c>
-      <c r="F5" s="458">
+      <c r="F5" s="119">
         <v>0.61275000000000002</v>
       </c>
       <c r="G5" s="90">
         <v>1.1499999999999999</v>
       </c>
-      <c r="H5" s="460">
+      <c r="H5" s="101">
         <v>0.20574999999999999</v>
       </c>
       <c r="I5" s="113">
         <v>0.47499999999999998</v>
       </c>
       <c r="J5" s="331"/>
-      <c r="K5" s="462">
+      <c r="K5" s="161">
         <v>0.182</v>
       </c>
-      <c r="L5" s="172">
+      <c r="L5" s="457">
         <v>0.51200000000000001</v>
       </c>
       <c r="M5" s="170">
@@ -6657,33 +6615,45 @@
       <c r="N5" s="79"/>
     </row>
     <row r="6" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B6" s="406"/>
-      <c r="C6" s="399"/>
-      <c r="D6" s="444" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="445" t="s">
+      <c r="B6" s="412"/>
+      <c r="C6" s="422"/>
+      <c r="D6" s="422"/>
+      <c r="E6" s="401" t="s">
         <v>56</v>
       </c>
-      <c r="F6" s="447"/>
-      <c r="G6" s="448"/>
-      <c r="H6" s="449"/>
-      <c r="I6" s="450"/>
+      <c r="F6" s="132">
+        <v>0.64700000000000002</v>
+      </c>
+      <c r="G6" s="106">
+        <v>1</v>
+      </c>
+      <c r="H6" s="107">
+        <v>0.222</v>
+      </c>
+      <c r="I6" s="108">
+        <v>0.42499999999999999</v>
+      </c>
       <c r="J6" s="330"/>
-      <c r="K6" s="451"/>
-      <c r="L6" s="451"/>
-      <c r="M6" s="452"/>
+      <c r="K6" s="162">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="L6" s="162">
+        <v>4.07E-2</v>
+      </c>
+      <c r="M6" s="171">
+        <v>-0.16800000000000001</v>
+      </c>
       <c r="N6" s="79"/>
     </row>
     <row r="7" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="406"/>
-      <c r="C7" s="400" t="s">
+      <c r="B7" s="412"/>
+      <c r="C7" s="423" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="438" t="s">
+      <c r="D7" s="423" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="440" t="s">
+      <c r="E7" s="398" t="s">
         <v>55</v>
       </c>
       <c r="F7" s="128">
@@ -6702,7 +6672,7 @@
       <c r="K7" s="164">
         <v>0.222</v>
       </c>
-      <c r="L7" s="454">
+      <c r="L7" s="164">
         <v>6.9699999999999996E-3</v>
       </c>
       <c r="M7" s="96">
@@ -6711,43 +6681,55 @@
       <c r="N7" s="179"/>
     </row>
     <row r="8" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="406"/>
-      <c r="C8" s="398"/>
-      <c r="D8" s="437" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="441" t="s">
+      <c r="B8" s="412"/>
+      <c r="C8" s="421"/>
+      <c r="D8" s="453"/>
+      <c r="E8" s="399" t="s">
         <v>56</v>
       </c>
-      <c r="F8" s="130"/>
-      <c r="G8" s="98"/>
-      <c r="H8" s="97"/>
-      <c r="I8" s="453"/>
+      <c r="F8" s="130">
+        <v>0.78600000000000003</v>
+      </c>
+      <c r="G8" s="98">
+        <v>1.06</v>
+      </c>
+      <c r="H8" s="97">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="I8" s="98">
+        <v>0.41199999999999998</v>
+      </c>
       <c r="J8" s="331"/>
-      <c r="K8" s="166"/>
-      <c r="L8" s="166"/>
-      <c r="M8" s="100"/>
+      <c r="K8" s="166">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="L8" s="166">
+        <v>0.74099999999999999</v>
+      </c>
+      <c r="M8" s="100">
+        <v>-0.16900000000000001</v>
+      </c>
       <c r="N8" s="79"/>
     </row>
     <row r="9" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="406"/>
-      <c r="C9" s="398"/>
-      <c r="D9" s="437" t="s">
+      <c r="B9" s="412"/>
+      <c r="C9" s="421"/>
+      <c r="D9" s="442" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="441" t="s">
+      <c r="E9" s="399" t="s">
         <v>55</v>
       </c>
       <c r="F9" s="130">
         <v>0.67600000000000005</v>
       </c>
-      <c r="G9" s="453">
+      <c r="G9" s="98">
         <v>0.97499999999999998</v>
       </c>
       <c r="H9" s="116">
         <v>0.221</v>
       </c>
-      <c r="I9" s="453">
+      <c r="I9" s="98">
         <v>0.38800000000000001</v>
       </c>
       <c r="J9" s="331"/>
@@ -6763,29 +6745,41 @@
       <c r="N9" s="79"/>
     </row>
     <row r="10" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B10" s="407"/>
-      <c r="C10" s="401"/>
-      <c r="D10" s="442" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="443" t="s">
+      <c r="B10" s="413"/>
+      <c r="C10" s="424"/>
+      <c r="D10" s="424"/>
+      <c r="E10" s="400" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="130"/>
-      <c r="G10" s="453"/>
-      <c r="H10" s="455"/>
-      <c r="I10" s="453"/>
+      <c r="F10" s="130">
+        <v>0.7</v>
+      </c>
+      <c r="G10" s="98">
+        <v>1</v>
+      </c>
+      <c r="H10" s="97">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="I10" s="98">
+        <v>0.38800000000000001</v>
+      </c>
       <c r="J10" s="331"/>
-      <c r="K10" s="166"/>
-      <c r="L10" s="166"/>
-      <c r="M10" s="170"/>
+      <c r="K10" s="166">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="L10" s="166">
+        <v>0.47699999999999998</v>
+      </c>
+      <c r="M10" s="170">
+        <v>-0.16800000000000001</v>
+      </c>
       <c r="N10" s="79"/>
     </row>
     <row r="11" spans="2:14" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="465"/>
-      <c r="C11" s="466"/>
-      <c r="D11" s="463"/>
-      <c r="E11" s="463"/>
+      <c r="B11" s="214"/>
+      <c r="C11" s="451"/>
+      <c r="D11" s="323"/>
+      <c r="E11" s="323"/>
       <c r="F11" s="229"/>
       <c r="G11" s="229"/>
       <c r="H11" s="229"/>
@@ -6796,25 +6790,25 @@
       <c r="M11" s="233"/>
     </row>
     <row r="12" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="406" t="s">
+      <c r="B12" s="411" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="398" t="s">
+      <c r="C12" s="420" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="83" t="s">
+      <c r="D12" s="420" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="441" t="s">
+      <c r="E12" s="405" t="s">
         <v>55</v>
       </c>
-      <c r="F12" s="459">
+      <c r="F12" s="243">
         <v>0.41112500000000002</v>
       </c>
-      <c r="G12" s="100">
+      <c r="G12" s="216">
         <v>0.95</v>
       </c>
-      <c r="H12" s="461">
+      <c r="H12" s="315">
         <v>0.144625</v>
       </c>
       <c r="I12" s="136">
@@ -6824,7 +6818,7 @@
       <c r="K12" s="161">
         <v>0.14499999999999999</v>
       </c>
-      <c r="L12" s="457">
+      <c r="L12" s="166">
         <v>5.7599999999999998E-2</v>
       </c>
       <c r="M12" s="161">
@@ -6832,32 +6826,44 @@
       </c>
     </row>
     <row r="13" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="406"/>
-      <c r="C13" s="399"/>
-      <c r="D13" s="85" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="445" t="s">
+      <c r="B13" s="412"/>
+      <c r="C13" s="422"/>
+      <c r="D13" s="422"/>
+      <c r="E13" s="401" t="s">
         <v>56</v>
       </c>
-      <c r="F13" s="131"/>
-      <c r="G13" s="108"/>
-      <c r="H13" s="124"/>
-      <c r="I13" s="235"/>
+      <c r="F13" s="131">
+        <v>0.44800000000000001</v>
+      </c>
+      <c r="G13" s="108">
+        <v>0.88800000000000001</v>
+      </c>
+      <c r="H13" s="316">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="I13" s="235">
+        <v>0.38800000000000001</v>
+      </c>
       <c r="J13" s="340"/>
-      <c r="K13" s="162"/>
-      <c r="L13" s="167"/>
-      <c r="M13" s="451"/>
+      <c r="K13" s="162">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="L13" s="167">
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="M13" s="162">
+        <v>-0.27200000000000002</v>
+      </c>
     </row>
     <row r="14" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="406"/>
-      <c r="C14" s="400" t="s">
+      <c r="B14" s="412"/>
+      <c r="C14" s="423" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="84" t="s">
+      <c r="D14" s="423" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="467" t="s">
+      <c r="E14" s="403" t="s">
         <v>55</v>
       </c>
       <c r="F14" s="127">
@@ -6866,7 +6872,7 @@
       <c r="G14" s="92">
         <v>1.01</v>
       </c>
-      <c r="H14" s="127">
+      <c r="H14" s="318">
         <v>0.23899999999999999</v>
       </c>
       <c r="I14" s="141">
@@ -6884,90 +6890,126 @@
       </c>
     </row>
     <row r="15" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="406"/>
-      <c r="C15" s="398"/>
-      <c r="D15" s="84" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" s="441" t="s">
+      <c r="B15" s="412"/>
+      <c r="C15" s="421"/>
+      <c r="D15" s="453"/>
+      <c r="E15" s="399" t="s">
         <v>56</v>
       </c>
-      <c r="F15" s="129"/>
-      <c r="G15" s="98"/>
-      <c r="H15" s="129"/>
-      <c r="I15" s="456"/>
+      <c r="F15" s="129">
+        <v>0.66</v>
+      </c>
+      <c r="G15" s="98">
+        <v>1.06</v>
+      </c>
+      <c r="H15" s="319">
+        <v>0.224</v>
+      </c>
+      <c r="I15" s="142">
+        <v>0.4</v>
+      </c>
       <c r="J15" s="336"/>
-      <c r="K15" s="457"/>
-      <c r="L15" s="166"/>
-      <c r="M15" s="159"/>
-    </row>
-    <row r="16" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="406"/>
-      <c r="C16" s="398"/>
-      <c r="D16" s="83" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="441" t="s">
+      <c r="K15" s="166">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="L15" s="166">
+        <v>0.52300000000000002</v>
+      </c>
+      <c r="M15" s="159">
+        <v>-0.245</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="412"/>
+      <c r="C16" s="421"/>
+      <c r="D16" s="442" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="399" t="s">
         <v>55</v>
       </c>
       <c r="F16" s="129">
-        <v>0.66800000000000004</v>
-      </c>
-      <c r="G16" s="98">
-        <v>1.06</v>
-      </c>
-      <c r="H16" s="129">
-        <v>0.22600000000000001</v>
-      </c>
-      <c r="I16" s="142">
-        <v>0.41199999999999998</v>
-      </c>
-      <c r="J16" s="341"/>
-      <c r="K16" s="164">
-        <v>0.14399999999999999</v>
-      </c>
-      <c r="L16" s="164">
-        <v>-0.188</v>
-      </c>
-      <c r="M16" s="161">
-        <v>-0.111</v>
+        <v>0.496</v>
+      </c>
+      <c r="G16" s="452">
+        <v>0.89200000000000002</v>
+      </c>
+      <c r="H16" s="319">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="I16" s="97">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="J16" s="307"/>
+      <c r="K16" s="166">
+        <v>0.16</v>
+      </c>
+      <c r="L16" s="113">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="M16" s="155">
+        <v>-0.126</v>
       </c>
     </row>
     <row r="17" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="406"/>
-      <c r="C17" s="398"/>
-      <c r="D17" s="83" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="441" t="s">
+      <c r="B17" s="412"/>
+      <c r="C17" s="421"/>
+      <c r="D17" s="421"/>
+      <c r="E17" s="399" t="s">
         <v>56</v>
       </c>
-      <c r="F17" s="129"/>
-      <c r="G17" s="453"/>
-      <c r="H17" s="129"/>
-      <c r="I17" s="142"/>
+      <c r="F17" s="129">
+        <v>0.53700000000000003</v>
+      </c>
+      <c r="G17" s="98">
+        <v>0.9</v>
+      </c>
+      <c r="H17" s="319">
+        <v>0.184</v>
+      </c>
+      <c r="I17" s="97">
+        <v>0.33800000000000002</v>
+      </c>
       <c r="J17" s="336"/>
-      <c r="K17" s="166"/>
-      <c r="L17" s="166"/>
-      <c r="M17" s="161"/>
+      <c r="K17" s="164">
+        <v>0.217</v>
+      </c>
+      <c r="L17" s="164">
+        <v>0.39800000000000002</v>
+      </c>
+      <c r="M17" s="160">
+        <v>-0.25800000000000001</v>
+      </c>
     </row>
     <row r="18" spans="2:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="406"/>
-      <c r="C18" s="398"/>
-      <c r="D18" s="83" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="443" t="s">
+      <c r="B18" s="413"/>
+      <c r="C18" s="424"/>
+      <c r="D18" s="424"/>
+      <c r="E18" s="400" t="s">
         <v>57</v>
       </c>
-      <c r="F18" s="129"/>
-      <c r="G18" s="98"/>
-      <c r="H18" s="129"/>
-      <c r="I18" s="142"/>
+      <c r="F18" s="148">
+        <v>0.55400000000000005</v>
+      </c>
+      <c r="G18" s="149">
+        <v>0.88800000000000001</v>
+      </c>
+      <c r="H18" s="319">
+        <v>0.192</v>
+      </c>
+      <c r="I18" s="142">
+        <v>0.35</v>
+      </c>
       <c r="J18" s="341"/>
-      <c r="K18" s="164"/>
-      <c r="L18" s="164"/>
-      <c r="M18" s="161"/>
+      <c r="K18" s="164">
+        <v>0.182</v>
+      </c>
+      <c r="L18" s="164">
+        <v>-0.13300000000000001</v>
+      </c>
+      <c r="M18" s="161">
+        <v>-0.309</v>
+      </c>
     </row>
     <row r="19" spans="2:13" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B19" s="191"/>
@@ -6984,68 +7026,80 @@
       <c r="M19" s="199"/>
     </row>
     <row r="20" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="405" t="s">
+      <c r="B20" s="411" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="397" t="s">
+      <c r="C20" s="420" t="s">
         <v>3</v>
       </c>
-      <c r="D20" s="238" t="s">
+      <c r="D20" s="420" t="s">
         <v>7</v>
       </c>
-      <c r="E20" s="470" t="s">
+      <c r="E20" s="405" t="s">
         <v>55</v>
       </c>
-      <c r="F20" s="471">
+      <c r="F20" s="243">
         <v>0.29025000000000001</v>
       </c>
-      <c r="G20" s="472">
+      <c r="G20" s="406">
         <v>0.8</v>
       </c>
-      <c r="H20" s="473">
+      <c r="H20" s="407">
         <v>0.113125</v>
       </c>
-      <c r="I20" s="474">
+      <c r="I20" s="408">
         <v>0.32500000000000001</v>
       </c>
       <c r="J20" s="334"/>
-      <c r="K20" s="475">
+      <c r="K20" s="409">
         <v>0.127</v>
       </c>
-      <c r="L20" s="476">
+      <c r="L20" s="406">
         <v>0.15</v>
       </c>
-      <c r="M20" s="477">
+      <c r="M20" s="410">
         <v>-0.20200000000000001</v>
       </c>
     </row>
     <row r="21" spans="2:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="406"/>
-      <c r="C21" s="399"/>
-      <c r="D21" s="223" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" s="445" t="s">
+      <c r="B21" s="412"/>
+      <c r="C21" s="422"/>
+      <c r="D21" s="422"/>
+      <c r="E21" s="401" t="s">
         <v>56</v>
       </c>
-      <c r="F21" s="468"/>
-      <c r="G21" s="108"/>
-      <c r="H21" s="107"/>
-      <c r="I21" s="138"/>
+      <c r="F21" s="404">
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="G21" s="108">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="H21" s="107">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="I21" s="138">
+        <v>0.26200000000000001</v>
+      </c>
       <c r="J21" s="344"/>
-      <c r="K21" s="162"/>
-      <c r="L21" s="108"/>
-      <c r="M21" s="156"/>
+      <c r="K21" s="162">
+        <v>0.182</v>
+      </c>
+      <c r="L21" s="108">
+        <v>-0.124</v>
+      </c>
+      <c r="M21" s="156">
+        <v>-0.307</v>
+      </c>
     </row>
     <row r="22" spans="2:13" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="406"/>
-      <c r="C22" s="398" t="s">
+      <c r="B22" s="412"/>
+      <c r="C22" s="421" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="83" t="s">
+      <c r="D22" s="423" t="s">
         <v>17</v>
       </c>
-      <c r="E22" s="441" t="s">
+      <c r="E22" s="399" t="s">
         <v>55</v>
       </c>
       <c r="F22" s="129">
@@ -7072,42 +7126,54 @@
       </c>
     </row>
     <row r="23" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="406"/>
-      <c r="C23" s="398"/>
-      <c r="D23" s="83" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" s="440" t="s">
+      <c r="B23" s="412"/>
+      <c r="C23" s="421"/>
+      <c r="D23" s="453"/>
+      <c r="E23" s="398" t="s">
         <v>56</v>
       </c>
-      <c r="F23" s="129"/>
-      <c r="G23" s="98"/>
-      <c r="H23" s="117"/>
-      <c r="I23" s="142"/>
+      <c r="F23" s="129">
+        <v>0.60699999999999998</v>
+      </c>
+      <c r="G23" s="98">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="H23" s="117">
+        <v>0.215</v>
+      </c>
+      <c r="I23" s="142">
+        <v>0.41199999999999998</v>
+      </c>
       <c r="J23" s="336"/>
-      <c r="K23" s="166"/>
-      <c r="L23" s="469"/>
-      <c r="M23" s="154"/>
+      <c r="K23" s="166">
+        <v>0.251</v>
+      </c>
+      <c r="L23" s="113">
+        <v>0.505</v>
+      </c>
+      <c r="M23" s="154">
+        <v>-0.27400000000000002</v>
+      </c>
     </row>
     <row r="24" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="406"/>
-      <c r="C24" s="398"/>
-      <c r="D24" s="83" t="s">
+      <c r="B24" s="412"/>
+      <c r="C24" s="421"/>
+      <c r="D24" s="442" t="s">
         <v>7</v>
       </c>
-      <c r="E24" s="441" t="s">
+      <c r="E24" s="399" t="s">
         <v>55</v>
       </c>
-      <c r="F24" s="129">
+      <c r="F24" s="454">
         <v>0.35199999999999998</v>
       </c>
-      <c r="G24" s="369">
+      <c r="G24" s="452">
         <v>0.74199999999999999</v>
       </c>
-      <c r="H24" s="117">
+      <c r="H24" s="455">
         <v>0.128</v>
       </c>
-      <c r="I24" s="368">
+      <c r="I24" s="456">
         <v>0.317</v>
       </c>
       <c r="J24" s="336"/>
@@ -7122,22 +7188,34 @@
       </c>
     </row>
     <row r="25" spans="2:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="407"/>
-      <c r="C25" s="401"/>
-      <c r="D25" s="217" t="s">
-        <v>7</v>
-      </c>
-      <c r="E25" s="443" t="s">
+      <c r="B25" s="413"/>
+      <c r="C25" s="424"/>
+      <c r="D25" s="424"/>
+      <c r="E25" s="400" t="s">
         <v>56</v>
       </c>
-      <c r="F25" s="148"/>
-      <c r="G25" s="149"/>
-      <c r="H25" s="218"/>
-      <c r="I25" s="219"/>
+      <c r="F25" s="148">
+        <v>0.443</v>
+      </c>
+      <c r="G25" s="149">
+        <v>0.8</v>
+      </c>
+      <c r="H25" s="218">
+        <v>0.159</v>
+      </c>
+      <c r="I25" s="219">
+        <v>0.36199999999999999</v>
+      </c>
       <c r="J25" s="342"/>
-      <c r="K25" s="446"/>
-      <c r="L25" s="220"/>
-      <c r="M25" s="221"/>
+      <c r="K25" s="227">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="L25" s="220">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="M25" s="221">
+        <v>-0.29899999999999999</v>
+      </c>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.35">
       <c r="J26"/>
@@ -7236,13 +7314,13 @@
       <c r="J57"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="B12:B18"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="B20:B25"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C22:C25"/>
+  <mergeCells count="23">
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D22:D23"/>
     <mergeCell ref="F2:I2"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="F3:G3"/>
@@ -7251,6 +7329,15 @@
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="C7:C10"/>
     <mergeCell ref="B3:E3"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="B12:B18"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="B20:B25"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C22:C25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7285,33 +7372,33 @@
       <c r="I1"/>
     </row>
     <row r="2" spans="2:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E2" s="402" t="s">
+      <c r="E2" s="425" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="403"/>
-      <c r="G2" s="403"/>
-      <c r="H2" s="404"/>
+      <c r="F2" s="426"/>
+      <c r="G2" s="426"/>
+      <c r="H2" s="427"/>
       <c r="I2" s="324"/>
-      <c r="J2" s="402" t="s">
+      <c r="J2" s="425" t="s">
         <v>33</v>
       </c>
-      <c r="K2" s="403"/>
-      <c r="L2" s="404"/>
+      <c r="K2" s="426"/>
+      <c r="L2" s="427"/>
     </row>
     <row r="3" spans="2:14" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="411" t="s">
+      <c r="B3" s="417" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="412"/>
-      <c r="D3" s="413"/>
-      <c r="E3" s="408" t="s">
+      <c r="C3" s="418"/>
+      <c r="D3" s="419"/>
+      <c r="E3" s="414" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="409"/>
-      <c r="G3" s="410" t="s">
+      <c r="F3" s="415"/>
+      <c r="G3" s="416" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="409"/>
+      <c r="H3" s="415"/>
       <c r="I3" s="325"/>
       <c r="J3" s="250" t="s">
         <v>35</v>
@@ -7359,10 +7446,10 @@
       <c r="M4" s="77"/>
     </row>
     <row r="5" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="405" t="s">
+      <c r="B5" s="411" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="397" t="s">
+      <c r="C5" s="420" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="151" t="s">
@@ -7393,8 +7480,8 @@
       <c r="M5" s="79"/>
     </row>
     <row r="6" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="406"/>
-      <c r="C6" s="398"/>
+      <c r="B6" s="412"/>
+      <c r="C6" s="421"/>
       <c r="D6" s="150" t="s">
         <v>17</v>
       </c>
@@ -7423,8 +7510,8 @@
       <c r="M6" s="79"/>
     </row>
     <row r="7" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="406"/>
-      <c r="C7" s="398"/>
+      <c r="B7" s="412"/>
+      <c r="C7" s="421"/>
       <c r="D7" s="151" t="s">
         <v>6</v>
       </c>
@@ -7453,8 +7540,8 @@
       <c r="M7" s="79"/>
     </row>
     <row r="8" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="406"/>
-      <c r="C8" s="398"/>
+      <c r="B8" s="412"/>
+      <c r="C8" s="421"/>
       <c r="D8" s="150" t="s">
         <v>7</v>
       </c>
@@ -7483,8 +7570,8 @@
       <c r="M8" s="79"/>
     </row>
     <row r="9" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="406"/>
-      <c r="C9" s="398"/>
+      <c r="B9" s="412"/>
+      <c r="C9" s="421"/>
       <c r="D9" s="150" t="s">
         <v>8</v>
       </c>
@@ -7513,8 +7600,8 @@
       <c r="M9" s="78"/>
     </row>
     <row r="10" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B10" s="406"/>
-      <c r="C10" s="399"/>
+      <c r="B10" s="412"/>
+      <c r="C10" s="422"/>
       <c r="D10" s="152" t="s">
         <v>9</v>
       </c>
@@ -7543,8 +7630,8 @@
       <c r="M10" s="79"/>
     </row>
     <row r="11" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="406"/>
-      <c r="C11" s="400" t="s">
+      <c r="B11" s="412"/>
+      <c r="C11" s="423" t="s">
         <v>3</v>
       </c>
       <c r="D11" s="151" t="s">
@@ -7575,8 +7662,8 @@
       <c r="M11" s="81"/>
     </row>
     <row r="12" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="406"/>
-      <c r="C12" s="398"/>
+      <c r="B12" s="412"/>
+      <c r="C12" s="421"/>
       <c r="D12" s="150" t="s">
         <v>17</v>
       </c>
@@ -7606,8 +7693,8 @@
       <c r="N12" s="174"/>
     </row>
     <row r="13" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="406"/>
-      <c r="C13" s="398"/>
+      <c r="B13" s="412"/>
+      <c r="C13" s="421"/>
       <c r="D13" s="151" t="s">
         <v>6</v>
       </c>
@@ -7637,8 +7724,8 @@
       <c r="N13" s="174"/>
     </row>
     <row r="14" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="406"/>
-      <c r="C14" s="398"/>
+      <c r="B14" s="412"/>
+      <c r="C14" s="421"/>
       <c r="D14" s="150" t="s">
         <v>7</v>
       </c>
@@ -7667,8 +7754,8 @@
       <c r="M14" s="79"/>
     </row>
     <row r="15" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="406"/>
-      <c r="C15" s="398"/>
+      <c r="B15" s="412"/>
+      <c r="C15" s="421"/>
       <c r="D15" s="150" t="s">
         <v>8</v>
       </c>
@@ -7697,8 +7784,8 @@
       <c r="M15" s="79"/>
     </row>
     <row r="16" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B16" s="406"/>
-      <c r="C16" s="399"/>
+      <c r="B16" s="412"/>
+      <c r="C16" s="422"/>
       <c r="D16" s="152" t="s">
         <v>9</v>
       </c>
@@ -7727,8 +7814,8 @@
       <c r="M16" s="79"/>
     </row>
     <row r="17" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="406"/>
-      <c r="C17" s="400" t="s">
+      <c r="B17" s="412"/>
+      <c r="C17" s="423" t="s">
         <v>18</v>
       </c>
       <c r="D17" s="151" t="s">
@@ -7759,8 +7846,8 @@
       <c r="M17" s="179"/>
     </row>
     <row r="18" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="406"/>
-      <c r="C18" s="398"/>
+      <c r="B18" s="412"/>
+      <c r="C18" s="421"/>
       <c r="D18" s="150" t="s">
         <v>17</v>
       </c>
@@ -7789,8 +7876,8 @@
       <c r="M18" s="79"/>
     </row>
     <row r="19" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="406"/>
-      <c r="C19" s="398"/>
+      <c r="B19" s="412"/>
+      <c r="C19" s="421"/>
       <c r="D19" s="151" t="s">
         <v>6</v>
       </c>
@@ -7819,8 +7906,8 @@
       <c r="M19" s="79"/>
     </row>
     <row r="20" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="406"/>
-      <c r="C20" s="398"/>
+      <c r="B20" s="412"/>
+      <c r="C20" s="421"/>
       <c r="D20" s="150" t="s">
         <v>7</v>
       </c>
@@ -7849,8 +7936,8 @@
       <c r="M20" s="79"/>
     </row>
     <row r="21" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="406"/>
-      <c r="C21" s="398"/>
+      <c r="B21" s="412"/>
+      <c r="C21" s="421"/>
       <c r="D21" s="150" t="s">
         <v>8</v>
       </c>
@@ -7879,8 +7966,8 @@
       <c r="M21" s="79"/>
     </row>
     <row r="22" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B22" s="407"/>
-      <c r="C22" s="401"/>
+      <c r="B22" s="413"/>
+      <c r="C22" s="424"/>
       <c r="D22" s="192" t="s">
         <v>9</v>
       </c>
@@ -7922,10 +8009,10 @@
       <c r="L23" s="233"/>
     </row>
     <row r="24" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="405" t="s">
+      <c r="B24" s="411" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="397" t="s">
+      <c r="C24" s="420" t="s">
         <v>2</v>
       </c>
       <c r="D24" s="222" t="s">
@@ -7955,8 +8042,8 @@
       </c>
     </row>
     <row r="25" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="406"/>
-      <c r="C25" s="398"/>
+      <c r="B25" s="412"/>
+      <c r="C25" s="421"/>
       <c r="D25" s="222" t="s">
         <v>17</v>
       </c>
@@ -7984,8 +8071,8 @@
       </c>
     </row>
     <row r="26" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="406"/>
-      <c r="C26" s="398"/>
+      <c r="B26" s="412"/>
+      <c r="C26" s="421"/>
       <c r="D26" s="222" t="s">
         <v>6</v>
       </c>
@@ -8013,8 +8100,8 @@
       </c>
     </row>
     <row r="27" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="406"/>
-      <c r="C27" s="398"/>
+      <c r="B27" s="412"/>
+      <c r="C27" s="421"/>
       <c r="D27" s="84" t="s">
         <v>7</v>
       </c>
@@ -8042,8 +8129,8 @@
       </c>
     </row>
     <row r="28" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="406"/>
-      <c r="C28" s="398"/>
+      <c r="B28" s="412"/>
+      <c r="C28" s="421"/>
       <c r="D28" s="83" t="s">
         <v>8</v>
       </c>
@@ -8071,8 +8158,8 @@
       </c>
     </row>
     <row r="29" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="406"/>
-      <c r="C29" s="399"/>
+      <c r="B29" s="412"/>
+      <c r="C29" s="422"/>
       <c r="D29" s="85" t="s">
         <v>9</v>
       </c>
@@ -8100,8 +8187,8 @@
       </c>
     </row>
     <row r="30" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="406"/>
-      <c r="C30" s="400" t="s">
+      <c r="B30" s="412"/>
+      <c r="C30" s="423" t="s">
         <v>3</v>
       </c>
       <c r="D30" s="84" t="s">
@@ -8132,8 +8219,8 @@
       <c r="M30" s="174"/>
     </row>
     <row r="31" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="406"/>
-      <c r="C31" s="398"/>
+      <c r="B31" s="412"/>
+      <c r="C31" s="421"/>
       <c r="D31" s="83" t="s">
         <v>17</v>
       </c>
@@ -8162,8 +8249,8 @@
       <c r="N31" s="174"/>
     </row>
     <row r="32" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="406"/>
-      <c r="C32" s="398"/>
+      <c r="B32" s="412"/>
+      <c r="C32" s="421"/>
       <c r="D32" s="84" t="s">
         <v>6</v>
       </c>
@@ -8193,8 +8280,8 @@
       <c r="N32" s="174"/>
     </row>
     <row r="33" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="406"/>
-      <c r="C33" s="398"/>
+      <c r="B33" s="412"/>
+      <c r="C33" s="421"/>
       <c r="D33" s="83" t="s">
         <v>7</v>
       </c>
@@ -8222,8 +8309,8 @@
       </c>
     </row>
     <row r="34" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="406"/>
-      <c r="C34" s="398"/>
+      <c r="B34" s="412"/>
+      <c r="C34" s="421"/>
       <c r="D34" s="83" t="s">
         <v>8</v>
       </c>
@@ -8251,8 +8338,8 @@
       </c>
     </row>
     <row r="35" spans="2:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="406"/>
-      <c r="C35" s="399"/>
+      <c r="B35" s="412"/>
+      <c r="C35" s="422"/>
       <c r="D35" s="85" t="s">
         <v>9</v>
       </c>
@@ -8280,8 +8367,8 @@
       </c>
     </row>
     <row r="36" spans="2:12" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="406"/>
-      <c r="C36" s="400" t="s">
+      <c r="B36" s="412"/>
+      <c r="C36" s="423" t="s">
         <v>18</v>
       </c>
       <c r="D36" s="84" t="s">
@@ -8311,8 +8398,8 @@
       </c>
     </row>
     <row r="37" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="406"/>
-      <c r="C37" s="398"/>
+      <c r="B37" s="412"/>
+      <c r="C37" s="421"/>
       <c r="D37" s="83" t="s">
         <v>17</v>
       </c>
@@ -8340,8 +8427,8 @@
       </c>
     </row>
     <row r="38" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="406"/>
-      <c r="C38" s="398"/>
+      <c r="B38" s="412"/>
+      <c r="C38" s="421"/>
       <c r="D38" s="84" t="s">
         <v>6</v>
       </c>
@@ -8369,8 +8456,8 @@
       </c>
     </row>
     <row r="39" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="406"/>
-      <c r="C39" s="398"/>
+      <c r="B39" s="412"/>
+      <c r="C39" s="421"/>
       <c r="D39" s="83" t="s">
         <v>7</v>
       </c>
@@ -8398,8 +8485,8 @@
       </c>
     </row>
     <row r="40" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="406"/>
-      <c r="C40" s="398"/>
+      <c r="B40" s="412"/>
+      <c r="C40" s="421"/>
       <c r="D40" s="83" t="s">
         <v>8</v>
       </c>
@@ -8427,8 +8514,8 @@
       </c>
     </row>
     <row r="41" spans="2:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B41" s="407"/>
-      <c r="C41" s="401"/>
+      <c r="B41" s="413"/>
+      <c r="C41" s="424"/>
       <c r="D41" s="230" t="s">
         <v>9</v>
       </c>
@@ -8469,10 +8556,10 @@
       <c r="L42" s="199"/>
     </row>
     <row r="43" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="405" t="s">
+      <c r="B43" s="411" t="s">
         <v>26</v>
       </c>
-      <c r="C43" s="397" t="s">
+      <c r="C43" s="420" t="s">
         <v>2</v>
       </c>
       <c r="D43" s="238" t="s">
@@ -8502,8 +8589,8 @@
       </c>
     </row>
     <row r="44" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="406"/>
-      <c r="C44" s="398"/>
+      <c r="B44" s="412"/>
+      <c r="C44" s="421"/>
       <c r="D44" s="83" t="s">
         <v>17</v>
       </c>
@@ -8531,8 +8618,8 @@
       </c>
     </row>
     <row r="45" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="406"/>
-      <c r="C45" s="398"/>
+      <c r="B45" s="412"/>
+      <c r="C45" s="421"/>
       <c r="D45" s="84" t="s">
         <v>6</v>
       </c>
@@ -8560,8 +8647,8 @@
       </c>
     </row>
     <row r="46" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="406"/>
-      <c r="C46" s="398"/>
+      <c r="B46" s="412"/>
+      <c r="C46" s="421"/>
       <c r="D46" s="83" t="s">
         <v>7</v>
       </c>
@@ -8589,8 +8676,8 @@
       </c>
     </row>
     <row r="47" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="406"/>
-      <c r="C47" s="398"/>
+      <c r="B47" s="412"/>
+      <c r="C47" s="421"/>
       <c r="D47" s="83" t="s">
         <v>8</v>
       </c>
@@ -8618,8 +8705,8 @@
       </c>
     </row>
     <row r="48" spans="2:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B48" s="406"/>
-      <c r="C48" s="399"/>
+      <c r="B48" s="412"/>
+      <c r="C48" s="422"/>
       <c r="D48" s="85" t="s">
         <v>9</v>
       </c>
@@ -8647,8 +8734,8 @@
       </c>
     </row>
     <row r="49" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="406"/>
-      <c r="C49" s="400" t="s">
+      <c r="B49" s="412"/>
+      <c r="C49" s="423" t="s">
         <v>3</v>
       </c>
       <c r="D49" s="84" t="s">
@@ -8678,8 +8765,8 @@
       </c>
     </row>
     <row r="50" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="406"/>
-      <c r="C50" s="398"/>
+      <c r="B50" s="412"/>
+      <c r="C50" s="421"/>
       <c r="D50" s="83" t="s">
         <v>17</v>
       </c>
@@ -8708,8 +8795,8 @@
       <c r="N50" s="174"/>
     </row>
     <row r="51" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="406"/>
-      <c r="C51" s="398"/>
+      <c r="B51" s="412"/>
+      <c r="C51" s="421"/>
       <c r="D51" s="84" t="s">
         <v>6</v>
       </c>
@@ -8738,8 +8825,8 @@
       <c r="N51" s="174"/>
     </row>
     <row r="52" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="406"/>
-      <c r="C52" s="398"/>
+      <c r="B52" s="412"/>
+      <c r="C52" s="421"/>
       <c r="D52" s="83" t="s">
         <v>7</v>
       </c>
@@ -8767,8 +8854,8 @@
       </c>
     </row>
     <row r="53" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="406"/>
-      <c r="C53" s="398"/>
+      <c r="B53" s="412"/>
+      <c r="C53" s="421"/>
       <c r="D53" s="83" t="s">
         <v>8</v>
       </c>
@@ -8796,8 +8883,8 @@
       </c>
     </row>
     <row r="54" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B54" s="406"/>
-      <c r="C54" s="399"/>
+      <c r="B54" s="412"/>
+      <c r="C54" s="422"/>
       <c r="D54" s="85" t="s">
         <v>9</v>
       </c>
@@ -8825,8 +8912,8 @@
       </c>
     </row>
     <row r="55" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="406"/>
-      <c r="C55" s="400" t="s">
+      <c r="B55" s="412"/>
+      <c r="C55" s="423" t="s">
         <v>18</v>
       </c>
       <c r="D55" s="84" t="s">
@@ -8856,8 +8943,8 @@
       </c>
     </row>
     <row r="56" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="406"/>
-      <c r="C56" s="398"/>
+      <c r="B56" s="412"/>
+      <c r="C56" s="421"/>
       <c r="D56" s="83" t="s">
         <v>17</v>
       </c>
@@ -8885,8 +8972,8 @@
       </c>
     </row>
     <row r="57" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="406"/>
-      <c r="C57" s="398"/>
+      <c r="B57" s="412"/>
+      <c r="C57" s="421"/>
       <c r="D57" s="84" t="s">
         <v>6</v>
       </c>
@@ -8914,8 +9001,8 @@
       </c>
     </row>
     <row r="58" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="406"/>
-      <c r="C58" s="398"/>
+      <c r="B58" s="412"/>
+      <c r="C58" s="421"/>
       <c r="D58" s="83" t="s">
         <v>7</v>
       </c>
@@ -8943,8 +9030,8 @@
       </c>
     </row>
     <row r="59" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="406"/>
-      <c r="C59" s="398"/>
+      <c r="B59" s="412"/>
+      <c r="C59" s="421"/>
       <c r="D59" s="83" t="s">
         <v>8</v>
       </c>
@@ -8972,8 +9059,8 @@
       </c>
     </row>
     <row r="60" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B60" s="407"/>
-      <c r="C60" s="401"/>
+      <c r="B60" s="413"/>
+      <c r="C60" s="424"/>
       <c r="D60" s="217" t="s">
         <v>9</v>
       </c>
@@ -9038,11 +9125,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="B43:B60"/>
-    <mergeCell ref="C43:C48"/>
-    <mergeCell ref="C49:C54"/>
-    <mergeCell ref="C55:C60"/>
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="E3:F3"/>
@@ -9055,6 +9137,11 @@
     <mergeCell ref="C5:C10"/>
     <mergeCell ref="C11:C16"/>
     <mergeCell ref="C17:C22"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="B43:B60"/>
+    <mergeCell ref="C43:C48"/>
+    <mergeCell ref="C49:C54"/>
+    <mergeCell ref="C55:C60"/>
   </mergeCells>
   <conditionalFormatting sqref="N10">
     <cfRule type="colorScale" priority="3">
@@ -9096,35 +9183,35 @@
   <sheetData>
     <row r="1" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:19" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E2" s="402" t="s">
+      <c r="E2" s="425" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="403"/>
-      <c r="G2" s="403"/>
-      <c r="H2" s="403"/>
-      <c r="I2" s="404"/>
+      <c r="F2" s="426"/>
+      <c r="G2" s="426"/>
+      <c r="H2" s="426"/>
+      <c r="I2" s="427"/>
       <c r="J2" s="296"/>
-      <c r="K2" s="402" t="s">
+      <c r="K2" s="425" t="s">
         <v>33</v>
       </c>
-      <c r="L2" s="403"/>
-      <c r="M2" s="403"/>
-      <c r="N2" s="404"/>
+      <c r="L2" s="426"/>
+      <c r="M2" s="426"/>
+      <c r="N2" s="427"/>
     </row>
     <row r="3" spans="2:19" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="411" t="s">
+      <c r="B3" s="417" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="412"/>
-      <c r="D3" s="413"/>
-      <c r="E3" s="408" t="s">
+      <c r="C3" s="418"/>
+      <c r="D3" s="419"/>
+      <c r="E3" s="414" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="409"/>
-      <c r="G3" s="410" t="s">
+      <c r="F3" s="415"/>
+      <c r="G3" s="416" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="409"/>
+      <c r="H3" s="415"/>
       <c r="I3" s="251" t="s">
         <v>40</v>
       </c>
@@ -9182,10 +9269,10 @@
       </c>
     </row>
     <row r="5" spans="2:19" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="405" t="s">
+      <c r="B5" s="411" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="397" t="s">
+      <c r="C5" s="420" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="151" t="s">
@@ -9221,8 +9308,8 @@
       </c>
     </row>
     <row r="6" spans="2:19" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="406"/>
-      <c r="C6" s="398"/>
+      <c r="B6" s="412"/>
+      <c r="C6" s="421"/>
       <c r="D6" s="150" t="s">
         <v>17</v>
       </c>
@@ -9257,8 +9344,8 @@
       <c r="S6" s="310"/>
     </row>
     <row r="7" spans="2:19" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="406"/>
-      <c r="C7" s="398"/>
+      <c r="B7" s="412"/>
+      <c r="C7" s="421"/>
       <c r="D7" s="150" t="s">
         <v>7</v>
       </c>
@@ -9292,8 +9379,8 @@
       </c>
     </row>
     <row r="8" spans="2:19" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="406"/>
-      <c r="C8" s="399"/>
+      <c r="B8" s="412"/>
+      <c r="C8" s="422"/>
       <c r="D8" s="152" t="s">
         <v>9</v>
       </c>
@@ -9327,8 +9414,8 @@
       </c>
     </row>
     <row r="9" spans="2:19" ht="16" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="406"/>
-      <c r="C9" s="398" t="s">
+      <c r="B9" s="412"/>
+      <c r="C9" s="421" t="s">
         <v>3</v>
       </c>
       <c r="D9" s="150" t="s">
@@ -9364,8 +9451,8 @@
       </c>
     </row>
     <row r="10" spans="2:19" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="406"/>
-      <c r="C10" s="399"/>
+      <c r="B10" s="412"/>
+      <c r="C10" s="422"/>
       <c r="D10" s="152" t="s">
         <v>9</v>
       </c>
@@ -9399,8 +9486,8 @@
       </c>
     </row>
     <row r="11" spans="2:19" ht="16" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="406"/>
-      <c r="C11" s="400" t="s">
+      <c r="B11" s="412"/>
+      <c r="C11" s="423" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="151" t="s">
@@ -9436,8 +9523,8 @@
       </c>
     </row>
     <row r="12" spans="2:19" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="406"/>
-      <c r="C12" s="398"/>
+      <c r="B12" s="412"/>
+      <c r="C12" s="421"/>
       <c r="D12" s="150" t="s">
         <v>17</v>
       </c>
@@ -9471,8 +9558,8 @@
       </c>
     </row>
     <row r="13" spans="2:19" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="407"/>
-      <c r="C13" s="401"/>
+      <c r="B13" s="413"/>
+      <c r="C13" s="424"/>
       <c r="D13" s="192" t="s">
         <v>9</v>
       </c>
@@ -9521,10 +9608,10 @@
       <c r="N14" s="312"/>
     </row>
     <row r="15" spans="2:19" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="405" t="s">
+      <c r="B15" s="411" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="428" t="s">
+      <c r="C15" s="442" t="s">
         <v>2</v>
       </c>
       <c r="D15" s="222" t="s">
@@ -9560,8 +9647,8 @@
       </c>
     </row>
     <row r="16" spans="2:19" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="406"/>
-      <c r="C16" s="399"/>
+      <c r="B16" s="412"/>
+      <c r="C16" s="422"/>
       <c r="D16" s="223" t="s">
         <v>8</v>
       </c>
@@ -9595,8 +9682,8 @@
       </c>
     </row>
     <row r="17" spans="2:14" ht="16" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="406"/>
-      <c r="C17" s="398" t="s">
+      <c r="B17" s="412"/>
+      <c r="C17" s="421" t="s">
         <v>3</v>
       </c>
       <c r="D17" s="83" t="s">
@@ -9632,8 +9719,8 @@
       </c>
     </row>
     <row r="18" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="406"/>
-      <c r="C18" s="398"/>
+      <c r="B18" s="412"/>
+      <c r="C18" s="421"/>
       <c r="D18" s="83" t="s">
         <v>7</v>
       </c>
@@ -9667,8 +9754,8 @@
       </c>
     </row>
     <row r="19" spans="2:14" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="406"/>
-      <c r="C19" s="398"/>
+      <c r="B19" s="412"/>
+      <c r="C19" s="421"/>
       <c r="D19" s="223" t="s">
         <v>8</v>
       </c>
@@ -9702,8 +9789,8 @@
       </c>
     </row>
     <row r="20" spans="2:14" ht="16" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="406"/>
-      <c r="C20" s="400" t="s">
+      <c r="B20" s="412"/>
+      <c r="C20" s="423" t="s">
         <v>18</v>
       </c>
       <c r="D20" s="84" t="s">
@@ -9739,8 +9826,8 @@
       </c>
     </row>
     <row r="21" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="406"/>
-      <c r="C21" s="398"/>
+      <c r="B21" s="412"/>
+      <c r="C21" s="421"/>
       <c r="D21" s="83" t="s">
         <v>17</v>
       </c>
@@ -9774,8 +9861,8 @@
       </c>
     </row>
     <row r="22" spans="2:14" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="407"/>
-      <c r="C22" s="401"/>
+      <c r="B22" s="413"/>
+      <c r="C22" s="424"/>
       <c r="D22" s="230" t="s">
         <v>9</v>
       </c>
@@ -9824,10 +9911,10 @@
       <c r="N23" s="294"/>
     </row>
     <row r="24" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="405" t="s">
+      <c r="B24" s="411" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="397" t="s">
+      <c r="C24" s="420" t="s">
         <v>2</v>
       </c>
       <c r="D24" s="238" t="s">
@@ -9863,8 +9950,8 @@
       </c>
     </row>
     <row r="25" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="406"/>
-      <c r="C25" s="398"/>
+      <c r="B25" s="412"/>
+      <c r="C25" s="421"/>
       <c r="D25" s="83" t="s">
         <v>17</v>
       </c>
@@ -9898,8 +9985,8 @@
       </c>
     </row>
     <row r="26" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="406"/>
-      <c r="C26" s="398"/>
+      <c r="B26" s="412"/>
+      <c r="C26" s="421"/>
       <c r="D26" s="83" t="s">
         <v>8</v>
       </c>
@@ -9933,8 +10020,8 @@
       </c>
     </row>
     <row r="27" spans="2:14" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="406"/>
-      <c r="C27" s="399"/>
+      <c r="B27" s="412"/>
+      <c r="C27" s="422"/>
       <c r="D27" s="85" t="s">
         <v>9</v>
       </c>
@@ -9968,8 +10055,8 @@
       </c>
     </row>
     <row r="28" spans="2:14" ht="16" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="406"/>
-      <c r="C28" s="400" t="s">
+      <c r="B28" s="412"/>
+      <c r="C28" s="423" t="s">
         <v>3</v>
       </c>
       <c r="D28" s="84" t="s">
@@ -10005,8 +10092,8 @@
       </c>
     </row>
     <row r="29" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="406"/>
-      <c r="C29" s="398"/>
+      <c r="B29" s="412"/>
+      <c r="C29" s="421"/>
       <c r="D29" s="84" t="s">
         <v>6</v>
       </c>
@@ -10040,8 +10127,8 @@
       </c>
     </row>
     <row r="30" spans="2:14" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="406"/>
-      <c r="C30" s="399"/>
+      <c r="B30" s="412"/>
+      <c r="C30" s="422"/>
       <c r="D30" s="85" t="s">
         <v>9</v>
       </c>
@@ -10075,8 +10162,8 @@
       </c>
     </row>
     <row r="31" spans="2:14" ht="16" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="406"/>
-      <c r="C31" s="400" t="s">
+      <c r="B31" s="412"/>
+      <c r="C31" s="423" t="s">
         <v>18</v>
       </c>
       <c r="D31" s="84" t="s">
@@ -10112,8 +10199,8 @@
       </c>
     </row>
     <row r="32" spans="2:14" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B32" s="407"/>
-      <c r="C32" s="401"/>
+      <c r="B32" s="413"/>
+      <c r="C32" s="424"/>
       <c r="D32" s="217" t="s">
         <v>7</v>
       </c>
@@ -10148,6 +10235,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="B15:B22"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="C20:C22"/>
     <mergeCell ref="B24:B32"/>
     <mergeCell ref="C24:C27"/>
     <mergeCell ref="C28:C30"/>
@@ -10160,11 +10252,6 @@
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="G3:H3"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="B15:B22"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="C20:C22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10198,32 +10285,32 @@
   <sheetData>
     <row r="1" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:15" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="431" t="s">
+      <c r="B2" s="445" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="432"/>
-      <c r="D2" s="433" t="s">
+      <c r="C2" s="446"/>
+      <c r="D2" s="447" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="434"/>
+      <c r="E2" s="448"/>
       <c r="F2" s="12"/>
-      <c r="G2" s="431" t="s">
+      <c r="G2" s="445" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="435"/>
-      <c r="I2" s="433" t="s">
+      <c r="H2" s="449"/>
+      <c r="I2" s="447" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="434"/>
+      <c r="J2" s="448"/>
       <c r="K2" s="12"/>
-      <c r="L2" s="431" t="s">
+      <c r="L2" s="445" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="435"/>
-      <c r="N2" s="436" t="s">
+      <c r="M2" s="449"/>
+      <c r="N2" s="450" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="434"/>
+      <c r="O2" s="448"/>
     </row>
     <row r="3" spans="2:15" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="7" t="s">
@@ -10877,32 +10964,32 @@
     </row>
     <row r="23" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="24" spans="2:15" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="431" t="s">
+      <c r="B24" s="445" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="432"/>
-      <c r="D24" s="429" t="s">
+      <c r="C24" s="446"/>
+      <c r="D24" s="443" t="s">
         <v>15</v>
       </c>
-      <c r="E24" s="430"/>
+      <c r="E24" s="444"/>
       <c r="F24" s="12"/>
-      <c r="G24" s="431" t="s">
+      <c r="G24" s="445" t="s">
         <v>13</v>
       </c>
-      <c r="H24" s="435"/>
-      <c r="I24" s="429" t="s">
+      <c r="H24" s="449"/>
+      <c r="I24" s="443" t="s">
         <v>15</v>
       </c>
-      <c r="J24" s="430"/>
+      <c r="J24" s="444"/>
       <c r="K24" s="12"/>
-      <c r="L24" s="431" t="s">
+      <c r="L24" s="445" t="s">
         <v>14</v>
       </c>
-      <c r="M24" s="435"/>
-      <c r="N24" s="429" t="s">
+      <c r="M24" s="449"/>
+      <c r="N24" s="443" t="s">
         <v>15</v>
       </c>
-      <c r="O24" s="430"/>
+      <c r="O24" s="444"/>
     </row>
     <row r="25" spans="2:15" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B25" s="7" t="s">

--- a/tables.xlsx
+++ b/tables.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thomp\Desktop\Ch3_floweringrush\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdolden\Desktop\Ch3_floweringrush\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E24C850B-5FAB-4018-B7BA-0AF32FDDA172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80CBD4CB-C14A-45A3-8265-6F54212E91D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{94130567-C790-4197-BF09-72317C0E58C5}"/>
+    <workbookView xWindow="1500" yWindow="3570" windowWidth="18900" windowHeight="11055" xr2:uid="{94130567-C790-4197-BF09-72317C0E58C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Space1" sheetId="1" r:id="rId1"/>
@@ -1780,7 +1780,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="460">
+  <cellXfs count="540">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2081,9 +2081,6 @@
     <xf numFmtId="164" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="7" fillId="8" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2157,9 +2154,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="6" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2304,9 +2298,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2871,9 +2862,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="12" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="12" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2906,6 +2894,16 @@
     <xf numFmtId="164" fontId="10" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2949,21 +2947,30 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2978,28 +2985,19 @@
     <xf numFmtId="0" fontId="7" fillId="10" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3026,30 +3024,272 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3392,47 +3632,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A735158-88E3-4592-A032-033FAF873106}">
-  <dimension ref="B1:M92"/>
+  <dimension ref="B1:N92"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="50" zoomScalePageLayoutView="40" workbookViewId="0">
-      <selection activeCell="K58" sqref="K58"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="50" zoomScalePageLayoutView="40" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.54296875" customWidth="1"/>
-    <col min="2" max="2" width="11.26953125" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" customWidth="1"/>
-    <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="13.26953125" customWidth="1"/>
-    <col min="7" max="7" width="10.1796875" customWidth="1"/>
-    <col min="8" max="8" width="12.54296875" customWidth="1"/>
-    <col min="9" max="9" width="0.36328125" style="323" customWidth="1"/>
-    <col min="10" max="10" width="12.54296875" customWidth="1"/>
-    <col min="11" max="11" width="12.81640625" customWidth="1"/>
-    <col min="12" max="12" width="11.81640625" customWidth="1"/>
-    <col min="13" max="13" width="12.54296875" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" customWidth="1"/>
+    <col min="9" max="9" width="0.42578125" style="320" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" customWidth="1"/>
+    <col min="12" max="12" width="11.85546875" customWidth="1"/>
+    <col min="13" max="13" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I1"/>
     </row>
-    <row r="2" spans="2:13" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E2" s="425" t="s">
+    <row r="2" spans="2:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E2" s="408" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="426"/>
-      <c r="G2" s="426"/>
-      <c r="H2" s="427"/>
-      <c r="I2" s="324"/>
-      <c r="J2" s="425" t="s">
+      <c r="F2" s="409"/>
+      <c r="G2" s="409"/>
+      <c r="H2" s="410"/>
+      <c r="I2" s="321"/>
+      <c r="J2" s="408" t="s">
         <v>33</v>
       </c>
-      <c r="K2" s="426"/>
-      <c r="L2" s="427"/>
-    </row>
-    <row r="3" spans="2:13" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K2" s="409"/>
+      <c r="L2" s="410"/>
+    </row>
+    <row r="3" spans="2:14" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="417" t="s">
         <v>29</v>
       </c>
@@ -3446,42 +3686,42 @@
         <v>27</v>
       </c>
       <c r="H3" s="415"/>
-      <c r="I3" s="325"/>
-      <c r="J3" s="250" t="s">
+      <c r="I3" s="322"/>
+      <c r="J3" s="247" t="s">
         <v>35</v>
       </c>
-      <c r="K3" s="251" t="s">
+      <c r="K3" s="248" t="s">
         <v>37</v>
       </c>
-      <c r="L3" s="251" t="s">
+      <c r="L3" s="248" t="s">
         <v>38</v>
       </c>
-      <c r="M3" s="178"/>
-    </row>
-    <row r="4" spans="2:13" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="241" t="s">
+      <c r="M3" s="176"/>
+    </row>
+    <row r="4" spans="2:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="238" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="239" t="s">
+      <c r="C4" s="236" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="189" t="s">
+      <c r="D4" s="187" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="145" t="s">
+      <c r="E4" s="143" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="146" t="s">
+      <c r="F4" s="144" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="260" t="s">
+      <c r="G4" s="257" t="s">
         <v>10</v>
       </c>
       <c r="H4" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="326"/>
-      <c r="J4" s="145" t="s">
+      <c r="I4" s="323"/>
+      <c r="J4" s="143" t="s">
         <v>10</v>
       </c>
       <c r="K4" s="82" t="s">
@@ -3492,746 +3732,483 @@
       </c>
       <c r="M4" s="77"/>
     </row>
-    <row r="5" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="411" t="s">
         <v>30</v>
       </c>
       <c r="C5" s="420" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="151" t="s">
+      <c r="D5" s="149" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="153">
-        <v>0.83599999999999997</v>
-      </c>
-      <c r="F5" s="110">
-        <v>1.32</v>
-      </c>
-      <c r="G5" s="111">
-        <v>0.27300000000000002</v>
-      </c>
-      <c r="H5" s="110">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="I5" s="327"/>
-      <c r="J5" s="158">
-        <v>0.22</v>
-      </c>
-      <c r="K5" s="163">
-        <v>-0.38500000000000001</v>
-      </c>
-      <c r="L5" s="96">
-        <v>-6.13E-2</v>
-      </c>
+      <c r="E5" s="151">
+        <v>0.84499999999999997</v>
+      </c>
+      <c r="F5" s="452">
+        <v>1.35</v>
+      </c>
+      <c r="G5" s="453"/>
+      <c r="H5" s="452"/>
+      <c r="I5" s="324"/>
+      <c r="J5" s="478"/>
+      <c r="K5" s="479"/>
+      <c r="L5" s="460"/>
       <c r="M5" s="79"/>
     </row>
-    <row r="6" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="412"/>
       <c r="C6" s="421"/>
-      <c r="D6" s="150" t="s">
+      <c r="D6" s="148" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="119">
-        <v>0.80600000000000005</v>
-      </c>
-      <c r="F6" s="90">
-        <v>1.3</v>
-      </c>
-      <c r="G6" s="89">
-        <v>0.26300000000000001</v>
-      </c>
-      <c r="H6" s="90">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="I6" s="328"/>
-      <c r="J6" s="159">
-        <v>0.221</v>
-      </c>
-      <c r="K6" s="159">
-        <v>-0.13700000000000001</v>
-      </c>
-      <c r="L6" s="100">
-        <v>-6.1800000000000001E-2</v>
-      </c>
+      <c r="E6" s="454">
+        <v>0.78200000000000003</v>
+      </c>
+      <c r="F6" s="539">
+        <v>1.41</v>
+      </c>
+      <c r="G6" s="456"/>
+      <c r="H6" s="455"/>
+      <c r="I6" s="325"/>
+      <c r="J6" s="480"/>
+      <c r="K6" s="480"/>
+      <c r="L6" s="464"/>
       <c r="M6" s="79"/>
     </row>
-    <row r="7" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="412"/>
       <c r="C7" s="421"/>
-      <c r="D7" s="151" t="s">
+      <c r="D7" s="149" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="128">
-        <v>0.8155</v>
-      </c>
-      <c r="F7" s="92">
+      <c r="E7" s="457">
+        <v>0.81</v>
+      </c>
+      <c r="F7" s="458">
         <v>1.4</v>
       </c>
-      <c r="G7" s="93">
-        <v>0.269625</v>
-      </c>
-      <c r="H7" s="94">
-        <v>0.625</v>
-      </c>
-      <c r="I7" s="327"/>
-      <c r="J7" s="160">
-        <v>0.19470000000000001</v>
-      </c>
-      <c r="K7" s="160">
-        <v>5.5399999999999998E-2</v>
-      </c>
-      <c r="L7" s="169">
-        <v>-6.25E-2</v>
-      </c>
+      <c r="G7" s="459"/>
+      <c r="H7" s="460"/>
+      <c r="I7" s="324"/>
+      <c r="J7" s="481"/>
+      <c r="K7" s="481"/>
+      <c r="L7" s="482"/>
       <c r="M7" s="79"/>
     </row>
-    <row r="8" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="412"/>
       <c r="C8" s="421"/>
-      <c r="D8" s="150" t="s">
+      <c r="D8" s="148" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="130">
-        <v>0.65237500000000004</v>
-      </c>
-      <c r="F8" s="98">
-        <v>1.2250000000000001</v>
-      </c>
-      <c r="G8" s="99">
-        <v>0.22162499999999999</v>
-      </c>
-      <c r="H8" s="100">
-        <v>0.5</v>
-      </c>
-      <c r="I8" s="328"/>
-      <c r="J8" s="161">
-        <v>0.19600000000000001</v>
-      </c>
-      <c r="K8" s="161">
-        <v>-0.25600000000000001</v>
-      </c>
-      <c r="L8" s="176">
-        <v>-9.4600000000000004E-2</v>
-      </c>
+      <c r="E8" s="461">
+        <v>0.73</v>
+      </c>
+      <c r="F8" s="462">
+        <v>1.25</v>
+      </c>
+      <c r="G8" s="463"/>
+      <c r="H8" s="464"/>
+      <c r="I8" s="325"/>
+      <c r="J8" s="483"/>
+      <c r="K8" s="483"/>
+      <c r="L8" s="484"/>
       <c r="M8" s="79"/>
     </row>
-    <row r="9" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="412"/>
       <c r="C9" s="421"/>
-      <c r="D9" s="150" t="s">
+      <c r="D9" s="148" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="130">
-        <v>0.825125</v>
-      </c>
-      <c r="F9" s="103">
-        <v>1.25</v>
-      </c>
-      <c r="G9" s="99">
-        <v>0.26787499999999997</v>
-      </c>
-      <c r="H9" s="104">
-        <v>0.5</v>
-      </c>
-      <c r="I9" s="329"/>
-      <c r="J9" s="365">
-        <v>0.182</v>
-      </c>
-      <c r="K9" s="161">
-        <v>-9.9400000000000002E-2</v>
-      </c>
-      <c r="L9" s="170">
-        <v>-6.2700000000000006E-2</v>
-      </c>
+      <c r="E9" s="461">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="F9" s="465">
+        <v>1.32</v>
+      </c>
+      <c r="G9" s="463"/>
+      <c r="H9" s="466"/>
+      <c r="I9" s="326"/>
+      <c r="J9" s="483"/>
+      <c r="K9" s="483"/>
+      <c r="L9" s="484"/>
       <c r="M9" s="78"/>
     </row>
-    <row r="10" spans="2:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="412"/>
       <c r="C10" s="422"/>
-      <c r="D10" s="152" t="s">
+      <c r="D10" s="150" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="132">
-        <v>0.76049999999999995</v>
-      </c>
-      <c r="F10" s="106">
-        <v>1.175</v>
-      </c>
-      <c r="G10" s="107">
-        <v>0.253</v>
-      </c>
-      <c r="H10" s="108">
-        <v>0.47499999999999998</v>
-      </c>
-      <c r="I10" s="330"/>
-      <c r="J10" s="162">
-        <v>0.20799999999999999</v>
-      </c>
-      <c r="K10" s="162">
-        <v>-0.183</v>
-      </c>
-      <c r="L10" s="171">
-        <v>-4.2200000000000001E-2</v>
-      </c>
+      <c r="E10" s="467">
+        <v>0.74399999999999999</v>
+      </c>
+      <c r="F10" s="468">
+        <v>1.25</v>
+      </c>
+      <c r="G10" s="469"/>
+      <c r="H10" s="470"/>
+      <c r="I10" s="327"/>
+      <c r="J10" s="485"/>
+      <c r="K10" s="485"/>
+      <c r="L10" s="486"/>
       <c r="M10" s="79"/>
     </row>
-    <row r="11" spans="2:13" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B11" s="412"/>
       <c r="C11" s="423" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="151" t="s">
+      <c r="D11" s="149" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="126">
+      <c r="E11" s="451">
         <v>0.77400000000000002</v>
       </c>
-      <c r="F11" s="110">
-        <v>1.2</v>
-      </c>
-      <c r="G11" s="109">
-        <v>0.26600000000000001</v>
-      </c>
-      <c r="H11" s="110">
-        <v>0.47499999999999998</v>
-      </c>
-      <c r="I11" s="327"/>
-      <c r="J11" s="168">
-        <v>0.22900000000000001</v>
-      </c>
-      <c r="K11" s="163">
-        <v>1.5800000000000002E-2</v>
-      </c>
-      <c r="L11" s="96">
-        <v>-7.5800000000000006E-2</v>
-      </c>
+      <c r="F11" s="452">
+        <v>1.23</v>
+      </c>
+      <c r="G11" s="453"/>
+      <c r="H11" s="452"/>
+      <c r="I11" s="324"/>
+      <c r="J11" s="479"/>
+      <c r="K11" s="479"/>
+      <c r="L11" s="460"/>
       <c r="M11" s="81"/>
     </row>
-    <row r="12" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="412"/>
       <c r="C12" s="421"/>
-      <c r="D12" s="150" t="s">
+      <c r="D12" s="148" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="119">
-        <v>0.69</v>
-      </c>
-      <c r="F12" s="110">
-        <v>1.2</v>
-      </c>
-      <c r="G12" s="89">
-        <v>0.23400000000000001</v>
-      </c>
-      <c r="H12" s="90">
-        <v>0.45</v>
-      </c>
-      <c r="I12" s="328"/>
-      <c r="J12" s="159">
-        <v>0.22800000000000001</v>
-      </c>
-      <c r="K12" s="159">
-        <v>0.14799999999999999</v>
-      </c>
-      <c r="L12" s="100">
-        <v>-7.7799999999999994E-2</v>
-      </c>
+      <c r="E12" s="454">
+        <v>0.67400000000000004</v>
+      </c>
+      <c r="F12" s="452">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="G12" s="456"/>
+      <c r="H12" s="455"/>
+      <c r="I12" s="325"/>
+      <c r="J12" s="480"/>
+      <c r="K12" s="480"/>
+      <c r="L12" s="464"/>
       <c r="M12" s="81"/>
     </row>
-    <row r="13" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="412"/>
       <c r="C13" s="421"/>
-      <c r="D13" s="151" t="s">
+      <c r="D13" s="149" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="126">
-        <v>0.72137499999999999</v>
-      </c>
-      <c r="F13" s="112">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="G13" s="95">
-        <v>0.23724999999999999</v>
-      </c>
-      <c r="H13" s="96">
-        <v>0.47499999999999998</v>
-      </c>
-      <c r="I13" s="327"/>
-      <c r="J13" s="160">
-        <v>0.21199999999999999</v>
-      </c>
-      <c r="K13" s="160">
-        <v>0.105</v>
-      </c>
-      <c r="L13" s="169">
-        <v>-7.5600000000000001E-2</v>
-      </c>
+      <c r="E13" s="451">
+        <v>0.73899999999999999</v>
+      </c>
+      <c r="F13" s="471">
+        <v>1.39</v>
+      </c>
+      <c r="G13" s="459"/>
+      <c r="H13" s="460"/>
+      <c r="I13" s="324"/>
+      <c r="J13" s="481"/>
+      <c r="K13" s="481"/>
+      <c r="L13" s="482"/>
       <c r="M13" s="80"/>
     </row>
-    <row r="14" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="412"/>
       <c r="C14" s="421"/>
-      <c r="D14" s="150" t="s">
+      <c r="D14" s="148" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="370">
-        <v>0.61275000000000002</v>
-      </c>
-      <c r="F14" s="90">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="G14" s="363">
-        <v>0.20574999999999999</v>
-      </c>
-      <c r="H14" s="113">
-        <v>0.47499999999999998</v>
-      </c>
-      <c r="I14" s="331"/>
-      <c r="J14" s="365">
-        <v>0.182</v>
-      </c>
-      <c r="K14" s="172">
-        <v>0.51200000000000001</v>
-      </c>
-      <c r="L14" s="170">
-        <v>-8.2600000000000007E-2</v>
-      </c>
+      <c r="E14" s="537">
+        <v>0.62</v>
+      </c>
+      <c r="F14" s="455">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G14" s="463"/>
+      <c r="H14" s="472"/>
+      <c r="I14" s="328"/>
+      <c r="J14" s="483"/>
+      <c r="K14" s="483"/>
+      <c r="L14" s="484"/>
       <c r="M14" s="79"/>
-    </row>
-    <row r="15" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N14" s="172"/>
+    </row>
+    <row r="15" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="412"/>
       <c r="C15" s="421"/>
-      <c r="D15" s="150" t="s">
+      <c r="D15" s="148" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="130">
-        <v>0.76749999999999996</v>
-      </c>
-      <c r="F15" s="114">
-        <v>1.45</v>
-      </c>
-      <c r="G15" s="101">
-        <v>0.25362499999999999</v>
-      </c>
-      <c r="H15" s="115">
-        <v>0.625</v>
-      </c>
-      <c r="I15" s="331"/>
-      <c r="J15" s="161">
-        <v>0.20100000000000001</v>
-      </c>
-      <c r="K15" s="161">
-        <v>0.20899999999999999</v>
-      </c>
-      <c r="L15" s="170">
-        <v>-7.4300000000000005E-2</v>
-      </c>
+      <c r="E15" s="461">
+        <v>0.77200000000000002</v>
+      </c>
+      <c r="F15" s="462">
+        <v>1.25</v>
+      </c>
+      <c r="G15" s="463"/>
+      <c r="H15" s="472"/>
+      <c r="I15" s="328"/>
+      <c r="J15" s="483"/>
+      <c r="K15" s="483"/>
+      <c r="L15" s="484"/>
       <c r="M15" s="79"/>
     </row>
-    <row r="16" spans="2:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="412"/>
       <c r="C16" s="422"/>
-      <c r="D16" s="152" t="s">
+      <c r="D16" s="150" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="132">
-        <v>0.69274999999999998</v>
-      </c>
-      <c r="F16" s="106">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="G16" s="107">
-        <v>0.23100000000000001</v>
-      </c>
-      <c r="H16" s="108">
-        <v>0.42499999999999999</v>
-      </c>
-      <c r="I16" s="330"/>
-      <c r="J16" s="162">
-        <v>0.22700000000000001</v>
-      </c>
-      <c r="K16" s="162">
-        <v>-0.33400000000000002</v>
-      </c>
-      <c r="L16" s="171">
-        <v>-5.2200000000000003E-2</v>
-      </c>
+      <c r="E16" s="467">
+        <v>0.70399999999999996</v>
+      </c>
+      <c r="F16" s="468">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="G16" s="469"/>
+      <c r="H16" s="470"/>
+      <c r="I16" s="327"/>
+      <c r="J16" s="485"/>
+      <c r="K16" s="485"/>
+      <c r="L16" s="486"/>
       <c r="M16" s="79"/>
     </row>
-    <row r="17" spans="2:13" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:13" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B17" s="412"/>
       <c r="C17" s="423" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="151" t="s">
+      <c r="D17" s="149" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="128">
-        <v>0.80900000000000005</v>
-      </c>
-      <c r="F17" s="92">
-        <v>1.08</v>
-      </c>
-      <c r="G17" s="91">
-        <v>0.26800000000000002</v>
-      </c>
-      <c r="H17" s="92">
-        <v>0.42499999999999999</v>
-      </c>
-      <c r="I17" s="332"/>
-      <c r="J17" s="164">
-        <v>0.222</v>
-      </c>
-      <c r="K17" s="366">
-        <v>6.9699999999999996E-3</v>
-      </c>
-      <c r="L17" s="96">
-        <v>-0.06</v>
-      </c>
-      <c r="M17" s="179"/>
-    </row>
-    <row r="18" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E17" s="457">
+        <v>0.80600000000000005</v>
+      </c>
+      <c r="F17" s="458">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="G17" s="473"/>
+      <c r="H17" s="458"/>
+      <c r="I17" s="329"/>
+      <c r="J17" s="487"/>
+      <c r="K17" s="487"/>
+      <c r="L17" s="460"/>
+      <c r="M17" s="177"/>
+    </row>
+    <row r="18" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="412"/>
       <c r="C18" s="421"/>
-      <c r="D18" s="150" t="s">
+      <c r="D18" s="148" t="s">
         <v>17</v>
       </c>
-      <c r="E18" s="130">
-        <v>0.746</v>
-      </c>
-      <c r="F18" s="98">
-        <v>1.05</v>
-      </c>
-      <c r="G18" s="97">
-        <v>0.249</v>
-      </c>
-      <c r="H18" s="369">
-        <v>0.38800000000000001</v>
-      </c>
-      <c r="I18" s="331"/>
-      <c r="J18" s="166">
-        <v>0.221</v>
-      </c>
-      <c r="K18" s="166">
-        <v>0.17799999999999999</v>
-      </c>
-      <c r="L18" s="100">
-        <v>-5.9799999999999999E-2</v>
-      </c>
+      <c r="E18" s="461">
+        <v>0.73599999999999999</v>
+      </c>
+      <c r="F18" s="462">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="G18" s="474"/>
+      <c r="H18" s="462"/>
+      <c r="I18" s="328"/>
+      <c r="J18" s="488"/>
+      <c r="K18" s="488"/>
+      <c r="L18" s="464"/>
       <c r="M18" s="79"/>
     </row>
-    <row r="19" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="412"/>
       <c r="C19" s="421"/>
-      <c r="D19" s="151" t="s">
+      <c r="D19" s="149" t="s">
         <v>6</v>
       </c>
-      <c r="E19" s="130">
-        <v>0.76</v>
-      </c>
-      <c r="F19" s="98">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="G19" s="97">
-        <v>0.249</v>
-      </c>
-      <c r="H19" s="98">
-        <v>0.438</v>
-      </c>
-      <c r="I19" s="331"/>
-      <c r="J19" s="166">
-        <v>0.19400000000000001</v>
-      </c>
-      <c r="K19" s="166">
-        <v>-0.11600000000000001</v>
-      </c>
-      <c r="L19" s="169">
-        <v>-6.2399999999999997E-2</v>
-      </c>
+      <c r="E19" s="461">
+        <v>0.754</v>
+      </c>
+      <c r="F19" s="462">
+        <v>1.02</v>
+      </c>
+      <c r="G19" s="474"/>
+      <c r="H19" s="462"/>
+      <c r="I19" s="328"/>
+      <c r="J19" s="488"/>
+      <c r="K19" s="488"/>
+      <c r="L19" s="482"/>
       <c r="M19" s="79"/>
     </row>
-    <row r="20" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="412"/>
       <c r="C20" s="421"/>
-      <c r="D20" s="150" t="s">
+      <c r="D20" s="148" t="s">
         <v>7</v>
       </c>
-      <c r="E20" s="130">
-        <v>0.67600000000000005</v>
-      </c>
-      <c r="F20" s="369">
-        <v>0.97499999999999998</v>
-      </c>
-      <c r="G20" s="116">
-        <v>0.221</v>
-      </c>
-      <c r="H20" s="369">
-        <v>0.38800000000000001</v>
-      </c>
-      <c r="I20" s="331"/>
-      <c r="J20" s="166">
-        <v>0.19600000000000001</v>
-      </c>
-      <c r="K20" s="166">
-        <v>3.44E-2</v>
-      </c>
-      <c r="L20" s="170">
-        <v>-7.0900000000000005E-2</v>
-      </c>
+      <c r="E20" s="461">
+        <v>0.65900000000000003</v>
+      </c>
+      <c r="F20" s="538">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="G20" s="474"/>
+      <c r="H20" s="462"/>
+      <c r="I20" s="328"/>
+      <c r="J20" s="488"/>
+      <c r="K20" s="488"/>
+      <c r="L20" s="484"/>
       <c r="M20" s="79"/>
     </row>
-    <row r="21" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="412"/>
       <c r="C21" s="421"/>
-      <c r="D21" s="150" t="s">
+      <c r="D21" s="148" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="130">
-        <v>0.80500000000000005</v>
-      </c>
-      <c r="F21" s="98">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="G21" s="91">
-        <v>0.219</v>
-      </c>
-      <c r="H21" s="92">
-        <v>0.4</v>
-      </c>
-      <c r="I21" s="332"/>
-      <c r="J21" s="366">
-        <v>0.182</v>
-      </c>
-      <c r="K21" s="164">
-        <v>0.188</v>
-      </c>
-      <c r="L21" s="170">
-        <v>-6.3799999999999996E-2</v>
-      </c>
+      <c r="E21" s="461">
+        <v>0.79500000000000004</v>
+      </c>
+      <c r="F21" s="462">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="G21" s="473"/>
+      <c r="H21" s="458"/>
+      <c r="I21" s="329"/>
+      <c r="J21" s="487"/>
+      <c r="K21" s="487"/>
+      <c r="L21" s="484"/>
       <c r="M21" s="79"/>
     </row>
-    <row r="22" spans="2:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="22" spans="2:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="413"/>
       <c r="C22" s="424"/>
-      <c r="D22" s="192" t="s">
+      <c r="D22" s="190" t="s">
         <v>9</v>
       </c>
-      <c r="E22" s="193">
-        <v>0.71199999999999997</v>
-      </c>
-      <c r="F22" s="194">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="G22" s="195">
-        <v>0.26400000000000001</v>
-      </c>
-      <c r="H22" s="194">
-        <v>0.45</v>
-      </c>
-      <c r="I22" s="333"/>
-      <c r="J22" s="196">
-        <v>0.20799999999999999</v>
-      </c>
-      <c r="K22" s="196">
-        <v>-0.20200000000000001</v>
-      </c>
-      <c r="L22" s="396">
-        <v>-4.0599999999999997E-2</v>
-      </c>
+      <c r="E22" s="475">
+        <v>0.73199999999999998</v>
+      </c>
+      <c r="F22" s="476">
+        <v>1.23</v>
+      </c>
+      <c r="G22" s="477"/>
+      <c r="H22" s="476"/>
+      <c r="I22" s="330"/>
+      <c r="J22" s="489"/>
+      <c r="K22" s="489"/>
+      <c r="L22" s="490"/>
       <c r="M22" s="79"/>
     </row>
-    <row r="23" spans="2:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="191"/>
-      <c r="C23" s="197"/>
-      <c r="D23" s="229"/>
-      <c r="E23" s="229"/>
-      <c r="F23" s="229"/>
-      <c r="G23" s="229"/>
-      <c r="H23" s="229"/>
-      <c r="I23" s="229"/>
-      <c r="J23" s="229"/>
-      <c r="K23" s="229"/>
-      <c r="L23" s="233"/>
-    </row>
-    <row r="24" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="189"/>
+      <c r="C23" s="194"/>
+      <c r="D23" s="226"/>
+      <c r="E23" s="226"/>
+      <c r="F23" s="226"/>
+      <c r="G23" s="226"/>
+      <c r="H23" s="226"/>
+      <c r="I23" s="226"/>
+      <c r="J23" s="226"/>
+      <c r="K23" s="226"/>
+      <c r="L23" s="230"/>
+    </row>
+    <row r="24" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="411" t="s">
         <v>25</v>
       </c>
       <c r="C24" s="420" t="s">
         <v>2</v>
       </c>
-      <c r="D24" s="222" t="s">
+      <c r="D24" s="219" t="s">
         <v>16</v>
       </c>
-      <c r="E24" s="225">
-        <v>0.78400000000000003</v>
-      </c>
-      <c r="F24" s="231">
-        <v>1.32</v>
-      </c>
-      <c r="G24" s="87">
-        <v>0.26500000000000001</v>
-      </c>
-      <c r="H24" s="133">
-        <v>0.57499999999999996</v>
-      </c>
-      <c r="I24" s="334"/>
-      <c r="J24" s="158">
-        <v>0.216</v>
-      </c>
-      <c r="K24" s="158">
-        <v>-0.39500000000000002</v>
-      </c>
-      <c r="L24" s="158">
-        <v>-0.10299999999999999</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E24" s="491"/>
+      <c r="F24" s="492"/>
+      <c r="G24" s="493"/>
+      <c r="H24" s="494"/>
+      <c r="I24" s="331"/>
+      <c r="J24" s="478"/>
+      <c r="K24" s="478"/>
+      <c r="L24" s="478"/>
+    </row>
+    <row r="25" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="412"/>
       <c r="C25" s="421"/>
-      <c r="D25" s="222" t="s">
+      <c r="D25" s="219" t="s">
         <v>17</v>
       </c>
-      <c r="E25" s="129">
-        <v>0.68300000000000005</v>
-      </c>
-      <c r="F25" s="97">
-        <v>1.23</v>
-      </c>
-      <c r="G25" s="89">
-        <v>0.22900000000000001</v>
-      </c>
-      <c r="H25" s="134">
-        <v>0.5</v>
-      </c>
-      <c r="I25" s="335"/>
-      <c r="J25" s="159">
-        <v>0.216</v>
-      </c>
-      <c r="K25" s="159">
-        <v>-0.23599999999999999</v>
-      </c>
-      <c r="L25" s="159">
-        <v>-0.10199999999999999</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E25" s="495"/>
+      <c r="F25" s="474"/>
+      <c r="G25" s="456"/>
+      <c r="H25" s="496"/>
+      <c r="I25" s="332"/>
+      <c r="J25" s="480"/>
+      <c r="K25" s="480"/>
+      <c r="L25" s="480"/>
+    </row>
+    <row r="26" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="412"/>
       <c r="C26" s="421"/>
-      <c r="D26" s="222" t="s">
+      <c r="D26" s="219" t="s">
         <v>6</v>
       </c>
-      <c r="E26" s="129">
-        <v>0.70099999999999996</v>
-      </c>
-      <c r="F26" s="97">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="G26" s="101">
-        <v>0.235875</v>
-      </c>
-      <c r="H26" s="134">
-        <v>0.5</v>
-      </c>
-      <c r="I26" s="335"/>
-      <c r="J26" s="161">
-        <v>0.17799999999999999</v>
-      </c>
-      <c r="K26" s="159">
-        <v>-0.23599999999999999</v>
-      </c>
-      <c r="L26" s="161">
-        <v>-0.106</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E26" s="495"/>
+      <c r="F26" s="474"/>
+      <c r="G26" s="463"/>
+      <c r="H26" s="496"/>
+      <c r="I26" s="332"/>
+      <c r="J26" s="483"/>
+      <c r="K26" s="480"/>
+      <c r="L26" s="483"/>
+    </row>
+    <row r="27" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="412"/>
       <c r="C27" s="421"/>
       <c r="D27" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="E27" s="129">
-        <v>0.5615</v>
-      </c>
-      <c r="F27" s="97">
-        <v>1.075</v>
-      </c>
-      <c r="G27" s="101">
-        <v>0.19187499999999999</v>
-      </c>
-      <c r="H27" s="142">
-        <v>0.42499999999999999</v>
-      </c>
-      <c r="I27" s="336"/>
-      <c r="J27" s="161">
-        <v>0.17499999999999999</v>
-      </c>
-      <c r="K27" s="159">
-        <v>-0.23200000000000001</v>
-      </c>
-      <c r="L27" s="161">
-        <v>-0.111</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E27" s="495"/>
+      <c r="F27" s="474"/>
+      <c r="G27" s="463"/>
+      <c r="H27" s="497"/>
+      <c r="I27" s="333"/>
+      <c r="J27" s="483"/>
+      <c r="K27" s="480"/>
+      <c r="L27" s="483"/>
+    </row>
+    <row r="28" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="412"/>
       <c r="C28" s="421"/>
       <c r="D28" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="E28" s="129">
-        <v>0.71924999999999994</v>
-      </c>
-      <c r="F28" s="117">
-        <v>1.3</v>
-      </c>
-      <c r="G28" s="101">
-        <v>0.2445</v>
-      </c>
-      <c r="H28" s="232">
-        <v>0.5</v>
-      </c>
-      <c r="I28" s="337"/>
-      <c r="J28" s="161">
-        <v>0.157</v>
-      </c>
-      <c r="K28" s="172">
-        <v>-0.5</v>
-      </c>
-      <c r="L28" s="161">
-        <v>-0.112</v>
-      </c>
-    </row>
-    <row r="29" spans="2:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E28" s="495"/>
+      <c r="F28" s="498"/>
+      <c r="G28" s="463"/>
+      <c r="H28" s="499"/>
+      <c r="I28" s="334"/>
+      <c r="J28" s="483"/>
+      <c r="K28" s="483"/>
+      <c r="L28" s="483"/>
+    </row>
+    <row r="29" spans="2:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="412"/>
       <c r="C29" s="422"/>
       <c r="D29" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="E29" s="131">
-        <v>0.57325000000000004</v>
-      </c>
-      <c r="F29" s="105">
-        <v>1.02</v>
-      </c>
-      <c r="G29" s="107">
-        <v>0.19875000000000001</v>
-      </c>
-      <c r="H29" s="144">
-        <v>0.45</v>
-      </c>
-      <c r="I29" s="338"/>
-      <c r="J29" s="181">
-        <v>0.192</v>
-      </c>
-      <c r="K29" s="236">
-        <v>-9.6199999999999994E-2</v>
-      </c>
-      <c r="L29" s="181">
-        <v>-9.6500000000000002E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="2:13" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="E29" s="500"/>
+      <c r="F29" s="501"/>
+      <c r="G29" s="469"/>
+      <c r="H29" s="502"/>
+      <c r="I29" s="335"/>
+      <c r="J29" s="518"/>
+      <c r="K29" s="519"/>
+      <c r="L29" s="518"/>
+    </row>
+    <row r="30" spans="2:13" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B30" s="412"/>
       <c r="C30" s="423" t="s">
         <v>3</v>
@@ -4239,177 +4216,93 @@
       <c r="D30" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="E30" s="125">
-        <v>0.65900000000000003</v>
-      </c>
-      <c r="F30" s="110">
-        <v>1.08</v>
-      </c>
-      <c r="G30" s="125">
-        <v>0.22700000000000001</v>
-      </c>
-      <c r="H30" s="139">
-        <v>0.45</v>
-      </c>
-      <c r="I30" s="339"/>
-      <c r="J30" s="163">
-        <v>0.17100000000000001</v>
-      </c>
-      <c r="K30" s="163">
-        <v>-0.23</v>
-      </c>
-      <c r="L30" s="163">
-        <v>-0.123</v>
-      </c>
-      <c r="M30" s="174"/>
-    </row>
-    <row r="31" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E30" s="503"/>
+      <c r="F30" s="452"/>
+      <c r="G30" s="503"/>
+      <c r="H30" s="504"/>
+      <c r="I30" s="336"/>
+      <c r="J30" s="479"/>
+      <c r="K30" s="479"/>
+      <c r="L30" s="479"/>
+      <c r="M30" s="172"/>
+    </row>
+    <row r="31" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="412"/>
       <c r="C31" s="421"/>
       <c r="D31" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="E31" s="118">
-        <v>0.47099999999999997</v>
-      </c>
-      <c r="F31" s="90">
-        <v>1.02</v>
-      </c>
-      <c r="G31" s="118">
-        <v>0.16200000000000001</v>
-      </c>
-      <c r="H31" s="134">
-        <v>0.375</v>
-      </c>
-      <c r="I31" s="335"/>
-      <c r="J31" s="159">
-        <v>0.17100000000000001</v>
-      </c>
-      <c r="K31" s="159">
-        <v>-7.2999999999999995E-2</v>
-      </c>
-      <c r="L31" s="173">
-        <v>-0.161</v>
-      </c>
-    </row>
-    <row r="32" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E31" s="505"/>
+      <c r="F31" s="455"/>
+      <c r="G31" s="505"/>
+      <c r="H31" s="496"/>
+      <c r="I31" s="332"/>
+      <c r="J31" s="480"/>
+      <c r="K31" s="480"/>
+      <c r="L31" s="480"/>
+    </row>
+    <row r="32" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="412"/>
       <c r="C32" s="421"/>
       <c r="D32" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="E32" s="127">
-        <v>0.60099999999999998</v>
-      </c>
-      <c r="F32" s="96">
-        <v>1.2</v>
-      </c>
-      <c r="G32" s="122">
-        <v>0.20987500000000001</v>
-      </c>
-      <c r="H32" s="135">
-        <v>0.52500000000000002</v>
-      </c>
-      <c r="I32" s="339"/>
-      <c r="J32" s="160">
-        <v>0.14699999999999999</v>
-      </c>
-      <c r="K32" s="163">
-        <v>-0.127</v>
-      </c>
-      <c r="L32" s="160">
-        <v>-0.13200000000000001</v>
-      </c>
-      <c r="M32" s="174"/>
-    </row>
-    <row r="33" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E32" s="506"/>
+      <c r="F32" s="460"/>
+      <c r="G32" s="507"/>
+      <c r="H32" s="508"/>
+      <c r="I32" s="336"/>
+      <c r="J32" s="481"/>
+      <c r="K32" s="479"/>
+      <c r="L32" s="481"/>
+      <c r="M32" s="172"/>
+    </row>
+    <row r="33" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="412"/>
       <c r="C33" s="421"/>
       <c r="D33" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="E33" s="371">
-        <v>0.41112500000000002</v>
-      </c>
-      <c r="F33" s="100">
-        <v>0.95</v>
-      </c>
-      <c r="G33" s="373">
-        <v>0.144625</v>
-      </c>
-      <c r="H33" s="136">
-        <v>0.375</v>
-      </c>
-      <c r="I33" s="335"/>
-      <c r="J33" s="161">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="K33" s="382">
-        <v>5.7599999999999998E-2</v>
-      </c>
-      <c r="L33" s="161">
-        <v>-0.14299999999999999</v>
-      </c>
-    </row>
-    <row r="34" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E33" s="495"/>
+      <c r="F33" s="464"/>
+      <c r="G33" s="509"/>
+      <c r="H33" s="510"/>
+      <c r="I33" s="332"/>
+      <c r="J33" s="483"/>
+      <c r="K33" s="488"/>
+      <c r="L33" s="483"/>
+    </row>
+    <row r="34" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="412"/>
       <c r="C34" s="421"/>
       <c r="D34" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="E34" s="129">
-        <v>0.64212499999999995</v>
-      </c>
-      <c r="F34" s="100">
-        <v>1.2</v>
-      </c>
-      <c r="G34" s="123">
-        <v>0.21975</v>
-      </c>
-      <c r="H34" s="234">
-        <v>0.45</v>
-      </c>
-      <c r="I34" s="336"/>
-      <c r="J34" s="365">
-        <v>0.106</v>
-      </c>
-      <c r="K34" s="166">
-        <v>-0.30599999999999999</v>
-      </c>
-      <c r="L34" s="161">
-        <v>-0.11</v>
-      </c>
-    </row>
-    <row r="35" spans="2:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E34" s="495"/>
+      <c r="F34" s="464"/>
+      <c r="G34" s="509"/>
+      <c r="H34" s="511"/>
+      <c r="I34" s="333"/>
+      <c r="J34" s="483"/>
+      <c r="K34" s="488"/>
+      <c r="L34" s="483"/>
+    </row>
+    <row r="35" spans="2:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="412"/>
       <c r="C35" s="422"/>
       <c r="D35" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="E35" s="131">
-        <v>0.48699999999999999</v>
-      </c>
-      <c r="F35" s="108">
-        <v>0.97499999999999998</v>
-      </c>
-      <c r="G35" s="124">
-        <v>0.17299999999999999</v>
-      </c>
-      <c r="H35" s="235">
-        <v>0.4</v>
-      </c>
-      <c r="I35" s="340"/>
-      <c r="J35" s="162">
-        <v>0.11899999999999999</v>
-      </c>
-      <c r="K35" s="167">
-        <v>-0.28699999999999998</v>
-      </c>
-      <c r="L35" s="364">
-        <v>-9.4700000000000006E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="2:12" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="E35" s="500"/>
+      <c r="F35" s="470"/>
+      <c r="G35" s="512"/>
+      <c r="H35" s="513"/>
+      <c r="I35" s="337"/>
+      <c r="J35" s="485"/>
+      <c r="K35" s="520"/>
+      <c r="L35" s="485"/>
+    </row>
+    <row r="36" spans="2:12" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B36" s="412"/>
       <c r="C36" s="423" t="s">
         <v>18</v>
@@ -4417,366 +4310,198 @@
       <c r="D36" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="E36" s="127">
-        <v>0.70399999999999996</v>
-      </c>
-      <c r="F36" s="92">
-        <v>1.01</v>
-      </c>
-      <c r="G36" s="127">
-        <v>0.23899999999999999</v>
-      </c>
-      <c r="H36" s="141">
-        <v>0.438</v>
-      </c>
-      <c r="I36" s="341"/>
-      <c r="J36" s="164">
-        <v>0.215</v>
-      </c>
-      <c r="K36" s="164">
-        <v>-2.46E-2</v>
-      </c>
-      <c r="L36" s="163">
-        <v>-0.11600000000000001</v>
-      </c>
-    </row>
-    <row r="37" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E36" s="506"/>
+      <c r="F36" s="458"/>
+      <c r="G36" s="506"/>
+      <c r="H36" s="514"/>
+      <c r="I36" s="338"/>
+      <c r="J36" s="487"/>
+      <c r="K36" s="487"/>
+      <c r="L36" s="479"/>
+    </row>
+    <row r="37" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="412"/>
       <c r="C37" s="421"/>
       <c r="D37" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="E37" s="129">
-        <v>0.61</v>
-      </c>
-      <c r="F37" s="98">
-        <v>0.9</v>
-      </c>
-      <c r="G37" s="129">
-        <v>0.20899999999999999</v>
-      </c>
-      <c r="H37" s="368">
-        <v>0.35</v>
-      </c>
-      <c r="I37" s="336"/>
-      <c r="J37" s="165">
-        <v>0.23100000000000001</v>
-      </c>
-      <c r="K37" s="166">
-        <v>-0.20899999999999999</v>
-      </c>
-      <c r="L37" s="159">
-        <v>-0.129</v>
-      </c>
-    </row>
-    <row r="38" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E37" s="495"/>
+      <c r="F37" s="462"/>
+      <c r="G37" s="495"/>
+      <c r="H37" s="497"/>
+      <c r="I37" s="333"/>
+      <c r="J37" s="488"/>
+      <c r="K37" s="488"/>
+      <c r="L37" s="480"/>
+    </row>
+    <row r="38" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="412"/>
       <c r="C38" s="421"/>
       <c r="D38" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="E38" s="129">
-        <v>0.65500000000000003</v>
-      </c>
-      <c r="F38" s="98">
-        <v>0.96199999999999997</v>
-      </c>
-      <c r="G38" s="129">
-        <v>0.22500000000000001</v>
-      </c>
-      <c r="H38" s="142">
-        <v>0.375</v>
-      </c>
-      <c r="I38" s="336"/>
-      <c r="J38" s="166">
-        <v>0.16900000000000001</v>
-      </c>
-      <c r="K38" s="166">
-        <v>-0.33900000000000002</v>
-      </c>
-      <c r="L38" s="160">
-        <v>-0.11700000000000001</v>
-      </c>
-    </row>
-    <row r="39" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E38" s="495"/>
+      <c r="F38" s="462"/>
+      <c r="G38" s="495"/>
+      <c r="H38" s="497"/>
+      <c r="I38" s="333"/>
+      <c r="J38" s="488"/>
+      <c r="K38" s="488"/>
+      <c r="L38" s="481"/>
+    </row>
+    <row r="39" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="412"/>
       <c r="C39" s="421"/>
       <c r="D39" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="E39" s="129">
-        <v>0.496</v>
-      </c>
-      <c r="F39" s="369">
-        <v>0.89200000000000002</v>
-      </c>
-      <c r="G39" s="129">
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="H39" s="142">
-        <v>0.35799999999999998</v>
-      </c>
-      <c r="I39" s="336"/>
-      <c r="J39" s="166">
-        <v>0.16</v>
-      </c>
-      <c r="K39" s="166">
-        <v>0.23200000000000001</v>
-      </c>
-      <c r="L39" s="161">
-        <v>-0.126</v>
-      </c>
-    </row>
-    <row r="40" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E39" s="495"/>
+      <c r="F39" s="462"/>
+      <c r="G39" s="495"/>
+      <c r="H39" s="497"/>
+      <c r="I39" s="333"/>
+      <c r="J39" s="488"/>
+      <c r="K39" s="488"/>
+      <c r="L39" s="483"/>
+    </row>
+    <row r="40" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="412"/>
       <c r="C40" s="421"/>
       <c r="D40" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="E40" s="129">
-        <v>0.66800000000000004</v>
-      </c>
-      <c r="F40" s="98">
-        <v>1.06</v>
-      </c>
-      <c r="G40" s="129">
-        <v>0.22600000000000001</v>
-      </c>
-      <c r="H40" s="142">
-        <v>0.41199999999999998</v>
-      </c>
-      <c r="I40" s="341"/>
-      <c r="J40" s="164">
-        <v>0.14399999999999999</v>
-      </c>
-      <c r="K40" s="164">
-        <v>-0.188</v>
-      </c>
-      <c r="L40" s="161">
-        <v>-0.111</v>
-      </c>
-    </row>
-    <row r="41" spans="2:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E40" s="495"/>
+      <c r="F40" s="462"/>
+      <c r="G40" s="495"/>
+      <c r="H40" s="497"/>
+      <c r="I40" s="338"/>
+      <c r="J40" s="487"/>
+      <c r="K40" s="487"/>
+      <c r="L40" s="483"/>
+    </row>
+    <row r="41" spans="2:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="413"/>
       <c r="C41" s="424"/>
-      <c r="D41" s="230" t="s">
+      <c r="D41" s="227" t="s">
         <v>9</v>
       </c>
-      <c r="E41" s="148">
-        <v>0.54</v>
-      </c>
-      <c r="F41" s="149">
-        <v>0.97499999999999998</v>
-      </c>
-      <c r="G41" s="148">
-        <v>0.193</v>
-      </c>
-      <c r="H41" s="219">
-        <v>0.4</v>
-      </c>
-      <c r="I41" s="342"/>
-      <c r="J41" s="227">
-        <v>0.17100000000000001</v>
-      </c>
-      <c r="K41" s="227">
-        <v>-0.20899999999999999</v>
-      </c>
-      <c r="L41" s="237">
-        <v>-9.9299999999999999E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="2:12" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B42" s="191"/>
-      <c r="C42" s="197"/>
-      <c r="D42" s="198"/>
-      <c r="E42" s="198"/>
-      <c r="F42" s="198"/>
-      <c r="G42" s="198"/>
-      <c r="H42" s="198"/>
-      <c r="I42" s="198"/>
-      <c r="J42" s="198"/>
-      <c r="K42" s="198"/>
-      <c r="L42" s="199"/>
-    </row>
-    <row r="43" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E41" s="515"/>
+      <c r="F41" s="516"/>
+      <c r="G41" s="515"/>
+      <c r="H41" s="517"/>
+      <c r="I41" s="339"/>
+      <c r="J41" s="521"/>
+      <c r="K41" s="521"/>
+      <c r="L41" s="522"/>
+    </row>
+    <row r="42" spans="2:12" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="189"/>
+      <c r="C42" s="194"/>
+      <c r="D42" s="195"/>
+      <c r="E42" s="195"/>
+      <c r="F42" s="195"/>
+      <c r="G42" s="195"/>
+      <c r="H42" s="195"/>
+      <c r="I42" s="195"/>
+      <c r="J42" s="195"/>
+      <c r="K42" s="195"/>
+      <c r="L42" s="196"/>
+    </row>
+    <row r="43" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="411" t="s">
         <v>26</v>
       </c>
       <c r="C43" s="420" t="s">
         <v>2</v>
       </c>
-      <c r="D43" s="238" t="s">
+      <c r="D43" s="235" t="s">
         <v>16</v>
       </c>
-      <c r="E43" s="225">
-        <v>0.71499999999999997</v>
-      </c>
-      <c r="F43" s="147">
-        <v>1.35</v>
-      </c>
-      <c r="G43" s="87">
-        <v>0.24099999999999999</v>
-      </c>
-      <c r="H43" s="133">
-        <v>0.52500000000000002</v>
-      </c>
-      <c r="I43" s="334"/>
-      <c r="J43" s="158">
-        <v>0.20399999999999999</v>
-      </c>
-      <c r="K43" s="216">
-        <v>-0.46</v>
-      </c>
-      <c r="L43" s="88">
-        <v>-0.126</v>
-      </c>
-    </row>
-    <row r="44" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E43" s="491"/>
+      <c r="F43" s="523"/>
+      <c r="G43" s="493"/>
+      <c r="H43" s="494"/>
+      <c r="I43" s="331"/>
+      <c r="J43" s="478"/>
+      <c r="K43" s="530"/>
+      <c r="L43" s="531"/>
+    </row>
+    <row r="44" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="412"/>
       <c r="C44" s="421"/>
       <c r="D44" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="E44" s="129">
-        <v>0.59199999999999997</v>
-      </c>
-      <c r="F44" s="98">
-        <v>1.08</v>
-      </c>
-      <c r="G44" s="89">
-        <v>0.20499999999999999</v>
-      </c>
-      <c r="H44" s="134">
-        <v>0.42499999999999999</v>
-      </c>
-      <c r="I44" s="335"/>
-      <c r="J44" s="173">
-        <v>0.21199999999999999</v>
-      </c>
-      <c r="K44" s="100">
-        <v>-0.44600000000000001</v>
-      </c>
-      <c r="L44" s="90">
-        <v>-0.14599999999999999</v>
-      </c>
-    </row>
-    <row r="45" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E44" s="495"/>
+      <c r="F44" s="462"/>
+      <c r="G44" s="456"/>
+      <c r="H44" s="496"/>
+      <c r="I44" s="332"/>
+      <c r="J44" s="480"/>
+      <c r="K44" s="464"/>
+      <c r="L44" s="455"/>
+    </row>
+    <row r="45" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="412"/>
       <c r="C45" s="421"/>
       <c r="D45" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="E45" s="127">
-        <v>0.62324999999999997</v>
-      </c>
-      <c r="F45" s="121">
-        <v>1.175</v>
-      </c>
-      <c r="G45" s="95">
-        <v>0.2145</v>
-      </c>
-      <c r="H45" s="135">
-        <v>0.47499999999999998</v>
-      </c>
-      <c r="I45" s="339"/>
-      <c r="J45" s="160">
-        <v>0.14299999999999999</v>
-      </c>
-      <c r="K45" s="96">
-        <v>-0.28399999999999997</v>
-      </c>
-      <c r="L45" s="154">
-        <v>-0.13500000000000001</v>
-      </c>
-    </row>
-    <row r="46" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E45" s="506"/>
+      <c r="F45" s="524"/>
+      <c r="G45" s="459"/>
+      <c r="H45" s="508"/>
+      <c r="I45" s="336"/>
+      <c r="J45" s="481"/>
+      <c r="K45" s="460"/>
+      <c r="L45" s="532"/>
+    </row>
+    <row r="46" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="412"/>
       <c r="C46" s="421"/>
       <c r="D46" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="E46" s="129">
-        <v>0.44600000000000001</v>
-      </c>
-      <c r="F46" s="113">
-        <v>1.0249999999999999</v>
-      </c>
-      <c r="G46" s="101">
-        <v>0.15912499999999999</v>
-      </c>
-      <c r="H46" s="136">
-        <v>0.42499999999999999</v>
-      </c>
-      <c r="I46" s="335"/>
-      <c r="J46" s="161">
-        <v>0.13900000000000001</v>
-      </c>
-      <c r="K46" s="102">
-        <v>-0.88300000000000001</v>
-      </c>
-      <c r="L46" s="155">
-        <v>-0.14699999999999999</v>
-      </c>
-    </row>
-    <row r="47" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E46" s="495"/>
+      <c r="F46" s="472"/>
+      <c r="G46" s="463"/>
+      <c r="H46" s="510"/>
+      <c r="I46" s="332"/>
+      <c r="J46" s="483"/>
+      <c r="K46" s="464"/>
+      <c r="L46" s="533"/>
+    </row>
+    <row r="47" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="412"/>
       <c r="C47" s="421"/>
       <c r="D47" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="E47" s="129">
-        <v>0.61399999999999999</v>
-      </c>
-      <c r="F47" s="103">
-        <v>1.075</v>
-      </c>
-      <c r="G47" s="101">
-        <v>0.20799999999999999</v>
-      </c>
-      <c r="H47" s="137">
-        <v>0.47499999999999998</v>
-      </c>
-      <c r="I47" s="343"/>
-      <c r="J47" s="161">
-        <v>0.10100000000000001</v>
-      </c>
-      <c r="K47" s="104">
-        <v>-0.47599999999999998</v>
-      </c>
-      <c r="L47" s="155">
-        <v>-0.13</v>
-      </c>
-    </row>
-    <row r="48" spans="2:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E47" s="495"/>
+      <c r="F47" s="465"/>
+      <c r="G47" s="463"/>
+      <c r="H47" s="525"/>
+      <c r="I47" s="340"/>
+      <c r="J47" s="483"/>
+      <c r="K47" s="466"/>
+      <c r="L47" s="533"/>
+    </row>
+    <row r="48" spans="2:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B48" s="412"/>
       <c r="C48" s="422"/>
       <c r="D48" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="E48" s="131">
-        <v>0.45324999999999999</v>
-      </c>
-      <c r="F48" s="108">
-        <v>0.875</v>
-      </c>
-      <c r="G48" s="107">
-        <v>0.16400000000000001</v>
-      </c>
-      <c r="H48" s="138">
-        <v>0.4</v>
-      </c>
-      <c r="I48" s="344"/>
-      <c r="J48" s="162">
-        <v>0.11</v>
-      </c>
-      <c r="K48" s="108">
-        <v>-0.22</v>
-      </c>
-      <c r="L48" s="376">
-        <v>-0.11700000000000001</v>
-      </c>
-    </row>
-    <row r="49" spans="2:12" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="E48" s="500"/>
+      <c r="F48" s="470"/>
+      <c r="G48" s="469"/>
+      <c r="H48" s="526"/>
+      <c r="I48" s="341"/>
+      <c r="J48" s="485"/>
+      <c r="K48" s="470"/>
+      <c r="L48" s="534"/>
+    </row>
+    <row r="49" spans="2:12" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B49" s="412"/>
       <c r="C49" s="423" t="s">
         <v>3</v>
@@ -4784,175 +4509,91 @@
       <c r="D49" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="E49" s="125">
-        <v>0.64100000000000001</v>
-      </c>
-      <c r="F49" s="110">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="G49" s="109">
-        <v>0.221</v>
-      </c>
-      <c r="H49" s="139">
-        <v>0.45</v>
-      </c>
-      <c r="I49" s="339"/>
-      <c r="J49" s="163">
-        <v>0.17499999999999999</v>
-      </c>
-      <c r="K49" s="96">
-        <v>-0.27800000000000002</v>
-      </c>
-      <c r="L49" s="110">
-        <v>-0.157</v>
-      </c>
-    </row>
-    <row r="50" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E49" s="503"/>
+      <c r="F49" s="452"/>
+      <c r="G49" s="453"/>
+      <c r="H49" s="504"/>
+      <c r="I49" s="336"/>
+      <c r="J49" s="479"/>
+      <c r="K49" s="460"/>
+      <c r="L49" s="452"/>
+    </row>
+    <row r="50" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="412"/>
       <c r="C50" s="421"/>
       <c r="D50" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="E50" s="118">
-        <v>0.48299999999999998</v>
-      </c>
-      <c r="F50" s="90">
-        <v>0.95</v>
-      </c>
-      <c r="G50" s="89">
-        <v>0.17499999999999999</v>
-      </c>
-      <c r="H50" s="134">
-        <v>0.4</v>
-      </c>
-      <c r="I50" s="335"/>
-      <c r="J50" s="159">
-        <v>0.18099999999999999</v>
-      </c>
-      <c r="K50" s="100">
-        <v>-0.313</v>
-      </c>
-      <c r="L50" s="90">
-        <v>-0.17799999999999999</v>
-      </c>
-    </row>
-    <row r="51" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E50" s="505"/>
+      <c r="F50" s="455"/>
+      <c r="G50" s="456"/>
+      <c r="H50" s="496"/>
+      <c r="I50" s="332"/>
+      <c r="J50" s="480"/>
+      <c r="K50" s="464"/>
+      <c r="L50" s="455"/>
+    </row>
+    <row r="51" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="412"/>
       <c r="C51" s="421"/>
       <c r="D51" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="E51" s="122">
-        <v>0.47575000000000001</v>
-      </c>
-      <c r="F51" s="96">
-        <v>0.92500000000000004</v>
-      </c>
-      <c r="G51" s="95">
-        <v>0.17249999999999999</v>
-      </c>
-      <c r="H51" s="135">
-        <v>0.4</v>
-      </c>
-      <c r="I51" s="339"/>
-      <c r="J51" s="160">
-        <v>0.13</v>
-      </c>
-      <c r="K51" s="96">
-        <v>-0.156</v>
-      </c>
-      <c r="L51" s="154">
-        <v>-0.17199999999999999</v>
-      </c>
-    </row>
-    <row r="52" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E51" s="507"/>
+      <c r="F51" s="460"/>
+      <c r="G51" s="459"/>
+      <c r="H51" s="508"/>
+      <c r="I51" s="336"/>
+      <c r="J51" s="481"/>
+      <c r="K51" s="460"/>
+      <c r="L51" s="532"/>
+    </row>
+    <row r="52" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="412"/>
       <c r="C52" s="421"/>
       <c r="D52" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="E52" s="371">
-        <v>0.29025000000000001</v>
-      </c>
-      <c r="F52" s="113">
-        <v>0.8</v>
-      </c>
-      <c r="G52" s="363">
-        <v>0.113125</v>
-      </c>
-      <c r="H52" s="136">
-        <v>0.32500000000000001</v>
-      </c>
-      <c r="I52" s="335"/>
-      <c r="J52" s="161">
-        <v>0.127</v>
-      </c>
-      <c r="K52" s="113">
-        <v>0.15</v>
-      </c>
-      <c r="L52" s="157">
-        <v>-0.20200000000000001</v>
-      </c>
-    </row>
-    <row r="53" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E52" s="495"/>
+      <c r="F52" s="472"/>
+      <c r="G52" s="463"/>
+      <c r="H52" s="510"/>
+      <c r="I52" s="332"/>
+      <c r="J52" s="483"/>
+      <c r="K52" s="472"/>
+      <c r="L52" s="533"/>
+    </row>
+    <row r="53" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="412"/>
       <c r="C53" s="421"/>
       <c r="D53" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="E53" s="143">
-        <v>0.42212499999999997</v>
-      </c>
-      <c r="F53" s="113">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="G53" s="101">
-        <v>0.155</v>
-      </c>
-      <c r="H53" s="136">
-        <v>0.42499999999999999</v>
-      </c>
-      <c r="I53" s="335"/>
-      <c r="J53" s="161">
-        <v>0.111</v>
-      </c>
-      <c r="K53" s="113">
-        <v>-0.45</v>
-      </c>
-      <c r="L53" s="155">
-        <v>-0.183</v>
-      </c>
-    </row>
-    <row r="54" spans="2:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E53" s="527"/>
+      <c r="F53" s="472"/>
+      <c r="G53" s="463"/>
+      <c r="H53" s="510"/>
+      <c r="I53" s="332"/>
+      <c r="J53" s="483"/>
+      <c r="K53" s="472"/>
+      <c r="L53" s="533"/>
+    </row>
+    <row r="54" spans="2:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B54" s="412"/>
       <c r="C54" s="422"/>
       <c r="D54" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="E54" s="131">
-        <v>0.35249999999999998</v>
-      </c>
-      <c r="F54" s="108">
-        <v>0.8</v>
-      </c>
-      <c r="G54" s="107">
-        <v>0.13600000000000001</v>
-      </c>
-      <c r="H54" s="140">
-        <v>0.375</v>
-      </c>
-      <c r="I54" s="344"/>
-      <c r="J54" s="162">
-        <v>0.123</v>
-      </c>
-      <c r="K54" s="108">
-        <v>-0.29699999999999999</v>
-      </c>
-      <c r="L54" s="156">
-        <v>-0.17199999999999999</v>
-      </c>
-    </row>
-    <row r="55" spans="2:12" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="E54" s="500"/>
+      <c r="F54" s="470"/>
+      <c r="G54" s="469"/>
+      <c r="H54" s="526"/>
+      <c r="I54" s="341"/>
+      <c r="J54" s="485"/>
+      <c r="K54" s="470"/>
+      <c r="L54" s="534"/>
+    </row>
+    <row r="55" spans="2:12" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B55" s="412"/>
       <c r="C55" s="423" t="s">
         <v>18</v>
@@ -4960,272 +4601,189 @@
       <c r="D55" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="E55" s="127">
-        <v>0.68200000000000005</v>
-      </c>
-      <c r="F55" s="92">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="G55" s="120">
-        <v>0.23499999999999999</v>
-      </c>
-      <c r="H55" s="141">
-        <v>0.38800000000000001</v>
-      </c>
-      <c r="I55" s="341"/>
-      <c r="J55" s="164">
-        <v>0.18099999999999999</v>
-      </c>
-      <c r="K55" s="121">
-        <v>-0.39</v>
-      </c>
-      <c r="L55" s="110">
-        <v>-0.13600000000000001</v>
-      </c>
-    </row>
-    <row r="56" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E55" s="506"/>
+      <c r="F55" s="458"/>
+      <c r="G55" s="528"/>
+      <c r="H55" s="514"/>
+      <c r="I55" s="338"/>
+      <c r="J55" s="487"/>
+      <c r="K55" s="524"/>
+      <c r="L55" s="452"/>
+    </row>
+    <row r="56" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="412"/>
       <c r="C56" s="421"/>
       <c r="D56" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="E56" s="129">
-        <v>0.54200000000000004</v>
-      </c>
-      <c r="F56" s="98">
-        <v>0.83799999999999997</v>
-      </c>
-      <c r="G56" s="117">
-        <v>0.192</v>
-      </c>
-      <c r="H56" s="142">
-        <v>0.36199999999999999</v>
-      </c>
-      <c r="I56" s="336"/>
-      <c r="J56" s="166">
-        <v>0.19500000000000001</v>
-      </c>
-      <c r="K56" s="113">
-        <v>-0.316</v>
-      </c>
-      <c r="L56" s="90">
-        <v>-0.159</v>
-      </c>
-    </row>
-    <row r="57" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E56" s="495"/>
+      <c r="F56" s="462"/>
+      <c r="G56" s="498"/>
+      <c r="H56" s="497"/>
+      <c r="I56" s="333"/>
+      <c r="J56" s="488"/>
+      <c r="K56" s="472"/>
+      <c r="L56" s="455"/>
+    </row>
+    <row r="57" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="412"/>
       <c r="C57" s="421"/>
       <c r="D57" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="E57" s="129">
-        <v>0.55300000000000005</v>
-      </c>
-      <c r="F57" s="98">
-        <v>0.91200000000000003</v>
-      </c>
-      <c r="G57" s="117">
-        <v>0.19500000000000001</v>
-      </c>
-      <c r="H57" s="142">
-        <v>0.375</v>
-      </c>
-      <c r="I57" s="336"/>
-      <c r="J57" s="166">
-        <v>0.13600000000000001</v>
-      </c>
-      <c r="K57" s="375">
-        <v>-7.7299999999999994E-2</v>
-      </c>
-      <c r="L57" s="154">
-        <v>-0.14899999999999999</v>
-      </c>
-    </row>
-    <row r="58" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E57" s="495"/>
+      <c r="F57" s="462"/>
+      <c r="G57" s="498"/>
+      <c r="H57" s="497"/>
+      <c r="I57" s="333"/>
+      <c r="J57" s="488"/>
+      <c r="K57" s="472"/>
+      <c r="L57" s="532"/>
+    </row>
+    <row r="58" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="412"/>
       <c r="C58" s="421"/>
       <c r="D58" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="E58" s="129">
-        <v>0.35199999999999998</v>
-      </c>
-      <c r="F58" s="369">
-        <v>0.74199999999999999</v>
-      </c>
-      <c r="G58" s="117">
-        <v>0.128</v>
-      </c>
-      <c r="H58" s="368">
-        <v>0.317</v>
-      </c>
-      <c r="I58" s="336"/>
-      <c r="J58" s="166">
-        <v>0.13700000000000001</v>
-      </c>
-      <c r="K58" s="113">
-        <v>1.18E-2</v>
-      </c>
-      <c r="L58" s="155">
-        <v>-0.17899999999999999</v>
-      </c>
-    </row>
-    <row r="59" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E58" s="495"/>
+      <c r="F58" s="462"/>
+      <c r="G58" s="498"/>
+      <c r="H58" s="497"/>
+      <c r="I58" s="333"/>
+      <c r="J58" s="488"/>
+      <c r="K58" s="472"/>
+      <c r="L58" s="533"/>
+    </row>
+    <row r="59" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="412"/>
       <c r="C59" s="421"/>
       <c r="D59" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="E59" s="129">
-        <v>0.56799999999999995</v>
-      </c>
-      <c r="F59" s="98">
-        <v>1</v>
-      </c>
-      <c r="G59" s="117">
-        <v>0.19600000000000001</v>
-      </c>
-      <c r="H59" s="142">
-        <v>0.33800000000000002</v>
-      </c>
-      <c r="I59" s="341"/>
-      <c r="J59" s="164">
-        <v>0.10100000000000001</v>
-      </c>
-      <c r="K59" s="121">
-        <v>-0.20200000000000001</v>
-      </c>
-      <c r="L59" s="155">
-        <v>-0.14899999999999999</v>
-      </c>
-    </row>
-    <row r="60" spans="2:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E59" s="495"/>
+      <c r="F59" s="462"/>
+      <c r="G59" s="498"/>
+      <c r="H59" s="497"/>
+      <c r="I59" s="338"/>
+      <c r="J59" s="487"/>
+      <c r="K59" s="524"/>
+      <c r="L59" s="533"/>
+    </row>
+    <row r="60" spans="2:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B60" s="413"/>
       <c r="C60" s="424"/>
-      <c r="D60" s="217" t="s">
+      <c r="D60" s="214" t="s">
         <v>9</v>
       </c>
-      <c r="E60" s="148">
-        <v>0.42899999999999999</v>
-      </c>
-      <c r="F60" s="149">
-        <v>1.05</v>
-      </c>
-      <c r="G60" s="218">
-        <v>0.16</v>
-      </c>
-      <c r="H60" s="219">
-        <v>0.375</v>
-      </c>
-      <c r="I60" s="342"/>
-      <c r="J60" s="377">
-        <v>9.7000000000000003E-2</v>
-      </c>
-      <c r="K60" s="220">
-        <v>-0.20100000000000001</v>
-      </c>
-      <c r="L60" s="221">
-        <v>-0.13300000000000001</v>
-      </c>
-    </row>
-    <row r="61" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="E60" s="515"/>
+      <c r="F60" s="516"/>
+      <c r="G60" s="529"/>
+      <c r="H60" s="517"/>
+      <c r="I60" s="339"/>
+      <c r="J60" s="521"/>
+      <c r="K60" s="535"/>
+      <c r="L60" s="536"/>
+    </row>
+    <row r="61" spans="2:12" x14ac:dyDescent="0.25">
       <c r="I61"/>
     </row>
-    <row r="62" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:12" x14ac:dyDescent="0.25">
       <c r="I62"/>
     </row>
-    <row r="63" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:12" x14ac:dyDescent="0.25">
       <c r="I63"/>
     </row>
-    <row r="64" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:12" x14ac:dyDescent="0.25">
       <c r="I64"/>
     </row>
-    <row r="65" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="65" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I65"/>
     </row>
-    <row r="66" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="66" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I66"/>
     </row>
-    <row r="67" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="67" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I67"/>
     </row>
-    <row r="68" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="68" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I68"/>
     </row>
-    <row r="69" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="69" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I69"/>
     </row>
-    <row r="70" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="70" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I70"/>
     </row>
-    <row r="71" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="71" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I71"/>
     </row>
-    <row r="72" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="72" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I72"/>
     </row>
-    <row r="73" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="73" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I73"/>
     </row>
-    <row r="74" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="74" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I74"/>
     </row>
-    <row r="75" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="75" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I75"/>
     </row>
-    <row r="76" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="76" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I76"/>
     </row>
-    <row r="77" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="77" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I77"/>
     </row>
-    <row r="78" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="78" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I78"/>
     </row>
-    <row r="79" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="79" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I79"/>
     </row>
-    <row r="80" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="80" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I80"/>
     </row>
-    <row r="81" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="81" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I81"/>
     </row>
-    <row r="82" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="82" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I82"/>
     </row>
-    <row r="83" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="83" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I83"/>
     </row>
-    <row r="84" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="84" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I84"/>
     </row>
-    <row r="85" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="85" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I85"/>
     </row>
-    <row r="86" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="86" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I86"/>
     </row>
-    <row r="87" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="87" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I87"/>
     </row>
-    <row r="88" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="88" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I88"/>
     </row>
-    <row r="89" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="89" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I89"/>
     </row>
-    <row r="90" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="90" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I90"/>
     </row>
-    <row r="91" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="91" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I91"/>
     </row>
-    <row r="92" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="92" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I92"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="C55:C60"/>
     <mergeCell ref="E2:H2"/>
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="B5:B22"/>
@@ -5242,7 +4800,6 @@
     <mergeCell ref="C36:C41"/>
     <mergeCell ref="C43:C48"/>
     <mergeCell ref="C49:C54"/>
-    <mergeCell ref="C55:C60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5257,95 +4814,95 @@
       <selection activeCell="K25" sqref="K25:M25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.1796875" customWidth="1"/>
-    <col min="3" max="3" width="15.7265625" customWidth="1"/>
-    <col min="4" max="4" width="13.7265625" customWidth="1"/>
-    <col min="5" max="6" width="10.7265625" customWidth="1"/>
-    <col min="7" max="8" width="9.26953125" customWidth="1"/>
-    <col min="9" max="9" width="10.81640625" customWidth="1"/>
-    <col min="10" max="10" width="0.54296875" style="323" customWidth="1"/>
-    <col min="11" max="14" width="10.453125" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="6" width="10.7109375" customWidth="1"/>
+    <col min="7" max="8" width="9.28515625" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" customWidth="1"/>
+    <col min="10" max="10" width="0.5703125" style="320" customWidth="1"/>
+    <col min="11" max="14" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J1"/>
     </row>
-    <row r="2" spans="2:14" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E2" s="425" t="s">
+    <row r="2" spans="2:14" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E2" s="408" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="426"/>
-      <c r="G2" s="426"/>
-      <c r="H2" s="426"/>
-      <c r="I2" s="427"/>
-      <c r="J2" s="324"/>
-      <c r="K2" s="425" t="s">
+      <c r="F2" s="409"/>
+      <c r="G2" s="409"/>
+      <c r="H2" s="409"/>
+      <c r="I2" s="410"/>
+      <c r="J2" s="321"/>
+      <c r="K2" s="408" t="s">
         <v>33</v>
       </c>
-      <c r="L2" s="426"/>
-      <c r="M2" s="426"/>
-      <c r="N2" s="427"/>
-    </row>
-    <row r="3" spans="2:14" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="438" t="s">
+      <c r="L2" s="409"/>
+      <c r="M2" s="409"/>
+      <c r="N2" s="410"/>
+    </row>
+    <row r="3" spans="2:14" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="428" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="439"/>
-      <c r="D3" s="440"/>
-      <c r="E3" s="435" t="s">
+      <c r="C3" s="429"/>
+      <c r="D3" s="430"/>
+      <c r="E3" s="425" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="427"/>
-      <c r="G3" s="436" t="s">
+      <c r="F3" s="410"/>
+      <c r="G3" s="426" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="437"/>
-      <c r="I3" s="251" t="s">
+      <c r="H3" s="427"/>
+      <c r="I3" s="248" t="s">
         <v>40</v>
       </c>
-      <c r="J3" s="348"/>
-      <c r="K3" s="250" t="s">
+      <c r="J3" s="345"/>
+      <c r="K3" s="247" t="s">
         <v>34</v>
       </c>
-      <c r="L3" s="251" t="s">
+      <c r="L3" s="248" t="s">
         <v>36</v>
       </c>
-      <c r="M3" s="251" t="s">
+      <c r="M3" s="248" t="s">
         <v>53</v>
       </c>
-      <c r="N3" s="251" t="s">
+      <c r="N3" s="248" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="2:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="201" t="s">
+    <row r="4" spans="2:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="198" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="239" t="s">
+      <c r="C4" s="236" t="s">
         <v>20</v>
       </c>
       <c r="D4" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="200" t="s">
+      <c r="E4" s="197" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="146" t="s">
+      <c r="F4" s="144" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="260" t="s">
+      <c r="G4" s="257" t="s">
         <v>10</v>
       </c>
       <c r="H4" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="279" t="s">
+      <c r="I4" s="276" t="s">
         <v>39</v>
       </c>
-      <c r="J4" s="326"/>
-      <c r="K4" s="145" t="s">
+      <c r="J4" s="323"/>
+      <c r="K4" s="143" t="s">
         <v>10</v>
       </c>
       <c r="L4" s="82" t="s">
@@ -5354,21 +4911,21 @@
       <c r="M4" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="N4" s="279" t="s">
+      <c r="N4" s="276" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="411" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="441" t="s">
+      <c r="C5" s="431" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="151" t="s">
+      <c r="D5" s="149" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="153">
+      <c r="E5" s="151">
         <v>0.83599999999999997</v>
       </c>
       <c r="F5" s="110">
@@ -5377,33 +4934,33 @@
       <c r="G5" s="111">
         <v>0.27300000000000002</v>
       </c>
-      <c r="H5" s="139">
+      <c r="H5" s="138">
         <v>0.55000000000000004</v>
       </c>
-      <c r="I5" s="264" t="s">
+      <c r="I5" s="261" t="s">
         <v>48</v>
       </c>
-      <c r="J5" s="327"/>
-      <c r="K5" s="158">
+      <c r="J5" s="324"/>
+      <c r="K5" s="156">
         <v>0.22</v>
       </c>
-      <c r="L5" s="163">
+      <c r="L5" s="161">
         <v>-0.38500000000000001</v>
       </c>
       <c r="M5" s="96">
         <v>-6.13E-2</v>
       </c>
-      <c r="N5" s="273" t="s">
+      <c r="N5" s="270" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="412"/>
-      <c r="C6" s="428"/>
-      <c r="D6" s="151" t="s">
+      <c r="C6" s="432"/>
+      <c r="D6" s="149" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="128">
+      <c r="E6" s="127">
         <v>0.8155</v>
       </c>
       <c r="F6" s="92">
@@ -5412,33 +4969,33 @@
       <c r="G6" s="93">
         <v>0.269625</v>
       </c>
-      <c r="H6" s="259">
+      <c r="H6" s="256">
         <v>0.625</v>
       </c>
-      <c r="I6" s="273" t="s">
+      <c r="I6" s="270" t="s">
         <v>42</v>
       </c>
-      <c r="J6" s="327"/>
-      <c r="K6" s="160">
+      <c r="J6" s="324"/>
+      <c r="K6" s="158">
         <v>0.19470000000000001</v>
       </c>
-      <c r="L6" s="160">
+      <c r="L6" s="158">
         <v>5.5399999999999998E-2</v>
       </c>
-      <c r="M6" s="169">
+      <c r="M6" s="167">
         <v>-6.25E-2</v>
       </c>
-      <c r="N6" s="273" t="s">
+      <c r="N6" s="270" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="412"/>
-      <c r="C7" s="428"/>
-      <c r="D7" s="150" t="s">
+      <c r="C7" s="432"/>
+      <c r="D7" s="148" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="130">
+      <c r="E7" s="129">
         <v>0.65237500000000004</v>
       </c>
       <c r="F7" s="98">
@@ -5447,70 +5004,70 @@
       <c r="G7" s="99">
         <v>0.22162499999999999</v>
       </c>
-      <c r="H7" s="136">
+      <c r="H7" s="135">
         <v>0.5</v>
       </c>
-      <c r="I7" s="266" t="s">
+      <c r="I7" s="263" t="s">
         <v>43</v>
       </c>
-      <c r="J7" s="328"/>
-      <c r="K7" s="161">
+      <c r="J7" s="325"/>
+      <c r="K7" s="159">
         <v>0.19600000000000001</v>
       </c>
-      <c r="L7" s="161">
+      <c r="L7" s="159">
         <v>-0.25600000000000001</v>
       </c>
-      <c r="M7" s="176">
+      <c r="M7" s="174">
         <v>-9.4600000000000004E-2</v>
       </c>
-      <c r="N7" s="266" t="s">
+      <c r="N7" s="263" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="412"/>
-      <c r="C8" s="429"/>
-      <c r="D8" s="152" t="s">
+      <c r="C8" s="433"/>
+      <c r="D8" s="150" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="132">
+      <c r="E8" s="131">
         <v>0.825125</v>
       </c>
-      <c r="F8" s="184">
+      <c r="F8" s="182">
         <v>1.25</v>
       </c>
-      <c r="G8" s="182">
+      <c r="G8" s="180">
         <v>0.26787499999999997</v>
       </c>
-      <c r="H8" s="258">
+      <c r="H8" s="255">
         <v>0.5</v>
       </c>
-      <c r="I8" s="265" t="s">
+      <c r="I8" s="262" t="s">
         <v>43</v>
       </c>
-      <c r="J8" s="349"/>
-      <c r="K8" s="364">
+      <c r="J8" s="346"/>
+      <c r="K8" s="361">
         <v>0.182</v>
       </c>
-      <c r="L8" s="162">
+      <c r="L8" s="160">
         <v>-9.9400000000000002E-2</v>
       </c>
-      <c r="M8" s="171">
+      <c r="M8" s="169">
         <v>-6.2700000000000006E-2</v>
       </c>
-      <c r="N8" s="359" t="s">
+      <c r="N8" s="356" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B9" s="412"/>
       <c r="C9" s="423" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="151" t="s">
+      <c r="D9" s="149" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="126">
+      <c r="E9" s="125">
         <v>0.77400000000000002</v>
       </c>
       <c r="F9" s="110">
@@ -5519,105 +5076,105 @@
       <c r="G9" s="109">
         <v>0.26600000000000001</v>
       </c>
-      <c r="H9" s="139">
+      <c r="H9" s="138">
         <v>0.47499999999999998</v>
       </c>
-      <c r="I9" s="273" t="s">
+      <c r="I9" s="270" t="s">
         <v>43</v>
       </c>
-      <c r="J9" s="327"/>
-      <c r="K9" s="168">
+      <c r="J9" s="324"/>
+      <c r="K9" s="166">
         <v>0.22900000000000001</v>
       </c>
-      <c r="L9" s="163">
+      <c r="L9" s="161">
         <v>1.5800000000000002E-2</v>
       </c>
       <c r="M9" s="96">
         <v>-7.5800000000000006E-2</v>
       </c>
-      <c r="N9" s="273" t="s">
+      <c r="N9" s="270" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="412"/>
       <c r="C10" s="421"/>
-      <c r="D10" s="150" t="s">
+      <c r="D10" s="148" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="370">
+      <c r="E10" s="367">
         <v>0.61275000000000002</v>
       </c>
       <c r="F10" s="90">
         <v>1.1499999999999999</v>
       </c>
-      <c r="G10" s="363">
+      <c r="G10" s="360">
         <v>0.20574999999999999</v>
       </c>
-      <c r="H10" s="234">
+      <c r="H10" s="231">
         <v>0.47499999999999998</v>
       </c>
-      <c r="I10" s="311" t="s">
+      <c r="I10" s="308" t="s">
         <v>49</v>
       </c>
-      <c r="J10" s="331"/>
-      <c r="K10" s="365">
+      <c r="J10" s="328"/>
+      <c r="K10" s="362">
         <v>0.182</v>
       </c>
-      <c r="L10" s="172">
+      <c r="L10" s="170">
         <v>0.51200000000000001</v>
       </c>
-      <c r="M10" s="170">
+      <c r="M10" s="168">
         <v>-8.2600000000000007E-2</v>
       </c>
-      <c r="N10" s="269" t="s">
+      <c r="N10" s="266" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="412"/>
       <c r="C11" s="422"/>
-      <c r="D11" s="152" t="s">
+      <c r="D11" s="150" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="132">
+      <c r="E11" s="131">
         <v>0.76749999999999996</v>
       </c>
-      <c r="F11" s="185">
+      <c r="F11" s="183">
         <v>1.45</v>
       </c>
       <c r="G11" s="107">
         <v>0.25362499999999999</v>
       </c>
-      <c r="H11" s="354">
+      <c r="H11" s="351">
         <v>0.625</v>
       </c>
-      <c r="I11" s="267" t="s">
+      <c r="I11" s="264" t="s">
         <v>48</v>
       </c>
-      <c r="J11" s="330"/>
-      <c r="K11" s="162">
+      <c r="J11" s="327"/>
+      <c r="K11" s="160">
         <v>0.20100000000000001</v>
       </c>
-      <c r="L11" s="162">
+      <c r="L11" s="160">
         <v>0.20899999999999999</v>
       </c>
-      <c r="M11" s="171">
+      <c r="M11" s="169">
         <v>-7.4300000000000005E-2</v>
       </c>
-      <c r="N11" s="267" t="s">
+      <c r="N11" s="264" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B12" s="412"/>
       <c r="C12" s="423" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="151" t="s">
+      <c r="D12" s="149" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="128">
+      <c r="E12" s="127">
         <v>0.80900000000000005</v>
       </c>
       <c r="F12" s="92">
@@ -5626,33 +5183,33 @@
       <c r="G12" s="91">
         <v>0.26800000000000002</v>
       </c>
-      <c r="H12" s="141">
+      <c r="H12" s="139">
         <v>0.42499999999999999</v>
       </c>
-      <c r="I12" s="268" t="s">
+      <c r="I12" s="265" t="s">
         <v>43</v>
       </c>
-      <c r="J12" s="332"/>
-      <c r="K12" s="164">
+      <c r="J12" s="329"/>
+      <c r="K12" s="162">
         <v>0.222</v>
       </c>
-      <c r="L12" s="366">
+      <c r="L12" s="363">
         <v>6.9699999999999996E-3</v>
       </c>
       <c r="M12" s="96">
         <v>-0.06</v>
       </c>
-      <c r="N12" s="313" t="s">
+      <c r="N12" s="310" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="412"/>
       <c r="C13" s="421"/>
-      <c r="D13" s="150" t="s">
+      <c r="D13" s="148" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="130">
+      <c r="E13" s="129">
         <v>0.746</v>
       </c>
       <c r="F13" s="98">
@@ -5661,68 +5218,68 @@
       <c r="G13" s="97">
         <v>0.249</v>
       </c>
-      <c r="H13" s="368">
+      <c r="H13" s="365">
         <v>0.38800000000000001</v>
       </c>
-      <c r="I13" s="269" t="s">
+      <c r="I13" s="266" t="s">
         <v>41</v>
       </c>
-      <c r="J13" s="331"/>
-      <c r="K13" s="166">
+      <c r="J13" s="328"/>
+      <c r="K13" s="164">
         <v>0.221</v>
       </c>
-      <c r="L13" s="166">
+      <c r="L13" s="164">
         <v>0.17799999999999999</v>
       </c>
       <c r="M13" s="100">
         <v>-5.9799999999999999E-2</v>
       </c>
-      <c r="N13" s="269" t="s">
+      <c r="N13" s="266" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="412"/>
       <c r="C14" s="421"/>
-      <c r="D14" s="150" t="s">
+      <c r="D14" s="148" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="130">
+      <c r="E14" s="129">
         <v>0.67600000000000005</v>
       </c>
-      <c r="F14" s="369">
+      <c r="F14" s="366">
         <v>0.97499999999999998</v>
       </c>
-      <c r="G14" s="116">
+      <c r="G14" s="115">
         <v>0.221</v>
       </c>
-      <c r="H14" s="368">
+      <c r="H14" s="365">
         <v>0.38800000000000001</v>
       </c>
-      <c r="I14" s="311" t="s">
+      <c r="I14" s="308" t="s">
         <v>49</v>
       </c>
-      <c r="J14" s="331"/>
-      <c r="K14" s="166">
+      <c r="J14" s="328"/>
+      <c r="K14" s="164">
         <v>0.19600000000000001</v>
       </c>
-      <c r="L14" s="166">
+      <c r="L14" s="164">
         <v>3.44E-2</v>
       </c>
-      <c r="M14" s="170">
+      <c r="M14" s="168">
         <v>-7.0900000000000005E-2</v>
       </c>
-      <c r="N14" s="269" t="s">
+      <c r="N14" s="266" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="412"/>
       <c r="C15" s="421"/>
-      <c r="D15" s="150" t="s">
+      <c r="D15" s="148" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="130">
+      <c r="E15" s="129">
         <v>0.80500000000000005</v>
       </c>
       <c r="F15" s="98">
@@ -5731,33 +5288,33 @@
       <c r="G15" s="91">
         <v>0.219</v>
       </c>
-      <c r="H15" s="141">
+      <c r="H15" s="139">
         <v>0.4</v>
       </c>
-      <c r="I15" s="268" t="s">
+      <c r="I15" s="265" t="s">
         <v>43</v>
       </c>
-      <c r="J15" s="332"/>
-      <c r="K15" s="366">
+      <c r="J15" s="329"/>
+      <c r="K15" s="363">
         <v>0.182</v>
       </c>
-      <c r="L15" s="164">
+      <c r="L15" s="162">
         <v>0.188</v>
       </c>
-      <c r="M15" s="170">
+      <c r="M15" s="168">
         <v>-6.3799999999999996E-2</v>
       </c>
-      <c r="N15" s="268" t="s">
+      <c r="N15" s="265" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="413"/>
       <c r="C16" s="422"/>
-      <c r="D16" s="152" t="s">
+      <c r="D16" s="150" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="132">
+      <c r="E16" s="131">
         <v>0.71199999999999997</v>
       </c>
       <c r="F16" s="106">
@@ -5766,390 +5323,390 @@
       <c r="G16" s="105">
         <v>0.26400000000000001</v>
       </c>
-      <c r="H16" s="144">
+      <c r="H16" s="142">
         <v>0.45</v>
       </c>
-      <c r="I16" s="267" t="s">
+      <c r="I16" s="264" t="s">
         <v>43</v>
       </c>
-      <c r="J16" s="330"/>
-      <c r="K16" s="167">
+      <c r="J16" s="327"/>
+      <c r="K16" s="165">
         <v>0.20799999999999999</v>
       </c>
-      <c r="L16" s="167">
+      <c r="L16" s="165">
         <v>-0.20200000000000001</v>
       </c>
-      <c r="M16" s="367">
+      <c r="M16" s="364">
         <v>-4.0599999999999997E-2</v>
       </c>
-      <c r="N16" s="295" t="s">
+      <c r="N16" s="292" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="2:14" ht="2" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="190"/>
-      <c r="C17" s="202"/>
-      <c r="D17" s="209"/>
-      <c r="E17" s="210"/>
-      <c r="F17" s="211"/>
-      <c r="G17" s="210"/>
-      <c r="H17" s="211"/>
-      <c r="I17" s="355"/>
-      <c r="J17" s="213"/>
-      <c r="K17" s="212"/>
-      <c r="L17" s="213"/>
-      <c r="M17" s="212"/>
-      <c r="N17" s="355"/>
-    </row>
-    <row r="18" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:14" ht="2.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="188"/>
+      <c r="C17" s="199"/>
+      <c r="D17" s="206"/>
+      <c r="E17" s="207"/>
+      <c r="F17" s="208"/>
+      <c r="G17" s="207"/>
+      <c r="H17" s="208"/>
+      <c r="I17" s="352"/>
+      <c r="J17" s="210"/>
+      <c r="K17" s="209"/>
+      <c r="L17" s="210"/>
+      <c r="M17" s="209"/>
+      <c r="N17" s="352"/>
+    </row>
+    <row r="18" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="411" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="428" t="s">
+      <c r="C18" s="432" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="222" t="s">
+      <c r="D18" s="219" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="225">
+      <c r="E18" s="222">
         <v>0.78400000000000003</v>
       </c>
-      <c r="F18" s="147">
+      <c r="F18" s="145">
         <v>1.32</v>
       </c>
-      <c r="G18" s="226">
+      <c r="G18" s="223">
         <v>0.26500000000000001</v>
       </c>
-      <c r="H18" s="133">
+      <c r="H18" s="132">
         <v>0.57499999999999996</v>
       </c>
-      <c r="I18" s="264" t="s">
+      <c r="I18" s="261" t="s">
         <v>46</v>
       </c>
-      <c r="J18" s="350"/>
-      <c r="K18" s="158">
+      <c r="J18" s="347"/>
+      <c r="K18" s="156">
         <v>0.216</v>
       </c>
-      <c r="L18" s="216">
+      <c r="L18" s="213">
         <v>-0.39500000000000002</v>
       </c>
       <c r="M18" s="88">
         <v>-0.10299999999999999</v>
       </c>
-      <c r="N18" s="264" t="s">
+      <c r="N18" s="261" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="412"/>
-      <c r="C19" s="429"/>
-      <c r="D19" s="223" t="s">
+      <c r="C19" s="433"/>
+      <c r="D19" s="220" t="s">
         <v>8</v>
       </c>
-      <c r="E19" s="131">
+      <c r="E19" s="130">
         <v>0.71924999999999994</v>
       </c>
-      <c r="F19" s="184">
+      <c r="F19" s="182">
         <v>1.3</v>
       </c>
-      <c r="G19" s="124">
+      <c r="G19" s="123">
         <v>0.2445</v>
       </c>
-      <c r="H19" s="258">
+      <c r="H19" s="255">
         <v>0.5</v>
       </c>
-      <c r="I19" s="265" t="s">
+      <c r="I19" s="262" t="s">
         <v>43</v>
       </c>
-      <c r="J19" s="349"/>
-      <c r="K19" s="162">
+      <c r="J19" s="346"/>
+      <c r="K19" s="160">
         <v>0.157</v>
       </c>
-      <c r="L19" s="175">
+      <c r="L19" s="173">
         <v>-0.5</v>
       </c>
-      <c r="M19" s="156">
+      <c r="M19" s="154">
         <v>-0.112</v>
       </c>
-      <c r="N19" s="265" t="s">
+      <c r="N19" s="262" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B20" s="412"/>
-      <c r="C20" s="430" t="s">
+      <c r="C20" s="438" t="s">
         <v>3</v>
       </c>
-      <c r="D20" s="224" t="s">
+      <c r="D20" s="221" t="s">
         <v>17</v>
       </c>
-      <c r="E20" s="118">
+      <c r="E20" s="117">
         <v>0.47099999999999997</v>
       </c>
       <c r="F20" s="90">
         <v>1.02</v>
       </c>
-      <c r="G20" s="118">
+      <c r="G20" s="117">
         <v>0.16200000000000001</v>
       </c>
-      <c r="H20" s="134">
+      <c r="H20" s="133">
         <v>0.375</v>
       </c>
-      <c r="I20" s="266" t="s">
+      <c r="I20" s="263" t="s">
         <v>43</v>
       </c>
-      <c r="J20" s="328"/>
-      <c r="K20" s="159">
+      <c r="J20" s="325"/>
+      <c r="K20" s="157">
         <v>0.17100000000000001</v>
       </c>
       <c r="L20" s="100">
         <v>-7.2999999999999995E-2</v>
       </c>
-      <c r="M20" s="177">
+      <c r="M20" s="175">
         <v>-0.161</v>
       </c>
-      <c r="N20" s="266" t="s">
+      <c r="N20" s="263" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="412"/>
-      <c r="C21" s="428"/>
-      <c r="D21" s="222" t="s">
+      <c r="C21" s="432"/>
+      <c r="D21" s="219" t="s">
         <v>7</v>
       </c>
-      <c r="E21" s="371">
+      <c r="E21" s="368">
         <v>0.41112500000000002</v>
       </c>
       <c r="F21" s="100">
         <v>0.95</v>
       </c>
-      <c r="G21" s="373">
+      <c r="G21" s="370">
         <v>0.144625</v>
       </c>
-      <c r="H21" s="136">
+      <c r="H21" s="135">
         <v>0.375</v>
       </c>
-      <c r="I21" s="276" t="s">
+      <c r="I21" s="273" t="s">
         <v>49</v>
       </c>
-      <c r="J21" s="328"/>
-      <c r="K21" s="161">
+      <c r="J21" s="325"/>
+      <c r="K21" s="159">
         <v>0.14499999999999999</v>
       </c>
-      <c r="L21" s="375">
+      <c r="L21" s="372">
         <v>5.7599999999999998E-2</v>
       </c>
-      <c r="M21" s="155">
+      <c r="M21" s="153">
         <v>-0.14299999999999999</v>
       </c>
-      <c r="N21" s="276" t="s">
+      <c r="N21" s="273" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="412"/>
-      <c r="C22" s="428"/>
-      <c r="D22" s="222" t="s">
+      <c r="C22" s="432"/>
+      <c r="D22" s="219" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="129">
+      <c r="E22" s="128">
         <v>0.64212499999999995</v>
       </c>
       <c r="F22" s="100">
         <v>1.2</v>
       </c>
-      <c r="G22" s="123">
+      <c r="G22" s="122">
         <v>0.21975</v>
       </c>
-      <c r="H22" s="234">
+      <c r="H22" s="231">
         <v>0.45</v>
       </c>
-      <c r="I22" s="269" t="s">
+      <c r="I22" s="266" t="s">
         <v>43</v>
       </c>
-      <c r="J22" s="331"/>
-      <c r="K22" s="365">
+      <c r="J22" s="328"/>
+      <c r="K22" s="362">
         <v>0.106</v>
       </c>
       <c r="L22" s="113">
         <v>-0.30599999999999999</v>
       </c>
-      <c r="M22" s="155">
+      <c r="M22" s="153">
         <v>-0.11</v>
       </c>
-      <c r="N22" s="311" t="s">
+      <c r="N22" s="308" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="412"/>
-      <c r="C23" s="429"/>
-      <c r="D23" s="223" t="s">
+      <c r="C23" s="433"/>
+      <c r="D23" s="220" t="s">
         <v>9</v>
       </c>
-      <c r="E23" s="131">
+      <c r="E23" s="130">
         <v>0.48699999999999999</v>
       </c>
       <c r="F23" s="108">
         <v>0.97499999999999998</v>
       </c>
-      <c r="G23" s="124">
+      <c r="G23" s="123">
         <v>0.17299999999999999</v>
       </c>
-      <c r="H23" s="235">
+      <c r="H23" s="232">
         <v>0.4</v>
       </c>
-      <c r="I23" s="267" t="s">
+      <c r="I23" s="264" t="s">
         <v>43</v>
       </c>
-      <c r="J23" s="330"/>
-      <c r="K23" s="162">
+      <c r="J23" s="327"/>
+      <c r="K23" s="160">
         <v>0.11899999999999999</v>
       </c>
       <c r="L23" s="108">
         <v>-0.28699999999999998</v>
       </c>
-      <c r="M23" s="376">
+      <c r="M23" s="373">
         <v>-9.4700000000000006E-2</v>
       </c>
-      <c r="N23" s="295" t="s">
+      <c r="N23" s="292" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B24" s="412"/>
-      <c r="C24" s="430" t="s">
+      <c r="C24" s="438" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="224" t="s">
+      <c r="D24" s="221" t="s">
         <v>17</v>
       </c>
-      <c r="E24" s="205">
+      <c r="E24" s="202">
         <v>0.61</v>
       </c>
-      <c r="F24" s="204">
+      <c r="F24" s="201">
         <v>0.9</v>
       </c>
-      <c r="G24" s="205">
+      <c r="G24" s="202">
         <v>0.20899999999999999</v>
       </c>
-      <c r="H24" s="374">
+      <c r="H24" s="371">
         <v>0.35</v>
       </c>
-      <c r="I24" s="356" t="s">
+      <c r="I24" s="353" t="s">
         <v>41</v>
       </c>
-      <c r="J24" s="351"/>
-      <c r="K24" s="206">
+      <c r="J24" s="348"/>
+      <c r="K24" s="203">
         <v>0.23100000000000001</v>
       </c>
-      <c r="L24" s="207">
+      <c r="L24" s="204">
         <v>-0.20899999999999999</v>
       </c>
-      <c r="M24" s="208">
+      <c r="M24" s="205">
         <v>-0.129</v>
       </c>
-      <c r="N24" s="360" t="s">
+      <c r="N24" s="357" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="413"/>
-      <c r="C25" s="429"/>
-      <c r="D25" s="223" t="s">
+      <c r="C25" s="433"/>
+      <c r="D25" s="220" t="s">
         <v>7</v>
       </c>
-      <c r="E25" s="148">
+      <c r="E25" s="146">
         <v>0.496</v>
       </c>
-      <c r="F25" s="372">
+      <c r="F25" s="369">
         <v>0.89200000000000002</v>
       </c>
-      <c r="G25" s="148">
+      <c r="G25" s="146">
         <v>0.17899999999999999</v>
       </c>
-      <c r="H25" s="219">
+      <c r="H25" s="216">
         <v>0.35799999999999998</v>
       </c>
-      <c r="I25" s="270" t="s">
+      <c r="I25" s="267" t="s">
         <v>41</v>
       </c>
-      <c r="J25" s="352"/>
-      <c r="K25" s="227">
+      <c r="J25" s="349"/>
+      <c r="K25" s="224">
         <v>0.16</v>
       </c>
-      <c r="L25" s="220">
+      <c r="L25" s="217">
         <v>0.23200000000000001</v>
       </c>
-      <c r="M25" s="221">
+      <c r="M25" s="218">
         <v>-0.126</v>
       </c>
-      <c r="N25" s="270" t="s">
+      <c r="N25" s="267" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="2:14" ht="2" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="214"/>
-      <c r="C26" s="434"/>
-      <c r="D26" s="432"/>
-      <c r="E26" s="431"/>
-      <c r="F26" s="432"/>
-      <c r="G26" s="431"/>
-      <c r="H26" s="433"/>
-      <c r="I26" s="357"/>
-      <c r="J26" s="347"/>
-      <c r="K26" s="203"/>
-      <c r="L26" s="215"/>
-      <c r="M26" s="215"/>
-      <c r="N26" s="357"/>
-    </row>
-    <row r="27" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:14" ht="2.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="211"/>
+      <c r="C26" s="437"/>
+      <c r="D26" s="435"/>
+      <c r="E26" s="434"/>
+      <c r="F26" s="435"/>
+      <c r="G26" s="434"/>
+      <c r="H26" s="436"/>
+      <c r="I26" s="354"/>
+      <c r="J26" s="344"/>
+      <c r="K26" s="200"/>
+      <c r="L26" s="212"/>
+      <c r="M26" s="212"/>
+      <c r="N26" s="354"/>
+    </row>
+    <row r="27" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="411" t="s">
         <v>26</v>
       </c>
       <c r="C27" s="420" t="s">
         <v>2</v>
       </c>
-      <c r="D27" s="228" t="s">
+      <c r="D27" s="225" t="s">
         <v>16</v>
       </c>
-      <c r="E27" s="225">
+      <c r="E27" s="222">
         <v>0.71499999999999997</v>
       </c>
-      <c r="F27" s="147">
+      <c r="F27" s="145">
         <v>1.35</v>
       </c>
       <c r="G27" s="87">
         <v>0.24099999999999999</v>
       </c>
-      <c r="H27" s="133">
+      <c r="H27" s="132">
         <v>0.52500000000000002</v>
       </c>
-      <c r="I27" s="264" t="s">
+      <c r="I27" s="261" t="s">
         <v>46</v>
       </c>
-      <c r="J27" s="334"/>
-      <c r="K27" s="158">
+      <c r="J27" s="331"/>
+      <c r="K27" s="156">
         <v>0.20399999999999999</v>
       </c>
-      <c r="L27" s="216">
+      <c r="L27" s="213">
         <v>-0.46</v>
       </c>
       <c r="M27" s="88">
         <v>-0.126</v>
       </c>
-      <c r="N27" s="264" t="s">
+      <c r="N27" s="261" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="412"/>
       <c r="C28" s="421"/>
-      <c r="D28" s="222" t="s">
+      <c r="D28" s="219" t="s">
         <v>17</v>
       </c>
-      <c r="E28" s="129">
+      <c r="E28" s="128">
         <v>0.59199999999999997</v>
       </c>
       <c r="F28" s="98">
@@ -6158,14 +5715,14 @@
       <c r="G28" s="89">
         <v>0.20499999999999999</v>
       </c>
-      <c r="H28" s="134">
+      <c r="H28" s="133">
         <v>0.42499999999999999</v>
       </c>
-      <c r="I28" s="266" t="s">
+      <c r="I28" s="263" t="s">
         <v>43</v>
       </c>
-      <c r="J28" s="335"/>
-      <c r="K28" s="173">
+      <c r="J28" s="332"/>
+      <c r="K28" s="171">
         <v>0.21199999999999999</v>
       </c>
       <c r="L28" s="100">
@@ -6174,17 +5731,17 @@
       <c r="M28" s="90">
         <v>-0.14599999999999999</v>
       </c>
-      <c r="N28" s="266" t="s">
+      <c r="N28" s="263" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="412"/>
       <c r="C29" s="421"/>
-      <c r="D29" s="222" t="s">
+      <c r="D29" s="219" t="s">
         <v>7</v>
       </c>
-      <c r="E29" s="129">
+      <c r="E29" s="128">
         <v>0.44600000000000001</v>
       </c>
       <c r="F29" s="113">
@@ -6193,33 +5750,33 @@
       <c r="G29" s="101">
         <v>0.15912499999999999</v>
       </c>
-      <c r="H29" s="136">
+      <c r="H29" s="135">
         <v>0.42499999999999999</v>
       </c>
-      <c r="I29" s="266" t="s">
+      <c r="I29" s="263" t="s">
         <v>43</v>
       </c>
-      <c r="J29" s="335"/>
-      <c r="K29" s="161">
+      <c r="J29" s="332"/>
+      <c r="K29" s="159">
         <v>0.13900000000000001</v>
       </c>
       <c r="L29" s="102">
         <v>-0.88300000000000001</v>
       </c>
-      <c r="M29" s="155">
+      <c r="M29" s="153">
         <v>-0.14699999999999999</v>
       </c>
-      <c r="N29" s="266" t="s">
+      <c r="N29" s="263" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="412"/>
       <c r="C30" s="422"/>
-      <c r="D30" s="223" t="s">
+      <c r="D30" s="220" t="s">
         <v>9</v>
       </c>
-      <c r="E30" s="131">
+      <c r="E30" s="130">
         <v>0.45324999999999999</v>
       </c>
       <c r="F30" s="108">
@@ -6228,64 +5785,64 @@
       <c r="G30" s="107">
         <v>0.16400000000000001</v>
       </c>
-      <c r="H30" s="138">
+      <c r="H30" s="137">
         <v>0.4</v>
       </c>
-      <c r="I30" s="272" t="s">
+      <c r="I30" s="269" t="s">
         <v>43</v>
       </c>
-      <c r="J30" s="344"/>
-      <c r="K30" s="162">
+      <c r="J30" s="341"/>
+      <c r="K30" s="160">
         <v>0.11</v>
       </c>
       <c r="L30" s="108">
         <v>-0.22</v>
       </c>
-      <c r="M30" s="376">
+      <c r="M30" s="373">
         <v>-0.11700000000000001</v>
       </c>
-      <c r="N30" s="275" t="s">
+      <c r="N30" s="272" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="2:14" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:14" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="412"/>
-      <c r="C31" s="240" t="s">
+      <c r="C31" s="237" t="s">
         <v>3</v>
       </c>
-      <c r="D31" s="183" t="s">
+      <c r="D31" s="181" t="s">
         <v>7</v>
       </c>
-      <c r="E31" s="379">
+      <c r="E31" s="376">
         <v>0.29025000000000001</v>
       </c>
-      <c r="F31" s="180">
+      <c r="F31" s="178">
         <v>0.8</v>
       </c>
-      <c r="G31" s="378">
+      <c r="G31" s="375">
         <v>0.113125</v>
       </c>
-      <c r="H31" s="187">
+      <c r="H31" s="185">
         <v>0.32500000000000001</v>
       </c>
-      <c r="I31" s="362" t="s">
+      <c r="I31" s="359" t="s">
         <v>49</v>
       </c>
-      <c r="J31" s="353"/>
-      <c r="K31" s="181">
+      <c r="J31" s="350"/>
+      <c r="K31" s="179">
         <v>0.127</v>
       </c>
-      <c r="L31" s="180">
+      <c r="L31" s="178">
         <v>0.15</v>
       </c>
-      <c r="M31" s="188">
+      <c r="M31" s="186">
         <v>-0.20200000000000001</v>
       </c>
-      <c r="N31" s="358" t="s">
+      <c r="N31" s="355" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B32" s="412"/>
       <c r="C32" s="423" t="s">
         <v>18</v>
@@ -6293,158 +5850,166 @@
       <c r="D32" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="E32" s="129">
+      <c r="E32" s="128">
         <v>0.55300000000000005</v>
       </c>
       <c r="F32" s="98">
         <v>0.91200000000000003</v>
       </c>
-      <c r="G32" s="117">
+      <c r="G32" s="116">
         <v>0.19500000000000001</v>
       </c>
-      <c r="H32" s="142">
+      <c r="H32" s="140">
         <v>0.375</v>
       </c>
-      <c r="I32" s="269" t="s">
+      <c r="I32" s="266" t="s">
         <v>45</v>
       </c>
-      <c r="J32" s="336"/>
-      <c r="K32" s="166">
+      <c r="J32" s="333"/>
+      <c r="K32" s="164">
         <v>0.13600000000000001</v>
       </c>
-      <c r="L32" s="375">
+      <c r="L32" s="372">
         <v>-7.7299999999999994E-2</v>
       </c>
-      <c r="M32" s="154">
+      <c r="M32" s="152">
         <v>-0.14899999999999999</v>
       </c>
-      <c r="N32" s="311" t="s">
+      <c r="N32" s="308" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="412"/>
       <c r="C33" s="421"/>
       <c r="D33" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="E33" s="129">
+      <c r="E33" s="128">
         <v>0.35199999999999998</v>
       </c>
-      <c r="F33" s="369">
+      <c r="F33" s="366">
         <v>0.74199999999999999</v>
       </c>
-      <c r="G33" s="117">
+      <c r="G33" s="116">
         <v>0.128</v>
       </c>
-      <c r="H33" s="368">
+      <c r="H33" s="365">
         <v>0.317</v>
       </c>
-      <c r="I33" s="311" t="s">
+      <c r="I33" s="308" t="s">
         <v>49</v>
       </c>
-      <c r="J33" s="336"/>
-      <c r="K33" s="166">
+      <c r="J33" s="333"/>
+      <c r="K33" s="164">
         <v>0.13700000000000001</v>
       </c>
       <c r="L33" s="113">
         <v>1.18E-2</v>
       </c>
-      <c r="M33" s="155">
+      <c r="M33" s="153">
         <v>-0.17899999999999999</v>
       </c>
-      <c r="N33" s="269" t="s">
+      <c r="N33" s="266" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="34" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="413"/>
       <c r="C34" s="424"/>
-      <c r="D34" s="217" t="s">
+      <c r="D34" s="214" t="s">
         <v>9</v>
       </c>
-      <c r="E34" s="148">
+      <c r="E34" s="146">
         <v>0.42899999999999999</v>
       </c>
-      <c r="F34" s="149">
+      <c r="F34" s="147">
         <v>1.05</v>
       </c>
-      <c r="G34" s="218">
+      <c r="G34" s="215">
         <v>0.16</v>
       </c>
-      <c r="H34" s="219">
+      <c r="H34" s="216">
         <v>0.375</v>
       </c>
-      <c r="I34" s="270" t="s">
+      <c r="I34" s="267" t="s">
         <v>43</v>
       </c>
-      <c r="J34" s="342"/>
-      <c r="K34" s="377">
+      <c r="J34" s="339"/>
+      <c r="K34" s="374">
         <v>9.7000000000000003E-2</v>
       </c>
-      <c r="L34" s="220">
+      <c r="L34" s="217">
         <v>-0.20100000000000001</v>
       </c>
-      <c r="M34" s="221">
+      <c r="M34" s="218">
         <v>-0.13300000000000001</v>
       </c>
-      <c r="N34" s="361" t="s">
+      <c r="N34" s="358" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="J35"/>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="J36"/>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="J37"/>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="J38"/>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="J39"/>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="J40"/>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="J41"/>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="J42"/>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="J43"/>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="J44"/>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="J45"/>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="J46"/>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="J47"/>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="J48"/>
     </row>
-    <row r="49" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="49" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J49"/>
     </row>
-    <row r="50" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="50" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J50"/>
     </row>
-    <row r="51" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="51" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J51"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="E2:I2"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="B27:B34"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="C26:D26"/>
     <mergeCell ref="B18:B25"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="G3:H3"/>
@@ -6453,17 +6018,9 @@
     <mergeCell ref="C5:C8"/>
     <mergeCell ref="C9:C11"/>
     <mergeCell ref="C12:C16"/>
-    <mergeCell ref="B27:B34"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="C26:D26"/>
     <mergeCell ref="C18:C19"/>
     <mergeCell ref="C20:C23"/>
     <mergeCell ref="C24:C25"/>
-    <mergeCell ref="E2:I2"/>
-    <mergeCell ref="K2:N2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6474,99 +6031,99 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B6757E6-FE7D-4C1B-B985-36D8C117B1C1}">
   <dimension ref="B1:N57"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="50" zoomScalePageLayoutView="40" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="50" zoomScalePageLayoutView="40" workbookViewId="0">
       <selection activeCell="T12" sqref="T12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.54296875" customWidth="1"/>
-    <col min="2" max="2" width="11.26953125" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" customWidth="1"/>
-    <col min="5" max="5" width="6.6328125" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="6.5703125" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="7" max="7" width="13.26953125" customWidth="1"/>
-    <col min="8" max="8" width="10.1796875" customWidth="1"/>
-    <col min="9" max="9" width="12.54296875" customWidth="1"/>
-    <col min="10" max="10" width="0.36328125" style="323" customWidth="1"/>
-    <col min="11" max="11" width="12.54296875" customWidth="1"/>
-    <col min="12" max="12" width="12.81640625" customWidth="1"/>
-    <col min="13" max="13" width="11.81640625" customWidth="1"/>
-    <col min="14" max="14" width="12.54296875" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" customWidth="1"/>
+    <col min="10" max="10" width="0.42578125" style="320" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" customWidth="1"/>
+    <col min="13" max="13" width="11.85546875" customWidth="1"/>
+    <col min="14" max="14" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J1"/>
     </row>
-    <row r="2" spans="2:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="F2" s="425" t="s">
+    <row r="2" spans="2:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F2" s="408" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="426"/>
-      <c r="H2" s="426"/>
-      <c r="I2" s="427"/>
-      <c r="J2" s="324"/>
-      <c r="K2" s="425" t="s">
+      <c r="G2" s="409"/>
+      <c r="H2" s="409"/>
+      <c r="I2" s="410"/>
+      <c r="J2" s="321"/>
+      <c r="K2" s="408" t="s">
         <v>33</v>
       </c>
-      <c r="L2" s="426"/>
-      <c r="M2" s="427"/>
-    </row>
-    <row r="3" spans="2:14" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="438" t="s">
+      <c r="L2" s="409"/>
+      <c r="M2" s="410"/>
+    </row>
+    <row r="3" spans="2:14" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="428" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="439"/>
-      <c r="D3" s="439"/>
-      <c r="E3" s="439"/>
-      <c r="F3" s="458" t="s">
+      <c r="C3" s="429"/>
+      <c r="D3" s="429"/>
+      <c r="E3" s="429"/>
+      <c r="F3" s="441" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="459"/>
+      <c r="G3" s="442"/>
       <c r="H3" s="416" t="s">
         <v>27</v>
       </c>
       <c r="I3" s="415"/>
-      <c r="J3" s="325"/>
-      <c r="K3" s="250" t="s">
+      <c r="J3" s="322"/>
+      <c r="K3" s="247" t="s">
         <v>35</v>
       </c>
-      <c r="L3" s="251" t="s">
+      <c r="L3" s="248" t="s">
         <v>37</v>
       </c>
-      <c r="M3" s="251" t="s">
+      <c r="M3" s="248" t="s">
         <v>38</v>
       </c>
-      <c r="N3" s="178"/>
-    </row>
-    <row r="4" spans="2:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="201" t="s">
+      <c r="N3" s="176"/>
+    </row>
+    <row r="4" spans="2:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="198" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="402" t="s">
+      <c r="C4" s="398" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="397" t="s">
+      <c r="D4" s="393" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="397" t="s">
+      <c r="E4" s="393" t="s">
         <v>54</v>
       </c>
-      <c r="F4" s="200" t="s">
+      <c r="F4" s="197" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="146" t="s">
+      <c r="G4" s="144" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="260" t="s">
+      <c r="H4" s="257" t="s">
         <v>10</v>
       </c>
       <c r="I4" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="326"/>
-      <c r="K4" s="145" t="s">
+      <c r="J4" s="323"/>
+      <c r="K4" s="143" t="s">
         <v>10</v>
       </c>
       <c r="L4" s="82" t="s">
@@ -6577,7 +6134,7 @@
       </c>
       <c r="N4" s="77"/>
     </row>
-    <row r="5" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="412" t="s">
         <v>30</v>
       </c>
@@ -6587,10 +6144,10 @@
       <c r="D5" s="420" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="398" t="s">
+      <c r="E5" s="394" t="s">
         <v>55</v>
       </c>
-      <c r="F5" s="119">
+      <c r="F5" s="118">
         <v>0.61275000000000002</v>
       </c>
       <c r="G5" s="90">
@@ -6602,26 +6159,26 @@
       <c r="I5" s="113">
         <v>0.47499999999999998</v>
       </c>
-      <c r="J5" s="331"/>
-      <c r="K5" s="161">
+      <c r="J5" s="328"/>
+      <c r="K5" s="159">
         <v>0.182</v>
       </c>
-      <c r="L5" s="457">
+      <c r="L5" s="159">
         <v>0.51200000000000001</v>
       </c>
-      <c r="M5" s="170">
+      <c r="M5" s="168">
         <v>-8.2600000000000007E-2</v>
       </c>
       <c r="N5" s="79"/>
     </row>
-    <row r="6" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="412"/>
       <c r="C6" s="422"/>
       <c r="D6" s="422"/>
-      <c r="E6" s="401" t="s">
+      <c r="E6" s="397" t="s">
         <v>56</v>
       </c>
-      <c r="F6" s="132">
+      <c r="F6" s="131">
         <v>0.64700000000000002</v>
       </c>
       <c r="G6" s="106">
@@ -6633,19 +6190,19 @@
       <c r="I6" s="108">
         <v>0.42499999999999999</v>
       </c>
-      <c r="J6" s="330"/>
-      <c r="K6" s="162">
+      <c r="J6" s="327"/>
+      <c r="K6" s="160">
         <v>0.24099999999999999</v>
       </c>
-      <c r="L6" s="162">
+      <c r="L6" s="160">
         <v>4.07E-2</v>
       </c>
-      <c r="M6" s="171">
+      <c r="M6" s="169">
         <v>-0.16800000000000001</v>
       </c>
       <c r="N6" s="79"/>
     </row>
-    <row r="7" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B7" s="412"/>
       <c r="C7" s="423" t="s">
         <v>18</v>
@@ -6653,10 +6210,10 @@
       <c r="D7" s="423" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="398" t="s">
+      <c r="E7" s="394" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="128">
+      <c r="F7" s="127">
         <v>0.80900000000000005</v>
       </c>
       <c r="G7" s="92">
@@ -6668,26 +6225,26 @@
       <c r="I7" s="92">
         <v>0.42499999999999999</v>
       </c>
-      <c r="J7" s="332"/>
-      <c r="K7" s="164">
+      <c r="J7" s="329"/>
+      <c r="K7" s="162">
         <v>0.222</v>
       </c>
-      <c r="L7" s="164">
+      <c r="L7" s="162">
         <v>6.9699999999999996E-3</v>
       </c>
       <c r="M7" s="96">
         <v>-0.06</v>
       </c>
-      <c r="N7" s="179"/>
-    </row>
-    <row r="8" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N7" s="177"/>
+    </row>
+    <row r="8" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="412"/>
       <c r="C8" s="421"/>
-      <c r="D8" s="453"/>
-      <c r="E8" s="399" t="s">
+      <c r="D8" s="440"/>
+      <c r="E8" s="395" t="s">
         <v>56</v>
       </c>
-      <c r="F8" s="130">
+      <c r="F8" s="129">
         <v>0.78600000000000003</v>
       </c>
       <c r="G8" s="98">
@@ -6699,11 +6256,11 @@
       <c r="I8" s="98">
         <v>0.41199999999999998</v>
       </c>
-      <c r="J8" s="331"/>
-      <c r="K8" s="166">
+      <c r="J8" s="328"/>
+      <c r="K8" s="164">
         <v>0.25800000000000001</v>
       </c>
-      <c r="L8" s="166">
+      <c r="L8" s="164">
         <v>0.74099999999999999</v>
       </c>
       <c r="M8" s="100">
@@ -6711,47 +6268,47 @@
       </c>
       <c r="N8" s="79"/>
     </row>
-    <row r="9" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="412"/>
       <c r="C9" s="421"/>
-      <c r="D9" s="442" t="s">
+      <c r="D9" s="439" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="399" t="s">
+      <c r="E9" s="395" t="s">
         <v>55</v>
       </c>
-      <c r="F9" s="130">
+      <c r="F9" s="129">
         <v>0.67600000000000005</v>
       </c>
       <c r="G9" s="98">
         <v>0.97499999999999998</v>
       </c>
-      <c r="H9" s="116">
+      <c r="H9" s="115">
         <v>0.221</v>
       </c>
       <c r="I9" s="98">
         <v>0.38800000000000001</v>
       </c>
-      <c r="J9" s="331"/>
-      <c r="K9" s="166">
+      <c r="J9" s="328"/>
+      <c r="K9" s="164">
         <v>0.19600000000000001</v>
       </c>
-      <c r="L9" s="166">
+      <c r="L9" s="164">
         <v>3.44E-2</v>
       </c>
-      <c r="M9" s="170">
+      <c r="M9" s="168">
         <v>-7.0900000000000005E-2</v>
       </c>
       <c r="N9" s="79"/>
     </row>
-    <row r="10" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="413"/>
       <c r="C10" s="424"/>
       <c r="D10" s="424"/>
-      <c r="E10" s="400" t="s">
+      <c r="E10" s="396" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="130">
+      <c r="F10" s="129">
         <v>0.7</v>
       </c>
       <c r="G10" s="98">
@@ -6763,33 +6320,33 @@
       <c r="I10" s="98">
         <v>0.38800000000000001</v>
       </c>
-      <c r="J10" s="331"/>
-      <c r="K10" s="166">
+      <c r="J10" s="328"/>
+      <c r="K10" s="164">
         <v>0.24099999999999999</v>
       </c>
-      <c r="L10" s="166">
+      <c r="L10" s="164">
         <v>0.47699999999999998</v>
       </c>
-      <c r="M10" s="170">
+      <c r="M10" s="168">
         <v>-0.16800000000000001</v>
       </c>
       <c r="N10" s="79"/>
     </row>
-    <row r="11" spans="2:14" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="214"/>
-      <c r="C11" s="451"/>
-      <c r="D11" s="323"/>
-      <c r="E11" s="323"/>
-      <c r="F11" s="229"/>
-      <c r="G11" s="229"/>
-      <c r="H11" s="229"/>
-      <c r="I11" s="229"/>
-      <c r="J11" s="229"/>
-      <c r="K11" s="229"/>
-      <c r="L11" s="229"/>
-      <c r="M11" s="233"/>
-    </row>
-    <row r="12" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:14" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="211"/>
+      <c r="C11" s="407"/>
+      <c r="D11" s="320"/>
+      <c r="E11" s="320"/>
+      <c r="F11" s="226"/>
+      <c r="G11" s="226"/>
+      <c r="H11" s="226"/>
+      <c r="I11" s="226"/>
+      <c r="J11" s="226"/>
+      <c r="K11" s="226"/>
+      <c r="L11" s="226"/>
+      <c r="M11" s="230"/>
+    </row>
+    <row r="12" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="411" t="s">
         <v>25</v>
       </c>
@@ -6799,63 +6356,63 @@
       <c r="D12" s="420" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="405" t="s">
+      <c r="E12" s="401" t="s">
         <v>55</v>
       </c>
-      <c r="F12" s="243">
+      <c r="F12" s="240">
         <v>0.41112500000000002</v>
       </c>
-      <c r="G12" s="216">
+      <c r="G12" s="213">
         <v>0.95</v>
       </c>
-      <c r="H12" s="315">
+      <c r="H12" s="312">
         <v>0.144625</v>
       </c>
-      <c r="I12" s="136">
+      <c r="I12" s="135">
         <v>0.375</v>
       </c>
-      <c r="J12" s="335"/>
-      <c r="K12" s="161">
+      <c r="J12" s="332"/>
+      <c r="K12" s="159">
         <v>0.14499999999999999</v>
       </c>
-      <c r="L12" s="166">
+      <c r="L12" s="164">
         <v>5.7599999999999998E-2</v>
       </c>
-      <c r="M12" s="161">
+      <c r="M12" s="159">
         <v>-0.14299999999999999</v>
       </c>
     </row>
-    <row r="13" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="412"/>
       <c r="C13" s="422"/>
       <c r="D13" s="422"/>
-      <c r="E13" s="401" t="s">
+      <c r="E13" s="397" t="s">
         <v>56</v>
       </c>
-      <c r="F13" s="131">
+      <c r="F13" s="130">
         <v>0.44800000000000001</v>
       </c>
       <c r="G13" s="108">
         <v>0.88800000000000001</v>
       </c>
-      <c r="H13" s="316">
+      <c r="H13" s="313">
         <v>0.16300000000000001</v>
       </c>
-      <c r="I13" s="235">
+      <c r="I13" s="232">
         <v>0.38800000000000001</v>
       </c>
-      <c r="J13" s="340"/>
-      <c r="K13" s="162">
+      <c r="J13" s="337"/>
+      <c r="K13" s="160">
         <v>0.20799999999999999</v>
       </c>
-      <c r="L13" s="167">
+      <c r="L13" s="165">
         <v>0.25700000000000001</v>
       </c>
-      <c r="M13" s="162">
+      <c r="M13" s="160">
         <v>-0.27200000000000002</v>
       </c>
     </row>
-    <row r="14" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B14" s="412"/>
       <c r="C14" s="423" t="s">
         <v>18</v>
@@ -6863,169 +6420,169 @@
       <c r="D14" s="423" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="403" t="s">
+      <c r="E14" s="399" t="s">
         <v>55</v>
       </c>
-      <c r="F14" s="127">
+      <c r="F14" s="126">
         <v>0.70399999999999996</v>
       </c>
       <c r="G14" s="92">
         <v>1.01</v>
       </c>
-      <c r="H14" s="318">
+      <c r="H14" s="315">
         <v>0.23899999999999999</v>
       </c>
-      <c r="I14" s="141">
+      <c r="I14" s="139">
         <v>0.438</v>
       </c>
-      <c r="J14" s="341"/>
-      <c r="K14" s="164">
+      <c r="J14" s="338"/>
+      <c r="K14" s="162">
         <v>0.215</v>
       </c>
-      <c r="L14" s="164">
+      <c r="L14" s="162">
         <v>-2.46E-2</v>
       </c>
-      <c r="M14" s="163">
+      <c r="M14" s="161">
         <v>-0.11600000000000001</v>
       </c>
     </row>
-    <row r="15" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="412"/>
       <c r="C15" s="421"/>
-      <c r="D15" s="453"/>
-      <c r="E15" s="399" t="s">
+      <c r="D15" s="440"/>
+      <c r="E15" s="395" t="s">
         <v>56</v>
       </c>
-      <c r="F15" s="129">
+      <c r="F15" s="128">
         <v>0.66</v>
       </c>
       <c r="G15" s="98">
         <v>1.06</v>
       </c>
-      <c r="H15" s="319">
+      <c r="H15" s="316">
         <v>0.224</v>
       </c>
-      <c r="I15" s="142">
+      <c r="I15" s="140">
         <v>0.4</v>
       </c>
-      <c r="J15" s="336"/>
-      <c r="K15" s="166">
+      <c r="J15" s="333"/>
+      <c r="K15" s="164">
         <v>0.26300000000000001</v>
       </c>
-      <c r="L15" s="166">
+      <c r="L15" s="164">
         <v>0.52300000000000002</v>
       </c>
-      <c r="M15" s="159">
+      <c r="M15" s="157">
         <v>-0.245</v>
       </c>
     </row>
-    <row r="16" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="412"/>
       <c r="C16" s="421"/>
-      <c r="D16" s="442" t="s">
+      <c r="D16" s="439" t="s">
         <v>7</v>
       </c>
-      <c r="E16" s="399" t="s">
+      <c r="E16" s="395" t="s">
         <v>55</v>
       </c>
-      <c r="F16" s="129">
+      <c r="F16" s="128">
         <v>0.496</v>
       </c>
-      <c r="G16" s="452">
+      <c r="G16" s="98">
         <v>0.89200000000000002</v>
       </c>
-      <c r="H16" s="319">
+      <c r="H16" s="316">
         <v>0.17899999999999999</v>
       </c>
       <c r="I16" s="97">
         <v>0.35799999999999998</v>
       </c>
-      <c r="J16" s="307"/>
-      <c r="K16" s="166">
+      <c r="J16" s="304"/>
+      <c r="K16" s="164">
         <v>0.16</v>
       </c>
       <c r="L16" s="113">
         <v>0.23200000000000001</v>
       </c>
-      <c r="M16" s="155">
+      <c r="M16" s="153">
         <v>-0.126</v>
       </c>
     </row>
-    <row r="17" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="412"/>
       <c r="C17" s="421"/>
       <c r="D17" s="421"/>
-      <c r="E17" s="399" t="s">
+      <c r="E17" s="395" t="s">
         <v>56</v>
       </c>
-      <c r="F17" s="129">
+      <c r="F17" s="128">
         <v>0.53700000000000003</v>
       </c>
       <c r="G17" s="98">
         <v>0.9</v>
       </c>
-      <c r="H17" s="319">
+      <c r="H17" s="316">
         <v>0.184</v>
       </c>
       <c r="I17" s="97">
         <v>0.33800000000000002</v>
       </c>
-      <c r="J17" s="336"/>
-      <c r="K17" s="164">
+      <c r="J17" s="333"/>
+      <c r="K17" s="162">
         <v>0.217</v>
       </c>
-      <c r="L17" s="164">
+      <c r="L17" s="162">
         <v>0.39800000000000002</v>
       </c>
-      <c r="M17" s="160">
+      <c r="M17" s="158">
         <v>-0.25800000000000001</v>
       </c>
     </row>
-    <row r="18" spans="2:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="413"/>
       <c r="C18" s="424"/>
       <c r="D18" s="424"/>
-      <c r="E18" s="400" t="s">
+      <c r="E18" s="396" t="s">
         <v>57</v>
       </c>
-      <c r="F18" s="148">
+      <c r="F18" s="146">
         <v>0.55400000000000005</v>
       </c>
-      <c r="G18" s="149">
+      <c r="G18" s="147">
         <v>0.88800000000000001</v>
       </c>
-      <c r="H18" s="319">
+      <c r="H18" s="316">
         <v>0.192</v>
       </c>
-      <c r="I18" s="142">
+      <c r="I18" s="140">
         <v>0.35</v>
       </c>
-      <c r="J18" s="341"/>
-      <c r="K18" s="164">
+      <c r="J18" s="338"/>
+      <c r="K18" s="162">
         <v>0.182</v>
       </c>
-      <c r="L18" s="164">
+      <c r="L18" s="162">
         <v>-0.13300000000000001</v>
       </c>
-      <c r="M18" s="161">
+      <c r="M18" s="159">
         <v>-0.309</v>
       </c>
     </row>
-    <row r="19" spans="2:13" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="191"/>
-      <c r="C19" s="197"/>
-      <c r="D19" s="198"/>
-      <c r="E19" s="198"/>
-      <c r="F19" s="198"/>
-      <c r="G19" s="198"/>
-      <c r="H19" s="198"/>
-      <c r="I19" s="198"/>
-      <c r="J19" s="198"/>
-      <c r="K19" s="198"/>
-      <c r="L19" s="198"/>
-      <c r="M19" s="199"/>
-    </row>
-    <row r="20" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:13" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="189"/>
+      <c r="C19" s="194"/>
+      <c r="D19" s="195"/>
+      <c r="E19" s="195"/>
+      <c r="F19" s="195"/>
+      <c r="G19" s="195"/>
+      <c r="H19" s="195"/>
+      <c r="I19" s="195"/>
+      <c r="J19" s="195"/>
+      <c r="K19" s="195"/>
+      <c r="L19" s="195"/>
+      <c r="M19" s="196"/>
+    </row>
+    <row r="20" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="411" t="s">
         <v>26</v>
       </c>
@@ -7035,40 +6592,40 @@
       <c r="D20" s="420" t="s">
         <v>7</v>
       </c>
-      <c r="E20" s="405" t="s">
+      <c r="E20" s="401" t="s">
         <v>55</v>
       </c>
-      <c r="F20" s="243">
+      <c r="F20" s="240">
         <v>0.29025000000000001</v>
       </c>
-      <c r="G20" s="406">
+      <c r="G20" s="402">
         <v>0.8</v>
       </c>
-      <c r="H20" s="407">
+      <c r="H20" s="403">
         <v>0.113125</v>
       </c>
-      <c r="I20" s="408">
+      <c r="I20" s="404">
         <v>0.32500000000000001</v>
       </c>
-      <c r="J20" s="334"/>
-      <c r="K20" s="409">
+      <c r="J20" s="331"/>
+      <c r="K20" s="405">
         <v>0.127</v>
       </c>
-      <c r="L20" s="406">
+      <c r="L20" s="402">
         <v>0.15</v>
       </c>
-      <c r="M20" s="410">
+      <c r="M20" s="406">
         <v>-0.20200000000000001</v>
       </c>
     </row>
-    <row r="21" spans="2:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="412"/>
       <c r="C21" s="422"/>
       <c r="D21" s="422"/>
-      <c r="E21" s="401" t="s">
+      <c r="E21" s="397" t="s">
         <v>56</v>
       </c>
-      <c r="F21" s="404">
+      <c r="F21" s="400">
         <v>0.36799999999999999</v>
       </c>
       <c r="G21" s="108">
@@ -7077,21 +6634,21 @@
       <c r="H21" s="107">
         <v>0.14099999999999999</v>
       </c>
-      <c r="I21" s="138">
+      <c r="I21" s="137">
         <v>0.26200000000000001</v>
       </c>
-      <c r="J21" s="344"/>
-      <c r="K21" s="162">
+      <c r="J21" s="341"/>
+      <c r="K21" s="160">
         <v>0.182</v>
       </c>
       <c r="L21" s="108">
         <v>-0.124</v>
       </c>
-      <c r="M21" s="156">
+      <c r="M21" s="154">
         <v>-0.307</v>
       </c>
     </row>
-    <row r="22" spans="2:13" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:13" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B22" s="412"/>
       <c r="C22" s="421" t="s">
         <v>18</v>
@@ -7099,23 +6656,23 @@
       <c r="D22" s="423" t="s">
         <v>17</v>
       </c>
-      <c r="E22" s="399" t="s">
+      <c r="E22" s="395" t="s">
         <v>55</v>
       </c>
-      <c r="F22" s="129">
+      <c r="F22" s="128">
         <v>0.54200000000000004</v>
       </c>
       <c r="G22" s="98">
         <v>0.83799999999999997</v>
       </c>
-      <c r="H22" s="117">
+      <c r="H22" s="116">
         <v>0.192</v>
       </c>
-      <c r="I22" s="142">
+      <c r="I22" s="140">
         <v>0.36199999999999999</v>
       </c>
-      <c r="J22" s="336"/>
-      <c r="K22" s="166">
+      <c r="J22" s="333"/>
+      <c r="K22" s="164">
         <v>0.19500000000000001</v>
       </c>
       <c r="L22" s="113">
@@ -7125,202 +6682,202 @@
         <v>-0.159</v>
       </c>
     </row>
-    <row r="23" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="412"/>
       <c r="C23" s="421"/>
-      <c r="D23" s="453"/>
-      <c r="E23" s="398" t="s">
+      <c r="D23" s="440"/>
+      <c r="E23" s="394" t="s">
         <v>56</v>
       </c>
-      <c r="F23" s="129">
+      <c r="F23" s="128">
         <v>0.60699999999999998</v>
       </c>
       <c r="G23" s="98">
         <v>0.96199999999999997</v>
       </c>
-      <c r="H23" s="117">
+      <c r="H23" s="116">
         <v>0.215</v>
       </c>
-      <c r="I23" s="142">
+      <c r="I23" s="140">
         <v>0.41199999999999998</v>
       </c>
-      <c r="J23" s="336"/>
-      <c r="K23" s="166">
+      <c r="J23" s="333"/>
+      <c r="K23" s="164">
         <v>0.251</v>
       </c>
       <c r="L23" s="113">
         <v>0.505</v>
       </c>
-      <c r="M23" s="154">
+      <c r="M23" s="152">
         <v>-0.27400000000000002</v>
       </c>
     </row>
-    <row r="24" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="412"/>
       <c r="C24" s="421"/>
-      <c r="D24" s="442" t="s">
+      <c r="D24" s="439" t="s">
         <v>7</v>
       </c>
-      <c r="E24" s="399" t="s">
+      <c r="E24" s="395" t="s">
         <v>55</v>
       </c>
-      <c r="F24" s="454">
+      <c r="F24" s="128">
         <v>0.35199999999999998</v>
       </c>
-      <c r="G24" s="452">
+      <c r="G24" s="98">
         <v>0.74199999999999999</v>
       </c>
-      <c r="H24" s="455">
+      <c r="H24" s="116">
         <v>0.128</v>
       </c>
-      <c r="I24" s="456">
+      <c r="I24" s="140">
         <v>0.317</v>
       </c>
-      <c r="J24" s="336"/>
-      <c r="K24" s="166">
+      <c r="J24" s="333"/>
+      <c r="K24" s="164">
         <v>0.13700000000000001</v>
       </c>
       <c r="L24" s="113">
         <v>1.18E-2</v>
       </c>
-      <c r="M24" s="155">
+      <c r="M24" s="153">
         <v>-0.17899999999999999</v>
       </c>
     </row>
-    <row r="25" spans="2:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="413"/>
       <c r="C25" s="424"/>
       <c r="D25" s="424"/>
-      <c r="E25" s="400" t="s">
+      <c r="E25" s="396" t="s">
         <v>56</v>
       </c>
-      <c r="F25" s="148">
+      <c r="F25" s="146">
         <v>0.443</v>
       </c>
-      <c r="G25" s="149">
+      <c r="G25" s="147">
         <v>0.8</v>
       </c>
-      <c r="H25" s="218">
+      <c r="H25" s="215">
         <v>0.159</v>
       </c>
-      <c r="I25" s="219">
+      <c r="I25" s="216">
         <v>0.36199999999999999</v>
       </c>
-      <c r="J25" s="342"/>
-      <c r="K25" s="227">
+      <c r="J25" s="339"/>
+      <c r="K25" s="224">
         <v>0.19600000000000001</v>
       </c>
-      <c r="L25" s="220">
+      <c r="L25" s="217">
         <v>0.22500000000000001</v>
       </c>
-      <c r="M25" s="221">
+      <c r="M25" s="218">
         <v>-0.29899999999999999</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="J26"/>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="J27"/>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="J28"/>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="J29"/>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="J30"/>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="J31"/>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="J32"/>
     </row>
-    <row r="33" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J33"/>
     </row>
-    <row r="34" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J34"/>
     </row>
-    <row r="35" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J35"/>
     </row>
-    <row r="36" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J36"/>
     </row>
-    <row r="37" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J37"/>
     </row>
-    <row r="38" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J38"/>
     </row>
-    <row r="39" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J39"/>
     </row>
-    <row r="40" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J40"/>
     </row>
-    <row r="41" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J41"/>
     </row>
-    <row r="42" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J42"/>
     </row>
-    <row r="43" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J43"/>
     </row>
-    <row r="44" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J44"/>
     </row>
-    <row r="45" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J45"/>
     </row>
-    <row r="46" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J46"/>
     </row>
-    <row r="47" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J47"/>
     </row>
-    <row r="48" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J48"/>
     </row>
-    <row r="49" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="49" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J49"/>
     </row>
-    <row r="50" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="50" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J50"/>
     </row>
-    <row r="51" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="51" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J51"/>
     </row>
-    <row r="52" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="52" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J52"/>
     </row>
-    <row r="53" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="53" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J53"/>
     </row>
-    <row r="54" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="54" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J54"/>
     </row>
-    <row r="55" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="55" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J55"/>
     </row>
-    <row r="56" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="56" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J56"/>
     </row>
-    <row r="57" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="57" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J57"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="B12:B18"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="B20:B25"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C22:C25"/>
     <mergeCell ref="F2:I2"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="F3:G3"/>
@@ -7332,12 +6889,12 @@
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="D9:D10"/>
-    <mergeCell ref="B12:B18"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="B20:B25"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D22:D23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7352,40 +6909,40 @@
       <selection activeCell="T24" sqref="T24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.54296875" customWidth="1"/>
-    <col min="2" max="2" width="11.26953125" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="14.81640625" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="7" width="10.1796875" customWidth="1"/>
-    <col min="8" max="8" width="10.453125" customWidth="1"/>
-    <col min="9" max="9" width="0.453125" style="323" customWidth="1"/>
-    <col min="10" max="10" width="12.54296875" customWidth="1"/>
-    <col min="11" max="11" width="12.81640625" customWidth="1"/>
-    <col min="12" max="12" width="11.81640625" customWidth="1"/>
-    <col min="13" max="13" width="12.54296875" customWidth="1"/>
+    <col min="6" max="7" width="10.140625" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" customWidth="1"/>
+    <col min="9" max="9" width="0.42578125" style="320" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" customWidth="1"/>
+    <col min="12" max="12" width="11.85546875" customWidth="1"/>
+    <col min="13" max="13" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I1"/>
     </row>
-    <row r="2" spans="2:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E2" s="425" t="s">
+    <row r="2" spans="2:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E2" s="408" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="426"/>
-      <c r="G2" s="426"/>
-      <c r="H2" s="427"/>
-      <c r="I2" s="324"/>
-      <c r="J2" s="425" t="s">
+      <c r="F2" s="409"/>
+      <c r="G2" s="409"/>
+      <c r="H2" s="410"/>
+      <c r="I2" s="321"/>
+      <c r="J2" s="408" t="s">
         <v>33</v>
       </c>
-      <c r="K2" s="426"/>
-      <c r="L2" s="427"/>
-    </row>
-    <row r="3" spans="2:14" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K2" s="409"/>
+      <c r="L2" s="410"/>
+    </row>
+    <row r="3" spans="2:14" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="417" t="s">
         <v>29</v>
       </c>
@@ -7399,42 +6956,42 @@
         <v>27</v>
       </c>
       <c r="H3" s="415"/>
-      <c r="I3" s="325"/>
-      <c r="J3" s="250" t="s">
+      <c r="I3" s="322"/>
+      <c r="J3" s="247" t="s">
         <v>35</v>
       </c>
-      <c r="K3" s="251" t="s">
+      <c r="K3" s="248" t="s">
         <v>37</v>
       </c>
-      <c r="L3" s="251" t="s">
+      <c r="L3" s="248" t="s">
         <v>38</v>
       </c>
-      <c r="M3" s="178"/>
-    </row>
-    <row r="4" spans="2:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="241" t="s">
+      <c r="M3" s="176"/>
+    </row>
+    <row r="4" spans="2:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="238" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="239" t="s">
+      <c r="C4" s="236" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="189" t="s">
+      <c r="D4" s="187" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="145" t="s">
+      <c r="E4" s="143" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="146" t="s">
+      <c r="F4" s="144" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="260" t="s">
+      <c r="G4" s="257" t="s">
         <v>10</v>
       </c>
       <c r="H4" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="326"/>
-      <c r="J4" s="145" t="s">
+      <c r="I4" s="323"/>
+      <c r="J4" s="143" t="s">
         <v>10</v>
       </c>
       <c r="K4" s="82" t="s">
@@ -7445,17 +7002,17 @@
       </c>
       <c r="M4" s="77"/>
     </row>
-    <row r="5" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="411" t="s">
         <v>30</v>
       </c>
       <c r="C5" s="420" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="151" t="s">
+      <c r="D5" s="149" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="153">
+      <c r="E5" s="151">
         <v>0.83199999999999996</v>
       </c>
       <c r="F5" s="110">
@@ -7467,11 +7024,11 @@
       <c r="H5" s="110">
         <v>0.41249999999999998</v>
       </c>
-      <c r="I5" s="327"/>
-      <c r="J5" s="158">
+      <c r="I5" s="324"/>
+      <c r="J5" s="156">
         <v>0.214</v>
       </c>
-      <c r="K5" s="163">
+      <c r="K5" s="161">
         <v>-0.498</v>
       </c>
       <c r="L5" s="96">
@@ -7479,13 +7036,13 @@
       </c>
       <c r="M5" s="79"/>
     </row>
-    <row r="6" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="412"/>
       <c r="C6" s="421"/>
-      <c r="D6" s="150" t="s">
+      <c r="D6" s="148" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="119">
+      <c r="E6" s="118">
         <v>0.77900000000000003</v>
       </c>
       <c r="F6" s="90">
@@ -7497,11 +7054,11 @@
       <c r="H6" s="90">
         <v>0.38750000000000001</v>
       </c>
-      <c r="I6" s="328"/>
-      <c r="J6" s="247">
+      <c r="I6" s="325"/>
+      <c r="J6" s="244">
         <v>0.223</v>
       </c>
-      <c r="K6" s="159">
+      <c r="K6" s="157">
         <v>-0.34899999999999998</v>
       </c>
       <c r="L6" s="100">
@@ -7509,13 +7066,13 @@
       </c>
       <c r="M6" s="79"/>
     </row>
-    <row r="7" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="412"/>
       <c r="C7" s="421"/>
-      <c r="D7" s="151" t="s">
+      <c r="D7" s="149" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="128">
+      <c r="E7" s="127">
         <v>0.78900000000000003</v>
       </c>
       <c r="F7" s="92">
@@ -7527,25 +7084,25 @@
       <c r="H7" s="96">
         <v>0.4</v>
       </c>
-      <c r="I7" s="327"/>
-      <c r="J7" s="160">
+      <c r="I7" s="324"/>
+      <c r="J7" s="158">
         <v>0.19500000000000001</v>
       </c>
-      <c r="K7" s="160">
+      <c r="K7" s="158">
         <v>-0.28399999999999997</v>
       </c>
-      <c r="L7" s="169">
+      <c r="L7" s="167">
         <v>-6.2300000000000001E-2</v>
       </c>
       <c r="M7" s="79"/>
     </row>
-    <row r="8" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="412"/>
       <c r="C8" s="421"/>
-      <c r="D8" s="150" t="s">
+      <c r="D8" s="148" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="130">
+      <c r="E8" s="129">
         <v>0.72399999999999998</v>
       </c>
       <c r="F8" s="98">
@@ -7554,28 +7111,28 @@
       <c r="G8" s="101">
         <v>0.23641670000000001</v>
       </c>
-      <c r="H8" s="381">
+      <c r="H8" s="378">
         <v>0.36666670000000001</v>
       </c>
-      <c r="I8" s="328"/>
-      <c r="J8" s="161">
+      <c r="I8" s="325"/>
+      <c r="J8" s="159">
         <v>0.20100000000000001</v>
       </c>
-      <c r="K8" s="161">
+      <c r="K8" s="159">
         <v>-0.501</v>
       </c>
-      <c r="L8" s="176">
+      <c r="L8" s="174">
         <v>-6.6400000000000001E-2</v>
       </c>
       <c r="M8" s="79"/>
     </row>
-    <row r="9" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="412"/>
       <c r="C9" s="421"/>
-      <c r="D9" s="150" t="s">
+      <c r="D9" s="148" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="130">
+      <c r="E9" s="129">
         <v>0.81100000000000005</v>
       </c>
       <c r="F9" s="103">
@@ -7587,25 +7144,25 @@
       <c r="H9" s="104">
         <v>0.4375</v>
       </c>
-      <c r="I9" s="329"/>
-      <c r="J9" s="161">
+      <c r="I9" s="326"/>
+      <c r="J9" s="159">
         <v>0.191</v>
       </c>
-      <c r="K9" s="161">
+      <c r="K9" s="159">
         <v>-0.377</v>
       </c>
-      <c r="L9" s="170">
+      <c r="L9" s="168">
         <v>-6.08E-2</v>
       </c>
       <c r="M9" s="78"/>
     </row>
-    <row r="10" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="412"/>
       <c r="C10" s="422"/>
-      <c r="D10" s="152" t="s">
+      <c r="D10" s="150" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="132">
+      <c r="E10" s="131">
         <v>0.73599999999999999</v>
       </c>
       <c r="F10" s="106">
@@ -7614,30 +7171,30 @@
       <c r="G10" s="107">
         <v>0.24199999999999999</v>
       </c>
-      <c r="H10" s="186">
+      <c r="H10" s="184">
         <v>0.5</v>
       </c>
-      <c r="I10" s="330"/>
-      <c r="J10" s="162">
+      <c r="I10" s="327"/>
+      <c r="J10" s="160">
         <v>0.19800000000000001</v>
       </c>
-      <c r="K10" s="162">
+      <c r="K10" s="160">
         <v>-0.16400000000000001</v>
       </c>
-      <c r="L10" s="171">
+      <c r="L10" s="169">
         <v>-4.4699999999999997E-2</v>
       </c>
       <c r="M10" s="79"/>
     </row>
-    <row r="11" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B11" s="412"/>
       <c r="C11" s="423" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="151" t="s">
+      <c r="D11" s="149" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="126">
+      <c r="E11" s="125">
         <v>0.77200000000000002</v>
       </c>
       <c r="F11" s="110">
@@ -7649,11 +7206,11 @@
       <c r="H11" s="110">
         <v>0.46250000000000002</v>
       </c>
-      <c r="I11" s="327"/>
-      <c r="J11" s="163">
+      <c r="I11" s="324"/>
+      <c r="J11" s="161">
         <v>0.20499999999999999</v>
       </c>
-      <c r="K11" s="163">
+      <c r="K11" s="161">
         <v>-0.11600000000000001</v>
       </c>
       <c r="L11" s="96">
@@ -7661,13 +7218,13 @@
       </c>
       <c r="M11" s="81"/>
     </row>
-    <row r="12" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="412"/>
       <c r="C12" s="421"/>
-      <c r="D12" s="150" t="s">
+      <c r="D12" s="148" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="119">
+      <c r="E12" s="118">
         <v>0.67500000000000004</v>
       </c>
       <c r="F12" s="110">
@@ -7679,26 +7236,26 @@
       <c r="H12" s="90">
         <v>0.375</v>
       </c>
-      <c r="I12" s="328"/>
-      <c r="J12" s="159">
+      <c r="I12" s="325"/>
+      <c r="J12" s="157">
         <v>0.19900000000000001</v>
       </c>
-      <c r="K12" s="159">
+      <c r="K12" s="157">
         <v>-0.19700000000000001</v>
       </c>
       <c r="L12" s="100">
         <v>-5.1499999999999997E-2</v>
       </c>
       <c r="M12" s="81"/>
-      <c r="N12" s="174"/>
-    </row>
-    <row r="13" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N12" s="172"/>
+    </row>
+    <row r="13" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="412"/>
       <c r="C13" s="421"/>
-      <c r="D13" s="151" t="s">
+      <c r="D13" s="149" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="126">
+      <c r="E13" s="125">
         <v>0.73199999999999998</v>
       </c>
       <c r="F13" s="112">
@@ -7710,56 +7267,56 @@
       <c r="H13" s="96">
         <v>0.42499999999999999</v>
       </c>
-      <c r="I13" s="327"/>
-      <c r="J13" s="160">
+      <c r="I13" s="324"/>
+      <c r="J13" s="158">
         <v>0.182</v>
       </c>
-      <c r="K13" s="160">
+      <c r="K13" s="158">
         <v>-0.26800000000000002</v>
       </c>
-      <c r="L13" s="169">
+      <c r="L13" s="167">
         <v>-5.4800000000000001E-2</v>
       </c>
       <c r="M13" s="80"/>
-      <c r="N13" s="174"/>
-    </row>
-    <row r="14" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N13" s="172"/>
+    </row>
+    <row r="14" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="412"/>
       <c r="C14" s="421"/>
-      <c r="D14" s="150" t="s">
+      <c r="D14" s="148" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="370">
+      <c r="E14" s="367">
         <v>0.61599999999999999</v>
       </c>
-      <c r="F14" s="380">
+      <c r="F14" s="377">
         <v>0.94199999999999995</v>
       </c>
-      <c r="G14" s="363">
+      <c r="G14" s="360">
         <v>0.20674999999999999</v>
       </c>
       <c r="H14" s="113">
         <v>0.39166669999999998</v>
       </c>
-      <c r="I14" s="331"/>
-      <c r="J14" s="161">
+      <c r="I14" s="328"/>
+      <c r="J14" s="159">
         <v>0.19</v>
       </c>
-      <c r="K14" s="172">
+      <c r="K14" s="170">
         <v>-0.52100000000000002</v>
       </c>
-      <c r="L14" s="170">
+      <c r="L14" s="168">
         <v>-5.8200000000000002E-2</v>
       </c>
       <c r="M14" s="79"/>
     </row>
-    <row r="15" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="412"/>
       <c r="C15" s="421"/>
-      <c r="D15" s="150" t="s">
+      <c r="D15" s="148" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="130">
+      <c r="E15" s="129">
         <v>0.76800000000000002</v>
       </c>
       <c r="F15" s="98">
@@ -7771,25 +7328,25 @@
       <c r="H15" s="113">
         <v>0.4</v>
       </c>
-      <c r="I15" s="331"/>
-      <c r="J15" s="161">
+      <c r="I15" s="328"/>
+      <c r="J15" s="159">
         <v>0.17599999999999999</v>
       </c>
-      <c r="K15" s="161">
+      <c r="K15" s="159">
         <v>4.2199999999999998E-3</v>
       </c>
-      <c r="L15" s="170">
+      <c r="L15" s="168">
         <v>-5.1999999999999998E-2</v>
       </c>
       <c r="M15" s="79"/>
     </row>
-    <row r="16" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="412"/>
       <c r="C16" s="422"/>
-      <c r="D16" s="152" t="s">
+      <c r="D16" s="150" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="132">
+      <c r="E16" s="131">
         <v>0.67700000000000005</v>
       </c>
       <c r="F16" s="106">
@@ -7801,57 +7358,57 @@
       <c r="H16" s="108">
         <v>0.4</v>
       </c>
-      <c r="I16" s="330"/>
-      <c r="J16" s="364">
+      <c r="I16" s="327"/>
+      <c r="J16" s="361">
         <v>0.17299999999999999</v>
       </c>
-      <c r="K16" s="162">
+      <c r="K16" s="160">
         <v>-0.28499999999999998</v>
       </c>
-      <c r="L16" s="367">
+      <c r="L16" s="364">
         <v>-3.3599999999999998E-2</v>
       </c>
       <c r="M16" s="79"/>
     </row>
-    <row r="17" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B17" s="412"/>
       <c r="C17" s="423" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="151" t="s">
+      <c r="D17" s="149" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="126">
+      <c r="E17" s="125">
         <v>0.81499999999999995</v>
       </c>
       <c r="F17" s="110">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G17" s="246">
+      <c r="G17" s="243">
         <v>0.270125</v>
       </c>
       <c r="H17" s="92">
         <v>0.46250000000000002</v>
       </c>
-      <c r="I17" s="332"/>
-      <c r="J17" s="164">
+      <c r="I17" s="329"/>
+      <c r="J17" s="162">
         <v>0.20699999999999999</v>
       </c>
-      <c r="K17" s="164">
+      <c r="K17" s="162">
         <v>-7.6300000000000007E-2</v>
       </c>
       <c r="L17" s="96">
         <v>-5.8200000000000002E-2</v>
       </c>
-      <c r="M17" s="179"/>
-    </row>
-    <row r="18" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="M17" s="177"/>
+    </row>
+    <row r="18" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="412"/>
       <c r="C18" s="421"/>
-      <c r="D18" s="150" t="s">
+      <c r="D18" s="148" t="s">
         <v>17</v>
       </c>
-      <c r="E18" s="119">
+      <c r="E18" s="118">
         <v>0.73499999999999999</v>
       </c>
       <c r="F18" s="90">
@@ -7863,11 +7420,11 @@
       <c r="H18" s="98">
         <v>0.41249999999999998</v>
       </c>
-      <c r="I18" s="331"/>
-      <c r="J18" s="166">
+      <c r="I18" s="328"/>
+      <c r="J18" s="164">
         <v>0.20899999999999999</v>
       </c>
-      <c r="K18" s="382">
+      <c r="K18" s="379">
         <v>2.4499999999999999E-3</v>
       </c>
       <c r="L18" s="100">
@@ -7875,13 +7432,13 @@
       </c>
       <c r="M18" s="79"/>
     </row>
-    <row r="19" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="412"/>
       <c r="C19" s="421"/>
-      <c r="D19" s="151" t="s">
+      <c r="D19" s="149" t="s">
         <v>6</v>
       </c>
-      <c r="E19" s="128">
+      <c r="E19" s="127">
         <v>0.75</v>
       </c>
       <c r="F19" s="92">
@@ -7893,25 +7450,25 @@
       <c r="H19" s="98">
         <v>0.42499999999999999</v>
       </c>
-      <c r="I19" s="331"/>
-      <c r="J19" s="166">
+      <c r="I19" s="328"/>
+      <c r="J19" s="164">
         <v>0.187</v>
       </c>
-      <c r="K19" s="166">
+      <c r="K19" s="164">
         <v>-1.12E-2</v>
       </c>
-      <c r="L19" s="169">
+      <c r="L19" s="167">
         <v>-6.0199999999999997E-2</v>
       </c>
       <c r="M19" s="79"/>
     </row>
-    <row r="20" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="412"/>
       <c r="C20" s="421"/>
-      <c r="D20" s="150" t="s">
+      <c r="D20" s="148" t="s">
         <v>7</v>
       </c>
-      <c r="E20" s="130">
+      <c r="E20" s="129">
         <v>0.67500000000000004</v>
       </c>
       <c r="F20" s="98">
@@ -7923,25 +7480,25 @@
       <c r="H20" s="98">
         <v>0.40833330000000001</v>
       </c>
-      <c r="I20" s="331"/>
-      <c r="J20" s="166">
+      <c r="I20" s="328"/>
+      <c r="J20" s="164">
         <v>0.182</v>
       </c>
-      <c r="K20" s="166">
+      <c r="K20" s="164">
         <v>-0.151</v>
       </c>
-      <c r="L20" s="170">
+      <c r="L20" s="168">
         <v>-6.4600000000000005E-2</v>
       </c>
       <c r="M20" s="79"/>
     </row>
-    <row r="21" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="412"/>
       <c r="C21" s="421"/>
-      <c r="D21" s="150" t="s">
+      <c r="D21" s="148" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="130">
+      <c r="E21" s="129">
         <v>0.79700000000000004</v>
       </c>
       <c r="F21" s="103">
@@ -7953,240 +7510,240 @@
       <c r="H21" s="92">
         <v>0.46250000000000002</v>
       </c>
-      <c r="I21" s="332"/>
-      <c r="J21" s="164">
+      <c r="I21" s="329"/>
+      <c r="J21" s="162">
         <v>0.17399999999999999</v>
       </c>
-      <c r="K21" s="164">
+      <c r="K21" s="162">
         <v>-0.16400000000000001</v>
       </c>
-      <c r="L21" s="170">
+      <c r="L21" s="168">
         <v>-5.9499999999999997E-2</v>
       </c>
       <c r="M21" s="79"/>
     </row>
-    <row r="22" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="22" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="413"/>
       <c r="C22" s="424"/>
-      <c r="D22" s="192" t="s">
+      <c r="D22" s="190" t="s">
         <v>9</v>
       </c>
-      <c r="E22" s="132">
+      <c r="E22" s="131">
         <v>0.70499999999999996</v>
       </c>
       <c r="F22" s="106">
         <v>1.23</v>
       </c>
-      <c r="G22" s="195">
+      <c r="G22" s="192">
         <v>0.23599999999999999</v>
       </c>
-      <c r="H22" s="194">
+      <c r="H22" s="191">
         <v>0.5</v>
       </c>
-      <c r="I22" s="333"/>
-      <c r="J22" s="196">
+      <c r="I22" s="330"/>
+      <c r="J22" s="193">
         <v>0.182</v>
       </c>
-      <c r="K22" s="196">
+      <c r="K22" s="193">
         <v>-0.217</v>
       </c>
-      <c r="L22" s="242">
+      <c r="L22" s="239">
         <v>-4.7100000000000003E-2</v>
       </c>
       <c r="M22" s="79"/>
     </row>
-    <row r="23" spans="2:14" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="191"/>
-      <c r="C23" s="197"/>
-      <c r="D23" s="229"/>
-      <c r="E23" s="229"/>
-      <c r="F23" s="229"/>
-      <c r="G23" s="229"/>
-      <c r="H23" s="229"/>
-      <c r="I23" s="229"/>
-      <c r="J23" s="229"/>
-      <c r="K23" s="229"/>
-      <c r="L23" s="233"/>
-    </row>
-    <row r="24" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:14" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="189"/>
+      <c r="C23" s="194"/>
+      <c r="D23" s="226"/>
+      <c r="E23" s="226"/>
+      <c r="F23" s="226"/>
+      <c r="G23" s="226"/>
+      <c r="H23" s="226"/>
+      <c r="I23" s="226"/>
+      <c r="J23" s="226"/>
+      <c r="K23" s="226"/>
+      <c r="L23" s="230"/>
+    </row>
+    <row r="24" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="411" t="s">
         <v>25</v>
       </c>
       <c r="C24" s="420" t="s">
         <v>2</v>
       </c>
-      <c r="D24" s="222" t="s">
+      <c r="D24" s="219" t="s">
         <v>16</v>
       </c>
-      <c r="E24" s="225">
+      <c r="E24" s="222">
         <v>0.77700000000000002</v>
       </c>
-      <c r="F24" s="147">
+      <c r="F24" s="145">
         <v>1.18</v>
       </c>
-      <c r="G24" s="314">
+      <c r="G24" s="311">
         <v>0.25800000000000001</v>
       </c>
-      <c r="H24" s="133">
+      <c r="H24" s="132">
         <v>0.438</v>
       </c>
-      <c r="I24" s="334"/>
-      <c r="J24" s="158">
+      <c r="I24" s="331"/>
+      <c r="J24" s="156">
         <v>0.19700000000000001</v>
       </c>
-      <c r="K24" s="158">
+      <c r="K24" s="156">
         <v>-0.61</v>
       </c>
-      <c r="L24" s="158">
+      <c r="L24" s="156">
         <v>-9.7500000000000003E-2</v>
       </c>
     </row>
-    <row r="25" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="412"/>
       <c r="C25" s="421"/>
-      <c r="D25" s="222" t="s">
+      <c r="D25" s="219" t="s">
         <v>17</v>
       </c>
-      <c r="E25" s="129">
+      <c r="E25" s="128">
         <v>0.69</v>
       </c>
       <c r="F25" s="98">
         <v>0.96199999999999997</v>
       </c>
-      <c r="G25" s="119">
+      <c r="G25" s="118">
         <v>0.23599999999999999</v>
       </c>
-      <c r="H25" s="134">
+      <c r="H25" s="133">
         <v>0.41199999999999998</v>
       </c>
-      <c r="I25" s="335"/>
-      <c r="J25" s="159">
+      <c r="I25" s="332"/>
+      <c r="J25" s="157">
         <v>0.19500000000000001</v>
       </c>
-      <c r="K25" s="159">
+      <c r="K25" s="157">
         <v>-0.42</v>
       </c>
-      <c r="L25" s="159">
+      <c r="L25" s="157">
         <v>-9.5200000000000007E-2</v>
       </c>
     </row>
-    <row r="26" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="412"/>
       <c r="C26" s="421"/>
-      <c r="D26" s="222" t="s">
+      <c r="D26" s="219" t="s">
         <v>6</v>
       </c>
-      <c r="E26" s="129">
+      <c r="E26" s="128">
         <v>0.69699999999999995</v>
       </c>
       <c r="F26" s="98">
         <v>1.01</v>
       </c>
-      <c r="G26" s="315">
+      <c r="G26" s="312">
         <v>0.23200000000000001</v>
       </c>
-      <c r="H26" s="134">
+      <c r="H26" s="133">
         <v>0.38800000000000001</v>
       </c>
-      <c r="I26" s="335"/>
-      <c r="J26" s="161">
+      <c r="I26" s="332"/>
+      <c r="J26" s="159">
         <v>0.16300000000000001</v>
       </c>
-      <c r="K26" s="159">
+      <c r="K26" s="157">
         <v>-0.434</v>
       </c>
-      <c r="L26" s="161">
+      <c r="L26" s="159">
         <v>-9.9500000000000005E-2</v>
       </c>
     </row>
-    <row r="27" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="412"/>
       <c r="C27" s="421"/>
       <c r="D27" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="E27" s="129">
+      <c r="E27" s="128">
         <v>0.54800000000000004</v>
       </c>
       <c r="F27" s="98">
         <v>0.88300000000000001</v>
       </c>
-      <c r="G27" s="315">
+      <c r="G27" s="312">
         <v>0.189</v>
       </c>
-      <c r="H27" s="142">
+      <c r="H27" s="140">
         <v>0.375</v>
       </c>
-      <c r="I27" s="336"/>
-      <c r="J27" s="161">
+      <c r="I27" s="333"/>
+      <c r="J27" s="159">
         <v>0.16200000000000001</v>
       </c>
-      <c r="K27" s="159">
+      <c r="K27" s="157">
         <v>-0.77500000000000002</v>
       </c>
-      <c r="L27" s="161">
+      <c r="L27" s="159">
         <v>-0.108</v>
       </c>
     </row>
-    <row r="28" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="412"/>
       <c r="C28" s="421"/>
       <c r="D28" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="E28" s="129">
+      <c r="E28" s="128">
         <v>0.7</v>
       </c>
-      <c r="F28" s="322">
+      <c r="F28" s="319">
         <v>1.02</v>
       </c>
-      <c r="G28" s="315">
+      <c r="G28" s="312">
         <v>0.22900000000000001</v>
       </c>
-      <c r="H28" s="232">
+      <c r="H28" s="229">
         <v>0.36199999999999999</v>
       </c>
-      <c r="I28" s="337"/>
-      <c r="J28" s="161">
+      <c r="I28" s="334"/>
+      <c r="J28" s="159">
         <v>0.14199999999999999</v>
       </c>
-      <c r="K28" s="172">
+      <c r="K28" s="170">
         <v>-0.82299999999999995</v>
       </c>
-      <c r="L28" s="161">
+      <c r="L28" s="159">
         <v>-0.105</v>
       </c>
     </row>
-    <row r="29" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="412"/>
       <c r="C29" s="422"/>
       <c r="D29" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="E29" s="131">
+      <c r="E29" s="130">
         <v>0.56899999999999995</v>
       </c>
       <c r="F29" s="106">
         <v>0.95</v>
       </c>
-      <c r="G29" s="316">
+      <c r="G29" s="313">
         <v>0.19</v>
       </c>
-      <c r="H29" s="144">
+      <c r="H29" s="142">
         <v>0.375</v>
       </c>
-      <c r="I29" s="338"/>
-      <c r="J29" s="181">
+      <c r="I29" s="335"/>
+      <c r="J29" s="179">
         <v>0.151</v>
       </c>
-      <c r="K29" s="236">
+      <c r="K29" s="233">
         <v>-0.183</v>
       </c>
-      <c r="L29" s="181">
+      <c r="L29" s="179">
         <v>-8.7999999999999995E-2</v>
       </c>
     </row>
-    <row r="30" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B30" s="412"/>
       <c r="C30" s="423" t="s">
         <v>3</v>
@@ -8194,179 +7751,179 @@
       <c r="D30" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="E30" s="125">
+      <c r="E30" s="124">
         <v>0.67</v>
       </c>
       <c r="F30" s="110">
         <v>0.97499999999999998</v>
       </c>
-      <c r="G30" s="126">
+      <c r="G30" s="125">
         <v>0.23100000000000001</v>
       </c>
-      <c r="H30" s="139">
+      <c r="H30" s="138">
         <v>0.42499999999999999</v>
       </c>
-      <c r="I30" s="339"/>
-      <c r="J30" s="163">
+      <c r="I30" s="336"/>
+      <c r="J30" s="161">
         <v>0.193</v>
       </c>
-      <c r="K30" s="163">
+      <c r="K30" s="161">
         <v>0.152</v>
       </c>
-      <c r="L30" s="163">
+      <c r="L30" s="161">
         <v>-0.122</v>
       </c>
-      <c r="M30" s="174"/>
-    </row>
-    <row r="31" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M30" s="172"/>
+    </row>
+    <row r="31" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="412"/>
       <c r="C31" s="421"/>
       <c r="D31" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="E31" s="118">
+      <c r="E31" s="117">
         <v>0.53700000000000003</v>
       </c>
       <c r="F31" s="90">
         <v>0.91200000000000003</v>
       </c>
-      <c r="G31" s="119">
+      <c r="G31" s="118">
         <v>0.19400000000000001</v>
       </c>
-      <c r="H31" s="134">
+      <c r="H31" s="133">
         <v>0.375</v>
       </c>
-      <c r="I31" s="335"/>
-      <c r="J31" s="159">
+      <c r="I31" s="332"/>
+      <c r="J31" s="157">
         <v>0.20499999999999999</v>
       </c>
-      <c r="K31" s="383">
+      <c r="K31" s="380">
         <v>9.9799999999999993E-3</v>
       </c>
-      <c r="L31" s="247">
+      <c r="L31" s="244">
         <v>-0.14199999999999999</v>
       </c>
-      <c r="N31" s="174"/>
-    </row>
-    <row r="32" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N31" s="172"/>
+    </row>
+    <row r="32" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="412"/>
       <c r="C32" s="421"/>
       <c r="D32" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="E32" s="127">
+      <c r="E32" s="126">
         <v>0.58199999999999996</v>
       </c>
       <c r="F32" s="96">
         <v>0.93799999999999994</v>
       </c>
-      <c r="G32" s="317">
+      <c r="G32" s="314">
         <v>0.20300000000000001</v>
       </c>
-      <c r="H32" s="135">
+      <c r="H32" s="134">
         <v>0.38800000000000001</v>
       </c>
-      <c r="I32" s="339"/>
-      <c r="J32" s="160">
+      <c r="I32" s="336"/>
+      <c r="J32" s="158">
         <v>0.156</v>
       </c>
-      <c r="K32" s="163">
+      <c r="K32" s="161">
         <v>0.28399999999999997</v>
       </c>
-      <c r="L32" s="160">
+      <c r="L32" s="158">
         <v>-0.129</v>
       </c>
-      <c r="M32" s="174"/>
-      <c r="N32" s="174"/>
-    </row>
-    <row r="33" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M32" s="172"/>
+      <c r="N32" s="172"/>
+    </row>
+    <row r="33" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="412"/>
       <c r="C33" s="421"/>
       <c r="D33" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="E33" s="371">
+      <c r="E33" s="368">
         <v>0.40400000000000003</v>
       </c>
-      <c r="F33" s="381">
+      <c r="F33" s="378">
         <v>0.79200000000000004</v>
       </c>
-      <c r="G33" s="385">
+      <c r="G33" s="382">
         <v>0.14399999999999999</v>
       </c>
-      <c r="H33" s="384">
+      <c r="H33" s="381">
         <v>0.317</v>
       </c>
-      <c r="I33" s="335"/>
-      <c r="J33" s="161">
+      <c r="I33" s="332"/>
+      <c r="J33" s="159">
         <v>0.156</v>
       </c>
-      <c r="K33" s="166">
+      <c r="K33" s="164">
         <v>0.27800000000000002</v>
       </c>
-      <c r="L33" s="172">
+      <c r="L33" s="170">
         <v>-0.14199999999999999</v>
       </c>
     </row>
-    <row r="34" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="412"/>
       <c r="C34" s="421"/>
       <c r="D34" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="E34" s="129">
+      <c r="E34" s="128">
         <v>0.623</v>
       </c>
       <c r="F34" s="100">
         <v>0.98799999999999999</v>
       </c>
-      <c r="G34" s="315">
+      <c r="G34" s="312">
         <v>0.214</v>
       </c>
-      <c r="H34" s="234">
+      <c r="H34" s="231">
         <v>0.35</v>
       </c>
-      <c r="I34" s="336"/>
-      <c r="J34" s="365">
+      <c r="I34" s="333"/>
+      <c r="J34" s="362">
         <v>0.11899999999999999</v>
       </c>
-      <c r="K34" s="166">
+      <c r="K34" s="164">
         <v>-0.26400000000000001</v>
       </c>
-      <c r="L34" s="161">
+      <c r="L34" s="159">
         <v>-0.107</v>
       </c>
     </row>
-    <row r="35" spans="2:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="412"/>
       <c r="C35" s="422"/>
       <c r="D35" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="E35" s="131">
+      <c r="E35" s="130">
         <v>0.46200000000000002</v>
       </c>
       <c r="F35" s="108">
         <v>1.02</v>
       </c>
-      <c r="G35" s="316">
+      <c r="G35" s="313">
         <v>0.16600000000000001</v>
       </c>
-      <c r="H35" s="235">
+      <c r="H35" s="232">
         <v>0.35</v>
       </c>
-      <c r="I35" s="340"/>
-      <c r="J35" s="162">
+      <c r="I35" s="337"/>
+      <c r="J35" s="160">
         <v>0.121</v>
       </c>
-      <c r="K35" s="167">
+      <c r="K35" s="165">
         <v>-0.20599999999999999</v>
       </c>
-      <c r="L35" s="162">
+      <c r="L35" s="160">
         <v>-9.1700000000000004E-2</v>
       </c>
     </row>
-    <row r="36" spans="2:12" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:12" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B36" s="412"/>
       <c r="C36" s="423" t="s">
         <v>18</v>
@@ -8374,227 +7931,227 @@
       <c r="D36" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="E36" s="243">
+      <c r="E36" s="240">
         <v>0.73699999999999999</v>
       </c>
-      <c r="F36" s="147">
+      <c r="F36" s="145">
         <v>1.08</v>
       </c>
-      <c r="G36" s="318">
+      <c r="G36" s="315">
         <v>0.249</v>
       </c>
-      <c r="H36" s="141">
+      <c r="H36" s="139">
         <v>0.4</v>
       </c>
-      <c r="I36" s="341"/>
-      <c r="J36" s="164">
+      <c r="I36" s="338"/>
+      <c r="J36" s="162">
         <v>0.20799999999999999</v>
       </c>
-      <c r="K36" s="158">
+      <c r="K36" s="156">
         <v>-0.54600000000000004</v>
       </c>
-      <c r="L36" s="158">
+      <c r="L36" s="156">
         <v>-0.113</v>
       </c>
     </row>
-    <row r="37" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="412"/>
       <c r="C37" s="421"/>
       <c r="D37" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="E37" s="129">
+      <c r="E37" s="128">
         <v>0.61599999999999999</v>
       </c>
       <c r="F37" s="98">
         <v>0.97499999999999998</v>
       </c>
-      <c r="G37" s="319">
+      <c r="G37" s="316">
         <v>0.217</v>
       </c>
-      <c r="H37" s="142">
+      <c r="H37" s="140">
         <v>0.36199999999999999</v>
       </c>
-      <c r="I37" s="336"/>
-      <c r="J37" s="165">
+      <c r="I37" s="333"/>
+      <c r="J37" s="163">
         <v>0.21</v>
       </c>
-      <c r="K37" s="159">
+      <c r="K37" s="157">
         <v>-0.71399999999999997</v>
       </c>
-      <c r="L37" s="159">
+      <c r="L37" s="157">
         <v>-0.126</v>
       </c>
     </row>
-    <row r="38" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="412"/>
       <c r="C38" s="421"/>
       <c r="D38" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="E38" s="129">
+      <c r="E38" s="128">
         <v>0.63400000000000001</v>
       </c>
       <c r="F38" s="98">
         <v>0.97499999999999998</v>
       </c>
-      <c r="G38" s="319">
+      <c r="G38" s="316">
         <v>0.214</v>
       </c>
-      <c r="H38" s="142">
+      <c r="H38" s="140">
         <v>0.4</v>
       </c>
-      <c r="I38" s="336"/>
-      <c r="J38" s="166">
+      <c r="I38" s="333"/>
+      <c r="J38" s="164">
         <v>0.16</v>
       </c>
-      <c r="K38" s="159">
+      <c r="K38" s="157">
         <v>-0.44400000000000001</v>
       </c>
-      <c r="L38" s="160">
+      <c r="L38" s="158">
         <v>-0.112</v>
       </c>
     </row>
-    <row r="39" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="412"/>
       <c r="C39" s="421"/>
       <c r="D39" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="E39" s="129">
+      <c r="E39" s="128">
         <v>0.52600000000000002</v>
       </c>
       <c r="F39" s="98">
         <v>1</v>
       </c>
-      <c r="G39" s="319">
+      <c r="G39" s="316">
         <v>0.186</v>
       </c>
-      <c r="H39" s="142">
+      <c r="H39" s="140">
         <v>0.42499999999999999</v>
       </c>
-      <c r="I39" s="336"/>
-      <c r="J39" s="166">
+      <c r="I39" s="333"/>
+      <c r="J39" s="164">
         <v>0.16900000000000001</v>
       </c>
-      <c r="K39" s="159">
+      <c r="K39" s="157">
         <v>-0.14000000000000001</v>
       </c>
-      <c r="L39" s="161">
+      <c r="L39" s="159">
         <v>-9.2700000000000005E-2</v>
       </c>
     </row>
-    <row r="40" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="412"/>
       <c r="C40" s="421"/>
       <c r="D40" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="E40" s="129">
+      <c r="E40" s="128">
         <v>0.67</v>
       </c>
-      <c r="F40" s="322">
+      <c r="F40" s="319">
         <v>1.06</v>
       </c>
-      <c r="G40" s="319">
+      <c r="G40" s="316">
         <v>0.22500000000000001</v>
       </c>
-      <c r="H40" s="142">
+      <c r="H40" s="140">
         <v>0.36199999999999999</v>
       </c>
-      <c r="I40" s="341"/>
-      <c r="J40" s="164">
+      <c r="I40" s="338"/>
+      <c r="J40" s="162">
         <v>0.13</v>
       </c>
-      <c r="K40" s="161">
+      <c r="K40" s="159">
         <v>-0.5</v>
       </c>
-      <c r="L40" s="161">
+      <c r="L40" s="159">
         <v>-0.107</v>
       </c>
     </row>
-    <row r="41" spans="2:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="413"/>
       <c r="C41" s="424"/>
-      <c r="D41" s="230" t="s">
+      <c r="D41" s="227" t="s">
         <v>9</v>
       </c>
-      <c r="E41" s="148">
+      <c r="E41" s="146">
         <v>0.52200000000000002</v>
       </c>
-      <c r="F41" s="149">
+      <c r="F41" s="147">
         <v>1.02</v>
       </c>
-      <c r="G41" s="320">
+      <c r="G41" s="317">
         <v>0.182</v>
       </c>
-      <c r="H41" s="219">
+      <c r="H41" s="216">
         <v>0.42499999999999999</v>
       </c>
-      <c r="I41" s="342"/>
-      <c r="J41" s="227">
+      <c r="I41" s="339"/>
+      <c r="J41" s="224">
         <v>0.13600000000000001</v>
       </c>
-      <c r="K41" s="236">
+      <c r="K41" s="233">
         <v>-0.307</v>
       </c>
-      <c r="L41" s="386">
+      <c r="L41" s="383">
         <v>-8.5400000000000004E-2</v>
       </c>
     </row>
-    <row r="42" spans="2:12" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B42" s="191"/>
-      <c r="C42" s="197"/>
-      <c r="D42" s="198"/>
-      <c r="E42" s="321"/>
-      <c r="F42" s="321"/>
-      <c r="G42" s="198"/>
-      <c r="H42" s="198"/>
-      <c r="I42" s="198"/>
-      <c r="J42" s="198"/>
-      <c r="K42" s="198"/>
-      <c r="L42" s="199"/>
-    </row>
-    <row r="43" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:12" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="189"/>
+      <c r="C42" s="194"/>
+      <c r="D42" s="195"/>
+      <c r="E42" s="318"/>
+      <c r="F42" s="318"/>
+      <c r="G42" s="195"/>
+      <c r="H42" s="195"/>
+      <c r="I42" s="195"/>
+      <c r="J42" s="195"/>
+      <c r="K42" s="195"/>
+      <c r="L42" s="196"/>
+    </row>
+    <row r="43" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="411" t="s">
         <v>26</v>
       </c>
       <c r="C43" s="420" t="s">
         <v>2</v>
       </c>
-      <c r="D43" s="238" t="s">
+      <c r="D43" s="235" t="s">
         <v>16</v>
       </c>
-      <c r="E43" s="225">
+      <c r="E43" s="222">
         <v>0.72099999999999997</v>
       </c>
-      <c r="F43" s="245">
+      <c r="F43" s="242">
         <v>1.02</v>
       </c>
       <c r="G43" s="87">
         <v>0.247</v>
       </c>
-      <c r="H43" s="244">
+      <c r="H43" s="241">
         <v>0.4</v>
       </c>
-      <c r="I43" s="334"/>
-      <c r="J43" s="158">
+      <c r="I43" s="331"/>
+      <c r="J43" s="156">
         <v>0.19400000000000001</v>
       </c>
-      <c r="K43" s="216">
+      <c r="K43" s="213">
         <v>2.8500000000000001E-2</v>
       </c>
       <c r="L43" s="88">
         <v>-0.11700000000000001</v>
       </c>
     </row>
-    <row r="44" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="412"/>
       <c r="C44" s="421"/>
       <c r="D44" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="E44" s="129">
+      <c r="E44" s="128">
         <v>0.6</v>
       </c>
       <c r="F44" s="98">
@@ -8603,11 +8160,11 @@
       <c r="G44" s="89">
         <v>0.21099999999999999</v>
       </c>
-      <c r="H44" s="134">
+      <c r="H44" s="133">
         <v>0.36199999999999999</v>
       </c>
-      <c r="I44" s="335"/>
-      <c r="J44" s="247">
+      <c r="I44" s="332"/>
+      <c r="J44" s="244">
         <v>0.21199999999999999</v>
       </c>
       <c r="K44" s="100">
@@ -8617,42 +8174,42 @@
         <v>-0.13400000000000001</v>
       </c>
     </row>
-    <row r="45" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="412"/>
       <c r="C45" s="421"/>
       <c r="D45" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="E45" s="127">
+      <c r="E45" s="126">
         <v>0.60399999999999998</v>
       </c>
-      <c r="F45" s="121">
+      <c r="F45" s="120">
         <v>0.96199999999999997</v>
       </c>
       <c r="G45" s="95">
         <v>0.20699999999999999</v>
       </c>
-      <c r="H45" s="135">
+      <c r="H45" s="134">
         <v>0.38800000000000001</v>
       </c>
-      <c r="I45" s="339"/>
-      <c r="J45" s="160">
+      <c r="I45" s="336"/>
+      <c r="J45" s="158">
         <v>0.14399999999999999</v>
       </c>
       <c r="K45" s="96">
         <v>0.14799999999999999</v>
       </c>
-      <c r="L45" s="154">
+      <c r="L45" s="152">
         <v>-0.124</v>
       </c>
     </row>
-    <row r="46" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="412"/>
       <c r="C46" s="421"/>
       <c r="D46" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="E46" s="129">
+      <c r="E46" s="128">
         <v>0.433</v>
       </c>
       <c r="F46" s="113">
@@ -8661,27 +8218,27 @@
       <c r="G46" s="101">
         <v>0.152</v>
       </c>
-      <c r="H46" s="136">
+      <c r="H46" s="135">
         <v>0.375</v>
       </c>
-      <c r="I46" s="335"/>
-      <c r="J46" s="161">
+      <c r="I46" s="332"/>
+      <c r="J46" s="159">
         <v>0.13700000000000001</v>
       </c>
       <c r="K46" s="100">
         <v>0.32900000000000001</v>
       </c>
-      <c r="L46" s="155">
+      <c r="L46" s="153">
         <v>-0.13500000000000001</v>
       </c>
     </row>
-    <row r="47" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="412"/>
       <c r="C47" s="421"/>
       <c r="D47" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="E47" s="129">
+      <c r="E47" s="128">
         <v>0.61699999999999999</v>
       </c>
       <c r="F47" s="103">
@@ -8690,27 +8247,27 @@
       <c r="G47" s="101">
         <v>0.21</v>
       </c>
-      <c r="H47" s="137">
+      <c r="H47" s="136">
         <v>0.438</v>
       </c>
-      <c r="I47" s="343"/>
-      <c r="J47" s="365">
+      <c r="I47" s="340"/>
+      <c r="J47" s="362">
         <v>9.0399999999999994E-2</v>
       </c>
       <c r="K47" s="104">
         <v>-3.6700000000000003E-2</v>
       </c>
-      <c r="L47" s="155">
+      <c r="L47" s="153">
         <v>-0.11899999999999999</v>
       </c>
     </row>
-    <row r="48" spans="2:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B48" s="412"/>
       <c r="C48" s="422"/>
       <c r="D48" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="E48" s="131">
+      <c r="E48" s="130">
         <v>0.443</v>
       </c>
       <c r="F48" s="108">
@@ -8719,21 +8276,21 @@
       <c r="G48" s="107">
         <v>0.16200000000000001</v>
       </c>
-      <c r="H48" s="138">
+      <c r="H48" s="137">
         <v>0.4</v>
       </c>
-      <c r="I48" s="344"/>
-      <c r="J48" s="162">
+      <c r="I48" s="341"/>
+      <c r="J48" s="160">
         <v>9.5299999999999996E-2</v>
       </c>
       <c r="K48" s="108">
         <v>-0.22500000000000001</v>
       </c>
-      <c r="L48" s="376">
+      <c r="L48" s="373">
         <v>-0.10299999999999999</v>
       </c>
     </row>
-    <row r="49" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B49" s="412"/>
       <c r="C49" s="423" t="s">
         <v>3</v>
@@ -8741,7 +8298,7 @@
       <c r="D49" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="E49" s="125">
+      <c r="E49" s="124">
         <v>0.65900000000000003</v>
       </c>
       <c r="F49" s="110">
@@ -8750,27 +8307,27 @@
       <c r="G49" s="109">
         <v>0.23200000000000001</v>
       </c>
-      <c r="H49" s="249">
+      <c r="H49" s="246">
         <v>0.45</v>
       </c>
-      <c r="I49" s="339"/>
-      <c r="J49" s="163">
+      <c r="I49" s="336"/>
+      <c r="J49" s="161">
         <v>0.159</v>
       </c>
-      <c r="K49" s="387">
+      <c r="K49" s="384">
         <v>6.94E-3</v>
       </c>
       <c r="L49" s="110">
         <v>-0.13100000000000001</v>
       </c>
     </row>
-    <row r="50" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="412"/>
       <c r="C50" s="421"/>
       <c r="D50" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="E50" s="118">
+      <c r="E50" s="117">
         <v>0.497</v>
       </c>
       <c r="F50" s="90">
@@ -8779,11 +8336,11 @@
       <c r="G50" s="89">
         <v>0.182</v>
       </c>
-      <c r="H50" s="134">
+      <c r="H50" s="133">
         <v>0.375</v>
       </c>
-      <c r="I50" s="335"/>
-      <c r="J50" s="159">
+      <c r="I50" s="332"/>
+      <c r="J50" s="157">
         <v>0.17299999999999999</v>
       </c>
       <c r="K50" s="100">
@@ -8792,15 +8349,15 @@
       <c r="L50" s="90">
         <v>-0.153</v>
       </c>
-      <c r="N50" s="174"/>
-    </row>
-    <row r="51" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N50" s="172"/>
+    </row>
+    <row r="51" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="412"/>
       <c r="C51" s="421"/>
       <c r="D51" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="E51" s="122">
+      <c r="E51" s="121">
         <v>0.48699999999999999</v>
       </c>
       <c r="F51" s="96">
@@ -8809,28 +8366,28 @@
       <c r="G51" s="95">
         <v>0.17599999999999999</v>
       </c>
-      <c r="H51" s="135">
+      <c r="H51" s="134">
         <v>0.33800000000000002</v>
       </c>
-      <c r="I51" s="339"/>
-      <c r="J51" s="160">
+      <c r="I51" s="336"/>
+      <c r="J51" s="158">
         <v>0.11899999999999999</v>
       </c>
       <c r="K51" s="94">
         <v>-0.44400000000000001</v>
       </c>
-      <c r="L51" s="154">
+      <c r="L51" s="152">
         <v>-0.14499999999999999</v>
       </c>
-      <c r="N51" s="174"/>
-    </row>
-    <row r="52" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N51" s="172"/>
+    </row>
+    <row r="52" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="412"/>
       <c r="C52" s="421"/>
       <c r="D52" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="E52" s="129">
+      <c r="E52" s="128">
         <v>0.372</v>
       </c>
       <c r="F52" s="113">
@@ -8839,27 +8396,27 @@
       <c r="G52" s="101">
         <v>0.13400000000000001</v>
       </c>
-      <c r="H52" s="136">
+      <c r="H52" s="135">
         <v>0.32500000000000001</v>
       </c>
-      <c r="I52" s="335"/>
-      <c r="J52" s="161">
+      <c r="I52" s="332"/>
+      <c r="J52" s="159">
         <v>0.14199999999999999</v>
       </c>
       <c r="K52" s="113">
         <v>0.28199999999999997</v>
       </c>
-      <c r="L52" s="155">
+      <c r="L52" s="153">
         <v>-0.154</v>
       </c>
     </row>
-    <row r="53" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="412"/>
       <c r="C53" s="421"/>
       <c r="D53" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="E53" s="143">
+      <c r="E53" s="141">
         <v>0.52100000000000002</v>
       </c>
       <c r="F53" s="113">
@@ -8868,50 +8425,50 @@
       <c r="G53" s="101">
         <v>0.186</v>
       </c>
-      <c r="H53" s="136">
+      <c r="H53" s="135">
         <v>0.32500000000000001</v>
       </c>
-      <c r="I53" s="335"/>
-      <c r="J53" s="161">
+      <c r="I53" s="332"/>
+      <c r="J53" s="159">
         <v>0.106</v>
       </c>
       <c r="K53" s="113">
         <v>-0.29499999999999998</v>
       </c>
-      <c r="L53" s="155">
+      <c r="L53" s="153">
         <v>-0.15</v>
       </c>
     </row>
-    <row r="54" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B54" s="412"/>
       <c r="C54" s="422"/>
       <c r="D54" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="E54" s="390">
+      <c r="E54" s="387">
         <v>0.33800000000000002</v>
       </c>
       <c r="F54" s="108">
         <v>0.82499999999999996</v>
       </c>
-      <c r="G54" s="389">
+      <c r="G54" s="386">
         <v>0.126</v>
       </c>
-      <c r="H54" s="388">
+      <c r="H54" s="385">
         <v>0.3</v>
       </c>
-      <c r="I54" s="344"/>
-      <c r="J54" s="162">
+      <c r="I54" s="341"/>
+      <c r="J54" s="160">
         <v>0.109</v>
       </c>
       <c r="K54" s="108">
         <v>-0.23699999999999999</v>
       </c>
-      <c r="L54" s="156">
+      <c r="L54" s="154">
         <v>-0.14000000000000001</v>
       </c>
     </row>
-    <row r="55" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B55" s="412"/>
       <c r="C55" s="423" t="s">
         <v>18</v>
@@ -8919,49 +8476,49 @@
       <c r="D55" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="E55" s="127">
+      <c r="E55" s="126">
         <v>0.69199999999999995</v>
       </c>
-      <c r="F55" s="248">
+      <c r="F55" s="245">
         <v>1.06</v>
       </c>
-      <c r="G55" s="120">
+      <c r="G55" s="119">
         <v>0.24099999999999999</v>
       </c>
-      <c r="H55" s="141">
+      <c r="H55" s="139">
         <v>0.42499999999999999</v>
       </c>
-      <c r="I55" s="341"/>
-      <c r="J55" s="158">
+      <c r="I55" s="338"/>
+      <c r="J55" s="156">
         <v>0.17100000000000001</v>
       </c>
-      <c r="K55" s="216">
+      <c r="K55" s="213">
         <v>-0.36099999999999999</v>
       </c>
       <c r="L55" s="88">
         <v>-0.12</v>
       </c>
     </row>
-    <row r="56" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="412"/>
       <c r="C56" s="421"/>
       <c r="D56" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="E56" s="129">
+      <c r="E56" s="128">
         <v>0.55200000000000005</v>
       </c>
       <c r="F56" s="98">
         <v>0.96199999999999997</v>
       </c>
-      <c r="G56" s="117">
+      <c r="G56" s="116">
         <v>0.19600000000000001</v>
       </c>
-      <c r="H56" s="142">
+      <c r="H56" s="140">
         <v>0.38800000000000001</v>
       </c>
-      <c r="I56" s="336"/>
-      <c r="J56" s="159">
+      <c r="I56" s="333"/>
+      <c r="J56" s="157">
         <v>0.192</v>
       </c>
       <c r="K56" s="100">
@@ -8971,160 +8528,164 @@
         <v>-0.14099999999999999</v>
       </c>
     </row>
-    <row r="57" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="412"/>
       <c r="C57" s="421"/>
       <c r="D57" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="E57" s="129">
+      <c r="E57" s="128">
         <v>0.56100000000000005</v>
       </c>
       <c r="F57" s="98">
         <v>1</v>
       </c>
-      <c r="G57" s="117">
+      <c r="G57" s="116">
         <v>0.193</v>
       </c>
-      <c r="H57" s="142">
+      <c r="H57" s="140">
         <v>0.35</v>
       </c>
-      <c r="I57" s="341"/>
-      <c r="J57" s="160">
+      <c r="I57" s="338"/>
+      <c r="J57" s="158">
         <v>0.14199999999999999</v>
       </c>
       <c r="K57" s="96">
         <v>-0.248</v>
       </c>
-      <c r="L57" s="154">
+      <c r="L57" s="152">
         <v>-0.13300000000000001</v>
       </c>
     </row>
-    <row r="58" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="412"/>
       <c r="C58" s="421"/>
       <c r="D58" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="E58" s="129">
+      <c r="E58" s="128">
         <v>0.36499999999999999</v>
       </c>
-      <c r="F58" s="369">
+      <c r="F58" s="366">
         <v>0.73299999999999998</v>
       </c>
-      <c r="G58" s="117">
+      <c r="G58" s="116">
         <v>0.13400000000000001</v>
       </c>
-      <c r="H58" s="368">
+      <c r="H58" s="365">
         <v>0.3</v>
       </c>
-      <c r="I58" s="336"/>
-      <c r="J58" s="161">
+      <c r="I58" s="333"/>
+      <c r="J58" s="159">
         <v>0.13800000000000001</v>
       </c>
       <c r="K58" s="100">
         <v>-0.22</v>
       </c>
-      <c r="L58" s="157">
+      <c r="L58" s="155">
         <v>-0.16200000000000001</v>
       </c>
     </row>
-    <row r="59" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="412"/>
       <c r="C59" s="421"/>
       <c r="D59" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="E59" s="129">
+      <c r="E59" s="128">
         <v>0.57299999999999995</v>
       </c>
       <c r="F59" s="98">
         <v>0.93799999999999994</v>
       </c>
-      <c r="G59" s="117">
+      <c r="G59" s="116">
         <v>0.19800000000000001</v>
       </c>
-      <c r="H59" s="142">
+      <c r="H59" s="140">
         <v>0.375</v>
       </c>
-      <c r="I59" s="336"/>
-      <c r="J59" s="161">
+      <c r="I59" s="333"/>
+      <c r="J59" s="159">
         <v>0.105</v>
       </c>
       <c r="K59" s="104">
         <v>-5.5899999999999998E-2</v>
       </c>
-      <c r="L59" s="155">
+      <c r="L59" s="153">
         <v>-0.13200000000000001</v>
       </c>
     </row>
-    <row r="60" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B60" s="413"/>
       <c r="C60" s="424"/>
-      <c r="D60" s="217" t="s">
+      <c r="D60" s="214" t="s">
         <v>9</v>
       </c>
-      <c r="E60" s="148">
+      <c r="E60" s="146">
         <v>0.40799999999999997</v>
       </c>
-      <c r="F60" s="149">
+      <c r="F60" s="147">
         <v>0.875</v>
       </c>
-      <c r="G60" s="218">
+      <c r="G60" s="215">
         <v>0.154</v>
       </c>
-      <c r="H60" s="219">
+      <c r="H60" s="216">
         <v>0.4</v>
       </c>
-      <c r="I60" s="345"/>
-      <c r="J60" s="237">
+      <c r="I60" s="342"/>
+      <c r="J60" s="234">
         <v>0.106</v>
       </c>
-      <c r="K60" s="220">
+      <c r="K60" s="217">
         <v>-0.191</v>
       </c>
-      <c r="L60" s="221">
+      <c r="L60" s="218">
         <v>-0.121</v>
       </c>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I61"/>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I62"/>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I63"/>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I64"/>
     </row>
-    <row r="65" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="65" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I65"/>
     </row>
-    <row r="66" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="66" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I66"/>
     </row>
-    <row r="67" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="67" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I67"/>
     </row>
-    <row r="68" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="68" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I68"/>
     </row>
-    <row r="69" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="69" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I69"/>
     </row>
-    <row r="70" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="70" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I70"/>
     </row>
-    <row r="71" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="71" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I71"/>
     </row>
-    <row r="72" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="72" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I72"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B43:B60"/>
+    <mergeCell ref="C43:C48"/>
+    <mergeCell ref="C49:C54"/>
+    <mergeCell ref="C55:C60"/>
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="E3:F3"/>
@@ -9138,10 +8699,6 @@
     <mergeCell ref="C11:C16"/>
     <mergeCell ref="C17:C22"/>
     <mergeCell ref="E2:H2"/>
-    <mergeCell ref="B43:B60"/>
-    <mergeCell ref="C43:C48"/>
-    <mergeCell ref="C49:C54"/>
-    <mergeCell ref="C55:C60"/>
   </mergeCells>
   <conditionalFormatting sqref="N10">
     <cfRule type="colorScale" priority="3">
@@ -9168,37 +8725,37 @@
       <selection activeCell="T12" sqref="T12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.1796875" customWidth="1"/>
-    <col min="3" max="3" width="15.7265625" customWidth="1"/>
-    <col min="4" max="4" width="13.7265625" customWidth="1"/>
-    <col min="5" max="6" width="10.7265625" customWidth="1"/>
-    <col min="7" max="8" width="9.26953125" customWidth="1"/>
-    <col min="9" max="9" width="9.90625" customWidth="1"/>
-    <col min="10" max="10" width="0.36328125" customWidth="1"/>
-    <col min="11" max="13" width="10.453125" customWidth="1"/>
-    <col min="14" max="14" width="10.6328125" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="6" width="10.7109375" customWidth="1"/>
+    <col min="7" max="8" width="9.28515625" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" customWidth="1"/>
+    <col min="10" max="10" width="0.42578125" customWidth="1"/>
+    <col min="11" max="13" width="10.42578125" customWidth="1"/>
+    <col min="14" max="14" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:19" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E2" s="425" t="s">
+    <row r="1" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:19" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E2" s="408" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="426"/>
-      <c r="G2" s="426"/>
-      <c r="H2" s="426"/>
-      <c r="I2" s="427"/>
-      <c r="J2" s="296"/>
-      <c r="K2" s="425" t="s">
+      <c r="F2" s="409"/>
+      <c r="G2" s="409"/>
+      <c r="H2" s="409"/>
+      <c r="I2" s="410"/>
+      <c r="J2" s="293"/>
+      <c r="K2" s="408" t="s">
         <v>33</v>
       </c>
-      <c r="L2" s="426"/>
-      <c r="M2" s="426"/>
-      <c r="N2" s="427"/>
-    </row>
-    <row r="3" spans="2:19" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L2" s="409"/>
+      <c r="M2" s="409"/>
+      <c r="N2" s="410"/>
+    </row>
+    <row r="3" spans="2:19" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="417" t="s">
         <v>29</v>
       </c>
@@ -9212,73 +8769,73 @@
         <v>27</v>
       </c>
       <c r="H3" s="415"/>
-      <c r="I3" s="251" t="s">
+      <c r="I3" s="248" t="s">
         <v>40</v>
       </c>
-      <c r="J3" s="297"/>
-      <c r="K3" s="346" t="s">
+      <c r="J3" s="294"/>
+      <c r="K3" s="343" t="s">
         <v>35</v>
       </c>
-      <c r="L3" s="251" t="s">
+      <c r="L3" s="248" t="s">
         <v>37</v>
       </c>
-      <c r="M3" s="251" t="s">
+      <c r="M3" s="248" t="s">
         <v>38</v>
       </c>
-      <c r="N3" s="251" t="s">
+      <c r="N3" s="248" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="2:19" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="241" t="s">
+    <row r="4" spans="2:19" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="238" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="239" t="s">
+      <c r="C4" s="236" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="189" t="s">
+      <c r="D4" s="187" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="277" t="s">
+      <c r="E4" s="274" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="278" t="s">
+      <c r="F4" s="275" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="277" t="s">
+      <c r="G4" s="274" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="278" t="s">
+      <c r="H4" s="275" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="279" t="s">
+      <c r="I4" s="276" t="s">
         <v>39</v>
       </c>
-      <c r="J4" s="298"/>
-      <c r="K4" s="279" t="s">
+      <c r="J4" s="295"/>
+      <c r="K4" s="276" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="279" t="s">
+      <c r="L4" s="276" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="279" t="s">
+      <c r="M4" s="276" t="s">
         <v>10</v>
       </c>
-      <c r="N4" s="281" t="s">
+      <c r="N4" s="278" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="2:19" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:19" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="411" t="s">
         <v>30</v>
       </c>
       <c r="C5" s="420" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="151" t="s">
+      <c r="D5" s="149" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="153">
+      <c r="E5" s="151">
         <v>0.83199999999999996</v>
       </c>
       <c r="F5" s="110">
@@ -9290,30 +8847,30 @@
       <c r="H5" s="110">
         <v>0.41249999999999998</v>
       </c>
-      <c r="I5" s="273" t="s">
+      <c r="I5" s="270" t="s">
         <v>42</v>
       </c>
-      <c r="J5" s="299"/>
-      <c r="K5" s="158">
+      <c r="J5" s="296"/>
+      <c r="K5" s="156">
         <v>0.214</v>
       </c>
-      <c r="L5" s="163">
+      <c r="L5" s="161">
         <v>-0.498</v>
       </c>
-      <c r="M5" s="135">
+      <c r="M5" s="134">
         <v>-6.0699999999999997E-2</v>
       </c>
-      <c r="N5" s="292" t="s">
+      <c r="N5" s="289" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="2:19" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:19" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="412"/>
       <c r="C6" s="421"/>
-      <c r="D6" s="150" t="s">
+      <c r="D6" s="148" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="119">
+      <c r="E6" s="118">
         <v>0.77900000000000003</v>
       </c>
       <c r="F6" s="90">
@@ -9325,31 +8882,31 @@
       <c r="H6" s="90">
         <v>0.38750000000000001</v>
       </c>
-      <c r="I6" s="266" t="s">
+      <c r="I6" s="263" t="s">
         <v>43</v>
       </c>
-      <c r="J6" s="300"/>
-      <c r="K6" s="247">
+      <c r="J6" s="297"/>
+      <c r="K6" s="244">
         <v>0.223</v>
       </c>
-      <c r="L6" s="159">
+      <c r="L6" s="157">
         <v>-0.34899999999999998</v>
       </c>
-      <c r="M6" s="136">
+      <c r="M6" s="135">
         <v>-6.0199999999999997E-2</v>
       </c>
-      <c r="N6" s="269" t="s">
+      <c r="N6" s="266" t="s">
         <v>42</v>
       </c>
-      <c r="S6" s="310"/>
-    </row>
-    <row r="7" spans="2:19" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S6" s="307"/>
+    </row>
+    <row r="7" spans="2:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="412"/>
       <c r="C7" s="421"/>
-      <c r="D7" s="150" t="s">
+      <c r="D7" s="148" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="130">
+      <c r="E7" s="129">
         <v>0.72399999999999998</v>
       </c>
       <c r="F7" s="98">
@@ -9358,33 +8915,33 @@
       <c r="G7" s="101">
         <v>0.23641670000000001</v>
       </c>
-      <c r="H7" s="381">
+      <c r="H7" s="378">
         <v>0.36666670000000001</v>
       </c>
-      <c r="I7" s="266" t="s">
+      <c r="I7" s="263" t="s">
         <v>41</v>
       </c>
-      <c r="J7" s="300"/>
-      <c r="K7" s="161">
+      <c r="J7" s="297"/>
+      <c r="K7" s="159">
         <v>0.20100000000000001</v>
       </c>
-      <c r="L7" s="161">
+      <c r="L7" s="159">
         <v>-0.501</v>
       </c>
-      <c r="M7" s="280">
+      <c r="M7" s="277">
         <v>-6.6400000000000001E-2</v>
       </c>
-      <c r="N7" s="293" t="s">
+      <c r="N7" s="290" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="2:19" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:19" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="412"/>
       <c r="C8" s="422"/>
-      <c r="D8" s="152" t="s">
+      <c r="D8" s="150" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="132">
+      <c r="E8" s="131">
         <v>0.73599999999999999</v>
       </c>
       <c r="F8" s="106">
@@ -9393,70 +8950,70 @@
       <c r="G8" s="107">
         <v>0.24199999999999999</v>
       </c>
-      <c r="H8" s="186">
+      <c r="H8" s="184">
         <v>0.5</v>
       </c>
-      <c r="I8" s="267" t="s">
+      <c r="I8" s="264" t="s">
         <v>41</v>
       </c>
-      <c r="J8" s="301"/>
-      <c r="K8" s="162">
+      <c r="J8" s="298"/>
+      <c r="K8" s="160">
         <v>0.19800000000000001</v>
       </c>
-      <c r="L8" s="162">
+      <c r="L8" s="160">
         <v>-0.16400000000000001</v>
       </c>
-      <c r="M8" s="258">
+      <c r="M8" s="255">
         <v>-4.4699999999999997E-2</v>
       </c>
-      <c r="N8" s="267" t="s">
+      <c r="N8" s="264" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="2:19" ht="16" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:19" ht="15.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B9" s="412"/>
       <c r="C9" s="421" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="150" t="s">
+      <c r="D9" s="148" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="370">
+      <c r="E9" s="367">
         <v>0.61599999999999999</v>
       </c>
-      <c r="F9" s="380">
+      <c r="F9" s="377">
         <v>0.94199999999999995</v>
       </c>
-      <c r="G9" s="363">
+      <c r="G9" s="360">
         <v>0.20674999999999999</v>
       </c>
       <c r="H9" s="113">
         <v>0.39166669999999998</v>
       </c>
-      <c r="I9" s="311" t="s">
+      <c r="I9" s="308" t="s">
         <v>44</v>
       </c>
-      <c r="J9" s="302"/>
-      <c r="K9" s="161">
+      <c r="J9" s="299"/>
+      <c r="K9" s="159">
         <v>0.19</v>
       </c>
-      <c r="L9" s="172">
+      <c r="L9" s="170">
         <v>-0.52100000000000002</v>
       </c>
-      <c r="M9" s="282">
+      <c r="M9" s="279">
         <v>-5.8200000000000002E-2</v>
       </c>
-      <c r="N9" s="268" t="s">
+      <c r="N9" s="265" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="2:19" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:19" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="412"/>
       <c r="C10" s="422"/>
-      <c r="D10" s="152" t="s">
+      <c r="D10" s="150" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="132">
+      <c r="E10" s="131">
         <v>0.67700000000000005</v>
       </c>
       <c r="F10" s="106">
@@ -9468,67 +9025,67 @@
       <c r="H10" s="108">
         <v>0.4</v>
       </c>
-      <c r="I10" s="267" t="s">
+      <c r="I10" s="264" t="s">
         <v>45</v>
       </c>
-      <c r="J10" s="301"/>
-      <c r="K10" s="364">
+      <c r="J10" s="298"/>
+      <c r="K10" s="361">
         <v>0.17299999999999999</v>
       </c>
-      <c r="L10" s="162">
+      <c r="L10" s="160">
         <v>-0.28499999999999998</v>
       </c>
-      <c r="M10" s="391">
+      <c r="M10" s="388">
         <v>-3.3599999999999998E-2</v>
       </c>
-      <c r="N10" s="295" t="s">
+      <c r="N10" s="292" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="2:19" ht="16" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:19" ht="15.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B11" s="412"/>
       <c r="C11" s="423" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="151" t="s">
+      <c r="D11" s="149" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="126">
+      <c r="E11" s="125">
         <v>0.81499999999999995</v>
       </c>
       <c r="F11" s="110">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G11" s="246">
+      <c r="G11" s="243">
         <v>0.270125</v>
       </c>
       <c r="H11" s="92">
         <v>0.46250000000000002</v>
       </c>
-      <c r="I11" s="268" t="s">
+      <c r="I11" s="265" t="s">
         <v>42</v>
       </c>
-      <c r="J11" s="303"/>
-      <c r="K11" s="164">
+      <c r="J11" s="300"/>
+      <c r="K11" s="162">
         <v>0.20699999999999999</v>
       </c>
-      <c r="L11" s="164">
+      <c r="L11" s="162">
         <v>-7.6300000000000007E-2</v>
       </c>
-      <c r="M11" s="135">
+      <c r="M11" s="134">
         <v>-5.8200000000000002E-2</v>
       </c>
-      <c r="N11" s="268" t="s">
+      <c r="N11" s="265" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="2:19" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="412"/>
       <c r="C12" s="421"/>
-      <c r="D12" s="150" t="s">
+      <c r="D12" s="148" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="119">
+      <c r="E12" s="118">
         <v>0.73499999999999999</v>
       </c>
       <c r="F12" s="90">
@@ -9540,148 +9097,148 @@
       <c r="H12" s="98">
         <v>0.41249999999999998</v>
       </c>
-      <c r="I12" s="269" t="s">
+      <c r="I12" s="266" t="s">
         <v>43</v>
       </c>
-      <c r="J12" s="302"/>
-      <c r="K12" s="166">
+      <c r="J12" s="299"/>
+      <c r="K12" s="164">
         <v>0.20899999999999999</v>
       </c>
-      <c r="L12" s="382">
+      <c r="L12" s="379">
         <v>2.4499999999999999E-3</v>
       </c>
-      <c r="M12" s="136">
+      <c r="M12" s="135">
         <v>-5.7700000000000001E-2</v>
       </c>
-      <c r="N12" s="269" t="s">
+      <c r="N12" s="266" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="2:19" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:19" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="413"/>
       <c r="C13" s="424"/>
-      <c r="D13" s="192" t="s">
+      <c r="D13" s="190" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="132">
+      <c r="E13" s="131">
         <v>0.70499999999999996</v>
       </c>
       <c r="F13" s="106">
         <v>1.23</v>
       </c>
-      <c r="G13" s="195">
+      <c r="G13" s="192">
         <v>0.23599999999999999</v>
       </c>
-      <c r="H13" s="194">
+      <c r="H13" s="191">
         <v>0.5</v>
       </c>
-      <c r="I13" s="270" t="s">
+      <c r="I13" s="267" t="s">
         <v>42</v>
       </c>
-      <c r="J13" s="304"/>
-      <c r="K13" s="227">
+      <c r="J13" s="301"/>
+      <c r="K13" s="224">
         <v>0.182</v>
       </c>
-      <c r="L13" s="196">
+      <c r="L13" s="193">
         <v>-0.217</v>
       </c>
-      <c r="M13" s="283">
+      <c r="M13" s="280">
         <v>-4.7100000000000003E-2</v>
       </c>
-      <c r="N13" s="270" t="s">
+      <c r="N13" s="267" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="2:19" ht="2.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="191"/>
-      <c r="C14" s="257"/>
-      <c r="D14" s="229"/>
-      <c r="E14" s="229"/>
-      <c r="F14" s="229"/>
-      <c r="G14" s="229"/>
-      <c r="H14" s="229"/>
-      <c r="I14" s="261"/>
-      <c r="J14" s="261"/>
-      <c r="K14" s="229"/>
-      <c r="L14" s="229"/>
-      <c r="M14" s="229"/>
-      <c r="N14" s="312"/>
-    </row>
-    <row r="15" spans="2:19" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:19" ht="2.4500000000000002" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="189"/>
+      <c r="C14" s="254"/>
+      <c r="D14" s="226"/>
+      <c r="E14" s="226"/>
+      <c r="F14" s="226"/>
+      <c r="G14" s="226"/>
+      <c r="H14" s="226"/>
+      <c r="I14" s="258"/>
+      <c r="J14" s="258"/>
+      <c r="K14" s="226"/>
+      <c r="L14" s="226"/>
+      <c r="M14" s="226"/>
+      <c r="N14" s="309"/>
+    </row>
+    <row r="15" spans="2:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="411" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="442" t="s">
+      <c r="C15" s="439" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="222" t="s">
+      <c r="D15" s="219" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="225">
+      <c r="E15" s="222">
         <v>0.77700000000000002</v>
       </c>
-      <c r="F15" s="231">
+      <c r="F15" s="228">
         <v>1.18</v>
       </c>
       <c r="G15" s="87">
         <v>0.25800000000000001</v>
       </c>
-      <c r="H15" s="133">
+      <c r="H15" s="132">
         <v>0.438</v>
       </c>
-      <c r="I15" s="264" t="s">
+      <c r="I15" s="261" t="s">
         <v>46</v>
       </c>
-      <c r="J15" s="305"/>
-      <c r="K15" s="216">
+      <c r="J15" s="302"/>
+      <c r="K15" s="213">
         <v>0.19700000000000001</v>
       </c>
-      <c r="L15" s="158">
+      <c r="L15" s="156">
         <v>-0.61</v>
       </c>
-      <c r="M15" s="284">
+      <c r="M15" s="281">
         <v>-9.7500000000000003E-2</v>
       </c>
-      <c r="N15" s="269" t="s">
+      <c r="N15" s="266" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="2:19" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:19" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="412"/>
       <c r="C16" s="422"/>
-      <c r="D16" s="223" t="s">
+      <c r="D16" s="220" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="131">
+      <c r="E16" s="130">
         <v>0.7</v>
       </c>
-      <c r="F16" s="252">
+      <c r="F16" s="249">
         <v>1.02</v>
       </c>
       <c r="G16" s="107">
         <v>0.22900000000000001</v>
       </c>
-      <c r="H16" s="253">
+      <c r="H16" s="250">
         <v>0.36199999999999999</v>
       </c>
-      <c r="I16" s="265" t="s">
+      <c r="I16" s="262" t="s">
         <v>43</v>
       </c>
-      <c r="J16" s="306"/>
-      <c r="K16" s="171">
+      <c r="J16" s="303"/>
+      <c r="K16" s="169">
         <v>0.14199999999999999</v>
       </c>
-      <c r="L16" s="254">
+      <c r="L16" s="251">
         <v>-0.82299999999999995</v>
       </c>
-      <c r="M16" s="285">
+      <c r="M16" s="282">
         <v>-0.105</v>
       </c>
-      <c r="N16" s="267" t="s">
+      <c r="N16" s="264" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="2:14" ht="16" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:14" ht="15.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B17" s="412"/>
       <c r="C17" s="421" t="s">
         <v>3</v>
@@ -9689,106 +9246,106 @@
       <c r="D17" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="118">
+      <c r="E17" s="117">
         <v>0.53700000000000003</v>
       </c>
       <c r="F17" s="90">
         <v>0.91200000000000003</v>
       </c>
-      <c r="G17" s="118">
+      <c r="G17" s="117">
         <v>0.19400000000000001</v>
       </c>
-      <c r="H17" s="134">
+      <c r="H17" s="133">
         <v>0.375</v>
       </c>
-      <c r="I17" s="266" t="s">
+      <c r="I17" s="263" t="s">
         <v>43</v>
       </c>
-      <c r="J17" s="300"/>
+      <c r="J17" s="297"/>
       <c r="K17" s="100">
         <v>0.20499999999999999</v>
       </c>
-      <c r="L17" s="383">
+      <c r="L17" s="380">
         <v>9.9799999999999993E-3</v>
       </c>
-      <c r="M17" s="286">
+      <c r="M17" s="283">
         <v>-0.14199999999999999</v>
       </c>
-      <c r="N17" s="268" t="s">
+      <c r="N17" s="265" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:14" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="412"/>
       <c r="C18" s="421"/>
       <c r="D18" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="371">
+      <c r="E18" s="368">
         <v>0.40400000000000003</v>
       </c>
-      <c r="F18" s="381">
+      <c r="F18" s="378">
         <v>0.79200000000000004</v>
       </c>
-      <c r="G18" s="373">
+      <c r="G18" s="370">
         <v>0.14399999999999999</v>
       </c>
-      <c r="H18" s="384">
+      <c r="H18" s="381">
         <v>0.317</v>
       </c>
-      <c r="I18" s="276" t="s">
+      <c r="I18" s="273" t="s">
         <v>47</v>
       </c>
-      <c r="J18" s="300"/>
-      <c r="K18" s="170">
+      <c r="J18" s="297"/>
+      <c r="K18" s="168">
         <v>0.156</v>
       </c>
-      <c r="L18" s="166">
+      <c r="L18" s="164">
         <v>0.27800000000000002</v>
       </c>
-      <c r="M18" s="287">
+      <c r="M18" s="284">
         <v>-0.14199999999999999</v>
       </c>
-      <c r="N18" s="269" t="s">
+      <c r="N18" s="266" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="2:14" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:14" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="412"/>
       <c r="C19" s="421"/>
-      <c r="D19" s="223" t="s">
+      <c r="D19" s="220" t="s">
         <v>8</v>
       </c>
-      <c r="E19" s="131">
+      <c r="E19" s="130">
         <v>0.623</v>
       </c>
-      <c r="F19" s="256">
+      <c r="F19" s="253">
         <v>0.98799999999999999</v>
       </c>
-      <c r="G19" s="124">
+      <c r="G19" s="123">
         <v>0.214</v>
       </c>
-      <c r="H19" s="235">
+      <c r="H19" s="232">
         <v>0.35</v>
       </c>
-      <c r="I19" s="267" t="s">
+      <c r="I19" s="264" t="s">
         <v>43</v>
       </c>
-      <c r="J19" s="301"/>
-      <c r="K19" s="367">
+      <c r="J19" s="298"/>
+      <c r="K19" s="364">
         <v>0.11899999999999999</v>
       </c>
-      <c r="L19" s="167">
+      <c r="L19" s="165">
         <v>-0.26400000000000001</v>
       </c>
-      <c r="M19" s="285">
+      <c r="M19" s="282">
         <v>-0.107</v>
       </c>
-      <c r="N19" s="295" t="s">
+      <c r="N19" s="292" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="2:14" ht="16" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:14" ht="15.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B20" s="412"/>
       <c r="C20" s="423" t="s">
         <v>18</v>
@@ -9796,166 +9353,166 @@
       <c r="D20" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="E20" s="127">
+      <c r="E20" s="126">
         <v>0.73699999999999999</v>
       </c>
-      <c r="F20" s="246">
+      <c r="F20" s="243">
         <v>1.08</v>
       </c>
-      <c r="G20" s="127">
+      <c r="G20" s="126">
         <v>0.249</v>
       </c>
-      <c r="H20" s="141">
+      <c r="H20" s="139">
         <v>0.4</v>
       </c>
-      <c r="I20" s="268" t="s">
+      <c r="I20" s="265" t="s">
         <v>42</v>
       </c>
-      <c r="J20" s="303"/>
-      <c r="K20" s="121">
+      <c r="J20" s="300"/>
+      <c r="K20" s="120">
         <v>0.20799999999999999</v>
       </c>
-      <c r="L20" s="163">
+      <c r="L20" s="161">
         <v>-0.54600000000000004</v>
       </c>
-      <c r="M20" s="288">
+      <c r="M20" s="285">
         <v>-0.113</v>
       </c>
-      <c r="N20" s="268" t="s">
+      <c r="N20" s="265" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:14" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="412"/>
       <c r="C21" s="421"/>
       <c r="D21" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="129">
+      <c r="E21" s="128">
         <v>0.61599999999999999</v>
       </c>
       <c r="F21" s="97">
         <v>0.97499999999999998</v>
       </c>
-      <c r="G21" s="129">
+      <c r="G21" s="128">
         <v>0.217</v>
       </c>
-      <c r="H21" s="142">
+      <c r="H21" s="140">
         <v>0.36199999999999999</v>
       </c>
-      <c r="I21" s="269" t="s">
+      <c r="I21" s="266" t="s">
         <v>43</v>
       </c>
-      <c r="J21" s="302"/>
-      <c r="K21" s="115">
+      <c r="J21" s="299"/>
+      <c r="K21" s="114">
         <v>0.21</v>
       </c>
-      <c r="L21" s="159">
+      <c r="L21" s="157">
         <v>-0.71399999999999997</v>
       </c>
-      <c r="M21" s="289">
+      <c r="M21" s="286">
         <v>-0.126</v>
       </c>
-      <c r="N21" s="269" t="s">
+      <c r="N21" s="266" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="2:14" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:14" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="413"/>
       <c r="C22" s="424"/>
-      <c r="D22" s="230" t="s">
+      <c r="D22" s="227" t="s">
         <v>9</v>
       </c>
-      <c r="E22" s="131">
+      <c r="E22" s="130">
         <v>0.52200000000000002</v>
       </c>
       <c r="F22" s="105">
         <v>1.02</v>
       </c>
-      <c r="G22" s="148">
+      <c r="G22" s="146">
         <v>0.182</v>
       </c>
-      <c r="H22" s="219">
+      <c r="H22" s="216">
         <v>0.42499999999999999</v>
       </c>
-      <c r="I22" s="270" t="s">
+      <c r="I22" s="267" t="s">
         <v>43</v>
       </c>
-      <c r="J22" s="307"/>
-      <c r="K22" s="220">
+      <c r="J22" s="304"/>
+      <c r="K22" s="217">
         <v>0.13600000000000001</v>
       </c>
-      <c r="L22" s="236">
+      <c r="L22" s="233">
         <v>-0.307</v>
       </c>
-      <c r="M22" s="395">
+      <c r="M22" s="392">
         <v>-8.5400000000000004E-2</v>
       </c>
-      <c r="N22" s="311" t="s">
+      <c r="N22" s="308" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="2:14" ht="2.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="191"/>
-      <c r="C23" s="197"/>
-      <c r="D23" s="198"/>
-      <c r="E23" s="198"/>
-      <c r="F23" s="198"/>
-      <c r="G23" s="198"/>
-      <c r="H23" s="198"/>
-      <c r="I23" s="274"/>
-      <c r="J23" s="262"/>
-      <c r="K23" s="198"/>
-      <c r="L23" s="198"/>
-      <c r="M23" s="198"/>
-      <c r="N23" s="294"/>
-    </row>
-    <row r="24" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:14" ht="2.4500000000000002" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="189"/>
+      <c r="C23" s="194"/>
+      <c r="D23" s="195"/>
+      <c r="E23" s="195"/>
+      <c r="F23" s="195"/>
+      <c r="G23" s="195"/>
+      <c r="H23" s="195"/>
+      <c r="I23" s="271"/>
+      <c r="J23" s="259"/>
+      <c r="K23" s="195"/>
+      <c r="L23" s="195"/>
+      <c r="M23" s="195"/>
+      <c r="N23" s="291"/>
+    </row>
+    <row r="24" spans="2:14" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="411" t="s">
         <v>26</v>
       </c>
       <c r="C24" s="420" t="s">
         <v>2</v>
       </c>
-      <c r="D24" s="238" t="s">
+      <c r="D24" s="235" t="s">
         <v>16</v>
       </c>
-      <c r="E24" s="225">
+      <c r="E24" s="222">
         <v>0.72099999999999997</v>
       </c>
-      <c r="F24" s="245">
+      <c r="F24" s="242">
         <v>1.02</v>
       </c>
       <c r="G24" s="87">
         <v>0.247</v>
       </c>
-      <c r="H24" s="244">
+      <c r="H24" s="241">
         <v>0.4</v>
       </c>
-      <c r="I24" s="264" t="s">
+      <c r="I24" s="261" t="s">
         <v>48</v>
       </c>
-      <c r="J24" s="305"/>
-      <c r="K24" s="216">
+      <c r="J24" s="302"/>
+      <c r="K24" s="213">
         <v>0.19400000000000001</v>
       </c>
-      <c r="L24" s="216">
+      <c r="L24" s="213">
         <v>2.8500000000000001E-2</v>
       </c>
-      <c r="M24" s="244">
+      <c r="M24" s="241">
         <v>-0.11700000000000001</v>
       </c>
-      <c r="N24" s="269" t="s">
+      <c r="N24" s="266" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:14" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="412"/>
       <c r="C25" s="421"/>
       <c r="D25" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="E25" s="129">
+      <c r="E25" s="128">
         <v>0.6</v>
       </c>
       <c r="F25" s="98">
@@ -9964,33 +9521,33 @@
       <c r="G25" s="89">
         <v>0.21099999999999999</v>
       </c>
-      <c r="H25" s="134">
+      <c r="H25" s="133">
         <v>0.36199999999999999</v>
       </c>
-      <c r="I25" s="266" t="s">
+      <c r="I25" s="263" t="s">
         <v>43</v>
       </c>
-      <c r="J25" s="300"/>
+      <c r="J25" s="297"/>
       <c r="K25" s="102">
         <v>0.21199999999999999</v>
       </c>
       <c r="L25" s="100">
         <v>-1.8599999999999998E-2</v>
       </c>
-      <c r="M25" s="134">
+      <c r="M25" s="133">
         <v>-0.13400000000000001</v>
       </c>
-      <c r="N25" s="269" t="s">
+      <c r="N25" s="266" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:14" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="412"/>
       <c r="C26" s="421"/>
       <c r="D26" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="E26" s="129">
+      <c r="E26" s="128">
         <v>0.61699999999999999</v>
       </c>
       <c r="F26" s="103">
@@ -9999,33 +9556,33 @@
       <c r="G26" s="101">
         <v>0.21</v>
       </c>
-      <c r="H26" s="137">
+      <c r="H26" s="136">
         <v>0.438</v>
       </c>
-      <c r="I26" s="271" t="s">
+      <c r="I26" s="268" t="s">
         <v>43</v>
       </c>
-      <c r="J26" s="308"/>
-      <c r="K26" s="394">
+      <c r="J26" s="305"/>
+      <c r="K26" s="391">
         <v>9.0399999999999994E-2</v>
       </c>
       <c r="L26" s="104">
         <v>-3.6700000000000003E-2</v>
       </c>
-      <c r="M26" s="232">
+      <c r="M26" s="229">
         <v>-0.11899999999999999</v>
       </c>
-      <c r="N26" s="311" t="s">
+      <c r="N26" s="308" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="2:14" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:14" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="412"/>
       <c r="C27" s="422"/>
       <c r="D27" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="E27" s="131">
+      <c r="E27" s="130">
         <v>0.443</v>
       </c>
       <c r="F27" s="108">
@@ -10034,27 +9591,27 @@
       <c r="G27" s="107">
         <v>0.16200000000000001</v>
       </c>
-      <c r="H27" s="138">
+      <c r="H27" s="137">
         <v>0.4</v>
       </c>
-      <c r="I27" s="272" t="s">
+      <c r="I27" s="269" t="s">
         <v>43</v>
       </c>
-      <c r="J27" s="309"/>
-      <c r="K27" s="171">
+      <c r="J27" s="306"/>
+      <c r="K27" s="169">
         <v>9.5299999999999996E-2</v>
       </c>
       <c r="L27" s="108">
         <v>-0.22500000000000001</v>
       </c>
-      <c r="M27" s="393">
+      <c r="M27" s="390">
         <v>-0.10299999999999999</v>
       </c>
-      <c r="N27" s="295" t="s">
+      <c r="N27" s="292" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="2:14" ht="16" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:14" ht="15.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B28" s="412"/>
       <c r="C28" s="423" t="s">
         <v>3</v>
@@ -10062,7 +9619,7 @@
       <c r="D28" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="E28" s="125">
+      <c r="E28" s="124">
         <v>0.65900000000000003</v>
       </c>
       <c r="F28" s="110">
@@ -10071,33 +9628,33 @@
       <c r="G28" s="109">
         <v>0.23200000000000001</v>
       </c>
-      <c r="H28" s="249">
+      <c r="H28" s="246">
         <v>0.45</v>
       </c>
-      <c r="I28" s="273" t="s">
+      <c r="I28" s="270" t="s">
         <v>42</v>
       </c>
-      <c r="J28" s="299"/>
+      <c r="J28" s="296"/>
       <c r="K28" s="96">
         <v>0.159</v>
       </c>
-      <c r="L28" s="387">
+      <c r="L28" s="384">
         <v>6.94E-3</v>
       </c>
-      <c r="M28" s="139">
+      <c r="M28" s="138">
         <v>-0.13100000000000001</v>
       </c>
-      <c r="N28" s="313" t="s">
+      <c r="N28" s="310" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:14" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="412"/>
       <c r="C29" s="421"/>
       <c r="D29" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="E29" s="122">
+      <c r="E29" s="121">
         <v>0.48699999999999999</v>
       </c>
       <c r="F29" s="96">
@@ -10106,62 +9663,62 @@
       <c r="G29" s="95">
         <v>0.17599999999999999</v>
       </c>
-      <c r="H29" s="135">
+      <c r="H29" s="134">
         <v>0.33800000000000002</v>
       </c>
-      <c r="I29" s="273" t="s">
+      <c r="I29" s="270" t="s">
         <v>43</v>
       </c>
-      <c r="J29" s="299"/>
-      <c r="K29" s="169">
+      <c r="J29" s="296"/>
+      <c r="K29" s="167">
         <v>0.11899999999999999</v>
       </c>
       <c r="L29" s="94">
         <v>-0.44400000000000001</v>
       </c>
-      <c r="M29" s="290">
+      <c r="M29" s="287">
         <v>-0.14499999999999999</v>
       </c>
-      <c r="N29" s="269" t="s">
+      <c r="N29" s="266" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="2:14" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:14" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="412"/>
       <c r="C30" s="422"/>
       <c r="D30" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="E30" s="390">
+      <c r="E30" s="387">
         <v>0.33800000000000002</v>
       </c>
       <c r="F30" s="108">
         <v>0.82499999999999996</v>
       </c>
-      <c r="G30" s="389">
+      <c r="G30" s="386">
         <v>0.126</v>
       </c>
-      <c r="H30" s="388">
+      <c r="H30" s="385">
         <v>0.3</v>
       </c>
-      <c r="I30" s="275" t="s">
+      <c r="I30" s="272" t="s">
         <v>44</v>
       </c>
-      <c r="J30" s="309"/>
-      <c r="K30" s="171">
+      <c r="J30" s="306"/>
+      <c r="K30" s="169">
         <v>0.109</v>
       </c>
       <c r="L30" s="108">
         <v>-0.23699999999999999</v>
       </c>
-      <c r="M30" s="253">
+      <c r="M30" s="250">
         <v>-0.14000000000000001</v>
       </c>
-      <c r="N30" s="267" t="s">
+      <c r="N30" s="264" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="2:14" ht="16" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:14" ht="15.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B31" s="412"/>
       <c r="C31" s="423" t="s">
         <v>18</v>
@@ -10169,77 +9726,72 @@
       <c r="D31" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="E31" s="127">
+      <c r="E31" s="126">
         <v>0.69199999999999995</v>
       </c>
-      <c r="F31" s="248">
+      <c r="F31" s="245">
         <v>1.06</v>
       </c>
-      <c r="G31" s="120">
+      <c r="G31" s="119">
         <v>0.24099999999999999</v>
       </c>
-      <c r="H31" s="141">
+      <c r="H31" s="139">
         <v>0.42499999999999999</v>
       </c>
-      <c r="I31" s="268" t="s">
+      <c r="I31" s="265" t="s">
         <v>42</v>
       </c>
-      <c r="J31" s="303"/>
-      <c r="K31" s="216">
+      <c r="J31" s="300"/>
+      <c r="K31" s="213">
         <v>0.17100000000000001</v>
       </c>
-      <c r="L31" s="216">
+      <c r="L31" s="213">
         <v>-0.36099999999999999</v>
       </c>
-      <c r="M31" s="244">
+      <c r="M31" s="241">
         <v>-0.12</v>
       </c>
-      <c r="N31" s="268" t="s">
+      <c r="N31" s="265" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="2:14" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:14" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="413"/>
       <c r="C32" s="424"/>
-      <c r="D32" s="217" t="s">
+      <c r="D32" s="214" t="s">
         <v>7</v>
       </c>
-      <c r="E32" s="148">
+      <c r="E32" s="146">
         <v>0.36499999999999999</v>
       </c>
-      <c r="F32" s="372">
+      <c r="F32" s="369">
         <v>0.73299999999999998</v>
       </c>
-      <c r="G32" s="218">
+      <c r="G32" s="215">
         <v>0.13400000000000001</v>
       </c>
-      <c r="H32" s="392">
+      <c r="H32" s="389">
         <v>0.3</v>
       </c>
-      <c r="I32" s="270" t="s">
+      <c r="I32" s="267" t="s">
         <v>49</v>
       </c>
-      <c r="J32" s="307"/>
-      <c r="K32" s="263">
+      <c r="J32" s="304"/>
+      <c r="K32" s="260">
         <v>0.13800000000000001</v>
       </c>
-      <c r="L32" s="255">
+      <c r="L32" s="252">
         <v>-0.22</v>
       </c>
-      <c r="M32" s="291">
+      <c r="M32" s="288">
         <v>-0.16200000000000001</v>
       </c>
-      <c r="N32" s="270" t="s">
+      <c r="N32" s="267" t="s">
         <v>52</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="B15:B22"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="C20:C22"/>
     <mergeCell ref="B24:B32"/>
     <mergeCell ref="C24:C27"/>
     <mergeCell ref="C28:C30"/>
@@ -10252,6 +9804,11 @@
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="G3:H3"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="B15:B22"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="C20:C22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10266,25 +9823,25 @@
       <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.7265625" customWidth="1"/>
-    <col min="2" max="2" width="20.453125" customWidth="1"/>
-    <col min="3" max="3" width="22.26953125" customWidth="1"/>
-    <col min="4" max="4" width="15.7265625" customWidth="1"/>
-    <col min="5" max="5" width="13.7265625" customWidth="1"/>
-    <col min="7" max="7" width="20.54296875" customWidth="1"/>
-    <col min="8" max="8" width="19.7265625" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="7" max="7" width="20.5703125" customWidth="1"/>
+    <col min="8" max="8" width="19.7109375" customWidth="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
     <col min="10" max="10" width="12" customWidth="1"/>
     <col min="12" max="12" width="20" customWidth="1"/>
-    <col min="13" max="13" width="21.453125" customWidth="1"/>
-    <col min="14" max="14" width="10.81640625" customWidth="1"/>
-    <col min="15" max="15" width="15.453125" customWidth="1"/>
+    <col min="13" max="13" width="21.42578125" customWidth="1"/>
+    <col min="14" max="14" width="10.85546875" customWidth="1"/>
+    <col min="15" max="15" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:15" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:15" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="445" t="s">
         <v>5</v>
       </c>
@@ -10312,7 +9869,7 @@
       </c>
       <c r="O2" s="448"/>
     </row>
-    <row r="3" spans="2:15" ht="19" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="7" t="s">
         <v>0</v>
       </c>
@@ -10350,7 +9907,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:15" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B4" s="8" t="s">
         <v>1</v>
       </c>
@@ -10376,7 +9933,7 @@
       <c r="N4" s="68"/>
       <c r="O4" s="68"/>
     </row>
-    <row r="5" spans="2:15" ht="19" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
         <v>1</v>
       </c>
@@ -10402,7 +9959,7 @@
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
     </row>
-    <row r="6" spans="2:15" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B6" s="8" t="s">
         <v>1</v>
       </c>
@@ -10440,7 +9997,7 @@
         <v>1.125</v>
       </c>
     </row>
-    <row r="7" spans="2:15" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B7" s="9" t="s">
         <v>1</v>
       </c>
@@ -10478,7 +10035,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="8" spans="2:15" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B8" s="9" t="s">
         <v>1</v>
       </c>
@@ -10516,7 +10073,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="9" spans="2:15" ht="19" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="59" t="s">
         <v>1</v>
       </c>
@@ -10554,7 +10111,7 @@
         <v>0.92500000000000004</v>
       </c>
     </row>
-    <row r="10" spans="2:15" ht="19" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:15" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>2</v>
       </c>
@@ -10580,7 +10137,7 @@
       <c r="N10" s="73"/>
       <c r="O10" s="74"/>
     </row>
-    <row r="11" spans="2:15" ht="19" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="8" t="s">
         <v>2</v>
       </c>
@@ -10606,7 +10163,7 @@
       <c r="N11" s="73"/>
       <c r="O11" s="74"/>
     </row>
-    <row r="12" spans="2:15" ht="19" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:15" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>2</v>
       </c>
@@ -10644,7 +10201,7 @@
         <v>1.175</v>
       </c>
     </row>
-    <row r="13" spans="2:15" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B13" s="9" t="s">
         <v>2</v>
       </c>
@@ -10682,7 +10239,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="14" spans="2:15" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B14" s="9" t="s">
         <v>2</v>
       </c>
@@ -10720,7 +10277,7 @@
         <v>1.075</v>
       </c>
     </row>
-    <row r="15" spans="2:15" ht="19" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="59" t="s">
         <v>2</v>
       </c>
@@ -10758,7 +10315,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="16" spans="2:15" ht="19" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:15" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>3</v>
       </c>
@@ -10784,7 +10341,7 @@
       <c r="N16" s="68"/>
       <c r="O16" s="68"/>
     </row>
-    <row r="17" spans="2:15" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B17" s="8" t="s">
         <v>3</v>
       </c>
@@ -10810,7 +10367,7 @@
       <c r="N17" s="5"/>
       <c r="O17" s="5"/>
     </row>
-    <row r="18" spans="2:15" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
         <v>3</v>
       </c>
@@ -10848,7 +10405,7 @@
         <v>0.92500000000000004</v>
       </c>
     </row>
-    <row r="19" spans="2:15" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B19" s="9" t="s">
         <v>3</v>
       </c>
@@ -10886,7 +10443,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="20" spans="2:15" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B20" s="9" t="s">
         <v>3</v>
       </c>
@@ -10924,7 +10481,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="21" spans="2:15" ht="19" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="10" t="s">
         <v>3</v>
       </c>
@@ -10962,8 +10519,8 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="23" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="24" spans="2:15" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="2:15" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="445" t="s">
         <v>5</v>
       </c>
@@ -10991,7 +10548,7 @@
       </c>
       <c r="O24" s="444"/>
     </row>
-    <row r="25" spans="2:15" ht="19" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="25" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="7" t="s">
         <v>0</v>
       </c>
@@ -11029,7 +10586,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="2:15" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B26" s="57" t="s">
         <v>1</v>
       </c>
@@ -11055,7 +10612,7 @@
       <c r="N26" s="75"/>
       <c r="O26" s="76"/>
     </row>
-    <row r="27" spans="2:15" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B27" s="9" t="s">
         <v>1</v>
       </c>
@@ -11081,7 +10638,7 @@
       <c r="N27" s="5"/>
       <c r="O27" s="69"/>
     </row>
-    <row r="28" spans="2:15" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B28" s="8" t="s">
         <v>1</v>
       </c>
@@ -11119,7 +10676,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="29" spans="2:15" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B29" s="9" t="s">
         <v>1</v>
       </c>
@@ -11157,7 +10714,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="30" spans="2:15" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B30" s="9" t="s">
         <v>1</v>
       </c>
@@ -11195,7 +10752,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="31" spans="2:15" ht="19" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="31" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B31" s="59" t="s">
         <v>1</v>
       </c>
@@ -11233,7 +10790,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="32" spans="2:15" ht="19" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:15" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B32" s="8" t="s">
         <v>2</v>
       </c>
@@ -11259,7 +10816,7 @@
       <c r="N32" s="68"/>
       <c r="O32" s="68"/>
     </row>
-    <row r="33" spans="2:15" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B33" s="9" t="s">
         <v>2</v>
       </c>
@@ -11285,7 +10842,7 @@
       <c r="N33" s="5"/>
       <c r="O33" s="5"/>
     </row>
-    <row r="34" spans="2:15" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B34" s="8" t="s">
         <v>2</v>
       </c>
@@ -11323,7 +10880,7 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="35" spans="2:15" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B35" s="9" t="s">
         <v>2</v>
       </c>
@@ -11361,7 +10918,7 @@
         <v>0.42499999999999999</v>
       </c>
     </row>
-    <row r="36" spans="2:15" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B36" s="9" t="s">
         <v>2</v>
       </c>
@@ -11399,7 +10956,7 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="37" spans="2:15" ht="19" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="37" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="59" t="s">
         <v>2</v>
       </c>
@@ -11437,7 +10994,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="38" spans="2:15" ht="19" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:15" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B38" s="8" t="s">
         <v>3</v>
       </c>
@@ -11463,7 +11020,7 @@
       <c r="N38" s="68"/>
       <c r="O38" s="68"/>
     </row>
-    <row r="39" spans="2:15" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B39" s="8" t="s">
         <v>3</v>
       </c>
@@ -11489,7 +11046,7 @@
       <c r="N39" s="5"/>
       <c r="O39" s="5"/>
     </row>
-    <row r="40" spans="2:15" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B40" s="8" t="s">
         <v>3</v>
       </c>
@@ -11527,7 +11084,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="41" spans="2:15" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B41" s="9" t="s">
         <v>3</v>
       </c>
@@ -11565,7 +11122,7 @@
         <v>0.32500000000000001</v>
       </c>
     </row>
-    <row r="42" spans="2:15" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B42" s="9" t="s">
         <v>3</v>
       </c>
@@ -11603,7 +11160,7 @@
         <v>0.42499999999999999</v>
       </c>
     </row>
-    <row r="43" spans="2:15" ht="19" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="43" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B43" s="10" t="s">
         <v>3</v>
       </c>

--- a/tables.xlsx
+++ b/tables.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdolden\Desktop\Ch3_floweringrush\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thomp\Desktop\Ch3_floweringrush\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{695A0EB2-A241-485C-BEAC-8453E9F4C3E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23F40433-E5A7-48D0-9A29-BFC2C752C741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="300" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{94130567-C790-4197-BF09-72317C0E58C5}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{94130567-C790-4197-BF09-72317C0E58C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Space1" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="53">
   <si>
     <t>Location</t>
   </si>
@@ -1551,7 +1551,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="436">
+  <cellXfs count="432">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2522,102 +2522,6 @@
     <xf numFmtId="164" fontId="10" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="7" fillId="4" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2683,34 +2587,26 @@
     <xf numFmtId="164" fontId="10" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="4" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2727,12 +2623,6 @@
     <xf numFmtId="164" fontId="10" fillId="12" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2747,6 +2637,108 @@
     </xf>
     <xf numFmtId="164" fontId="7" fillId="4" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3091,58 +3083,58 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A735158-88E3-4592-A032-033FAF873106}">
   <dimension ref="B1:N92"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="50" zoomScalePageLayoutView="40" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:L60"/>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="50" zoomScalePageLayoutView="40" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="1" max="1" width="17.54296875" customWidth="1"/>
+    <col min="2" max="2" width="11.26953125" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" customWidth="1"/>
-    <col min="9" max="9" width="0.42578125" style="286" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" customWidth="1"/>
-    <col min="11" max="11" width="12.85546875" customWidth="1"/>
-    <col min="12" max="12" width="11.85546875" customWidth="1"/>
-    <col min="13" max="13" width="12.5703125" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" customWidth="1"/>
+    <col min="5" max="5" width="11.26953125" customWidth="1"/>
+    <col min="6" max="6" width="10.453125" customWidth="1"/>
+    <col min="7" max="7" width="11.54296875" customWidth="1"/>
+    <col min="8" max="8" width="12.54296875" customWidth="1"/>
+    <col min="9" max="9" width="0.453125" style="286" customWidth="1"/>
+    <col min="10" max="10" width="12.54296875" customWidth="1"/>
+    <col min="11" max="11" width="12.81640625" customWidth="1"/>
+    <col min="12" max="12" width="11.81640625" customWidth="1"/>
+    <col min="13" max="13" width="12.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="I1"/>
     </row>
-    <row r="2" spans="2:14" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E2" s="361" t="s">
+    <row r="2" spans="2:14" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E2" s="430" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="362"/>
-      <c r="G2" s="362"/>
-      <c r="H2" s="363"/>
+      <c r="F2" s="431"/>
+      <c r="G2" s="431"/>
+      <c r="H2" s="419"/>
       <c r="I2" s="287"/>
-      <c r="J2" s="375" t="s">
+      <c r="J2" s="405" t="s">
         <v>52</v>
       </c>
-      <c r="K2" s="362"/>
-      <c r="L2" s="363"/>
-    </row>
-    <row r="3" spans="2:14" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="370" t="s">
+      <c r="K2" s="403"/>
+      <c r="L2" s="404"/>
+    </row>
+    <row r="3" spans="2:14" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="412" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="371"/>
-      <c r="D3" s="372"/>
-      <c r="E3" s="367" t="s">
+      <c r="C3" s="413"/>
+      <c r="D3" s="414"/>
+      <c r="E3" s="409" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="368"/>
-      <c r="G3" s="369" t="s">
+      <c r="F3" s="410"/>
+      <c r="G3" s="411" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="368"/>
+      <c r="H3" s="410"/>
       <c r="I3" s="288"/>
       <c r="J3" s="214" t="s">
         <v>31</v>
@@ -3155,7 +3147,7 @@
       </c>
       <c r="M3" s="168"/>
     </row>
-    <row r="4" spans="2:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B4" s="205" t="s">
         <v>22</v>
       </c>
@@ -3189,11 +3181,11 @@
       </c>
       <c r="M4" s="77"/>
     </row>
-    <row r="5" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="364" t="s">
+    <row r="5" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B5" s="406" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="373" t="s">
+      <c r="C5" s="415" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="145" t="s">
@@ -3208,7 +3200,7 @@
       <c r="G5" s="108">
         <v>0.27500000000000002</v>
       </c>
-      <c r="H5" s="391">
+      <c r="H5" s="359">
         <v>0.57499999999999996</v>
       </c>
       <c r="I5" s="290"/>
@@ -3223,9 +3215,9 @@
       </c>
       <c r="M5" s="79"/>
     </row>
-    <row r="6" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="365"/>
-      <c r="C6" s="359"/>
+    <row r="6" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="407"/>
+      <c r="C6" s="399"/>
       <c r="D6" s="144" t="s">
         <v>17</v>
       </c>
@@ -3253,9 +3245,9 @@
       </c>
       <c r="M6" s="79"/>
     </row>
-    <row r="7" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="365"/>
-      <c r="C7" s="359"/>
+    <row r="7" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="407"/>
+      <c r="C7" s="399"/>
       <c r="D7" s="145" t="s">
         <v>6</v>
       </c>
@@ -3283,9 +3275,9 @@
       </c>
       <c r="M7" s="79"/>
     </row>
-    <row r="8" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="365"/>
-      <c r="C8" s="359"/>
+    <row r="8" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="407"/>
+      <c r="C8" s="399"/>
       <c r="D8" s="144" t="s">
         <v>7</v>
       </c>
@@ -3313,9 +3305,9 @@
       </c>
       <c r="M8" s="79"/>
     </row>
-    <row r="9" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="365"/>
-      <c r="C9" s="359"/>
+    <row r="9" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="407"/>
+      <c r="C9" s="399"/>
       <c r="D9" s="144" t="s">
         <v>8</v>
       </c>
@@ -3343,9 +3335,9 @@
       </c>
       <c r="M9" s="78"/>
     </row>
-    <row r="10" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="365"/>
-      <c r="C10" s="374"/>
+    <row r="10" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B10" s="407"/>
+      <c r="C10" s="400"/>
       <c r="D10" s="146" t="s">
         <v>9</v>
       </c>
@@ -3373,9 +3365,9 @@
       </c>
       <c r="M10" s="79"/>
     </row>
-    <row r="11" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="365"/>
-      <c r="C11" s="358" t="s">
+    <row r="11" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="B11" s="407"/>
+      <c r="C11" s="398" t="s">
         <v>3</v>
       </c>
       <c r="D11" s="145" t="s">
@@ -3397,7 +3389,7 @@
       <c r="J11" s="157">
         <v>0.19900000000000001</v>
       </c>
-      <c r="K11" s="406">
+      <c r="K11" s="374">
         <v>1.89E-2</v>
       </c>
       <c r="L11" s="158">
@@ -3406,9 +3398,9 @@
       <c r="M11" s="81"/>
       <c r="N11" s="166"/>
     </row>
-    <row r="12" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="365"/>
-      <c r="C12" s="359"/>
+    <row r="12" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B12" s="407"/>
+      <c r="C12" s="399"/>
       <c r="D12" s="144" t="s">
         <v>17</v>
       </c>
@@ -3436,9 +3428,9 @@
       </c>
       <c r="M12" s="81"/>
     </row>
-    <row r="13" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="365"/>
-      <c r="C13" s="359"/>
+    <row r="13" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="407"/>
+      <c r="C13" s="399"/>
       <c r="D13" s="145" t="s">
         <v>6</v>
       </c>
@@ -3467,9 +3459,9 @@
       <c r="M13" s="80"/>
       <c r="N13" s="166"/>
     </row>
-    <row r="14" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="365"/>
-      <c r="C14" s="359"/>
+    <row r="14" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B14" s="407"/>
+      <c r="C14" s="399"/>
       <c r="D14" s="144" t="s">
         <v>7</v>
       </c>
@@ -3479,7 +3471,7 @@
       <c r="F14" s="89">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G14" s="396">
+      <c r="G14" s="364">
         <v>0.20899999999999999</v>
       </c>
       <c r="H14" s="110">
@@ -3498,9 +3490,9 @@
       <c r="M14" s="79"/>
       <c r="N14" s="166"/>
     </row>
-    <row r="15" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="365"/>
-      <c r="C15" s="359"/>
+    <row r="15" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B15" s="407"/>
+      <c r="C15" s="399"/>
       <c r="D15" s="144" t="s">
         <v>8</v>
       </c>
@@ -3517,7 +3509,7 @@
         <v>0.45</v>
       </c>
       <c r="I15" s="294"/>
-      <c r="J15" s="405">
+      <c r="J15" s="373">
         <v>0.16700000000000001</v>
       </c>
       <c r="K15" s="155">
@@ -3528,9 +3520,9 @@
       </c>
       <c r="M15" s="79"/>
     </row>
-    <row r="16" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="365"/>
-      <c r="C16" s="374"/>
+    <row r="16" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B16" s="407"/>
+      <c r="C16" s="400"/>
       <c r="D16" s="146" t="s">
         <v>9</v>
       </c>
@@ -3553,14 +3545,14 @@
       <c r="K16" s="156">
         <v>-0.109</v>
       </c>
-      <c r="L16" s="409">
+      <c r="L16" s="377">
         <v>1.7600000000000001E-3</v>
       </c>
       <c r="M16" s="79"/>
     </row>
-    <row r="17" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="365"/>
-      <c r="C17" s="358" t="s">
+    <row r="17" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="B17" s="407"/>
+      <c r="C17" s="398" t="s">
         <v>18</v>
       </c>
       <c r="D17" s="145" t="s">
@@ -3590,9 +3582,9 @@
       </c>
       <c r="M17" s="169"/>
     </row>
-    <row r="18" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="365"/>
-      <c r="C18" s="359"/>
+    <row r="18" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B18" s="407"/>
+      <c r="C18" s="399"/>
       <c r="D18" s="144" t="s">
         <v>17</v>
       </c>
@@ -3620,9 +3612,9 @@
       </c>
       <c r="M18" s="79"/>
     </row>
-    <row r="19" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="365"/>
-      <c r="C19" s="359"/>
+    <row r="19" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="407"/>
+      <c r="C19" s="399"/>
       <c r="D19" s="145" t="s">
         <v>6</v>
       </c>
@@ -3650,9 +3642,9 @@
       </c>
       <c r="M19" s="79"/>
     </row>
-    <row r="20" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="365"/>
-      <c r="C20" s="359"/>
+    <row r="20" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="407"/>
+      <c r="C20" s="399"/>
       <c r="D20" s="144" t="s">
         <v>7</v>
       </c>
@@ -3680,9 +3672,9 @@
       </c>
       <c r="M20" s="79"/>
     </row>
-    <row r="21" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="365"/>
-      <c r="C21" s="359"/>
+    <row r="21" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="407"/>
+      <c r="C21" s="399"/>
       <c r="D21" s="144" t="s">
         <v>8</v>
       </c>
@@ -3710,9 +3702,9 @@
       </c>
       <c r="M21" s="79"/>
     </row>
-    <row r="22" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="366"/>
-      <c r="C22" s="360"/>
+    <row r="22" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B22" s="408"/>
+      <c r="C22" s="401"/>
       <c r="D22" s="174" t="s">
         <v>9</v>
       </c>
@@ -3740,8 +3732,8 @@
       </c>
       <c r="M22" s="79"/>
     </row>
-    <row r="23" spans="2:14" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="393"/>
+    <row r="23" spans="2:14" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B23" s="361"/>
       <c r="C23" s="221"/>
       <c r="D23" s="194"/>
       <c r="E23" s="194"/>
@@ -3753,11 +3745,11 @@
       <c r="K23" s="194"/>
       <c r="L23" s="198"/>
     </row>
-    <row r="24" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="364" t="s">
+    <row r="24" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="406" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="373" t="s">
+      <c r="C24" s="415" t="s">
         <v>2</v>
       </c>
       <c r="D24" s="345" t="s">
@@ -3786,9 +3778,9 @@
         <v>-0.111</v>
       </c>
     </row>
-    <row r="25" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="365"/>
-      <c r="C25" s="359"/>
+    <row r="25" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="407"/>
+      <c r="C25" s="399"/>
       <c r="D25" s="339" t="s">
         <v>17</v>
       </c>
@@ -3815,9 +3807,9 @@
         <v>-0.111</v>
       </c>
     </row>
-    <row r="26" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="365"/>
-      <c r="C26" s="359"/>
+    <row r="26" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="407"/>
+      <c r="C26" s="399"/>
       <c r="D26" s="339" t="s">
         <v>6</v>
       </c>
@@ -3830,7 +3822,7 @@
       <c r="G26" s="278">
         <v>0.23400000000000001</v>
       </c>
-      <c r="H26" s="401">
+      <c r="H26" s="369">
         <v>0.5</v>
       </c>
       <c r="I26" s="298"/>
@@ -3844,9 +3836,9 @@
         <v>-0.115</v>
       </c>
     </row>
-    <row r="27" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="365"/>
-      <c r="C27" s="359"/>
+    <row r="27" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="407"/>
+      <c r="C27" s="399"/>
       <c r="D27" s="145" t="s">
         <v>7</v>
       </c>
@@ -3873,9 +3865,9 @@
         <v>-0.121</v>
       </c>
     </row>
-    <row r="28" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="365"/>
-      <c r="C28" s="359"/>
+    <row r="28" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="407"/>
+      <c r="C28" s="399"/>
       <c r="D28" s="144" t="s">
         <v>8</v>
       </c>
@@ -3895,16 +3887,16 @@
       <c r="J28" s="155">
         <v>0.161</v>
       </c>
-      <c r="K28" s="405">
+      <c r="K28" s="373">
         <v>8.8099999999999998E-2</v>
       </c>
       <c r="L28" s="155">
         <v>-0.12</v>
       </c>
     </row>
-    <row r="29" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="365"/>
-      <c r="C29" s="374"/>
+    <row r="29" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B29" s="407"/>
+      <c r="C29" s="400"/>
       <c r="D29" s="146" t="s">
         <v>9</v>
       </c>
@@ -3927,13 +3919,13 @@
       <c r="K29" s="201">
         <v>-0.34100000000000003</v>
       </c>
-      <c r="L29" s="410">
+      <c r="L29" s="378">
         <v>-0.107</v>
       </c>
     </row>
-    <row r="30" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="365"/>
-      <c r="C30" s="358" t="s">
+    <row r="30" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="407"/>
+      <c r="C30" s="398" t="s">
         <v>3</v>
       </c>
       <c r="D30" s="145" t="s">
@@ -3942,7 +3934,7 @@
       <c r="E30" s="120">
         <v>0.66400000000000003</v>
       </c>
-      <c r="F30" s="391">
+      <c r="F30" s="359">
         <v>1.25</v>
       </c>
       <c r="G30" s="121">
@@ -3964,9 +3956,9 @@
       <c r="M30" s="166"/>
       <c r="N30" s="166"/>
     </row>
-    <row r="31" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="365"/>
-      <c r="C31" s="359"/>
+    <row r="31" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="407"/>
+      <c r="C31" s="399"/>
       <c r="D31" s="144" t="s">
         <v>17</v>
       </c>
@@ -3993,9 +3985,9 @@
         <v>-0.16600000000000001</v>
       </c>
     </row>
-    <row r="32" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="365"/>
-      <c r="C32" s="359"/>
+    <row r="32" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="407"/>
+      <c r="C32" s="399"/>
       <c r="D32" s="145" t="s">
         <v>6</v>
       </c>
@@ -4023,22 +4015,22 @@
       </c>
       <c r="M32" s="166"/>
     </row>
-    <row r="33" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="365"/>
-      <c r="C33" s="359"/>
+    <row r="33" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="407"/>
+      <c r="C33" s="399"/>
       <c r="D33" s="144" t="s">
         <v>7</v>
       </c>
-      <c r="E33" s="390">
+      <c r="E33" s="358">
         <v>0.41199999999999998</v>
       </c>
-      <c r="F33" s="392">
+      <c r="F33" s="360">
         <v>0.95</v>
       </c>
-      <c r="G33" s="399">
+      <c r="G33" s="367">
         <v>0.14699999999999999</v>
       </c>
-      <c r="H33" s="400">
+      <c r="H33" s="368">
         <v>0.35</v>
       </c>
       <c r="I33" s="298"/>
@@ -4053,9 +4045,9 @@
       </c>
       <c r="N33" s="166"/>
     </row>
-    <row r="34" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="365"/>
-      <c r="C34" s="359"/>
+    <row r="34" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="407"/>
+      <c r="C34" s="399"/>
       <c r="D34" s="144" t="s">
         <v>8</v>
       </c>
@@ -4072,7 +4064,7 @@
         <v>0.42499999999999999</v>
       </c>
       <c r="I34" s="299"/>
-      <c r="J34" s="405">
+      <c r="J34" s="373">
         <v>0.113</v>
       </c>
       <c r="K34" s="160">
@@ -4082,9 +4074,9 @@
         <v>-0.13600000000000001</v>
       </c>
     </row>
-    <row r="35" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="365"/>
-      <c r="C35" s="374"/>
+    <row r="35" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B35" s="407"/>
+      <c r="C35" s="400"/>
       <c r="D35" s="146" t="s">
         <v>9</v>
       </c>
@@ -4111,15 +4103,15 @@
         <v>-0.121</v>
       </c>
     </row>
-    <row r="36" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="365"/>
-      <c r="C36" s="358" t="s">
+    <row r="36" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="407"/>
+      <c r="C36" s="398" t="s">
         <v>18</v>
       </c>
       <c r="D36" s="145" t="s">
         <v>16</v>
       </c>
-      <c r="E36" s="397">
+      <c r="E36" s="365">
         <v>0.73599999999999999</v>
       </c>
       <c r="F36" s="91">
@@ -4142,9 +4134,9 @@
         <v>-0.124</v>
       </c>
     </row>
-    <row r="37" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="365"/>
-      <c r="C37" s="359"/>
+    <row r="37" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="407"/>
+      <c r="C37" s="399"/>
       <c r="D37" s="144" t="s">
         <v>17</v>
       </c>
@@ -4171,9 +4163,9 @@
         <v>-0.13600000000000001</v>
       </c>
     </row>
-    <row r="38" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="365"/>
-      <c r="C38" s="359"/>
+    <row r="38" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="407"/>
+      <c r="C38" s="399"/>
       <c r="D38" s="145" t="s">
         <v>6</v>
       </c>
@@ -4200,9 +4192,9 @@
         <v>-0.127</v>
       </c>
     </row>
-    <row r="39" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="365"/>
-      <c r="C39" s="359"/>
+    <row r="39" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="407"/>
+      <c r="C39" s="399"/>
       <c r="D39" s="144" t="s">
         <v>7</v>
       </c>
@@ -4229,13 +4221,13 @@
         <v>-0.13400000000000001</v>
       </c>
     </row>
-    <row r="40" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="365"/>
-      <c r="C40" s="359"/>
+    <row r="40" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="407"/>
+      <c r="C40" s="399"/>
       <c r="D40" s="144" t="s">
         <v>8</v>
       </c>
-      <c r="E40" s="397">
+      <c r="E40" s="365">
         <v>0.70199999999999996</v>
       </c>
       <c r="F40" s="91">
@@ -4258,13 +4250,13 @@
         <v>-0.121</v>
       </c>
     </row>
-    <row r="41" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="366"/>
-      <c r="C41" s="360"/>
-      <c r="D41" s="394" t="s">
+    <row r="41" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B41" s="408"/>
+      <c r="C41" s="401"/>
+      <c r="D41" s="362" t="s">
         <v>9</v>
       </c>
-      <c r="E41" s="398">
+      <c r="E41" s="366">
         <v>0.55300000000000005</v>
       </c>
       <c r="F41" s="143">
@@ -4287,7 +4279,7 @@
         <v>-0.11</v>
       </c>
     </row>
-    <row r="42" spans="2:14" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:14" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B42" s="173"/>
       <c r="C42" s="178"/>
       <c r="D42" s="179"/>
@@ -4300,11 +4292,11 @@
       <c r="K42" s="179"/>
       <c r="L42" s="180"/>
     </row>
-    <row r="43" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="364" t="s">
+    <row r="43" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="406" t="s">
         <v>24</v>
       </c>
-      <c r="C43" s="373" t="s">
+      <c r="C43" s="415" t="s">
         <v>2</v>
       </c>
       <c r="D43" s="203" t="s">
@@ -4326,16 +4318,16 @@
       <c r="J43" s="152">
         <v>0.20899999999999999</v>
       </c>
-      <c r="K43" s="408">
+      <c r="K43" s="376">
         <v>-0.72899999999999998</v>
       </c>
       <c r="L43" s="87">
         <v>-0.13400000000000001</v>
       </c>
     </row>
-    <row r="44" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="365"/>
-      <c r="C44" s="359"/>
+    <row r="44" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="407"/>
+      <c r="C44" s="399"/>
       <c r="D44" s="83" t="s">
         <v>17</v>
       </c>
@@ -4362,9 +4354,9 @@
         <v>-0.154</v>
       </c>
     </row>
-    <row r="45" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="365"/>
-      <c r="C45" s="359"/>
+    <row r="45" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B45" s="407"/>
+      <c r="C45" s="399"/>
       <c r="D45" s="84" t="s">
         <v>6</v>
       </c>
@@ -4391,9 +4383,9 @@
         <v>-0.14299999999999999</v>
       </c>
     </row>
-    <row r="46" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="365"/>
-      <c r="C46" s="359"/>
+    <row r="46" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="407"/>
+      <c r="C46" s="399"/>
       <c r="D46" s="83" t="s">
         <v>7</v>
       </c>
@@ -4420,9 +4412,9 @@
         <v>-0.154</v>
       </c>
     </row>
-    <row r="47" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="365"/>
-      <c r="C47" s="359"/>
+    <row r="47" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="407"/>
+      <c r="C47" s="399"/>
       <c r="D47" s="83" t="s">
         <v>8</v>
       </c>
@@ -4435,11 +4427,11 @@
       <c r="G47" s="98">
         <v>0.20300000000000001</v>
       </c>
-      <c r="H47" s="402">
+      <c r="H47" s="370">
         <v>0.47499999999999998</v>
       </c>
       <c r="I47" s="306"/>
-      <c r="J47" s="405">
+      <c r="J47" s="373">
         <v>0.114</v>
       </c>
       <c r="K47" s="101">
@@ -4449,9 +4441,9 @@
         <v>-0.13700000000000001</v>
       </c>
     </row>
-    <row r="48" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="365"/>
-      <c r="C48" s="374"/>
+    <row r="48" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B48" s="407"/>
+      <c r="C48" s="400"/>
       <c r="D48" s="85" t="s">
         <v>9</v>
       </c>
@@ -4474,13 +4466,13 @@
       <c r="K48" s="105">
         <v>-0.22500000000000001</v>
       </c>
-      <c r="L48" s="412">
+      <c r="L48" s="380">
         <v>-0.123</v>
       </c>
     </row>
-    <row r="49" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="365"/>
-      <c r="C49" s="358" t="s">
+    <row r="49" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B49" s="407"/>
+      <c r="C49" s="398" t="s">
         <v>3</v>
       </c>
       <c r="D49" s="84" t="s">
@@ -4509,9 +4501,9 @@
         <v>-0.158</v>
       </c>
     </row>
-    <row r="50" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="365"/>
-      <c r="C50" s="359"/>
+    <row r="50" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B50" s="407"/>
+      <c r="C50" s="399"/>
       <c r="D50" s="83" t="s">
         <v>17</v>
       </c>
@@ -4538,9 +4530,9 @@
         <v>-0.17799999999999999</v>
       </c>
     </row>
-    <row r="51" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="365"/>
-      <c r="C51" s="359"/>
+    <row r="51" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B51" s="407"/>
+      <c r="C51" s="399"/>
       <c r="D51" s="84" t="s">
         <v>6</v>
       </c>
@@ -4568,19 +4560,19 @@
       </c>
       <c r="N51" s="166"/>
     </row>
-    <row r="52" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="365"/>
-      <c r="C52" s="359"/>
+    <row r="52" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B52" s="407"/>
+      <c r="C52" s="399"/>
       <c r="D52" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="E52" s="390">
+      <c r="E52" s="358">
         <v>0.27500000000000002</v>
       </c>
-      <c r="F52" s="395">
+      <c r="F52" s="363">
         <v>0.75</v>
       </c>
-      <c r="G52" s="396">
+      <c r="G52" s="364">
         <v>0.106</v>
       </c>
       <c r="H52" s="131">
@@ -4593,13 +4585,13 @@
       <c r="K52" s="110">
         <v>-0.36699999999999999</v>
       </c>
-      <c r="L52" s="411">
+      <c r="L52" s="379">
         <v>-0.20100000000000001</v>
       </c>
     </row>
-    <row r="53" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="365"/>
-      <c r="C53" s="359"/>
+    <row r="53" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B53" s="407"/>
+      <c r="C53" s="399"/>
       <c r="D53" s="83" t="s">
         <v>8</v>
       </c>
@@ -4627,9 +4619,9 @@
       </c>
       <c r="N53" s="166"/>
     </row>
-    <row r="54" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="365"/>
-      <c r="C54" s="374"/>
+    <row r="54" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B54" s="407"/>
+      <c r="C54" s="400"/>
       <c r="D54" s="85" t="s">
         <v>9</v>
       </c>
@@ -4656,9 +4648,9 @@
         <v>-0.16800000000000001</v>
       </c>
     </row>
-    <row r="55" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="365"/>
-      <c r="C55" s="358" t="s">
+    <row r="55" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B55" s="407"/>
+      <c r="C55" s="398" t="s">
         <v>18</v>
       </c>
       <c r="D55" s="84" t="s">
@@ -4687,9 +4679,9 @@
         <v>-0.14000000000000001</v>
       </c>
     </row>
-    <row r="56" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="365"/>
-      <c r="C56" s="359"/>
+    <row r="56" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B56" s="407"/>
+      <c r="C56" s="399"/>
       <c r="D56" s="83" t="s">
         <v>17</v>
       </c>
@@ -4716,9 +4708,9 @@
         <v>-0.16</v>
       </c>
     </row>
-    <row r="57" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="365"/>
-      <c r="C57" s="359"/>
+    <row r="57" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B57" s="407"/>
+      <c r="C57" s="399"/>
       <c r="D57" s="84" t="s">
         <v>6</v>
       </c>
@@ -4731,7 +4723,7 @@
       <c r="G57" s="93">
         <v>0.19</v>
       </c>
-      <c r="H57" s="403">
+      <c r="H57" s="371">
         <v>0.33800000000000002</v>
       </c>
       <c r="I57" s="299"/>
@@ -4745,9 +4737,9 @@
         <v>-0.154</v>
       </c>
     </row>
-    <row r="58" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="365"/>
-      <c r="C58" s="359"/>
+    <row r="58" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B58" s="407"/>
+      <c r="C58" s="399"/>
       <c r="D58" s="83" t="s">
         <v>7</v>
       </c>
@@ -4774,9 +4766,9 @@
         <v>-0.183</v>
       </c>
     </row>
-    <row r="59" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="365"/>
-      <c r="C59" s="359"/>
+    <row r="59" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B59" s="407"/>
+      <c r="C59" s="399"/>
       <c r="D59" s="83" t="s">
         <v>8</v>
       </c>
@@ -4789,23 +4781,23 @@
       <c r="G59" s="98">
         <v>0.20200000000000001</v>
       </c>
-      <c r="H59" s="404">
+      <c r="H59" s="372">
         <v>0.33800000000000002</v>
       </c>
       <c r="I59" s="304"/>
       <c r="J59" s="158">
         <v>0.11799999999999999</v>
       </c>
-      <c r="K59" s="407">
+      <c r="K59" s="375">
         <v>1.1599999999999999E-2</v>
       </c>
       <c r="L59" s="149">
         <v>-0.153</v>
       </c>
     </row>
-    <row r="60" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="366"/>
-      <c r="C60" s="360"/>
+    <row r="60" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B60" s="408"/>
+      <c r="C60" s="401"/>
       <c r="D60" s="185" t="s">
         <v>9</v>
       </c>
@@ -4832,104 +4824,105 @@
         <v>-0.13600000000000001</v>
       </c>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.35">
       <c r="I61"/>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.35">
       <c r="I62"/>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.35">
       <c r="I63"/>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.35">
       <c r="I64"/>
     </row>
-    <row r="65" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I65"/>
     </row>
-    <row r="66" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I66"/>
     </row>
-    <row r="67" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I67"/>
     </row>
-    <row r="68" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I68"/>
     </row>
-    <row r="69" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I69"/>
     </row>
-    <row r="70" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I70"/>
     </row>
-    <row r="71" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I71"/>
     </row>
-    <row r="72" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I72"/>
     </row>
-    <row r="73" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I73"/>
     </row>
-    <row r="74" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I74"/>
     </row>
-    <row r="75" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I75"/>
     </row>
-    <row r="76" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I76"/>
     </row>
-    <row r="77" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I77"/>
     </row>
-    <row r="78" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I78"/>
     </row>
-    <row r="79" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I79"/>
     </row>
-    <row r="80" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I80"/>
     </row>
-    <row r="81" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I81"/>
     </row>
-    <row r="82" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I82"/>
     </row>
-    <row r="83" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I83"/>
     </row>
-    <row r="84" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I84"/>
     </row>
-    <row r="85" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I85"/>
     </row>
-    <row r="86" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I86"/>
     </row>
-    <row r="87" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I87"/>
     </row>
-    <row r="88" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I88"/>
     </row>
-    <row r="89" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I89"/>
     </row>
-    <row r="90" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I90"/>
     </row>
-    <row r="91" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I91"/>
     </row>
-    <row r="92" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I92"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="C43:C48"/>
     <mergeCell ref="C49:C54"/>
     <mergeCell ref="C55:C60"/>
     <mergeCell ref="E2:H2"/>
@@ -4946,7 +4939,6 @@
     <mergeCell ref="C24:C29"/>
     <mergeCell ref="C30:C35"/>
     <mergeCell ref="C36:C41"/>
-    <mergeCell ref="C43:C48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4955,71 +4947,59 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47F3A9D0-E715-4BA0-A12D-1EC62F0BA8AA}">
-  <dimension ref="B1:N55"/>
+  <dimension ref="B1:N53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="113" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="10.140625" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="5" max="6" width="10.7109375" customWidth="1"/>
-    <col min="7" max="8" width="9.28515625" customWidth="1"/>
-    <col min="9" max="9" width="1.140625" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" style="286" customWidth="1"/>
-    <col min="11" max="11" width="13.28515625" customWidth="1"/>
-    <col min="12" max="12" width="15.28515625" customWidth="1"/>
-    <col min="13" max="14" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="10.1796875" customWidth="1"/>
+    <col min="3" max="3" width="15.7265625" customWidth="1"/>
+    <col min="4" max="4" width="13.7265625" customWidth="1"/>
+    <col min="5" max="6" width="10.7265625" customWidth="1"/>
+    <col min="7" max="8" width="9.26953125" customWidth="1"/>
+    <col min="9" max="9" width="1.1796875" customWidth="1"/>
+    <col min="10" max="10" width="15.1796875" style="286" customWidth="1"/>
+    <col min="11" max="11" width="13.26953125" customWidth="1"/>
+    <col min="12" max="12" width="15.26953125" customWidth="1"/>
+    <col min="13" max="14" width="10.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="414"/>
-      <c r="C1" s="414"/>
-      <c r="D1" s="414"/>
-      <c r="E1" s="414"/>
-      <c r="F1" s="414"/>
-      <c r="G1" s="414"/>
-      <c r="H1" s="414"/>
-      <c r="I1" s="414"/>
-      <c r="J1" s="414"/>
-      <c r="K1" s="414"/>
-      <c r="L1" s="414"/>
-      <c r="M1" s="414"/>
-      <c r="N1" s="414"/>
-    </row>
-    <row r="2" spans="2:14" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E2" s="361" t="s">
+    <row r="1" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J1"/>
+    </row>
+    <row r="2" spans="2:14" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E2" s="402" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="362"/>
-      <c r="G2" s="362"/>
-      <c r="H2" s="363"/>
+      <c r="F2" s="403"/>
+      <c r="G2" s="403"/>
+      <c r="H2" s="404"/>
       <c r="I2" s="287"/>
-      <c r="J2" s="375" t="s">
+      <c r="J2" s="405" t="s">
         <v>52</v>
       </c>
-      <c r="K2" s="362"/>
-      <c r="L2" s="363"/>
-      <c r="M2" s="415"/>
-      <c r="N2" s="415"/>
-    </row>
-    <row r="3" spans="2:14" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="370" t="s">
+      <c r="K2" s="403"/>
+      <c r="L2" s="404"/>
+      <c r="M2" s="381"/>
+      <c r="N2" s="381"/>
+    </row>
+    <row r="3" spans="2:14" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="412" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="371"/>
-      <c r="D3" s="372"/>
-      <c r="E3" s="367" t="s">
+      <c r="C3" s="413"/>
+      <c r="D3" s="414"/>
+      <c r="E3" s="409" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="368"/>
-      <c r="G3" s="369" t="s">
+      <c r="F3" s="410"/>
+      <c r="G3" s="411" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="368"/>
+      <c r="H3" s="410"/>
       <c r="I3" s="288"/>
       <c r="J3" s="214" t="s">
         <v>31</v>
@@ -5030,10 +5010,10 @@
       <c r="L3" s="215" t="s">
         <v>33</v>
       </c>
-      <c r="M3" s="416"/>
-      <c r="N3" s="417"/>
-    </row>
-    <row r="4" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M3" s="382"/>
+      <c r="N3" s="383"/>
+    </row>
+    <row r="4" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="205" t="s">
         <v>22</v>
       </c>
@@ -5065,14 +5045,14 @@
       <c r="L4" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="418"/>
-      <c r="N4" s="419"/>
-    </row>
-    <row r="5" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="364" t="s">
+      <c r="M4" s="384"/>
+      <c r="N4" s="385"/>
+    </row>
+    <row r="5" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="406" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="373" t="s">
+      <c r="C5" s="415" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="145" t="s">
@@ -5087,7 +5067,7 @@
       <c r="G5" s="108">
         <v>0.27500000000000002</v>
       </c>
-      <c r="H5" s="391">
+      <c r="H5" s="359">
         <v>0.57499999999999996</v>
       </c>
       <c r="I5" s="290"/>
@@ -5100,12 +5080,12 @@
       <c r="L5" s="94">
         <v>-0.128</v>
       </c>
-      <c r="M5" s="420"/>
-      <c r="N5" s="419"/>
-    </row>
-    <row r="6" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="365"/>
-      <c r="C6" s="359"/>
+      <c r="M5" s="132"/>
+      <c r="N5" s="385"/>
+    </row>
+    <row r="6" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="407"/>
+      <c r="C6" s="399"/>
       <c r="D6" s="144" t="s">
         <v>17</v>
       </c>
@@ -5131,12 +5111,12 @@
       <c r="L6" s="97">
         <v>-0.128</v>
       </c>
-      <c r="M6" s="420"/>
-      <c r="N6" s="419"/>
-    </row>
-    <row r="7" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="365"/>
-      <c r="C7" s="359"/>
+      <c r="M6" s="132"/>
+      <c r="N6" s="385"/>
+    </row>
+    <row r="7" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="407"/>
+      <c r="C7" s="399"/>
       <c r="D7" s="144" t="s">
         <v>7</v>
       </c>
@@ -5162,12 +5142,12 @@
       <c r="L7" s="167">
         <v>-0.13500000000000001</v>
       </c>
-      <c r="M7" s="418"/>
-      <c r="N7" s="419"/>
-    </row>
-    <row r="8" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="365"/>
-      <c r="C8" s="359"/>
+      <c r="M7" s="384"/>
+      <c r="N7" s="385"/>
+    </row>
+    <row r="8" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="407"/>
+      <c r="C8" s="399"/>
       <c r="D8" s="144" t="s">
         <v>8</v>
       </c>
@@ -5193,12 +5173,12 @@
       <c r="L8" s="163">
         <v>-0.13100000000000001</v>
       </c>
-      <c r="M8" s="420"/>
-      <c r="N8" s="421"/>
-    </row>
-    <row r="9" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="365"/>
-      <c r="C9" s="374"/>
+      <c r="M8" s="132"/>
+      <c r="N8" s="386"/>
+    </row>
+    <row r="9" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="407"/>
+      <c r="C9" s="400"/>
       <c r="D9" s="146" t="s">
         <v>9</v>
       </c>
@@ -5224,12 +5204,12 @@
       <c r="L9" s="164">
         <v>-0.114</v>
       </c>
-      <c r="M9" s="420"/>
-      <c r="N9" s="421"/>
-    </row>
-    <row r="10" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="365"/>
-      <c r="C10" s="358" t="s">
+      <c r="M9" s="132"/>
+      <c r="N9" s="386"/>
+    </row>
+    <row r="10" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="407"/>
+      <c r="C10" s="398" t="s">
         <v>3</v>
       </c>
       <c r="D10" s="145" t="s">
@@ -5251,804 +5231,742 @@
       <c r="J10" s="157">
         <v>0.19900000000000001</v>
       </c>
-      <c r="K10" s="406">
+      <c r="K10" s="374">
         <v>1.89E-2</v>
       </c>
       <c r="L10" s="158">
         <v>-1.41E-2</v>
       </c>
-      <c r="M10" s="418"/>
-      <c r="N10" s="421"/>
-    </row>
-    <row r="11" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="365"/>
-      <c r="C11" s="359"/>
+      <c r="M10" s="384"/>
+      <c r="N10" s="386"/>
+    </row>
+    <row r="11" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="407"/>
+      <c r="C11" s="399"/>
       <c r="D11" s="144" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="115">
-        <v>0.67400000000000004</v>
-      </c>
-      <c r="F11" s="107">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="G11" s="88">
-        <v>0.23200000000000001</v>
-      </c>
-      <c r="H11" s="89">
+        <v>7</v>
+      </c>
+      <c r="E11" s="355">
+        <v>0.62</v>
+      </c>
+      <c r="F11" s="89">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G11" s="364">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="H11" s="110">
         <v>0.45</v>
       </c>
-      <c r="I11" s="291"/>
-      <c r="J11" s="153">
-        <v>0.19600000000000001</v>
-      </c>
-      <c r="K11" s="153">
-        <v>0.26200000000000001</v>
+      <c r="I11" s="294"/>
+      <c r="J11" s="155">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="K11" s="155">
+        <v>2.4199999999999999E-2</v>
       </c>
       <c r="L11" s="160">
-        <v>-1.3100000000000001E-2</v>
-      </c>
-      <c r="M11" s="418"/>
-      <c r="N11" s="421"/>
-    </row>
-    <row r="12" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="365"/>
-      <c r="C12" s="359"/>
+        <v>-1.7899999999999999E-2</v>
+      </c>
+      <c r="M11" s="132"/>
+      <c r="N11" s="386"/>
+    </row>
+    <row r="12" spans="2:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="407"/>
+      <c r="C12" s="399"/>
       <c r="D12" s="144" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="355">
-        <v>0.62</v>
-      </c>
-      <c r="F12" s="89">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="G12" s="396">
-        <v>0.20899999999999999</v>
+        <v>8</v>
+      </c>
+      <c r="E12" s="125">
+        <v>0.77200000000000002</v>
+      </c>
+      <c r="F12" s="96">
+        <v>1.25</v>
+      </c>
+      <c r="G12" s="98">
+        <v>0.254</v>
       </c>
       <c r="H12" s="110">
         <v>0.45</v>
       </c>
       <c r="I12" s="294"/>
-      <c r="J12" s="155">
-        <v>0.17499999999999999</v>
+      <c r="J12" s="373">
+        <v>0.16700000000000001</v>
       </c>
       <c r="K12" s="155">
-        <v>2.4199999999999999E-2</v>
-      </c>
-      <c r="L12" s="160">
-        <v>-1.7899999999999999E-2</v>
-      </c>
-      <c r="M12" s="420"/>
-      <c r="N12" s="421"/>
-    </row>
-    <row r="13" spans="2:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="365"/>
-      <c r="C13" s="359"/>
-      <c r="D13" s="144" t="s">
+        <v>-0.11</v>
+      </c>
+      <c r="L12" s="158">
+        <v>-1.29E-2</v>
+      </c>
+      <c r="M12" s="132"/>
+      <c r="N12" s="386"/>
+    </row>
+    <row r="13" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="407"/>
+      <c r="C13" s="400"/>
+      <c r="D13" s="146" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="127">
+        <v>0.70399999999999996</v>
+      </c>
+      <c r="F13" s="103">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="G13" s="104">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="H13" s="105">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="I13" s="293"/>
+      <c r="J13" s="156">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="K13" s="156">
+        <v>-0.109</v>
+      </c>
+      <c r="L13" s="377">
+        <v>1.7600000000000001E-3</v>
+      </c>
+      <c r="M13" s="382"/>
+      <c r="N13" s="387"/>
+    </row>
+    <row r="14" spans="2:14" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="407"/>
+      <c r="C14" s="352" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="144" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="125">
+        <v>0.65900000000000003</v>
+      </c>
+      <c r="F14" s="356">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="G14" s="95">
+        <v>0.219</v>
+      </c>
+      <c r="H14" s="356">
+        <v>0.38300000000000001</v>
+      </c>
+      <c r="I14" s="294"/>
+      <c r="J14" s="155">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="K14" s="155">
+        <v>0.252</v>
+      </c>
+      <c r="L14" s="163">
+        <v>-0.128</v>
+      </c>
+      <c r="M14" s="132"/>
+      <c r="N14" s="385"/>
+    </row>
+    <row r="15" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="361"/>
+      <c r="C15" s="221"/>
+      <c r="D15" s="194"/>
+      <c r="E15" s="194"/>
+      <c r="F15" s="194"/>
+      <c r="G15" s="194"/>
+      <c r="H15" s="194"/>
+      <c r="I15" s="194"/>
+      <c r="J15" s="194"/>
+      <c r="K15" s="194"/>
+      <c r="L15" s="198"/>
+      <c r="M15" s="384"/>
+      <c r="N15" s="386"/>
+    </row>
+    <row r="16" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="406" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="415" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="345" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="192">
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="F16" s="209">
+        <v>1.2</v>
+      </c>
+      <c r="G16" s="277">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="H16" s="208">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="I16" s="297"/>
+      <c r="J16" s="152">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="K16" s="152">
+        <v>-0.33600000000000002</v>
+      </c>
+      <c r="L16" s="152">
+        <v>-0.111</v>
+      </c>
+      <c r="M16" s="132"/>
+      <c r="N16" s="386"/>
+    </row>
+    <row r="17" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="407"/>
+      <c r="C17" s="399"/>
+      <c r="D17" s="339" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="124">
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="F17" s="96">
+        <v>1.18</v>
+      </c>
+      <c r="G17" s="278">
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="H17" s="369">
+        <v>0.5</v>
+      </c>
+      <c r="I17" s="298"/>
+      <c r="J17" s="155">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="K17" s="211">
+        <v>-0.52700000000000002</v>
+      </c>
+      <c r="L17" s="155">
+        <v>-0.115</v>
+      </c>
+      <c r="M17" s="384"/>
+      <c r="N17" s="385"/>
+    </row>
+    <row r="18" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="407"/>
+      <c r="C18" s="399"/>
+      <c r="D18" s="144" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="125">
-        <v>0.77200000000000002</v>
-      </c>
-      <c r="F13" s="96">
+      <c r="E18" s="124">
+        <v>0.71399999999999997</v>
+      </c>
+      <c r="F18" s="285">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G18" s="278">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="H18" s="197">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="I18" s="300"/>
+      <c r="J18" s="155">
+        <v>0.161</v>
+      </c>
+      <c r="K18" s="373">
+        <v>8.8099999999999998E-2</v>
+      </c>
+      <c r="L18" s="155">
+        <v>-0.12</v>
+      </c>
+      <c r="M18" s="132"/>
+      <c r="N18" s="385"/>
+    </row>
+    <row r="19" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="407"/>
+      <c r="C19" s="400"/>
+      <c r="D19" s="146" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="126">
+        <v>0.61</v>
+      </c>
+      <c r="F19" s="103">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G19" s="279">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="H19" s="138">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="I19" s="301"/>
+      <c r="J19" s="170">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="K19" s="201">
+        <v>-0.34100000000000003</v>
+      </c>
+      <c r="L19" s="378">
+        <v>-0.107</v>
+      </c>
+      <c r="M19" s="132"/>
+      <c r="N19" s="385"/>
+    </row>
+    <row r="20" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="407"/>
+      <c r="C20" s="398" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="145" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="120">
+        <v>0.66400000000000003</v>
+      </c>
+      <c r="F20" s="359">
         <v>1.25</v>
       </c>
-      <c r="G13" s="98">
-        <v>0.254</v>
-      </c>
-      <c r="H13" s="110">
+      <c r="G20" s="121">
+        <v>0.23</v>
+      </c>
+      <c r="H20" s="134">
+        <v>0.5</v>
+      </c>
+      <c r="I20" s="302"/>
+      <c r="J20" s="157">
+        <v>0.18</v>
+      </c>
+      <c r="K20" s="157">
+        <v>-0.20100000000000001</v>
+      </c>
+      <c r="L20" s="157">
+        <v>-0.14499999999999999</v>
+      </c>
+      <c r="M20" s="132"/>
+      <c r="N20" s="385"/>
+    </row>
+    <row r="21" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="407"/>
+      <c r="C21" s="399"/>
+      <c r="D21" s="144" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="358">
+        <v>0.41199999999999998</v>
+      </c>
+      <c r="F21" s="360">
+        <v>0.95</v>
+      </c>
+      <c r="G21" s="367">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="H21" s="368">
+        <v>0.35</v>
+      </c>
+      <c r="I21" s="298"/>
+      <c r="J21" s="155">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="K21" s="160">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="L21" s="165">
+        <v>-0.16700000000000001</v>
+      </c>
+      <c r="M21" s="132"/>
+      <c r="N21" s="386"/>
+    </row>
+    <row r="22" spans="2:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B22" s="407"/>
+      <c r="C22" s="400"/>
+      <c r="D22" s="341" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="126">
+        <v>0.629</v>
+      </c>
+      <c r="F22" s="220">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G22" s="279">
+        <v>0.21</v>
+      </c>
+      <c r="H22" s="200">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="I22" s="303"/>
+      <c r="J22" s="388">
+        <v>0.113</v>
+      </c>
+      <c r="K22" s="161">
+        <v>-0.375</v>
+      </c>
+      <c r="L22" s="156">
+        <v>-0.13600000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B23" s="407"/>
+      <c r="C23" s="399" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="144" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="137">
+        <v>0.62</v>
+      </c>
+      <c r="F23" s="356">
+        <v>0.95</v>
+      </c>
+      <c r="G23" s="282">
+        <v>0.215</v>
+      </c>
+      <c r="H23" s="136">
+        <v>0.38800000000000001</v>
+      </c>
+      <c r="I23" s="299"/>
+      <c r="J23" s="159">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="K23" s="160">
+        <v>-0.42099999999999999</v>
+      </c>
+      <c r="L23" s="153">
+        <v>-0.13600000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B24" s="173"/>
+      <c r="C24" s="178"/>
+      <c r="D24" s="179"/>
+      <c r="E24" s="179"/>
+      <c r="F24" s="179"/>
+      <c r="G24" s="179"/>
+      <c r="H24" s="179"/>
+      <c r="I24" s="179"/>
+      <c r="J24" s="179"/>
+      <c r="K24" s="179"/>
+      <c r="L24" s="180"/>
+    </row>
+    <row r="25" spans="2:14" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B25" s="406" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="415" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="203" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" s="192">
+        <v>0.71299999999999997</v>
+      </c>
+      <c r="F25" s="141">
+        <v>1.23</v>
+      </c>
+      <c r="G25" s="86">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="H25" s="208">
         <v>0.45</v>
       </c>
-      <c r="I13" s="294"/>
-      <c r="J13" s="405">
-        <v>0.16700000000000001</v>
-      </c>
-      <c r="K13" s="155">
-        <v>-0.11</v>
-      </c>
-      <c r="L13" s="158">
-        <v>-1.29E-2</v>
-      </c>
-      <c r="M13" s="420"/>
-      <c r="N13" s="421"/>
-    </row>
-    <row r="14" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="365"/>
-      <c r="C14" s="374"/>
-      <c r="D14" s="146" t="s">
+      <c r="I25" s="297"/>
+      <c r="J25" s="152">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="K25" s="376">
+        <v>-0.72899999999999998</v>
+      </c>
+      <c r="L25" s="87">
+        <v>-0.13400000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B26" s="407"/>
+      <c r="C26" s="399"/>
+      <c r="D26" s="83" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" s="124">
+        <v>0.59399999999999997</v>
+      </c>
+      <c r="F26" s="96">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="G26" s="88">
+        <v>0.21</v>
+      </c>
+      <c r="H26" s="129">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="I26" s="298"/>
+      <c r="J26" s="211">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="K26" s="97">
+        <v>-0.45400000000000001</v>
+      </c>
+      <c r="L26" s="89">
+        <v>-0.154</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B27" s="407"/>
+      <c r="C27" s="399"/>
+      <c r="D27" s="83" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="124">
+        <v>0.60399999999999998</v>
+      </c>
+      <c r="F27" s="100">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G27" s="98">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="H27" s="370">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="I27" s="306"/>
+      <c r="J27" s="373">
+        <v>0.114</v>
+      </c>
+      <c r="K27" s="101">
+        <v>-0.39700000000000002</v>
+      </c>
+      <c r="L27" s="149">
+        <v>-0.13700000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B28" s="407"/>
+      <c r="C28" s="400"/>
+      <c r="D28" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="127">
-        <v>0.70399999999999996</v>
-      </c>
-      <c r="F14" s="103">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="G14" s="104">
-        <v>0.23499999999999999</v>
-      </c>
-      <c r="H14" s="105">
+      <c r="E28" s="126">
+        <v>0.45700000000000002</v>
+      </c>
+      <c r="F28" s="105">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="G28" s="104">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="H28" s="133">
+        <v>0.35</v>
+      </c>
+      <c r="I28" s="307"/>
+      <c r="J28" s="156">
+        <v>0.12</v>
+      </c>
+      <c r="K28" s="105">
+        <v>-0.22500000000000001</v>
+      </c>
+      <c r="L28" s="380">
+        <v>-0.123</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" ht="16" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="407"/>
+      <c r="C29" s="398" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" s="84" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" s="120">
+        <v>0.626</v>
+      </c>
+      <c r="F29" s="107">
+        <v>1.18</v>
+      </c>
+      <c r="G29" s="106">
+        <v>0.22</v>
+      </c>
+      <c r="H29" s="213">
         <v>0.47499999999999998</v>
       </c>
-      <c r="I14" s="293"/>
-      <c r="J14" s="156">
-        <v>0.17599999999999999</v>
-      </c>
-      <c r="K14" s="156">
-        <v>-0.109</v>
-      </c>
-      <c r="L14" s="409">
-        <v>1.7600000000000001E-3</v>
-      </c>
-      <c r="M14" s="416"/>
-      <c r="N14" s="422"/>
-    </row>
-    <row r="15" spans="2:14" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="365"/>
-      <c r="C15" s="352" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="144" t="s">
+      <c r="I29" s="302"/>
+      <c r="J29" s="157">
+        <v>0.182</v>
+      </c>
+      <c r="K29" s="94">
+        <v>-0.19500000000000001</v>
+      </c>
+      <c r="L29" s="107">
+        <v>-0.158</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B30" s="407"/>
+      <c r="C30" s="400"/>
+      <c r="D30" s="191" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="125">
-        <v>0.65900000000000003</v>
-      </c>
-      <c r="F15" s="356">
-        <v>0.99199999999999999</v>
-      </c>
-      <c r="G15" s="95">
-        <v>0.219</v>
-      </c>
-      <c r="H15" s="356">
-        <v>0.38300000000000001</v>
-      </c>
-      <c r="I15" s="294"/>
-      <c r="J15" s="155">
-        <v>0.23899999999999999</v>
-      </c>
-      <c r="K15" s="155">
-        <v>0.252</v>
-      </c>
-      <c r="L15" s="163">
-        <v>-0.128</v>
-      </c>
-      <c r="M15" s="420"/>
-      <c r="N15" s="419"/>
-    </row>
-    <row r="16" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="393"/>
-      <c r="C16" s="221"/>
-      <c r="D16" s="194"/>
-      <c r="E16" s="194"/>
-      <c r="F16" s="194"/>
-      <c r="G16" s="194"/>
-      <c r="H16" s="194"/>
-      <c r="I16" s="194"/>
-      <c r="J16" s="194"/>
-      <c r="K16" s="194"/>
-      <c r="L16" s="198"/>
-      <c r="M16" s="418"/>
-      <c r="N16" s="421"/>
-    </row>
-    <row r="17" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="364" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="373" t="s">
-        <v>2</v>
-      </c>
-      <c r="D17" s="345" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" s="192">
-        <v>0.78400000000000003</v>
-      </c>
-      <c r="F17" s="209">
-        <v>1.2</v>
-      </c>
-      <c r="G17" s="277">
-        <v>0.26100000000000001</v>
-      </c>
-      <c r="H17" s="208">
-        <v>0.47499999999999998</v>
-      </c>
-      <c r="I17" s="297"/>
-      <c r="J17" s="152">
-        <v>0.21199999999999999</v>
-      </c>
-      <c r="K17" s="152">
-        <v>-0.33600000000000002</v>
-      </c>
-      <c r="L17" s="152">
-        <v>-0.111</v>
-      </c>
-      <c r="M17" s="420"/>
-      <c r="N17" s="421"/>
-    </row>
-    <row r="18" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="365"/>
-      <c r="C18" s="359"/>
-      <c r="D18" s="339" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18" s="124">
-        <v>0.69099999999999995</v>
-      </c>
-      <c r="F18" s="96">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="G18" s="115">
-        <v>0.23599999999999999</v>
-      </c>
-      <c r="H18" s="129">
-        <v>0.45</v>
-      </c>
-      <c r="I18" s="298"/>
-      <c r="J18" s="153">
-        <v>0.219</v>
-      </c>
-      <c r="K18" s="153">
-        <v>-0.35599999999999998</v>
-      </c>
-      <c r="L18" s="153">
-        <v>-0.111</v>
-      </c>
-      <c r="M18" s="415"/>
-      <c r="N18" s="423"/>
-    </row>
-    <row r="19" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="365"/>
-      <c r="C19" s="359"/>
-      <c r="D19" s="339" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="124">
-        <v>0.70699999999999996</v>
-      </c>
-      <c r="F19" s="96">
-        <v>1.18</v>
-      </c>
-      <c r="G19" s="278">
-        <v>0.23400000000000001</v>
-      </c>
-      <c r="H19" s="401">
-        <v>0.5</v>
-      </c>
-      <c r="I19" s="298"/>
-      <c r="J19" s="155">
-        <v>0.18099999999999999</v>
-      </c>
-      <c r="K19" s="211">
-        <v>-0.52700000000000002</v>
-      </c>
-      <c r="L19" s="155">
-        <v>-0.115</v>
-      </c>
-      <c r="M19" s="418"/>
-      <c r="N19" s="419"/>
-    </row>
-    <row r="20" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="365"/>
-      <c r="C20" s="359"/>
-      <c r="D20" s="144" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="124">
-        <v>0.71399999999999997</v>
-      </c>
-      <c r="F20" s="285">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="G20" s="278">
-        <v>0.23699999999999999</v>
-      </c>
-      <c r="H20" s="197">
-        <v>0.47499999999999998</v>
-      </c>
-      <c r="I20" s="300"/>
-      <c r="J20" s="155">
-        <v>0.161</v>
-      </c>
-      <c r="K20" s="405">
-        <v>8.8099999999999998E-2</v>
-      </c>
-      <c r="L20" s="155">
-        <v>-0.12</v>
-      </c>
-      <c r="M20" s="420"/>
-      <c r="N20" s="419"/>
-    </row>
-    <row r="21" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="365"/>
-      <c r="C21" s="374"/>
-      <c r="D21" s="146" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" s="126">
-        <v>0.61</v>
-      </c>
-      <c r="F21" s="103">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="G21" s="279">
-        <v>0.21199999999999999</v>
-      </c>
-      <c r="H21" s="138">
-        <v>0.47499999999999998</v>
-      </c>
-      <c r="I21" s="301"/>
-      <c r="J21" s="170">
-        <v>0.20200000000000001</v>
-      </c>
-      <c r="K21" s="201">
-        <v>-0.34100000000000003</v>
-      </c>
-      <c r="L21" s="410">
-        <v>-0.107</v>
-      </c>
-      <c r="M21" s="420"/>
-      <c r="N21" s="419"/>
-    </row>
-    <row r="22" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="365"/>
-      <c r="C22" s="358" t="s">
-        <v>3</v>
-      </c>
-      <c r="D22" s="145" t="s">
-        <v>16</v>
-      </c>
-      <c r="E22" s="120">
-        <v>0.66400000000000003</v>
-      </c>
-      <c r="F22" s="391">
-        <v>1.25</v>
-      </c>
-      <c r="G22" s="121">
-        <v>0.23</v>
-      </c>
-      <c r="H22" s="134">
-        <v>0.5</v>
-      </c>
-      <c r="I22" s="302"/>
-      <c r="J22" s="157">
-        <v>0.18</v>
-      </c>
-      <c r="K22" s="157">
-        <v>-0.20100000000000001</v>
-      </c>
-      <c r="L22" s="157">
-        <v>-0.14499999999999999</v>
-      </c>
-      <c r="M22" s="420"/>
-      <c r="N22" s="419"/>
-    </row>
-    <row r="23" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="365"/>
-      <c r="C23" s="359"/>
-      <c r="D23" s="144" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" s="390">
-        <v>0.41199999999999998</v>
-      </c>
-      <c r="F23" s="392">
-        <v>0.95</v>
-      </c>
-      <c r="G23" s="399">
-        <v>0.14699999999999999</v>
-      </c>
-      <c r="H23" s="400">
-        <v>0.35</v>
-      </c>
-      <c r="I23" s="298"/>
-      <c r="J23" s="155">
-        <v>0.14399999999999999</v>
-      </c>
-      <c r="K23" s="160">
-        <v>0.17699999999999999</v>
-      </c>
-      <c r="L23" s="165">
-        <v>-0.16700000000000001</v>
-      </c>
-      <c r="M23" s="420"/>
-      <c r="N23" s="421"/>
-    </row>
-    <row r="24" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="365"/>
-      <c r="C24" s="374"/>
-      <c r="D24" s="341" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="126">
-        <v>0.629</v>
-      </c>
-      <c r="F24" s="220">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="G24" s="279">
-        <v>0.21</v>
-      </c>
-      <c r="H24" s="200">
-        <v>0.42499999999999999</v>
-      </c>
-      <c r="I24" s="303"/>
-      <c r="J24" s="424">
-        <v>0.113</v>
-      </c>
-      <c r="K24" s="161">
-        <v>-0.375</v>
-      </c>
-      <c r="L24" s="156">
-        <v>-0.13600000000000001</v>
-      </c>
-    </row>
-    <row r="25" spans="2:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="365"/>
-      <c r="C25" s="359" t="s">
-        <v>18</v>
-      </c>
-      <c r="D25" s="144" t="s">
-        <v>17</v>
-      </c>
-      <c r="E25" s="137">
-        <v>0.62</v>
-      </c>
-      <c r="F25" s="356">
-        <v>0.95</v>
-      </c>
-      <c r="G25" s="282">
-        <v>0.215</v>
-      </c>
-      <c r="H25" s="136">
-        <v>0.38800000000000001</v>
-      </c>
-      <c r="I25" s="299"/>
-      <c r="J25" s="159">
-        <v>0.23300000000000001</v>
-      </c>
-      <c r="K25" s="160">
-        <v>-0.42099999999999999</v>
-      </c>
-      <c r="L25" s="153">
-        <v>-0.13600000000000001</v>
-      </c>
-    </row>
-    <row r="26" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="173"/>
-      <c r="C26" s="178"/>
-      <c r="D26" s="179"/>
-      <c r="E26" s="179"/>
-      <c r="F26" s="179"/>
-      <c r="G26" s="179"/>
-      <c r="H26" s="179"/>
-      <c r="I26" s="179"/>
-      <c r="J26" s="179"/>
-      <c r="K26" s="179"/>
-      <c r="L26" s="180"/>
-    </row>
-    <row r="27" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B27" s="364" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" s="373" t="s">
-        <v>2</v>
-      </c>
-      <c r="D27" s="203" t="s">
-        <v>16</v>
-      </c>
-      <c r="E27" s="192">
-        <v>0.71299999999999997</v>
-      </c>
-      <c r="F27" s="141">
-        <v>1.23</v>
-      </c>
-      <c r="G27" s="86">
-        <v>0.24199999999999999</v>
-      </c>
-      <c r="H27" s="208">
-        <v>0.45</v>
-      </c>
-      <c r="I27" s="297"/>
-      <c r="J27" s="152">
-        <v>0.20899999999999999</v>
-      </c>
-      <c r="K27" s="408">
-        <v>-0.72899999999999998</v>
-      </c>
-      <c r="L27" s="87">
-        <v>-0.13400000000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B28" s="365"/>
-      <c r="C28" s="359"/>
-      <c r="D28" s="83" t="s">
-        <v>17</v>
-      </c>
-      <c r="E28" s="124">
-        <v>0.59399999999999997</v>
-      </c>
-      <c r="F28" s="96">
-        <v>0.97499999999999998</v>
-      </c>
-      <c r="G28" s="88">
-        <v>0.21</v>
-      </c>
-      <c r="H28" s="129">
-        <v>0.42499999999999999</v>
-      </c>
-      <c r="I28" s="298"/>
-      <c r="J28" s="211">
-        <v>0.22900000000000001</v>
-      </c>
-      <c r="K28" s="97">
-        <v>-0.45400000000000001</v>
-      </c>
-      <c r="L28" s="89">
-        <v>-0.154</v>
-      </c>
-    </row>
-    <row r="29" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B29" s="365"/>
-      <c r="C29" s="359"/>
-      <c r="D29" s="83" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="124">
-        <v>0.60399999999999998</v>
-      </c>
-      <c r="F29" s="100">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="G29" s="98">
-        <v>0.20300000000000001</v>
-      </c>
-      <c r="H29" s="429">
-        <v>0.47499999999999998</v>
-      </c>
-      <c r="I29" s="430"/>
-      <c r="J29" s="405">
-        <v>0.114</v>
-      </c>
-      <c r="K29" s="101">
-        <v>-0.39700000000000002</v>
-      </c>
-      <c r="L29" s="149">
-        <v>-0.13700000000000001</v>
-      </c>
-    </row>
-    <row r="30" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="365"/>
-      <c r="C30" s="374"/>
-      <c r="D30" s="85" t="s">
-        <v>9</v>
-      </c>
-      <c r="E30" s="126">
-        <v>0.45700000000000002</v>
-      </c>
-      <c r="F30" s="105">
-        <v>0.97499999999999998</v>
-      </c>
-      <c r="G30" s="104">
-        <v>0.16300000000000001</v>
+      <c r="E30" s="389">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="F30" s="390">
+        <v>0.75</v>
+      </c>
+      <c r="G30" s="391">
+        <v>0.106</v>
       </c>
       <c r="H30" s="133">
         <v>0.35</v>
       </c>
       <c r="I30" s="307"/>
       <c r="J30" s="156">
-        <v>0.12</v>
+        <v>0.126</v>
       </c>
       <c r="K30" s="105">
-        <v>-0.22500000000000001</v>
-      </c>
-      <c r="L30" s="412">
-        <v>-0.123</v>
-      </c>
-    </row>
-    <row r="31" spans="2:14" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="365"/>
-      <c r="C31" s="358" t="s">
-        <v>3</v>
+        <v>-0.36699999999999999</v>
+      </c>
+      <c r="L30" s="392">
+        <v>-0.20100000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" ht="16" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="407"/>
+      <c r="C31" s="399" t="s">
+        <v>18</v>
       </c>
       <c r="D31" s="84" t="s">
-        <v>16</v>
-      </c>
-      <c r="E31" s="120">
-        <v>0.626</v>
-      </c>
-      <c r="F31" s="107">
-        <v>1.18</v>
-      </c>
-      <c r="G31" s="106">
-        <v>0.22</v>
-      </c>
-      <c r="H31" s="213">
-        <v>0.47499999999999998</v>
-      </c>
-      <c r="I31" s="302"/>
-      <c r="J31" s="157">
-        <v>0.182</v>
-      </c>
-      <c r="K31" s="94">
-        <v>-0.19500000000000001</v>
-      </c>
-      <c r="L31" s="107">
-        <v>-0.158</v>
-      </c>
-    </row>
-    <row r="32" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="365"/>
-      <c r="C32" s="374"/>
-      <c r="D32" s="191" t="s">
-        <v>7</v>
-      </c>
-      <c r="E32" s="425">
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="F32" s="426">
-        <v>0.75</v>
-      </c>
-      <c r="G32" s="427">
-        <v>0.106</v>
-      </c>
-      <c r="H32" s="133">
-        <v>0.35</v>
-      </c>
-      <c r="I32" s="307"/>
-      <c r="J32" s="156">
-        <v>0.126</v>
-      </c>
-      <c r="K32" s="105">
-        <v>-0.36699999999999999</v>
-      </c>
-      <c r="L32" s="428">
-        <v>-0.20100000000000001</v>
-      </c>
-    </row>
-    <row r="33" spans="2:12" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="365"/>
-      <c r="C33" s="359" t="s">
-        <v>18</v>
-      </c>
-      <c r="D33" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="E33" s="124">
+      <c r="E31" s="124">
         <v>0.55200000000000005</v>
       </c>
-      <c r="F33" s="96">
+      <c r="F31" s="96">
         <v>0.83799999999999997</v>
       </c>
-      <c r="G33" s="93">
+      <c r="G31" s="93">
         <v>0.19</v>
       </c>
-      <c r="H33" s="403">
+      <c r="H31" s="371">
         <v>0.33800000000000002</v>
       </c>
-      <c r="I33" s="299"/>
-      <c r="J33" s="160">
+      <c r="I31" s="299"/>
+      <c r="J31" s="160">
         <v>0.14799999999999999</v>
       </c>
-      <c r="K33" s="110">
+      <c r="K31" s="110">
         <v>0.24399999999999999</v>
       </c>
-      <c r="L33" s="148">
+      <c r="L31" s="148">
         <v>-0.154</v>
       </c>
     </row>
-    <row r="34" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="366"/>
-      <c r="C34" s="360"/>
-      <c r="D34" s="185" t="s">
+    <row r="32" spans="2:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B32" s="408"/>
+      <c r="C32" s="401"/>
+      <c r="D32" s="185" t="s">
         <v>8</v>
       </c>
-      <c r="E34" s="142">
+      <c r="E32" s="142">
         <v>0.58199999999999996</v>
       </c>
-      <c r="F34" s="143">
+      <c r="F32" s="143">
         <v>0.81200000000000006</v>
       </c>
-      <c r="G34" s="431">
+      <c r="G32" s="393">
         <v>0.20200000000000001</v>
       </c>
-      <c r="H34" s="432">
+      <c r="H32" s="394">
         <v>0.33800000000000002</v>
       </c>
-      <c r="I34" s="433"/>
-      <c r="J34" s="434">
+      <c r="I32" s="395"/>
+      <c r="J32" s="396">
         <v>0.11799999999999999</v>
       </c>
-      <c r="K34" s="435">
+      <c r="K32" s="397">
         <v>1.1599999999999999E-2</v>
       </c>
-      <c r="L34" s="189">
+      <c r="L32" s="189">
         <v>-0.153</v>
       </c>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="J35" s="413"/>
-    </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="J36" s="413"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="J37" s="413"/>
-    </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="J38" s="413"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="J39" s="413"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="J40" s="413"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="J41" s="413"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="J42" s="413"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="J43" s="413"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="J44" s="413"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="J45" s="413"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="J46" s="413"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="J47" s="413"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="J48" s="413"/>
-    </row>
-    <row r="49" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J49" s="413"/>
-    </row>
-    <row r="50" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J50" s="413"/>
-    </row>
-    <row r="51" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J51" s="413"/>
-    </row>
-    <row r="52" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J52" s="413"/>
-    </row>
-    <row r="53" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J53" s="413"/>
-    </row>
-    <row r="54" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J54" s="413"/>
-    </row>
-    <row r="55" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J55" s="413"/>
+    <row r="33" spans="10:10" x14ac:dyDescent="0.35">
+      <c r="J33"/>
+    </row>
+    <row r="34" spans="10:10" x14ac:dyDescent="0.35">
+      <c r="J34"/>
+    </row>
+    <row r="35" spans="10:10" x14ac:dyDescent="0.35">
+      <c r="J35"/>
+    </row>
+    <row r="36" spans="10:10" x14ac:dyDescent="0.35">
+      <c r="J36"/>
+    </row>
+    <row r="37" spans="10:10" x14ac:dyDescent="0.35">
+      <c r="J37"/>
+    </row>
+    <row r="38" spans="10:10" x14ac:dyDescent="0.35">
+      <c r="J38"/>
+    </row>
+    <row r="39" spans="10:10" x14ac:dyDescent="0.35">
+      <c r="J39"/>
+    </row>
+    <row r="40" spans="10:10" x14ac:dyDescent="0.35">
+      <c r="J40"/>
+    </row>
+    <row r="41" spans="10:10" x14ac:dyDescent="0.35">
+      <c r="J41"/>
+    </row>
+    <row r="42" spans="10:10" x14ac:dyDescent="0.35">
+      <c r="J42"/>
+    </row>
+    <row r="43" spans="10:10" x14ac:dyDescent="0.35">
+      <c r="J43"/>
+    </row>
+    <row r="44" spans="10:10" x14ac:dyDescent="0.35">
+      <c r="J44"/>
+    </row>
+    <row r="45" spans="10:10" x14ac:dyDescent="0.35">
+      <c r="J45"/>
+    </row>
+    <row r="46" spans="10:10" x14ac:dyDescent="0.35">
+      <c r="J46"/>
+    </row>
+    <row r="47" spans="10:10" x14ac:dyDescent="0.35">
+      <c r="J47"/>
+    </row>
+    <row r="48" spans="10:10" x14ac:dyDescent="0.35">
+      <c r="J48"/>
+    </row>
+    <row r="49" spans="10:10" x14ac:dyDescent="0.35">
+      <c r="J49"/>
+    </row>
+    <row r="50" spans="10:10" x14ac:dyDescent="0.35">
+      <c r="J50"/>
+    </row>
+    <row r="51" spans="10:10" x14ac:dyDescent="0.35">
+      <c r="J51"/>
+    </row>
+    <row r="52" spans="10:10" x14ac:dyDescent="0.35">
+      <c r="J52"/>
+    </row>
+    <row r="53" spans="10:10" x14ac:dyDescent="0.35">
+      <c r="J53"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B27:B34"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="E2:H2"/>
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="G3:H3"/>
-    <mergeCell ref="B5:B15"/>
+    <mergeCell ref="B5:B14"/>
     <mergeCell ref="C5:C9"/>
-    <mergeCell ref="C10:C14"/>
-    <mergeCell ref="B17:B25"/>
-    <mergeCell ref="C17:C21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="C25"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="B25:B32"/>
+    <mergeCell ref="C25:C28"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="B16:B23"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="C23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6063,56 +5981,56 @@
       <selection activeCell="T12" sqref="T12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="1" max="1" width="17.54296875" customWidth="1"/>
+    <col min="2" max="2" width="11.26953125" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" customWidth="1"/>
-    <col min="5" max="5" width="6.5703125" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" customWidth="1"/>
+    <col min="5" max="5" width="6.54296875" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" customWidth="1"/>
-    <col min="10" max="10" width="0.42578125" style="286" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" customWidth="1"/>
-    <col min="12" max="12" width="12.85546875" customWidth="1"/>
-    <col min="13" max="13" width="11.85546875" customWidth="1"/>
-    <col min="14" max="14" width="12.5703125" customWidth="1"/>
+    <col min="7" max="7" width="13.26953125" customWidth="1"/>
+    <col min="8" max="8" width="10.1796875" customWidth="1"/>
+    <col min="9" max="9" width="12.54296875" customWidth="1"/>
+    <col min="10" max="10" width="0.453125" style="286" customWidth="1"/>
+    <col min="11" max="11" width="12.54296875" customWidth="1"/>
+    <col min="12" max="12" width="12.81640625" customWidth="1"/>
+    <col min="13" max="13" width="11.81640625" customWidth="1"/>
+    <col min="14" max="14" width="12.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="J1"/>
     </row>
-    <row r="2" spans="2:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F2" s="361" t="s">
+    <row r="2" spans="2:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F2" s="402" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="362"/>
-      <c r="H2" s="362"/>
-      <c r="I2" s="363"/>
+      <c r="G2" s="403"/>
+      <c r="H2" s="403"/>
+      <c r="I2" s="404"/>
       <c r="J2" s="287"/>
-      <c r="K2" s="361" t="s">
+      <c r="K2" s="402" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="362"/>
-      <c r="M2" s="363"/>
-    </row>
-    <row r="3" spans="2:14" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="376" t="s">
+      <c r="L2" s="403"/>
+      <c r="M2" s="404"/>
+    </row>
+    <row r="3" spans="2:14" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="420" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="377"/>
-      <c r="D3" s="377"/>
-      <c r="E3" s="377"/>
-      <c r="F3" s="378" t="s">
+      <c r="C3" s="421"/>
+      <c r="D3" s="421"/>
+      <c r="E3" s="421"/>
+      <c r="F3" s="418" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="379"/>
-      <c r="H3" s="369" t="s">
+      <c r="G3" s="419"/>
+      <c r="H3" s="411" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="368"/>
+      <c r="I3" s="410"/>
       <c r="J3" s="288"/>
       <c r="K3" s="214" t="s">
         <v>31</v>
@@ -6125,7 +6043,7 @@
       </c>
       <c r="N3" s="168"/>
     </row>
-    <row r="4" spans="2:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B4" s="182" t="s">
         <v>22</v>
       </c>
@@ -6162,14 +6080,14 @@
       </c>
       <c r="N4" s="77"/>
     </row>
-    <row r="5" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="365" t="s">
+    <row r="5" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B5" s="407" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="359" t="s">
+      <c r="C5" s="399" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="373" t="s">
+      <c r="D5" s="415" t="s">
         <v>7</v>
       </c>
       <c r="E5" s="338" t="s">
@@ -6199,10 +6117,10 @@
       </c>
       <c r="N5" s="79"/>
     </row>
-    <row r="6" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="365"/>
-      <c r="C6" s="374"/>
-      <c r="D6" s="374"/>
+    <row r="6" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B6" s="407"/>
+      <c r="C6" s="400"/>
+      <c r="D6" s="400"/>
       <c r="E6" s="341" t="s">
         <v>50</v>
       </c>
@@ -6230,12 +6148,12 @@
       </c>
       <c r="N6" s="79"/>
     </row>
-    <row r="7" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="365"/>
-      <c r="C7" s="358" t="s">
+    <row r="7" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="407"/>
+      <c r="C7" s="398" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="358" t="s">
+      <c r="D7" s="398" t="s">
         <v>16</v>
       </c>
       <c r="E7" s="338" t="s">
@@ -6265,10 +6183,10 @@
       </c>
       <c r="N7" s="169"/>
     </row>
-    <row r="8" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="365"/>
-      <c r="C8" s="359"/>
-      <c r="D8" s="380"/>
+    <row r="8" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="407"/>
+      <c r="C8" s="399"/>
+      <c r="D8" s="417"/>
       <c r="E8" s="339" t="s">
         <v>50</v>
       </c>
@@ -6296,10 +6214,10 @@
       </c>
       <c r="N8" s="79"/>
     </row>
-    <row r="9" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="365"/>
-      <c r="C9" s="359"/>
-      <c r="D9" s="381" t="s">
+    <row r="9" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="407"/>
+      <c r="C9" s="399"/>
+      <c r="D9" s="416" t="s">
         <v>7</v>
       </c>
       <c r="E9" s="339" t="s">
@@ -6329,10 +6247,10 @@
       </c>
       <c r="N9" s="79"/>
     </row>
-    <row r="10" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="366"/>
-      <c r="C10" s="360"/>
-      <c r="D10" s="360"/>
+    <row r="10" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B10" s="408"/>
+      <c r="C10" s="401"/>
+      <c r="D10" s="401"/>
       <c r="E10" s="340" t="s">
         <v>50</v>
       </c>
@@ -6360,7 +6278,7 @@
       </c>
       <c r="N10" s="79"/>
     </row>
-    <row r="11" spans="2:14" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:14" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="183"/>
       <c r="C11" s="351"/>
       <c r="D11" s="286"/>
@@ -6374,14 +6292,14 @@
       <c r="L11" s="194"/>
       <c r="M11" s="198"/>
     </row>
-    <row r="12" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="364" t="s">
+    <row r="12" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="406" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="373" t="s">
+      <c r="C12" s="415" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="373" t="s">
+      <c r="D12" s="415" t="s">
         <v>7</v>
       </c>
       <c r="E12" s="345" t="s">
@@ -6410,10 +6328,10 @@
         <v>-0.14299999999999999</v>
       </c>
     </row>
-    <row r="13" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="365"/>
-      <c r="C13" s="374"/>
-      <c r="D13" s="374"/>
+    <row r="13" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="407"/>
+      <c r="C13" s="400"/>
+      <c r="D13" s="400"/>
       <c r="E13" s="341" t="s">
         <v>50</v>
       </c>
@@ -6440,12 +6358,12 @@
         <v>-0.27200000000000002</v>
       </c>
     </row>
-    <row r="14" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="365"/>
-      <c r="C14" s="358" t="s">
+    <row r="14" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="407"/>
+      <c r="C14" s="398" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="358" t="s">
+      <c r="D14" s="398" t="s">
         <v>16</v>
       </c>
       <c r="E14" s="343" t="s">
@@ -6474,10 +6392,10 @@
         <v>-0.11600000000000001</v>
       </c>
     </row>
-    <row r="15" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="365"/>
-      <c r="C15" s="359"/>
-      <c r="D15" s="380"/>
+    <row r="15" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="407"/>
+      <c r="C15" s="399"/>
+      <c r="D15" s="417"/>
       <c r="E15" s="339" t="s">
         <v>50</v>
       </c>
@@ -6504,10 +6422,10 @@
         <v>-0.245</v>
       </c>
     </row>
-    <row r="16" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="365"/>
-      <c r="C16" s="359"/>
-      <c r="D16" s="381" t="s">
+    <row r="16" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="407"/>
+      <c r="C16" s="399"/>
+      <c r="D16" s="416" t="s">
         <v>7</v>
       </c>
       <c r="E16" s="339" t="s">
@@ -6536,10 +6454,10 @@
         <v>-0.126</v>
       </c>
     </row>
-    <row r="17" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="365"/>
-      <c r="C17" s="359"/>
-      <c r="D17" s="359"/>
+    <row r="17" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="407"/>
+      <c r="C17" s="399"/>
+      <c r="D17" s="399"/>
       <c r="E17" s="339" t="s">
         <v>50</v>
       </c>
@@ -6566,10 +6484,10 @@
         <v>-0.25800000000000001</v>
       </c>
     </row>
-    <row r="18" spans="2:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="366"/>
-      <c r="C18" s="360"/>
-      <c r="D18" s="360"/>
+    <row r="18" spans="2:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B18" s="408"/>
+      <c r="C18" s="401"/>
+      <c r="D18" s="401"/>
       <c r="E18" s="340" t="s">
         <v>51</v>
       </c>
@@ -6596,7 +6514,7 @@
         <v>-0.309</v>
       </c>
     </row>
-    <row r="19" spans="2:13" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:13" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B19" s="173"/>
       <c r="C19" s="178"/>
       <c r="D19" s="179"/>
@@ -6610,14 +6528,14 @@
       <c r="L19" s="179"/>
       <c r="M19" s="180"/>
     </row>
-    <row r="20" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="364" t="s">
+    <row r="20" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="406" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="373" t="s">
+      <c r="C20" s="415" t="s">
         <v>3</v>
       </c>
-      <c r="D20" s="373" t="s">
+      <c r="D20" s="415" t="s">
         <v>7</v>
       </c>
       <c r="E20" s="345" t="s">
@@ -6646,10 +6564,10 @@
         <v>-0.20200000000000001</v>
       </c>
     </row>
-    <row r="21" spans="2:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="365"/>
-      <c r="C21" s="374"/>
-      <c r="D21" s="374"/>
+    <row r="21" spans="2:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="407"/>
+      <c r="C21" s="400"/>
+      <c r="D21" s="400"/>
       <c r="E21" s="341" t="s">
         <v>50</v>
       </c>
@@ -6676,12 +6594,12 @@
         <v>-0.307</v>
       </c>
     </row>
-    <row r="22" spans="2:13" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="365"/>
-      <c r="C22" s="359" t="s">
+    <row r="22" spans="2:13" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="407"/>
+      <c r="C22" s="399" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="358" t="s">
+      <c r="D22" s="398" t="s">
         <v>17</v>
       </c>
       <c r="E22" s="339" t="s">
@@ -6710,10 +6628,10 @@
         <v>-0.159</v>
       </c>
     </row>
-    <row r="23" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="365"/>
-      <c r="C23" s="359"/>
-      <c r="D23" s="380"/>
+    <row r="23" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="407"/>
+      <c r="C23" s="399"/>
+      <c r="D23" s="417"/>
       <c r="E23" s="338" t="s">
         <v>50</v>
       </c>
@@ -6740,10 +6658,10 @@
         <v>-0.27400000000000002</v>
       </c>
     </row>
-    <row r="24" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="365"/>
-      <c r="C24" s="359"/>
-      <c r="D24" s="381" t="s">
+    <row r="24" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="407"/>
+      <c r="C24" s="399"/>
+      <c r="D24" s="416" t="s">
         <v>7</v>
       </c>
       <c r="E24" s="339" t="s">
@@ -6772,10 +6690,10 @@
         <v>-0.17899999999999999</v>
       </c>
     </row>
-    <row r="25" spans="2:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="366"/>
-      <c r="C25" s="360"/>
-      <c r="D25" s="360"/>
+    <row r="25" spans="2:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B25" s="408"/>
+      <c r="C25" s="401"/>
+      <c r="D25" s="401"/>
       <c r="E25" s="340" t="s">
         <v>50</v>
       </c>
@@ -6802,110 +6720,110 @@
         <v>-0.29899999999999999</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.35">
       <c r="J26"/>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.35">
       <c r="J27"/>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.35">
       <c r="J28"/>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.35">
       <c r="J29"/>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.35">
       <c r="J30"/>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.35">
       <c r="J31"/>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.35">
       <c r="J32"/>
     </row>
-    <row r="33" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J33"/>
     </row>
-    <row r="34" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J34"/>
     </row>
-    <row r="35" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J35"/>
     </row>
-    <row r="36" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J36"/>
     </row>
-    <row r="37" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J37"/>
     </row>
-    <row r="38" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J38"/>
     </row>
-    <row r="39" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J39"/>
     </row>
-    <row r="40" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J40"/>
     </row>
-    <row r="41" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J41"/>
     </row>
-    <row r="42" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J42"/>
     </row>
-    <row r="43" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J43"/>
     </row>
-    <row r="44" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J44"/>
     </row>
-    <row r="45" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J45"/>
     </row>
-    <row r="46" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J46"/>
     </row>
-    <row r="47" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J47"/>
     </row>
-    <row r="48" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J48"/>
     </row>
-    <row r="49" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J49"/>
     </row>
-    <row r="50" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J50"/>
     </row>
-    <row r="51" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J51"/>
     </row>
-    <row r="52" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J52"/>
     </row>
-    <row r="53" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J53"/>
     </row>
-    <row r="54" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J54"/>
     </row>
-    <row r="55" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J55"/>
     </row>
-    <row r="56" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J56"/>
     </row>
-    <row r="57" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J57"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="B12:B18"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="B20:B25"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C22:C25"/>
     <mergeCell ref="F2:I2"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="F3:G3"/>
@@ -6917,12 +6835,12 @@
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="D9:D10"/>
-    <mergeCell ref="B12:B18"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="B20:B25"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D22:D23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6934,56 +6852,56 @@
   <dimension ref="B1:N72"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="28" zoomScaleNormal="90" zoomScaleSheetLayoutView="50" zoomScalePageLayoutView="40" workbookViewId="0">
-      <selection activeCell="T24" sqref="T24"/>
+      <selection activeCell="K72" sqref="K72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="1" max="1" width="17.54296875" customWidth="1"/>
+    <col min="2" max="2" width="11.26953125" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="14.81640625" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="7" width="10.140625" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" customWidth="1"/>
-    <col min="9" max="9" width="0.42578125" style="286" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" customWidth="1"/>
-    <col min="11" max="11" width="12.85546875" customWidth="1"/>
-    <col min="12" max="12" width="11.85546875" customWidth="1"/>
-    <col min="13" max="13" width="12.5703125" customWidth="1"/>
+    <col min="6" max="7" width="10.1796875" customWidth="1"/>
+    <col min="8" max="8" width="10.453125" customWidth="1"/>
+    <col min="9" max="9" width="0.453125" style="286" customWidth="1"/>
+    <col min="10" max="10" width="12.54296875" customWidth="1"/>
+    <col min="11" max="11" width="12.81640625" customWidth="1"/>
+    <col min="12" max="12" width="11.81640625" customWidth="1"/>
+    <col min="13" max="13" width="12.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="I1"/>
     </row>
-    <row r="2" spans="2:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E2" s="361" t="s">
+    <row r="2" spans="2:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E2" s="402" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="362"/>
-      <c r="G2" s="362"/>
-      <c r="H2" s="363"/>
+      <c r="F2" s="403"/>
+      <c r="G2" s="403"/>
+      <c r="H2" s="404"/>
       <c r="I2" s="287"/>
-      <c r="J2" s="361" t="s">
+      <c r="J2" s="402" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="362"/>
-      <c r="L2" s="363"/>
-    </row>
-    <row r="3" spans="2:14" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="370" t="s">
+      <c r="K2" s="403"/>
+      <c r="L2" s="404"/>
+    </row>
+    <row r="3" spans="2:14" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="412" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="371"/>
-      <c r="D3" s="372"/>
-      <c r="E3" s="367" t="s">
+      <c r="C3" s="413"/>
+      <c r="D3" s="414"/>
+      <c r="E3" s="409" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="368"/>
-      <c r="G3" s="369" t="s">
+      <c r="F3" s="410"/>
+      <c r="G3" s="411" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="368"/>
+      <c r="H3" s="410"/>
       <c r="I3" s="288"/>
       <c r="J3" s="214" t="s">
         <v>31</v>
@@ -6996,7 +6914,7 @@
       </c>
       <c r="M3" s="168"/>
     </row>
-    <row r="4" spans="2:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B4" s="205" t="s">
         <v>22</v>
       </c>
@@ -7030,11 +6948,11 @@
       </c>
       <c r="M4" s="77"/>
     </row>
-    <row r="5" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="364" t="s">
+    <row r="5" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B5" s="406" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="373" t="s">
+      <c r="C5" s="415" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="145" t="s">
@@ -7064,9 +6982,9 @@
       </c>
       <c r="M5" s="79"/>
     </row>
-    <row r="6" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="365"/>
-      <c r="C6" s="359"/>
+    <row r="6" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="407"/>
+      <c r="C6" s="399"/>
       <c r="D6" s="144" t="s">
         <v>17</v>
       </c>
@@ -7094,9 +7012,9 @@
       </c>
       <c r="M6" s="79"/>
     </row>
-    <row r="7" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="365"/>
-      <c r="C7" s="359"/>
+    <row r="7" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="407"/>
+      <c r="C7" s="399"/>
       <c r="D7" s="145" t="s">
         <v>6</v>
       </c>
@@ -7124,9 +7042,9 @@
       </c>
       <c r="M7" s="79"/>
     </row>
-    <row r="8" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="365"/>
-      <c r="C8" s="359"/>
+    <row r="8" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="407"/>
+      <c r="C8" s="399"/>
       <c r="D8" s="144" t="s">
         <v>7</v>
       </c>
@@ -7154,9 +7072,9 @@
       </c>
       <c r="M8" s="79"/>
     </row>
-    <row r="9" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="365"/>
-      <c r="C9" s="359"/>
+    <row r="9" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="407"/>
+      <c r="C9" s="399"/>
       <c r="D9" s="144" t="s">
         <v>8</v>
       </c>
@@ -7184,9 +7102,9 @@
       </c>
       <c r="M9" s="78"/>
     </row>
-    <row r="10" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="365"/>
-      <c r="C10" s="374"/>
+    <row r="10" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B10" s="407"/>
+      <c r="C10" s="400"/>
       <c r="D10" s="146" t="s">
         <v>9</v>
       </c>
@@ -7214,9 +7132,9 @@
       </c>
       <c r="M10" s="79"/>
     </row>
-    <row r="11" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="365"/>
-      <c r="C11" s="358" t="s">
+    <row r="11" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="B11" s="407"/>
+      <c r="C11" s="398" t="s">
         <v>3</v>
       </c>
       <c r="D11" s="145" t="s">
@@ -7246,9 +7164,9 @@
       </c>
       <c r="M11" s="81"/>
     </row>
-    <row r="12" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="365"/>
-      <c r="C12" s="359"/>
+    <row r="12" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B12" s="407"/>
+      <c r="C12" s="399"/>
       <c r="D12" s="144" t="s">
         <v>17</v>
       </c>
@@ -7277,9 +7195,9 @@
       <c r="M12" s="81"/>
       <c r="N12" s="166"/>
     </row>
-    <row r="13" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="365"/>
-      <c r="C13" s="359"/>
+    <row r="13" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="407"/>
+      <c r="C13" s="399"/>
       <c r="D13" s="145" t="s">
         <v>6</v>
       </c>
@@ -7308,9 +7226,9 @@
       <c r="M13" s="80"/>
       <c r="N13" s="166"/>
     </row>
-    <row r="14" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="365"/>
-      <c r="C14" s="359"/>
+    <row r="14" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B14" s="407"/>
+      <c r="C14" s="399"/>
       <c r="D14" s="144" t="s">
         <v>7</v>
       </c>
@@ -7338,9 +7256,9 @@
       </c>
       <c r="M14" s="79"/>
     </row>
-    <row r="15" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="365"/>
-      <c r="C15" s="359"/>
+    <row r="15" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B15" s="407"/>
+      <c r="C15" s="399"/>
       <c r="D15" s="144" t="s">
         <v>8</v>
       </c>
@@ -7368,9 +7286,9 @@
       </c>
       <c r="M15" s="79"/>
     </row>
-    <row r="16" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="365"/>
-      <c r="C16" s="374"/>
+    <row r="16" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B16" s="407"/>
+      <c r="C16" s="400"/>
       <c r="D16" s="146" t="s">
         <v>9</v>
       </c>
@@ -7398,9 +7316,9 @@
       </c>
       <c r="M16" s="79"/>
     </row>
-    <row r="17" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="365"/>
-      <c r="C17" s="358" t="s">
+    <row r="17" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="B17" s="407"/>
+      <c r="C17" s="398" t="s">
         <v>18</v>
       </c>
       <c r="D17" s="145" t="s">
@@ -7430,9 +7348,9 @@
       </c>
       <c r="M17" s="169"/>
     </row>
-    <row r="18" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="365"/>
-      <c r="C18" s="359"/>
+    <row r="18" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B18" s="407"/>
+      <c r="C18" s="399"/>
       <c r="D18" s="144" t="s">
         <v>17</v>
       </c>
@@ -7460,9 +7378,9 @@
       </c>
       <c r="M18" s="79"/>
     </row>
-    <row r="19" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="365"/>
-      <c r="C19" s="359"/>
+    <row r="19" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="407"/>
+      <c r="C19" s="399"/>
       <c r="D19" s="145" t="s">
         <v>6</v>
       </c>
@@ -7490,9 +7408,9 @@
       </c>
       <c r="M19" s="79"/>
     </row>
-    <row r="20" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="365"/>
-      <c r="C20" s="359"/>
+    <row r="20" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="407"/>
+      <c r="C20" s="399"/>
       <c r="D20" s="144" t="s">
         <v>7</v>
       </c>
@@ -7520,9 +7438,9 @@
       </c>
       <c r="M20" s="79"/>
     </row>
-    <row r="21" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="365"/>
-      <c r="C21" s="359"/>
+    <row r="21" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="407"/>
+      <c r="C21" s="399"/>
       <c r="D21" s="144" t="s">
         <v>8</v>
       </c>
@@ -7550,9 +7468,9 @@
       </c>
       <c r="M21" s="79"/>
     </row>
-    <row r="22" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="366"/>
-      <c r="C22" s="360"/>
+    <row r="22" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B22" s="408"/>
+      <c r="C22" s="401"/>
       <c r="D22" s="174" t="s">
         <v>9</v>
       </c>
@@ -7580,7 +7498,7 @@
       </c>
       <c r="M22" s="79"/>
     </row>
-    <row r="23" spans="2:14" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:14" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B23" s="173"/>
       <c r="C23" s="178"/>
       <c r="D23" s="194"/>
@@ -7593,11 +7511,11 @@
       <c r="K23" s="194"/>
       <c r="L23" s="198"/>
     </row>
-    <row r="24" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="364" t="s">
+    <row r="24" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="406" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="373" t="s">
+      <c r="C24" s="415" t="s">
         <v>2</v>
       </c>
       <c r="D24" s="190" t="s">
@@ -7626,9 +7544,9 @@
         <v>-9.7500000000000003E-2</v>
       </c>
     </row>
-    <row r="25" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="365"/>
-      <c r="C25" s="359"/>
+    <row r="25" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="407"/>
+      <c r="C25" s="399"/>
       <c r="D25" s="190" t="s">
         <v>17</v>
       </c>
@@ -7655,9 +7573,9 @@
         <v>-9.5200000000000007E-2</v>
       </c>
     </row>
-    <row r="26" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="365"/>
-      <c r="C26" s="359"/>
+    <row r="26" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="407"/>
+      <c r="C26" s="399"/>
       <c r="D26" s="190" t="s">
         <v>6</v>
       </c>
@@ -7684,9 +7602,9 @@
         <v>-9.9500000000000005E-2</v>
       </c>
     </row>
-    <row r="27" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="365"/>
-      <c r="C27" s="359"/>
+    <row r="27" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="407"/>
+      <c r="C27" s="399"/>
       <c r="D27" s="84" t="s">
         <v>7</v>
       </c>
@@ -7713,9 +7631,9 @@
         <v>-0.108</v>
       </c>
     </row>
-    <row r="28" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="365"/>
-      <c r="C28" s="359"/>
+    <row r="28" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="407"/>
+      <c r="C28" s="399"/>
       <c r="D28" s="83" t="s">
         <v>8</v>
       </c>
@@ -7742,9 +7660,9 @@
         <v>-0.105</v>
       </c>
     </row>
-    <row r="29" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="365"/>
-      <c r="C29" s="374"/>
+    <row r="29" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B29" s="407"/>
+      <c r="C29" s="400"/>
       <c r="D29" s="85" t="s">
         <v>9</v>
       </c>
@@ -7771,9 +7689,9 @@
         <v>-8.7999999999999995E-2</v>
       </c>
     </row>
-    <row r="30" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="365"/>
-      <c r="C30" s="358" t="s">
+    <row r="30" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="407"/>
+      <c r="C30" s="398" t="s">
         <v>3</v>
       </c>
       <c r="D30" s="84" t="s">
@@ -7803,9 +7721,9 @@
       </c>
       <c r="M30" s="166"/>
     </row>
-    <row r="31" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="365"/>
-      <c r="C31" s="359"/>
+    <row r="31" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="407"/>
+      <c r="C31" s="399"/>
       <c r="D31" s="83" t="s">
         <v>17</v>
       </c>
@@ -7833,9 +7751,9 @@
       </c>
       <c r="N31" s="166"/>
     </row>
-    <row r="32" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="365"/>
-      <c r="C32" s="359"/>
+    <row r="32" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="407"/>
+      <c r="C32" s="399"/>
       <c r="D32" s="84" t="s">
         <v>6</v>
       </c>
@@ -7864,9 +7782,9 @@
       <c r="M32" s="166"/>
       <c r="N32" s="166"/>
     </row>
-    <row r="33" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="365"/>
-      <c r="C33" s="359"/>
+    <row r="33" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="407"/>
+      <c r="C33" s="399"/>
       <c r="D33" s="83" t="s">
         <v>7</v>
       </c>
@@ -7893,9 +7811,9 @@
         <v>-0.14199999999999999</v>
       </c>
     </row>
-    <row r="34" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="365"/>
-      <c r="C34" s="359"/>
+    <row r="34" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="407"/>
+      <c r="C34" s="399"/>
       <c r="D34" s="83" t="s">
         <v>8</v>
       </c>
@@ -7922,9 +7840,9 @@
         <v>-0.107</v>
       </c>
     </row>
-    <row r="35" spans="2:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="365"/>
-      <c r="C35" s="374"/>
+    <row r="35" spans="2:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B35" s="407"/>
+      <c r="C35" s="400"/>
       <c r="D35" s="85" t="s">
         <v>9</v>
       </c>
@@ -7951,9 +7869,9 @@
         <v>-9.1700000000000004E-2</v>
       </c>
     </row>
-    <row r="36" spans="2:12" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="365"/>
-      <c r="C36" s="358" t="s">
+    <row r="36" spans="2:12" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="407"/>
+      <c r="C36" s="398" t="s">
         <v>18</v>
       </c>
       <c r="D36" s="84" t="s">
@@ -7982,9 +7900,9 @@
         <v>-0.113</v>
       </c>
     </row>
-    <row r="37" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="365"/>
-      <c r="C37" s="359"/>
+    <row r="37" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="407"/>
+      <c r="C37" s="399"/>
       <c r="D37" s="83" t="s">
         <v>17</v>
       </c>
@@ -8011,9 +7929,9 @@
         <v>-0.126</v>
       </c>
     </row>
-    <row r="38" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="365"/>
-      <c r="C38" s="359"/>
+    <row r="38" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="407"/>
+      <c r="C38" s="399"/>
       <c r="D38" s="84" t="s">
         <v>6</v>
       </c>
@@ -8040,9 +7958,9 @@
         <v>-0.112</v>
       </c>
     </row>
-    <row r="39" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="365"/>
-      <c r="C39" s="359"/>
+    <row r="39" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="407"/>
+      <c r="C39" s="399"/>
       <c r="D39" s="83" t="s">
         <v>7</v>
       </c>
@@ -8069,9 +7987,9 @@
         <v>-9.2700000000000005E-2</v>
       </c>
     </row>
-    <row r="40" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="365"/>
-      <c r="C40" s="359"/>
+    <row r="40" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="407"/>
+      <c r="C40" s="399"/>
       <c r="D40" s="83" t="s">
         <v>8</v>
       </c>
@@ -8098,9 +8016,9 @@
         <v>-0.107</v>
       </c>
     </row>
-    <row r="41" spans="2:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="366"/>
-      <c r="C41" s="360"/>
+    <row r="41" spans="2:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B41" s="408"/>
+      <c r="C41" s="401"/>
       <c r="D41" s="195" t="s">
         <v>9</v>
       </c>
@@ -8127,7 +8045,7 @@
         <v>-8.5400000000000004E-2</v>
       </c>
     </row>
-    <row r="42" spans="2:12" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:12" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B42" s="173"/>
       <c r="C42" s="178"/>
       <c r="D42" s="179"/>
@@ -8140,11 +8058,11 @@
       <c r="K42" s="179"/>
       <c r="L42" s="180"/>
     </row>
-    <row r="43" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="364" t="s">
+    <row r="43" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="406" t="s">
         <v>24</v>
       </c>
-      <c r="C43" s="373" t="s">
+      <c r="C43" s="415" t="s">
         <v>2</v>
       </c>
       <c r="D43" s="203" t="s">
@@ -8173,9 +8091,9 @@
         <v>-0.11700000000000001</v>
       </c>
     </row>
-    <row r="44" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="365"/>
-      <c r="C44" s="359"/>
+    <row r="44" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="407"/>
+      <c r="C44" s="399"/>
       <c r="D44" s="83" t="s">
         <v>17</v>
       </c>
@@ -8202,9 +8120,9 @@
         <v>-0.13400000000000001</v>
       </c>
     </row>
-    <row r="45" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="365"/>
-      <c r="C45" s="359"/>
+    <row r="45" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B45" s="407"/>
+      <c r="C45" s="399"/>
       <c r="D45" s="84" t="s">
         <v>6</v>
       </c>
@@ -8231,9 +8149,9 @@
         <v>-0.124</v>
       </c>
     </row>
-    <row r="46" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="365"/>
-      <c r="C46" s="359"/>
+    <row r="46" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="407"/>
+      <c r="C46" s="399"/>
       <c r="D46" s="83" t="s">
         <v>7</v>
       </c>
@@ -8260,9 +8178,9 @@
         <v>-0.13500000000000001</v>
       </c>
     </row>
-    <row r="47" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="365"/>
-      <c r="C47" s="359"/>
+    <row r="47" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="407"/>
+      <c r="C47" s="399"/>
       <c r="D47" s="83" t="s">
         <v>8</v>
       </c>
@@ -8289,9 +8207,9 @@
         <v>-0.11899999999999999</v>
       </c>
     </row>
-    <row r="48" spans="2:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="365"/>
-      <c r="C48" s="374"/>
+    <row r="48" spans="2:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B48" s="407"/>
+      <c r="C48" s="400"/>
       <c r="D48" s="85" t="s">
         <v>9</v>
       </c>
@@ -8318,9 +8236,9 @@
         <v>-0.10299999999999999</v>
       </c>
     </row>
-    <row r="49" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="365"/>
-      <c r="C49" s="358" t="s">
+    <row r="49" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B49" s="407"/>
+      <c r="C49" s="398" t="s">
         <v>3</v>
       </c>
       <c r="D49" s="84" t="s">
@@ -8349,9 +8267,9 @@
         <v>-0.13100000000000001</v>
       </c>
     </row>
-    <row r="50" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="365"/>
-      <c r="C50" s="359"/>
+    <row r="50" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B50" s="407"/>
+      <c r="C50" s="399"/>
       <c r="D50" s="83" t="s">
         <v>17</v>
       </c>
@@ -8379,9 +8297,9 @@
       </c>
       <c r="N50" s="166"/>
     </row>
-    <row r="51" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="365"/>
-      <c r="C51" s="359"/>
+    <row r="51" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B51" s="407"/>
+      <c r="C51" s="399"/>
       <c r="D51" s="84" t="s">
         <v>6</v>
       </c>
@@ -8409,9 +8327,9 @@
       </c>
       <c r="N51" s="166"/>
     </row>
-    <row r="52" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="365"/>
-      <c r="C52" s="359"/>
+    <row r="52" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B52" s="407"/>
+      <c r="C52" s="399"/>
       <c r="D52" s="83" t="s">
         <v>7</v>
       </c>
@@ -8438,9 +8356,9 @@
         <v>-0.154</v>
       </c>
     </row>
-    <row r="53" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="365"/>
-      <c r="C53" s="359"/>
+    <row r="53" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B53" s="407"/>
+      <c r="C53" s="399"/>
       <c r="D53" s="83" t="s">
         <v>8</v>
       </c>
@@ -8467,9 +8385,9 @@
         <v>-0.15</v>
       </c>
     </row>
-    <row r="54" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="365"/>
-      <c r="C54" s="374"/>
+    <row r="54" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B54" s="407"/>
+      <c r="C54" s="400"/>
       <c r="D54" s="85" t="s">
         <v>9</v>
       </c>
@@ -8496,9 +8414,9 @@
         <v>-0.14000000000000001</v>
       </c>
     </row>
-    <row r="55" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="365"/>
-      <c r="C55" s="358" t="s">
+    <row r="55" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B55" s="407"/>
+      <c r="C55" s="398" t="s">
         <v>18</v>
       </c>
       <c r="D55" s="84" t="s">
@@ -8527,9 +8445,9 @@
         <v>-0.12</v>
       </c>
     </row>
-    <row r="56" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="365"/>
-      <c r="C56" s="359"/>
+    <row r="56" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B56" s="407"/>
+      <c r="C56" s="399"/>
       <c r="D56" s="83" t="s">
         <v>17</v>
       </c>
@@ -8556,9 +8474,9 @@
         <v>-0.14099999999999999</v>
       </c>
     </row>
-    <row r="57" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="365"/>
-      <c r="C57" s="359"/>
+    <row r="57" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B57" s="407"/>
+      <c r="C57" s="399"/>
       <c r="D57" s="84" t="s">
         <v>6</v>
       </c>
@@ -8585,9 +8503,9 @@
         <v>-0.13300000000000001</v>
       </c>
     </row>
-    <row r="58" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="365"/>
-      <c r="C58" s="359"/>
+    <row r="58" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B58" s="407"/>
+      <c r="C58" s="399"/>
       <c r="D58" s="83" t="s">
         <v>7</v>
       </c>
@@ -8614,9 +8532,9 @@
         <v>-0.16200000000000001</v>
       </c>
     </row>
-    <row r="59" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="365"/>
-      <c r="C59" s="359"/>
+    <row r="59" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B59" s="407"/>
+      <c r="C59" s="399"/>
       <c r="D59" s="83" t="s">
         <v>8</v>
       </c>
@@ -8643,9 +8561,9 @@
         <v>-0.13200000000000001</v>
       </c>
     </row>
-    <row r="60" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="366"/>
-      <c r="C60" s="360"/>
+    <row r="60" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B60" s="408"/>
+      <c r="C60" s="401"/>
       <c r="D60" s="185" t="s">
         <v>9</v>
       </c>
@@ -8672,49 +8590,44 @@
         <v>-0.121</v>
       </c>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.35">
       <c r="I61"/>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.35">
       <c r="I62"/>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.35">
       <c r="I63"/>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.35">
       <c r="I64"/>
     </row>
-    <row r="65" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I65"/>
     </row>
-    <row r="66" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I66"/>
     </row>
-    <row r="67" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I67"/>
     </row>
-    <row r="68" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I68"/>
     </row>
-    <row r="69" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I69"/>
     </row>
-    <row r="70" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I70"/>
     </row>
-    <row r="71" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I71"/>
     </row>
-    <row r="72" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I72"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="B43:B60"/>
-    <mergeCell ref="C43:C48"/>
-    <mergeCell ref="C49:C54"/>
-    <mergeCell ref="C55:C60"/>
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="E3:F3"/>
@@ -8727,6 +8640,11 @@
     <mergeCell ref="C5:C10"/>
     <mergeCell ref="C11:C16"/>
     <mergeCell ref="C17:C22"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="B43:B60"/>
+    <mergeCell ref="C43:C48"/>
+    <mergeCell ref="C49:C54"/>
+    <mergeCell ref="C55:C60"/>
   </mergeCells>
   <conditionalFormatting sqref="N10">
     <cfRule type="colorScale" priority="3">
@@ -8753,50 +8671,50 @@
       <selection activeCell="T12" sqref="T12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="10.140625" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="5" max="6" width="10.7109375" customWidth="1"/>
-    <col min="7" max="8" width="9.28515625" customWidth="1"/>
-    <col min="9" max="9" width="9.85546875" customWidth="1"/>
-    <col min="10" max="10" width="0.42578125" customWidth="1"/>
-    <col min="11" max="13" width="10.42578125" customWidth="1"/>
-    <col min="14" max="14" width="10.5703125" customWidth="1"/>
+    <col min="2" max="2" width="10.1796875" customWidth="1"/>
+    <col min="3" max="3" width="15.7265625" customWidth="1"/>
+    <col min="4" max="4" width="13.7265625" customWidth="1"/>
+    <col min="5" max="6" width="10.7265625" customWidth="1"/>
+    <col min="7" max="8" width="9.26953125" customWidth="1"/>
+    <col min="9" max="9" width="9.81640625" customWidth="1"/>
+    <col min="10" max="10" width="0.453125" customWidth="1"/>
+    <col min="11" max="13" width="10.453125" customWidth="1"/>
+    <col min="14" max="14" width="10.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:19" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E2" s="361" t="s">
+    <row r="1" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:19" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E2" s="402" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="362"/>
-      <c r="G2" s="362"/>
-      <c r="H2" s="362"/>
-      <c r="I2" s="363"/>
+      <c r="F2" s="403"/>
+      <c r="G2" s="403"/>
+      <c r="H2" s="403"/>
+      <c r="I2" s="404"/>
       <c r="J2" s="259"/>
-      <c r="K2" s="361" t="s">
+      <c r="K2" s="402" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="362"/>
-      <c r="M2" s="362"/>
-      <c r="N2" s="363"/>
-    </row>
-    <row r="3" spans="2:19" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="370" t="s">
+      <c r="L2" s="403"/>
+      <c r="M2" s="403"/>
+      <c r="N2" s="404"/>
+    </row>
+    <row r="3" spans="2:19" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="412" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="371"/>
-      <c r="D3" s="372"/>
-      <c r="E3" s="367" t="s">
+      <c r="C3" s="413"/>
+      <c r="D3" s="414"/>
+      <c r="E3" s="409" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="368"/>
-      <c r="G3" s="369" t="s">
+      <c r="F3" s="410"/>
+      <c r="G3" s="411" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="368"/>
+      <c r="H3" s="410"/>
       <c r="I3" s="215" t="s">
         <v>35</v>
       </c>
@@ -8814,7 +8732,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="2:19" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:19" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="205" t="s">
         <v>22</v>
       </c>
@@ -8853,11 +8771,11 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="2:19" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="364" t="s">
+    <row r="5" spans="2:19" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="406" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="373" t="s">
+      <c r="C5" s="415" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="145" t="s">
@@ -8892,9 +8810,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="2:19" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="365"/>
-      <c r="C6" s="359"/>
+    <row r="6" spans="2:19" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="407"/>
+      <c r="C6" s="399"/>
       <c r="D6" s="144" t="s">
         <v>17</v>
       </c>
@@ -8928,9 +8846,9 @@
       </c>
       <c r="S6" s="273"/>
     </row>
-    <row r="7" spans="2:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="365"/>
-      <c r="C7" s="359"/>
+    <row r="7" spans="2:19" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="407"/>
+      <c r="C7" s="399"/>
       <c r="D7" s="144" t="s">
         <v>7</v>
       </c>
@@ -8963,9 +8881,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="2:19" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="365"/>
-      <c r="C8" s="374"/>
+    <row r="8" spans="2:19" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="407"/>
+      <c r="C8" s="400"/>
       <c r="D8" s="146" t="s">
         <v>9</v>
       </c>
@@ -8998,9 +8916,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="2:19" ht="15.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="365"/>
-      <c r="C9" s="359" t="s">
+    <row r="9" spans="2:19" ht="16" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="407"/>
+      <c r="C9" s="399" t="s">
         <v>3</v>
       </c>
       <c r="D9" s="144" t="s">
@@ -9035,9 +8953,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="2:19" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="365"/>
-      <c r="C10" s="374"/>
+    <row r="10" spans="2:19" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="407"/>
+      <c r="C10" s="400"/>
       <c r="D10" s="146" t="s">
         <v>9</v>
       </c>
@@ -9070,9 +8988,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="2:19" ht="15.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="365"/>
-      <c r="C11" s="358" t="s">
+    <row r="11" spans="2:19" ht="16" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="407"/>
+      <c r="C11" s="398" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="145" t="s">
@@ -9107,9 +9025,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="2:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="365"/>
-      <c r="C12" s="359"/>
+    <row r="12" spans="2:19" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="407"/>
+      <c r="C12" s="399"/>
       <c r="D12" s="144" t="s">
         <v>17</v>
       </c>
@@ -9142,9 +9060,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="2:19" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="366"/>
-      <c r="C13" s="360"/>
+    <row r="13" spans="2:19" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="408"/>
+      <c r="C13" s="401"/>
       <c r="D13" s="174" t="s">
         <v>9</v>
       </c>
@@ -9177,7 +9095,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="2:19" ht="2.4500000000000002" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:19" ht="2.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B14" s="173"/>
       <c r="C14" s="221"/>
       <c r="D14" s="194"/>
@@ -9192,11 +9110,11 @@
       <c r="M14" s="194"/>
       <c r="N14" s="275"/>
     </row>
-    <row r="15" spans="2:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="364" t="s">
+    <row r="15" spans="2:19" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="406" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="381" t="s">
+      <c r="C15" s="416" t="s">
         <v>2</v>
       </c>
       <c r="D15" s="190" t="s">
@@ -9231,9 +9149,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="2:19" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="365"/>
-      <c r="C16" s="374"/>
+    <row r="16" spans="2:19" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="407"/>
+      <c r="C16" s="400"/>
       <c r="D16" s="191" t="s">
         <v>8</v>
       </c>
@@ -9266,9 +9184,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="2:14" ht="15.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="365"/>
-      <c r="C17" s="359" t="s">
+    <row r="17" spans="2:14" ht="16" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="407"/>
+      <c r="C17" s="399" t="s">
         <v>3</v>
       </c>
       <c r="D17" s="83" t="s">
@@ -9303,9 +9221,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="2:14" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="365"/>
-      <c r="C18" s="359"/>
+    <row r="18" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="407"/>
+      <c r="C18" s="399"/>
       <c r="D18" s="83" t="s">
         <v>7</v>
       </c>
@@ -9338,9 +9256,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="2:14" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="365"/>
-      <c r="C19" s="359"/>
+    <row r="19" spans="2:14" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="407"/>
+      <c r="C19" s="399"/>
       <c r="D19" s="191" t="s">
         <v>8</v>
       </c>
@@ -9373,9 +9291,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="2:14" ht="15.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="365"/>
-      <c r="C20" s="358" t="s">
+    <row r="20" spans="2:14" ht="16" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="407"/>
+      <c r="C20" s="398" t="s">
         <v>18</v>
       </c>
       <c r="D20" s="84" t="s">
@@ -9410,9 +9328,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="2:14" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="365"/>
-      <c r="C21" s="359"/>
+    <row r="21" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="407"/>
+      <c r="C21" s="399"/>
       <c r="D21" s="83" t="s">
         <v>17</v>
       </c>
@@ -9445,9 +9363,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="2:14" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="366"/>
-      <c r="C22" s="360"/>
+    <row r="22" spans="2:14" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B22" s="408"/>
+      <c r="C22" s="401"/>
       <c r="D22" s="195" t="s">
         <v>9</v>
       </c>
@@ -9480,7 +9398,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="2:14" ht="2.4500000000000002" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:14" ht="2.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B23" s="173"/>
       <c r="C23" s="178"/>
       <c r="D23" s="179"/>
@@ -9495,11 +9413,11 @@
       <c r="M23" s="179"/>
       <c r="N23" s="257"/>
     </row>
-    <row r="24" spans="2:14" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="364" t="s">
+    <row r="24" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="406" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="373" t="s">
+      <c r="C24" s="415" t="s">
         <v>2</v>
       </c>
       <c r="D24" s="203" t="s">
@@ -9534,9 +9452,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="2:14" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="365"/>
-      <c r="C25" s="359"/>
+    <row r="25" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="407"/>
+      <c r="C25" s="399"/>
       <c r="D25" s="83" t="s">
         <v>17</v>
       </c>
@@ -9569,9 +9487,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="2:14" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="365"/>
-      <c r="C26" s="359"/>
+    <row r="26" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="407"/>
+      <c r="C26" s="399"/>
       <c r="D26" s="83" t="s">
         <v>8</v>
       </c>
@@ -9604,9 +9522,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="2:14" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="365"/>
-      <c r="C27" s="374"/>
+    <row r="27" spans="2:14" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B27" s="407"/>
+      <c r="C27" s="400"/>
       <c r="D27" s="85" t="s">
         <v>9</v>
       </c>
@@ -9639,9 +9557,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="2:14" ht="15.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="365"/>
-      <c r="C28" s="358" t="s">
+    <row r="28" spans="2:14" ht="16" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="407"/>
+      <c r="C28" s="398" t="s">
         <v>3</v>
       </c>
       <c r="D28" s="84" t="s">
@@ -9676,9 +9594,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="2:14" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="365"/>
-      <c r="C29" s="359"/>
+    <row r="29" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="407"/>
+      <c r="C29" s="399"/>
       <c r="D29" s="84" t="s">
         <v>6</v>
       </c>
@@ -9711,9 +9629,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="2:14" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="365"/>
-      <c r="C30" s="374"/>
+    <row r="30" spans="2:14" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B30" s="407"/>
+      <c r="C30" s="400"/>
       <c r="D30" s="85" t="s">
         <v>9</v>
       </c>
@@ -9746,9 +9664,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="2:14" ht="15.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="365"/>
-      <c r="C31" s="358" t="s">
+    <row r="31" spans="2:14" ht="16" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="407"/>
+      <c r="C31" s="398" t="s">
         <v>18</v>
       </c>
       <c r="D31" s="84" t="s">
@@ -9783,9 +9701,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="2:14" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="366"/>
-      <c r="C32" s="360"/>
+    <row r="32" spans="2:14" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B32" s="408"/>
+      <c r="C32" s="401"/>
       <c r="D32" s="185" t="s">
         <v>7</v>
       </c>
@@ -9820,11 +9738,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="B15:B22"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="C20:C22"/>
     <mergeCell ref="B24:B32"/>
     <mergeCell ref="C24:C27"/>
     <mergeCell ref="C28:C30"/>
@@ -9837,6 +9750,11 @@
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="G3:H3"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="B15:B22"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="C20:C22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9851,53 +9769,53 @@
       <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="7" max="7" width="20.5703125" customWidth="1"/>
-    <col min="8" max="8" width="19.7109375" customWidth="1"/>
+    <col min="1" max="1" width="3.7265625" customWidth="1"/>
+    <col min="2" max="2" width="20.453125" customWidth="1"/>
+    <col min="3" max="3" width="22.26953125" customWidth="1"/>
+    <col min="4" max="4" width="15.7265625" customWidth="1"/>
+    <col min="5" max="5" width="13.7265625" customWidth="1"/>
+    <col min="7" max="7" width="20.54296875" customWidth="1"/>
+    <col min="8" max="8" width="19.7265625" customWidth="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
     <col min="10" max="10" width="12" customWidth="1"/>
     <col min="12" max="12" width="20" customWidth="1"/>
-    <col min="13" max="13" width="21.42578125" customWidth="1"/>
-    <col min="14" max="14" width="10.85546875" customWidth="1"/>
-    <col min="15" max="15" width="15.42578125" customWidth="1"/>
+    <col min="13" max="13" width="21.453125" customWidth="1"/>
+    <col min="14" max="14" width="10.81640625" customWidth="1"/>
+    <col min="15" max="15" width="15.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:15" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="384" t="s">
+    <row r="1" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:15" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="424" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="385"/>
-      <c r="D2" s="386" t="s">
+      <c r="C2" s="425"/>
+      <c r="D2" s="426" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="387"/>
+      <c r="E2" s="427"/>
       <c r="F2" s="12"/>
-      <c r="G2" s="384" t="s">
+      <c r="G2" s="424" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="388"/>
-      <c r="I2" s="386" t="s">
+      <c r="H2" s="428"/>
+      <c r="I2" s="426" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="387"/>
+      <c r="J2" s="427"/>
       <c r="K2" s="12"/>
-      <c r="L2" s="384" t="s">
+      <c r="L2" s="424" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="388"/>
-      <c r="N2" s="389" t="s">
+      <c r="M2" s="428"/>
+      <c r="N2" s="429" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="387"/>
-    </row>
-    <row r="3" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O2" s="427"/>
+    </row>
+    <row r="3" spans="2:15" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="7" t="s">
         <v>0</v>
       </c>
@@ -9935,7 +9853,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:15" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B4" s="8" t="s">
         <v>1</v>
       </c>
@@ -9961,7 +9879,7 @@
       <c r="N4" s="68"/>
       <c r="O4" s="68"/>
     </row>
-    <row r="5" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:15" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B5" s="9" t="s">
         <v>1</v>
       </c>
@@ -9987,7 +9905,7 @@
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
     </row>
-    <row r="6" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:15" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B6" s="8" t="s">
         <v>1</v>
       </c>
@@ -10025,7 +9943,7 @@
         <v>1.125</v>
       </c>
     </row>
-    <row r="7" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:15" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B7" s="9" t="s">
         <v>1</v>
       </c>
@@ -10063,7 +9981,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="8" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:15" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B8" s="9" t="s">
         <v>1</v>
       </c>
@@ -10101,7 +10019,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="9" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:15" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B9" s="59" t="s">
         <v>1</v>
       </c>
@@ -10139,7 +10057,7 @@
         <v>0.92500000000000004</v>
       </c>
     </row>
-    <row r="10" spans="2:15" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:15" ht="19" thickTop="1" x14ac:dyDescent="0.45">
       <c r="B10" s="8" t="s">
         <v>2</v>
       </c>
@@ -10165,7 +10083,7 @@
       <c r="N10" s="73"/>
       <c r="O10" s="74"/>
     </row>
-    <row r="11" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:15" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B11" s="8" t="s">
         <v>2</v>
       </c>
@@ -10191,7 +10109,7 @@
       <c r="N11" s="73"/>
       <c r="O11" s="74"/>
     </row>
-    <row r="12" spans="2:15" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:15" ht="19" thickTop="1" x14ac:dyDescent="0.45">
       <c r="B12" s="8" t="s">
         <v>2</v>
       </c>
@@ -10229,7 +10147,7 @@
         <v>1.175</v>
       </c>
     </row>
-    <row r="13" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:15" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B13" s="9" t="s">
         <v>2</v>
       </c>
@@ -10267,7 +10185,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="14" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:15" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B14" s="9" t="s">
         <v>2</v>
       </c>
@@ -10305,7 +10223,7 @@
         <v>1.075</v>
       </c>
     </row>
-    <row r="15" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:15" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B15" s="59" t="s">
         <v>2</v>
       </c>
@@ -10343,7 +10261,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="16" spans="2:15" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:15" ht="19" thickTop="1" x14ac:dyDescent="0.45">
       <c r="B16" s="8" t="s">
         <v>3</v>
       </c>
@@ -10369,7 +10287,7 @@
       <c r="N16" s="68"/>
       <c r="O16" s="68"/>
     </row>
-    <row r="17" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:15" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B17" s="8" t="s">
         <v>3</v>
       </c>
@@ -10395,7 +10313,7 @@
       <c r="N17" s="5"/>
       <c r="O17" s="5"/>
     </row>
-    <row r="18" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:15" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B18" s="8" t="s">
         <v>3</v>
       </c>
@@ -10433,7 +10351,7 @@
         <v>0.92500000000000004</v>
       </c>
     </row>
-    <row r="19" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:15" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B19" s="9" t="s">
         <v>3</v>
       </c>
@@ -10471,7 +10389,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="20" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:15" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B20" s="9" t="s">
         <v>3</v>
       </c>
@@ -10509,7 +10427,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="21" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:15" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B21" s="10" t="s">
         <v>3</v>
       </c>
@@ -10547,36 +10465,36 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="23" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="2:15" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="384" t="s">
+    <row r="23" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="24" spans="2:15" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B24" s="424" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="385"/>
-      <c r="D24" s="382" t="s">
+      <c r="C24" s="425"/>
+      <c r="D24" s="422" t="s">
         <v>15</v>
       </c>
-      <c r="E24" s="383"/>
+      <c r="E24" s="423"/>
       <c r="F24" s="12"/>
-      <c r="G24" s="384" t="s">
+      <c r="G24" s="424" t="s">
         <v>13</v>
       </c>
-      <c r="H24" s="388"/>
-      <c r="I24" s="382" t="s">
+      <c r="H24" s="428"/>
+      <c r="I24" s="422" t="s">
         <v>15</v>
       </c>
-      <c r="J24" s="383"/>
+      <c r="J24" s="423"/>
       <c r="K24" s="12"/>
-      <c r="L24" s="384" t="s">
+      <c r="L24" s="424" t="s">
         <v>14</v>
       </c>
-      <c r="M24" s="388"/>
-      <c r="N24" s="382" t="s">
+      <c r="M24" s="428"/>
+      <c r="N24" s="422" t="s">
         <v>15</v>
       </c>
-      <c r="O24" s="383"/>
-    </row>
-    <row r="25" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O24" s="423"/>
+    </row>
+    <row r="25" spans="2:15" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B25" s="7" t="s">
         <v>0</v>
       </c>
@@ -10614,7 +10532,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:15" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B26" s="57" t="s">
         <v>1</v>
       </c>
@@ -10640,7 +10558,7 @@
       <c r="N26" s="75"/>
       <c r="O26" s="76"/>
     </row>
-    <row r="27" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:15" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B27" s="9" t="s">
         <v>1</v>
       </c>
@@ -10666,7 +10584,7 @@
       <c r="N27" s="5"/>
       <c r="O27" s="69"/>
     </row>
-    <row r="28" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:15" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B28" s="8" t="s">
         <v>1</v>
       </c>
@@ -10704,7 +10622,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="29" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:15" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B29" s="9" t="s">
         <v>1</v>
       </c>
@@ -10742,7 +10660,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="30" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:15" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B30" s="9" t="s">
         <v>1</v>
       </c>
@@ -10780,7 +10698,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="31" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:15" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B31" s="59" t="s">
         <v>1</v>
       </c>
@@ -10818,7 +10736,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="32" spans="2:15" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:15" ht="19" thickTop="1" x14ac:dyDescent="0.45">
       <c r="B32" s="8" t="s">
         <v>2</v>
       </c>
@@ -10844,7 +10762,7 @@
       <c r="N32" s="68"/>
       <c r="O32" s="68"/>
     </row>
-    <row r="33" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:15" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B33" s="9" t="s">
         <v>2</v>
       </c>
@@ -10870,7 +10788,7 @@
       <c r="N33" s="5"/>
       <c r="O33" s="5"/>
     </row>
-    <row r="34" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:15" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B34" s="8" t="s">
         <v>2</v>
       </c>
@@ -10908,7 +10826,7 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="35" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:15" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B35" s="9" t="s">
         <v>2</v>
       </c>
@@ -10946,7 +10864,7 @@
         <v>0.42499999999999999</v>
       </c>
     </row>
-    <row r="36" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:15" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B36" s="9" t="s">
         <v>2</v>
       </c>
@@ -10984,7 +10902,7 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="37" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:15" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B37" s="59" t="s">
         <v>2</v>
       </c>
@@ -11022,7 +10940,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="38" spans="2:15" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:15" ht="19" thickTop="1" x14ac:dyDescent="0.45">
       <c r="B38" s="8" t="s">
         <v>3</v>
       </c>
@@ -11048,7 +10966,7 @@
       <c r="N38" s="68"/>
       <c r="O38" s="68"/>
     </row>
-    <row r="39" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:15" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B39" s="8" t="s">
         <v>3</v>
       </c>
@@ -11074,7 +10992,7 @@
       <c r="N39" s="5"/>
       <c r="O39" s="5"/>
     </row>
-    <row r="40" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:15" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B40" s="8" t="s">
         <v>3</v>
       </c>
@@ -11112,7 +11030,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="41" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:15" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B41" s="9" t="s">
         <v>3</v>
       </c>
@@ -11150,7 +11068,7 @@
         <v>0.32500000000000001</v>
       </c>
     </row>
-    <row r="42" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:15" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B42" s="9" t="s">
         <v>3</v>
       </c>
@@ -11188,7 +11106,7 @@
         <v>0.42499999999999999</v>
       </c>
     </row>
-    <row r="43" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:15" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B43" s="10" t="s">
         <v>3</v>
       </c>

--- a/tables.xlsx
+++ b/tables.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdolden\Desktop\Ch3_floweringrush\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{695A0EB2-A241-485C-BEAC-8453E9F4C3E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C6F2AFA-D03A-463C-ADC3-B62DD6C48089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25320" yWindow="300" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{94130567-C790-4197-BF09-72317C0E58C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Space1" sheetId="1" r:id="rId1"/>
-    <sheet name="Space1 (short)" sheetId="5" r:id="rId2"/>
-    <sheet name="Space1 (with C dat)" sheetId="9" r:id="rId3"/>
-    <sheet name="Space 2" sheetId="6" r:id="rId4"/>
-    <sheet name="Space 2 (short)" sheetId="7" r:id="rId5"/>
-    <sheet name="OLD" sheetId="3" r:id="rId6"/>
+    <sheet name="Space1 20-add" sheetId="10" r:id="rId2"/>
+    <sheet name="Space1 (short)" sheetId="5" r:id="rId3"/>
+    <sheet name="Space1 (with C dat)" sheetId="9" r:id="rId4"/>
+    <sheet name="Space 2" sheetId="6" r:id="rId5"/>
+    <sheet name="Space 2 (short)" sheetId="7" r:id="rId6"/>
+    <sheet name="OLD" sheetId="3" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Space 2'!$K$4:$L$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Space 2'!$K$4:$L$22</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="56">
   <si>
     <t>Location</t>
   </si>
@@ -319,6 +320,15 @@
     <t>Model performance: relative bias
 (+ : overestimated &amp;  - : underestimated)</t>
   </si>
+  <si>
+    <t xml:space="preserve">Binned </t>
+  </si>
+  <si>
+    <t>(0.5, 0.75) A</t>
+  </si>
+  <si>
+    <t>(0.5, 0.75) A +C</t>
+  </si>
 </sst>
 </file>
 
@@ -327,7 +337,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -407,6 +417,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="13">
     <fill>
@@ -482,7 +498,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="84">
+  <borders count="89">
     <border>
       <left/>
       <right/>
@@ -1547,11 +1563,68 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="436">
+  <cellXfs count="471">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2522,102 +2595,6 @@
     <xf numFmtId="164" fontId="10" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="7" fillId="4" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2683,69 +2660,264 @@
     <xf numFmtId="164" fontId="10" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="12" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="9" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="9" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="12" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="9" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="12" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="12" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="12" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3092,7 +3264,7 @@
   <dimension ref="B1:N92"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="50" zoomScalePageLayoutView="40" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:L60"/>
+      <selection activeCell="L21" activeCellId="5" sqref="J15 K15 L15 J21 K21 L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3116,33 +3288,33 @@
       <c r="I1"/>
     </row>
     <row r="2" spans="2:14" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E2" s="361" t="s">
+      <c r="E2" s="403" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="362"/>
-      <c r="G2" s="362"/>
-      <c r="H2" s="363"/>
+      <c r="F2" s="404"/>
+      <c r="G2" s="404"/>
+      <c r="H2" s="405"/>
       <c r="I2" s="287"/>
-      <c r="J2" s="375" t="s">
+      <c r="J2" s="406" t="s">
         <v>52</v>
       </c>
-      <c r="K2" s="362"/>
-      <c r="L2" s="363"/>
+      <c r="K2" s="404"/>
+      <c r="L2" s="405"/>
     </row>
     <row r="3" spans="2:14" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="370" t="s">
+      <c r="B3" s="413" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="371"/>
-      <c r="D3" s="372"/>
-      <c r="E3" s="367" t="s">
+      <c r="C3" s="414"/>
+      <c r="D3" s="415"/>
+      <c r="E3" s="410" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="368"/>
-      <c r="G3" s="369" t="s">
+      <c r="F3" s="411"/>
+      <c r="G3" s="412" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="368"/>
+      <c r="H3" s="411"/>
       <c r="I3" s="288"/>
       <c r="J3" s="214" t="s">
         <v>31</v>
@@ -3190,10 +3362,10 @@
       <c r="M4" s="77"/>
     </row>
     <row r="5" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="364" t="s">
+      <c r="B5" s="407" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="373" t="s">
+      <c r="C5" s="416" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="145" t="s">
@@ -3208,7 +3380,7 @@
       <c r="G5" s="108">
         <v>0.27500000000000002</v>
       </c>
-      <c r="H5" s="391">
+      <c r="H5" s="359">
         <v>0.57499999999999996</v>
       </c>
       <c r="I5" s="290"/>
@@ -3224,8 +3396,8 @@
       <c r="M5" s="79"/>
     </row>
     <row r="6" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="365"/>
-      <c r="C6" s="359"/>
+      <c r="B6" s="408"/>
+      <c r="C6" s="400"/>
       <c r="D6" s="144" t="s">
         <v>17</v>
       </c>
@@ -3254,8 +3426,8 @@
       <c r="M6" s="79"/>
     </row>
     <row r="7" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="365"/>
-      <c r="C7" s="359"/>
+      <c r="B7" s="408"/>
+      <c r="C7" s="400"/>
       <c r="D7" s="145" t="s">
         <v>6</v>
       </c>
@@ -3284,8 +3456,8 @@
       <c r="M7" s="79"/>
     </row>
     <row r="8" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="365"/>
-      <c r="C8" s="359"/>
+      <c r="B8" s="408"/>
+      <c r="C8" s="400"/>
       <c r="D8" s="144" t="s">
         <v>7</v>
       </c>
@@ -3314,8 +3486,8 @@
       <c r="M8" s="79"/>
     </row>
     <row r="9" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="365"/>
-      <c r="C9" s="359"/>
+      <c r="B9" s="408"/>
+      <c r="C9" s="400"/>
       <c r="D9" s="144" t="s">
         <v>8</v>
       </c>
@@ -3344,8 +3516,8 @@
       <c r="M9" s="78"/>
     </row>
     <row r="10" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="365"/>
-      <c r="C10" s="374"/>
+      <c r="B10" s="408"/>
+      <c r="C10" s="401"/>
       <c r="D10" s="146" t="s">
         <v>9</v>
       </c>
@@ -3374,8 +3546,8 @@
       <c r="M10" s="79"/>
     </row>
     <row r="11" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="365"/>
-      <c r="C11" s="358" t="s">
+      <c r="B11" s="408"/>
+      <c r="C11" s="399" t="s">
         <v>3</v>
       </c>
       <c r="D11" s="145" t="s">
@@ -3397,7 +3569,7 @@
       <c r="J11" s="157">
         <v>0.19900000000000001</v>
       </c>
-      <c r="K11" s="406">
+      <c r="K11" s="374">
         <v>1.89E-2</v>
       </c>
       <c r="L11" s="158">
@@ -3407,8 +3579,8 @@
       <c r="N11" s="166"/>
     </row>
     <row r="12" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="365"/>
-      <c r="C12" s="359"/>
+      <c r="B12" s="408"/>
+      <c r="C12" s="400"/>
       <c r="D12" s="144" t="s">
         <v>17</v>
       </c>
@@ -3437,8 +3609,8 @@
       <c r="M12" s="81"/>
     </row>
     <row r="13" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="365"/>
-      <c r="C13" s="359"/>
+      <c r="B13" s="408"/>
+      <c r="C13" s="400"/>
       <c r="D13" s="145" t="s">
         <v>6</v>
       </c>
@@ -3468,8 +3640,8 @@
       <c r="N13" s="166"/>
     </row>
     <row r="14" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="365"/>
-      <c r="C14" s="359"/>
+      <c r="B14" s="408"/>
+      <c r="C14" s="400"/>
       <c r="D14" s="144" t="s">
         <v>7</v>
       </c>
@@ -3479,7 +3651,7 @@
       <c r="F14" s="89">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G14" s="396">
+      <c r="G14" s="364">
         <v>0.20899999999999999</v>
       </c>
       <c r="H14" s="110">
@@ -3499,8 +3671,8 @@
       <c r="N14" s="166"/>
     </row>
     <row r="15" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="365"/>
-      <c r="C15" s="359"/>
+      <c r="B15" s="408"/>
+      <c r="C15" s="400"/>
       <c r="D15" s="144" t="s">
         <v>8</v>
       </c>
@@ -3517,7 +3689,7 @@
         <v>0.45</v>
       </c>
       <c r="I15" s="294"/>
-      <c r="J15" s="405">
+      <c r="J15" s="373">
         <v>0.16700000000000001</v>
       </c>
       <c r="K15" s="155">
@@ -3529,8 +3701,8 @@
       <c r="M15" s="79"/>
     </row>
     <row r="16" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="365"/>
-      <c r="C16" s="374"/>
+      <c r="B16" s="408"/>
+      <c r="C16" s="401"/>
       <c r="D16" s="146" t="s">
         <v>9</v>
       </c>
@@ -3553,14 +3725,14 @@
       <c r="K16" s="156">
         <v>-0.109</v>
       </c>
-      <c r="L16" s="409">
+      <c r="L16" s="377">
         <v>1.7600000000000001E-3</v>
       </c>
       <c r="M16" s="79"/>
     </row>
     <row r="17" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="365"/>
-      <c r="C17" s="358" t="s">
+      <c r="B17" s="408"/>
+      <c r="C17" s="399" t="s">
         <v>18</v>
       </c>
       <c r="D17" s="145" t="s">
@@ -3591,8 +3763,8 @@
       <c r="M17" s="169"/>
     </row>
     <row r="18" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="365"/>
-      <c r="C18" s="359"/>
+      <c r="B18" s="408"/>
+      <c r="C18" s="400"/>
       <c r="D18" s="144" t="s">
         <v>17</v>
       </c>
@@ -3621,8 +3793,8 @@
       <c r="M18" s="79"/>
     </row>
     <row r="19" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="365"/>
-      <c r="C19" s="359"/>
+      <c r="B19" s="408"/>
+      <c r="C19" s="400"/>
       <c r="D19" s="145" t="s">
         <v>6</v>
       </c>
@@ -3651,8 +3823,8 @@
       <c r="M19" s="79"/>
     </row>
     <row r="20" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="365"/>
-      <c r="C20" s="359"/>
+      <c r="B20" s="408"/>
+      <c r="C20" s="400"/>
       <c r="D20" s="144" t="s">
         <v>7</v>
       </c>
@@ -3681,8 +3853,8 @@
       <c r="M20" s="79"/>
     </row>
     <row r="21" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="365"/>
-      <c r="C21" s="359"/>
+      <c r="B21" s="408"/>
+      <c r="C21" s="400"/>
       <c r="D21" s="144" t="s">
         <v>8</v>
       </c>
@@ -3711,8 +3883,8 @@
       <c r="M21" s="79"/>
     </row>
     <row r="22" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="366"/>
-      <c r="C22" s="360"/>
+      <c r="B22" s="409"/>
+      <c r="C22" s="402"/>
       <c r="D22" s="174" t="s">
         <v>9</v>
       </c>
@@ -3741,7 +3913,7 @@
       <c r="M22" s="79"/>
     </row>
     <row r="23" spans="2:14" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="393"/>
+      <c r="B23" s="361"/>
       <c r="C23" s="221"/>
       <c r="D23" s="194"/>
       <c r="E23" s="194"/>
@@ -3754,10 +3926,10 @@
       <c r="L23" s="198"/>
     </row>
     <row r="24" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="364" t="s">
+      <c r="B24" s="407" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="373" t="s">
+      <c r="C24" s="416" t="s">
         <v>2</v>
       </c>
       <c r="D24" s="345" t="s">
@@ -3787,8 +3959,8 @@
       </c>
     </row>
     <row r="25" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="365"/>
-      <c r="C25" s="359"/>
+      <c r="B25" s="408"/>
+      <c r="C25" s="400"/>
       <c r="D25" s="339" t="s">
         <v>17</v>
       </c>
@@ -3816,8 +3988,8 @@
       </c>
     </row>
     <row r="26" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="365"/>
-      <c r="C26" s="359"/>
+      <c r="B26" s="408"/>
+      <c r="C26" s="400"/>
       <c r="D26" s="339" t="s">
         <v>6</v>
       </c>
@@ -3830,7 +4002,7 @@
       <c r="G26" s="278">
         <v>0.23400000000000001</v>
       </c>
-      <c r="H26" s="401">
+      <c r="H26" s="369">
         <v>0.5</v>
       </c>
       <c r="I26" s="298"/>
@@ -3845,8 +4017,8 @@
       </c>
     </row>
     <row r="27" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="365"/>
-      <c r="C27" s="359"/>
+      <c r="B27" s="408"/>
+      <c r="C27" s="400"/>
       <c r="D27" s="145" t="s">
         <v>7</v>
       </c>
@@ -3874,8 +4046,8 @@
       </c>
     </row>
     <row r="28" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="365"/>
-      <c r="C28" s="359"/>
+      <c r="B28" s="408"/>
+      <c r="C28" s="400"/>
       <c r="D28" s="144" t="s">
         <v>8</v>
       </c>
@@ -3895,7 +4067,7 @@
       <c r="J28" s="155">
         <v>0.161</v>
       </c>
-      <c r="K28" s="405">
+      <c r="K28" s="373">
         <v>8.8099999999999998E-2</v>
       </c>
       <c r="L28" s="155">
@@ -3903,8 +4075,8 @@
       </c>
     </row>
     <row r="29" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="365"/>
-      <c r="C29" s="374"/>
+      <c r="B29" s="408"/>
+      <c r="C29" s="401"/>
       <c r="D29" s="146" t="s">
         <v>9</v>
       </c>
@@ -3927,13 +4099,13 @@
       <c r="K29" s="201">
         <v>-0.34100000000000003</v>
       </c>
-      <c r="L29" s="410">
+      <c r="L29" s="378">
         <v>-0.107</v>
       </c>
     </row>
     <row r="30" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="365"/>
-      <c r="C30" s="358" t="s">
+      <c r="B30" s="408"/>
+      <c r="C30" s="399" t="s">
         <v>3</v>
       </c>
       <c r="D30" s="145" t="s">
@@ -3942,7 +4114,7 @@
       <c r="E30" s="120">
         <v>0.66400000000000003</v>
       </c>
-      <c r="F30" s="391">
+      <c r="F30" s="359">
         <v>1.25</v>
       </c>
       <c r="G30" s="121">
@@ -3965,8 +4137,8 @@
       <c r="N30" s="166"/>
     </row>
     <row r="31" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="365"/>
-      <c r="C31" s="359"/>
+      <c r="B31" s="408"/>
+      <c r="C31" s="400"/>
       <c r="D31" s="144" t="s">
         <v>17</v>
       </c>
@@ -3994,8 +4166,8 @@
       </c>
     </row>
     <row r="32" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="365"/>
-      <c r="C32" s="359"/>
+      <c r="B32" s="408"/>
+      <c r="C32" s="400"/>
       <c r="D32" s="145" t="s">
         <v>6</v>
       </c>
@@ -4024,21 +4196,21 @@
       <c r="M32" s="166"/>
     </row>
     <row r="33" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="365"/>
-      <c r="C33" s="359"/>
+      <c r="B33" s="408"/>
+      <c r="C33" s="400"/>
       <c r="D33" s="144" t="s">
         <v>7</v>
       </c>
-      <c r="E33" s="390">
+      <c r="E33" s="358">
         <v>0.41199999999999998</v>
       </c>
-      <c r="F33" s="392">
+      <c r="F33" s="360">
         <v>0.95</v>
       </c>
-      <c r="G33" s="399">
+      <c r="G33" s="367">
         <v>0.14699999999999999</v>
       </c>
-      <c r="H33" s="400">
+      <c r="H33" s="368">
         <v>0.35</v>
       </c>
       <c r="I33" s="298"/>
@@ -4054,8 +4226,8 @@
       <c r="N33" s="166"/>
     </row>
     <row r="34" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="365"/>
-      <c r="C34" s="359"/>
+      <c r="B34" s="408"/>
+      <c r="C34" s="400"/>
       <c r="D34" s="144" t="s">
         <v>8</v>
       </c>
@@ -4072,7 +4244,7 @@
         <v>0.42499999999999999</v>
       </c>
       <c r="I34" s="299"/>
-      <c r="J34" s="405">
+      <c r="J34" s="373">
         <v>0.113</v>
       </c>
       <c r="K34" s="160">
@@ -4083,8 +4255,8 @@
       </c>
     </row>
     <row r="35" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="365"/>
-      <c r="C35" s="374"/>
+      <c r="B35" s="408"/>
+      <c r="C35" s="401"/>
       <c r="D35" s="146" t="s">
         <v>9</v>
       </c>
@@ -4112,14 +4284,14 @@
       </c>
     </row>
     <row r="36" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="365"/>
-      <c r="C36" s="358" t="s">
+      <c r="B36" s="408"/>
+      <c r="C36" s="399" t="s">
         <v>18</v>
       </c>
       <c r="D36" s="145" t="s">
         <v>16</v>
       </c>
-      <c r="E36" s="397">
+      <c r="E36" s="365">
         <v>0.73599999999999999</v>
       </c>
       <c r="F36" s="91">
@@ -4143,8 +4315,8 @@
       </c>
     </row>
     <row r="37" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="365"/>
-      <c r="C37" s="359"/>
+      <c r="B37" s="408"/>
+      <c r="C37" s="400"/>
       <c r="D37" s="144" t="s">
         <v>17</v>
       </c>
@@ -4172,8 +4344,8 @@
       </c>
     </row>
     <row r="38" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="365"/>
-      <c r="C38" s="359"/>
+      <c r="B38" s="408"/>
+      <c r="C38" s="400"/>
       <c r="D38" s="145" t="s">
         <v>6</v>
       </c>
@@ -4201,8 +4373,8 @@
       </c>
     </row>
     <row r="39" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="365"/>
-      <c r="C39" s="359"/>
+      <c r="B39" s="408"/>
+      <c r="C39" s="400"/>
       <c r="D39" s="144" t="s">
         <v>7</v>
       </c>
@@ -4230,12 +4402,12 @@
       </c>
     </row>
     <row r="40" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="365"/>
-      <c r="C40" s="359"/>
+      <c r="B40" s="408"/>
+      <c r="C40" s="400"/>
       <c r="D40" s="144" t="s">
         <v>8</v>
       </c>
-      <c r="E40" s="397">
+      <c r="E40" s="365">
         <v>0.70199999999999996</v>
       </c>
       <c r="F40" s="91">
@@ -4259,12 +4431,12 @@
       </c>
     </row>
     <row r="41" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="366"/>
-      <c r="C41" s="360"/>
-      <c r="D41" s="394" t="s">
+      <c r="B41" s="409"/>
+      <c r="C41" s="402"/>
+      <c r="D41" s="362" t="s">
         <v>9</v>
       </c>
-      <c r="E41" s="398">
+      <c r="E41" s="366">
         <v>0.55300000000000005</v>
       </c>
       <c r="F41" s="143">
@@ -4301,10 +4473,10 @@
       <c r="L42" s="180"/>
     </row>
     <row r="43" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="364" t="s">
+      <c r="B43" s="407" t="s">
         <v>24</v>
       </c>
-      <c r="C43" s="373" t="s">
+      <c r="C43" s="416" t="s">
         <v>2</v>
       </c>
       <c r="D43" s="203" t="s">
@@ -4326,7 +4498,7 @@
       <c r="J43" s="152">
         <v>0.20899999999999999</v>
       </c>
-      <c r="K43" s="408">
+      <c r="K43" s="376">
         <v>-0.72899999999999998</v>
       </c>
       <c r="L43" s="87">
@@ -4334,8 +4506,8 @@
       </c>
     </row>
     <row r="44" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="365"/>
-      <c r="C44" s="359"/>
+      <c r="B44" s="408"/>
+      <c r="C44" s="400"/>
       <c r="D44" s="83" t="s">
         <v>17</v>
       </c>
@@ -4363,8 +4535,8 @@
       </c>
     </row>
     <row r="45" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="365"/>
-      <c r="C45" s="359"/>
+      <c r="B45" s="408"/>
+      <c r="C45" s="400"/>
       <c r="D45" s="84" t="s">
         <v>6</v>
       </c>
@@ -4392,8 +4564,8 @@
       </c>
     </row>
     <row r="46" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="365"/>
-      <c r="C46" s="359"/>
+      <c r="B46" s="408"/>
+      <c r="C46" s="400"/>
       <c r="D46" s="83" t="s">
         <v>7</v>
       </c>
@@ -4421,8 +4593,8 @@
       </c>
     </row>
     <row r="47" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="365"/>
-      <c r="C47" s="359"/>
+      <c r="B47" s="408"/>
+      <c r="C47" s="400"/>
       <c r="D47" s="83" t="s">
         <v>8</v>
       </c>
@@ -4435,11 +4607,11 @@
       <c r="G47" s="98">
         <v>0.20300000000000001</v>
       </c>
-      <c r="H47" s="402">
+      <c r="H47" s="370">
         <v>0.47499999999999998</v>
       </c>
       <c r="I47" s="306"/>
-      <c r="J47" s="405">
+      <c r="J47" s="373">
         <v>0.114</v>
       </c>
       <c r="K47" s="101">
@@ -4450,8 +4622,8 @@
       </c>
     </row>
     <row r="48" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="365"/>
-      <c r="C48" s="374"/>
+      <c r="B48" s="408"/>
+      <c r="C48" s="401"/>
       <c r="D48" s="85" t="s">
         <v>9</v>
       </c>
@@ -4474,13 +4646,13 @@
       <c r="K48" s="105">
         <v>-0.22500000000000001</v>
       </c>
-      <c r="L48" s="412">
+      <c r="L48" s="380">
         <v>-0.123</v>
       </c>
     </row>
     <row r="49" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="365"/>
-      <c r="C49" s="358" t="s">
+      <c r="B49" s="408"/>
+      <c r="C49" s="399" t="s">
         <v>3</v>
       </c>
       <c r="D49" s="84" t="s">
@@ -4510,8 +4682,8 @@
       </c>
     </row>
     <row r="50" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="365"/>
-      <c r="C50" s="359"/>
+      <c r="B50" s="408"/>
+      <c r="C50" s="400"/>
       <c r="D50" s="83" t="s">
         <v>17</v>
       </c>
@@ -4539,8 +4711,8 @@
       </c>
     </row>
     <row r="51" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="365"/>
-      <c r="C51" s="359"/>
+      <c r="B51" s="408"/>
+      <c r="C51" s="400"/>
       <c r="D51" s="84" t="s">
         <v>6</v>
       </c>
@@ -4569,18 +4741,18 @@
       <c r="N51" s="166"/>
     </row>
     <row r="52" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="365"/>
-      <c r="C52" s="359"/>
+      <c r="B52" s="408"/>
+      <c r="C52" s="400"/>
       <c r="D52" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="E52" s="390">
+      <c r="E52" s="358">
         <v>0.27500000000000002</v>
       </c>
-      <c r="F52" s="395">
+      <c r="F52" s="363">
         <v>0.75</v>
       </c>
-      <c r="G52" s="396">
+      <c r="G52" s="364">
         <v>0.106</v>
       </c>
       <c r="H52" s="131">
@@ -4593,13 +4765,13 @@
       <c r="K52" s="110">
         <v>-0.36699999999999999</v>
       </c>
-      <c r="L52" s="411">
+      <c r="L52" s="379">
         <v>-0.20100000000000001</v>
       </c>
     </row>
     <row r="53" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="365"/>
-      <c r="C53" s="359"/>
+      <c r="B53" s="408"/>
+      <c r="C53" s="400"/>
       <c r="D53" s="83" t="s">
         <v>8</v>
       </c>
@@ -4628,8 +4800,8 @@
       <c r="N53" s="166"/>
     </row>
     <row r="54" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="365"/>
-      <c r="C54" s="374"/>
+      <c r="B54" s="408"/>
+      <c r="C54" s="401"/>
       <c r="D54" s="85" t="s">
         <v>9</v>
       </c>
@@ -4657,8 +4829,8 @@
       </c>
     </row>
     <row r="55" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="365"/>
-      <c r="C55" s="358" t="s">
+      <c r="B55" s="408"/>
+      <c r="C55" s="399" t="s">
         <v>18</v>
       </c>
       <c r="D55" s="84" t="s">
@@ -4688,8 +4860,8 @@
       </c>
     </row>
     <row r="56" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="365"/>
-      <c r="C56" s="359"/>
+      <c r="B56" s="408"/>
+      <c r="C56" s="400"/>
       <c r="D56" s="83" t="s">
         <v>17</v>
       </c>
@@ -4717,8 +4889,8 @@
       </c>
     </row>
     <row r="57" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="365"/>
-      <c r="C57" s="359"/>
+      <c r="B57" s="408"/>
+      <c r="C57" s="400"/>
       <c r="D57" s="84" t="s">
         <v>6</v>
       </c>
@@ -4731,7 +4903,7 @@
       <c r="G57" s="93">
         <v>0.19</v>
       </c>
-      <c r="H57" s="403">
+      <c r="H57" s="371">
         <v>0.33800000000000002</v>
       </c>
       <c r="I57" s="299"/>
@@ -4746,8 +4918,8 @@
       </c>
     </row>
     <row r="58" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="365"/>
-      <c r="C58" s="359"/>
+      <c r="B58" s="408"/>
+      <c r="C58" s="400"/>
       <c r="D58" s="83" t="s">
         <v>7</v>
       </c>
@@ -4775,8 +4947,8 @@
       </c>
     </row>
     <row r="59" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="365"/>
-      <c r="C59" s="359"/>
+      <c r="B59" s="408"/>
+      <c r="C59" s="400"/>
       <c r="D59" s="83" t="s">
         <v>8</v>
       </c>
@@ -4789,14 +4961,14 @@
       <c r="G59" s="98">
         <v>0.20200000000000001</v>
       </c>
-      <c r="H59" s="404">
+      <c r="H59" s="372">
         <v>0.33800000000000002</v>
       </c>
       <c r="I59" s="304"/>
       <c r="J59" s="158">
         <v>0.11799999999999999</v>
       </c>
-      <c r="K59" s="407">
+      <c r="K59" s="375">
         <v>1.1599999999999999E-2</v>
       </c>
       <c r="L59" s="149">
@@ -4804,8 +4976,8 @@
       </c>
     </row>
     <row r="60" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="366"/>
-      <c r="C60" s="360"/>
+      <c r="B60" s="409"/>
+      <c r="C60" s="402"/>
       <c r="D60" s="185" t="s">
         <v>9</v>
       </c>
@@ -4930,6 +5102,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="C43:C48"/>
     <mergeCell ref="C49:C54"/>
     <mergeCell ref="C55:C60"/>
     <mergeCell ref="E2:H2"/>
@@ -4946,7 +5119,6 @@
     <mergeCell ref="C24:C29"/>
     <mergeCell ref="C30:C35"/>
     <mergeCell ref="C36:C41"/>
-    <mergeCell ref="C43:C48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4954,10 +5126,799 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5764096-CBDC-48A7-984B-BFD813F170CD}">
+  <dimension ref="B1:N73"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="50" zoomScalePageLayoutView="40" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" customWidth="1"/>
+    <col min="9" max="9" width="0.42578125" style="286" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I1"/>
+    </row>
+    <row r="2" spans="2:10" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E2" s="403" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="404"/>
+      <c r="G2" s="404"/>
+      <c r="H2" s="405"/>
+      <c r="I2" s="287"/>
+    </row>
+    <row r="3" spans="2:10" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="413" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="414"/>
+      <c r="D3" s="415"/>
+      <c r="E3" s="410" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="411"/>
+      <c r="G3" s="412" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="411"/>
+      <c r="I3" s="288"/>
+    </row>
+    <row r="4" spans="2:10" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="205" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="204" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="172" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="139" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="140" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="223" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="82" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="289"/>
+    </row>
+    <row r="5" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="447" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="445" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="144" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="125">
+        <v>0.73</v>
+      </c>
+      <c r="F5" s="96">
+        <v>1.25</v>
+      </c>
+      <c r="G5" s="98">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="H5" s="97">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="I5" s="291"/>
+    </row>
+    <row r="6" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="447"/>
+      <c r="C6" s="446"/>
+      <c r="D6" s="146" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="127">
+        <v>0.74399999999999999</v>
+      </c>
+      <c r="F6" s="103">
+        <v>1.25</v>
+      </c>
+      <c r="G6" s="104">
+        <v>0.251</v>
+      </c>
+      <c r="H6" s="105">
+        <v>0.5</v>
+      </c>
+      <c r="I6" s="293"/>
+    </row>
+    <row r="7" spans="2:10" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="447"/>
+      <c r="C7" s="445" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="144" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="355">
+        <v>0.62</v>
+      </c>
+      <c r="F7" s="89">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G7" s="364">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="H7" s="110">
+        <v>0.45</v>
+      </c>
+      <c r="I7" s="294"/>
+      <c r="J7" s="166"/>
+    </row>
+    <row r="8" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="447"/>
+      <c r="C8" s="446"/>
+      <c r="D8" s="146" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="127">
+        <v>0.70399999999999996</v>
+      </c>
+      <c r="F8" s="103">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="G8" s="104">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="H8" s="105">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="I8" s="293"/>
+    </row>
+    <row r="9" spans="2:10" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="447"/>
+      <c r="C9" s="445" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="144" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="125">
+        <v>0.65900000000000003</v>
+      </c>
+      <c r="F9" s="431">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="G9" s="95">
+        <v>0.219</v>
+      </c>
+      <c r="H9" s="356">
+        <v>0.38300000000000001</v>
+      </c>
+      <c r="I9" s="294"/>
+    </row>
+    <row r="10" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="447"/>
+      <c r="C10" s="446"/>
+      <c r="D10" s="146" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="127">
+        <v>0.73199999999999998</v>
+      </c>
+      <c r="F10" s="103">
+        <v>1.23</v>
+      </c>
+      <c r="G10" s="102">
+        <v>0.248</v>
+      </c>
+      <c r="H10" s="103">
+        <v>0.5</v>
+      </c>
+      <c r="I10" s="293"/>
+    </row>
+    <row r="11" spans="2:10" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="447"/>
+      <c r="C11" s="445" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="144" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="450">
+        <v>0.64</v>
+      </c>
+      <c r="F11" s="356">
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="G11" s="112">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="H11" s="356">
+        <v>0.38300000000000001</v>
+      </c>
+      <c r="I11" s="294"/>
+    </row>
+    <row r="12" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="448"/>
+      <c r="C12" s="449"/>
+      <c r="D12" s="362" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="451">
+        <v>0.70199999999999996</v>
+      </c>
+      <c r="F12" s="433">
+        <v>1.3</v>
+      </c>
+      <c r="G12" s="452">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="H12" s="433">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="I12" s="442"/>
+    </row>
+    <row r="13" spans="2:10" s="438" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="444"/>
+      <c r="C13" s="443"/>
+      <c r="D13" s="434"/>
+      <c r="E13" s="435"/>
+      <c r="F13" s="435"/>
+      <c r="G13" s="439"/>
+      <c r="H13" s="439"/>
+      <c r="I13" s="439"/>
+    </row>
+    <row r="14" spans="2:10" s="438" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="444"/>
+      <c r="C14" s="443"/>
+      <c r="D14" s="434"/>
+      <c r="E14" s="435"/>
+      <c r="F14" s="436"/>
+      <c r="G14" s="439"/>
+      <c r="H14" s="436"/>
+      <c r="I14" s="436"/>
+    </row>
+    <row r="15" spans="2:10" s="438" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="444"/>
+      <c r="C15" s="444"/>
+      <c r="D15" s="434"/>
+      <c r="E15" s="437"/>
+      <c r="F15" s="437"/>
+      <c r="G15" s="437"/>
+      <c r="H15" s="437"/>
+      <c r="I15" s="437"/>
+      <c r="J15" s="440"/>
+    </row>
+    <row r="16" spans="2:10" s="438" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16"/>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16" s="437"/>
+    </row>
+    <row r="17" spans="2:14" s="438" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17" s="403" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" s="404"/>
+      <c r="G17" s="404"/>
+      <c r="H17" s="405"/>
+      <c r="I17" s="437"/>
+      <c r="J17" s="406" t="s">
+        <v>52</v>
+      </c>
+      <c r="K17" s="404"/>
+      <c r="L17" s="405"/>
+    </row>
+    <row r="18" spans="2:14" s="438" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="413" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="414"/>
+      <c r="D18" s="415"/>
+      <c r="E18" s="410" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="411"/>
+      <c r="G18" s="412" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" s="411"/>
+      <c r="I18" s="437"/>
+      <c r="J18" s="214" t="s">
+        <v>31</v>
+      </c>
+      <c r="K18" s="215" t="s">
+        <v>32</v>
+      </c>
+      <c r="L18" s="215" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" s="438" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="205" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="204" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="172" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="139" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="140" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="223" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" s="82" t="s">
+        <v>11</v>
+      </c>
+      <c r="I19" s="436"/>
+      <c r="J19" s="139" t="s">
+        <v>10</v>
+      </c>
+      <c r="K19" s="82" t="s">
+        <v>10</v>
+      </c>
+      <c r="L19" s="82" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" s="438" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="447" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="453" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="441" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" s="455">
+        <v>0.62</v>
+      </c>
+      <c r="F20" s="87">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G20" s="456">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="H20" s="465">
+        <v>0.45</v>
+      </c>
+      <c r="I20" s="436"/>
+      <c r="J20" s="469">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="K20" s="470">
+        <v>-0.11</v>
+      </c>
+      <c r="L20" s="470">
+        <v>-1.29E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" s="438" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="447"/>
+      <c r="C21" s="454"/>
+      <c r="D21" s="146" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" s="127">
+        <v>0.63800000000000001</v>
+      </c>
+      <c r="F21" s="467">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="G21" s="104">
+        <v>0.219</v>
+      </c>
+      <c r="H21" s="391">
+        <v>0.35</v>
+      </c>
+      <c r="I21" s="436"/>
+      <c r="J21" s="461">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="K21" s="461">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="L21" s="461">
+        <v>-0.17699999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" s="438" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="447"/>
+      <c r="C22" s="445" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="145" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" s="123">
+        <v>0.65900000000000003</v>
+      </c>
+      <c r="F22" s="432">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="G22" s="90">
+        <v>0.219</v>
+      </c>
+      <c r="H22" s="466">
+        <v>0.38300000000000001</v>
+      </c>
+      <c r="I22" s="436"/>
+      <c r="J22" s="461">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="K22" s="461">
+        <v>-0.40600000000000003</v>
+      </c>
+      <c r="L22" s="460">
+        <v>-0.127</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" s="438" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="448"/>
+      <c r="C23" s="449"/>
+      <c r="D23" s="362" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23" s="462">
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="F23" s="463">
+        <v>1.08</v>
+      </c>
+      <c r="G23" s="464">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="H23" s="143">
+        <v>0.4</v>
+      </c>
+      <c r="I23" s="436"/>
+      <c r="J23" s="468">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="K23" s="468">
+        <v>0.68200000000000005</v>
+      </c>
+      <c r="L23" s="468">
+        <v>-0.19600000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" s="438" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="444"/>
+      <c r="C24" s="444"/>
+      <c r="D24" s="434"/>
+      <c r="E24" s="435"/>
+      <c r="F24" s="436"/>
+      <c r="G24" s="437"/>
+      <c r="H24" s="437"/>
+      <c r="I24" s="437"/>
+      <c r="L24" s="458"/>
+      <c r="M24" s="459"/>
+      <c r="N24" s="457"/>
+    </row>
+    <row r="25" spans="2:14" s="438" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="444"/>
+      <c r="C25" s="444"/>
+      <c r="D25" s="434"/>
+      <c r="E25" s="435"/>
+      <c r="F25" s="436"/>
+      <c r="G25" s="437"/>
+      <c r="H25" s="437"/>
+      <c r="I25" s="437"/>
+      <c r="L25" s="459"/>
+      <c r="M25" s="459"/>
+      <c r="N25" s="457"/>
+    </row>
+    <row r="26" spans="2:14" s="438" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="444"/>
+      <c r="C26" s="444"/>
+      <c r="D26" s="434"/>
+      <c r="E26" s="435"/>
+      <c r="F26" s="436"/>
+      <c r="G26" s="439"/>
+      <c r="H26" s="437"/>
+      <c r="I26" s="437"/>
+      <c r="L26" s="457"/>
+      <c r="M26" s="457"/>
+      <c r="N26" s="457"/>
+    </row>
+    <row r="27" spans="2:14" s="438" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="444"/>
+      <c r="C27" s="444"/>
+      <c r="D27" s="434"/>
+      <c r="E27" s="435"/>
+      <c r="F27" s="436"/>
+      <c r="G27" s="439"/>
+      <c r="H27" s="437"/>
+      <c r="I27" s="437"/>
+      <c r="L27" s="457"/>
+      <c r="M27" s="457"/>
+      <c r="N27" s="457"/>
+    </row>
+    <row r="28" spans="2:14" s="438" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="444"/>
+      <c r="C28" s="444"/>
+      <c r="D28" s="434"/>
+      <c r="E28" s="435"/>
+      <c r="F28" s="435"/>
+      <c r="G28" s="439"/>
+      <c r="H28" s="439"/>
+      <c r="I28" s="439"/>
+    </row>
+    <row r="29" spans="2:14" s="438" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="444"/>
+      <c r="C29" s="444"/>
+      <c r="D29" s="434"/>
+      <c r="E29" s="435"/>
+      <c r="F29" s="436"/>
+      <c r="G29" s="439"/>
+      <c r="H29" s="437"/>
+      <c r="I29" s="437"/>
+    </row>
+    <row r="30" spans="2:14" s="438" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="444"/>
+      <c r="C30" s="444"/>
+      <c r="D30" s="434"/>
+      <c r="E30" s="437"/>
+      <c r="F30" s="437"/>
+      <c r="G30" s="437"/>
+      <c r="H30" s="437"/>
+      <c r="I30" s="437"/>
+    </row>
+    <row r="31" spans="2:14" s="438" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="444"/>
+      <c r="C31" s="444"/>
+      <c r="D31" s="434"/>
+      <c r="E31" s="437"/>
+      <c r="F31" s="437"/>
+      <c r="G31" s="437"/>
+      <c r="H31" s="437"/>
+      <c r="I31" s="437"/>
+    </row>
+    <row r="32" spans="2:14" s="438" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="444"/>
+      <c r="C32" s="444"/>
+      <c r="D32" s="434"/>
+      <c r="E32" s="439"/>
+      <c r="F32" s="437"/>
+      <c r="G32" s="439"/>
+      <c r="H32" s="437"/>
+      <c r="I32" s="437"/>
+      <c r="J32" s="440"/>
+    </row>
+    <row r="33" spans="2:10" s="438" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="444"/>
+      <c r="C33" s="444"/>
+      <c r="D33" s="434"/>
+      <c r="E33" s="435"/>
+      <c r="F33" s="436"/>
+      <c r="G33" s="439"/>
+      <c r="H33" s="437"/>
+      <c r="I33" s="437"/>
+    </row>
+    <row r="34" spans="2:10" s="438" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="444"/>
+      <c r="C34" s="444"/>
+      <c r="D34" s="434"/>
+      <c r="E34" s="436"/>
+      <c r="F34" s="436"/>
+      <c r="G34" s="439"/>
+      <c r="H34" s="437"/>
+      <c r="I34" s="437"/>
+      <c r="J34" s="440"/>
+    </row>
+    <row r="35" spans="2:10" s="438" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="444"/>
+      <c r="C35" s="444"/>
+      <c r="D35" s="434"/>
+      <c r="E35" s="435"/>
+      <c r="F35" s="436"/>
+      <c r="G35" s="439"/>
+      <c r="H35" s="437"/>
+      <c r="I35" s="437"/>
+    </row>
+    <row r="36" spans="2:10" s="438" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="444"/>
+      <c r="C36" s="444"/>
+      <c r="D36" s="434"/>
+      <c r="E36" s="435"/>
+      <c r="F36" s="436"/>
+      <c r="G36" s="437"/>
+      <c r="H36" s="437"/>
+      <c r="I36" s="436"/>
+    </row>
+    <row r="37" spans="2:10" s="438" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="444"/>
+      <c r="C37" s="444"/>
+      <c r="D37" s="434"/>
+      <c r="E37" s="435"/>
+      <c r="F37" s="436"/>
+      <c r="G37" s="437"/>
+      <c r="H37" s="437"/>
+      <c r="I37" s="436"/>
+    </row>
+    <row r="38" spans="2:10" s="438" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="444"/>
+      <c r="C38" s="444"/>
+      <c r="D38" s="434"/>
+      <c r="E38" s="435"/>
+      <c r="F38" s="436"/>
+      <c r="G38" s="439"/>
+      <c r="H38" s="437"/>
+      <c r="I38" s="436"/>
+    </row>
+    <row r="39" spans="2:10" s="438" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="444"/>
+      <c r="C39" s="444"/>
+      <c r="D39" s="434"/>
+      <c r="E39" s="435"/>
+      <c r="F39" s="436"/>
+      <c r="G39" s="439"/>
+      <c r="H39" s="437"/>
+      <c r="I39" s="436"/>
+    </row>
+    <row r="40" spans="2:10" s="438" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="444"/>
+      <c r="C40" s="444"/>
+      <c r="D40" s="434"/>
+      <c r="E40" s="435"/>
+      <c r="F40" s="436"/>
+      <c r="G40" s="439"/>
+      <c r="H40" s="439"/>
+      <c r="I40" s="436"/>
+    </row>
+    <row r="41" spans="2:10" s="438" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="444"/>
+      <c r="C41" s="444"/>
+      <c r="D41" s="434"/>
+      <c r="E41" s="435"/>
+      <c r="F41" s="436"/>
+      <c r="G41" s="439"/>
+      <c r="H41" s="437"/>
+      <c r="I41" s="436"/>
+    </row>
+    <row r="42" spans="2:10" s="438" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="2:10" s="438" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="2:10" s="438" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="2:10" s="438" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I46"/>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I47"/>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I48"/>
+    </row>
+    <row r="49" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I49"/>
+    </row>
+    <row r="50" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I50"/>
+    </row>
+    <row r="51" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I51"/>
+    </row>
+    <row r="52" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I52"/>
+    </row>
+    <row r="53" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I53"/>
+    </row>
+    <row r="54" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I54"/>
+    </row>
+    <row r="55" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I55"/>
+    </row>
+    <row r="56" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I56"/>
+    </row>
+    <row r="57" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I57"/>
+    </row>
+    <row r="58" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I58"/>
+    </row>
+    <row r="59" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I59"/>
+    </row>
+    <row r="60" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I60"/>
+    </row>
+    <row r="61" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I61"/>
+    </row>
+    <row r="62" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I62"/>
+    </row>
+    <row r="63" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I63"/>
+    </row>
+    <row r="64" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I64"/>
+    </row>
+    <row r="65" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I65"/>
+    </row>
+    <row r="66" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I66"/>
+    </row>
+    <row r="67" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I67"/>
+    </row>
+    <row r="68" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I68"/>
+    </row>
+    <row r="69" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I69"/>
+    </row>
+    <row r="70" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I70"/>
+    </row>
+    <row r="71" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I71"/>
+    </row>
+    <row r="72" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I72"/>
+    </row>
+    <row r="73" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I73"/>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="B5:B12"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C9:C10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47F3A9D0-E715-4BA0-A12D-1EC62F0BA8AA}">
   <dimension ref="B1:N55"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
@@ -4976,50 +5937,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="414"/>
-      <c r="C1" s="414"/>
-      <c r="D1" s="414"/>
-      <c r="E1" s="414"/>
-      <c r="F1" s="414"/>
-      <c r="G1" s="414"/>
-      <c r="H1" s="414"/>
-      <c r="I1" s="414"/>
-      <c r="J1" s="414"/>
-      <c r="K1" s="414"/>
-      <c r="L1" s="414"/>
-      <c r="M1" s="414"/>
-      <c r="N1" s="414"/>
+      <c r="J1"/>
     </row>
     <row r="2" spans="2:14" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E2" s="361" t="s">
+      <c r="E2" s="403" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="362"/>
-      <c r="G2" s="362"/>
-      <c r="H2" s="363"/>
+      <c r="F2" s="404"/>
+      <c r="G2" s="404"/>
+      <c r="H2" s="405"/>
       <c r="I2" s="287"/>
-      <c r="J2" s="375" t="s">
+      <c r="J2" s="406" t="s">
         <v>52</v>
       </c>
-      <c r="K2" s="362"/>
-      <c r="L2" s="363"/>
-      <c r="M2" s="415"/>
-      <c r="N2" s="415"/>
+      <c r="K2" s="404"/>
+      <c r="L2" s="405"/>
+      <c r="M2" s="381"/>
+      <c r="N2" s="381"/>
     </row>
     <row r="3" spans="2:14" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="370" t="s">
+      <c r="B3" s="413" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="371"/>
-      <c r="D3" s="372"/>
-      <c r="E3" s="367" t="s">
+      <c r="C3" s="414"/>
+      <c r="D3" s="415"/>
+      <c r="E3" s="410" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="368"/>
-      <c r="G3" s="369" t="s">
+      <c r="F3" s="411"/>
+      <c r="G3" s="412" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="368"/>
+      <c r="H3" s="411"/>
       <c r="I3" s="288"/>
       <c r="J3" s="214" t="s">
         <v>31</v>
@@ -5030,8 +5979,8 @@
       <c r="L3" s="215" t="s">
         <v>33</v>
       </c>
-      <c r="M3" s="416"/>
-      <c r="N3" s="417"/>
+      <c r="M3" s="382"/>
+      <c r="N3" s="383"/>
     </row>
     <row r="4" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="205" t="s">
@@ -5065,14 +6014,14 @@
       <c r="L4" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="418"/>
-      <c r="N4" s="419"/>
+      <c r="M4" s="384"/>
+      <c r="N4" s="385"/>
     </row>
     <row r="5" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="364" t="s">
+      <c r="B5" s="407" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="373" t="s">
+      <c r="C5" s="416" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="145" t="s">
@@ -5087,7 +6036,7 @@
       <c r="G5" s="108">
         <v>0.27500000000000002</v>
       </c>
-      <c r="H5" s="391">
+      <c r="H5" s="359">
         <v>0.57499999999999996</v>
       </c>
       <c r="I5" s="290"/>
@@ -5100,12 +6049,12 @@
       <c r="L5" s="94">
         <v>-0.128</v>
       </c>
-      <c r="M5" s="420"/>
-      <c r="N5" s="419"/>
+      <c r="M5" s="132"/>
+      <c r="N5" s="385"/>
     </row>
     <row r="6" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="365"/>
-      <c r="C6" s="359"/>
+      <c r="B6" s="408"/>
+      <c r="C6" s="400"/>
       <c r="D6" s="144" t="s">
         <v>17</v>
       </c>
@@ -5131,12 +6080,12 @@
       <c r="L6" s="97">
         <v>-0.128</v>
       </c>
-      <c r="M6" s="420"/>
-      <c r="N6" s="419"/>
+      <c r="M6" s="132"/>
+      <c r="N6" s="385"/>
     </row>
     <row r="7" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="365"/>
-      <c r="C7" s="359"/>
+      <c r="B7" s="408"/>
+      <c r="C7" s="400"/>
       <c r="D7" s="144" t="s">
         <v>7</v>
       </c>
@@ -5162,12 +6111,12 @@
       <c r="L7" s="167">
         <v>-0.13500000000000001</v>
       </c>
-      <c r="M7" s="418"/>
-      <c r="N7" s="419"/>
+      <c r="M7" s="384"/>
+      <c r="N7" s="385"/>
     </row>
     <row r="8" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="365"/>
-      <c r="C8" s="359"/>
+      <c r="B8" s="408"/>
+      <c r="C8" s="400"/>
       <c r="D8" s="144" t="s">
         <v>8</v>
       </c>
@@ -5193,12 +6142,12 @@
       <c r="L8" s="163">
         <v>-0.13100000000000001</v>
       </c>
-      <c r="M8" s="420"/>
-      <c r="N8" s="421"/>
+      <c r="M8" s="132"/>
+      <c r="N8" s="386"/>
     </row>
     <row r="9" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="365"/>
-      <c r="C9" s="374"/>
+      <c r="B9" s="408"/>
+      <c r="C9" s="401"/>
       <c r="D9" s="146" t="s">
         <v>9</v>
       </c>
@@ -5224,12 +6173,12 @@
       <c r="L9" s="164">
         <v>-0.114</v>
       </c>
-      <c r="M9" s="420"/>
-      <c r="N9" s="421"/>
+      <c r="M9" s="132"/>
+      <c r="N9" s="386"/>
     </row>
     <row r="10" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="365"/>
-      <c r="C10" s="358" t="s">
+      <c r="B10" s="408"/>
+      <c r="C10" s="399" t="s">
         <v>3</v>
       </c>
       <c r="D10" s="145" t="s">
@@ -5251,18 +6200,18 @@
       <c r="J10" s="157">
         <v>0.19900000000000001</v>
       </c>
-      <c r="K10" s="406">
+      <c r="K10" s="374">
         <v>1.89E-2</v>
       </c>
       <c r="L10" s="158">
         <v>-1.41E-2</v>
       </c>
-      <c r="M10" s="418"/>
-      <c r="N10" s="421"/>
+      <c r="M10" s="384"/>
+      <c r="N10" s="386"/>
     </row>
     <row r="11" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="365"/>
-      <c r="C11" s="359"/>
+      <c r="B11" s="408"/>
+      <c r="C11" s="400"/>
       <c r="D11" s="144" t="s">
         <v>17</v>
       </c>
@@ -5288,12 +6237,12 @@
       <c r="L11" s="160">
         <v>-1.3100000000000001E-2</v>
       </c>
-      <c r="M11" s="418"/>
-      <c r="N11" s="421"/>
+      <c r="M11" s="384"/>
+      <c r="N11" s="386"/>
     </row>
     <row r="12" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="365"/>
-      <c r="C12" s="359"/>
+      <c r="B12" s="408"/>
+      <c r="C12" s="400"/>
       <c r="D12" s="144" t="s">
         <v>7</v>
       </c>
@@ -5303,7 +6252,7 @@
       <c r="F12" s="89">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G12" s="396">
+      <c r="G12" s="364">
         <v>0.20899999999999999</v>
       </c>
       <c r="H12" s="110">
@@ -5319,12 +6268,12 @@
       <c r="L12" s="160">
         <v>-1.7899999999999999E-2</v>
       </c>
-      <c r="M12" s="420"/>
-      <c r="N12" s="421"/>
+      <c r="M12" s="132"/>
+      <c r="N12" s="386"/>
     </row>
     <row r="13" spans="2:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="365"/>
-      <c r="C13" s="359"/>
+      <c r="B13" s="408"/>
+      <c r="C13" s="400"/>
       <c r="D13" s="144" t="s">
         <v>8</v>
       </c>
@@ -5341,7 +6290,7 @@
         <v>0.45</v>
       </c>
       <c r="I13" s="294"/>
-      <c r="J13" s="405">
+      <c r="J13" s="373">
         <v>0.16700000000000001</v>
       </c>
       <c r="K13" s="155">
@@ -5350,12 +6299,12 @@
       <c r="L13" s="158">
         <v>-1.29E-2</v>
       </c>
-      <c r="M13" s="420"/>
-      <c r="N13" s="421"/>
+      <c r="M13" s="132"/>
+      <c r="N13" s="386"/>
     </row>
     <row r="14" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="365"/>
-      <c r="C14" s="374"/>
+      <c r="B14" s="408"/>
+      <c r="C14" s="401"/>
       <c r="D14" s="146" t="s">
         <v>9</v>
       </c>
@@ -5378,14 +6327,14 @@
       <c r="K14" s="156">
         <v>-0.109</v>
       </c>
-      <c r="L14" s="409">
+      <c r="L14" s="377">
         <v>1.7600000000000001E-3</v>
       </c>
-      <c r="M14" s="416"/>
-      <c r="N14" s="422"/>
+      <c r="M14" s="382"/>
+      <c r="N14" s="387"/>
     </row>
     <row r="15" spans="2:14" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="365"/>
+      <c r="B15" s="408"/>
       <c r="C15" s="352" t="s">
         <v>18</v>
       </c>
@@ -5414,11 +6363,11 @@
       <c r="L15" s="163">
         <v>-0.128</v>
       </c>
-      <c r="M15" s="420"/>
-      <c r="N15" s="419"/>
+      <c r="M15" s="132"/>
+      <c r="N15" s="385"/>
     </row>
     <row r="16" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="393"/>
+      <c r="B16" s="361"/>
       <c r="C16" s="221"/>
       <c r="D16" s="194"/>
       <c r="E16" s="194"/>
@@ -5429,14 +6378,14 @@
       <c r="J16" s="194"/>
       <c r="K16" s="194"/>
       <c r="L16" s="198"/>
-      <c r="M16" s="418"/>
-      <c r="N16" s="421"/>
+      <c r="M16" s="384"/>
+      <c r="N16" s="386"/>
     </row>
     <row r="17" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="364" t="s">
+      <c r="B17" s="407" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="373" t="s">
+      <c r="C17" s="416" t="s">
         <v>2</v>
       </c>
       <c r="D17" s="345" t="s">
@@ -5464,12 +6413,12 @@
       <c r="L17" s="152">
         <v>-0.111</v>
       </c>
-      <c r="M17" s="420"/>
-      <c r="N17" s="421"/>
+      <c r="M17" s="132"/>
+      <c r="N17" s="386"/>
     </row>
     <row r="18" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="365"/>
-      <c r="C18" s="359"/>
+      <c r="B18" s="408"/>
+      <c r="C18" s="400"/>
       <c r="D18" s="339" t="s">
         <v>17</v>
       </c>
@@ -5495,12 +6444,12 @@
       <c r="L18" s="153">
         <v>-0.111</v>
       </c>
-      <c r="M18" s="415"/>
-      <c r="N18" s="423"/>
+      <c r="M18" s="381"/>
+      <c r="N18" s="388"/>
     </row>
     <row r="19" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="365"/>
-      <c r="C19" s="359"/>
+      <c r="B19" s="408"/>
+      <c r="C19" s="400"/>
       <c r="D19" s="339" t="s">
         <v>6</v>
       </c>
@@ -5513,7 +6462,7 @@
       <c r="G19" s="278">
         <v>0.23400000000000001</v>
       </c>
-      <c r="H19" s="401">
+      <c r="H19" s="369">
         <v>0.5</v>
       </c>
       <c r="I19" s="298"/>
@@ -5526,12 +6475,12 @@
       <c r="L19" s="155">
         <v>-0.115</v>
       </c>
-      <c r="M19" s="418"/>
-      <c r="N19" s="419"/>
+      <c r="M19" s="384"/>
+      <c r="N19" s="385"/>
     </row>
     <row r="20" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="365"/>
-      <c r="C20" s="359"/>
+      <c r="B20" s="408"/>
+      <c r="C20" s="400"/>
       <c r="D20" s="144" t="s">
         <v>8</v>
       </c>
@@ -5551,18 +6500,18 @@
       <c r="J20" s="155">
         <v>0.161</v>
       </c>
-      <c r="K20" s="405">
+      <c r="K20" s="373">
         <v>8.8099999999999998E-2</v>
       </c>
       <c r="L20" s="155">
         <v>-0.12</v>
       </c>
-      <c r="M20" s="420"/>
-      <c r="N20" s="419"/>
+      <c r="M20" s="132"/>
+      <c r="N20" s="385"/>
     </row>
     <row r="21" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="365"/>
-      <c r="C21" s="374"/>
+      <c r="B21" s="408"/>
+      <c r="C21" s="401"/>
       <c r="D21" s="146" t="s">
         <v>9</v>
       </c>
@@ -5585,15 +6534,15 @@
       <c r="K21" s="201">
         <v>-0.34100000000000003</v>
       </c>
-      <c r="L21" s="410">
+      <c r="L21" s="378">
         <v>-0.107</v>
       </c>
-      <c r="M21" s="420"/>
-      <c r="N21" s="419"/>
+      <c r="M21" s="132"/>
+      <c r="N21" s="385"/>
     </row>
     <row r="22" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="365"/>
-      <c r="C22" s="358" t="s">
+      <c r="B22" s="408"/>
+      <c r="C22" s="399" t="s">
         <v>3</v>
       </c>
       <c r="D22" s="145" t="s">
@@ -5602,7 +6551,7 @@
       <c r="E22" s="120">
         <v>0.66400000000000003</v>
       </c>
-      <c r="F22" s="391">
+      <c r="F22" s="359">
         <v>1.25</v>
       </c>
       <c r="G22" s="121">
@@ -5621,25 +6570,25 @@
       <c r="L22" s="157">
         <v>-0.14499999999999999</v>
       </c>
-      <c r="M22" s="420"/>
-      <c r="N22" s="419"/>
+      <c r="M22" s="132"/>
+      <c r="N22" s="385"/>
     </row>
     <row r="23" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="365"/>
-      <c r="C23" s="359"/>
+      <c r="B23" s="408"/>
+      <c r="C23" s="400"/>
       <c r="D23" s="144" t="s">
         <v>7</v>
       </c>
-      <c r="E23" s="390">
+      <c r="E23" s="358">
         <v>0.41199999999999998</v>
       </c>
-      <c r="F23" s="392">
+      <c r="F23" s="360">
         <v>0.95</v>
       </c>
-      <c r="G23" s="399">
+      <c r="G23" s="367">
         <v>0.14699999999999999</v>
       </c>
-      <c r="H23" s="400">
+      <c r="H23" s="368">
         <v>0.35</v>
       </c>
       <c r="I23" s="298"/>
@@ -5652,12 +6601,12 @@
       <c r="L23" s="165">
         <v>-0.16700000000000001</v>
       </c>
-      <c r="M23" s="420"/>
-      <c r="N23" s="421"/>
+      <c r="M23" s="132"/>
+      <c r="N23" s="386"/>
     </row>
     <row r="24" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="365"/>
-      <c r="C24" s="374"/>
+      <c r="B24" s="408"/>
+      <c r="C24" s="401"/>
       <c r="D24" s="341" t="s">
         <v>8</v>
       </c>
@@ -5674,7 +6623,7 @@
         <v>0.42499999999999999</v>
       </c>
       <c r="I24" s="303"/>
-      <c r="J24" s="424">
+      <c r="J24" s="389">
         <v>0.113</v>
       </c>
       <c r="K24" s="161">
@@ -5685,8 +6634,8 @@
       </c>
     </row>
     <row r="25" spans="2:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="365"/>
-      <c r="C25" s="359" t="s">
+      <c r="B25" s="408"/>
+      <c r="C25" s="400" t="s">
         <v>18</v>
       </c>
       <c r="D25" s="144" t="s">
@@ -5729,10 +6678,10 @@
       <c r="L26" s="180"/>
     </row>
     <row r="27" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B27" s="364" t="s">
+      <c r="B27" s="407" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="373" t="s">
+      <c r="C27" s="416" t="s">
         <v>2</v>
       </c>
       <c r="D27" s="203" t="s">
@@ -5754,7 +6703,7 @@
       <c r="J27" s="152">
         <v>0.20899999999999999</v>
       </c>
-      <c r="K27" s="408">
+      <c r="K27" s="376">
         <v>-0.72899999999999998</v>
       </c>
       <c r="L27" s="87">
@@ -5762,8 +6711,8 @@
       </c>
     </row>
     <row r="28" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B28" s="365"/>
-      <c r="C28" s="359"/>
+      <c r="B28" s="408"/>
+      <c r="C28" s="400"/>
       <c r="D28" s="83" t="s">
         <v>17</v>
       </c>
@@ -5791,8 +6740,8 @@
       </c>
     </row>
     <row r="29" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B29" s="365"/>
-      <c r="C29" s="359"/>
+      <c r="B29" s="408"/>
+      <c r="C29" s="400"/>
       <c r="D29" s="83" t="s">
         <v>8</v>
       </c>
@@ -5805,11 +6754,11 @@
       <c r="G29" s="98">
         <v>0.20300000000000001</v>
       </c>
-      <c r="H29" s="429">
+      <c r="H29" s="370">
         <v>0.47499999999999998</v>
       </c>
-      <c r="I29" s="430"/>
-      <c r="J29" s="405">
+      <c r="I29" s="306"/>
+      <c r="J29" s="373">
         <v>0.114</v>
       </c>
       <c r="K29" s="101">
@@ -5820,8 +6769,8 @@
       </c>
     </row>
     <row r="30" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="365"/>
-      <c r="C30" s="374"/>
+      <c r="B30" s="408"/>
+      <c r="C30" s="401"/>
       <c r="D30" s="85" t="s">
         <v>9</v>
       </c>
@@ -5844,13 +6793,13 @@
       <c r="K30" s="105">
         <v>-0.22500000000000001</v>
       </c>
-      <c r="L30" s="412">
+      <c r="L30" s="380">
         <v>-0.123</v>
       </c>
     </row>
     <row r="31" spans="2:14" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="365"/>
-      <c r="C31" s="358" t="s">
+      <c r="B31" s="408"/>
+      <c r="C31" s="399" t="s">
         <v>3</v>
       </c>
       <c r="D31" s="84" t="s">
@@ -5880,18 +6829,18 @@
       </c>
     </row>
     <row r="32" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="365"/>
-      <c r="C32" s="374"/>
+      <c r="B32" s="408"/>
+      <c r="C32" s="401"/>
       <c r="D32" s="191" t="s">
         <v>7</v>
       </c>
-      <c r="E32" s="425">
+      <c r="E32" s="390">
         <v>0.27500000000000002</v>
       </c>
-      <c r="F32" s="426">
+      <c r="F32" s="391">
         <v>0.75</v>
       </c>
-      <c r="G32" s="427">
+      <c r="G32" s="392">
         <v>0.106</v>
       </c>
       <c r="H32" s="133">
@@ -5904,13 +6853,13 @@
       <c r="K32" s="105">
         <v>-0.36699999999999999</v>
       </c>
-      <c r="L32" s="428">
+      <c r="L32" s="393">
         <v>-0.20100000000000001</v>
       </c>
     </row>
     <row r="33" spans="2:12" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="365"/>
-      <c r="C33" s="359" t="s">
+      <c r="B33" s="408"/>
+      <c r="C33" s="400" t="s">
         <v>18</v>
       </c>
       <c r="D33" s="84" t="s">
@@ -5925,7 +6874,7 @@
       <c r="G33" s="93">
         <v>0.19</v>
       </c>
-      <c r="H33" s="403">
+      <c r="H33" s="371">
         <v>0.33800000000000002</v>
       </c>
       <c r="I33" s="299"/>
@@ -5940,8 +6889,8 @@
       </c>
     </row>
     <row r="34" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="366"/>
-      <c r="C34" s="360"/>
+      <c r="B34" s="409"/>
+      <c r="C34" s="402"/>
       <c r="D34" s="185" t="s">
         <v>8</v>
       </c>
@@ -5951,17 +6900,17 @@
       <c r="F34" s="143">
         <v>0.81200000000000006</v>
       </c>
-      <c r="G34" s="431">
+      <c r="G34" s="394">
         <v>0.20200000000000001</v>
       </c>
-      <c r="H34" s="432">
+      <c r="H34" s="395">
         <v>0.33800000000000002</v>
       </c>
-      <c r="I34" s="433"/>
-      <c r="J34" s="434">
+      <c r="I34" s="396"/>
+      <c r="J34" s="397">
         <v>0.11799999999999999</v>
       </c>
-      <c r="K34" s="435">
+      <c r="K34" s="398">
         <v>1.1599999999999999E-2</v>
       </c>
       <c r="L34" s="189">
@@ -5969,75 +6918,70 @@
       </c>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="J35" s="413"/>
+      <c r="J35"/>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="J36" s="413"/>
+      <c r="J36"/>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="J37" s="413"/>
+      <c r="J37"/>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="J38" s="413"/>
+      <c r="J38"/>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="J39" s="413"/>
+      <c r="J39"/>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="J40" s="413"/>
+      <c r="J40"/>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="J41" s="413"/>
+      <c r="J41"/>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="J42" s="413"/>
+      <c r="J42"/>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="J43" s="413"/>
+      <c r="J43"/>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="J44" s="413"/>
+      <c r="J44"/>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="J45" s="413"/>
+      <c r="J45"/>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="J46" s="413"/>
+      <c r="J46"/>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="J47" s="413"/>
+      <c r="J47"/>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="J48" s="413"/>
+      <c r="J48"/>
     </row>
     <row r="49" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J49" s="413"/>
+      <c r="J49"/>
     </row>
     <row r="50" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J50" s="413"/>
+      <c r="J50"/>
     </row>
     <row r="51" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J51" s="413"/>
+      <c r="J51"/>
     </row>
     <row r="52" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J52" s="413"/>
+      <c r="J52"/>
     </row>
     <row r="53" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J53" s="413"/>
+      <c r="J53"/>
     </row>
     <row r="54" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J54" s="413"/>
+      <c r="J54"/>
     </row>
     <row r="55" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J55" s="413"/>
+      <c r="J55"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B27:B34"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="E2:H2"/>
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="E3:F3"/>
@@ -6045,6 +6989,11 @@
     <mergeCell ref="B5:B15"/>
     <mergeCell ref="C5:C9"/>
     <mergeCell ref="C10:C14"/>
+    <mergeCell ref="B27:B34"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="E2:H2"/>
     <mergeCell ref="B17:B25"/>
     <mergeCell ref="C17:C21"/>
     <mergeCell ref="C22:C24"/>
@@ -6055,7 +7004,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B6757E6-FE7D-4C1B-B985-36D8C117B1C1}">
   <dimension ref="B1:N57"/>
   <sheetViews>
@@ -6085,34 +7034,34 @@
       <c r="J1"/>
     </row>
     <row r="2" spans="2:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F2" s="361" t="s">
+      <c r="F2" s="403" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="362"/>
-      <c r="H2" s="362"/>
-      <c r="I2" s="363"/>
+      <c r="G2" s="404"/>
+      <c r="H2" s="404"/>
+      <c r="I2" s="405"/>
       <c r="J2" s="287"/>
-      <c r="K2" s="361" t="s">
+      <c r="K2" s="403" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="362"/>
-      <c r="M2" s="363"/>
+      <c r="L2" s="404"/>
+      <c r="M2" s="405"/>
     </row>
     <row r="3" spans="2:14" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="376" t="s">
+      <c r="B3" s="421" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="377"/>
-      <c r="D3" s="377"/>
-      <c r="E3" s="377"/>
-      <c r="F3" s="378" t="s">
+      <c r="C3" s="422"/>
+      <c r="D3" s="422"/>
+      <c r="E3" s="422"/>
+      <c r="F3" s="419" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="379"/>
-      <c r="H3" s="369" t="s">
+      <c r="G3" s="420"/>
+      <c r="H3" s="412" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="368"/>
+      <c r="I3" s="411"/>
       <c r="J3" s="288"/>
       <c r="K3" s="214" t="s">
         <v>31</v>
@@ -6163,13 +7112,13 @@
       <c r="N4" s="77"/>
     </row>
     <row r="5" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="365" t="s">
+      <c r="B5" s="408" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="359" t="s">
+      <c r="C5" s="400" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="373" t="s">
+      <c r="D5" s="416" t="s">
         <v>7</v>
       </c>
       <c r="E5" s="338" t="s">
@@ -6200,9 +7149,9 @@
       <c r="N5" s="79"/>
     </row>
     <row r="6" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="365"/>
-      <c r="C6" s="374"/>
-      <c r="D6" s="374"/>
+      <c r="B6" s="408"/>
+      <c r="C6" s="401"/>
+      <c r="D6" s="401"/>
       <c r="E6" s="341" t="s">
         <v>50</v>
       </c>
@@ -6231,11 +7180,11 @@
       <c r="N6" s="79"/>
     </row>
     <row r="7" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="365"/>
-      <c r="C7" s="358" t="s">
+      <c r="B7" s="408"/>
+      <c r="C7" s="399" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="358" t="s">
+      <c r="D7" s="399" t="s">
         <v>16</v>
       </c>
       <c r="E7" s="338" t="s">
@@ -6266,9 +7215,9 @@
       <c r="N7" s="169"/>
     </row>
     <row r="8" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="365"/>
-      <c r="C8" s="359"/>
-      <c r="D8" s="380"/>
+      <c r="B8" s="408"/>
+      <c r="C8" s="400"/>
+      <c r="D8" s="418"/>
       <c r="E8" s="339" t="s">
         <v>50</v>
       </c>
@@ -6297,9 +7246,9 @@
       <c r="N8" s="79"/>
     </row>
     <row r="9" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="365"/>
-      <c r="C9" s="359"/>
-      <c r="D9" s="381" t="s">
+      <c r="B9" s="408"/>
+      <c r="C9" s="400"/>
+      <c r="D9" s="417" t="s">
         <v>7</v>
       </c>
       <c r="E9" s="339" t="s">
@@ -6330,9 +7279,9 @@
       <c r="N9" s="79"/>
     </row>
     <row r="10" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="366"/>
-      <c r="C10" s="360"/>
-      <c r="D10" s="360"/>
+      <c r="B10" s="409"/>
+      <c r="C10" s="402"/>
+      <c r="D10" s="402"/>
       <c r="E10" s="340" t="s">
         <v>50</v>
       </c>
@@ -6375,13 +7324,13 @@
       <c r="M11" s="198"/>
     </row>
     <row r="12" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="364" t="s">
+      <c r="B12" s="407" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="373" t="s">
+      <c r="C12" s="416" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="373" t="s">
+      <c r="D12" s="416" t="s">
         <v>7</v>
       </c>
       <c r="E12" s="345" t="s">
@@ -6411,9 +7360,9 @@
       </c>
     </row>
     <row r="13" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="365"/>
-      <c r="C13" s="374"/>
-      <c r="D13" s="374"/>
+      <c r="B13" s="408"/>
+      <c r="C13" s="401"/>
+      <c r="D13" s="401"/>
       <c r="E13" s="341" t="s">
         <v>50</v>
       </c>
@@ -6441,11 +7390,11 @@
       </c>
     </row>
     <row r="14" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="365"/>
-      <c r="C14" s="358" t="s">
+      <c r="B14" s="408"/>
+      <c r="C14" s="399" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="358" t="s">
+      <c r="D14" s="399" t="s">
         <v>16</v>
       </c>
       <c r="E14" s="343" t="s">
@@ -6475,9 +7424,9 @@
       </c>
     </row>
     <row r="15" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="365"/>
-      <c r="C15" s="359"/>
-      <c r="D15" s="380"/>
+      <c r="B15" s="408"/>
+      <c r="C15" s="400"/>
+      <c r="D15" s="418"/>
       <c r="E15" s="339" t="s">
         <v>50</v>
       </c>
@@ -6505,9 +7454,9 @@
       </c>
     </row>
     <row r="16" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="365"/>
-      <c r="C16" s="359"/>
-      <c r="D16" s="381" t="s">
+      <c r="B16" s="408"/>
+      <c r="C16" s="400"/>
+      <c r="D16" s="417" t="s">
         <v>7</v>
       </c>
       <c r="E16" s="339" t="s">
@@ -6537,9 +7486,9 @@
       </c>
     </row>
     <row r="17" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="365"/>
-      <c r="C17" s="359"/>
-      <c r="D17" s="359"/>
+      <c r="B17" s="408"/>
+      <c r="C17" s="400"/>
+      <c r="D17" s="400"/>
       <c r="E17" s="339" t="s">
         <v>50</v>
       </c>
@@ -6567,9 +7516,9 @@
       </c>
     </row>
     <row r="18" spans="2:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="366"/>
-      <c r="C18" s="360"/>
-      <c r="D18" s="360"/>
+      <c r="B18" s="409"/>
+      <c r="C18" s="402"/>
+      <c r="D18" s="402"/>
       <c r="E18" s="340" t="s">
         <v>51</v>
       </c>
@@ -6611,13 +7560,13 @@
       <c r="M19" s="180"/>
     </row>
     <row r="20" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="364" t="s">
+      <c r="B20" s="407" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="373" t="s">
+      <c r="C20" s="416" t="s">
         <v>3</v>
       </c>
-      <c r="D20" s="373" t="s">
+      <c r="D20" s="416" t="s">
         <v>7</v>
       </c>
       <c r="E20" s="345" t="s">
@@ -6647,9 +7596,9 @@
       </c>
     </row>
     <row r="21" spans="2:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="365"/>
-      <c r="C21" s="374"/>
-      <c r="D21" s="374"/>
+      <c r="B21" s="408"/>
+      <c r="C21" s="401"/>
+      <c r="D21" s="401"/>
       <c r="E21" s="341" t="s">
         <v>50</v>
       </c>
@@ -6677,11 +7626,11 @@
       </c>
     </row>
     <row r="22" spans="2:13" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="365"/>
-      <c r="C22" s="359" t="s">
+      <c r="B22" s="408"/>
+      <c r="C22" s="400" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="358" t="s">
+      <c r="D22" s="399" t="s">
         <v>17</v>
       </c>
       <c r="E22" s="339" t="s">
@@ -6711,9 +7660,9 @@
       </c>
     </row>
     <row r="23" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="365"/>
-      <c r="C23" s="359"/>
-      <c r="D23" s="380"/>
+      <c r="B23" s="408"/>
+      <c r="C23" s="400"/>
+      <c r="D23" s="418"/>
       <c r="E23" s="338" t="s">
         <v>50</v>
       </c>
@@ -6741,9 +7690,9 @@
       </c>
     </row>
     <row r="24" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="365"/>
-      <c r="C24" s="359"/>
-      <c r="D24" s="381" t="s">
+      <c r="B24" s="408"/>
+      <c r="C24" s="400"/>
+      <c r="D24" s="417" t="s">
         <v>7</v>
       </c>
       <c r="E24" s="339" t="s">
@@ -6773,9 +7722,9 @@
       </c>
     </row>
     <row r="25" spans="2:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="366"/>
-      <c r="C25" s="360"/>
-      <c r="D25" s="360"/>
+      <c r="B25" s="409"/>
+      <c r="C25" s="402"/>
+      <c r="D25" s="402"/>
       <c r="E25" s="340" t="s">
         <v>50</v>
       </c>
@@ -6900,12 +7849,12 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="B12:B18"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="B20:B25"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C22:C25"/>
     <mergeCell ref="F2:I2"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="F3:G3"/>
@@ -6917,19 +7866,19 @@
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="D9:D10"/>
-    <mergeCell ref="B12:B18"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="B20:B25"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D22:D23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCC77F51-8841-499D-9960-AB716C23ECCC}">
   <dimension ref="B1:N72"/>
   <sheetViews>
@@ -6957,33 +7906,33 @@
       <c r="I1"/>
     </row>
     <row r="2" spans="2:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E2" s="361" t="s">
+      <c r="E2" s="403" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="362"/>
-      <c r="G2" s="362"/>
-      <c r="H2" s="363"/>
+      <c r="F2" s="404"/>
+      <c r="G2" s="404"/>
+      <c r="H2" s="405"/>
       <c r="I2" s="287"/>
-      <c r="J2" s="361" t="s">
+      <c r="J2" s="403" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="362"/>
-      <c r="L2" s="363"/>
+      <c r="K2" s="404"/>
+      <c r="L2" s="405"/>
     </row>
     <row r="3" spans="2:14" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="370" t="s">
+      <c r="B3" s="413" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="371"/>
-      <c r="D3" s="372"/>
-      <c r="E3" s="367" t="s">
+      <c r="C3" s="414"/>
+      <c r="D3" s="415"/>
+      <c r="E3" s="410" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="368"/>
-      <c r="G3" s="369" t="s">
+      <c r="F3" s="411"/>
+      <c r="G3" s="412" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="368"/>
+      <c r="H3" s="411"/>
       <c r="I3" s="288"/>
       <c r="J3" s="214" t="s">
         <v>31</v>
@@ -7031,10 +7980,10 @@
       <c r="M4" s="77"/>
     </row>
     <row r="5" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="364" t="s">
+      <c r="B5" s="407" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="373" t="s">
+      <c r="C5" s="416" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="145" t="s">
@@ -7065,8 +8014,8 @@
       <c r="M5" s="79"/>
     </row>
     <row r="6" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="365"/>
-      <c r="C6" s="359"/>
+      <c r="B6" s="408"/>
+      <c r="C6" s="400"/>
       <c r="D6" s="144" t="s">
         <v>17</v>
       </c>
@@ -7095,8 +8044,8 @@
       <c r="M6" s="79"/>
     </row>
     <row r="7" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="365"/>
-      <c r="C7" s="359"/>
+      <c r="B7" s="408"/>
+      <c r="C7" s="400"/>
       <c r="D7" s="145" t="s">
         <v>6</v>
       </c>
@@ -7125,8 +8074,8 @@
       <c r="M7" s="79"/>
     </row>
     <row r="8" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="365"/>
-      <c r="C8" s="359"/>
+      <c r="B8" s="408"/>
+      <c r="C8" s="400"/>
       <c r="D8" s="144" t="s">
         <v>7</v>
       </c>
@@ -7155,8 +8104,8 @@
       <c r="M8" s="79"/>
     </row>
     <row r="9" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="365"/>
-      <c r="C9" s="359"/>
+      <c r="B9" s="408"/>
+      <c r="C9" s="400"/>
       <c r="D9" s="144" t="s">
         <v>8</v>
       </c>
@@ -7185,8 +8134,8 @@
       <c r="M9" s="78"/>
     </row>
     <row r="10" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="365"/>
-      <c r="C10" s="374"/>
+      <c r="B10" s="408"/>
+      <c r="C10" s="401"/>
       <c r="D10" s="146" t="s">
         <v>9</v>
       </c>
@@ -7215,8 +8164,8 @@
       <c r="M10" s="79"/>
     </row>
     <row r="11" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="365"/>
-      <c r="C11" s="358" t="s">
+      <c r="B11" s="408"/>
+      <c r="C11" s="399" t="s">
         <v>3</v>
       </c>
       <c r="D11" s="145" t="s">
@@ -7247,8 +8196,8 @@
       <c r="M11" s="81"/>
     </row>
     <row r="12" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="365"/>
-      <c r="C12" s="359"/>
+      <c r="B12" s="408"/>
+      <c r="C12" s="400"/>
       <c r="D12" s="144" t="s">
         <v>17</v>
       </c>
@@ -7278,8 +8227,8 @@
       <c r="N12" s="166"/>
     </row>
     <row r="13" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="365"/>
-      <c r="C13" s="359"/>
+      <c r="B13" s="408"/>
+      <c r="C13" s="400"/>
       <c r="D13" s="145" t="s">
         <v>6</v>
       </c>
@@ -7309,8 +8258,8 @@
       <c r="N13" s="166"/>
     </row>
     <row r="14" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="365"/>
-      <c r="C14" s="359"/>
+      <c r="B14" s="408"/>
+      <c r="C14" s="400"/>
       <c r="D14" s="144" t="s">
         <v>7</v>
       </c>
@@ -7339,8 +8288,8 @@
       <c r="M14" s="79"/>
     </row>
     <row r="15" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="365"/>
-      <c r="C15" s="359"/>
+      <c r="B15" s="408"/>
+      <c r="C15" s="400"/>
       <c r="D15" s="144" t="s">
         <v>8</v>
       </c>
@@ -7369,8 +8318,8 @@
       <c r="M15" s="79"/>
     </row>
     <row r="16" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="365"/>
-      <c r="C16" s="374"/>
+      <c r="B16" s="408"/>
+      <c r="C16" s="401"/>
       <c r="D16" s="146" t="s">
         <v>9</v>
       </c>
@@ -7399,8 +8348,8 @@
       <c r="M16" s="79"/>
     </row>
     <row r="17" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="365"/>
-      <c r="C17" s="358" t="s">
+      <c r="B17" s="408"/>
+      <c r="C17" s="399" t="s">
         <v>18</v>
       </c>
       <c r="D17" s="145" t="s">
@@ -7431,8 +8380,8 @@
       <c r="M17" s="169"/>
     </row>
     <row r="18" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="365"/>
-      <c r="C18" s="359"/>
+      <c r="B18" s="408"/>
+      <c r="C18" s="400"/>
       <c r="D18" s="144" t="s">
         <v>17</v>
       </c>
@@ -7461,8 +8410,8 @@
       <c r="M18" s="79"/>
     </row>
     <row r="19" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="365"/>
-      <c r="C19" s="359"/>
+      <c r="B19" s="408"/>
+      <c r="C19" s="400"/>
       <c r="D19" s="145" t="s">
         <v>6</v>
       </c>
@@ -7491,8 +8440,8 @@
       <c r="M19" s="79"/>
     </row>
     <row r="20" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="365"/>
-      <c r="C20" s="359"/>
+      <c r="B20" s="408"/>
+      <c r="C20" s="400"/>
       <c r="D20" s="144" t="s">
         <v>7</v>
       </c>
@@ -7521,8 +8470,8 @@
       <c r="M20" s="79"/>
     </row>
     <row r="21" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="365"/>
-      <c r="C21" s="359"/>
+      <c r="B21" s="408"/>
+      <c r="C21" s="400"/>
       <c r="D21" s="144" t="s">
         <v>8</v>
       </c>
@@ -7551,8 +8500,8 @@
       <c r="M21" s="79"/>
     </row>
     <row r="22" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="366"/>
-      <c r="C22" s="360"/>
+      <c r="B22" s="409"/>
+      <c r="C22" s="402"/>
       <c r="D22" s="174" t="s">
         <v>9</v>
       </c>
@@ -7594,10 +8543,10 @@
       <c r="L23" s="198"/>
     </row>
     <row r="24" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="364" t="s">
+      <c r="B24" s="407" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="373" t="s">
+      <c r="C24" s="416" t="s">
         <v>2</v>
       </c>
       <c r="D24" s="190" t="s">
@@ -7627,8 +8576,8 @@
       </c>
     </row>
     <row r="25" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="365"/>
-      <c r="C25" s="359"/>
+      <c r="B25" s="408"/>
+      <c r="C25" s="400"/>
       <c r="D25" s="190" t="s">
         <v>17</v>
       </c>
@@ -7656,8 +8605,8 @@
       </c>
     </row>
     <row r="26" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="365"/>
-      <c r="C26" s="359"/>
+      <c r="B26" s="408"/>
+      <c r="C26" s="400"/>
       <c r="D26" s="190" t="s">
         <v>6</v>
       </c>
@@ -7685,8 +8634,8 @@
       </c>
     </row>
     <row r="27" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="365"/>
-      <c r="C27" s="359"/>
+      <c r="B27" s="408"/>
+      <c r="C27" s="400"/>
       <c r="D27" s="84" t="s">
         <v>7</v>
       </c>
@@ -7714,8 +8663,8 @@
       </c>
     </row>
     <row r="28" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="365"/>
-      <c r="C28" s="359"/>
+      <c r="B28" s="408"/>
+      <c r="C28" s="400"/>
       <c r="D28" s="83" t="s">
         <v>8</v>
       </c>
@@ -7743,8 +8692,8 @@
       </c>
     </row>
     <row r="29" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="365"/>
-      <c r="C29" s="374"/>
+      <c r="B29" s="408"/>
+      <c r="C29" s="401"/>
       <c r="D29" s="85" t="s">
         <v>9</v>
       </c>
@@ -7772,8 +8721,8 @@
       </c>
     </row>
     <row r="30" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="365"/>
-      <c r="C30" s="358" t="s">
+      <c r="B30" s="408"/>
+      <c r="C30" s="399" t="s">
         <v>3</v>
       </c>
       <c r="D30" s="84" t="s">
@@ -7804,8 +8753,8 @@
       <c r="M30" s="166"/>
     </row>
     <row r="31" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="365"/>
-      <c r="C31" s="359"/>
+      <c r="B31" s="408"/>
+      <c r="C31" s="400"/>
       <c r="D31" s="83" t="s">
         <v>17</v>
       </c>
@@ -7834,8 +8783,8 @@
       <c r="N31" s="166"/>
     </row>
     <row r="32" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="365"/>
-      <c r="C32" s="359"/>
+      <c r="B32" s="408"/>
+      <c r="C32" s="400"/>
       <c r="D32" s="84" t="s">
         <v>6</v>
       </c>
@@ -7865,8 +8814,8 @@
       <c r="N32" s="166"/>
     </row>
     <row r="33" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="365"/>
-      <c r="C33" s="359"/>
+      <c r="B33" s="408"/>
+      <c r="C33" s="400"/>
       <c r="D33" s="83" t="s">
         <v>7</v>
       </c>
@@ -7894,8 +8843,8 @@
       </c>
     </row>
     <row r="34" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="365"/>
-      <c r="C34" s="359"/>
+      <c r="B34" s="408"/>
+      <c r="C34" s="400"/>
       <c r="D34" s="83" t="s">
         <v>8</v>
       </c>
@@ -7923,8 +8872,8 @@
       </c>
     </row>
     <row r="35" spans="2:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="365"/>
-      <c r="C35" s="374"/>
+      <c r="B35" s="408"/>
+      <c r="C35" s="401"/>
       <c r="D35" s="85" t="s">
         <v>9</v>
       </c>
@@ -7952,8 +8901,8 @@
       </c>
     </row>
     <row r="36" spans="2:12" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="365"/>
-      <c r="C36" s="358" t="s">
+      <c r="B36" s="408"/>
+      <c r="C36" s="399" t="s">
         <v>18</v>
       </c>
       <c r="D36" s="84" t="s">
@@ -7983,8 +8932,8 @@
       </c>
     </row>
     <row r="37" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="365"/>
-      <c r="C37" s="359"/>
+      <c r="B37" s="408"/>
+      <c r="C37" s="400"/>
       <c r="D37" s="83" t="s">
         <v>17</v>
       </c>
@@ -8012,8 +8961,8 @@
       </c>
     </row>
     <row r="38" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="365"/>
-      <c r="C38" s="359"/>
+      <c r="B38" s="408"/>
+      <c r="C38" s="400"/>
       <c r="D38" s="84" t="s">
         <v>6</v>
       </c>
@@ -8041,8 +8990,8 @@
       </c>
     </row>
     <row r="39" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="365"/>
-      <c r="C39" s="359"/>
+      <c r="B39" s="408"/>
+      <c r="C39" s="400"/>
       <c r="D39" s="83" t="s">
         <v>7</v>
       </c>
@@ -8070,8 +9019,8 @@
       </c>
     </row>
     <row r="40" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="365"/>
-      <c r="C40" s="359"/>
+      <c r="B40" s="408"/>
+      <c r="C40" s="400"/>
       <c r="D40" s="83" t="s">
         <v>8</v>
       </c>
@@ -8099,8 +9048,8 @@
       </c>
     </row>
     <row r="41" spans="2:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="366"/>
-      <c r="C41" s="360"/>
+      <c r="B41" s="409"/>
+      <c r="C41" s="402"/>
       <c r="D41" s="195" t="s">
         <v>9</v>
       </c>
@@ -8141,10 +9090,10 @@
       <c r="L42" s="180"/>
     </row>
     <row r="43" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="364" t="s">
+      <c r="B43" s="407" t="s">
         <v>24</v>
       </c>
-      <c r="C43" s="373" t="s">
+      <c r="C43" s="416" t="s">
         <v>2</v>
       </c>
       <c r="D43" s="203" t="s">
@@ -8174,8 +9123,8 @@
       </c>
     </row>
     <row r="44" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="365"/>
-      <c r="C44" s="359"/>
+      <c r="B44" s="408"/>
+      <c r="C44" s="400"/>
       <c r="D44" s="83" t="s">
         <v>17</v>
       </c>
@@ -8203,8 +9152,8 @@
       </c>
     </row>
     <row r="45" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="365"/>
-      <c r="C45" s="359"/>
+      <c r="B45" s="408"/>
+      <c r="C45" s="400"/>
       <c r="D45" s="84" t="s">
         <v>6</v>
       </c>
@@ -8232,8 +9181,8 @@
       </c>
     </row>
     <row r="46" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="365"/>
-      <c r="C46" s="359"/>
+      <c r="B46" s="408"/>
+      <c r="C46" s="400"/>
       <c r="D46" s="83" t="s">
         <v>7</v>
       </c>
@@ -8261,8 +9210,8 @@
       </c>
     </row>
     <row r="47" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="365"/>
-      <c r="C47" s="359"/>
+      <c r="B47" s="408"/>
+      <c r="C47" s="400"/>
       <c r="D47" s="83" t="s">
         <v>8</v>
       </c>
@@ -8290,8 +9239,8 @@
       </c>
     </row>
     <row r="48" spans="2:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="365"/>
-      <c r="C48" s="374"/>
+      <c r="B48" s="408"/>
+      <c r="C48" s="401"/>
       <c r="D48" s="85" t="s">
         <v>9</v>
       </c>
@@ -8319,8 +9268,8 @@
       </c>
     </row>
     <row r="49" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="365"/>
-      <c r="C49" s="358" t="s">
+      <c r="B49" s="408"/>
+      <c r="C49" s="399" t="s">
         <v>3</v>
       </c>
       <c r="D49" s="84" t="s">
@@ -8350,8 +9299,8 @@
       </c>
     </row>
     <row r="50" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="365"/>
-      <c r="C50" s="359"/>
+      <c r="B50" s="408"/>
+      <c r="C50" s="400"/>
       <c r="D50" s="83" t="s">
         <v>17</v>
       </c>
@@ -8380,8 +9329,8 @@
       <c r="N50" s="166"/>
     </row>
     <row r="51" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="365"/>
-      <c r="C51" s="359"/>
+      <c r="B51" s="408"/>
+      <c r="C51" s="400"/>
       <c r="D51" s="84" t="s">
         <v>6</v>
       </c>
@@ -8410,8 +9359,8 @@
       <c r="N51" s="166"/>
     </row>
     <row r="52" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="365"/>
-      <c r="C52" s="359"/>
+      <c r="B52" s="408"/>
+      <c r="C52" s="400"/>
       <c r="D52" s="83" t="s">
         <v>7</v>
       </c>
@@ -8439,8 +9388,8 @@
       </c>
     </row>
     <row r="53" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="365"/>
-      <c r="C53" s="359"/>
+      <c r="B53" s="408"/>
+      <c r="C53" s="400"/>
       <c r="D53" s="83" t="s">
         <v>8</v>
       </c>
@@ -8468,8 +9417,8 @@
       </c>
     </row>
     <row r="54" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="365"/>
-      <c r="C54" s="374"/>
+      <c r="B54" s="408"/>
+      <c r="C54" s="401"/>
       <c r="D54" s="85" t="s">
         <v>9</v>
       </c>
@@ -8497,8 +9446,8 @@
       </c>
     </row>
     <row r="55" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="365"/>
-      <c r="C55" s="358" t="s">
+      <c r="B55" s="408"/>
+      <c r="C55" s="399" t="s">
         <v>18</v>
       </c>
       <c r="D55" s="84" t="s">
@@ -8528,8 +9477,8 @@
       </c>
     </row>
     <row r="56" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="365"/>
-      <c r="C56" s="359"/>
+      <c r="B56" s="408"/>
+      <c r="C56" s="400"/>
       <c r="D56" s="83" t="s">
         <v>17</v>
       </c>
@@ -8557,8 +9506,8 @@
       </c>
     </row>
     <row r="57" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="365"/>
-      <c r="C57" s="359"/>
+      <c r="B57" s="408"/>
+      <c r="C57" s="400"/>
       <c r="D57" s="84" t="s">
         <v>6</v>
       </c>
@@ -8586,8 +9535,8 @@
       </c>
     </row>
     <row r="58" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="365"/>
-      <c r="C58" s="359"/>
+      <c r="B58" s="408"/>
+      <c r="C58" s="400"/>
       <c r="D58" s="83" t="s">
         <v>7</v>
       </c>
@@ -8615,8 +9564,8 @@
       </c>
     </row>
     <row r="59" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="365"/>
-      <c r="C59" s="359"/>
+      <c r="B59" s="408"/>
+      <c r="C59" s="400"/>
       <c r="D59" s="83" t="s">
         <v>8</v>
       </c>
@@ -8644,8 +9593,8 @@
       </c>
     </row>
     <row r="60" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="366"/>
-      <c r="C60" s="360"/>
+      <c r="B60" s="409"/>
+      <c r="C60" s="402"/>
       <c r="D60" s="185" t="s">
         <v>9</v>
       </c>
@@ -8710,11 +9659,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="B43:B60"/>
-    <mergeCell ref="C43:C48"/>
-    <mergeCell ref="C49:C54"/>
-    <mergeCell ref="C55:C60"/>
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="E3:F3"/>
@@ -8727,6 +9671,11 @@
     <mergeCell ref="C5:C10"/>
     <mergeCell ref="C11:C16"/>
     <mergeCell ref="C17:C22"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="B43:B60"/>
+    <mergeCell ref="C43:C48"/>
+    <mergeCell ref="C49:C54"/>
+    <mergeCell ref="C55:C60"/>
   </mergeCells>
   <conditionalFormatting sqref="N10">
     <cfRule type="colorScale" priority="3">
@@ -8745,7 +9694,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDEA84EF-1AE7-4154-9EA1-16D82C4A9094}">
   <dimension ref="B1:S32"/>
   <sheetViews>
@@ -8768,35 +9717,35 @@
   <sheetData>
     <row r="1" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:19" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E2" s="361" t="s">
+      <c r="E2" s="403" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="362"/>
-      <c r="G2" s="362"/>
-      <c r="H2" s="362"/>
-      <c r="I2" s="363"/>
+      <c r="F2" s="404"/>
+      <c r="G2" s="404"/>
+      <c r="H2" s="404"/>
+      <c r="I2" s="405"/>
       <c r="J2" s="259"/>
-      <c r="K2" s="361" t="s">
+      <c r="K2" s="403" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="362"/>
-      <c r="M2" s="362"/>
-      <c r="N2" s="363"/>
+      <c r="L2" s="404"/>
+      <c r="M2" s="404"/>
+      <c r="N2" s="405"/>
     </row>
     <row r="3" spans="2:19" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="370" t="s">
+      <c r="B3" s="413" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="371"/>
-      <c r="D3" s="372"/>
-      <c r="E3" s="367" t="s">
+      <c r="C3" s="414"/>
+      <c r="D3" s="415"/>
+      <c r="E3" s="410" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="368"/>
-      <c r="G3" s="369" t="s">
+      <c r="F3" s="411"/>
+      <c r="G3" s="412" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="368"/>
+      <c r="H3" s="411"/>
       <c r="I3" s="215" t="s">
         <v>35</v>
       </c>
@@ -8854,10 +9803,10 @@
       </c>
     </row>
     <row r="5" spans="2:19" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="364" t="s">
+      <c r="B5" s="407" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="373" t="s">
+      <c r="C5" s="416" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="145" t="s">
@@ -8893,8 +9842,8 @@
       </c>
     </row>
     <row r="6" spans="2:19" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="365"/>
-      <c r="C6" s="359"/>
+      <c r="B6" s="408"/>
+      <c r="C6" s="400"/>
       <c r="D6" s="144" t="s">
         <v>17</v>
       </c>
@@ -8929,8 +9878,8 @@
       <c r="S6" s="273"/>
     </row>
     <row r="7" spans="2:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="365"/>
-      <c r="C7" s="359"/>
+      <c r="B7" s="408"/>
+      <c r="C7" s="400"/>
       <c r="D7" s="144" t="s">
         <v>7</v>
       </c>
@@ -8964,8 +9913,8 @@
       </c>
     </row>
     <row r="8" spans="2:19" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="365"/>
-      <c r="C8" s="374"/>
+      <c r="B8" s="408"/>
+      <c r="C8" s="401"/>
       <c r="D8" s="146" t="s">
         <v>9</v>
       </c>
@@ -8999,8 +9948,8 @@
       </c>
     </row>
     <row r="9" spans="2:19" ht="15.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="365"/>
-      <c r="C9" s="359" t="s">
+      <c r="B9" s="408"/>
+      <c r="C9" s="400" t="s">
         <v>3</v>
       </c>
       <c r="D9" s="144" t="s">
@@ -9036,8 +9985,8 @@
       </c>
     </row>
     <row r="10" spans="2:19" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="365"/>
-      <c r="C10" s="374"/>
+      <c r="B10" s="408"/>
+      <c r="C10" s="401"/>
       <c r="D10" s="146" t="s">
         <v>9</v>
       </c>
@@ -9071,8 +10020,8 @@
       </c>
     </row>
     <row r="11" spans="2:19" ht="15.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="365"/>
-      <c r="C11" s="358" t="s">
+      <c r="B11" s="408"/>
+      <c r="C11" s="399" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="145" t="s">
@@ -9108,8 +10057,8 @@
       </c>
     </row>
     <row r="12" spans="2:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="365"/>
-      <c r="C12" s="359"/>
+      <c r="B12" s="408"/>
+      <c r="C12" s="400"/>
       <c r="D12" s="144" t="s">
         <v>17</v>
       </c>
@@ -9143,8 +10092,8 @@
       </c>
     </row>
     <row r="13" spans="2:19" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="366"/>
-      <c r="C13" s="360"/>
+      <c r="B13" s="409"/>
+      <c r="C13" s="402"/>
       <c r="D13" s="174" t="s">
         <v>9</v>
       </c>
@@ -9193,10 +10142,10 @@
       <c r="N14" s="275"/>
     </row>
     <row r="15" spans="2:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="364" t="s">
+      <c r="B15" s="407" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="381" t="s">
+      <c r="C15" s="417" t="s">
         <v>2</v>
       </c>
       <c r="D15" s="190" t="s">
@@ -9232,8 +10181,8 @@
       </c>
     </row>
     <row r="16" spans="2:19" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="365"/>
-      <c r="C16" s="374"/>
+      <c r="B16" s="408"/>
+      <c r="C16" s="401"/>
       <c r="D16" s="191" t="s">
         <v>8</v>
       </c>
@@ -9267,8 +10216,8 @@
       </c>
     </row>
     <row r="17" spans="2:14" ht="15.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="365"/>
-      <c r="C17" s="359" t="s">
+      <c r="B17" s="408"/>
+      <c r="C17" s="400" t="s">
         <v>3</v>
       </c>
       <c r="D17" s="83" t="s">
@@ -9304,8 +10253,8 @@
       </c>
     </row>
     <row r="18" spans="2:14" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="365"/>
-      <c r="C18" s="359"/>
+      <c r="B18" s="408"/>
+      <c r="C18" s="400"/>
       <c r="D18" s="83" t="s">
         <v>7</v>
       </c>
@@ -9339,8 +10288,8 @@
       </c>
     </row>
     <row r="19" spans="2:14" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="365"/>
-      <c r="C19" s="359"/>
+      <c r="B19" s="408"/>
+      <c r="C19" s="400"/>
       <c r="D19" s="191" t="s">
         <v>8</v>
       </c>
@@ -9374,8 +10323,8 @@
       </c>
     </row>
     <row r="20" spans="2:14" ht="15.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="365"/>
-      <c r="C20" s="358" t="s">
+      <c r="B20" s="408"/>
+      <c r="C20" s="399" t="s">
         <v>18</v>
       </c>
       <c r="D20" s="84" t="s">
@@ -9411,8 +10360,8 @@
       </c>
     </row>
     <row r="21" spans="2:14" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="365"/>
-      <c r="C21" s="359"/>
+      <c r="B21" s="408"/>
+      <c r="C21" s="400"/>
       <c r="D21" s="83" t="s">
         <v>17</v>
       </c>
@@ -9446,8 +10395,8 @@
       </c>
     </row>
     <row r="22" spans="2:14" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="366"/>
-      <c r="C22" s="360"/>
+      <c r="B22" s="409"/>
+      <c r="C22" s="402"/>
       <c r="D22" s="195" t="s">
         <v>9</v>
       </c>
@@ -9496,10 +10445,10 @@
       <c r="N23" s="257"/>
     </row>
     <row r="24" spans="2:14" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="364" t="s">
+      <c r="B24" s="407" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="373" t="s">
+      <c r="C24" s="416" t="s">
         <v>2</v>
       </c>
       <c r="D24" s="203" t="s">
@@ -9535,8 +10484,8 @@
       </c>
     </row>
     <row r="25" spans="2:14" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="365"/>
-      <c r="C25" s="359"/>
+      <c r="B25" s="408"/>
+      <c r="C25" s="400"/>
       <c r="D25" s="83" t="s">
         <v>17</v>
       </c>
@@ -9570,8 +10519,8 @@
       </c>
     </row>
     <row r="26" spans="2:14" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="365"/>
-      <c r="C26" s="359"/>
+      <c r="B26" s="408"/>
+      <c r="C26" s="400"/>
       <c r="D26" s="83" t="s">
         <v>8</v>
       </c>
@@ -9605,8 +10554,8 @@
       </c>
     </row>
     <row r="27" spans="2:14" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="365"/>
-      <c r="C27" s="374"/>
+      <c r="B27" s="408"/>
+      <c r="C27" s="401"/>
       <c r="D27" s="85" t="s">
         <v>9</v>
       </c>
@@ -9640,8 +10589,8 @@
       </c>
     </row>
     <row r="28" spans="2:14" ht="15.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="365"/>
-      <c r="C28" s="358" t="s">
+      <c r="B28" s="408"/>
+      <c r="C28" s="399" t="s">
         <v>3</v>
       </c>
       <c r="D28" s="84" t="s">
@@ -9677,8 +10626,8 @@
       </c>
     </row>
     <row r="29" spans="2:14" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="365"/>
-      <c r="C29" s="359"/>
+      <c r="B29" s="408"/>
+      <c r="C29" s="400"/>
       <c r="D29" s="84" t="s">
         <v>6</v>
       </c>
@@ -9712,8 +10661,8 @@
       </c>
     </row>
     <row r="30" spans="2:14" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="365"/>
-      <c r="C30" s="374"/>
+      <c r="B30" s="408"/>
+      <c r="C30" s="401"/>
       <c r="D30" s="85" t="s">
         <v>9</v>
       </c>
@@ -9747,8 +10696,8 @@
       </c>
     </row>
     <row r="31" spans="2:14" ht="15.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="365"/>
-      <c r="C31" s="358" t="s">
+      <c r="B31" s="408"/>
+      <c r="C31" s="399" t="s">
         <v>18</v>
       </c>
       <c r="D31" s="84" t="s">
@@ -9784,8 +10733,8 @@
       </c>
     </row>
     <row r="32" spans="2:14" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="366"/>
-      <c r="C32" s="360"/>
+      <c r="B32" s="409"/>
+      <c r="C32" s="402"/>
       <c r="D32" s="185" t="s">
         <v>7</v>
       </c>
@@ -9820,11 +10769,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="B15:B22"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="C20:C22"/>
     <mergeCell ref="B24:B32"/>
     <mergeCell ref="C24:C27"/>
     <mergeCell ref="C28:C30"/>
@@ -9837,13 +10781,18 @@
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="G3:H3"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="B15:B22"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="C20:C22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4E29B7B-D579-43D4-BFFA-681CF5D12D64}">
   <dimension ref="B1:O43"/>
   <sheetViews>
@@ -9870,32 +10819,32 @@
   <sheetData>
     <row r="1" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:15" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="384" t="s">
+      <c r="B2" s="425" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="385"/>
-      <c r="D2" s="386" t="s">
+      <c r="C2" s="426"/>
+      <c r="D2" s="427" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="387"/>
+      <c r="E2" s="428"/>
       <c r="F2" s="12"/>
-      <c r="G2" s="384" t="s">
+      <c r="G2" s="425" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="388"/>
-      <c r="I2" s="386" t="s">
+      <c r="H2" s="429"/>
+      <c r="I2" s="427" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="387"/>
+      <c r="J2" s="428"/>
       <c r="K2" s="12"/>
-      <c r="L2" s="384" t="s">
+      <c r="L2" s="425" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="388"/>
-      <c r="N2" s="389" t="s">
+      <c r="M2" s="429"/>
+      <c r="N2" s="430" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="387"/>
+      <c r="O2" s="428"/>
     </row>
     <row r="3" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="7" t="s">
@@ -10549,32 +11498,32 @@
     </row>
     <row r="23" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="2:15" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="384" t="s">
+      <c r="B24" s="425" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="385"/>
-      <c r="D24" s="382" t="s">
+      <c r="C24" s="426"/>
+      <c r="D24" s="423" t="s">
         <v>15</v>
       </c>
-      <c r="E24" s="383"/>
+      <c r="E24" s="424"/>
       <c r="F24" s="12"/>
-      <c r="G24" s="384" t="s">
+      <c r="G24" s="425" t="s">
         <v>13</v>
       </c>
-      <c r="H24" s="388"/>
-      <c r="I24" s="382" t="s">
+      <c r="H24" s="429"/>
+      <c r="I24" s="423" t="s">
         <v>15</v>
       </c>
-      <c r="J24" s="383"/>
+      <c r="J24" s="424"/>
       <c r="K24" s="12"/>
-      <c r="L24" s="384" t="s">
+      <c r="L24" s="425" t="s">
         <v>14</v>
       </c>
-      <c r="M24" s="388"/>
-      <c r="N24" s="382" t="s">
+      <c r="M24" s="429"/>
+      <c r="N24" s="423" t="s">
         <v>15</v>
       </c>
-      <c r="O24" s="383"/>
+      <c r="O24" s="424"/>
     </row>
     <row r="25" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="7" t="s">

--- a/tables.xlsx
+++ b/tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thomp\Desktop\Ch3_floweringrush\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23F40433-E5A7-48D0-9A29-BFC2C752C741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BD29BA4-CC44-4069-A246-BC4E64F5478B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{94130567-C790-4197-BF09-72317C0E58C5}"/>
   </bookViews>
@@ -2638,30 +2638,39 @@
     <xf numFmtId="164" fontId="7" fillId="4" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2689,25 +2698,22 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2733,12 +2739,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3108,33 +3108,33 @@
       <c r="I1"/>
     </row>
     <row r="2" spans="2:14" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E2" s="430" t="s">
+      <c r="E2" s="403" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="431"/>
-      <c r="G2" s="431"/>
-      <c r="H2" s="419"/>
+      <c r="F2" s="404"/>
+      <c r="G2" s="404"/>
+      <c r="H2" s="405"/>
       <c r="I2" s="287"/>
-      <c r="J2" s="405" t="s">
+      <c r="J2" s="406" t="s">
         <v>52</v>
       </c>
-      <c r="K2" s="403"/>
-      <c r="L2" s="404"/>
+      <c r="K2" s="407"/>
+      <c r="L2" s="408"/>
     </row>
     <row r="3" spans="2:14" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="412" t="s">
+      <c r="B3" s="415" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="413"/>
-      <c r="D3" s="414"/>
-      <c r="E3" s="409" t="s">
+      <c r="C3" s="416"/>
+      <c r="D3" s="417"/>
+      <c r="E3" s="412" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="410"/>
-      <c r="G3" s="411" t="s">
+      <c r="F3" s="413"/>
+      <c r="G3" s="414" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="410"/>
+      <c r="H3" s="413"/>
       <c r="I3" s="288"/>
       <c r="J3" s="214" t="s">
         <v>31</v>
@@ -3182,10 +3182,10 @@
       <c r="M4" s="77"/>
     </row>
     <row r="5" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="406" t="s">
+      <c r="B5" s="409" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="415" t="s">
+      <c r="C5" s="398" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="145" t="s">
@@ -3216,7 +3216,7 @@
       <c r="M5" s="79"/>
     </row>
     <row r="6" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="407"/>
+      <c r="B6" s="410"/>
       <c r="C6" s="399"/>
       <c r="D6" s="144" t="s">
         <v>17</v>
@@ -3246,7 +3246,7 @@
       <c r="M6" s="79"/>
     </row>
     <row r="7" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="407"/>
+      <c r="B7" s="410"/>
       <c r="C7" s="399"/>
       <c r="D7" s="145" t="s">
         <v>6</v>
@@ -3276,7 +3276,7 @@
       <c r="M7" s="79"/>
     </row>
     <row r="8" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="407"/>
+      <c r="B8" s="410"/>
       <c r="C8" s="399"/>
       <c r="D8" s="144" t="s">
         <v>7</v>
@@ -3306,7 +3306,7 @@
       <c r="M8" s="79"/>
     </row>
     <row r="9" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="407"/>
+      <c r="B9" s="410"/>
       <c r="C9" s="399"/>
       <c r="D9" s="144" t="s">
         <v>8</v>
@@ -3336,7 +3336,7 @@
       <c r="M9" s="78"/>
     </row>
     <row r="10" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B10" s="407"/>
+      <c r="B10" s="410"/>
       <c r="C10" s="400"/>
       <c r="D10" s="146" t="s">
         <v>9</v>
@@ -3366,8 +3366,8 @@
       <c r="M10" s="79"/>
     </row>
     <row r="11" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="407"/>
-      <c r="C11" s="398" t="s">
+      <c r="B11" s="410"/>
+      <c r="C11" s="401" t="s">
         <v>3</v>
       </c>
       <c r="D11" s="145" t="s">
@@ -3399,7 +3399,7 @@
       <c r="N11" s="166"/>
     </row>
     <row r="12" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="407"/>
+      <c r="B12" s="410"/>
       <c r="C12" s="399"/>
       <c r="D12" s="144" t="s">
         <v>17</v>
@@ -3429,7 +3429,7 @@
       <c r="M12" s="81"/>
     </row>
     <row r="13" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="407"/>
+      <c r="B13" s="410"/>
       <c r="C13" s="399"/>
       <c r="D13" s="145" t="s">
         <v>6</v>
@@ -3460,7 +3460,7 @@
       <c r="N13" s="166"/>
     </row>
     <row r="14" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="407"/>
+      <c r="B14" s="410"/>
       <c r="C14" s="399"/>
       <c r="D14" s="144" t="s">
         <v>7</v>
@@ -3491,7 +3491,7 @@
       <c r="N14" s="166"/>
     </row>
     <row r="15" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="407"/>
+      <c r="B15" s="410"/>
       <c r="C15" s="399"/>
       <c r="D15" s="144" t="s">
         <v>8</v>
@@ -3521,7 +3521,7 @@
       <c r="M15" s="79"/>
     </row>
     <row r="16" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B16" s="407"/>
+      <c r="B16" s="410"/>
       <c r="C16" s="400"/>
       <c r="D16" s="146" t="s">
         <v>9</v>
@@ -3551,8 +3551,8 @@
       <c r="M16" s="79"/>
     </row>
     <row r="17" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="407"/>
-      <c r="C17" s="398" t="s">
+      <c r="B17" s="410"/>
+      <c r="C17" s="401" t="s">
         <v>18</v>
       </c>
       <c r="D17" s="145" t="s">
@@ -3583,7 +3583,7 @@
       <c r="M17" s="169"/>
     </row>
     <row r="18" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="407"/>
+      <c r="B18" s="410"/>
       <c r="C18" s="399"/>
       <c r="D18" s="144" t="s">
         <v>17</v>
@@ -3613,7 +3613,7 @@
       <c r="M18" s="79"/>
     </row>
     <row r="19" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="407"/>
+      <c r="B19" s="410"/>
       <c r="C19" s="399"/>
       <c r="D19" s="145" t="s">
         <v>6</v>
@@ -3643,7 +3643,7 @@
       <c r="M19" s="79"/>
     </row>
     <row r="20" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="407"/>
+      <c r="B20" s="410"/>
       <c r="C20" s="399"/>
       <c r="D20" s="144" t="s">
         <v>7</v>
@@ -3673,7 +3673,7 @@
       <c r="M20" s="79"/>
     </row>
     <row r="21" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="407"/>
+      <c r="B21" s="410"/>
       <c r="C21" s="399"/>
       <c r="D21" s="144" t="s">
         <v>8</v>
@@ -3703,8 +3703,8 @@
       <c r="M21" s="79"/>
     </row>
     <row r="22" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B22" s="408"/>
-      <c r="C22" s="401"/>
+      <c r="B22" s="411"/>
+      <c r="C22" s="402"/>
       <c r="D22" s="174" t="s">
         <v>9</v>
       </c>
@@ -3746,10 +3746,10 @@
       <c r="L23" s="198"/>
     </row>
     <row r="24" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="406" t="s">
+      <c r="B24" s="409" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="415" t="s">
+      <c r="C24" s="398" t="s">
         <v>2</v>
       </c>
       <c r="D24" s="345" t="s">
@@ -3779,7 +3779,7 @@
       </c>
     </row>
     <row r="25" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="407"/>
+      <c r="B25" s="410"/>
       <c r="C25" s="399"/>
       <c r="D25" s="339" t="s">
         <v>17</v>
@@ -3808,7 +3808,7 @@
       </c>
     </row>
     <row r="26" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="407"/>
+      <c r="B26" s="410"/>
       <c r="C26" s="399"/>
       <c r="D26" s="339" t="s">
         <v>6</v>
@@ -3837,7 +3837,7 @@
       </c>
     </row>
     <row r="27" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="407"/>
+      <c r="B27" s="410"/>
       <c r="C27" s="399"/>
       <c r="D27" s="145" t="s">
         <v>7</v>
@@ -3866,7 +3866,7 @@
       </c>
     </row>
     <row r="28" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="407"/>
+      <c r="B28" s="410"/>
       <c r="C28" s="399"/>
       <c r="D28" s="144" t="s">
         <v>8</v>
@@ -3895,7 +3895,7 @@
       </c>
     </row>
     <row r="29" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="407"/>
+      <c r="B29" s="410"/>
       <c r="C29" s="400"/>
       <c r="D29" s="146" t="s">
         <v>9</v>
@@ -3924,8 +3924,8 @@
       </c>
     </row>
     <row r="30" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="407"/>
-      <c r="C30" s="398" t="s">
+      <c r="B30" s="410"/>
+      <c r="C30" s="401" t="s">
         <v>3</v>
       </c>
       <c r="D30" s="145" t="s">
@@ -3957,7 +3957,7 @@
       <c r="N30" s="166"/>
     </row>
     <row r="31" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="407"/>
+      <c r="B31" s="410"/>
       <c r="C31" s="399"/>
       <c r="D31" s="144" t="s">
         <v>17</v>
@@ -3986,7 +3986,7 @@
       </c>
     </row>
     <row r="32" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="407"/>
+      <c r="B32" s="410"/>
       <c r="C32" s="399"/>
       <c r="D32" s="145" t="s">
         <v>6</v>
@@ -4016,7 +4016,7 @@
       <c r="M32" s="166"/>
     </row>
     <row r="33" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="407"/>
+      <c r="B33" s="410"/>
       <c r="C33" s="399"/>
       <c r="D33" s="144" t="s">
         <v>7</v>
@@ -4046,7 +4046,7 @@
       <c r="N33" s="166"/>
     </row>
     <row r="34" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="407"/>
+      <c r="B34" s="410"/>
       <c r="C34" s="399"/>
       <c r="D34" s="144" t="s">
         <v>8</v>
@@ -4075,7 +4075,7 @@
       </c>
     </row>
     <row r="35" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="407"/>
+      <c r="B35" s="410"/>
       <c r="C35" s="400"/>
       <c r="D35" s="146" t="s">
         <v>9</v>
@@ -4104,8 +4104,8 @@
       </c>
     </row>
     <row r="36" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="407"/>
-      <c r="C36" s="398" t="s">
+      <c r="B36" s="410"/>
+      <c r="C36" s="401" t="s">
         <v>18</v>
       </c>
       <c r="D36" s="145" t="s">
@@ -4135,7 +4135,7 @@
       </c>
     </row>
     <row r="37" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="407"/>
+      <c r="B37" s="410"/>
       <c r="C37" s="399"/>
       <c r="D37" s="144" t="s">
         <v>17</v>
@@ -4164,7 +4164,7 @@
       </c>
     </row>
     <row r="38" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="407"/>
+      <c r="B38" s="410"/>
       <c r="C38" s="399"/>
       <c r="D38" s="145" t="s">
         <v>6</v>
@@ -4193,7 +4193,7 @@
       </c>
     </row>
     <row r="39" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="407"/>
+      <c r="B39" s="410"/>
       <c r="C39" s="399"/>
       <c r="D39" s="144" t="s">
         <v>7</v>
@@ -4222,7 +4222,7 @@
       </c>
     </row>
     <row r="40" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="407"/>
+      <c r="B40" s="410"/>
       <c r="C40" s="399"/>
       <c r="D40" s="144" t="s">
         <v>8</v>
@@ -4251,8 +4251,8 @@
       </c>
     </row>
     <row r="41" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B41" s="408"/>
-      <c r="C41" s="401"/>
+      <c r="B41" s="411"/>
+      <c r="C41" s="402"/>
       <c r="D41" s="362" t="s">
         <v>9</v>
       </c>
@@ -4293,10 +4293,10 @@
       <c r="L42" s="180"/>
     </row>
     <row r="43" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="406" t="s">
+      <c r="B43" s="409" t="s">
         <v>24</v>
       </c>
-      <c r="C43" s="415" t="s">
+      <c r="C43" s="398" t="s">
         <v>2</v>
       </c>
       <c r="D43" s="203" t="s">
@@ -4326,7 +4326,7 @@
       </c>
     </row>
     <row r="44" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="407"/>
+      <c r="B44" s="410"/>
       <c r="C44" s="399"/>
       <c r="D44" s="83" t="s">
         <v>17</v>
@@ -4355,7 +4355,7 @@
       </c>
     </row>
     <row r="45" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="407"/>
+      <c r="B45" s="410"/>
       <c r="C45" s="399"/>
       <c r="D45" s="84" t="s">
         <v>6</v>
@@ -4384,7 +4384,7 @@
       </c>
     </row>
     <row r="46" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="407"/>
+      <c r="B46" s="410"/>
       <c r="C46" s="399"/>
       <c r="D46" s="83" t="s">
         <v>7</v>
@@ -4413,7 +4413,7 @@
       </c>
     </row>
     <row r="47" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="407"/>
+      <c r="B47" s="410"/>
       <c r="C47" s="399"/>
       <c r="D47" s="83" t="s">
         <v>8</v>
@@ -4442,7 +4442,7 @@
       </c>
     </row>
     <row r="48" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B48" s="407"/>
+      <c r="B48" s="410"/>
       <c r="C48" s="400"/>
       <c r="D48" s="85" t="s">
         <v>9</v>
@@ -4471,8 +4471,8 @@
       </c>
     </row>
     <row r="49" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="407"/>
-      <c r="C49" s="398" t="s">
+      <c r="B49" s="410"/>
+      <c r="C49" s="401" t="s">
         <v>3</v>
       </c>
       <c r="D49" s="84" t="s">
@@ -4502,7 +4502,7 @@
       </c>
     </row>
     <row r="50" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="407"/>
+      <c r="B50" s="410"/>
       <c r="C50" s="399"/>
       <c r="D50" s="83" t="s">
         <v>17</v>
@@ -4531,7 +4531,7 @@
       </c>
     </row>
     <row r="51" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="407"/>
+      <c r="B51" s="410"/>
       <c r="C51" s="399"/>
       <c r="D51" s="84" t="s">
         <v>6</v>
@@ -4561,7 +4561,7 @@
       <c r="N51" s="166"/>
     </row>
     <row r="52" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="407"/>
+      <c r="B52" s="410"/>
       <c r="C52" s="399"/>
       <c r="D52" s="83" t="s">
         <v>7</v>
@@ -4590,7 +4590,7 @@
       </c>
     </row>
     <row r="53" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="407"/>
+      <c r="B53" s="410"/>
       <c r="C53" s="399"/>
       <c r="D53" s="83" t="s">
         <v>8</v>
@@ -4620,7 +4620,7 @@
       <c r="N53" s="166"/>
     </row>
     <row r="54" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B54" s="407"/>
+      <c r="B54" s="410"/>
       <c r="C54" s="400"/>
       <c r="D54" s="85" t="s">
         <v>9</v>
@@ -4649,8 +4649,8 @@
       </c>
     </row>
     <row r="55" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="407"/>
-      <c r="C55" s="398" t="s">
+      <c r="B55" s="410"/>
+      <c r="C55" s="401" t="s">
         <v>18</v>
       </c>
       <c r="D55" s="84" t="s">
@@ -4680,7 +4680,7 @@
       </c>
     </row>
     <row r="56" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="407"/>
+      <c r="B56" s="410"/>
       <c r="C56" s="399"/>
       <c r="D56" s="83" t="s">
         <v>17</v>
@@ -4709,7 +4709,7 @@
       </c>
     </row>
     <row r="57" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="407"/>
+      <c r="B57" s="410"/>
       <c r="C57" s="399"/>
       <c r="D57" s="84" t="s">
         <v>6</v>
@@ -4738,7 +4738,7 @@
       </c>
     </row>
     <row r="58" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="407"/>
+      <c r="B58" s="410"/>
       <c r="C58" s="399"/>
       <c r="D58" s="83" t="s">
         <v>7</v>
@@ -4767,7 +4767,7 @@
       </c>
     </row>
     <row r="59" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="407"/>
+      <c r="B59" s="410"/>
       <c r="C59" s="399"/>
       <c r="D59" s="83" t="s">
         <v>8</v>
@@ -4796,8 +4796,8 @@
       </c>
     </row>
     <row r="60" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B60" s="408"/>
-      <c r="C60" s="401"/>
+      <c r="B60" s="411"/>
+      <c r="C60" s="402"/>
       <c r="D60" s="185" t="s">
         <v>9</v>
       </c>
@@ -4922,11 +4922,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="C43:C48"/>
-    <mergeCell ref="C49:C54"/>
-    <mergeCell ref="C55:C60"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="J2:L2"/>
     <mergeCell ref="B5:B22"/>
     <mergeCell ref="B24:B41"/>
     <mergeCell ref="B43:B60"/>
@@ -4939,6 +4934,11 @@
     <mergeCell ref="C24:C29"/>
     <mergeCell ref="C30:C35"/>
     <mergeCell ref="C36:C41"/>
+    <mergeCell ref="C43:C48"/>
+    <mergeCell ref="C49:C54"/>
+    <mergeCell ref="C55:C60"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="J2:L2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4949,7 +4949,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47F3A9D0-E715-4BA0-A12D-1EC62F0BA8AA}">
   <dimension ref="B1:N53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="113" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="113" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -4971,35 +4971,35 @@
       <c r="J1"/>
     </row>
     <row r="2" spans="2:14" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E2" s="402" t="s">
+      <c r="E2" s="418" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="403"/>
-      <c r="G2" s="403"/>
-      <c r="H2" s="404"/>
+      <c r="F2" s="407"/>
+      <c r="G2" s="407"/>
+      <c r="H2" s="408"/>
       <c r="I2" s="287"/>
-      <c r="J2" s="405" t="s">
+      <c r="J2" s="406" t="s">
         <v>52</v>
       </c>
-      <c r="K2" s="403"/>
-      <c r="L2" s="404"/>
+      <c r="K2" s="407"/>
+      <c r="L2" s="408"/>
       <c r="M2" s="381"/>
       <c r="N2" s="381"/>
     </row>
     <row r="3" spans="2:14" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="412" t="s">
+      <c r="B3" s="415" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="413"/>
-      <c r="D3" s="414"/>
-      <c r="E3" s="409" t="s">
+      <c r="C3" s="416"/>
+      <c r="D3" s="417"/>
+      <c r="E3" s="412" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="410"/>
-      <c r="G3" s="411" t="s">
+      <c r="F3" s="413"/>
+      <c r="G3" s="414" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="410"/>
+      <c r="H3" s="413"/>
       <c r="I3" s="288"/>
       <c r="J3" s="214" t="s">
         <v>31</v>
@@ -5049,10 +5049,10 @@
       <c r="N4" s="385"/>
     </row>
     <row r="5" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="406" t="s">
+      <c r="B5" s="409" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="415" t="s">
+      <c r="C5" s="398" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="145" t="s">
@@ -5084,7 +5084,7 @@
       <c r="N5" s="385"/>
     </row>
     <row r="6" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="407"/>
+      <c r="B6" s="410"/>
       <c r="C6" s="399"/>
       <c r="D6" s="144" t="s">
         <v>17</v>
@@ -5115,7 +5115,7 @@
       <c r="N6" s="385"/>
     </row>
     <row r="7" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="407"/>
+      <c r="B7" s="410"/>
       <c r="C7" s="399"/>
       <c r="D7" s="144" t="s">
         <v>7</v>
@@ -5146,7 +5146,7 @@
       <c r="N7" s="385"/>
     </row>
     <row r="8" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="407"/>
+      <c r="B8" s="410"/>
       <c r="C8" s="399"/>
       <c r="D8" s="144" t="s">
         <v>8</v>
@@ -5177,7 +5177,7 @@
       <c r="N8" s="386"/>
     </row>
     <row r="9" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="407"/>
+      <c r="B9" s="410"/>
       <c r="C9" s="400"/>
       <c r="D9" s="146" t="s">
         <v>9</v>
@@ -5208,8 +5208,8 @@
       <c r="N9" s="386"/>
     </row>
     <row r="10" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="407"/>
-      <c r="C10" s="398" t="s">
+      <c r="B10" s="410"/>
+      <c r="C10" s="401" t="s">
         <v>3</v>
       </c>
       <c r="D10" s="145" t="s">
@@ -5241,7 +5241,7 @@
       <c r="N10" s="386"/>
     </row>
     <row r="11" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="407"/>
+      <c r="B11" s="410"/>
       <c r="C11" s="399"/>
       <c r="D11" s="144" t="s">
         <v>7</v>
@@ -5272,7 +5272,7 @@
       <c r="N11" s="386"/>
     </row>
     <row r="12" spans="2:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="407"/>
+      <c r="B12" s="410"/>
       <c r="C12" s="399"/>
       <c r="D12" s="144" t="s">
         <v>8</v>
@@ -5303,7 +5303,7 @@
       <c r="N12" s="386"/>
     </row>
     <row r="13" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="407"/>
+      <c r="B13" s="410"/>
       <c r="C13" s="400"/>
       <c r="D13" s="146" t="s">
         <v>9</v>
@@ -5334,7 +5334,7 @@
       <c r="N13" s="387"/>
     </row>
     <row r="14" spans="2:14" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="407"/>
+      <c r="B14" s="410"/>
       <c r="C14" s="352" t="s">
         <v>18</v>
       </c>
@@ -5382,10 +5382,10 @@
       <c r="N15" s="386"/>
     </row>
     <row r="16" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="406" t="s">
+      <c r="B16" s="409" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="415" t="s">
+      <c r="C16" s="398" t="s">
         <v>2</v>
       </c>
       <c r="D16" s="345" t="s">
@@ -5417,7 +5417,7 @@
       <c r="N16" s="386"/>
     </row>
     <row r="17" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="407"/>
+      <c r="B17" s="410"/>
       <c r="C17" s="399"/>
       <c r="D17" s="339" t="s">
         <v>6</v>
@@ -5448,7 +5448,7 @@
       <c r="N17" s="385"/>
     </row>
     <row r="18" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="407"/>
+      <c r="B18" s="410"/>
       <c r="C18" s="399"/>
       <c r="D18" s="144" t="s">
         <v>8</v>
@@ -5479,7 +5479,7 @@
       <c r="N18" s="385"/>
     </row>
     <row r="19" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="407"/>
+      <c r="B19" s="410"/>
       <c r="C19" s="400"/>
       <c r="D19" s="146" t="s">
         <v>9</v>
@@ -5510,8 +5510,8 @@
       <c r="N19" s="385"/>
     </row>
     <row r="20" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="407"/>
-      <c r="C20" s="398" t="s">
+      <c r="B20" s="410"/>
+      <c r="C20" s="401" t="s">
         <v>3</v>
       </c>
       <c r="D20" s="145" t="s">
@@ -5543,7 +5543,7 @@
       <c r="N20" s="385"/>
     </row>
     <row r="21" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="407"/>
+      <c r="B21" s="410"/>
       <c r="C21" s="399"/>
       <c r="D21" s="144" t="s">
         <v>7</v>
@@ -5574,7 +5574,7 @@
       <c r="N21" s="386"/>
     </row>
     <row r="22" spans="2:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="407"/>
+      <c r="B22" s="410"/>
       <c r="C22" s="400"/>
       <c r="D22" s="341" t="s">
         <v>8</v>
@@ -5603,7 +5603,7 @@
       </c>
     </row>
     <row r="23" spans="2:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="407"/>
+      <c r="B23" s="410"/>
       <c r="C23" s="399" t="s">
         <v>18</v>
       </c>
@@ -5647,10 +5647,10 @@
       <c r="L24" s="180"/>
     </row>
     <row r="25" spans="2:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B25" s="406" t="s">
+      <c r="B25" s="409" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="415" t="s">
+      <c r="C25" s="398" t="s">
         <v>2</v>
       </c>
       <c r="D25" s="203" t="s">
@@ -5680,7 +5680,7 @@
       </c>
     </row>
     <row r="26" spans="2:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B26" s="407"/>
+      <c r="B26" s="410"/>
       <c r="C26" s="399"/>
       <c r="D26" s="83" t="s">
         <v>17</v>
@@ -5709,7 +5709,7 @@
       </c>
     </row>
     <row r="27" spans="2:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B27" s="407"/>
+      <c r="B27" s="410"/>
       <c r="C27" s="399"/>
       <c r="D27" s="83" t="s">
         <v>8</v>
@@ -5738,7 +5738,7 @@
       </c>
     </row>
     <row r="28" spans="2:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="407"/>
+      <c r="B28" s="410"/>
       <c r="C28" s="400"/>
       <c r="D28" s="85" t="s">
         <v>9</v>
@@ -5767,8 +5767,8 @@
       </c>
     </row>
     <row r="29" spans="2:14" ht="16" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="407"/>
-      <c r="C29" s="398" t="s">
+      <c r="B29" s="410"/>
+      <c r="C29" s="401" t="s">
         <v>3</v>
       </c>
       <c r="D29" s="84" t="s">
@@ -5798,7 +5798,7 @@
       </c>
     </row>
     <row r="30" spans="2:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="407"/>
+      <c r="B30" s="410"/>
       <c r="C30" s="400"/>
       <c r="D30" s="191" t="s">
         <v>7</v>
@@ -5827,7 +5827,7 @@
       </c>
     </row>
     <row r="31" spans="2:14" ht="16" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="407"/>
+      <c r="B31" s="410"/>
       <c r="C31" s="399" t="s">
         <v>18</v>
       </c>
@@ -5858,8 +5858,8 @@
       </c>
     </row>
     <row r="32" spans="2:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B32" s="408"/>
-      <c r="C32" s="401"/>
+      <c r="B32" s="411"/>
+      <c r="C32" s="402"/>
       <c r="D32" s="185" t="s">
         <v>8</v>
       </c>
@@ -5951,13 +5951,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="B5:B14"/>
-    <mergeCell ref="C5:C9"/>
-    <mergeCell ref="C10:C13"/>
     <mergeCell ref="B25:B32"/>
     <mergeCell ref="C25:C28"/>
     <mergeCell ref="C29:C30"/>
@@ -5967,6 +5960,13 @@
     <mergeCell ref="C16:C19"/>
     <mergeCell ref="C20:C22"/>
     <mergeCell ref="C23"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="B5:B14"/>
+    <mergeCell ref="C5:C9"/>
+    <mergeCell ref="C10:C13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5977,7 +5977,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B6757E6-FE7D-4C1B-B985-36D8C117B1C1}">
   <dimension ref="B1:N57"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="50" zoomScalePageLayoutView="40" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A14" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="50" zoomScalePageLayoutView="40" workbookViewId="0">
       <selection activeCell="T12" sqref="T12"/>
     </sheetView>
   </sheetViews>
@@ -6003,18 +6003,18 @@
       <c r="J1"/>
     </row>
     <row r="2" spans="2:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="F2" s="402" t="s">
+      <c r="F2" s="418" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="403"/>
-      <c r="H2" s="403"/>
-      <c r="I2" s="404"/>
+      <c r="G2" s="407"/>
+      <c r="H2" s="407"/>
+      <c r="I2" s="408"/>
       <c r="J2" s="287"/>
-      <c r="K2" s="402" t="s">
+      <c r="K2" s="418" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="403"/>
-      <c r="M2" s="404"/>
+      <c r="L2" s="407"/>
+      <c r="M2" s="408"/>
     </row>
     <row r="3" spans="2:14" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="420" t="s">
@@ -6023,14 +6023,14 @@
       <c r="C3" s="421"/>
       <c r="D3" s="421"/>
       <c r="E3" s="421"/>
-      <c r="F3" s="418" t="s">
+      <c r="F3" s="419" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="419"/>
-      <c r="H3" s="411" t="s">
+      <c r="G3" s="405"/>
+      <c r="H3" s="414" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="410"/>
+      <c r="I3" s="413"/>
       <c r="J3" s="288"/>
       <c r="K3" s="214" t="s">
         <v>31</v>
@@ -6081,13 +6081,13 @@
       <c r="N4" s="77"/>
     </row>
     <row r="5" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="407" t="s">
+      <c r="B5" s="410" t="s">
         <v>27</v>
       </c>
       <c r="C5" s="399" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="415" t="s">
+      <c r="D5" s="398" t="s">
         <v>7</v>
       </c>
       <c r="E5" s="338" t="s">
@@ -6118,7 +6118,7 @@
       <c r="N5" s="79"/>
     </row>
     <row r="6" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B6" s="407"/>
+      <c r="B6" s="410"/>
       <c r="C6" s="400"/>
       <c r="D6" s="400"/>
       <c r="E6" s="341" t="s">
@@ -6149,11 +6149,11 @@
       <c r="N6" s="79"/>
     </row>
     <row r="7" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="407"/>
-      <c r="C7" s="398" t="s">
+      <c r="B7" s="410"/>
+      <c r="C7" s="401" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="398" t="s">
+      <c r="D7" s="401" t="s">
         <v>16</v>
       </c>
       <c r="E7" s="338" t="s">
@@ -6184,9 +6184,9 @@
       <c r="N7" s="169"/>
     </row>
     <row r="8" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="407"/>
+      <c r="B8" s="410"/>
       <c r="C8" s="399"/>
-      <c r="D8" s="417"/>
+      <c r="D8" s="422"/>
       <c r="E8" s="339" t="s">
         <v>50</v>
       </c>
@@ -6215,9 +6215,9 @@
       <c r="N8" s="79"/>
     </row>
     <row r="9" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="407"/>
+      <c r="B9" s="410"/>
       <c r="C9" s="399"/>
-      <c r="D9" s="416" t="s">
+      <c r="D9" s="423" t="s">
         <v>7</v>
       </c>
       <c r="E9" s="339" t="s">
@@ -6248,9 +6248,9 @@
       <c r="N9" s="79"/>
     </row>
     <row r="10" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B10" s="408"/>
-      <c r="C10" s="401"/>
-      <c r="D10" s="401"/>
+      <c r="B10" s="411"/>
+      <c r="C10" s="402"/>
+      <c r="D10" s="402"/>
       <c r="E10" s="340" t="s">
         <v>50</v>
       </c>
@@ -6293,13 +6293,13 @@
       <c r="M11" s="198"/>
     </row>
     <row r="12" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="406" t="s">
+      <c r="B12" s="409" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="415" t="s">
+      <c r="C12" s="398" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="415" t="s">
+      <c r="D12" s="398" t="s">
         <v>7</v>
       </c>
       <c r="E12" s="345" t="s">
@@ -6329,7 +6329,7 @@
       </c>
     </row>
     <row r="13" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="407"/>
+      <c r="B13" s="410"/>
       <c r="C13" s="400"/>
       <c r="D13" s="400"/>
       <c r="E13" s="341" t="s">
@@ -6359,11 +6359,11 @@
       </c>
     </row>
     <row r="14" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="407"/>
-      <c r="C14" s="398" t="s">
+      <c r="B14" s="410"/>
+      <c r="C14" s="401" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="398" t="s">
+      <c r="D14" s="401" t="s">
         <v>16</v>
       </c>
       <c r="E14" s="343" t="s">
@@ -6393,9 +6393,9 @@
       </c>
     </row>
     <row r="15" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="407"/>
+      <c r="B15" s="410"/>
       <c r="C15" s="399"/>
-      <c r="D15" s="417"/>
+      <c r="D15" s="422"/>
       <c r="E15" s="339" t="s">
         <v>50</v>
       </c>
@@ -6423,9 +6423,9 @@
       </c>
     </row>
     <row r="16" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="407"/>
+      <c r="B16" s="410"/>
       <c r="C16" s="399"/>
-      <c r="D16" s="416" t="s">
+      <c r="D16" s="423" t="s">
         <v>7</v>
       </c>
       <c r="E16" s="339" t="s">
@@ -6455,7 +6455,7 @@
       </c>
     </row>
     <row r="17" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="407"/>
+      <c r="B17" s="410"/>
       <c r="C17" s="399"/>
       <c r="D17" s="399"/>
       <c r="E17" s="339" t="s">
@@ -6485,9 +6485,9 @@
       </c>
     </row>
     <row r="18" spans="2:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="408"/>
-      <c r="C18" s="401"/>
-      <c r="D18" s="401"/>
+      <c r="B18" s="411"/>
+      <c r="C18" s="402"/>
+      <c r="D18" s="402"/>
       <c r="E18" s="340" t="s">
         <v>51</v>
       </c>
@@ -6529,13 +6529,13 @@
       <c r="M19" s="180"/>
     </row>
     <row r="20" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="406" t="s">
+      <c r="B20" s="409" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="415" t="s">
+      <c r="C20" s="398" t="s">
         <v>3</v>
       </c>
-      <c r="D20" s="415" t="s">
+      <c r="D20" s="398" t="s">
         <v>7</v>
       </c>
       <c r="E20" s="345" t="s">
@@ -6565,7 +6565,7 @@
       </c>
     </row>
     <row r="21" spans="2:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="407"/>
+      <c r="B21" s="410"/>
       <c r="C21" s="400"/>
       <c r="D21" s="400"/>
       <c r="E21" s="341" t="s">
@@ -6595,11 +6595,11 @@
       </c>
     </row>
     <row r="22" spans="2:13" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="407"/>
+      <c r="B22" s="410"/>
       <c r="C22" s="399" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="398" t="s">
+      <c r="D22" s="401" t="s">
         <v>17</v>
       </c>
       <c r="E22" s="339" t="s">
@@ -6629,9 +6629,9 @@
       </c>
     </row>
     <row r="23" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="407"/>
+      <c r="B23" s="410"/>
       <c r="C23" s="399"/>
-      <c r="D23" s="417"/>
+      <c r="D23" s="422"/>
       <c r="E23" s="338" t="s">
         <v>50</v>
       </c>
@@ -6659,9 +6659,9 @@
       </c>
     </row>
     <row r="24" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="407"/>
+      <c r="B24" s="410"/>
       <c r="C24" s="399"/>
-      <c r="D24" s="416" t="s">
+      <c r="D24" s="423" t="s">
         <v>7</v>
       </c>
       <c r="E24" s="339" t="s">
@@ -6691,9 +6691,9 @@
       </c>
     </row>
     <row r="25" spans="2:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="408"/>
-      <c r="C25" s="401"/>
-      <c r="D25" s="401"/>
+      <c r="B25" s="411"/>
+      <c r="C25" s="402"/>
+      <c r="D25" s="402"/>
       <c r="E25" s="340" t="s">
         <v>50</v>
       </c>
@@ -6818,12 +6818,12 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B12:B18"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="B20:B25"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D22:D23"/>
     <mergeCell ref="F2:I2"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="F3:G3"/>
@@ -6835,12 +6835,12 @@
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="B12:B18"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="B20:B25"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C22:C25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6875,33 +6875,33 @@
       <c r="I1"/>
     </row>
     <row r="2" spans="2:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E2" s="402" t="s">
+      <c r="E2" s="418" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="403"/>
-      <c r="G2" s="403"/>
-      <c r="H2" s="404"/>
+      <c r="F2" s="407"/>
+      <c r="G2" s="407"/>
+      <c r="H2" s="408"/>
       <c r="I2" s="287"/>
-      <c r="J2" s="402" t="s">
+      <c r="J2" s="418" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="403"/>
-      <c r="L2" s="404"/>
+      <c r="K2" s="407"/>
+      <c r="L2" s="408"/>
     </row>
     <row r="3" spans="2:14" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="412" t="s">
+      <c r="B3" s="415" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="413"/>
-      <c r="D3" s="414"/>
-      <c r="E3" s="409" t="s">
+      <c r="C3" s="416"/>
+      <c r="D3" s="417"/>
+      <c r="E3" s="412" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="410"/>
-      <c r="G3" s="411" t="s">
+      <c r="F3" s="413"/>
+      <c r="G3" s="414" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="410"/>
+      <c r="H3" s="413"/>
       <c r="I3" s="288"/>
       <c r="J3" s="214" t="s">
         <v>31</v>
@@ -6949,10 +6949,10 @@
       <c r="M4" s="77"/>
     </row>
     <row r="5" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="406" t="s">
+      <c r="B5" s="409" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="415" t="s">
+      <c r="C5" s="398" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="145" t="s">
@@ -6983,7 +6983,7 @@
       <c r="M5" s="79"/>
     </row>
     <row r="6" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="407"/>
+      <c r="B6" s="410"/>
       <c r="C6" s="399"/>
       <c r="D6" s="144" t="s">
         <v>17</v>
@@ -7013,7 +7013,7 @@
       <c r="M6" s="79"/>
     </row>
     <row r="7" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="407"/>
+      <c r="B7" s="410"/>
       <c r="C7" s="399"/>
       <c r="D7" s="145" t="s">
         <v>6</v>
@@ -7043,7 +7043,7 @@
       <c r="M7" s="79"/>
     </row>
     <row r="8" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="407"/>
+      <c r="B8" s="410"/>
       <c r="C8" s="399"/>
       <c r="D8" s="144" t="s">
         <v>7</v>
@@ -7073,7 +7073,7 @@
       <c r="M8" s="79"/>
     </row>
     <row r="9" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="407"/>
+      <c r="B9" s="410"/>
       <c r="C9" s="399"/>
       <c r="D9" s="144" t="s">
         <v>8</v>
@@ -7103,7 +7103,7 @@
       <c r="M9" s="78"/>
     </row>
     <row r="10" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B10" s="407"/>
+      <c r="B10" s="410"/>
       <c r="C10" s="400"/>
       <c r="D10" s="146" t="s">
         <v>9</v>
@@ -7133,8 +7133,8 @@
       <c r="M10" s="79"/>
     </row>
     <row r="11" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="407"/>
-      <c r="C11" s="398" t="s">
+      <c r="B11" s="410"/>
+      <c r="C11" s="401" t="s">
         <v>3</v>
       </c>
       <c r="D11" s="145" t="s">
@@ -7165,7 +7165,7 @@
       <c r="M11" s="81"/>
     </row>
     <row r="12" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="407"/>
+      <c r="B12" s="410"/>
       <c r="C12" s="399"/>
       <c r="D12" s="144" t="s">
         <v>17</v>
@@ -7196,7 +7196,7 @@
       <c r="N12" s="166"/>
     </row>
     <row r="13" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="407"/>
+      <c r="B13" s="410"/>
       <c r="C13" s="399"/>
       <c r="D13" s="145" t="s">
         <v>6</v>
@@ -7227,7 +7227,7 @@
       <c r="N13" s="166"/>
     </row>
     <row r="14" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="407"/>
+      <c r="B14" s="410"/>
       <c r="C14" s="399"/>
       <c r="D14" s="144" t="s">
         <v>7</v>
@@ -7257,7 +7257,7 @@
       <c r="M14" s="79"/>
     </row>
     <row r="15" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="407"/>
+      <c r="B15" s="410"/>
       <c r="C15" s="399"/>
       <c r="D15" s="144" t="s">
         <v>8</v>
@@ -7287,7 +7287,7 @@
       <c r="M15" s="79"/>
     </row>
     <row r="16" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B16" s="407"/>
+      <c r="B16" s="410"/>
       <c r="C16" s="400"/>
       <c r="D16" s="146" t="s">
         <v>9</v>
@@ -7317,8 +7317,8 @@
       <c r="M16" s="79"/>
     </row>
     <row r="17" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="407"/>
-      <c r="C17" s="398" t="s">
+      <c r="B17" s="410"/>
+      <c r="C17" s="401" t="s">
         <v>18</v>
       </c>
       <c r="D17" s="145" t="s">
@@ -7349,7 +7349,7 @@
       <c r="M17" s="169"/>
     </row>
     <row r="18" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="407"/>
+      <c r="B18" s="410"/>
       <c r="C18" s="399"/>
       <c r="D18" s="144" t="s">
         <v>17</v>
@@ -7379,7 +7379,7 @@
       <c r="M18" s="79"/>
     </row>
     <row r="19" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="407"/>
+      <c r="B19" s="410"/>
       <c r="C19" s="399"/>
       <c r="D19" s="145" t="s">
         <v>6</v>
@@ -7409,7 +7409,7 @@
       <c r="M19" s="79"/>
     </row>
     <row r="20" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="407"/>
+      <c r="B20" s="410"/>
       <c r="C20" s="399"/>
       <c r="D20" s="144" t="s">
         <v>7</v>
@@ -7439,7 +7439,7 @@
       <c r="M20" s="79"/>
     </row>
     <row r="21" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="407"/>
+      <c r="B21" s="410"/>
       <c r="C21" s="399"/>
       <c r="D21" s="144" t="s">
         <v>8</v>
@@ -7469,8 +7469,8 @@
       <c r="M21" s="79"/>
     </row>
     <row r="22" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B22" s="408"/>
-      <c r="C22" s="401"/>
+      <c r="B22" s="411"/>
+      <c r="C22" s="402"/>
       <c r="D22" s="174" t="s">
         <v>9</v>
       </c>
@@ -7512,10 +7512,10 @@
       <c r="L23" s="198"/>
     </row>
     <row r="24" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="406" t="s">
+      <c r="B24" s="409" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="415" t="s">
+      <c r="C24" s="398" t="s">
         <v>2</v>
       </c>
       <c r="D24" s="190" t="s">
@@ -7545,7 +7545,7 @@
       </c>
     </row>
     <row r="25" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="407"/>
+      <c r="B25" s="410"/>
       <c r="C25" s="399"/>
       <c r="D25" s="190" t="s">
         <v>17</v>
@@ -7574,7 +7574,7 @@
       </c>
     </row>
     <row r="26" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="407"/>
+      <c r="B26" s="410"/>
       <c r="C26" s="399"/>
       <c r="D26" s="190" t="s">
         <v>6</v>
@@ -7603,7 +7603,7 @@
       </c>
     </row>
     <row r="27" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="407"/>
+      <c r="B27" s="410"/>
       <c r="C27" s="399"/>
       <c r="D27" s="84" t="s">
         <v>7</v>
@@ -7632,7 +7632,7 @@
       </c>
     </row>
     <row r="28" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="407"/>
+      <c r="B28" s="410"/>
       <c r="C28" s="399"/>
       <c r="D28" s="83" t="s">
         <v>8</v>
@@ -7661,7 +7661,7 @@
       </c>
     </row>
     <row r="29" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="407"/>
+      <c r="B29" s="410"/>
       <c r="C29" s="400"/>
       <c r="D29" s="85" t="s">
         <v>9</v>
@@ -7690,8 +7690,8 @@
       </c>
     </row>
     <row r="30" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="407"/>
-      <c r="C30" s="398" t="s">
+      <c r="B30" s="410"/>
+      <c r="C30" s="401" t="s">
         <v>3</v>
       </c>
       <c r="D30" s="84" t="s">
@@ -7722,7 +7722,7 @@
       <c r="M30" s="166"/>
     </row>
     <row r="31" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="407"/>
+      <c r="B31" s="410"/>
       <c r="C31" s="399"/>
       <c r="D31" s="83" t="s">
         <v>17</v>
@@ -7752,7 +7752,7 @@
       <c r="N31" s="166"/>
     </row>
     <row r="32" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="407"/>
+      <c r="B32" s="410"/>
       <c r="C32" s="399"/>
       <c r="D32" s="84" t="s">
         <v>6</v>
@@ -7783,7 +7783,7 @@
       <c r="N32" s="166"/>
     </row>
     <row r="33" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="407"/>
+      <c r="B33" s="410"/>
       <c r="C33" s="399"/>
       <c r="D33" s="83" t="s">
         <v>7</v>
@@ -7812,7 +7812,7 @@
       </c>
     </row>
     <row r="34" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="407"/>
+      <c r="B34" s="410"/>
       <c r="C34" s="399"/>
       <c r="D34" s="83" t="s">
         <v>8</v>
@@ -7841,7 +7841,7 @@
       </c>
     </row>
     <row r="35" spans="2:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="407"/>
+      <c r="B35" s="410"/>
       <c r="C35" s="400"/>
       <c r="D35" s="85" t="s">
         <v>9</v>
@@ -7870,8 +7870,8 @@
       </c>
     </row>
     <row r="36" spans="2:12" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="407"/>
-      <c r="C36" s="398" t="s">
+      <c r="B36" s="410"/>
+      <c r="C36" s="401" t="s">
         <v>18</v>
       </c>
       <c r="D36" s="84" t="s">
@@ -7901,7 +7901,7 @@
       </c>
     </row>
     <row r="37" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="407"/>
+      <c r="B37" s="410"/>
       <c r="C37" s="399"/>
       <c r="D37" s="83" t="s">
         <v>17</v>
@@ -7930,7 +7930,7 @@
       </c>
     </row>
     <row r="38" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="407"/>
+      <c r="B38" s="410"/>
       <c r="C38" s="399"/>
       <c r="D38" s="84" t="s">
         <v>6</v>
@@ -7959,7 +7959,7 @@
       </c>
     </row>
     <row r="39" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="407"/>
+      <c r="B39" s="410"/>
       <c r="C39" s="399"/>
       <c r="D39" s="83" t="s">
         <v>7</v>
@@ -7988,7 +7988,7 @@
       </c>
     </row>
     <row r="40" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="407"/>
+      <c r="B40" s="410"/>
       <c r="C40" s="399"/>
       <c r="D40" s="83" t="s">
         <v>8</v>
@@ -8017,8 +8017,8 @@
       </c>
     </row>
     <row r="41" spans="2:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B41" s="408"/>
-      <c r="C41" s="401"/>
+      <c r="B41" s="411"/>
+      <c r="C41" s="402"/>
       <c r="D41" s="195" t="s">
         <v>9</v>
       </c>
@@ -8059,10 +8059,10 @@
       <c r="L42" s="180"/>
     </row>
     <row r="43" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="406" t="s">
+      <c r="B43" s="409" t="s">
         <v>24</v>
       </c>
-      <c r="C43" s="415" t="s">
+      <c r="C43" s="398" t="s">
         <v>2</v>
       </c>
       <c r="D43" s="203" t="s">
@@ -8092,7 +8092,7 @@
       </c>
     </row>
     <row r="44" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="407"/>
+      <c r="B44" s="410"/>
       <c r="C44" s="399"/>
       <c r="D44" s="83" t="s">
         <v>17</v>
@@ -8121,7 +8121,7 @@
       </c>
     </row>
     <row r="45" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="407"/>
+      <c r="B45" s="410"/>
       <c r="C45" s="399"/>
       <c r="D45" s="84" t="s">
         <v>6</v>
@@ -8150,7 +8150,7 @@
       </c>
     </row>
     <row r="46" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="407"/>
+      <c r="B46" s="410"/>
       <c r="C46" s="399"/>
       <c r="D46" s="83" t="s">
         <v>7</v>
@@ -8179,7 +8179,7 @@
       </c>
     </row>
     <row r="47" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="407"/>
+      <c r="B47" s="410"/>
       <c r="C47" s="399"/>
       <c r="D47" s="83" t="s">
         <v>8</v>
@@ -8208,7 +8208,7 @@
       </c>
     </row>
     <row r="48" spans="2:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B48" s="407"/>
+      <c r="B48" s="410"/>
       <c r="C48" s="400"/>
       <c r="D48" s="85" t="s">
         <v>9</v>
@@ -8237,8 +8237,8 @@
       </c>
     </row>
     <row r="49" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="407"/>
-      <c r="C49" s="398" t="s">
+      <c r="B49" s="410"/>
+      <c r="C49" s="401" t="s">
         <v>3</v>
       </c>
       <c r="D49" s="84" t="s">
@@ -8268,7 +8268,7 @@
       </c>
     </row>
     <row r="50" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="407"/>
+      <c r="B50" s="410"/>
       <c r="C50" s="399"/>
       <c r="D50" s="83" t="s">
         <v>17</v>
@@ -8298,7 +8298,7 @@
       <c r="N50" s="166"/>
     </row>
     <row r="51" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="407"/>
+      <c r="B51" s="410"/>
       <c r="C51" s="399"/>
       <c r="D51" s="84" t="s">
         <v>6</v>
@@ -8328,7 +8328,7 @@
       <c r="N51" s="166"/>
     </row>
     <row r="52" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="407"/>
+      <c r="B52" s="410"/>
       <c r="C52" s="399"/>
       <c r="D52" s="83" t="s">
         <v>7</v>
@@ -8357,7 +8357,7 @@
       </c>
     </row>
     <row r="53" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="407"/>
+      <c r="B53" s="410"/>
       <c r="C53" s="399"/>
       <c r="D53" s="83" t="s">
         <v>8</v>
@@ -8386,7 +8386,7 @@
       </c>
     </row>
     <row r="54" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B54" s="407"/>
+      <c r="B54" s="410"/>
       <c r="C54" s="400"/>
       <c r="D54" s="85" t="s">
         <v>9</v>
@@ -8415,8 +8415,8 @@
       </c>
     </row>
     <row r="55" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="407"/>
-      <c r="C55" s="398" t="s">
+      <c r="B55" s="410"/>
+      <c r="C55" s="401" t="s">
         <v>18</v>
       </c>
       <c r="D55" s="84" t="s">
@@ -8446,7 +8446,7 @@
       </c>
     </row>
     <row r="56" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="407"/>
+      <c r="B56" s="410"/>
       <c r="C56" s="399"/>
       <c r="D56" s="83" t="s">
         <v>17</v>
@@ -8475,7 +8475,7 @@
       </c>
     </row>
     <row r="57" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="407"/>
+      <c r="B57" s="410"/>
       <c r="C57" s="399"/>
       <c r="D57" s="84" t="s">
         <v>6</v>
@@ -8504,7 +8504,7 @@
       </c>
     </row>
     <row r="58" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="407"/>
+      <c r="B58" s="410"/>
       <c r="C58" s="399"/>
       <c r="D58" s="83" t="s">
         <v>7</v>
@@ -8533,7 +8533,7 @@
       </c>
     </row>
     <row r="59" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="407"/>
+      <c r="B59" s="410"/>
       <c r="C59" s="399"/>
       <c r="D59" s="83" t="s">
         <v>8</v>
@@ -8562,8 +8562,8 @@
       </c>
     </row>
     <row r="60" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B60" s="408"/>
-      <c r="C60" s="401"/>
+      <c r="B60" s="411"/>
+      <c r="C60" s="402"/>
       <c r="D60" s="185" t="s">
         <v>9</v>
       </c>
@@ -8628,6 +8628,10 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B43:B60"/>
+    <mergeCell ref="C43:C48"/>
+    <mergeCell ref="C49:C54"/>
+    <mergeCell ref="C55:C60"/>
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="E3:F3"/>
@@ -8641,10 +8645,6 @@
     <mergeCell ref="C11:C16"/>
     <mergeCell ref="C17:C22"/>
     <mergeCell ref="E2:H2"/>
-    <mergeCell ref="B43:B60"/>
-    <mergeCell ref="C43:C48"/>
-    <mergeCell ref="C49:C54"/>
-    <mergeCell ref="C55:C60"/>
   </mergeCells>
   <conditionalFormatting sqref="N10">
     <cfRule type="colorScale" priority="3">
@@ -8686,35 +8686,35 @@
   <sheetData>
     <row r="1" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:19" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E2" s="402" t="s">
+      <c r="E2" s="418" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="403"/>
-      <c r="G2" s="403"/>
-      <c r="H2" s="403"/>
-      <c r="I2" s="404"/>
+      <c r="F2" s="407"/>
+      <c r="G2" s="407"/>
+      <c r="H2" s="407"/>
+      <c r="I2" s="408"/>
       <c r="J2" s="259"/>
-      <c r="K2" s="402" t="s">
+      <c r="K2" s="418" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="403"/>
-      <c r="M2" s="403"/>
-      <c r="N2" s="404"/>
+      <c r="L2" s="407"/>
+      <c r="M2" s="407"/>
+      <c r="N2" s="408"/>
     </row>
     <row r="3" spans="2:19" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="412" t="s">
+      <c r="B3" s="415" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="413"/>
-      <c r="D3" s="414"/>
-      <c r="E3" s="409" t="s">
+      <c r="C3" s="416"/>
+      <c r="D3" s="417"/>
+      <c r="E3" s="412" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="410"/>
-      <c r="G3" s="411" t="s">
+      <c r="F3" s="413"/>
+      <c r="G3" s="414" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="410"/>
+      <c r="H3" s="413"/>
       <c r="I3" s="215" t="s">
         <v>35</v>
       </c>
@@ -8772,10 +8772,10 @@
       </c>
     </row>
     <row r="5" spans="2:19" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="406" t="s">
+      <c r="B5" s="409" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="415" t="s">
+      <c r="C5" s="398" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="145" t="s">
@@ -8811,7 +8811,7 @@
       </c>
     </row>
     <row r="6" spans="2:19" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="407"/>
+      <c r="B6" s="410"/>
       <c r="C6" s="399"/>
       <c r="D6" s="144" t="s">
         <v>17</v>
@@ -8847,7 +8847,7 @@
       <c r="S6" s="273"/>
     </row>
     <row r="7" spans="2:19" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="407"/>
+      <c r="B7" s="410"/>
       <c r="C7" s="399"/>
       <c r="D7" s="144" t="s">
         <v>7</v>
@@ -8882,7 +8882,7 @@
       </c>
     </row>
     <row r="8" spans="2:19" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="407"/>
+      <c r="B8" s="410"/>
       <c r="C8" s="400"/>
       <c r="D8" s="146" t="s">
         <v>9</v>
@@ -8917,7 +8917,7 @@
       </c>
     </row>
     <row r="9" spans="2:19" ht="16" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="407"/>
+      <c r="B9" s="410"/>
       <c r="C9" s="399" t="s">
         <v>3</v>
       </c>
@@ -8954,7 +8954,7 @@
       </c>
     </row>
     <row r="10" spans="2:19" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="407"/>
+      <c r="B10" s="410"/>
       <c r="C10" s="400"/>
       <c r="D10" s="146" t="s">
         <v>9</v>
@@ -8989,8 +8989,8 @@
       </c>
     </row>
     <row r="11" spans="2:19" ht="16" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="407"/>
-      <c r="C11" s="398" t="s">
+      <c r="B11" s="410"/>
+      <c r="C11" s="401" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="145" t="s">
@@ -9026,7 +9026,7 @@
       </c>
     </row>
     <row r="12" spans="2:19" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="407"/>
+      <c r="B12" s="410"/>
       <c r="C12" s="399"/>
       <c r="D12" s="144" t="s">
         <v>17</v>
@@ -9061,8 +9061,8 @@
       </c>
     </row>
     <row r="13" spans="2:19" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="408"/>
-      <c r="C13" s="401"/>
+      <c r="B13" s="411"/>
+      <c r="C13" s="402"/>
       <c r="D13" s="174" t="s">
         <v>9</v>
       </c>
@@ -9111,10 +9111,10 @@
       <c r="N14" s="275"/>
     </row>
     <row r="15" spans="2:19" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="406" t="s">
+      <c r="B15" s="409" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="416" t="s">
+      <c r="C15" s="423" t="s">
         <v>2</v>
       </c>
       <c r="D15" s="190" t="s">
@@ -9150,7 +9150,7 @@
       </c>
     </row>
     <row r="16" spans="2:19" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="407"/>
+      <c r="B16" s="410"/>
       <c r="C16" s="400"/>
       <c r="D16" s="191" t="s">
         <v>8</v>
@@ -9185,7 +9185,7 @@
       </c>
     </row>
     <row r="17" spans="2:14" ht="16" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="407"/>
+      <c r="B17" s="410"/>
       <c r="C17" s="399" t="s">
         <v>3</v>
       </c>
@@ -9222,7 +9222,7 @@
       </c>
     </row>
     <row r="18" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="407"/>
+      <c r="B18" s="410"/>
       <c r="C18" s="399"/>
       <c r="D18" s="83" t="s">
         <v>7</v>
@@ -9257,7 +9257,7 @@
       </c>
     </row>
     <row r="19" spans="2:14" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="407"/>
+      <c r="B19" s="410"/>
       <c r="C19" s="399"/>
       <c r="D19" s="191" t="s">
         <v>8</v>
@@ -9292,8 +9292,8 @@
       </c>
     </row>
     <row r="20" spans="2:14" ht="16" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="407"/>
-      <c r="C20" s="398" t="s">
+      <c r="B20" s="410"/>
+      <c r="C20" s="401" t="s">
         <v>18</v>
       </c>
       <c r="D20" s="84" t="s">
@@ -9329,7 +9329,7 @@
       </c>
     </row>
     <row r="21" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="407"/>
+      <c r="B21" s="410"/>
       <c r="C21" s="399"/>
       <c r="D21" s="83" t="s">
         <v>17</v>
@@ -9364,8 +9364,8 @@
       </c>
     </row>
     <row r="22" spans="2:14" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="408"/>
-      <c r="C22" s="401"/>
+      <c r="B22" s="411"/>
+      <c r="C22" s="402"/>
       <c r="D22" s="195" t="s">
         <v>9</v>
       </c>
@@ -9414,10 +9414,10 @@
       <c r="N23" s="257"/>
     </row>
     <row r="24" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="406" t="s">
+      <c r="B24" s="409" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="415" t="s">
+      <c r="C24" s="398" t="s">
         <v>2</v>
       </c>
       <c r="D24" s="203" t="s">
@@ -9453,7 +9453,7 @@
       </c>
     </row>
     <row r="25" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="407"/>
+      <c r="B25" s="410"/>
       <c r="C25" s="399"/>
       <c r="D25" s="83" t="s">
         <v>17</v>
@@ -9488,7 +9488,7 @@
       </c>
     </row>
     <row r="26" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="407"/>
+      <c r="B26" s="410"/>
       <c r="C26" s="399"/>
       <c r="D26" s="83" t="s">
         <v>8</v>
@@ -9523,7 +9523,7 @@
       </c>
     </row>
     <row r="27" spans="2:14" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="407"/>
+      <c r="B27" s="410"/>
       <c r="C27" s="400"/>
       <c r="D27" s="85" t="s">
         <v>9</v>
@@ -9558,8 +9558,8 @@
       </c>
     </row>
     <row r="28" spans="2:14" ht="16" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="407"/>
-      <c r="C28" s="398" t="s">
+      <c r="B28" s="410"/>
+      <c r="C28" s="401" t="s">
         <v>3</v>
       </c>
       <c r="D28" s="84" t="s">
@@ -9595,7 +9595,7 @@
       </c>
     </row>
     <row r="29" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="407"/>
+      <c r="B29" s="410"/>
       <c r="C29" s="399"/>
       <c r="D29" s="84" t="s">
         <v>6</v>
@@ -9630,7 +9630,7 @@
       </c>
     </row>
     <row r="30" spans="2:14" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="407"/>
+      <c r="B30" s="410"/>
       <c r="C30" s="400"/>
       <c r="D30" s="85" t="s">
         <v>9</v>
@@ -9665,8 +9665,8 @@
       </c>
     </row>
     <row r="31" spans="2:14" ht="16" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="407"/>
-      <c r="C31" s="398" t="s">
+      <c r="B31" s="410"/>
+      <c r="C31" s="401" t="s">
         <v>18</v>
       </c>
       <c r="D31" s="84" t="s">
@@ -9702,8 +9702,8 @@
       </c>
     </row>
     <row r="32" spans="2:14" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B32" s="408"/>
-      <c r="C32" s="401"/>
+      <c r="B32" s="411"/>
+      <c r="C32" s="402"/>
       <c r="D32" s="185" t="s">
         <v>7</v>
       </c>
@@ -9738,6 +9738,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="B15:B22"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="C20:C22"/>
     <mergeCell ref="B24:B32"/>
     <mergeCell ref="C24:C27"/>
     <mergeCell ref="C28:C30"/>
@@ -9750,11 +9755,6 @@
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="G3:H3"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="B15:B22"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="C20:C22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9788,32 +9788,32 @@
   <sheetData>
     <row r="1" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:15" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="424" t="s">
+      <c r="B2" s="426" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="425"/>
-      <c r="D2" s="426" t="s">
+      <c r="C2" s="427"/>
+      <c r="D2" s="428" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="427"/>
+      <c r="E2" s="429"/>
       <c r="F2" s="12"/>
-      <c r="G2" s="424" t="s">
+      <c r="G2" s="426" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="428"/>
-      <c r="I2" s="426" t="s">
+      <c r="H2" s="430"/>
+      <c r="I2" s="428" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="427"/>
+      <c r="J2" s="429"/>
       <c r="K2" s="12"/>
-      <c r="L2" s="424" t="s">
+      <c r="L2" s="426" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="428"/>
-      <c r="N2" s="429" t="s">
+      <c r="M2" s="430"/>
+      <c r="N2" s="431" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="427"/>
+      <c r="O2" s="429"/>
     </row>
     <row r="3" spans="2:15" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="7" t="s">
@@ -10467,32 +10467,32 @@
     </row>
     <row r="23" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="24" spans="2:15" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="424" t="s">
+      <c r="B24" s="426" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="425"/>
-      <c r="D24" s="422" t="s">
+      <c r="C24" s="427"/>
+      <c r="D24" s="424" t="s">
         <v>15</v>
       </c>
-      <c r="E24" s="423"/>
+      <c r="E24" s="425"/>
       <c r="F24" s="12"/>
-      <c r="G24" s="424" t="s">
+      <c r="G24" s="426" t="s">
         <v>13</v>
       </c>
-      <c r="H24" s="428"/>
-      <c r="I24" s="422" t="s">
+      <c r="H24" s="430"/>
+      <c r="I24" s="424" t="s">
         <v>15</v>
       </c>
-      <c r="J24" s="423"/>
+      <c r="J24" s="425"/>
       <c r="K24" s="12"/>
-      <c r="L24" s="424" t="s">
+      <c r="L24" s="426" t="s">
         <v>14</v>
       </c>
-      <c r="M24" s="428"/>
-      <c r="N24" s="422" t="s">
+      <c r="M24" s="430"/>
+      <c r="N24" s="424" t="s">
         <v>15</v>
       </c>
-      <c r="O24" s="423"/>
+      <c r="O24" s="425"/>
     </row>
     <row r="25" spans="2:15" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B25" s="7" t="s">

--- a/tables.xlsx
+++ b/tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdolden\Desktop\Ch3_floweringrush\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A20D782-83DC-4282-B3A1-80D3738C10B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A2D69D2-526E-413A-9C15-A3AA17571CCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25320" yWindow="300" windowWidth="25440" windowHeight="15390" activeTab="3" xr2:uid="{94130567-C790-4197-BF09-72317C0E58C5}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="30">
   <si>
     <t>High state</t>
   </si>
@@ -69,9 +69,6 @@
   </si>
   <si>
     <t>(0.25, 0.75)</t>
-  </si>
-  <si>
-    <t>Epicenter</t>
   </si>
   <si>
     <t>High invasion</t>
@@ -239,6 +236,14 @@
   <si>
     <t>(0.5, 0.75) A + C</t>
   </si>
+  <si>
+    <t>Model performance: relative bias
+(+ : overestimated &amp;  - : under)</t>
+  </si>
+  <si>
+    <t>High invasion
+(binned)</t>
+  </si>
 </sst>
 </file>
 
@@ -326,7 +331,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -345,8 +350,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="68">
+  <borders count="73">
     <border>
       <left/>
       <right/>
@@ -1205,11 +1222,72 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="183">
+  <cellXfs count="237">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1346,6 +1424,313 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="67" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="66" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1388,323 +1773,172 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="67" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="66" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2050,8 +2284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A735158-88E3-4592-A032-033FAF873106}">
   <dimension ref="B1:N74"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="50" zoomScalePageLayoutView="40" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="50" zoomScalePageLayoutView="40" workbookViewId="0">
+      <selection activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2060,69 +2294,68 @@
     <col min="2" max="2" width="11.28515625" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
     <col min="4" max="4" width="15.42578125" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" customWidth="1"/>
+    <col min="5" max="5" width="10" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" customWidth="1"/>
+    <col min="7" max="7" width="9" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" customWidth="1"/>
     <col min="9" max="9" width="0.42578125" style="32" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" customWidth="1"/>
-    <col min="11" max="11" width="12.85546875" customWidth="1"/>
-    <col min="12" max="12" width="11.85546875" customWidth="1"/>
-    <col min="13" max="13" width="12.5703125" customWidth="1"/>
+    <col min="10" max="11" width="11" customWidth="1"/>
+    <col min="12" max="12" width="10.42578125" customWidth="1"/>
+    <col min="13" max="13" width="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I1"/>
     </row>
-    <row r="2" spans="2:14" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E2" s="76" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="78"/>
+    <row r="2" spans="2:14" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E2" s="161" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="162"/>
+      <c r="G2" s="162"/>
+      <c r="H2" s="163"/>
       <c r="I2" s="33"/>
-      <c r="J2" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" s="77"/>
-      <c r="L2" s="78"/>
+      <c r="J2" s="164" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="162"/>
+      <c r="L2" s="163"/>
     </row>
     <row r="3" spans="2:14" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="68" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="69"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="65" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="66"/>
-      <c r="G3" s="67" t="s">
+      <c r="B3" s="171" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="66"/>
+      <c r="C3" s="172"/>
+      <c r="D3" s="173"/>
+      <c r="E3" s="168" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="169"/>
+      <c r="G3" s="170" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="169"/>
       <c r="I3" s="34"/>
       <c r="J3" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="29" t="s">
+      <c r="L3" s="29" t="s">
         <v>23</v>
-      </c>
-      <c r="L3" s="29" t="s">
-        <v>24</v>
       </c>
       <c r="M3" s="16"/>
     </row>
     <row r="4" spans="2:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="17" t="s">
         <v>12</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>13</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>6</v>
@@ -2149,204 +2382,374 @@
       <c r="M4" s="1"/>
     </row>
     <row r="5" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="62" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="71" t="s">
-        <v>11</v>
+      <c r="B5" s="165" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="233" t="s">
+        <v>29</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="104"/>
-      <c r="F5" s="103"/>
-      <c r="G5" s="137"/>
-      <c r="H5" s="103"/>
+      <c r="E5" s="82">
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="F5" s="81">
+        <v>1.25</v>
+      </c>
+      <c r="G5" s="115">
+        <v>0.255</v>
+      </c>
+      <c r="H5" s="81">
+        <v>0.52500000000000002</v>
+      </c>
       <c r="I5" s="36"/>
-      <c r="J5" s="122"/>
-      <c r="K5" s="122"/>
-      <c r="L5" s="109"/>
+      <c r="J5" s="100">
+        <v>0.214</v>
+      </c>
+      <c r="K5" s="100">
+        <v>-0.628</v>
+      </c>
+      <c r="L5" s="87">
+        <v>-7.3899999999999993E-2</v>
+      </c>
       <c r="M5" s="3"/>
     </row>
     <row r="6" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="63"/>
-      <c r="C6" s="72"/>
+      <c r="B6" s="166"/>
+      <c r="C6" s="175"/>
       <c r="D6" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="92"/>
-      <c r="F6" s="107"/>
-      <c r="G6" s="128"/>
-      <c r="H6" s="107"/>
+      <c r="E6" s="70">
+        <v>0.66800000000000004</v>
+      </c>
+      <c r="F6" s="85">
+        <v>1.23</v>
+      </c>
+      <c r="G6" s="106">
+        <v>0.223</v>
+      </c>
+      <c r="H6" s="85">
+        <v>0.5</v>
+      </c>
       <c r="I6" s="37"/>
-      <c r="J6" s="118"/>
-      <c r="K6" s="118"/>
-      <c r="L6" s="112"/>
+      <c r="J6" s="196">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="K6" s="96">
+        <v>-0.57899999999999996</v>
+      </c>
+      <c r="L6" s="90">
+        <v>-8.1299999999999997E-2</v>
+      </c>
       <c r="M6" s="3"/>
     </row>
     <row r="7" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="63"/>
-      <c r="C7" s="72"/>
+      <c r="B7" s="166"/>
+      <c r="C7" s="175"/>
       <c r="D7" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="152"/>
-      <c r="F7" s="153"/>
-      <c r="G7" s="130"/>
-      <c r="H7" s="109"/>
+      <c r="E7" s="130">
+        <v>0.754</v>
+      </c>
+      <c r="F7" s="131">
+        <v>1.27</v>
+      </c>
+      <c r="G7" s="108">
+        <v>0.249</v>
+      </c>
+      <c r="H7" s="87">
+        <v>0.52500000000000002</v>
+      </c>
       <c r="I7" s="36"/>
-      <c r="J7" s="123"/>
-      <c r="K7" s="123"/>
-      <c r="L7" s="157"/>
+      <c r="J7" s="101">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="K7" s="101">
+        <v>-0.36499999999999999</v>
+      </c>
+      <c r="L7" s="135">
+        <v>-6.9800000000000001E-2</v>
+      </c>
       <c r="M7" s="3"/>
     </row>
     <row r="8" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="63"/>
-      <c r="C8" s="72"/>
+      <c r="B8" s="166"/>
+      <c r="C8" s="175"/>
       <c r="D8" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="154"/>
-      <c r="F8" s="91"/>
-      <c r="G8" s="132"/>
-      <c r="H8" s="112"/>
+      <c r="E8" s="132">
+        <v>0.63800000000000001</v>
+      </c>
+      <c r="F8" s="69">
+        <v>1.18</v>
+      </c>
+      <c r="G8" s="110">
+        <v>0.217</v>
+      </c>
+      <c r="H8" s="90">
+        <v>0.5</v>
+      </c>
       <c r="I8" s="37"/>
-      <c r="J8" s="119"/>
-      <c r="K8" s="119"/>
-      <c r="L8" s="158"/>
+      <c r="J8" s="97">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="K8" s="97">
+        <v>-0.58899999999999997</v>
+      </c>
+      <c r="L8" s="136">
+        <v>-7.0999999999999994E-2</v>
+      </c>
       <c r="M8" s="3"/>
     </row>
     <row r="9" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="63"/>
-      <c r="C9" s="72"/>
+      <c r="B9" s="166"/>
+      <c r="C9" s="175"/>
       <c r="D9" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="154"/>
-      <c r="F9" s="133"/>
-      <c r="G9" s="132"/>
-      <c r="H9" s="148"/>
+      <c r="E9" s="190">
+        <v>0.78200000000000003</v>
+      </c>
+      <c r="F9" s="189">
+        <v>1.38</v>
+      </c>
+      <c r="G9" s="188">
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="H9" s="126">
+        <v>0.55000000000000004</v>
+      </c>
       <c r="I9" s="38"/>
-      <c r="J9" s="119"/>
-      <c r="K9" s="119"/>
-      <c r="L9" s="158"/>
+      <c r="J9" s="97">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="K9" s="97">
+        <v>5.0200000000000002E-2</v>
+      </c>
+      <c r="L9" s="136">
+        <v>-6.6500000000000004E-2</v>
+      </c>
       <c r="M9" s="2"/>
+      <c r="N9" s="15"/>
     </row>
     <row r="10" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="63"/>
-      <c r="C10" s="73"/>
+      <c r="B10" s="166"/>
+      <c r="C10" s="176"/>
       <c r="D10" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="155"/>
-      <c r="F10" s="99"/>
-      <c r="G10" s="135"/>
-      <c r="H10" s="115"/>
+      <c r="E10" s="133">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="F10" s="77">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G10" s="113">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="H10" s="93">
+        <v>0.5</v>
+      </c>
       <c r="I10" s="39"/>
-      <c r="J10" s="125"/>
-      <c r="K10" s="125"/>
-      <c r="L10" s="159"/>
+      <c r="J10" s="103">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K10" s="103">
+        <v>-0.13800000000000001</v>
+      </c>
+      <c r="L10" s="137">
+        <v>-6.7699999999999996E-2</v>
+      </c>
       <c r="M10" s="3"/>
     </row>
     <row r="11" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="63"/>
-      <c r="C11" s="74" t="s">
+      <c r="B11" s="166"/>
+      <c r="C11" s="177" t="s">
         <v>1</v>
       </c>
       <c r="D11" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="104"/>
-      <c r="F11" s="103"/>
-      <c r="G11" s="137"/>
-      <c r="H11" s="103"/>
+      <c r="E11" s="82">
+        <v>0.753</v>
+      </c>
+      <c r="F11" s="81">
+        <v>1.25</v>
+      </c>
+      <c r="G11" s="115">
+        <v>0.254</v>
+      </c>
+      <c r="H11" s="81">
+        <v>0.5</v>
+      </c>
       <c r="I11" s="36"/>
-      <c r="J11" s="122"/>
-      <c r="K11" s="122"/>
-      <c r="L11" s="160"/>
+      <c r="J11" s="100">
+        <v>0.224</v>
+      </c>
+      <c r="K11" s="100">
+        <v>-0.39200000000000002</v>
+      </c>
+      <c r="L11" s="138">
+        <v>-7.5800000000000006E-2</v>
+      </c>
       <c r="M11" s="5"/>
       <c r="N11" s="15"/>
     </row>
     <row r="12" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="63"/>
-      <c r="C12" s="72"/>
+      <c r="B12" s="166"/>
+      <c r="C12" s="175"/>
       <c r="D12" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="92"/>
-      <c r="F12" s="103"/>
-      <c r="G12" s="128"/>
-      <c r="H12" s="107"/>
+      <c r="E12" s="70">
+        <v>0.63600000000000001</v>
+      </c>
+      <c r="F12" s="184">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G12" s="106">
+        <v>0.218</v>
+      </c>
+      <c r="H12" s="186">
+        <v>0.47499999999999998</v>
+      </c>
       <c r="I12" s="37"/>
-      <c r="J12" s="118"/>
-      <c r="K12" s="118"/>
-      <c r="L12" s="124"/>
+      <c r="J12" s="96">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="K12" s="96">
+        <v>-0.65600000000000003</v>
+      </c>
+      <c r="L12" s="198">
+        <v>-8.5300000000000001E-2</v>
+      </c>
       <c r="M12" s="5"/>
+      <c r="N12" s="15"/>
     </row>
     <row r="13" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="63"/>
-      <c r="C13" s="72"/>
+      <c r="B13" s="166"/>
+      <c r="C13" s="175"/>
       <c r="D13" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E13" s="104"/>
-      <c r="F13" s="156"/>
-      <c r="G13" s="130"/>
-      <c r="H13" s="109"/>
+      <c r="E13" s="82">
+        <v>0.72699999999999998</v>
+      </c>
+      <c r="F13" s="134">
+        <v>1.23</v>
+      </c>
+      <c r="G13" s="108">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="H13" s="87">
+        <v>0.5</v>
+      </c>
       <c r="I13" s="36"/>
-      <c r="J13" s="123"/>
-      <c r="K13" s="123"/>
-      <c r="L13" s="124"/>
+      <c r="J13" s="101">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="K13" s="101">
+        <v>-0.10100000000000001</v>
+      </c>
+      <c r="L13" s="102">
+        <v>-6.4000000000000001E-2</v>
+      </c>
       <c r="M13" s="4"/>
       <c r="N13" s="15"/>
     </row>
     <row r="14" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="63"/>
-      <c r="C14" s="72"/>
+      <c r="B14" s="166"/>
+      <c r="C14" s="175"/>
       <c r="D14" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="92"/>
-      <c r="F14" s="107"/>
-      <c r="G14" s="132"/>
-      <c r="H14" s="131"/>
+      <c r="E14" s="183">
+        <v>0.61799999999999999</v>
+      </c>
+      <c r="F14" s="85">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="G14" s="185">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="H14" s="187">
+        <v>0.47499999999999998</v>
+      </c>
       <c r="I14" s="40"/>
-      <c r="J14" s="119"/>
-      <c r="K14" s="119"/>
-      <c r="L14" s="124"/>
+      <c r="J14" s="97">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="K14" s="197">
+        <v>-0.89800000000000002</v>
+      </c>
+      <c r="L14" s="102">
+        <v>-6.6000000000000003E-2</v>
+      </c>
       <c r="M14" s="3"/>
       <c r="N14" s="15"/>
     </row>
     <row r="15" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="63"/>
-      <c r="C15" s="72"/>
+      <c r="B15" s="166"/>
+      <c r="C15" s="175"/>
       <c r="D15" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="154"/>
-      <c r="F15" s="91"/>
-      <c r="G15" s="132"/>
-      <c r="H15" s="131"/>
+      <c r="E15" s="132">
+        <v>0.77200000000000002</v>
+      </c>
+      <c r="F15" s="69">
+        <v>1.27</v>
+      </c>
+      <c r="G15" s="188">
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="H15" s="191">
+        <v>0.57499999999999996</v>
+      </c>
       <c r="I15" s="40"/>
-      <c r="J15" s="119"/>
-      <c r="K15" s="119"/>
-      <c r="L15" s="160"/>
+      <c r="J15" s="192">
+        <v>0.13</v>
+      </c>
+      <c r="K15" s="97">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="L15" s="194">
+        <v>-6.2899999999999998E-2</v>
+      </c>
       <c r="M15" s="3"/>
     </row>
     <row r="16" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="63"/>
-      <c r="C16" s="73"/>
+      <c r="B16" s="166"/>
+      <c r="C16" s="176"/>
       <c r="D16" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="155"/>
-      <c r="F16" s="99"/>
-      <c r="G16" s="135"/>
-      <c r="H16" s="115"/>
+      <c r="E16" s="133">
+        <v>0.69099999999999995</v>
+      </c>
+      <c r="F16" s="77">
+        <v>1.18</v>
+      </c>
+      <c r="G16" s="113">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="H16" s="93">
+        <v>0.52500000000000002</v>
+      </c>
       <c r="I16" s="39"/>
-      <c r="J16" s="125"/>
-      <c r="K16" s="125"/>
-      <c r="L16" s="126"/>
+      <c r="J16" s="103">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="K16" s="193">
+        <v>1.7299999999999999E-2</v>
+      </c>
+      <c r="L16" s="195">
+        <v>-6.25E-2</v>
+      </c>
       <c r="M16" s="3"/>
     </row>
     <row r="17" spans="2:14" ht="6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2363,194 +2766,194 @@
       <c r="L17" s="24"/>
     </row>
     <row r="18" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="62" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="71" t="s">
+      <c r="B18" s="165" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="174" t="s">
         <v>0</v>
       </c>
       <c r="D18" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="E18" s="86"/>
-      <c r="F18" s="87"/>
-      <c r="G18" s="88"/>
-      <c r="H18" s="89"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="67"/>
       <c r="I18" s="41"/>
-      <c r="J18" s="117"/>
-      <c r="K18" s="117"/>
-      <c r="L18" s="117"/>
+      <c r="J18" s="95"/>
+      <c r="K18" s="95"/>
+      <c r="L18" s="95"/>
     </row>
     <row r="19" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="63"/>
-      <c r="C19" s="72"/>
+      <c r="B19" s="166"/>
+      <c r="C19" s="175"/>
       <c r="D19" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="90"/>
-      <c r="F19" s="91"/>
-      <c r="G19" s="92"/>
-      <c r="H19" s="93"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="71"/>
       <c r="I19" s="42"/>
-      <c r="J19" s="118"/>
-      <c r="K19" s="118"/>
-      <c r="L19" s="118"/>
+      <c r="J19" s="96"/>
+      <c r="K19" s="96"/>
+      <c r="L19" s="96"/>
     </row>
     <row r="20" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="63"/>
-      <c r="C20" s="72"/>
+      <c r="B20" s="166"/>
+      <c r="C20" s="175"/>
       <c r="D20" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="E20" s="90"/>
-      <c r="F20" s="91"/>
-      <c r="G20" s="94"/>
-      <c r="H20" s="93"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="69"/>
+      <c r="G20" s="72"/>
+      <c r="H20" s="71"/>
       <c r="I20" s="42"/>
-      <c r="J20" s="119"/>
-      <c r="K20" s="118"/>
-      <c r="L20" s="119"/>
+      <c r="J20" s="97"/>
+      <c r="K20" s="96"/>
+      <c r="L20" s="97"/>
     </row>
     <row r="21" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="63"/>
-      <c r="C21" s="72"/>
+      <c r="B21" s="166"/>
+      <c r="C21" s="175"/>
       <c r="D21" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="90"/>
-      <c r="F21" s="91"/>
-      <c r="G21" s="94"/>
-      <c r="H21" s="95"/>
+      <c r="E21" s="68"/>
+      <c r="F21" s="69"/>
+      <c r="G21" s="72"/>
+      <c r="H21" s="73"/>
       <c r="I21" s="43"/>
-      <c r="J21" s="119"/>
-      <c r="K21" s="118"/>
-      <c r="L21" s="119"/>
+      <c r="J21" s="97"/>
+      <c r="K21" s="96"/>
+      <c r="L21" s="97"/>
     </row>
     <row r="22" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="63"/>
-      <c r="C22" s="72"/>
+      <c r="B22" s="166"/>
+      <c r="C22" s="175"/>
       <c r="D22" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E22" s="90"/>
-      <c r="F22" s="96"/>
-      <c r="G22" s="94"/>
-      <c r="H22" s="97"/>
+      <c r="E22" s="68"/>
+      <c r="F22" s="74"/>
+      <c r="G22" s="72"/>
+      <c r="H22" s="75"/>
       <c r="I22" s="44"/>
-      <c r="J22" s="119"/>
-      <c r="K22" s="119"/>
-      <c r="L22" s="119"/>
+      <c r="J22" s="97"/>
+      <c r="K22" s="97"/>
+      <c r="L22" s="97"/>
     </row>
     <row r="23" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="63"/>
-      <c r="C23" s="73"/>
+      <c r="B23" s="166"/>
+      <c r="C23" s="176"/>
       <c r="D23" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E23" s="98"/>
-      <c r="F23" s="99"/>
-      <c r="G23" s="100"/>
-      <c r="H23" s="101"/>
+      <c r="E23" s="76"/>
+      <c r="F23" s="77"/>
+      <c r="G23" s="78"/>
+      <c r="H23" s="79"/>
       <c r="I23" s="45"/>
-      <c r="J23" s="120"/>
-      <c r="K23" s="121"/>
-      <c r="L23" s="120"/>
+      <c r="J23" s="98"/>
+      <c r="K23" s="99"/>
+      <c r="L23" s="98"/>
     </row>
     <row r="24" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="63"/>
-      <c r="C24" s="74" t="s">
+      <c r="B24" s="166"/>
+      <c r="C24" s="177" t="s">
         <v>1</v>
       </c>
       <c r="D24" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E24" s="102"/>
-      <c r="F24" s="103"/>
-      <c r="G24" s="104"/>
-      <c r="H24" s="105"/>
+      <c r="E24" s="80"/>
+      <c r="F24" s="81"/>
+      <c r="G24" s="82"/>
+      <c r="H24" s="83"/>
       <c r="I24" s="46"/>
-      <c r="J24" s="122"/>
-      <c r="K24" s="122"/>
-      <c r="L24" s="122"/>
+      <c r="J24" s="100"/>
+      <c r="K24" s="100"/>
+      <c r="L24" s="100"/>
       <c r="M24" s="15"/>
       <c r="N24" s="15"/>
     </row>
     <row r="25" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="63"/>
-      <c r="C25" s="72"/>
+      <c r="B25" s="166"/>
+      <c r="C25" s="175"/>
       <c r="D25" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E25" s="106"/>
-      <c r="F25" s="107"/>
-      <c r="G25" s="92"/>
-      <c r="H25" s="93"/>
+      <c r="E25" s="84"/>
+      <c r="F25" s="85"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="71"/>
       <c r="I25" s="42"/>
-      <c r="J25" s="118"/>
-      <c r="K25" s="118"/>
-      <c r="L25" s="118"/>
+      <c r="J25" s="96"/>
+      <c r="K25" s="96"/>
+      <c r="L25" s="96"/>
     </row>
     <row r="26" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="63"/>
-      <c r="C26" s="72"/>
+      <c r="B26" s="166"/>
+      <c r="C26" s="175"/>
       <c r="D26" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E26" s="108"/>
-      <c r="F26" s="109"/>
-      <c r="G26" s="110"/>
-      <c r="H26" s="111"/>
+      <c r="E26" s="86"/>
+      <c r="F26" s="87"/>
+      <c r="G26" s="88"/>
+      <c r="H26" s="89"/>
       <c r="I26" s="46"/>
-      <c r="J26" s="123"/>
-      <c r="K26" s="122"/>
-      <c r="L26" s="123"/>
+      <c r="J26" s="101"/>
+      <c r="K26" s="100"/>
+      <c r="L26" s="101"/>
       <c r="M26" s="15"/>
     </row>
     <row r="27" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="63"/>
-      <c r="C27" s="72"/>
+      <c r="B27" s="166"/>
+      <c r="C27" s="175"/>
       <c r="D27" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E27" s="90"/>
-      <c r="F27" s="112"/>
-      <c r="G27" s="94"/>
-      <c r="H27" s="113"/>
+      <c r="E27" s="68"/>
+      <c r="F27" s="90"/>
+      <c r="G27" s="72"/>
+      <c r="H27" s="91"/>
       <c r="I27" s="42"/>
-      <c r="J27" s="119"/>
-      <c r="K27" s="124"/>
-      <c r="L27" s="119"/>
+      <c r="J27" s="97"/>
+      <c r="K27" s="102"/>
+      <c r="L27" s="97"/>
       <c r="N27" s="15"/>
     </row>
     <row r="28" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="63"/>
-      <c r="C28" s="72"/>
+      <c r="B28" s="166"/>
+      <c r="C28" s="175"/>
       <c r="D28" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E28" s="90"/>
-      <c r="F28" s="112"/>
-      <c r="G28" s="94"/>
-      <c r="H28" s="114"/>
+      <c r="E28" s="68"/>
+      <c r="F28" s="90"/>
+      <c r="G28" s="72"/>
+      <c r="H28" s="92"/>
       <c r="I28" s="43"/>
-      <c r="J28" s="119"/>
-      <c r="K28" s="124"/>
-      <c r="L28" s="119"/>
+      <c r="J28" s="97"/>
+      <c r="K28" s="102"/>
+      <c r="L28" s="97"/>
     </row>
     <row r="29" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="63"/>
-      <c r="C29" s="73"/>
+      <c r="B29" s="166"/>
+      <c r="C29" s="176"/>
       <c r="D29" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E29" s="98"/>
-      <c r="F29" s="115"/>
-      <c r="G29" s="100"/>
-      <c r="H29" s="116"/>
+      <c r="E29" s="76"/>
+      <c r="F29" s="93"/>
+      <c r="G29" s="78"/>
+      <c r="H29" s="94"/>
       <c r="I29" s="47"/>
-      <c r="J29" s="125"/>
-      <c r="K29" s="126"/>
-      <c r="L29" s="125"/>
+      <c r="J29" s="103"/>
+      <c r="K29" s="104"/>
+      <c r="L29" s="103"/>
     </row>
     <row r="30" spans="2:14" ht="3.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="18"/>
@@ -2566,192 +2969,192 @@
       <c r="L30" s="21"/>
     </row>
     <row r="31" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="62" t="s">
-        <v>16</v>
-      </c>
-      <c r="C31" s="71" t="s">
+      <c r="B31" s="165" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" s="174" t="s">
         <v>0</v>
       </c>
       <c r="D31" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E31" s="86"/>
-      <c r="F31" s="87"/>
-      <c r="G31" s="127"/>
-      <c r="H31" s="89"/>
+      <c r="E31" s="64"/>
+      <c r="F31" s="65"/>
+      <c r="G31" s="105"/>
+      <c r="H31" s="67"/>
       <c r="I31" s="41"/>
-      <c r="J31" s="117"/>
-      <c r="K31" s="144"/>
-      <c r="L31" s="145"/>
+      <c r="J31" s="95"/>
+      <c r="K31" s="122"/>
+      <c r="L31" s="123"/>
     </row>
     <row r="32" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="63"/>
-      <c r="C32" s="72"/>
+      <c r="B32" s="166"/>
+      <c r="C32" s="175"/>
       <c r="D32" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E32" s="90"/>
-      <c r="F32" s="91"/>
-      <c r="G32" s="128"/>
-      <c r="H32" s="93"/>
+      <c r="E32" s="68"/>
+      <c r="F32" s="69"/>
+      <c r="G32" s="106"/>
+      <c r="H32" s="71"/>
       <c r="I32" s="42"/>
-      <c r="J32" s="118"/>
-      <c r="K32" s="112"/>
-      <c r="L32" s="107"/>
+      <c r="J32" s="96"/>
+      <c r="K32" s="90"/>
+      <c r="L32" s="85"/>
     </row>
     <row r="33" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="63"/>
-      <c r="C33" s="72"/>
+      <c r="B33" s="166"/>
+      <c r="C33" s="175"/>
       <c r="D33" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E33" s="108"/>
-      <c r="F33" s="129"/>
-      <c r="G33" s="130"/>
-      <c r="H33" s="111"/>
+      <c r="E33" s="86"/>
+      <c r="F33" s="107"/>
+      <c r="G33" s="108"/>
+      <c r="H33" s="89"/>
       <c r="I33" s="46"/>
-      <c r="J33" s="123"/>
-      <c r="K33" s="109"/>
-      <c r="L33" s="146"/>
+      <c r="J33" s="101"/>
+      <c r="K33" s="87"/>
+      <c r="L33" s="124"/>
     </row>
     <row r="34" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="63"/>
-      <c r="C34" s="72"/>
+      <c r="B34" s="166"/>
+      <c r="C34" s="175"/>
       <c r="D34" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E34" s="90"/>
-      <c r="F34" s="131"/>
-      <c r="G34" s="132"/>
-      <c r="H34" s="113"/>
+      <c r="E34" s="68"/>
+      <c r="F34" s="109"/>
+      <c r="G34" s="110"/>
+      <c r="H34" s="91"/>
       <c r="I34" s="42"/>
-      <c r="J34" s="119"/>
-      <c r="K34" s="112"/>
-      <c r="L34" s="147"/>
+      <c r="J34" s="97"/>
+      <c r="K34" s="90"/>
+      <c r="L34" s="125"/>
     </row>
     <row r="35" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="63"/>
-      <c r="C35" s="72"/>
+      <c r="B35" s="166"/>
+      <c r="C35" s="175"/>
       <c r="D35" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E35" s="90"/>
-      <c r="F35" s="133"/>
-      <c r="G35" s="132"/>
-      <c r="H35" s="134"/>
-      <c r="I35" s="84"/>
-      <c r="J35" s="119"/>
-      <c r="K35" s="148"/>
-      <c r="L35" s="147"/>
+      <c r="E35" s="68"/>
+      <c r="F35" s="111"/>
+      <c r="G35" s="110"/>
+      <c r="H35" s="112"/>
+      <c r="I35" s="62"/>
+      <c r="J35" s="97"/>
+      <c r="K35" s="126"/>
+      <c r="L35" s="125"/>
     </row>
     <row r="36" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="63"/>
-      <c r="C36" s="73"/>
+      <c r="B36" s="166"/>
+      <c r="C36" s="176"/>
       <c r="D36" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E36" s="98"/>
-      <c r="F36" s="115"/>
-      <c r="G36" s="135"/>
-      <c r="H36" s="136"/>
+      <c r="E36" s="76"/>
+      <c r="F36" s="93"/>
+      <c r="G36" s="113"/>
+      <c r="H36" s="114"/>
       <c r="I36" s="48"/>
-      <c r="J36" s="125"/>
-      <c r="K36" s="115"/>
-      <c r="L36" s="149"/>
+      <c r="J36" s="103"/>
+      <c r="K36" s="93"/>
+      <c r="L36" s="127"/>
     </row>
     <row r="37" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="63"/>
-      <c r="C37" s="74" t="s">
+      <c r="B37" s="166"/>
+      <c r="C37" s="177" t="s">
         <v>1</v>
       </c>
       <c r="D37" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E37" s="102"/>
-      <c r="F37" s="103"/>
-      <c r="G37" s="137"/>
-      <c r="H37" s="105"/>
+      <c r="E37" s="80"/>
+      <c r="F37" s="81"/>
+      <c r="G37" s="115"/>
+      <c r="H37" s="83"/>
       <c r="I37" s="46"/>
-      <c r="J37" s="122"/>
-      <c r="K37" s="109"/>
-      <c r="L37" s="103"/>
+      <c r="J37" s="100"/>
+      <c r="K37" s="87"/>
+      <c r="L37" s="81"/>
     </row>
     <row r="38" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="63"/>
-      <c r="C38" s="72"/>
+      <c r="B38" s="166"/>
+      <c r="C38" s="175"/>
       <c r="D38" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E38" s="106"/>
-      <c r="F38" s="107"/>
-      <c r="G38" s="128"/>
-      <c r="H38" s="93"/>
+      <c r="E38" s="84"/>
+      <c r="F38" s="85"/>
+      <c r="G38" s="106"/>
+      <c r="H38" s="71"/>
       <c r="I38" s="42"/>
-      <c r="J38" s="118"/>
-      <c r="K38" s="112"/>
-      <c r="L38" s="107"/>
+      <c r="J38" s="96"/>
+      <c r="K38" s="90"/>
+      <c r="L38" s="85"/>
     </row>
     <row r="39" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="63"/>
-      <c r="C39" s="72"/>
+      <c r="B39" s="166"/>
+      <c r="C39" s="175"/>
       <c r="D39" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E39" s="138"/>
-      <c r="F39" s="109"/>
-      <c r="G39" s="130"/>
-      <c r="H39" s="111"/>
+      <c r="E39" s="116"/>
+      <c r="F39" s="87"/>
+      <c r="G39" s="108"/>
+      <c r="H39" s="89"/>
       <c r="I39" s="46"/>
-      <c r="J39" s="123"/>
-      <c r="K39" s="109"/>
-      <c r="L39" s="146"/>
+      <c r="J39" s="101"/>
+      <c r="K39" s="87"/>
+      <c r="L39" s="124"/>
       <c r="N39" s="15"/>
     </row>
     <row r="40" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="63"/>
-      <c r="C40" s="72"/>
+      <c r="B40" s="166"/>
+      <c r="C40" s="175"/>
       <c r="D40" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E40" s="90"/>
-      <c r="F40" s="131"/>
-      <c r="G40" s="132"/>
-      <c r="H40" s="113"/>
+      <c r="E40" s="68"/>
+      <c r="F40" s="109"/>
+      <c r="G40" s="110"/>
+      <c r="H40" s="91"/>
       <c r="I40" s="42"/>
-      <c r="J40" s="119"/>
-      <c r="K40" s="131"/>
-      <c r="L40" s="147"/>
+      <c r="J40" s="97"/>
+      <c r="K40" s="109"/>
+      <c r="L40" s="125"/>
     </row>
     <row r="41" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="63"/>
-      <c r="C41" s="72"/>
+      <c r="B41" s="166"/>
+      <c r="C41" s="175"/>
       <c r="D41" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E41" s="139"/>
-      <c r="F41" s="131"/>
-      <c r="G41" s="132"/>
-      <c r="H41" s="113"/>
+      <c r="E41" s="117"/>
+      <c r="F41" s="109"/>
+      <c r="G41" s="110"/>
+      <c r="H41" s="91"/>
       <c r="I41" s="42"/>
-      <c r="J41" s="119"/>
-      <c r="K41" s="131"/>
-      <c r="L41" s="147"/>
+      <c r="J41" s="97"/>
+      <c r="K41" s="109"/>
+      <c r="L41" s="125"/>
       <c r="N41" s="15"/>
     </row>
     <row r="42" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="64"/>
-      <c r="C42" s="75"/>
+      <c r="B42" s="167"/>
+      <c r="C42" s="178"/>
       <c r="D42" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="E42" s="140"/>
-      <c r="F42" s="141"/>
-      <c r="G42" s="142"/>
-      <c r="H42" s="143"/>
-      <c r="I42" s="85"/>
-      <c r="J42" s="150"/>
-      <c r="K42" s="141"/>
-      <c r="L42" s="151"/>
+      <c r="E42" s="118"/>
+      <c r="F42" s="119"/>
+      <c r="G42" s="120"/>
+      <c r="H42" s="121"/>
+      <c r="I42" s="63"/>
+      <c r="J42" s="128"/>
+      <c r="K42" s="119"/>
+      <c r="L42" s="129"/>
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I43"/>
@@ -2873,22 +3276,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5764096-CBDC-48A7-984B-BFD813F170CD}">
-  <dimension ref="B1:M31"/>
+  <dimension ref="B1:N31"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="50" zoomScalePageLayoutView="40" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="C6" sqref="C6:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.42578125" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="16.85546875" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" customWidth="1"/>
+    <col min="5" max="5" width="6.42578125" customWidth="1"/>
+    <col min="6" max="6" width="6.28515625" customWidth="1"/>
+    <col min="7" max="7" width="6.85546875" customWidth="1"/>
+    <col min="8" max="8" width="6.42578125" customWidth="1"/>
+    <col min="9" max="9" width="7.5703125" customWidth="1"/>
+    <col min="10" max="11" width="7.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:13" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2914,51 +3319,51 @@
       <c r="B3"/>
       <c r="C3"/>
       <c r="D3"/>
-      <c r="E3" s="76" t="s">
+      <c r="E3" s="161" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="162"/>
+      <c r="G3" s="162"/>
+      <c r="H3" s="163"/>
+      <c r="I3" s="164" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="162"/>
+      <c r="K3" s="163"/>
+    </row>
+    <row r="4" spans="2:13" s="57" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="171" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="172"/>
+      <c r="D4" s="173"/>
+      <c r="E4" s="168" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="169"/>
+      <c r="G4" s="170" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="169"/>
+      <c r="I4" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" s="77"/>
-      <c r="K3" s="78"/>
-    </row>
-    <row r="4" spans="2:13" s="57" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="68" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="69"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="65" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="66"/>
-      <c r="G4" s="67" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="66"/>
-      <c r="I4" s="28" t="s">
+      <c r="J4" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="29" t="s">
+      <c r="K4" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="K4" s="29" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="5" spans="2:13" s="57" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="26" t="s">
+      <c r="B5" s="235" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="234" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="17" t="s">
         <v>12</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>13</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>6</v>
@@ -2969,7 +3374,7 @@
       <c r="G5" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="31" t="s">
         <v>7</v>
       </c>
       <c r="I5" s="10" t="s">
@@ -2983,132 +3388,160 @@
       </c>
     </row>
     <row r="6" spans="2:13" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="81" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="80" t="s">
+      <c r="B6" s="179" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="181" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="152"/>
-      <c r="F6" s="153"/>
-      <c r="G6" s="161"/>
-      <c r="H6" s="153"/>
-      <c r="I6" s="171"/>
-      <c r="J6" s="172"/>
-      <c r="K6" s="173"/>
+        <v>25</v>
+      </c>
+      <c r="E6" s="132">
+        <v>0.63800000000000001</v>
+      </c>
+      <c r="F6" s="212">
+        <v>1.18</v>
+      </c>
+      <c r="G6" s="110">
+        <v>0.217</v>
+      </c>
+      <c r="H6" s="213">
+        <v>0.5</v>
+      </c>
+      <c r="I6" s="230">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="J6" s="108">
+        <v>-0.58899999999999997</v>
+      </c>
+      <c r="K6" s="232">
+        <v>-7.0999999999999994E-2</v>
+      </c>
     </row>
     <row r="7" spans="2:13" s="57" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="82"/>
-      <c r="C7" s="83"/>
+      <c r="B7" s="180"/>
+      <c r="C7" s="182"/>
       <c r="D7" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="162"/>
-      <c r="F7" s="163"/>
-      <c r="G7" s="164"/>
-      <c r="H7" s="163"/>
-      <c r="I7" s="165"/>
-      <c r="J7" s="166"/>
-      <c r="K7" s="167"/>
+      <c r="E7" s="210">
+        <v>0.63600000000000001</v>
+      </c>
+      <c r="F7" s="141">
+        <v>1.3</v>
+      </c>
+      <c r="G7" s="211">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="H7" s="214">
+        <v>0.5</v>
+      </c>
+      <c r="I7" s="208">
+        <v>0.216</v>
+      </c>
+      <c r="J7" s="231">
+        <v>1.4E-2</v>
+      </c>
+      <c r="K7" s="209">
+        <v>-0.12</v>
+      </c>
     </row>
     <row r="8" spans="2:13" s="57" customFormat="1" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="174"/>
-      <c r="C8" s="175"/>
-      <c r="D8" s="176"/>
-      <c r="E8" s="177"/>
-      <c r="F8" s="178"/>
-      <c r="G8" s="179"/>
-      <c r="H8" s="178"/>
-      <c r="I8" s="180"/>
-      <c r="J8" s="181"/>
-      <c r="K8" s="182"/>
+      <c r="B8" s="152"/>
+      <c r="C8" s="153"/>
+      <c r="D8" s="154"/>
+      <c r="E8" s="155"/>
+      <c r="F8" s="156"/>
+      <c r="G8" s="157"/>
+      <c r="H8" s="206"/>
+      <c r="I8" s="158"/>
+      <c r="J8" s="159"/>
+      <c r="K8" s="160"/>
     </row>
     <row r="9" spans="2:13" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="81" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="80" t="s">
+      <c r="B9" s="179" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="181" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="152"/>
-      <c r="F9" s="153"/>
-      <c r="G9" s="161"/>
-      <c r="H9" s="153"/>
-      <c r="I9" s="171"/>
-      <c r="J9" s="172"/>
-      <c r="K9" s="173"/>
+        <v>25</v>
+      </c>
+      <c r="E9" s="130"/>
+      <c r="F9" s="131"/>
+      <c r="G9" s="139"/>
+      <c r="H9" s="207"/>
+      <c r="I9" s="149"/>
+      <c r="J9" s="150"/>
+      <c r="K9" s="151"/>
       <c r="L9" s="61"/>
       <c r="M9"/>
     </row>
     <row r="10" spans="2:13" s="57" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="82"/>
-      <c r="C10" s="83"/>
+      <c r="B10" s="180"/>
+      <c r="C10" s="182"/>
       <c r="D10" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="162"/>
-      <c r="F10" s="163"/>
-      <c r="G10" s="164"/>
-      <c r="H10" s="163"/>
-      <c r="I10" s="165"/>
-      <c r="J10" s="166"/>
-      <c r="K10" s="167"/>
+        <v>26</v>
+      </c>
+      <c r="E10" s="140"/>
+      <c r="F10" s="141"/>
+      <c r="G10" s="142"/>
+      <c r="H10" s="205"/>
+      <c r="I10" s="143"/>
+      <c r="J10" s="144"/>
+      <c r="K10" s="145"/>
       <c r="L10" s="61"/>
       <c r="M10"/>
     </row>
     <row r="11" spans="2:13" s="57" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="174"/>
-      <c r="C11" s="175"/>
-      <c r="D11" s="176"/>
-      <c r="E11" s="177"/>
-      <c r="F11" s="178"/>
-      <c r="G11" s="179"/>
-      <c r="H11" s="178"/>
-      <c r="I11" s="180"/>
-      <c r="J11" s="181"/>
-      <c r="K11" s="182"/>
+      <c r="B11" s="152"/>
+      <c r="C11" s="153"/>
+      <c r="D11" s="154"/>
+      <c r="E11" s="155"/>
+      <c r="F11" s="156"/>
+      <c r="G11" s="157"/>
+      <c r="H11" s="206"/>
+      <c r="I11" s="158"/>
+      <c r="J11" s="159"/>
+      <c r="K11" s="160"/>
       <c r="L11" s="61"/>
       <c r="M11"/>
     </row>
     <row r="12" spans="2:13" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="81" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="80" t="s">
+      <c r="B12" s="179" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="181" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="152"/>
-      <c r="F12" s="153"/>
-      <c r="G12" s="161"/>
-      <c r="H12" s="153"/>
-      <c r="I12" s="168"/>
-      <c r="J12" s="169"/>
-      <c r="K12" s="170"/>
+        <v>25</v>
+      </c>
+      <c r="E12" s="130"/>
+      <c r="F12" s="131"/>
+      <c r="G12" s="139"/>
+      <c r="H12" s="207"/>
+      <c r="I12" s="146"/>
+      <c r="J12" s="147"/>
+      <c r="K12" s="148"/>
       <c r="L12"/>
       <c r="M12"/>
     </row>
     <row r="13" spans="2:13" s="57" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="82"/>
-      <c r="C13" s="83"/>
+      <c r="B13" s="180"/>
+      <c r="C13" s="182"/>
       <c r="D13" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="162"/>
-      <c r="F13" s="163"/>
-      <c r="G13" s="164"/>
-      <c r="H13" s="163"/>
-      <c r="I13" s="165"/>
-      <c r="J13" s="166"/>
-      <c r="K13" s="167"/>
+        <v>26</v>
+      </c>
+      <c r="E13" s="140"/>
+      <c r="F13" s="141"/>
+      <c r="G13" s="142"/>
+      <c r="H13" s="205"/>
+      <c r="I13" s="143"/>
+      <c r="J13" s="144"/>
+      <c r="K13" s="145"/>
       <c r="L13"/>
       <c r="M13"/>
     </row>
@@ -3139,7 +3572,7 @@
       <c r="G16" s="56"/>
       <c r="H16" s="56"/>
     </row>
-    <row r="17" spans="2:9" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="60"/>
       <c r="C17" s="60"/>
       <c r="D17" s="53"/>
@@ -3148,7 +3581,7 @@
       <c r="G17" s="56"/>
       <c r="H17" s="56"/>
     </row>
-    <row r="18" spans="2:9" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="60"/>
       <c r="C18" s="60"/>
       <c r="D18" s="53"/>
@@ -3158,53 +3591,82 @@
       <c r="H18" s="56"/>
       <c r="I18" s="59"/>
     </row>
-    <row r="19" spans="2:9" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="60"/>
       <c r="C19" s="60"/>
       <c r="D19" s="53"/>
-      <c r="E19" s="54"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="56"/>
-    </row>
-    <row r="20" spans="2:9" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E19" s="199"/>
+      <c r="F19" s="200"/>
+      <c r="G19" s="201"/>
+      <c r="H19" s="202"/>
+      <c r="I19" s="203"/>
+      <c r="J19" s="203"/>
+      <c r="K19" s="203"/>
+      <c r="L19" s="203"/>
+      <c r="M19" s="203"/>
+      <c r="N19" s="203"/>
+    </row>
+    <row r="20" spans="2:14" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="60"/>
       <c r="C20" s="60"/>
       <c r="D20" s="53"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="58"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="59"/>
-    </row>
-    <row r="21" spans="2:9" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E20" s="200"/>
+      <c r="F20" s="200"/>
+      <c r="G20" s="201"/>
+      <c r="H20" s="202"/>
+      <c r="I20" s="204"/>
+      <c r="J20" s="203"/>
+      <c r="K20" s="203"/>
+      <c r="L20" s="203"/>
+      <c r="M20" s="203"/>
+      <c r="N20" s="203"/>
+    </row>
+    <row r="21" spans="2:14" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="60"/>
       <c r="C21" s="60"/>
       <c r="D21" s="53"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="58"/>
-      <c r="H21" s="56"/>
-    </row>
-    <row r="22" spans="2:9" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E21" s="199"/>
+      <c r="F21" s="200"/>
+      <c r="G21" s="200"/>
+      <c r="H21" s="201"/>
+      <c r="I21" s="202"/>
+      <c r="J21" s="202"/>
+      <c r="K21" s="201"/>
+      <c r="L21" s="201"/>
+      <c r="M21" s="201"/>
+      <c r="N21" s="203"/>
+    </row>
+    <row r="22" spans="2:14" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="60"/>
       <c r="C22" s="60"/>
       <c r="D22" s="53"/>
-      <c r="E22" s="54"/>
-      <c r="F22" s="55"/>
-      <c r="G22" s="56"/>
-      <c r="H22" s="56"/>
-    </row>
-    <row r="23" spans="2:9" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E22" s="199"/>
+      <c r="F22" s="200"/>
+      <c r="G22" s="202"/>
+      <c r="H22" s="202"/>
+      <c r="I22" s="203"/>
+      <c r="J22" s="203"/>
+      <c r="K22" s="203"/>
+      <c r="L22" s="203"/>
+      <c r="M22" s="203"/>
+      <c r="N22" s="203"/>
+    </row>
+    <row r="23" spans="2:14" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="60"/>
       <c r="C23" s="60"/>
       <c r="D23" s="53"/>
-      <c r="E23" s="54"/>
-      <c r="F23" s="55"/>
-      <c r="G23" s="56"/>
-      <c r="H23" s="56"/>
-    </row>
-    <row r="24" spans="2:9" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E23" s="199"/>
+      <c r="F23" s="200"/>
+      <c r="G23" s="202"/>
+      <c r="H23" s="202"/>
+      <c r="I23" s="203"/>
+      <c r="J23" s="203"/>
+      <c r="K23" s="203"/>
+      <c r="L23" s="203"/>
+      <c r="M23" s="203"/>
+      <c r="N23" s="203"/>
+    </row>
+    <row r="24" spans="2:14" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="60"/>
       <c r="C24" s="60"/>
       <c r="D24" s="53"/>
@@ -3213,7 +3675,7 @@
       <c r="G24" s="58"/>
       <c r="H24" s="56"/>
     </row>
-    <row r="25" spans="2:9" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="60"/>
       <c r="C25" s="60"/>
       <c r="D25" s="53"/>
@@ -3222,7 +3684,7 @@
       <c r="G25" s="58"/>
       <c r="H25" s="56"/>
     </row>
-    <row r="26" spans="2:9" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="60"/>
       <c r="C26" s="60"/>
       <c r="D26" s="53"/>
@@ -3231,7 +3693,7 @@
       <c r="G26" s="58"/>
       <c r="H26" s="58"/>
     </row>
-    <row r="27" spans="2:9" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="60"/>
       <c r="C27" s="60"/>
       <c r="D27" s="53"/>
@@ -3240,10 +3702,10 @@
       <c r="G27" s="58"/>
       <c r="H27" s="56"/>
     </row>
-    <row r="28" spans="2:9" s="57" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="2:9" s="57" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="2:9" s="57" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="2:9" s="57" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="2:14" s="57" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="2:14" s="57" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="2:14" s="57" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="2:14" s="57" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="B9:B10"/>
@@ -3267,24 +3729,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C63A179C-A39D-4F54-8121-5C3E8B4CB3C9}">
   <dimension ref="B1:N74"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A2" zoomScaleNormal="100" zoomScaleSheetLayoutView="50" zoomScalePageLayoutView="40" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="50" zoomScalePageLayoutView="40" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.5703125" customWidth="1"/>
     <col min="2" max="2" width="11.28515625" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
     <col min="4" max="4" width="15.42578125" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" customWidth="1"/>
+    <col min="8" max="8" width="9" customWidth="1"/>
     <col min="9" max="9" width="0.42578125" style="32" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" customWidth="1"/>
-    <col min="11" max="11" width="12.85546875" customWidth="1"/>
-    <col min="12" max="12" width="11.85546875" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" customWidth="1"/>
+    <col min="12" max="12" width="10" customWidth="1"/>
     <col min="13" max="13" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3292,54 +3754,54 @@
       <c r="I1"/>
     </row>
     <row r="2" spans="2:14" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E2" s="76" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="78"/>
+      <c r="E2" s="161" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="162"/>
+      <c r="G2" s="162"/>
+      <c r="H2" s="163"/>
       <c r="I2" s="33"/>
-      <c r="J2" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" s="77"/>
-      <c r="L2" s="78"/>
+      <c r="J2" s="164" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="162"/>
+      <c r="L2" s="163"/>
     </row>
     <row r="3" spans="2:14" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="68" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="69"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="65" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="66"/>
-      <c r="G3" s="67" t="s">
+      <c r="B3" s="171" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="66"/>
+      <c r="C3" s="172"/>
+      <c r="D3" s="173"/>
+      <c r="E3" s="168" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="169"/>
+      <c r="G3" s="170" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="169"/>
       <c r="I3" s="34"/>
       <c r="J3" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="29" t="s">
+      <c r="L3" s="29" t="s">
         <v>23</v>
-      </c>
-      <c r="L3" s="29" t="s">
-        <v>24</v>
       </c>
       <c r="M3" s="16"/>
     </row>
     <row r="4" spans="2:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="17" t="s">
         <v>12</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>13</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>6</v>
@@ -3366,204 +3828,375 @@
       <c r="M4" s="1"/>
     </row>
     <row r="5" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="62" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="71" t="s">
-        <v>11</v>
+      <c r="B5" s="165" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="233" t="s">
+        <v>29</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="104"/>
-      <c r="F5" s="103"/>
-      <c r="G5" s="137"/>
-      <c r="H5" s="103"/>
+      <c r="E5" s="82">
+        <v>0.753</v>
+      </c>
+      <c r="F5" s="81">
+        <v>1.38</v>
+      </c>
+      <c r="G5" s="115">
+        <v>0.254</v>
+      </c>
+      <c r="H5" s="81">
+        <v>0.55000000000000004</v>
+      </c>
       <c r="I5" s="36"/>
-      <c r="J5" s="122"/>
-      <c r="K5" s="122"/>
-      <c r="L5" s="109"/>
+      <c r="J5" s="100">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="K5" s="100">
+        <v>-0.64800000000000002</v>
+      </c>
+      <c r="L5" s="87">
+        <v>-5.6599999999999998E-2</v>
+      </c>
       <c r="M5" s="3"/>
     </row>
     <row r="6" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="63"/>
-      <c r="C6" s="72"/>
+      <c r="B6" s="166"/>
+      <c r="C6" s="175"/>
       <c r="D6" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="92"/>
-      <c r="F6" s="107"/>
-      <c r="G6" s="128"/>
-      <c r="H6" s="107"/>
+      <c r="E6" s="70">
+        <v>0.66300000000000003</v>
+      </c>
+      <c r="F6" s="85">
+        <v>1.27</v>
+      </c>
+      <c r="G6" s="106">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="H6" s="85">
+        <v>0.5</v>
+      </c>
       <c r="I6" s="37"/>
-      <c r="J6" s="118"/>
-      <c r="K6" s="118"/>
-      <c r="L6" s="112"/>
+      <c r="J6" s="96">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="K6" s="196">
+        <v>-0.876</v>
+      </c>
+      <c r="L6" s="90">
+        <v>-6.6299999999999998E-2</v>
+      </c>
       <c r="M6" s="3"/>
+      <c r="N6" s="15"/>
     </row>
     <row r="7" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="63"/>
-      <c r="C7" s="72"/>
+      <c r="B7" s="166"/>
+      <c r="C7" s="175"/>
       <c r="D7" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="152"/>
-      <c r="F7" s="153"/>
-      <c r="G7" s="130"/>
-      <c r="H7" s="109"/>
+      <c r="E7" s="130">
+        <v>0.745</v>
+      </c>
+      <c r="F7" s="131">
+        <v>1.2</v>
+      </c>
+      <c r="G7" s="108">
+        <v>0.25</v>
+      </c>
+      <c r="H7" s="87">
+        <v>0.52500000000000002</v>
+      </c>
       <c r="I7" s="36"/>
-      <c r="J7" s="123"/>
-      <c r="K7" s="123"/>
-      <c r="L7" s="157"/>
+      <c r="J7" s="101">
+        <v>0.159</v>
+      </c>
+      <c r="K7" s="101">
+        <v>-0.72</v>
+      </c>
+      <c r="L7" s="135">
+        <v>-5.0599999999999999E-2</v>
+      </c>
       <c r="M7" s="3"/>
+      <c r="N7" s="15"/>
     </row>
     <row r="8" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="63"/>
-      <c r="C8" s="72"/>
+      <c r="B8" s="166"/>
+      <c r="C8" s="175"/>
       <c r="D8" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="154"/>
-      <c r="F8" s="91"/>
-      <c r="G8" s="132"/>
-      <c r="H8" s="112"/>
+      <c r="E8" s="132">
+        <v>0.63100000000000001</v>
+      </c>
+      <c r="F8" s="69">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G8" s="110">
+        <v>0.216</v>
+      </c>
+      <c r="H8" s="90">
+        <v>0.45</v>
+      </c>
       <c r="I8" s="37"/>
-      <c r="J8" s="119"/>
-      <c r="K8" s="119"/>
-      <c r="L8" s="158"/>
+      <c r="J8" s="97">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="K8" s="97">
+        <v>-0.39500000000000002</v>
+      </c>
+      <c r="L8" s="136">
+        <v>-5.1700000000000003E-2</v>
+      </c>
       <c r="M8" s="3"/>
     </row>
     <row r="9" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="63"/>
-      <c r="C9" s="72"/>
+      <c r="B9" s="166"/>
+      <c r="C9" s="175"/>
       <c r="D9" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="154"/>
-      <c r="F9" s="133"/>
-      <c r="G9" s="132"/>
-      <c r="H9" s="148"/>
+      <c r="E9" s="190">
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="F9" s="189">
+        <v>1.42</v>
+      </c>
+      <c r="G9" s="188">
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="H9" s="219">
+        <v>0.65</v>
+      </c>
       <c r="I9" s="38"/>
-      <c r="J9" s="119"/>
-      <c r="K9" s="119"/>
-      <c r="L9" s="158"/>
+      <c r="J9" s="192">
+        <v>0.13</v>
+      </c>
+      <c r="K9" s="97">
+        <v>-0.35799999999999998</v>
+      </c>
+      <c r="L9" s="136">
+        <v>-4.6899999999999997E-2</v>
+      </c>
       <c r="M9" s="2"/>
     </row>
     <row r="10" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="63"/>
-      <c r="C10" s="73"/>
+      <c r="B10" s="166"/>
+      <c r="C10" s="176"/>
       <c r="D10" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="155"/>
-      <c r="F10" s="99"/>
-      <c r="G10" s="135"/>
-      <c r="H10" s="115"/>
+      <c r="E10" s="133">
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="F10" s="216">
+        <v>1.02</v>
+      </c>
+      <c r="G10" s="113">
+        <v>0.224</v>
+      </c>
+      <c r="H10" s="217">
+        <v>0.4</v>
+      </c>
       <c r="I10" s="39"/>
-      <c r="J10" s="125"/>
-      <c r="K10" s="125"/>
-      <c r="L10" s="159"/>
+      <c r="J10" s="103">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="K10" s="103">
+        <v>-0.52600000000000002</v>
+      </c>
+      <c r="L10" s="137">
+        <v>-4.7199999999999999E-2</v>
+      </c>
       <c r="M10" s="3"/>
     </row>
     <row r="11" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="63"/>
-      <c r="C11" s="74" t="s">
+      <c r="B11" s="166"/>
+      <c r="C11" s="177" t="s">
         <v>1</v>
       </c>
       <c r="D11" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="104"/>
-      <c r="F11" s="103"/>
-      <c r="G11" s="137"/>
-      <c r="H11" s="103"/>
+      <c r="E11" s="82">
+        <v>0.76</v>
+      </c>
+      <c r="F11" s="81">
+        <v>1.18</v>
+      </c>
+      <c r="G11" s="115">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="H11" s="81">
+        <v>0.47499999999999998</v>
+      </c>
       <c r="I11" s="36"/>
-      <c r="J11" s="122"/>
-      <c r="K11" s="122"/>
-      <c r="L11" s="160"/>
+      <c r="J11" s="218">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="K11" s="100">
+        <v>-0.71099999999999997</v>
+      </c>
+      <c r="L11" s="138">
+        <v>-6.13E-2</v>
+      </c>
       <c r="M11" s="5"/>
       <c r="N11" s="15"/>
     </row>
     <row r="12" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="63"/>
-      <c r="C12" s="72"/>
+      <c r="B12" s="166"/>
+      <c r="C12" s="175"/>
       <c r="D12" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="92"/>
-      <c r="F12" s="103"/>
-      <c r="G12" s="128"/>
-      <c r="H12" s="107"/>
+      <c r="E12" s="70">
+        <v>0.64800000000000002</v>
+      </c>
+      <c r="F12" s="81">
+        <v>1.18</v>
+      </c>
+      <c r="G12" s="106">
+        <v>0.218</v>
+      </c>
+      <c r="H12" s="85">
+        <v>0.45</v>
+      </c>
       <c r="I12" s="37"/>
-      <c r="J12" s="118"/>
-      <c r="K12" s="118"/>
-      <c r="L12" s="124"/>
-      <c r="M12" s="5"/>
+      <c r="J12" s="96">
+        <v>0.224</v>
+      </c>
+      <c r="K12" s="96">
+        <v>-0.82199999999999995</v>
+      </c>
+      <c r="L12" s="198">
+        <v>-6.7299999999999999E-2</v>
+      </c>
+      <c r="M12" s="215"/>
+      <c r="N12" s="15"/>
     </row>
     <row r="13" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="63"/>
-      <c r="C13" s="72"/>
+      <c r="B13" s="166"/>
+      <c r="C13" s="175"/>
       <c r="D13" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E13" s="104"/>
-      <c r="F13" s="156"/>
-      <c r="G13" s="130"/>
-      <c r="H13" s="109"/>
+      <c r="E13" s="82">
+        <v>0.72399999999999998</v>
+      </c>
+      <c r="F13" s="134">
+        <v>1.3</v>
+      </c>
+      <c r="G13" s="108">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="H13" s="87">
+        <v>0.57499999999999996</v>
+      </c>
       <c r="I13" s="36"/>
-      <c r="J13" s="123"/>
-      <c r="K13" s="123"/>
-      <c r="L13" s="124"/>
+      <c r="J13" s="101">
+        <v>0.16</v>
+      </c>
+      <c r="K13" s="101">
+        <v>-0.80100000000000005</v>
+      </c>
+      <c r="L13" s="102">
+        <v>-4.6899999999999997E-2</v>
+      </c>
       <c r="M13" s="4"/>
       <c r="N13" s="15"/>
     </row>
     <row r="14" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="63"/>
-      <c r="C14" s="72"/>
+      <c r="B14" s="166"/>
+      <c r="C14" s="175"/>
       <c r="D14" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="92"/>
-      <c r="F14" s="107"/>
-      <c r="G14" s="132"/>
-      <c r="H14" s="131"/>
+      <c r="E14" s="183">
+        <v>0.61199999999999999</v>
+      </c>
+      <c r="F14" s="85">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G14" s="185">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="H14" s="109">
+        <v>0.52500000000000002</v>
+      </c>
       <c r="I14" s="40"/>
-      <c r="J14" s="119"/>
-      <c r="K14" s="119"/>
-      <c r="L14" s="124"/>
+      <c r="J14" s="97">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="K14" s="97">
+        <v>-0.69799999999999995</v>
+      </c>
+      <c r="L14" s="102">
+        <v>-4.7899999999999998E-2</v>
+      </c>
       <c r="M14" s="3"/>
       <c r="N14" s="15"/>
     </row>
     <row r="15" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="63"/>
-      <c r="C15" s="72"/>
+      <c r="B15" s="166"/>
+      <c r="C15" s="175"/>
       <c r="D15" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="154"/>
-      <c r="F15" s="91"/>
-      <c r="G15" s="132"/>
-      <c r="H15" s="131"/>
+      <c r="E15" s="132">
+        <v>0.77400000000000002</v>
+      </c>
+      <c r="F15" s="69">
+        <v>1.2</v>
+      </c>
+      <c r="G15" s="110">
+        <v>0.253</v>
+      </c>
+      <c r="H15" s="109">
+        <v>0.47499999999999998</v>
+      </c>
       <c r="I15" s="40"/>
-      <c r="J15" s="119"/>
-      <c r="K15" s="119"/>
-      <c r="L15" s="160"/>
+      <c r="J15" s="97">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="K15" s="192">
+        <v>-0.317</v>
+      </c>
+      <c r="L15" s="138">
+        <v>-4.3200000000000002E-2</v>
+      </c>
       <c r="M15" s="3"/>
     </row>
     <row r="16" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="63"/>
-      <c r="C16" s="73"/>
+      <c r="B16" s="166"/>
+      <c r="C16" s="176"/>
       <c r="D16" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="155"/>
-      <c r="F16" s="99"/>
-      <c r="G16" s="135"/>
-      <c r="H16" s="115"/>
+      <c r="E16" s="133">
+        <v>0.69799999999999995</v>
+      </c>
+      <c r="F16" s="77">
+        <v>1.08</v>
+      </c>
+      <c r="G16" s="113">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="H16" s="93">
+        <v>0.42499999999999999</v>
+      </c>
       <c r="I16" s="39"/>
-      <c r="J16" s="125"/>
-      <c r="K16" s="125"/>
-      <c r="L16" s="126"/>
+      <c r="J16" s="103">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="K16" s="103">
+        <v>-0.72299999999999998</v>
+      </c>
+      <c r="L16" s="195">
+        <v>-4.2000000000000003E-2</v>
+      </c>
       <c r="M16" s="3"/>
     </row>
     <row r="17" spans="2:14" ht="6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3580,194 +4213,194 @@
       <c r="L17" s="24"/>
     </row>
     <row r="18" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="62" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="71" t="s">
+      <c r="B18" s="165" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="174" t="s">
         <v>0</v>
       </c>
       <c r="D18" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="E18" s="86"/>
-      <c r="F18" s="87"/>
-      <c r="G18" s="88"/>
-      <c r="H18" s="89"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="67"/>
       <c r="I18" s="41"/>
-      <c r="J18" s="117"/>
-      <c r="K18" s="117"/>
-      <c r="L18" s="117"/>
+      <c r="J18" s="95"/>
+      <c r="K18" s="95"/>
+      <c r="L18" s="95"/>
     </row>
     <row r="19" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="63"/>
-      <c r="C19" s="72"/>
+      <c r="B19" s="166"/>
+      <c r="C19" s="175"/>
       <c r="D19" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="90"/>
-      <c r="F19" s="91"/>
-      <c r="G19" s="92"/>
-      <c r="H19" s="93"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="71"/>
       <c r="I19" s="42"/>
-      <c r="J19" s="118"/>
-      <c r="K19" s="118"/>
-      <c r="L19" s="118"/>
+      <c r="J19" s="96"/>
+      <c r="K19" s="96"/>
+      <c r="L19" s="96"/>
     </row>
     <row r="20" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="63"/>
-      <c r="C20" s="72"/>
+      <c r="B20" s="166"/>
+      <c r="C20" s="175"/>
       <c r="D20" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="E20" s="90"/>
-      <c r="F20" s="91"/>
-      <c r="G20" s="94"/>
-      <c r="H20" s="93"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="69"/>
+      <c r="G20" s="72"/>
+      <c r="H20" s="71"/>
       <c r="I20" s="42"/>
-      <c r="J20" s="119"/>
-      <c r="K20" s="118"/>
-      <c r="L20" s="119"/>
+      <c r="J20" s="97"/>
+      <c r="K20" s="96"/>
+      <c r="L20" s="97"/>
     </row>
     <row r="21" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="63"/>
-      <c r="C21" s="72"/>
+      <c r="B21" s="166"/>
+      <c r="C21" s="175"/>
       <c r="D21" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="90"/>
-      <c r="F21" s="91"/>
-      <c r="G21" s="94"/>
-      <c r="H21" s="95"/>
+      <c r="E21" s="68"/>
+      <c r="F21" s="69"/>
+      <c r="G21" s="72"/>
+      <c r="H21" s="73"/>
       <c r="I21" s="43"/>
-      <c r="J21" s="119"/>
-      <c r="K21" s="118"/>
-      <c r="L21" s="119"/>
+      <c r="J21" s="97"/>
+      <c r="K21" s="96"/>
+      <c r="L21" s="97"/>
     </row>
     <row r="22" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="63"/>
-      <c r="C22" s="72"/>
+      <c r="B22" s="166"/>
+      <c r="C22" s="175"/>
       <c r="D22" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E22" s="90"/>
-      <c r="F22" s="96"/>
-      <c r="G22" s="94"/>
-      <c r="H22" s="97"/>
+      <c r="E22" s="68"/>
+      <c r="F22" s="74"/>
+      <c r="G22" s="72"/>
+      <c r="H22" s="75"/>
       <c r="I22" s="44"/>
-      <c r="J22" s="119"/>
-      <c r="K22" s="119"/>
-      <c r="L22" s="119"/>
+      <c r="J22" s="97"/>
+      <c r="K22" s="97"/>
+      <c r="L22" s="97"/>
     </row>
     <row r="23" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="63"/>
-      <c r="C23" s="73"/>
+      <c r="B23" s="166"/>
+      <c r="C23" s="176"/>
       <c r="D23" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E23" s="98"/>
-      <c r="F23" s="99"/>
-      <c r="G23" s="100"/>
-      <c r="H23" s="101"/>
+      <c r="E23" s="76"/>
+      <c r="F23" s="77"/>
+      <c r="G23" s="78"/>
+      <c r="H23" s="79"/>
       <c r="I23" s="45"/>
-      <c r="J23" s="120"/>
-      <c r="K23" s="121"/>
-      <c r="L23" s="120"/>
+      <c r="J23" s="98"/>
+      <c r="K23" s="99"/>
+      <c r="L23" s="98"/>
     </row>
     <row r="24" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="63"/>
-      <c r="C24" s="74" t="s">
+      <c r="B24" s="166"/>
+      <c r="C24" s="177" t="s">
         <v>1</v>
       </c>
       <c r="D24" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E24" s="102"/>
-      <c r="F24" s="103"/>
-      <c r="G24" s="104"/>
-      <c r="H24" s="105"/>
+      <c r="E24" s="80"/>
+      <c r="F24" s="81"/>
+      <c r="G24" s="82"/>
+      <c r="H24" s="83"/>
       <c r="I24" s="46"/>
-      <c r="J24" s="122"/>
-      <c r="K24" s="122"/>
-      <c r="L24" s="122"/>
+      <c r="J24" s="100"/>
+      <c r="K24" s="100"/>
+      <c r="L24" s="100"/>
       <c r="M24" s="15"/>
       <c r="N24" s="15"/>
     </row>
     <row r="25" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="63"/>
-      <c r="C25" s="72"/>
+      <c r="B25" s="166"/>
+      <c r="C25" s="175"/>
       <c r="D25" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E25" s="106"/>
-      <c r="F25" s="107"/>
-      <c r="G25" s="92"/>
-      <c r="H25" s="93"/>
+      <c r="E25" s="84"/>
+      <c r="F25" s="85"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="71"/>
       <c r="I25" s="42"/>
-      <c r="J25" s="118"/>
-      <c r="K25" s="118"/>
-      <c r="L25" s="118"/>
+      <c r="J25" s="96"/>
+      <c r="K25" s="96"/>
+      <c r="L25" s="96"/>
     </row>
     <row r="26" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="63"/>
-      <c r="C26" s="72"/>
+      <c r="B26" s="166"/>
+      <c r="C26" s="175"/>
       <c r="D26" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E26" s="108"/>
-      <c r="F26" s="109"/>
-      <c r="G26" s="110"/>
-      <c r="H26" s="111"/>
+      <c r="E26" s="86"/>
+      <c r="F26" s="87"/>
+      <c r="G26" s="88"/>
+      <c r="H26" s="89"/>
       <c r="I26" s="46"/>
-      <c r="J26" s="123"/>
-      <c r="K26" s="122"/>
-      <c r="L26" s="123"/>
+      <c r="J26" s="101"/>
+      <c r="K26" s="100"/>
+      <c r="L26" s="101"/>
       <c r="M26" s="15"/>
     </row>
     <row r="27" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="63"/>
-      <c r="C27" s="72"/>
+      <c r="B27" s="166"/>
+      <c r="C27" s="175"/>
       <c r="D27" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E27" s="90"/>
-      <c r="F27" s="112"/>
-      <c r="G27" s="94"/>
-      <c r="H27" s="113"/>
+      <c r="E27" s="68"/>
+      <c r="F27" s="90"/>
+      <c r="G27" s="72"/>
+      <c r="H27" s="91"/>
       <c r="I27" s="42"/>
-      <c r="J27" s="119"/>
-      <c r="K27" s="124"/>
-      <c r="L27" s="119"/>
+      <c r="J27" s="97"/>
+      <c r="K27" s="102"/>
+      <c r="L27" s="97"/>
       <c r="N27" s="15"/>
     </row>
     <row r="28" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="63"/>
-      <c r="C28" s="72"/>
+      <c r="B28" s="166"/>
+      <c r="C28" s="175"/>
       <c r="D28" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E28" s="90"/>
-      <c r="F28" s="112"/>
-      <c r="G28" s="94"/>
-      <c r="H28" s="114"/>
+      <c r="E28" s="68"/>
+      <c r="F28" s="90"/>
+      <c r="G28" s="72"/>
+      <c r="H28" s="92"/>
       <c r="I28" s="43"/>
-      <c r="J28" s="119"/>
-      <c r="K28" s="124"/>
-      <c r="L28" s="119"/>
+      <c r="J28" s="97"/>
+      <c r="K28" s="102"/>
+      <c r="L28" s="97"/>
     </row>
     <row r="29" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="63"/>
-      <c r="C29" s="73"/>
+      <c r="B29" s="166"/>
+      <c r="C29" s="176"/>
       <c r="D29" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E29" s="98"/>
-      <c r="F29" s="115"/>
-      <c r="G29" s="100"/>
-      <c r="H29" s="116"/>
+      <c r="E29" s="76"/>
+      <c r="F29" s="93"/>
+      <c r="G29" s="78"/>
+      <c r="H29" s="94"/>
       <c r="I29" s="47"/>
-      <c r="J29" s="125"/>
-      <c r="K29" s="126"/>
-      <c r="L29" s="125"/>
+      <c r="J29" s="103"/>
+      <c r="K29" s="104"/>
+      <c r="L29" s="103"/>
     </row>
     <row r="30" spans="2:14" ht="3.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="18"/>
@@ -3783,192 +4416,192 @@
       <c r="L30" s="21"/>
     </row>
     <row r="31" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="62" t="s">
-        <v>16</v>
-      </c>
-      <c r="C31" s="71" t="s">
+      <c r="B31" s="165" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" s="174" t="s">
         <v>0</v>
       </c>
       <c r="D31" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E31" s="86"/>
-      <c r="F31" s="87"/>
-      <c r="G31" s="127"/>
-      <c r="H31" s="89"/>
+      <c r="E31" s="64"/>
+      <c r="F31" s="65"/>
+      <c r="G31" s="105"/>
+      <c r="H31" s="67"/>
       <c r="I31" s="41"/>
-      <c r="J31" s="117"/>
-      <c r="K31" s="144"/>
-      <c r="L31" s="145"/>
+      <c r="J31" s="95"/>
+      <c r="K31" s="122"/>
+      <c r="L31" s="123"/>
     </row>
     <row r="32" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="63"/>
-      <c r="C32" s="72"/>
+      <c r="B32" s="166"/>
+      <c r="C32" s="175"/>
       <c r="D32" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E32" s="90"/>
-      <c r="F32" s="91"/>
-      <c r="G32" s="128"/>
-      <c r="H32" s="93"/>
+      <c r="E32" s="68"/>
+      <c r="F32" s="69"/>
+      <c r="G32" s="106"/>
+      <c r="H32" s="71"/>
       <c r="I32" s="42"/>
-      <c r="J32" s="118"/>
-      <c r="K32" s="112"/>
-      <c r="L32" s="107"/>
+      <c r="J32" s="96"/>
+      <c r="K32" s="90"/>
+      <c r="L32" s="85"/>
     </row>
     <row r="33" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="63"/>
-      <c r="C33" s="72"/>
+      <c r="B33" s="166"/>
+      <c r="C33" s="175"/>
       <c r="D33" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E33" s="108"/>
-      <c r="F33" s="129"/>
-      <c r="G33" s="130"/>
-      <c r="H33" s="111"/>
+      <c r="E33" s="86"/>
+      <c r="F33" s="107"/>
+      <c r="G33" s="108"/>
+      <c r="H33" s="89"/>
       <c r="I33" s="46"/>
-      <c r="J33" s="123"/>
-      <c r="K33" s="109"/>
-      <c r="L33" s="146"/>
+      <c r="J33" s="101"/>
+      <c r="K33" s="87"/>
+      <c r="L33" s="124"/>
     </row>
     <row r="34" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="63"/>
-      <c r="C34" s="72"/>
+      <c r="B34" s="166"/>
+      <c r="C34" s="175"/>
       <c r="D34" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E34" s="90"/>
-      <c r="F34" s="131"/>
-      <c r="G34" s="132"/>
-      <c r="H34" s="113"/>
+      <c r="E34" s="68"/>
+      <c r="F34" s="109"/>
+      <c r="G34" s="110"/>
+      <c r="H34" s="91"/>
       <c r="I34" s="42"/>
-      <c r="J34" s="119"/>
-      <c r="K34" s="112"/>
-      <c r="L34" s="147"/>
+      <c r="J34" s="97"/>
+      <c r="K34" s="90"/>
+      <c r="L34" s="125"/>
     </row>
     <row r="35" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="63"/>
-      <c r="C35" s="72"/>
+      <c r="B35" s="166"/>
+      <c r="C35" s="175"/>
       <c r="D35" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E35" s="90"/>
-      <c r="F35" s="133"/>
-      <c r="G35" s="132"/>
-      <c r="H35" s="134"/>
-      <c r="I35" s="84"/>
-      <c r="J35" s="119"/>
-      <c r="K35" s="148"/>
-      <c r="L35" s="147"/>
+      <c r="E35" s="68"/>
+      <c r="F35" s="111"/>
+      <c r="G35" s="110"/>
+      <c r="H35" s="112"/>
+      <c r="I35" s="62"/>
+      <c r="J35" s="97"/>
+      <c r="K35" s="126"/>
+      <c r="L35" s="125"/>
     </row>
     <row r="36" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="63"/>
-      <c r="C36" s="73"/>
+      <c r="B36" s="166"/>
+      <c r="C36" s="176"/>
       <c r="D36" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E36" s="98"/>
-      <c r="F36" s="115"/>
-      <c r="G36" s="135"/>
-      <c r="H36" s="136"/>
+      <c r="E36" s="76"/>
+      <c r="F36" s="93"/>
+      <c r="G36" s="113"/>
+      <c r="H36" s="114"/>
       <c r="I36" s="48"/>
-      <c r="J36" s="125"/>
-      <c r="K36" s="115"/>
-      <c r="L36" s="149"/>
+      <c r="J36" s="103"/>
+      <c r="K36" s="93"/>
+      <c r="L36" s="127"/>
     </row>
     <row r="37" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="63"/>
-      <c r="C37" s="74" t="s">
+      <c r="B37" s="166"/>
+      <c r="C37" s="177" t="s">
         <v>1</v>
       </c>
       <c r="D37" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E37" s="102"/>
-      <c r="F37" s="103"/>
-      <c r="G37" s="137"/>
-      <c r="H37" s="105"/>
+      <c r="E37" s="80"/>
+      <c r="F37" s="81"/>
+      <c r="G37" s="115"/>
+      <c r="H37" s="83"/>
       <c r="I37" s="46"/>
-      <c r="J37" s="122"/>
-      <c r="K37" s="109"/>
-      <c r="L37" s="103"/>
+      <c r="J37" s="100"/>
+      <c r="K37" s="87"/>
+      <c r="L37" s="81"/>
     </row>
     <row r="38" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="63"/>
-      <c r="C38" s="72"/>
+      <c r="B38" s="166"/>
+      <c r="C38" s="175"/>
       <c r="D38" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E38" s="106"/>
-      <c r="F38" s="107"/>
-      <c r="G38" s="128"/>
-      <c r="H38" s="93"/>
+      <c r="E38" s="84"/>
+      <c r="F38" s="85"/>
+      <c r="G38" s="106"/>
+      <c r="H38" s="71"/>
       <c r="I38" s="42"/>
-      <c r="J38" s="118"/>
-      <c r="K38" s="112"/>
-      <c r="L38" s="107"/>
+      <c r="J38" s="96"/>
+      <c r="K38" s="90"/>
+      <c r="L38" s="85"/>
     </row>
     <row r="39" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="63"/>
-      <c r="C39" s="72"/>
+      <c r="B39" s="166"/>
+      <c r="C39" s="175"/>
       <c r="D39" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E39" s="138"/>
-      <c r="F39" s="109"/>
-      <c r="G39" s="130"/>
-      <c r="H39" s="111"/>
+      <c r="E39" s="116"/>
+      <c r="F39" s="87"/>
+      <c r="G39" s="108"/>
+      <c r="H39" s="89"/>
       <c r="I39" s="46"/>
-      <c r="J39" s="123"/>
-      <c r="K39" s="109"/>
-      <c r="L39" s="146"/>
+      <c r="J39" s="101"/>
+      <c r="K39" s="87"/>
+      <c r="L39" s="124"/>
       <c r="N39" s="15"/>
     </row>
     <row r="40" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="63"/>
-      <c r="C40" s="72"/>
+      <c r="B40" s="166"/>
+      <c r="C40" s="175"/>
       <c r="D40" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E40" s="90"/>
-      <c r="F40" s="131"/>
-      <c r="G40" s="132"/>
-      <c r="H40" s="113"/>
+      <c r="E40" s="68"/>
+      <c r="F40" s="109"/>
+      <c r="G40" s="110"/>
+      <c r="H40" s="91"/>
       <c r="I40" s="42"/>
-      <c r="J40" s="119"/>
-      <c r="K40" s="131"/>
-      <c r="L40" s="147"/>
+      <c r="J40" s="97"/>
+      <c r="K40" s="109"/>
+      <c r="L40" s="125"/>
     </row>
     <row r="41" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="63"/>
-      <c r="C41" s="72"/>
+      <c r="B41" s="166"/>
+      <c r="C41" s="175"/>
       <c r="D41" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E41" s="139"/>
-      <c r="F41" s="131"/>
-      <c r="G41" s="132"/>
-      <c r="H41" s="113"/>
+      <c r="E41" s="117"/>
+      <c r="F41" s="109"/>
+      <c r="G41" s="110"/>
+      <c r="H41" s="91"/>
       <c r="I41" s="42"/>
-      <c r="J41" s="119"/>
-      <c r="K41" s="131"/>
-      <c r="L41" s="147"/>
+      <c r="J41" s="97"/>
+      <c r="K41" s="109"/>
+      <c r="L41" s="125"/>
       <c r="N41" s="15"/>
     </row>
     <row r="42" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="64"/>
-      <c r="C42" s="75"/>
+      <c r="B42" s="167"/>
+      <c r="C42" s="178"/>
       <c r="D42" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="E42" s="140"/>
-      <c r="F42" s="141"/>
-      <c r="G42" s="142"/>
-      <c r="H42" s="143"/>
-      <c r="I42" s="85"/>
-      <c r="J42" s="150"/>
-      <c r="K42" s="141"/>
-      <c r="L42" s="151"/>
+      <c r="E42" s="118"/>
+      <c r="F42" s="119"/>
+      <c r="G42" s="120"/>
+      <c r="H42" s="121"/>
+      <c r="I42" s="63"/>
+      <c r="J42" s="128"/>
+      <c r="K42" s="119"/>
+      <c r="L42" s="129"/>
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I43"/>
@@ -4068,20 +4701,20 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B5:B16"/>
+    <mergeCell ref="C5:C10"/>
+    <mergeCell ref="C11:C16"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
     <mergeCell ref="B18:B29"/>
     <mergeCell ref="C18:C23"/>
     <mergeCell ref="C24:C29"/>
     <mergeCell ref="B31:B42"/>
     <mergeCell ref="C31:C36"/>
     <mergeCell ref="C37:C42"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="B5:B16"/>
-    <mergeCell ref="C5:C10"/>
-    <mergeCell ref="C11:C16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4093,19 +4726,19 @@
   <dimension ref="B1:M31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="50" zoomScalePageLayoutView="40" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.42578125" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
     <col min="4" max="4" width="16.85546875" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" customWidth="1"/>
+    <col min="5" max="8" width="7.140625" customWidth="1"/>
+    <col min="9" max="9" width="6.85546875" customWidth="1"/>
+    <col min="10" max="10" width="7.42578125" customWidth="1"/>
+    <col min="11" max="11" width="7.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:13" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4131,51 +4764,51 @@
       <c r="B3"/>
       <c r="C3"/>
       <c r="D3"/>
-      <c r="E3" s="76" t="s">
+      <c r="E3" s="161" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="162"/>
+      <c r="G3" s="162"/>
+      <c r="H3" s="163"/>
+      <c r="I3" s="164" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="162"/>
+      <c r="K3" s="163"/>
+    </row>
+    <row r="4" spans="2:13" s="57" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="171" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="172"/>
+      <c r="D4" s="173"/>
+      <c r="E4" s="168" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="169"/>
+      <c r="G4" s="170" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="169"/>
+      <c r="I4" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" s="77"/>
-      <c r="K3" s="78"/>
-    </row>
-    <row r="4" spans="2:13" s="57" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="68" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="69"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="65" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="66"/>
-      <c r="G4" s="67" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="66"/>
-      <c r="I4" s="28" t="s">
+      <c r="J4" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="29" t="s">
+      <c r="K4" s="29" t="s">
         <v>23</v>
-      </c>
-      <c r="K4" s="29" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="5" spans="2:13" s="57" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="17" t="s">
         <v>12</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>13</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>6</v>
@@ -4200,132 +4833,160 @@
       </c>
     </row>
     <row r="6" spans="2:13" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="81" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="80" t="s">
+      <c r="B6" s="179" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="181" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="152"/>
-      <c r="F6" s="153"/>
-      <c r="G6" s="161"/>
-      <c r="H6" s="153"/>
-      <c r="I6" s="171"/>
-      <c r="J6" s="172"/>
-      <c r="K6" s="173"/>
+        <v>25</v>
+      </c>
+      <c r="E6" s="220">
+        <v>0.63100000000000001</v>
+      </c>
+      <c r="F6" s="212">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G6" s="110">
+        <v>0.216</v>
+      </c>
+      <c r="H6" s="221">
+        <v>0.45</v>
+      </c>
+      <c r="I6" s="228">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="J6" s="226">
+        <v>-0.39500000000000002</v>
+      </c>
+      <c r="K6" s="222">
+        <v>-5.1700000000000003E-2</v>
+      </c>
     </row>
     <row r="7" spans="2:13" s="57" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="82"/>
-      <c r="C7" s="83"/>
+      <c r="B7" s="180"/>
+      <c r="C7" s="182"/>
       <c r="D7" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="162"/>
-      <c r="F7" s="163"/>
-      <c r="G7" s="164"/>
-      <c r="H7" s="163"/>
-      <c r="I7" s="165"/>
-      <c r="J7" s="166"/>
-      <c r="K7" s="167"/>
+        <v>27</v>
+      </c>
+      <c r="E7" s="140">
+        <v>0.63500000000000001</v>
+      </c>
+      <c r="F7" s="227">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G7" s="211">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="H7" s="227">
+        <v>0.45</v>
+      </c>
+      <c r="I7" s="225">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="J7" s="229">
+        <v>-6.9099999999999995E-2</v>
+      </c>
+      <c r="K7" s="236">
+        <v>-0.115</v>
+      </c>
     </row>
     <row r="8" spans="2:13" s="57" customFormat="1" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="174"/>
-      <c r="C8" s="175"/>
-      <c r="D8" s="176"/>
-      <c r="E8" s="177"/>
-      <c r="F8" s="178"/>
-      <c r="G8" s="179"/>
-      <c r="H8" s="178"/>
-      <c r="I8" s="180"/>
-      <c r="J8" s="181"/>
-      <c r="K8" s="182"/>
+      <c r="B8" s="152"/>
+      <c r="C8" s="153"/>
+      <c r="D8" s="154"/>
+      <c r="E8" s="155"/>
+      <c r="F8" s="156"/>
+      <c r="G8" s="157"/>
+      <c r="H8" s="156"/>
+      <c r="I8" s="158"/>
+      <c r="J8" s="159"/>
+      <c r="K8" s="160"/>
     </row>
     <row r="9" spans="2:13" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="81" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="80" t="s">
+      <c r="B9" s="179" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="181" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="152"/>
-      <c r="F9" s="153"/>
-      <c r="G9" s="161"/>
-      <c r="H9" s="153"/>
-      <c r="I9" s="171"/>
-      <c r="J9" s="172"/>
-      <c r="K9" s="173"/>
+        <v>25</v>
+      </c>
+      <c r="E9" s="130"/>
+      <c r="F9" s="131"/>
+      <c r="G9" s="139"/>
+      <c r="H9" s="131"/>
+      <c r="I9" s="149"/>
+      <c r="J9" s="150"/>
+      <c r="K9" s="151"/>
       <c r="L9" s="61"/>
       <c r="M9"/>
     </row>
     <row r="10" spans="2:13" s="57" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="82"/>
-      <c r="C10" s="83"/>
+      <c r="B10" s="180"/>
+      <c r="C10" s="182"/>
       <c r="D10" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="162"/>
-      <c r="F10" s="163"/>
-      <c r="G10" s="164"/>
-      <c r="H10" s="163"/>
-      <c r="I10" s="165"/>
-      <c r="J10" s="166"/>
-      <c r="K10" s="167"/>
+        <v>27</v>
+      </c>
+      <c r="E10" s="140"/>
+      <c r="F10" s="141"/>
+      <c r="G10" s="142"/>
+      <c r="H10" s="141"/>
+      <c r="I10" s="143"/>
+      <c r="J10" s="144"/>
+      <c r="K10" s="145"/>
       <c r="L10" s="61"/>
       <c r="M10"/>
     </row>
     <row r="11" spans="2:13" s="57" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="174"/>
-      <c r="C11" s="175"/>
-      <c r="D11" s="176"/>
-      <c r="E11" s="177"/>
-      <c r="F11" s="178"/>
-      <c r="G11" s="179"/>
-      <c r="H11" s="178"/>
-      <c r="I11" s="180"/>
-      <c r="J11" s="181"/>
-      <c r="K11" s="182"/>
+      <c r="B11" s="152"/>
+      <c r="C11" s="153"/>
+      <c r="D11" s="154"/>
+      <c r="E11" s="155"/>
+      <c r="F11" s="156"/>
+      <c r="G11" s="157"/>
+      <c r="H11" s="156"/>
+      <c r="I11" s="158"/>
+      <c r="J11" s="159"/>
+      <c r="K11" s="160"/>
       <c r="L11" s="61"/>
       <c r="M11"/>
     </row>
     <row r="12" spans="2:13" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="81" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="80" t="s">
+      <c r="B12" s="179" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="181" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="152"/>
-      <c r="F12" s="153"/>
-      <c r="G12" s="161"/>
-      <c r="H12" s="153"/>
-      <c r="I12" s="168"/>
-      <c r="J12" s="169"/>
-      <c r="K12" s="170"/>
+        <v>25</v>
+      </c>
+      <c r="E12" s="130"/>
+      <c r="F12" s="131"/>
+      <c r="G12" s="139"/>
+      <c r="H12" s="131"/>
+      <c r="I12" s="146"/>
+      <c r="J12" s="147"/>
+      <c r="K12" s="148"/>
       <c r="L12"/>
       <c r="M12"/>
     </row>
     <row r="13" spans="2:13" s="57" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="82"/>
-      <c r="C13" s="83"/>
+      <c r="B13" s="180"/>
+      <c r="C13" s="182"/>
       <c r="D13" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="162"/>
-      <c r="F13" s="163"/>
-      <c r="G13" s="164"/>
-      <c r="H13" s="163"/>
-      <c r="I13" s="165"/>
-      <c r="J13" s="166"/>
-      <c r="K13" s="167"/>
+        <v>27</v>
+      </c>
+      <c r="E13" s="140"/>
+      <c r="F13" s="141"/>
+      <c r="G13" s="142"/>
+      <c r="H13" s="141"/>
+      <c r="I13" s="143"/>
+      <c r="J13" s="144"/>
+      <c r="K13" s="145"/>
       <c r="L13"/>
       <c r="M13"/>
     </row>
@@ -4356,45 +5017,59 @@
       <c r="G16" s="56"/>
       <c r="H16" s="56"/>
     </row>
-    <row r="17" spans="2:9" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="60"/>
-      <c r="C17" s="60"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="56"/>
-      <c r="H17" s="56"/>
-    </row>
-    <row r="18" spans="2:9" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="223"/>
+      <c r="D17" s="224"/>
+      <c r="E17" s="202"/>
+      <c r="F17" s="202"/>
+      <c r="G17" s="202"/>
+      <c r="H17" s="202"/>
+      <c r="I17" s="203"/>
+      <c r="J17" s="203"/>
+      <c r="K17" s="203"/>
+      <c r="L17" s="203"/>
+    </row>
+    <row r="18" spans="2:12" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="60"/>
-      <c r="C18" s="60"/>
-      <c r="D18" s="53"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="58"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="59"/>
-    </row>
-    <row r="19" spans="2:9" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="223"/>
+      <c r="D18" s="224"/>
+      <c r="E18" s="201"/>
+      <c r="F18" s="202"/>
+      <c r="G18" s="201"/>
+      <c r="H18" s="202"/>
+      <c r="I18" s="204"/>
+      <c r="J18" s="203"/>
+      <c r="K18" s="203"/>
+      <c r="L18" s="203"/>
+    </row>
+    <row r="19" spans="2:12" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="60"/>
-      <c r="C19" s="60"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="54"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="56"/>
-    </row>
-    <row r="20" spans="2:9" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="223"/>
+      <c r="D19" s="200"/>
+      <c r="E19" s="200"/>
+      <c r="F19" s="201"/>
+      <c r="G19" s="202"/>
+      <c r="H19" s="202"/>
+      <c r="I19" s="201"/>
+      <c r="J19" s="201"/>
+      <c r="K19" s="201"/>
+      <c r="L19" s="203"/>
+    </row>
+    <row r="20" spans="2:12" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="60"/>
-      <c r="C20" s="60"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="58"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="59"/>
-    </row>
-    <row r="21" spans="2:9" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="223"/>
+      <c r="D20" s="224"/>
+      <c r="E20" s="200"/>
+      <c r="F20" s="200"/>
+      <c r="G20" s="201"/>
+      <c r="H20" s="202"/>
+      <c r="I20" s="204"/>
+      <c r="J20" s="203"/>
+      <c r="K20" s="203"/>
+      <c r="L20" s="203"/>
+    </row>
+    <row r="21" spans="2:12" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="60"/>
       <c r="C21" s="60"/>
       <c r="D21" s="53"/>
@@ -4403,7 +5078,7 @@
       <c r="G21" s="58"/>
       <c r="H21" s="56"/>
     </row>
-    <row r="22" spans="2:9" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="60"/>
       <c r="C22" s="60"/>
       <c r="D22" s="53"/>
@@ -4412,7 +5087,7 @@
       <c r="G22" s="56"/>
       <c r="H22" s="56"/>
     </row>
-    <row r="23" spans="2:9" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="60"/>
       <c r="C23" s="60"/>
       <c r="D23" s="53"/>
@@ -4421,7 +5096,7 @@
       <c r="G23" s="56"/>
       <c r="H23" s="56"/>
     </row>
-    <row r="24" spans="2:9" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="60"/>
       <c r="C24" s="60"/>
       <c r="D24" s="53"/>
@@ -4430,7 +5105,7 @@
       <c r="G24" s="58"/>
       <c r="H24" s="56"/>
     </row>
-    <row r="25" spans="2:9" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="60"/>
       <c r="C25" s="60"/>
       <c r="D25" s="53"/>
@@ -4439,7 +5114,7 @@
       <c r="G25" s="58"/>
       <c r="H25" s="56"/>
     </row>
-    <row r="26" spans="2:9" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:12" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="60"/>
       <c r="C26" s="60"/>
       <c r="D26" s="53"/>
@@ -4448,7 +5123,7 @@
       <c r="G26" s="58"/>
       <c r="H26" s="58"/>
     </row>
-    <row r="27" spans="2:9" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:12" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="60"/>
       <c r="C27" s="60"/>
       <c r="D27" s="53"/>
@@ -4457,23 +5132,23 @@
       <c r="G27" s="58"/>
       <c r="H27" s="56"/>
     </row>
-    <row r="28" spans="2:9" s="57" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="2:9" s="57" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="2:9" s="57" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="2:9" s="57" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="2:12" s="57" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="2:12" s="57" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="2:12" s="57" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="2:12" s="57" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="E3:H3"/>
     <mergeCell ref="I3:K3"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:C7"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="E3:H3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4481,6 +5156,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A69AE6C51AEE6142AD84D9FB7E253133" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="688ae3312de6a1cdf808e1735a79ca91">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="756e89ea-a5fb-4d06-a9be-9b8635efcbbf" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7ae5de413dc6742d84d7e8ba9b183640" ns3:_="">
     <xsd:import namespace="756e89ea-a5fb-4d06-a9be-9b8635efcbbf"/>
@@ -4656,12 +5337,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -4672,6 +5347,22 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A6A8E2B-A170-438C-86CD-560003D30CAB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="756e89ea-a5fb-4d06-a9be-9b8635efcbbf"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F55020E-069C-4126-815D-85E5FA260EED}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4689,22 +5380,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A6A8E2B-A170-438C-86CD-560003D30CAB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="756e89ea-a5fb-4d06-a9be-9b8635efcbbf"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06DA2F1B-717B-4D32-8536-28EBD29FAA3A}">
   <ds:schemaRefs>

--- a/tables.xlsx
+++ b/tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdolden\Desktop\Ch3_floweringrush\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A2D69D2-526E-413A-9C15-A3AA17571CCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79E46291-7A98-483B-96EE-4F2873610950}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25320" yWindow="300" windowWidth="25440" windowHeight="15390" activeTab="3" xr2:uid="{94130567-C790-4197-BF09-72317C0E58C5}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="32">
   <si>
     <t>High state</t>
   </si>
@@ -244,6 +244,12 @@
     <t>High invasion
 (binned)</t>
   </si>
+  <si>
+    <t>(0.5, 0.75) A + C*</t>
+  </si>
+  <si>
+    <t>C* = assumes perfect citizen science detection</t>
+  </si>
 </sst>
 </file>
 
@@ -331,7 +337,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -362,8 +368,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="73">
+  <borders count="76">
     <border>
       <left/>
       <right/>
@@ -1245,40 +1257,73 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
+      <top/>
+      <bottom style="double">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1287,7 +1332,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="237">
+  <cellXfs count="277">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1719,6 +1764,103 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="66" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1759,7 +1901,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1770,6 +1912,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1785,161 +1930,175 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2285,7 +2444,7 @@
   <dimension ref="B1:N74"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="50" zoomScalePageLayoutView="40" workbookViewId="0">
-      <selection activeCell="T14" sqref="T14"/>
+      <selection activeCell="E14" sqref="E14:L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2308,33 +2467,33 @@
       <c r="I1"/>
     </row>
     <row r="2" spans="2:14" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E2" s="161" t="s">
+      <c r="E2" s="194" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="162"/>
-      <c r="G2" s="162"/>
-      <c r="H2" s="163"/>
+      <c r="F2" s="195"/>
+      <c r="G2" s="195"/>
+      <c r="H2" s="196"/>
       <c r="I2" s="33"/>
-      <c r="J2" s="164" t="s">
+      <c r="J2" s="197" t="s">
         <v>28</v>
       </c>
-      <c r="K2" s="162"/>
-      <c r="L2" s="163"/>
+      <c r="K2" s="195"/>
+      <c r="L2" s="196"/>
     </row>
     <row r="3" spans="2:14" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="171" t="s">
+      <c r="B3" s="204" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="172"/>
-      <c r="D3" s="173"/>
-      <c r="E3" s="168" t="s">
+      <c r="C3" s="205"/>
+      <c r="D3" s="206"/>
+      <c r="E3" s="201" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="169"/>
-      <c r="G3" s="170" t="s">
+      <c r="F3" s="202"/>
+      <c r="G3" s="203" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="169"/>
+      <c r="H3" s="202"/>
       <c r="I3" s="34"/>
       <c r="J3" s="28" t="s">
         <v>21</v>
@@ -2382,10 +2541,10 @@
       <c r="M4" s="1"/>
     </row>
     <row r="5" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="165" t="s">
+      <c r="B5" s="198" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="233" t="s">
+      <c r="C5" s="207" t="s">
         <v>29</v>
       </c>
       <c r="D5" s="13" t="s">
@@ -2416,8 +2575,8 @@
       <c r="M5" s="3"/>
     </row>
     <row r="6" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="166"/>
-      <c r="C6" s="175"/>
+      <c r="B6" s="199"/>
+      <c r="C6" s="208"/>
       <c r="D6" s="12" t="s">
         <v>9</v>
       </c>
@@ -2434,7 +2593,7 @@
         <v>0.5</v>
       </c>
       <c r="I6" s="37"/>
-      <c r="J6" s="196">
+      <c r="J6" s="176">
         <v>0.23200000000000001</v>
       </c>
       <c r="K6" s="96">
@@ -2446,8 +2605,8 @@
       <c r="M6" s="3"/>
     </row>
     <row r="7" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="166"/>
-      <c r="C7" s="175"/>
+      <c r="B7" s="199"/>
+      <c r="C7" s="208"/>
       <c r="D7" s="13" t="s">
         <v>2</v>
       </c>
@@ -2476,8 +2635,8 @@
       <c r="M7" s="3"/>
     </row>
     <row r="8" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="166"/>
-      <c r="C8" s="175"/>
+      <c r="B8" s="199"/>
+      <c r="C8" s="208"/>
       <c r="D8" s="12" t="s">
         <v>3</v>
       </c>
@@ -2506,18 +2665,18 @@
       <c r="M8" s="3"/>
     </row>
     <row r="9" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="166"/>
-      <c r="C9" s="175"/>
+      <c r="B9" s="199"/>
+      <c r="C9" s="208"/>
       <c r="D9" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="190">
+      <c r="E9" s="170">
         <v>0.78200000000000003</v>
       </c>
-      <c r="F9" s="189">
+      <c r="F9" s="169">
         <v>1.38</v>
       </c>
-      <c r="G9" s="188">
+      <c r="G9" s="168">
         <v>0.25700000000000001</v>
       </c>
       <c r="H9" s="126">
@@ -2537,8 +2696,8 @@
       <c r="N9" s="15"/>
     </row>
     <row r="10" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="166"/>
-      <c r="C10" s="176"/>
+      <c r="B10" s="199"/>
+      <c r="C10" s="209"/>
       <c r="D10" s="14" t="s">
         <v>5</v>
       </c>
@@ -2567,8 +2726,8 @@
       <c r="M10" s="3"/>
     </row>
     <row r="11" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="166"/>
-      <c r="C11" s="177" t="s">
+      <c r="B11" s="199"/>
+      <c r="C11" s="210" t="s">
         <v>1</v>
       </c>
       <c r="D11" s="13" t="s">
@@ -2600,21 +2759,21 @@
       <c r="N11" s="15"/>
     </row>
     <row r="12" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="166"/>
-      <c r="C12" s="175"/>
+      <c r="B12" s="199"/>
+      <c r="C12" s="208"/>
       <c r="D12" s="12" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="70">
         <v>0.63600000000000001</v>
       </c>
-      <c r="F12" s="184">
+      <c r="F12" s="164">
         <v>1.1000000000000001</v>
       </c>
       <c r="G12" s="106">
         <v>0.218</v>
       </c>
-      <c r="H12" s="186">
+      <c r="H12" s="166">
         <v>0.47499999999999998</v>
       </c>
       <c r="I12" s="37"/>
@@ -2624,15 +2783,15 @@
       <c r="K12" s="96">
         <v>-0.65600000000000003</v>
       </c>
-      <c r="L12" s="198">
+      <c r="L12" s="178">
         <v>-8.5300000000000001E-2</v>
       </c>
       <c r="M12" s="5"/>
       <c r="N12" s="15"/>
     </row>
     <row r="13" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="166"/>
-      <c r="C13" s="175"/>
+      <c r="B13" s="199"/>
+      <c r="C13" s="208"/>
       <c r="D13" s="13" t="s">
         <v>2</v>
       </c>
@@ -2662,28 +2821,28 @@
       <c r="N13" s="15"/>
     </row>
     <row r="14" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="166"/>
-      <c r="C14" s="175"/>
+      <c r="B14" s="199"/>
+      <c r="C14" s="208"/>
       <c r="D14" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="183">
+      <c r="E14" s="163">
         <v>0.61799999999999999</v>
       </c>
       <c r="F14" s="85">
         <v>1.1200000000000001</v>
       </c>
-      <c r="G14" s="185">
+      <c r="G14" s="165">
         <v>0.21099999999999999</v>
       </c>
-      <c r="H14" s="187">
+      <c r="H14" s="167">
         <v>0.47499999999999998</v>
       </c>
       <c r="I14" s="40"/>
       <c r="J14" s="97">
         <v>0.16700000000000001</v>
       </c>
-      <c r="K14" s="197">
+      <c r="K14" s="177">
         <v>-0.89800000000000002</v>
       </c>
       <c r="L14" s="102">
@@ -2693,8 +2852,8 @@
       <c r="N14" s="15"/>
     </row>
     <row r="15" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="166"/>
-      <c r="C15" s="175"/>
+      <c r="B15" s="199"/>
+      <c r="C15" s="208"/>
       <c r="D15" s="12" t="s">
         <v>4</v>
       </c>
@@ -2704,27 +2863,27 @@
       <c r="F15" s="69">
         <v>1.27</v>
       </c>
-      <c r="G15" s="188">
+      <c r="G15" s="168">
         <v>0.25700000000000001</v>
       </c>
-      <c r="H15" s="191">
+      <c r="H15" s="171">
         <v>0.57499999999999996</v>
       </c>
       <c r="I15" s="40"/>
-      <c r="J15" s="192">
+      <c r="J15" s="172">
         <v>0.13</v>
       </c>
       <c r="K15" s="97">
         <v>0.14399999999999999</v>
       </c>
-      <c r="L15" s="194">
+      <c r="L15" s="174">
         <v>-6.2899999999999998E-2</v>
       </c>
       <c r="M15" s="3"/>
     </row>
     <row r="16" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="166"/>
-      <c r="C16" s="176"/>
+      <c r="B16" s="199"/>
+      <c r="C16" s="209"/>
       <c r="D16" s="14" t="s">
         <v>5</v>
       </c>
@@ -2744,10 +2903,10 @@
       <c r="J16" s="103">
         <v>0.13500000000000001</v>
       </c>
-      <c r="K16" s="193">
+      <c r="K16" s="173">
         <v>1.7299999999999999E-2</v>
       </c>
-      <c r="L16" s="195">
+      <c r="L16" s="175">
         <v>-6.25E-2</v>
       </c>
       <c r="M16" s="3"/>
@@ -2766,10 +2925,10 @@
       <c r="L17" s="24"/>
     </row>
     <row r="18" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="165" t="s">
+      <c r="B18" s="198" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="174" t="s">
+      <c r="C18" s="211" t="s">
         <v>0</v>
       </c>
       <c r="D18" s="50" t="s">
@@ -2785,8 +2944,8 @@
       <c r="L18" s="95"/>
     </row>
     <row r="19" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="166"/>
-      <c r="C19" s="175"/>
+      <c r="B19" s="199"/>
+      <c r="C19" s="208"/>
       <c r="D19" s="49" t="s">
         <v>9</v>
       </c>
@@ -2800,8 +2959,8 @@
       <c r="L19" s="96"/>
     </row>
     <row r="20" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="166"/>
-      <c r="C20" s="175"/>
+      <c r="B20" s="199"/>
+      <c r="C20" s="208"/>
       <c r="D20" s="49" t="s">
         <v>2</v>
       </c>
@@ -2815,8 +2974,8 @@
       <c r="L20" s="97"/>
     </row>
     <row r="21" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="166"/>
-      <c r="C21" s="175"/>
+      <c r="B21" s="199"/>
+      <c r="C21" s="208"/>
       <c r="D21" s="13" t="s">
         <v>3</v>
       </c>
@@ -2830,8 +2989,8 @@
       <c r="L21" s="97"/>
     </row>
     <row r="22" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="166"/>
-      <c r="C22" s="175"/>
+      <c r="B22" s="199"/>
+      <c r="C22" s="208"/>
       <c r="D22" s="12" t="s">
         <v>4</v>
       </c>
@@ -2845,8 +3004,8 @@
       <c r="L22" s="97"/>
     </row>
     <row r="23" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="166"/>
-      <c r="C23" s="176"/>
+      <c r="B23" s="199"/>
+      <c r="C23" s="209"/>
       <c r="D23" s="14" t="s">
         <v>5</v>
       </c>
@@ -2860,8 +3019,8 @@
       <c r="L23" s="98"/>
     </row>
     <row r="24" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="166"/>
-      <c r="C24" s="177" t="s">
+      <c r="B24" s="199"/>
+      <c r="C24" s="210" t="s">
         <v>1</v>
       </c>
       <c r="D24" s="13" t="s">
@@ -2879,8 +3038,8 @@
       <c r="N24" s="15"/>
     </row>
     <row r="25" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="166"/>
-      <c r="C25" s="175"/>
+      <c r="B25" s="199"/>
+      <c r="C25" s="208"/>
       <c r="D25" s="12" t="s">
         <v>9</v>
       </c>
@@ -2894,8 +3053,8 @@
       <c r="L25" s="96"/>
     </row>
     <row r="26" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="166"/>
-      <c r="C26" s="175"/>
+      <c r="B26" s="199"/>
+      <c r="C26" s="208"/>
       <c r="D26" s="13" t="s">
         <v>2</v>
       </c>
@@ -2910,8 +3069,8 @@
       <c r="M26" s="15"/>
     </row>
     <row r="27" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="166"/>
-      <c r="C27" s="175"/>
+      <c r="B27" s="199"/>
+      <c r="C27" s="208"/>
       <c r="D27" s="12" t="s">
         <v>3</v>
       </c>
@@ -2926,8 +3085,8 @@
       <c r="N27" s="15"/>
     </row>
     <row r="28" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="166"/>
-      <c r="C28" s="175"/>
+      <c r="B28" s="199"/>
+      <c r="C28" s="208"/>
       <c r="D28" s="12" t="s">
         <v>4</v>
       </c>
@@ -2941,8 +3100,8 @@
       <c r="L28" s="97"/>
     </row>
     <row r="29" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="166"/>
-      <c r="C29" s="176"/>
+      <c r="B29" s="199"/>
+      <c r="C29" s="209"/>
       <c r="D29" s="14" t="s">
         <v>5</v>
       </c>
@@ -2969,10 +3128,10 @@
       <c r="L30" s="21"/>
     </row>
     <row r="31" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="165" t="s">
+      <c r="B31" s="198" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="174" t="s">
+      <c r="C31" s="211" t="s">
         <v>0</v>
       </c>
       <c r="D31" s="25" t="s">
@@ -2988,8 +3147,8 @@
       <c r="L31" s="123"/>
     </row>
     <row r="32" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="166"/>
-      <c r="C32" s="175"/>
+      <c r="B32" s="199"/>
+      <c r="C32" s="208"/>
       <c r="D32" s="7" t="s">
         <v>9</v>
       </c>
@@ -3003,8 +3162,8 @@
       <c r="L32" s="85"/>
     </row>
     <row r="33" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="166"/>
-      <c r="C33" s="175"/>
+      <c r="B33" s="199"/>
+      <c r="C33" s="208"/>
       <c r="D33" s="8" t="s">
         <v>2</v>
       </c>
@@ -3018,8 +3177,8 @@
       <c r="L33" s="124"/>
     </row>
     <row r="34" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="166"/>
-      <c r="C34" s="175"/>
+      <c r="B34" s="199"/>
+      <c r="C34" s="208"/>
       <c r="D34" s="7" t="s">
         <v>3</v>
       </c>
@@ -3033,8 +3192,8 @@
       <c r="L34" s="125"/>
     </row>
     <row r="35" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="166"/>
-      <c r="C35" s="175"/>
+      <c r="B35" s="199"/>
+      <c r="C35" s="208"/>
       <c r="D35" s="7" t="s">
         <v>4</v>
       </c>
@@ -3048,8 +3207,8 @@
       <c r="L35" s="125"/>
     </row>
     <row r="36" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="166"/>
-      <c r="C36" s="176"/>
+      <c r="B36" s="199"/>
+      <c r="C36" s="209"/>
       <c r="D36" s="9" t="s">
         <v>5</v>
       </c>
@@ -3063,8 +3222,8 @@
       <c r="L36" s="127"/>
     </row>
     <row r="37" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="166"/>
-      <c r="C37" s="177" t="s">
+      <c r="B37" s="199"/>
+      <c r="C37" s="210" t="s">
         <v>1</v>
       </c>
       <c r="D37" s="8" t="s">
@@ -3080,8 +3239,8 @@
       <c r="L37" s="81"/>
     </row>
     <row r="38" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="166"/>
-      <c r="C38" s="175"/>
+      <c r="B38" s="199"/>
+      <c r="C38" s="208"/>
       <c r="D38" s="7" t="s">
         <v>9</v>
       </c>
@@ -3095,8 +3254,8 @@
       <c r="L38" s="85"/>
     </row>
     <row r="39" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="166"/>
-      <c r="C39" s="175"/>
+      <c r="B39" s="199"/>
+      <c r="C39" s="208"/>
       <c r="D39" s="8" t="s">
         <v>2</v>
       </c>
@@ -3111,8 +3270,8 @@
       <c r="N39" s="15"/>
     </row>
     <row r="40" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="166"/>
-      <c r="C40" s="175"/>
+      <c r="B40" s="199"/>
+      <c r="C40" s="208"/>
       <c r="D40" s="7" t="s">
         <v>3</v>
       </c>
@@ -3126,8 +3285,8 @@
       <c r="L40" s="125"/>
     </row>
     <row r="41" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="166"/>
-      <c r="C41" s="175"/>
+      <c r="B41" s="199"/>
+      <c r="C41" s="208"/>
       <c r="D41" s="7" t="s">
         <v>4</v>
       </c>
@@ -3142,8 +3301,8 @@
       <c r="N41" s="15"/>
     </row>
     <row r="42" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="167"/>
-      <c r="C42" s="178"/>
+      <c r="B42" s="200"/>
+      <c r="C42" s="212"/>
       <c r="D42" s="22" t="s">
         <v>5</v>
       </c>
@@ -3276,10 +3435,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5764096-CBDC-48A7-984B-BFD813F170CD}">
-  <dimension ref="B1:N31"/>
+  <dimension ref="B1:V33"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="50" zoomScalePageLayoutView="40" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:C7"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3287,7 +3446,7 @@
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="9.140625" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
     <col min="5" max="5" width="6.42578125" customWidth="1"/>
     <col min="6" max="6" width="6.28515625" customWidth="1"/>
     <col min="7" max="7" width="6.85546875" customWidth="1"/>
@@ -3296,7 +3455,7 @@
     <col min="10" max="11" width="7.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:22" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="60"/>
       <c r="C1" s="60"/>
       <c r="D1" s="53"/>
@@ -3306,7 +3465,7 @@
       <c r="H1" s="56"/>
       <c r="I1" s="59"/>
     </row>
-    <row r="2" spans="2:13" s="57" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:22" s="57" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2"/>
       <c r="C2"/>
       <c r="D2"/>
@@ -3315,36 +3474,36 @@
       <c r="G2"/>
       <c r="H2"/>
     </row>
-    <row r="3" spans="2:13" s="57" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:22" s="57" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3"/>
       <c r="C3"/>
       <c r="D3"/>
-      <c r="E3" s="161" t="s">
+      <c r="E3" s="194" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="162"/>
-      <c r="G3" s="162"/>
-      <c r="H3" s="163"/>
-      <c r="I3" s="164" t="s">
+      <c r="F3" s="195"/>
+      <c r="G3" s="195"/>
+      <c r="H3" s="196"/>
+      <c r="I3" s="197" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="162"/>
-      <c r="K3" s="163"/>
-    </row>
-    <row r="4" spans="2:13" s="57" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="171" t="s">
+      <c r="J3" s="195"/>
+      <c r="K3" s="196"/>
+    </row>
+    <row r="4" spans="2:22" s="57" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="204" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="172"/>
-      <c r="D4" s="173"/>
-      <c r="E4" s="168" t="s">
+      <c r="C4" s="205"/>
+      <c r="D4" s="206"/>
+      <c r="E4" s="201" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="169"/>
-      <c r="G4" s="170" t="s">
+      <c r="F4" s="202"/>
+      <c r="G4" s="203" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="169"/>
+      <c r="H4" s="202"/>
       <c r="I4" s="28" t="s">
         <v>21</v>
       </c>
@@ -3355,334 +3514,416 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="2:13" s="57" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="235" t="s">
+    <row r="5" spans="2:22" s="57" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="193" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="234" t="s">
+      <c r="C5" s="192" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="220" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="221" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="31" t="s">
+      <c r="G5" s="222" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="31" t="s">
+      <c r="H5" s="222" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="I5" s="220" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J5" s="223" t="s">
         <v>6</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="223" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:13" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="179" t="s">
+    <row r="6" spans="2:22" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="219" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="181" t="s">
+      <c r="C6" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="225" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="132">
+      <c r="E6" s="226">
         <v>0.63800000000000001</v>
       </c>
-      <c r="F6" s="212">
+      <c r="F6" s="242">
         <v>1.18</v>
       </c>
-      <c r="G6" s="110">
+      <c r="G6" s="254">
         <v>0.217</v>
       </c>
-      <c r="H6" s="213">
+      <c r="H6" s="238">
         <v>0.5</v>
       </c>
-      <c r="I6" s="230">
+      <c r="I6" s="273">
         <v>0.16600000000000001</v>
       </c>
-      <c r="J6" s="108">
+      <c r="J6" s="255">
         <v>-0.58899999999999997</v>
       </c>
-      <c r="K6" s="232">
+      <c r="K6" s="256">
         <v>-7.0999999999999994E-2</v>
       </c>
     </row>
-    <row r="7" spans="2:13" s="57" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="180"/>
-      <c r="C7" s="182"/>
-      <c r="D7" s="52" t="s">
+    <row r="7" spans="2:22" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="213"/>
+      <c r="C7" s="218"/>
+      <c r="D7" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="210">
+      <c r="E7" s="224">
         <v>0.63600000000000001</v>
       </c>
-      <c r="F7" s="141">
+      <c r="F7" s="239">
         <v>1.3</v>
       </c>
-      <c r="G7" s="211">
+      <c r="G7" s="224">
         <v>0.21299999999999999</v>
       </c>
-      <c r="H7" s="214">
+      <c r="H7" s="239">
         <v>0.5</v>
       </c>
-      <c r="I7" s="208">
+      <c r="I7" s="257">
         <v>0.216</v>
       </c>
-      <c r="J7" s="231">
+      <c r="J7" s="274">
         <v>1.4E-2</v>
       </c>
-      <c r="K7" s="209">
+      <c r="K7" s="258">
         <v>-0.12</v>
       </c>
     </row>
-    <row r="8" spans="2:13" s="57" customFormat="1" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="152"/>
-      <c r="C8" s="153"/>
-      <c r="D8" s="154"/>
-      <c r="E8" s="155"/>
-      <c r="F8" s="156"/>
-      <c r="G8" s="157"/>
-      <c r="H8" s="206"/>
-      <c r="I8" s="158"/>
-      <c r="J8" s="159"/>
-      <c r="K8" s="160"/>
-    </row>
-    <row r="9" spans="2:13" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="179" t="s">
+    <row r="8" spans="2:22" s="57" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="213"/>
+      <c r="C8" s="231"/>
+      <c r="D8" s="232" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="233">
+        <v>0.65200000000000002</v>
+      </c>
+      <c r="F8" s="261">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="G8" s="233">
+        <v>0.22</v>
+      </c>
+      <c r="H8" s="240">
+        <v>0.5</v>
+      </c>
+      <c r="I8" s="247">
+        <v>0.217</v>
+      </c>
+      <c r="J8" s="247">
+        <v>-0.219</v>
+      </c>
+      <c r="K8" s="253">
+        <v>-0.16</v>
+      </c>
+      <c r="L8" s="230" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="2:22" s="57" customFormat="1" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="161"/>
+      <c r="C9" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="225" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="259">
+        <v>0.61799999999999999</v>
+      </c>
+      <c r="F9" s="262">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="G9" s="260">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="H9" s="263">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="I9" s="248">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="J9" s="252">
+        <v>-0.89800000000000002</v>
+      </c>
+      <c r="K9" s="275">
+        <v>-6.6000000000000003E-2</v>
+      </c>
+      <c r="L9" s="230"/>
+      <c r="M9" s="234"/>
+      <c r="N9" s="234"/>
+      <c r="O9" s="234"/>
+      <c r="P9" s="234"/>
+      <c r="Q9" s="234"/>
+      <c r="R9" s="234"/>
+      <c r="S9" s="234"/>
+      <c r="T9" s="234"/>
+      <c r="U9" s="234"/>
+      <c r="V9" s="234"/>
+    </row>
+    <row r="10" spans="2:22" s="57" customFormat="1" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="152"/>
+      <c r="C10" s="153"/>
+      <c r="D10" s="154"/>
+      <c r="E10" s="155"/>
+      <c r="F10" s="156"/>
+      <c r="G10" s="157"/>
+      <c r="H10" s="182"/>
+      <c r="I10" s="158"/>
+      <c r="J10" s="159"/>
+      <c r="K10" s="160"/>
+      <c r="M10" s="234"/>
+      <c r="N10" s="234"/>
+      <c r="O10" s="234"/>
+      <c r="P10" s="234"/>
+      <c r="Q10" s="234"/>
+      <c r="R10" s="234"/>
+      <c r="S10" s="234"/>
+      <c r="T10" s="234"/>
+      <c r="U10" s="234"/>
+      <c r="V10" s="234"/>
+    </row>
+    <row r="11" spans="2:22" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="213" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="181" t="s">
+      <c r="C11" s="215" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D11" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="130"/>
-      <c r="F9" s="131"/>
-      <c r="G9" s="139"/>
-      <c r="H9" s="207"/>
-      <c r="I9" s="149"/>
-      <c r="J9" s="150"/>
-      <c r="K9" s="151"/>
-      <c r="L9" s="61"/>
-      <c r="M9"/>
-    </row>
-    <row r="10" spans="2:13" s="57" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="180"/>
-      <c r="C10" s="182"/>
-      <c r="D10" s="52" t="s">
+      <c r="E11" s="130"/>
+      <c r="F11" s="131"/>
+      <c r="G11" s="139"/>
+      <c r="H11" s="183"/>
+      <c r="I11" s="149"/>
+      <c r="J11" s="150"/>
+      <c r="K11" s="151"/>
+      <c r="L11" s="61"/>
+      <c r="M11" s="234"/>
+      <c r="N11" s="235"/>
+      <c r="O11" s="235"/>
+      <c r="P11" s="236"/>
+      <c r="Q11" s="237"/>
+      <c r="R11" s="237"/>
+      <c r="S11" s="236"/>
+      <c r="T11" s="236"/>
+      <c r="U11" s="237"/>
+      <c r="V11" s="234"/>
+    </row>
+    <row r="12" spans="2:22" s="57" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="214"/>
+      <c r="C12" s="216"/>
+      <c r="D12" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="140"/>
-      <c r="F10" s="141"/>
-      <c r="G10" s="142"/>
-      <c r="H10" s="205"/>
-      <c r="I10" s="143"/>
-      <c r="J10" s="144"/>
-      <c r="K10" s="145"/>
-      <c r="L10" s="61"/>
-      <c r="M10"/>
-    </row>
-    <row r="11" spans="2:13" s="57" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="152"/>
-      <c r="C11" s="153"/>
-      <c r="D11" s="154"/>
-      <c r="E11" s="155"/>
-      <c r="F11" s="156"/>
-      <c r="G11" s="157"/>
-      <c r="H11" s="206"/>
-      <c r="I11" s="158"/>
-      <c r="J11" s="159"/>
-      <c r="K11" s="160"/>
-      <c r="L11" s="61"/>
-      <c r="M11"/>
-    </row>
-    <row r="12" spans="2:13" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="179" t="s">
+      <c r="E12" s="140"/>
+      <c r="F12" s="141"/>
+      <c r="G12" s="142"/>
+      <c r="H12" s="181"/>
+      <c r="I12" s="143"/>
+      <c r="J12" s="144"/>
+      <c r="K12" s="145"/>
+      <c r="L12" s="61"/>
+      <c r="M12" s="234"/>
+      <c r="N12" s="234"/>
+      <c r="O12" s="234"/>
+      <c r="P12" s="234"/>
+      <c r="Q12" s="234"/>
+      <c r="R12" s="234"/>
+      <c r="S12" s="234"/>
+      <c r="T12" s="234"/>
+      <c r="U12" s="234"/>
+      <c r="V12" s="234"/>
+    </row>
+    <row r="13" spans="2:22" s="57" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="152"/>
+      <c r="C13" s="153"/>
+      <c r="D13" s="154"/>
+      <c r="E13" s="155"/>
+      <c r="F13" s="156"/>
+      <c r="G13" s="157"/>
+      <c r="H13" s="182"/>
+      <c r="I13" s="158"/>
+      <c r="J13" s="159"/>
+      <c r="K13" s="160"/>
+      <c r="L13" s="61"/>
+      <c r="M13"/>
+    </row>
+    <row r="14" spans="2:22" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="213" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="181" t="s">
+      <c r="C14" s="215" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D14" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="130"/>
-      <c r="F12" s="131"/>
-      <c r="G12" s="139"/>
-      <c r="H12" s="207"/>
-      <c r="I12" s="146"/>
-      <c r="J12" s="147"/>
-      <c r="K12" s="148"/>
-      <c r="L12"/>
-      <c r="M12"/>
-    </row>
-    <row r="13" spans="2:13" s="57" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="180"/>
-      <c r="C13" s="182"/>
-      <c r="D13" s="52" t="s">
+      <c r="E14" s="130"/>
+      <c r="F14" s="131"/>
+      <c r="G14" s="139"/>
+      <c r="H14" s="183"/>
+      <c r="I14" s="146"/>
+      <c r="J14" s="147"/>
+      <c r="K14" s="148"/>
+      <c r="L14"/>
+      <c r="M14"/>
+    </row>
+    <row r="15" spans="2:22" s="57" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="214"/>
+      <c r="C15" s="216"/>
+      <c r="D15" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="140"/>
-      <c r="F13" s="141"/>
-      <c r="G13" s="142"/>
-      <c r="H13" s="205"/>
-      <c r="I13" s="143"/>
-      <c r="J13" s="144"/>
-      <c r="K13" s="145"/>
-      <c r="L13"/>
-      <c r="M13"/>
-    </row>
-    <row r="14" spans="2:13" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="60"/>
-      <c r="C14" s="60"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="58"/>
-      <c r="H14" s="58"/>
-    </row>
-    <row r="15" spans="2:13" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="60"/>
-      <c r="C15" s="60"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="58"/>
-      <c r="H15" s="56"/>
-    </row>
-    <row r="16" spans="2:13" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E15" s="140"/>
+      <c r="F15" s="141"/>
+      <c r="G15" s="142"/>
+      <c r="H15" s="181"/>
+      <c r="I15" s="143"/>
+      <c r="J15" s="144"/>
+      <c r="K15" s="145"/>
+      <c r="L15"/>
+      <c r="M15"/>
+    </row>
+    <row r="16" spans="2:22" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="60"/>
       <c r="C16" s="60"/>
       <c r="D16" s="53"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="58"/>
     </row>
     <row r="17" spans="2:14" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="60"/>
       <c r="C17" s="60"/>
       <c r="D17" s="53"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="56"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="58"/>
       <c r="H17" s="56"/>
     </row>
     <row r="18" spans="2:14" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="60"/>
       <c r="C18" s="60"/>
       <c r="D18" s="53"/>
-      <c r="E18" s="58"/>
+      <c r="E18" s="56"/>
       <c r="F18" s="56"/>
-      <c r="G18" s="58"/>
+      <c r="G18" s="56"/>
       <c r="H18" s="56"/>
-      <c r="I18" s="59"/>
     </row>
     <row r="19" spans="2:14" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="60"/>
       <c r="C19" s="60"/>
       <c r="D19" s="53"/>
-      <c r="E19" s="199"/>
-      <c r="F19" s="200"/>
-      <c r="G19" s="201"/>
-      <c r="H19" s="202"/>
-      <c r="I19" s="203"/>
-      <c r="J19" s="203"/>
-      <c r="K19" s="203"/>
-      <c r="L19" s="203"/>
-      <c r="M19" s="203"/>
-      <c r="N19" s="203"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="56"/>
+      <c r="H19" s="56"/>
     </row>
     <row r="20" spans="2:14" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="60"/>
       <c r="C20" s="60"/>
       <c r="D20" s="53"/>
-      <c r="E20" s="200"/>
-      <c r="F20" s="200"/>
-      <c r="G20" s="201"/>
-      <c r="H20" s="202"/>
-      <c r="I20" s="204"/>
-      <c r="J20" s="203"/>
-      <c r="K20" s="203"/>
-      <c r="L20" s="203"/>
-      <c r="M20" s="203"/>
-      <c r="N20" s="203"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="59"/>
     </row>
     <row r="21" spans="2:14" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="60"/>
       <c r="C21" s="60"/>
       <c r="D21" s="53"/>
-      <c r="E21" s="199"/>
-      <c r="F21" s="200"/>
-      <c r="G21" s="200"/>
-      <c r="H21" s="201"/>
-      <c r="I21" s="202"/>
-      <c r="J21" s="202"/>
-      <c r="K21" s="201"/>
-      <c r="L21" s="201"/>
-      <c r="M21" s="201"/>
-      <c r="N21" s="203"/>
+      <c r="E21" s="179"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="112"/>
+      <c r="H21" s="180"/>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
+      <c r="M21"/>
+      <c r="N21"/>
     </row>
     <row r="22" spans="2:14" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="60"/>
       <c r="C22" s="60"/>
       <c r="D22" s="53"/>
-      <c r="E22" s="199"/>
-      <c r="F22" s="200"/>
-      <c r="G22" s="202"/>
-      <c r="H22" s="202"/>
-      <c r="I22" s="203"/>
-      <c r="J22" s="203"/>
-      <c r="K22" s="203"/>
-      <c r="L22" s="203"/>
-      <c r="M22" s="203"/>
-      <c r="N22" s="203"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="112"/>
+      <c r="H22" s="180"/>
+      <c r="I22" s="15"/>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22"/>
+      <c r="M22"/>
+      <c r="N22"/>
     </row>
     <row r="23" spans="2:14" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="60"/>
       <c r="C23" s="60"/>
       <c r="D23" s="53"/>
-      <c r="E23" s="199"/>
-      <c r="F23" s="200"/>
-      <c r="G23" s="202"/>
-      <c r="H23" s="202"/>
-      <c r="I23" s="203"/>
-      <c r="J23" s="203"/>
-      <c r="K23" s="203"/>
-      <c r="L23" s="203"/>
-      <c r="M23" s="203"/>
-      <c r="N23" s="203"/>
+      <c r="E23" s="179"/>
+      <c r="F23" s="61"/>
+      <c r="G23" s="61"/>
+      <c r="H23" s="112"/>
+      <c r="I23" s="180"/>
+      <c r="J23" s="180"/>
+      <c r="K23" s="112"/>
+      <c r="L23" s="112"/>
+      <c r="M23" s="112"/>
+      <c r="N23"/>
     </row>
     <row r="24" spans="2:14" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="60"/>
       <c r="C24" s="60"/>
       <c r="D24" s="53"/>
-      <c r="E24" s="54"/>
-      <c r="F24" s="55"/>
-      <c r="G24" s="58"/>
-      <c r="H24" s="56"/>
+      <c r="E24" s="179"/>
+      <c r="F24" s="61"/>
+      <c r="G24" s="180"/>
+      <c r="H24" s="180"/>
+      <c r="I24"/>
+      <c r="J24"/>
+      <c r="K24"/>
+      <c r="L24"/>
+      <c r="M24"/>
+      <c r="N24"/>
     </row>
     <row r="25" spans="2:14" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="60"/>
       <c r="C25" s="60"/>
       <c r="D25" s="53"/>
-      <c r="E25" s="54"/>
-      <c r="F25" s="55"/>
-      <c r="G25" s="58"/>
-      <c r="H25" s="56"/>
+      <c r="E25" s="179"/>
+      <c r="F25" s="61"/>
+      <c r="G25" s="180"/>
+      <c r="H25" s="180"/>
+      <c r="I25"/>
+      <c r="J25"/>
+      <c r="K25"/>
+      <c r="L25"/>
+      <c r="M25"/>
+      <c r="N25"/>
     </row>
     <row r="26" spans="2:14" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="60"/>
@@ -3691,7 +3932,7 @@
       <c r="E26" s="54"/>
       <c r="F26" s="55"/>
       <c r="G26" s="58"/>
-      <c r="H26" s="58"/>
+      <c r="H26" s="56"/>
     </row>
     <row r="27" spans="2:14" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="60"/>
@@ -3702,23 +3943,41 @@
       <c r="G27" s="58"/>
       <c r="H27" s="56"/>
     </row>
-    <row r="28" spans="2:14" s="57" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="2:14" s="57" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="2:14" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="60"/>
+      <c r="C28" s="60"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="55"/>
+      <c r="G28" s="58"/>
+      <c r="H28" s="58"/>
+    </row>
+    <row r="29" spans="2:14" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="60"/>
+      <c r="C29" s="60"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="58"/>
+      <c r="H29" s="56"/>
+    </row>
     <row r="30" spans="2:14" s="57" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="31" spans="2:14" s="57" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="2:14" s="57" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="33" s="57" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
     <mergeCell ref="I3:K3"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="G4:H4"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="B6:B8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3730,7 +3989,7 @@
   <dimension ref="B1:N74"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="50" zoomScalePageLayoutView="40" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3754,33 +4013,33 @@
       <c r="I1"/>
     </row>
     <row r="2" spans="2:14" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E2" s="161" t="s">
+      <c r="E2" s="194" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="162"/>
-      <c r="G2" s="162"/>
-      <c r="H2" s="163"/>
+      <c r="F2" s="195"/>
+      <c r="G2" s="195"/>
+      <c r="H2" s="196"/>
       <c r="I2" s="33"/>
-      <c r="J2" s="164" t="s">
+      <c r="J2" s="197" t="s">
         <v>28</v>
       </c>
-      <c r="K2" s="162"/>
-      <c r="L2" s="163"/>
+      <c r="K2" s="195"/>
+      <c r="L2" s="196"/>
     </row>
     <row r="3" spans="2:14" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="171" t="s">
+      <c r="B3" s="204" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="172"/>
-      <c r="D3" s="173"/>
-      <c r="E3" s="168" t="s">
+      <c r="C3" s="205"/>
+      <c r="D3" s="206"/>
+      <c r="E3" s="201" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="169"/>
-      <c r="G3" s="170" t="s">
+      <c r="F3" s="202"/>
+      <c r="G3" s="203" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="169"/>
+      <c r="H3" s="202"/>
       <c r="I3" s="34"/>
       <c r="J3" s="28" t="s">
         <v>21</v>
@@ -3828,10 +4087,10 @@
       <c r="M4" s="1"/>
     </row>
     <row r="5" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="165" t="s">
+      <c r="B5" s="198" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="233" t="s">
+      <c r="C5" s="207" t="s">
         <v>29</v>
       </c>
       <c r="D5" s="13" t="s">
@@ -3862,8 +4121,8 @@
       <c r="M5" s="3"/>
     </row>
     <row r="6" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="166"/>
-      <c r="C6" s="175"/>
+      <c r="B6" s="199"/>
+      <c r="C6" s="208"/>
       <c r="D6" s="12" t="s">
         <v>9</v>
       </c>
@@ -3883,7 +4142,7 @@
       <c r="J6" s="96">
         <v>0.22800000000000001</v>
       </c>
-      <c r="K6" s="196">
+      <c r="K6" s="176">
         <v>-0.876</v>
       </c>
       <c r="L6" s="90">
@@ -3893,8 +4152,8 @@
       <c r="N6" s="15"/>
     </row>
     <row r="7" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="166"/>
-      <c r="C7" s="175"/>
+      <c r="B7" s="199"/>
+      <c r="C7" s="208"/>
       <c r="D7" s="13" t="s">
         <v>2</v>
       </c>
@@ -3924,8 +4183,8 @@
       <c r="N7" s="15"/>
     </row>
     <row r="8" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="166"/>
-      <c r="C8" s="175"/>
+      <c r="B8" s="199"/>
+      <c r="C8" s="208"/>
       <c r="D8" s="12" t="s">
         <v>3</v>
       </c>
@@ -3954,25 +4213,25 @@
       <c r="M8" s="3"/>
     </row>
     <row r="9" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="166"/>
-      <c r="C9" s="175"/>
+      <c r="B9" s="199"/>
+      <c r="C9" s="208"/>
       <c r="D9" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="190">
+      <c r="E9" s="170">
         <v>0.78400000000000003</v>
       </c>
-      <c r="F9" s="189">
+      <c r="F9" s="169">
         <v>1.42</v>
       </c>
-      <c r="G9" s="188">
+      <c r="G9" s="168">
         <v>0.26200000000000001</v>
       </c>
-      <c r="H9" s="219">
+      <c r="H9" s="188">
         <v>0.65</v>
       </c>
       <c r="I9" s="38"/>
-      <c r="J9" s="192">
+      <c r="J9" s="172">
         <v>0.13</v>
       </c>
       <c r="K9" s="97">
@@ -3984,21 +4243,21 @@
       <c r="M9" s="2"/>
     </row>
     <row r="10" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="166"/>
-      <c r="C10" s="176"/>
+      <c r="B10" s="199"/>
+      <c r="C10" s="209"/>
       <c r="D10" s="14" t="s">
         <v>5</v>
       </c>
       <c r="E10" s="133">
         <v>0.68500000000000005</v>
       </c>
-      <c r="F10" s="216">
+      <c r="F10" s="185">
         <v>1.02</v>
       </c>
       <c r="G10" s="113">
         <v>0.224</v>
       </c>
-      <c r="H10" s="217">
+      <c r="H10" s="186">
         <v>0.4</v>
       </c>
       <c r="I10" s="39"/>
@@ -4014,8 +4273,8 @@
       <c r="M10" s="3"/>
     </row>
     <row r="11" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="166"/>
-      <c r="C11" s="177" t="s">
+      <c r="B11" s="199"/>
+      <c r="C11" s="210" t="s">
         <v>1</v>
       </c>
       <c r="D11" s="13" t="s">
@@ -4034,7 +4293,7 @@
         <v>0.47499999999999998</v>
       </c>
       <c r="I11" s="36"/>
-      <c r="J11" s="218">
+      <c r="J11" s="187">
         <v>0.23100000000000001</v>
       </c>
       <c r="K11" s="100">
@@ -4047,8 +4306,8 @@
       <c r="N11" s="15"/>
     </row>
     <row r="12" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="166"/>
-      <c r="C12" s="175"/>
+      <c r="B12" s="199"/>
+      <c r="C12" s="208"/>
       <c r="D12" s="12" t="s">
         <v>9</v>
       </c>
@@ -4071,15 +4330,15 @@
       <c r="K12" s="96">
         <v>-0.82199999999999995</v>
       </c>
-      <c r="L12" s="198">
+      <c r="L12" s="178">
         <v>-6.7299999999999999E-2</v>
       </c>
-      <c r="M12" s="215"/>
+      <c r="M12" s="184"/>
       <c r="N12" s="15"/>
     </row>
     <row r="13" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="166"/>
-      <c r="C13" s="175"/>
+      <c r="B13" s="199"/>
+      <c r="C13" s="208"/>
       <c r="D13" s="13" t="s">
         <v>2</v>
       </c>
@@ -4109,18 +4368,18 @@
       <c r="N13" s="15"/>
     </row>
     <row r="14" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="166"/>
-      <c r="C14" s="175"/>
+      <c r="B14" s="199"/>
+      <c r="C14" s="208"/>
       <c r="D14" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="183">
+      <c r="E14" s="163">
         <v>0.61199999999999999</v>
       </c>
       <c r="F14" s="85">
         <v>1.1499999999999999</v>
       </c>
-      <c r="G14" s="185">
+      <c r="G14" s="165">
         <v>0.20699999999999999</v>
       </c>
       <c r="H14" s="109">
@@ -4140,8 +4399,8 @@
       <c r="N14" s="15"/>
     </row>
     <row r="15" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="166"/>
-      <c r="C15" s="175"/>
+      <c r="B15" s="199"/>
+      <c r="C15" s="208"/>
       <c r="D15" s="12" t="s">
         <v>4</v>
       </c>
@@ -4161,7 +4420,7 @@
       <c r="J15" s="97">
         <v>0.13900000000000001</v>
       </c>
-      <c r="K15" s="192">
+      <c r="K15" s="172">
         <v>-0.317</v>
       </c>
       <c r="L15" s="138">
@@ -4170,8 +4429,8 @@
       <c r="M15" s="3"/>
     </row>
     <row r="16" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="166"/>
-      <c r="C16" s="176"/>
+      <c r="B16" s="199"/>
+      <c r="C16" s="209"/>
       <c r="D16" s="14" t="s">
         <v>5</v>
       </c>
@@ -4194,7 +4453,7 @@
       <c r="K16" s="103">
         <v>-0.72299999999999998</v>
       </c>
-      <c r="L16" s="195">
+      <c r="L16" s="175">
         <v>-4.2000000000000003E-2</v>
       </c>
       <c r="M16" s="3"/>
@@ -4213,10 +4472,10 @@
       <c r="L17" s="24"/>
     </row>
     <row r="18" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="165" t="s">
+      <c r="B18" s="198" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="174" t="s">
+      <c r="C18" s="211" t="s">
         <v>0</v>
       </c>
       <c r="D18" s="50" t="s">
@@ -4232,8 +4491,8 @@
       <c r="L18" s="95"/>
     </row>
     <row r="19" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="166"/>
-      <c r="C19" s="175"/>
+      <c r="B19" s="199"/>
+      <c r="C19" s="208"/>
       <c r="D19" s="49" t="s">
         <v>9</v>
       </c>
@@ -4247,8 +4506,8 @@
       <c r="L19" s="96"/>
     </row>
     <row r="20" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="166"/>
-      <c r="C20" s="175"/>
+      <c r="B20" s="199"/>
+      <c r="C20" s="208"/>
       <c r="D20" s="49" t="s">
         <v>2</v>
       </c>
@@ -4262,8 +4521,8 @@
       <c r="L20" s="97"/>
     </row>
     <row r="21" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="166"/>
-      <c r="C21" s="175"/>
+      <c r="B21" s="199"/>
+      <c r="C21" s="208"/>
       <c r="D21" s="13" t="s">
         <v>3</v>
       </c>
@@ -4277,8 +4536,8 @@
       <c r="L21" s="97"/>
     </row>
     <row r="22" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="166"/>
-      <c r="C22" s="175"/>
+      <c r="B22" s="199"/>
+      <c r="C22" s="208"/>
       <c r="D22" s="12" t="s">
         <v>4</v>
       </c>
@@ -4292,8 +4551,8 @@
       <c r="L22" s="97"/>
     </row>
     <row r="23" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="166"/>
-      <c r="C23" s="176"/>
+      <c r="B23" s="199"/>
+      <c r="C23" s="209"/>
       <c r="D23" s="14" t="s">
         <v>5</v>
       </c>
@@ -4307,8 +4566,8 @@
       <c r="L23" s="98"/>
     </row>
     <row r="24" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="166"/>
-      <c r="C24" s="177" t="s">
+      <c r="B24" s="199"/>
+      <c r="C24" s="210" t="s">
         <v>1</v>
       </c>
       <c r="D24" s="13" t="s">
@@ -4326,8 +4585,8 @@
       <c r="N24" s="15"/>
     </row>
     <row r="25" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="166"/>
-      <c r="C25" s="175"/>
+      <c r="B25" s="199"/>
+      <c r="C25" s="208"/>
       <c r="D25" s="12" t="s">
         <v>9</v>
       </c>
@@ -4341,8 +4600,8 @@
       <c r="L25" s="96"/>
     </row>
     <row r="26" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="166"/>
-      <c r="C26" s="175"/>
+      <c r="B26" s="199"/>
+      <c r="C26" s="208"/>
       <c r="D26" s="13" t="s">
         <v>2</v>
       </c>
@@ -4357,8 +4616,8 @@
       <c r="M26" s="15"/>
     </row>
     <row r="27" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="166"/>
-      <c r="C27" s="175"/>
+      <c r="B27" s="199"/>
+      <c r="C27" s="208"/>
       <c r="D27" s="12" t="s">
         <v>3</v>
       </c>
@@ -4373,8 +4632,8 @@
       <c r="N27" s="15"/>
     </row>
     <row r="28" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="166"/>
-      <c r="C28" s="175"/>
+      <c r="B28" s="199"/>
+      <c r="C28" s="208"/>
       <c r="D28" s="12" t="s">
         <v>4</v>
       </c>
@@ -4388,8 +4647,8 @@
       <c r="L28" s="97"/>
     </row>
     <row r="29" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="166"/>
-      <c r="C29" s="176"/>
+      <c r="B29" s="199"/>
+      <c r="C29" s="209"/>
       <c r="D29" s="14" t="s">
         <v>5</v>
       </c>
@@ -4416,10 +4675,10 @@
       <c r="L30" s="21"/>
     </row>
     <row r="31" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="165" t="s">
+      <c r="B31" s="198" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="174" t="s">
+      <c r="C31" s="211" t="s">
         <v>0</v>
       </c>
       <c r="D31" s="25" t="s">
@@ -4435,8 +4694,8 @@
       <c r="L31" s="123"/>
     </row>
     <row r="32" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="166"/>
-      <c r="C32" s="175"/>
+      <c r="B32" s="199"/>
+      <c r="C32" s="208"/>
       <c r="D32" s="7" t="s">
         <v>9</v>
       </c>
@@ -4450,8 +4709,8 @@
       <c r="L32" s="85"/>
     </row>
     <row r="33" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="166"/>
-      <c r="C33" s="175"/>
+      <c r="B33" s="199"/>
+      <c r="C33" s="208"/>
       <c r="D33" s="8" t="s">
         <v>2</v>
       </c>
@@ -4465,8 +4724,8 @@
       <c r="L33" s="124"/>
     </row>
     <row r="34" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="166"/>
-      <c r="C34" s="175"/>
+      <c r="B34" s="199"/>
+      <c r="C34" s="208"/>
       <c r="D34" s="7" t="s">
         <v>3</v>
       </c>
@@ -4480,8 +4739,8 @@
       <c r="L34" s="125"/>
     </row>
     <row r="35" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="166"/>
-      <c r="C35" s="175"/>
+      <c r="B35" s="199"/>
+      <c r="C35" s="208"/>
       <c r="D35" s="7" t="s">
         <v>4</v>
       </c>
@@ -4495,8 +4754,8 @@
       <c r="L35" s="125"/>
     </row>
     <row r="36" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="166"/>
-      <c r="C36" s="176"/>
+      <c r="B36" s="199"/>
+      <c r="C36" s="209"/>
       <c r="D36" s="9" t="s">
         <v>5</v>
       </c>
@@ -4510,8 +4769,8 @@
       <c r="L36" s="127"/>
     </row>
     <row r="37" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="166"/>
-      <c r="C37" s="177" t="s">
+      <c r="B37" s="199"/>
+      <c r="C37" s="210" t="s">
         <v>1</v>
       </c>
       <c r="D37" s="8" t="s">
@@ -4527,8 +4786,8 @@
       <c r="L37" s="81"/>
     </row>
     <row r="38" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="166"/>
-      <c r="C38" s="175"/>
+      <c r="B38" s="199"/>
+      <c r="C38" s="208"/>
       <c r="D38" s="7" t="s">
         <v>9</v>
       </c>
@@ -4542,8 +4801,8 @@
       <c r="L38" s="85"/>
     </row>
     <row r="39" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="166"/>
-      <c r="C39" s="175"/>
+      <c r="B39" s="199"/>
+      <c r="C39" s="208"/>
       <c r="D39" s="8" t="s">
         <v>2</v>
       </c>
@@ -4558,8 +4817,8 @@
       <c r="N39" s="15"/>
     </row>
     <row r="40" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="166"/>
-      <c r="C40" s="175"/>
+      <c r="B40" s="199"/>
+      <c r="C40" s="208"/>
       <c r="D40" s="7" t="s">
         <v>3</v>
       </c>
@@ -4573,8 +4832,8 @@
       <c r="L40" s="125"/>
     </row>
     <row r="41" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="166"/>
-      <c r="C41" s="175"/>
+      <c r="B41" s="199"/>
+      <c r="C41" s="208"/>
       <c r="D41" s="7" t="s">
         <v>4</v>
       </c>
@@ -4589,8 +4848,8 @@
       <c r="N41" s="15"/>
     </row>
     <row r="42" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="167"/>
-      <c r="C42" s="178"/>
+      <c r="B42" s="200"/>
+      <c r="C42" s="212"/>
       <c r="D42" s="22" t="s">
         <v>5</v>
       </c>
@@ -4701,6 +4960,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B18:B29"/>
+    <mergeCell ref="C18:C23"/>
+    <mergeCell ref="C24:C29"/>
+    <mergeCell ref="B31:B42"/>
+    <mergeCell ref="C31:C36"/>
+    <mergeCell ref="C37:C42"/>
     <mergeCell ref="B5:B16"/>
     <mergeCell ref="C5:C10"/>
     <mergeCell ref="C11:C16"/>
@@ -4709,12 +4974,6 @@
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="G3:H3"/>
-    <mergeCell ref="B18:B29"/>
-    <mergeCell ref="C18:C23"/>
-    <mergeCell ref="C24:C29"/>
-    <mergeCell ref="B31:B42"/>
-    <mergeCell ref="C31:C36"/>
-    <mergeCell ref="C37:C42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4723,10 +4982,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19302950-C106-4780-AFCB-B595BCCB0D58}">
-  <dimension ref="B1:M31"/>
+  <dimension ref="B1:T33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="50" zoomScalePageLayoutView="40" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4734,14 +4993,14 @@
     <col min="1" max="1" width="8.42578125" customWidth="1"/>
     <col min="2" max="2" width="9.28515625" customWidth="1"/>
     <col min="3" max="3" width="13.5703125" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
     <col min="5" max="8" width="7.140625" customWidth="1"/>
     <col min="9" max="9" width="6.85546875" customWidth="1"/>
     <col min="10" max="10" width="7.42578125" customWidth="1"/>
     <col min="11" max="11" width="7.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:20" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="60"/>
       <c r="C1" s="60"/>
       <c r="D1" s="53"/>
@@ -4751,7 +5010,7 @@
       <c r="H1" s="56"/>
       <c r="I1" s="59"/>
     </row>
-    <row r="2" spans="2:13" s="57" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:20" s="57" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2"/>
       <c r="C2"/>
       <c r="D2"/>
@@ -4760,36 +5019,36 @@
       <c r="G2"/>
       <c r="H2"/>
     </row>
-    <row r="3" spans="2:13" s="57" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:20" s="57" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3"/>
       <c r="C3"/>
       <c r="D3"/>
-      <c r="E3" s="161" t="s">
+      <c r="E3" s="194" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="162"/>
-      <c r="G3" s="162"/>
-      <c r="H3" s="163"/>
-      <c r="I3" s="164" t="s">
+      <c r="F3" s="195"/>
+      <c r="G3" s="195"/>
+      <c r="H3" s="196"/>
+      <c r="I3" s="197" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="162"/>
-      <c r="K3" s="163"/>
-    </row>
-    <row r="4" spans="2:13" s="57" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="171" t="s">
+      <c r="J3" s="195"/>
+      <c r="K3" s="196"/>
+    </row>
+    <row r="4" spans="2:20" s="57" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="204" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="172"/>
-      <c r="D4" s="173"/>
-      <c r="E4" s="168" t="s">
+      <c r="C4" s="205"/>
+      <c r="D4" s="206"/>
+      <c r="E4" s="201" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="169"/>
-      <c r="G4" s="170" t="s">
+      <c r="F4" s="202"/>
+      <c r="G4" s="203" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="169"/>
+      <c r="H4" s="202"/>
       <c r="I4" s="28" t="s">
         <v>21</v>
       </c>
@@ -4800,292 +5059,394 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="2:13" s="57" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:20" s="57" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="228" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="227" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="220" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="221" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="31" t="s">
+      <c r="G5" s="222" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="223" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="I5" s="220" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J5" s="223" t="s">
         <v>6</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="223" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:13" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="179" t="s">
+    <row r="6" spans="2:20" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="219" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="181" t="s">
+      <c r="C6" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="220">
+      <c r="E6" s="226">
         <v>0.63100000000000001</v>
       </c>
-      <c r="F6" s="212">
+      <c r="F6" s="268">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G6" s="110">
+      <c r="G6" s="241">
         <v>0.216</v>
       </c>
-      <c r="H6" s="221">
+      <c r="H6" s="270">
         <v>0.45</v>
       </c>
-      <c r="I6" s="228">
+      <c r="I6" s="245">
         <v>0.17799999999999999</v>
       </c>
-      <c r="J6" s="226">
+      <c r="J6" s="191">
         <v>-0.39500000000000002</v>
       </c>
-      <c r="K6" s="222">
+      <c r="K6" s="249">
         <v>-5.1700000000000003E-2</v>
       </c>
     </row>
-    <row r="7" spans="2:13" s="57" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="180"/>
-      <c r="C7" s="182"/>
-      <c r="D7" s="52" t="s">
+    <row r="7" spans="2:20" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="213"/>
+      <c r="C7" s="218"/>
+      <c r="D7" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="140">
+      <c r="E7" s="117">
         <v>0.63500000000000001</v>
       </c>
-      <c r="F7" s="227">
+      <c r="F7" s="269">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G7" s="211">
+      <c r="G7" s="229">
         <v>0.21099999999999999</v>
       </c>
-      <c r="H7" s="227">
+      <c r="H7" s="269">
         <v>0.45</v>
       </c>
-      <c r="I7" s="225">
+      <c r="I7" s="246">
         <v>0.19900000000000001</v>
       </c>
-      <c r="J7" s="229">
+      <c r="J7" s="272">
         <v>-6.9099999999999995E-2</v>
       </c>
-      <c r="K7" s="236">
+      <c r="K7" s="250">
         <v>-0.115</v>
       </c>
     </row>
-    <row r="8" spans="2:13" s="57" customFormat="1" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="152"/>
-      <c r="C8" s="153"/>
-      <c r="D8" s="154"/>
-      <c r="E8" s="155"/>
-      <c r="F8" s="156"/>
-      <c r="G8" s="157"/>
-      <c r="H8" s="156"/>
-      <c r="I8" s="158"/>
-      <c r="J8" s="159"/>
-      <c r="K8" s="160"/>
-    </row>
-    <row r="9" spans="2:13" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="179" t="s">
+    <row r="8" spans="2:20" s="57" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="213"/>
+      <c r="C8" s="231"/>
+      <c r="D8" s="264" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="265">
+        <v>0.60799999999999998</v>
+      </c>
+      <c r="F8" s="240">
+        <v>1.23</v>
+      </c>
+      <c r="G8" s="266">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="H8" s="240">
+        <v>0.5</v>
+      </c>
+      <c r="I8" s="247">
+        <v>0.185</v>
+      </c>
+      <c r="J8" s="267">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="K8" s="251">
+        <v>-0.14099999999999999</v>
+      </c>
+      <c r="L8" s="230" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="2:20" s="57" customFormat="1" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="161"/>
+      <c r="C9" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="50" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="243">
+        <v>0.61199999999999999</v>
+      </c>
+      <c r="F9" s="244">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G9" s="276">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="H9" s="119">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="I9" s="271">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="J9" s="128">
+        <v>-0.69799999999999995</v>
+      </c>
+      <c r="K9" s="263">
+        <v>-4.7899999999999998E-2</v>
+      </c>
+      <c r="M9" s="234"/>
+      <c r="N9" s="234"/>
+      <c r="O9" s="234"/>
+      <c r="P9" s="234"/>
+      <c r="Q9" s="234"/>
+      <c r="R9" s="234"/>
+      <c r="S9" s="234"/>
+      <c r="T9" s="234"/>
+    </row>
+    <row r="10" spans="2:20" s="57" customFormat="1" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="152"/>
+      <c r="C10" s="153"/>
+      <c r="D10" s="154"/>
+      <c r="E10" s="155"/>
+      <c r="F10" s="156"/>
+      <c r="G10" s="157"/>
+      <c r="H10" s="156"/>
+      <c r="I10" s="158"/>
+      <c r="J10" s="159"/>
+      <c r="K10" s="160"/>
+      <c r="M10" s="234"/>
+      <c r="N10" s="234"/>
+      <c r="O10" s="234"/>
+      <c r="P10" s="234"/>
+      <c r="Q10" s="234"/>
+      <c r="R10" s="234"/>
+      <c r="S10" s="234"/>
+      <c r="T10" s="234"/>
+    </row>
+    <row r="11" spans="2:20" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="213" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="181" t="s">
+      <c r="C11" s="215" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D11" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="130"/>
-      <c r="F9" s="131"/>
-      <c r="G9" s="139"/>
-      <c r="H9" s="131"/>
-      <c r="I9" s="149"/>
-      <c r="J9" s="150"/>
-      <c r="K9" s="151"/>
-      <c r="L9" s="61"/>
-      <c r="M9"/>
-    </row>
-    <row r="10" spans="2:13" s="57" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="180"/>
-      <c r="C10" s="182"/>
-      <c r="D10" s="52" t="s">
+      <c r="E11" s="130"/>
+      <c r="F11" s="131"/>
+      <c r="G11" s="139"/>
+      <c r="H11" s="131"/>
+      <c r="I11" s="149"/>
+      <c r="J11" s="150"/>
+      <c r="K11" s="151"/>
+      <c r="L11" s="61"/>
+      <c r="M11" s="234"/>
+      <c r="N11" s="234"/>
+      <c r="O11" s="234"/>
+      <c r="P11" s="234"/>
+      <c r="Q11" s="234"/>
+      <c r="R11" s="234"/>
+      <c r="S11" s="234"/>
+      <c r="T11" s="234"/>
+    </row>
+    <row r="12" spans="2:20" s="57" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="214"/>
+      <c r="C12" s="216"/>
+      <c r="D12" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="140"/>
-      <c r="F10" s="141"/>
-      <c r="G10" s="142"/>
-      <c r="H10" s="141"/>
-      <c r="I10" s="143"/>
-      <c r="J10" s="144"/>
-      <c r="K10" s="145"/>
-      <c r="L10" s="61"/>
-      <c r="M10"/>
-    </row>
-    <row r="11" spans="2:13" s="57" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="152"/>
-      <c r="C11" s="153"/>
-      <c r="D11" s="154"/>
-      <c r="E11" s="155"/>
-      <c r="F11" s="156"/>
-      <c r="G11" s="157"/>
-      <c r="H11" s="156"/>
-      <c r="I11" s="158"/>
-      <c r="J11" s="159"/>
-      <c r="K11" s="160"/>
-      <c r="L11" s="61"/>
-      <c r="M11"/>
-    </row>
-    <row r="12" spans="2:13" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="179" t="s">
+      <c r="E12" s="140"/>
+      <c r="F12" s="141"/>
+      <c r="G12" s="142"/>
+      <c r="H12" s="141"/>
+      <c r="I12" s="143"/>
+      <c r="J12" s="144"/>
+      <c r="K12" s="145"/>
+      <c r="L12" s="61"/>
+      <c r="M12" s="235"/>
+      <c r="N12" s="235"/>
+      <c r="O12" s="236"/>
+      <c r="P12" s="237"/>
+      <c r="Q12" s="236"/>
+      <c r="R12" s="236"/>
+      <c r="S12" s="237"/>
+      <c r="T12" s="234"/>
+    </row>
+    <row r="13" spans="2:20" s="57" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="152"/>
+      <c r="C13" s="153"/>
+      <c r="D13" s="154"/>
+      <c r="E13" s="155"/>
+      <c r="F13" s="156"/>
+      <c r="G13" s="157"/>
+      <c r="H13" s="156"/>
+      <c r="I13" s="158"/>
+      <c r="J13" s="159"/>
+      <c r="K13" s="160"/>
+      <c r="L13" s="61"/>
+      <c r="M13" s="234"/>
+      <c r="N13" s="234"/>
+      <c r="O13" s="234"/>
+      <c r="P13" s="234"/>
+      <c r="Q13" s="234"/>
+      <c r="R13" s="234"/>
+      <c r="S13" s="234"/>
+      <c r="T13" s="234"/>
+    </row>
+    <row r="14" spans="2:20" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="213" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="181" t="s">
+      <c r="C14" s="215" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D14" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="130"/>
-      <c r="F12" s="131"/>
-      <c r="G12" s="139"/>
-      <c r="H12" s="131"/>
-      <c r="I12" s="146"/>
-      <c r="J12" s="147"/>
-      <c r="K12" s="148"/>
-      <c r="L12"/>
-      <c r="M12"/>
-    </row>
-    <row r="13" spans="2:13" s="57" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="180"/>
-      <c r="C13" s="182"/>
-      <c r="D13" s="52" t="s">
+      <c r="E14" s="130"/>
+      <c r="F14" s="131"/>
+      <c r="G14" s="139"/>
+      <c r="H14" s="131"/>
+      <c r="I14" s="146"/>
+      <c r="J14" s="147"/>
+      <c r="K14" s="148"/>
+      <c r="L14"/>
+      <c r="M14" s="234"/>
+      <c r="N14" s="234"/>
+      <c r="O14" s="234"/>
+      <c r="P14" s="234"/>
+      <c r="Q14" s="234"/>
+      <c r="R14" s="234"/>
+      <c r="S14" s="234"/>
+      <c r="T14" s="234"/>
+    </row>
+    <row r="15" spans="2:20" s="57" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="214"/>
+      <c r="C15" s="216"/>
+      <c r="D15" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="140"/>
-      <c r="F13" s="141"/>
-      <c r="G13" s="142"/>
-      <c r="H13" s="141"/>
-      <c r="I13" s="143"/>
-      <c r="J13" s="144"/>
-      <c r="K13" s="145"/>
-      <c r="L13"/>
-      <c r="M13"/>
-    </row>
-    <row r="14" spans="2:13" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="60"/>
-      <c r="C14" s="60"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="58"/>
-      <c r="H14" s="58"/>
-    </row>
-    <row r="15" spans="2:13" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="60"/>
-      <c r="C15" s="60"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="58"/>
-      <c r="H15" s="56"/>
-    </row>
-    <row r="16" spans="2:13" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E15" s="140"/>
+      <c r="F15" s="141"/>
+      <c r="G15" s="142"/>
+      <c r="H15" s="141"/>
+      <c r="I15" s="143"/>
+      <c r="J15" s="144"/>
+      <c r="K15" s="145"/>
+      <c r="L15"/>
+      <c r="M15" s="234"/>
+      <c r="N15" s="234"/>
+      <c r="O15" s="234"/>
+      <c r="P15" s="234"/>
+      <c r="Q15" s="234"/>
+      <c r="R15" s="234"/>
+      <c r="S15" s="234"/>
+      <c r="T15" s="234"/>
+    </row>
+    <row r="16" spans="2:20" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="60"/>
       <c r="C16" s="60"/>
       <c r="D16" s="53"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="58"/>
+      <c r="M16" s="234"/>
+      <c r="N16" s="234"/>
+      <c r="O16" s="234"/>
+      <c r="P16" s="234"/>
+      <c r="Q16" s="234"/>
+      <c r="R16" s="234"/>
+      <c r="S16" s="234"/>
+      <c r="T16" s="234"/>
     </row>
     <row r="17" spans="2:12" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="60"/>
-      <c r="C17" s="223"/>
-      <c r="D17" s="224"/>
-      <c r="E17" s="202"/>
-      <c r="F17" s="202"/>
-      <c r="G17" s="202"/>
-      <c r="H17" s="202"/>
-      <c r="I17" s="203"/>
-      <c r="J17" s="203"/>
-      <c r="K17" s="203"/>
-      <c r="L17" s="203"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="56"/>
     </row>
     <row r="18" spans="2:12" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="60"/>
-      <c r="C18" s="223"/>
-      <c r="D18" s="224"/>
-      <c r="E18" s="201"/>
-      <c r="F18" s="202"/>
-      <c r="G18" s="201"/>
-      <c r="H18" s="202"/>
-      <c r="I18" s="204"/>
-      <c r="J18" s="203"/>
-      <c r="K18" s="203"/>
-      <c r="L18" s="203"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
     </row>
     <row r="19" spans="2:12" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="60"/>
-      <c r="C19" s="223"/>
-      <c r="D19" s="200"/>
-      <c r="E19" s="200"/>
-      <c r="F19" s="201"/>
-      <c r="G19" s="202"/>
-      <c r="H19" s="202"/>
-      <c r="I19" s="201"/>
-      <c r="J19" s="201"/>
-      <c r="K19" s="201"/>
-      <c r="L19" s="203"/>
+      <c r="C19" s="189"/>
+      <c r="D19" s="190"/>
+      <c r="E19" s="180"/>
+      <c r="F19" s="180"/>
+      <c r="G19" s="180"/>
+      <c r="H19" s="180"/>
+      <c r="I19"/>
+      <c r="J19"/>
+      <c r="K19"/>
+      <c r="L19"/>
     </row>
     <row r="20" spans="2:12" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="60"/>
-      <c r="C20" s="223"/>
-      <c r="D20" s="224"/>
-      <c r="E20" s="200"/>
-      <c r="F20" s="200"/>
-      <c r="G20" s="201"/>
-      <c r="H20" s="202"/>
-      <c r="I20" s="204"/>
-      <c r="J20" s="203"/>
-      <c r="K20" s="203"/>
-      <c r="L20" s="203"/>
+      <c r="C20" s="189"/>
+      <c r="D20" s="190"/>
+      <c r="E20" s="112"/>
+      <c r="F20" s="180"/>
+      <c r="G20" s="112"/>
+      <c r="H20" s="180"/>
+      <c r="I20" s="15"/>
+      <c r="J20"/>
+      <c r="K20"/>
+      <c r="L20"/>
     </row>
     <row r="21" spans="2:12" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="60"/>
-      <c r="C21" s="60"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="58"/>
-      <c r="H21" s="56"/>
+      <c r="C21" s="189"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="112"/>
+      <c r="G21" s="180"/>
+      <c r="H21" s="180"/>
+      <c r="I21" s="112"/>
+      <c r="J21" s="112"/>
+      <c r="K21" s="112"/>
+      <c r="L21"/>
     </row>
     <row r="22" spans="2:12" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="60"/>
-      <c r="C22" s="60"/>
-      <c r="D22" s="53"/>
-      <c r="E22" s="54"/>
-      <c r="F22" s="55"/>
-      <c r="G22" s="56"/>
-      <c r="H22" s="56"/>
+      <c r="C22" s="189"/>
+      <c r="D22" s="190"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="112"/>
+      <c r="H22" s="180"/>
+      <c r="I22" s="15"/>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22"/>
     </row>
     <row r="23" spans="2:12" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="60"/>
@@ -5093,7 +5454,7 @@
       <c r="D23" s="53"/>
       <c r="E23" s="54"/>
       <c r="F23" s="55"/>
-      <c r="G23" s="56"/>
+      <c r="G23" s="58"/>
       <c r="H23" s="56"/>
     </row>
     <row r="24" spans="2:12" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5102,7 +5463,7 @@
       <c r="D24" s="53"/>
       <c r="E24" s="54"/>
       <c r="F24" s="55"/>
-      <c r="G24" s="58"/>
+      <c r="G24" s="56"/>
       <c r="H24" s="56"/>
     </row>
     <row r="25" spans="2:12" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5111,7 +5472,7 @@
       <c r="D25" s="53"/>
       <c r="E25" s="54"/>
       <c r="F25" s="55"/>
-      <c r="G25" s="58"/>
+      <c r="G25" s="56"/>
       <c r="H25" s="56"/>
     </row>
     <row r="26" spans="2:12" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5121,7 +5482,7 @@
       <c r="E26" s="54"/>
       <c r="F26" s="55"/>
       <c r="G26" s="58"/>
-      <c r="H26" s="58"/>
+      <c r="H26" s="56"/>
     </row>
     <row r="27" spans="2:12" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="60"/>
@@ -5132,23 +5493,41 @@
       <c r="G27" s="58"/>
       <c r="H27" s="56"/>
     </row>
-    <row r="28" spans="2:12" s="57" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="2:12" s="57" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="2:12" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="60"/>
+      <c r="C28" s="60"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="55"/>
+      <c r="G28" s="58"/>
+      <c r="H28" s="58"/>
+    </row>
+    <row r="29" spans="2:12" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="60"/>
+      <c r="C29" s="60"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="58"/>
+      <c r="H29" s="56"/>
+    </row>
     <row r="30" spans="2:12" s="57" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="31" spans="2:12" s="57" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="2:12" s="57" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="33" s="57" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="B6:B8"/>
     <mergeCell ref="I3:K3"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="G4:H4"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="E3:H3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5156,12 +5535,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A69AE6C51AEE6142AD84D9FB7E253133" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="688ae3312de6a1cdf808e1735a79ca91">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="756e89ea-a5fb-4d06-a9be-9b8635efcbbf" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7ae5de413dc6742d84d7e8ba9b183640" ns3:_="">
     <xsd:import namespace="756e89ea-a5fb-4d06-a9be-9b8635efcbbf"/>
@@ -5337,6 +5710,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -5347,22 +5726,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A6A8E2B-A170-438C-86CD-560003D30CAB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="756e89ea-a5fb-4d06-a9be-9b8635efcbbf"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F55020E-069C-4126-815D-85E5FA260EED}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5380,6 +5743,22 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A6A8E2B-A170-438C-86CD-560003D30CAB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="756e89ea-a5fb-4d06-a9be-9b8635efcbbf"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06DA2F1B-717B-4D32-8536-28EBD29FAA3A}">
   <ds:schemaRefs>

--- a/tables.xlsx
+++ b/tables.xlsx
@@ -8,17 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdolden\Desktop\Ch3_floweringrush\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FB49481-3171-4D13-B3EC-F135003D4AA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06FBC2AD-9845-4B20-9DFC-B0B68CE6F1CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="300" windowWidth="25440" windowHeight="15390" activeTab="3" xr2:uid="{94130567-C790-4197-BF09-72317C0E58C5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{94130567-C790-4197-BF09-72317C0E58C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Space 1" sheetId="1" r:id="rId1"/>
-    <sheet name="Space 1 (A+C)" sheetId="10" r:id="rId2"/>
-    <sheet name="Space 2" sheetId="11" r:id="rId3"/>
-    <sheet name="Space 2 (A+C)" sheetId="12" r:id="rId4"/>
-    <sheet name="Space 1 (A+C) (2)" sheetId="13" r:id="rId5"/>
-    <sheet name="Space 2 (A+C) (2)" sheetId="14" r:id="rId6"/>
+    <sheet name="Space 1 (short)" sheetId="15" r:id="rId2"/>
+    <sheet name="Space 1 (A+C)" sheetId="10" r:id="rId3"/>
+    <sheet name="Space 2" sheetId="11" r:id="rId4"/>
+    <sheet name="Space 2 (short)" sheetId="16" r:id="rId5"/>
+    <sheet name="Space 2 (A+C)" sheetId="12" r:id="rId6"/>
+    <sheet name="Space 1 (A+C) (2)" sheetId="13" r:id="rId7"/>
+    <sheet name="Space 2 (A+C) (2)" sheetId="14" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="35">
   <si>
     <t>Linear</t>
   </si>
@@ -248,6 +250,18 @@
   <si>
     <t>Epicenter</t>
   </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>0 hours</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>(0,0)</t>
+  </si>
 </sst>
 </file>
 
@@ -373,7 +387,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="78">
+  <borders count="84">
     <border>
       <left/>
       <right/>
@@ -1325,11 +1339,13 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="double">
         <color indexed="64"/>
       </top>
       <bottom/>
@@ -1345,19 +1361,6 @@
       <top style="double">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -1374,11 +1377,98 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="330">
+  <cellXfs count="405">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1876,85 +1966,13 @@
     <xf numFmtId="164" fontId="9" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="6" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1974,136 +1992,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="45" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="9" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2122,108 +2022,50 @@
     <xf numFmtId="164" fontId="9" fillId="3" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="4" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2247,20 +2089,20 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2270,38 +2112,497 @@
     <xf numFmtId="164" fontId="6" fillId="3" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="57" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2644,10 +2945,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A735158-88E3-4592-A032-033FAF873106}">
-  <dimension ref="B1:W60"/>
+  <dimension ref="B1:V62"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="50" zoomScalePageLayoutView="40" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+    <sheetView showGridLines="0" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="50" zoomScalePageLayoutView="40" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2660,41 +2961,41 @@
     <col min="6" max="6" width="9.28515625" customWidth="1"/>
     <col min="7" max="7" width="9" customWidth="1"/>
     <col min="8" max="8" width="8.85546875" customWidth="1"/>
-    <col min="9" max="9" width="0.42578125" style="247" customWidth="1"/>
+    <col min="9" max="9" width="0.42578125" customWidth="1"/>
     <col min="10" max="11" width="11" customWidth="1"/>
     <col min="12" max="12" width="10.42578125" customWidth="1"/>
     <col min="13" max="13" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:23" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E2" s="179" t="s">
+    <row r="1" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:22" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E2" s="249" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="181"/>
+      <c r="F2" s="250"/>
+      <c r="G2" s="250"/>
+      <c r="H2" s="251"/>
       <c r="I2" s="23"/>
-      <c r="J2" s="182" t="s">
+      <c r="J2" s="252" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="180"/>
-      <c r="L2" s="181"/>
-    </row>
-    <row r="3" spans="2:23" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="189" t="s">
+      <c r="K2" s="250"/>
+      <c r="L2" s="251"/>
+    </row>
+    <row r="3" spans="2:22" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="270" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="190"/>
-      <c r="D3" s="191"/>
-      <c r="E3" s="186" t="s">
+      <c r="C3" s="271"/>
+      <c r="D3" s="272"/>
+      <c r="E3" s="256" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="187"/>
-      <c r="G3" s="188" t="s">
+      <c r="F3" s="257"/>
+      <c r="G3" s="258" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="187"/>
+      <c r="H3" s="257"/>
       <c r="I3" s="24"/>
       <c r="J3" s="19" t="s">
         <v>20</v>
@@ -2707,23 +3008,23 @@
       </c>
       <c r="M3" s="13"/>
     </row>
-    <row r="4" spans="2:23" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="218" t="s">
+    <row r="4" spans="2:22" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="275" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="149" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="220" t="s">
+      <c r="D4" s="267" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="213" t="s">
+      <c r="E4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="22" t="s">
+      <c r="G4" s="269" t="s">
         <v>5</v>
       </c>
       <c r="H4" s="6" t="s">
@@ -2741,1139 +3042,1472 @@
       </c>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="204" t="s">
+    <row r="5" spans="2:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="403" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="404" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="291" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="400">
+        <v>0.93400000000000005</v>
+      </c>
+      <c r="F5" s="401">
+        <v>1.3</v>
+      </c>
+      <c r="G5" s="402">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="H5" s="401">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="I5" s="268"/>
+      <c r="J5" s="331" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" s="332" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5" s="333" t="s">
+        <v>31</v>
+      </c>
+      <c r="M5" s="1"/>
+    </row>
+    <row r="6" spans="2:22" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="283"/>
+      <c r="C6" s="284"/>
+      <c r="D6" s="285"/>
+      <c r="E6" s="286"/>
+      <c r="F6" s="287"/>
+      <c r="G6" s="288"/>
+      <c r="H6" s="287"/>
+      <c r="I6" s="268"/>
+      <c r="J6" s="233"/>
+      <c r="K6" s="289"/>
+      <c r="L6" s="290"/>
+      <c r="M6" s="1"/>
+    </row>
+    <row r="7" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="276" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="323" t="s">
+      <c r="C7" s="277" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D7" s="189" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="45">
+      <c r="E7" s="292">
         <v>0.76500000000000001</v>
       </c>
-      <c r="F5" s="73">
+      <c r="F7" s="293">
         <v>1.25</v>
       </c>
-      <c r="G5" s="62">
+      <c r="G7" s="294">
         <v>0.255</v>
       </c>
-      <c r="H5" s="73">
+      <c r="H7" s="293">
         <v>0.52500000000000002</v>
       </c>
-      <c r="I5" s="261"/>
-      <c r="J5" s="55">
+      <c r="I7" s="197"/>
+      <c r="J7" s="318">
         <v>0.214</v>
       </c>
-      <c r="K5" s="55">
+      <c r="K7" s="318">
         <v>-0.628</v>
       </c>
-      <c r="L5" s="72">
+      <c r="L7" s="319">
         <v>-7.3899999999999993E-2</v>
       </c>
-      <c r="M5" s="3"/>
-    </row>
-    <row r="6" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="197"/>
-      <c r="C6" s="199"/>
-      <c r="D6" s="31" t="s">
+      <c r="M7" s="3"/>
+    </row>
+    <row r="8" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="273"/>
+      <c r="C8" s="239"/>
+      <c r="D8" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="47">
+      <c r="E8" s="295">
         <v>0.66800000000000004</v>
       </c>
-      <c r="F6" s="51">
+      <c r="F8" s="296">
         <v>1.23</v>
       </c>
-      <c r="G6" s="63">
+      <c r="G8" s="297">
         <v>0.223</v>
       </c>
-      <c r="H6" s="51">
+      <c r="H8" s="296">
         <v>0.5</v>
       </c>
-      <c r="I6" s="27"/>
-      <c r="J6" s="122">
+      <c r="I8" s="27"/>
+      <c r="J8" s="122">
         <v>0.23200000000000001</v>
       </c>
-      <c r="K6" s="56">
+      <c r="K8" s="320">
         <v>-0.57899999999999996</v>
       </c>
-      <c r="L6" s="53">
+      <c r="L8" s="305">
         <v>-8.1299999999999997E-2</v>
       </c>
-      <c r="M6" s="3"/>
-    </row>
-    <row r="7" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="197"/>
-      <c r="C7" s="199"/>
-      <c r="D7" s="31" t="s">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="273"/>
+      <c r="C9" s="239"/>
+      <c r="D9" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="76">
+      <c r="E9" s="298">
         <v>0.754</v>
       </c>
-      <c r="F7" s="77">
+      <c r="F9" s="299">
         <v>1.27</v>
       </c>
-      <c r="G7" s="64">
+      <c r="G9" s="300">
         <v>0.249</v>
       </c>
-      <c r="H7" s="52">
+      <c r="H9" s="301">
         <v>0.52500000000000002</v>
       </c>
-      <c r="I7" s="26"/>
-      <c r="J7" s="59">
+      <c r="I9" s="26"/>
+      <c r="J9" s="321">
         <v>0.16300000000000001</v>
       </c>
-      <c r="K7" s="59">
+      <c r="K9" s="321">
         <v>-0.36499999999999999</v>
       </c>
-      <c r="L7" s="81">
+      <c r="L9" s="322">
         <v>-6.9800000000000001E-2</v>
       </c>
-      <c r="M7" s="3"/>
-    </row>
-    <row r="8" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="197"/>
-      <c r="C8" s="199"/>
-      <c r="D8" s="31" t="s">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="273"/>
+      <c r="C10" s="239"/>
+      <c r="D10" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="78">
+      <c r="E10" s="302">
         <v>0.63800000000000001</v>
       </c>
-      <c r="F8" s="46">
+      <c r="F10" s="303">
         <v>1.18</v>
       </c>
-      <c r="G8" s="66">
+      <c r="G10" s="304">
         <v>0.217</v>
       </c>
-      <c r="H8" s="53">
+      <c r="H10" s="305">
         <v>0.5</v>
       </c>
-      <c r="I8" s="27"/>
-      <c r="J8" s="57">
+      <c r="I10" s="27"/>
+      <c r="J10" s="323">
         <v>0.16600000000000001</v>
       </c>
-      <c r="K8" s="57">
+      <c r="K10" s="323">
         <v>-0.58899999999999997</v>
       </c>
-      <c r="L8" s="82">
+      <c r="L10" s="324">
         <v>-7.0999999999999994E-2</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="197"/>
-      <c r="C9" s="199"/>
-      <c r="D9" s="31" t="s">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="273"/>
+      <c r="C11" s="239"/>
+      <c r="D11" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="116">
+      <c r="E11" s="302">
         <v>0.78200000000000003</v>
       </c>
-      <c r="F9" s="115">
+      <c r="F11" s="115">
         <v>1.38</v>
       </c>
-      <c r="G9" s="114">
+      <c r="G11" s="304">
         <v>0.25700000000000001</v>
       </c>
-      <c r="H9" s="74">
+      <c r="H11" s="306">
         <v>0.55000000000000004</v>
       </c>
-      <c r="I9" s="28"/>
-      <c r="J9" s="57">
+      <c r="I11" s="28"/>
+      <c r="J11" s="323">
         <v>0.13400000000000001</v>
       </c>
-      <c r="K9" s="57">
+      <c r="K11" s="323">
         <v>5.0200000000000002E-2</v>
       </c>
-      <c r="L9" s="82">
+      <c r="L11" s="324">
         <v>-6.6500000000000004E-2</v>
       </c>
-      <c r="M9" s="2"/>
-      <c r="N9" s="12"/>
-    </row>
-    <row r="10" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="197"/>
-      <c r="C10" s="324"/>
-      <c r="D10" s="151" t="s">
+      <c r="M11" s="2"/>
+      <c r="N11" s="12"/>
+    </row>
+    <row r="12" spans="2:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="273"/>
+      <c r="C12" s="259"/>
+      <c r="D12" s="151" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="79">
+      <c r="E12" s="307">
         <v>0.67500000000000004</v>
       </c>
-      <c r="F10" s="48">
+      <c r="F12" s="308">
         <v>1.1499999999999999</v>
       </c>
-      <c r="G10" s="68">
+      <c r="G12" s="309">
         <v>0.22500000000000001</v>
       </c>
-      <c r="H10" s="54">
+      <c r="H12" s="310">
         <v>0.5</v>
       </c>
-      <c r="I10" s="29"/>
-      <c r="J10" s="61">
+      <c r="I12" s="29"/>
+      <c r="J12" s="325">
         <v>0.14000000000000001</v>
       </c>
-      <c r="K10" s="61">
+      <c r="K12" s="325">
         <v>-0.13800000000000001</v>
       </c>
-      <c r="L10" s="83">
+      <c r="L12" s="326">
         <v>-6.7699999999999996E-2</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="2:23" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="197"/>
-      <c r="C11" s="325" t="s">
+      <c r="M12" s="3"/>
+      <c r="O12" s="12"/>
+    </row>
+    <row r="13" spans="2:22" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="273"/>
+      <c r="C13" s="238" t="s">
         <v>0</v>
       </c>
-      <c r="D11" s="219" t="s">
+      <c r="D13" s="193" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="207">
+      <c r="E13" s="311">
         <v>0.753</v>
       </c>
-      <c r="F11" s="208">
+      <c r="F13" s="312">
         <v>1.25</v>
       </c>
-      <c r="G11" s="209">
+      <c r="G13" s="313">
         <v>0.254</v>
       </c>
-      <c r="H11" s="208">
+      <c r="H13" s="312">
         <v>0.5</v>
       </c>
-      <c r="I11" s="210"/>
-      <c r="J11" s="211">
+      <c r="I13" s="186"/>
+      <c r="J13" s="327">
         <v>0.224</v>
       </c>
-      <c r="K11" s="211">
+      <c r="K13" s="327">
         <v>-0.39200000000000002</v>
       </c>
-      <c r="L11" s="212">
+      <c r="L13" s="328">
         <v>-7.5800000000000006E-2</v>
       </c>
-      <c r="M11" s="3"/>
-      <c r="O11" s="279"/>
-      <c r="P11" s="279"/>
-      <c r="Q11" s="279"/>
-      <c r="R11" s="279"/>
-      <c r="S11" s="279"/>
-      <c r="T11" s="279"/>
-      <c r="U11" s="279"/>
-      <c r="V11" s="279"/>
-      <c r="W11" s="279"/>
-    </row>
-    <row r="12" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="197"/>
-      <c r="C12" s="199"/>
-      <c r="D12" s="31" t="s">
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="273"/>
+      <c r="C14" s="239"/>
+      <c r="D14" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="47">
+      <c r="E14" s="295">
         <v>0.63600000000000001</v>
       </c>
-      <c r="F12" s="110">
+      <c r="F14" s="110">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G12" s="63">
+      <c r="G14" s="297">
         <v>0.218</v>
       </c>
-      <c r="H12" s="112">
+      <c r="H14" s="296">
         <v>0.47499999999999998</v>
       </c>
-      <c r="I12" s="27"/>
-      <c r="J12" s="56">
+      <c r="I14" s="27"/>
+      <c r="J14" s="320">
         <v>0.22900000000000001</v>
       </c>
-      <c r="K12" s="56">
+      <c r="K14" s="320">
         <v>-0.65600000000000003</v>
       </c>
-      <c r="L12" s="124">
+      <c r="L14" s="124">
         <v>-8.5300000000000001E-2</v>
       </c>
-      <c r="M12" s="3"/>
-      <c r="O12" s="279"/>
-      <c r="P12" s="279"/>
-      <c r="Q12" s="279"/>
-      <c r="R12" s="279"/>
-      <c r="S12" s="279"/>
-      <c r="T12" s="279"/>
-      <c r="U12" s="279"/>
-      <c r="V12" s="279"/>
-      <c r="W12" s="279"/>
-    </row>
-    <row r="13" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="197"/>
-      <c r="C13" s="199"/>
-      <c r="D13" s="31" t="s">
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="273"/>
+      <c r="C15" s="239"/>
+      <c r="D15" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="E13" s="50">
+      <c r="E15" s="292">
         <v>0.72699999999999998</v>
       </c>
-      <c r="F13" s="80">
+      <c r="F15" s="314">
         <v>1.23</v>
       </c>
-      <c r="G13" s="64">
+      <c r="G15" s="300">
         <v>0.24199999999999999</v>
       </c>
-      <c r="H13" s="52">
+      <c r="H15" s="301">
         <v>0.5</v>
       </c>
-      <c r="I13" s="26"/>
-      <c r="J13" s="59">
+      <c r="I15" s="26"/>
+      <c r="J15" s="321">
         <v>0.16400000000000001</v>
       </c>
-      <c r="K13" s="59">
+      <c r="K15" s="321">
         <v>-0.10100000000000001</v>
       </c>
-      <c r="L13" s="60">
+      <c r="L15" s="329">
         <v>-6.4000000000000001E-2</v>
       </c>
-      <c r="M13" s="3"/>
-      <c r="O13" s="279"/>
-      <c r="P13" s="279"/>
-      <c r="Q13" s="279"/>
-      <c r="R13" s="279"/>
-      <c r="S13" s="279"/>
-      <c r="T13" s="279"/>
-      <c r="U13" s="279"/>
-      <c r="V13" s="279"/>
-      <c r="W13" s="279"/>
-    </row>
-    <row r="14" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="197"/>
-      <c r="C14" s="199"/>
-      <c r="D14" s="31" t="s">
+      <c r="M15" s="3"/>
+      <c r="N15" s="12"/>
+    </row>
+    <row r="16" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="273"/>
+      <c r="C16" s="239"/>
+      <c r="D16" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="E14" s="109">
+      <c r="E16" s="282">
         <v>0.61799999999999999</v>
       </c>
-      <c r="F14" s="51">
+      <c r="F16" s="296">
         <v>1.1200000000000001</v>
       </c>
-      <c r="G14" s="111">
+      <c r="G16" s="279">
         <v>0.21099999999999999</v>
       </c>
-      <c r="H14" s="113">
+      <c r="H16" s="315">
         <v>0.47499999999999998</v>
       </c>
-      <c r="I14" s="30"/>
-      <c r="J14" s="57">
+      <c r="I16" s="30"/>
+      <c r="J16" s="323">
         <v>0.16700000000000001</v>
       </c>
-      <c r="K14" s="123">
+      <c r="K16" s="123">
         <v>-0.89800000000000002</v>
       </c>
-      <c r="L14" s="60">
+      <c r="L16" s="329">
         <v>-6.6000000000000003E-2</v>
       </c>
-      <c r="M14" s="3"/>
-      <c r="O14" s="279"/>
-      <c r="P14" s="280"/>
-      <c r="Q14" s="280"/>
-      <c r="R14" s="280"/>
-      <c r="S14" s="280"/>
-      <c r="T14" s="281"/>
-      <c r="U14" s="281"/>
-      <c r="V14" s="281"/>
-      <c r="W14" s="279"/>
-    </row>
-    <row r="15" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="197"/>
-      <c r="C15" s="199"/>
-      <c r="D15" s="31" t="s">
+      <c r="M16" s="3"/>
+      <c r="P16" s="43"/>
+      <c r="Q16" s="43"/>
+      <c r="R16" s="43"/>
+      <c r="S16" s="43"/>
+      <c r="T16" s="206"/>
+      <c r="U16" s="206"/>
+      <c r="V16" s="206"/>
+    </row>
+    <row r="17" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="273"/>
+      <c r="C17" s="239"/>
+      <c r="D17" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="78">
+      <c r="E17" s="302">
         <v>0.77200000000000002</v>
       </c>
-      <c r="F15" s="46">
+      <c r="F17" s="303">
         <v>1.27</v>
       </c>
-      <c r="G15" s="114">
+      <c r="G17" s="304">
         <v>0.25700000000000001</v>
       </c>
-      <c r="H15" s="117">
+      <c r="H17" s="117">
         <v>0.57499999999999996</v>
       </c>
-      <c r="I15" s="30"/>
-      <c r="J15" s="118">
+      <c r="I17" s="30"/>
+      <c r="J17" s="118">
         <v>0.13</v>
       </c>
-      <c r="K15" s="57">
+      <c r="K17" s="323">
         <v>0.14399999999999999</v>
       </c>
-      <c r="L15" s="120">
+      <c r="L17" s="120">
         <v>-6.2899999999999998E-2</v>
       </c>
-      <c r="M15" s="3"/>
-      <c r="O15" s="279"/>
-      <c r="P15" s="279"/>
-      <c r="Q15" s="279"/>
-      <c r="R15" s="279"/>
-      <c r="S15" s="279"/>
-      <c r="T15" s="279"/>
-      <c r="U15" s="279"/>
-      <c r="V15" s="279"/>
-      <c r="W15" s="279"/>
-    </row>
-    <row r="16" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="197"/>
-      <c r="C16" s="324"/>
-      <c r="D16" s="151" t="s">
+      <c r="M17" s="3"/>
+      <c r="N17" s="12"/>
+    </row>
+    <row r="18" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="273"/>
+      <c r="C18" s="259"/>
+      <c r="D18" s="151" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="79">
+      <c r="E18" s="307">
         <v>0.69099999999999995</v>
       </c>
-      <c r="F16" s="48">
+      <c r="F18" s="308">
         <v>1.18</v>
       </c>
-      <c r="G16" s="68">
+      <c r="G18" s="309">
         <v>0.23300000000000001</v>
       </c>
-      <c r="H16" s="54">
+      <c r="H18" s="310">
         <v>0.52500000000000002</v>
       </c>
-      <c r="I16" s="29"/>
-      <c r="J16" s="61">
+      <c r="I18" s="29"/>
+      <c r="J18" s="325">
         <v>0.13500000000000001</v>
       </c>
-      <c r="K16" s="119">
+      <c r="K18" s="119">
         <v>1.7299999999999999E-2</v>
       </c>
-      <c r="L16" s="121">
+      <c r="L18" s="330">
         <v>-6.25E-2</v>
       </c>
-      <c r="M16" s="3"/>
-      <c r="O16" s="279"/>
-      <c r="P16" s="279"/>
-      <c r="Q16" s="279"/>
-      <c r="R16" s="279"/>
-      <c r="S16" s="279"/>
-      <c r="T16" s="279"/>
-      <c r="U16" s="279"/>
-      <c r="V16" s="279"/>
-      <c r="W16" s="279"/>
-    </row>
-    <row r="17" spans="2:23" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="197"/>
-      <c r="C17" s="325" t="s">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="273"/>
+      <c r="C19" s="238" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="219" t="s">
+      <c r="D19" s="193" t="s">
         <v>7</v>
       </c>
-      <c r="E17" s="252"/>
-      <c r="F17" s="253"/>
-      <c r="G17" s="254"/>
-      <c r="H17" s="253"/>
-      <c r="I17" s="210"/>
-      <c r="J17" s="258"/>
-      <c r="K17" s="258"/>
-      <c r="L17" s="259"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="279"/>
-      <c r="P17" s="279"/>
-      <c r="Q17" s="279"/>
-      <c r="R17" s="279"/>
-      <c r="S17" s="279"/>
-      <c r="T17" s="279"/>
-      <c r="U17" s="279"/>
-      <c r="V17" s="279"/>
-      <c r="W17" s="279"/>
-    </row>
-    <row r="18" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="197"/>
-      <c r="C18" s="199"/>
-      <c r="D18" s="31" t="s">
+      <c r="E19" s="311">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="F19" s="312">
+        <v>1.32</v>
+      </c>
+      <c r="G19" s="313">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="H19" s="312">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="I19" s="186"/>
+      <c r="J19" s="327">
+        <v>0.224</v>
+      </c>
+      <c r="K19" s="327">
+        <v>-0.81399999999999995</v>
+      </c>
+      <c r="L19" s="328">
+        <v>-7.1900000000000006E-2</v>
+      </c>
+      <c r="M19" s="5"/>
+      <c r="N19" s="12"/>
+    </row>
+    <row r="20" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="273"/>
+      <c r="C20" s="239"/>
+      <c r="D20" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="E18" s="227"/>
-      <c r="F18" s="222"/>
-      <c r="G18" s="228"/>
-      <c r="H18" s="229"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="231"/>
-      <c r="K18" s="231"/>
-      <c r="L18" s="232"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="12"/>
-    </row>
-    <row r="19" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="197"/>
-      <c r="C19" s="199"/>
-      <c r="D19" s="31" t="s">
+      <c r="E20" s="295">
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="F20" s="293">
+        <v>1.23</v>
+      </c>
+      <c r="G20" s="297">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="H20" s="296">
+        <v>0.5</v>
+      </c>
+      <c r="I20" s="27"/>
+      <c r="J20" s="320">
+        <v>0.219</v>
+      </c>
+      <c r="K20" s="320">
+        <v>-0.60399999999999998</v>
+      </c>
+      <c r="L20" s="329">
+        <v>-7.5300000000000006E-2</v>
+      </c>
+      <c r="M20" s="5"/>
+      <c r="N20" s="12"/>
+    </row>
+    <row r="21" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="273"/>
+      <c r="C21" s="239"/>
+      <c r="D21" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="E19" s="221"/>
-      <c r="F19" s="233"/>
-      <c r="G19" s="234"/>
-      <c r="H19" s="224"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="235"/>
-      <c r="K19" s="235"/>
-      <c r="L19" s="232"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="12"/>
-    </row>
-    <row r="20" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="197"/>
-      <c r="C20" s="199"/>
-      <c r="D20" s="31" t="s">
+      <c r="E21" s="292">
+        <v>0.75800000000000001</v>
+      </c>
+      <c r="F21" s="314">
+        <v>1.25</v>
+      </c>
+      <c r="G21" s="300">
+        <v>0.254</v>
+      </c>
+      <c r="H21" s="301">
+        <v>0.5</v>
+      </c>
+      <c r="I21" s="26"/>
+      <c r="J21" s="321">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="K21" s="321">
+        <v>-0.27400000000000002</v>
+      </c>
+      <c r="L21" s="329">
+        <v>-6.6900000000000001E-2</v>
+      </c>
+      <c r="M21" s="4"/>
+      <c r="N21" s="12"/>
+    </row>
+    <row r="22" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="273"/>
+      <c r="C22" s="239"/>
+      <c r="D22" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="E20" s="227"/>
-      <c r="F20" s="229"/>
-      <c r="G20" s="236"/>
-      <c r="H20" s="237"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="238"/>
-      <c r="K20" s="238"/>
-      <c r="L20" s="232"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="12"/>
-    </row>
-    <row r="21" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="197"/>
-      <c r="C21" s="199"/>
-      <c r="D21" s="31" t="s">
+      <c r="E22" s="295">
+        <v>0.64700000000000002</v>
+      </c>
+      <c r="F22" s="296">
+        <v>1.18</v>
+      </c>
+      <c r="G22" s="304">
+        <v>0.219</v>
+      </c>
+      <c r="H22" s="113">
+        <v>0.45</v>
+      </c>
+      <c r="I22" s="30"/>
+      <c r="J22" s="323">
+        <v>0.19</v>
+      </c>
+      <c r="K22" s="323">
+        <v>-0.56599999999999995</v>
+      </c>
+      <c r="L22" s="329">
+        <v>-6.59E-2</v>
+      </c>
+      <c r="M22" s="3"/>
+      <c r="N22" s="12"/>
+    </row>
+    <row r="23" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="273"/>
+      <c r="C23" s="239"/>
+      <c r="D23" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="239"/>
-      <c r="F21" s="240"/>
-      <c r="G21" s="236"/>
-      <c r="H21" s="237"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="238"/>
-      <c r="K21" s="238"/>
-      <c r="L21" s="226"/>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="198"/>
-      <c r="C22" s="200"/>
-      <c r="D22" s="215" t="s">
+      <c r="E23" s="281">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="F23" s="303">
+        <v>1.27</v>
+      </c>
+      <c r="G23" s="278">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="H23" s="315">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="I23" s="30"/>
+      <c r="J23" s="57">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="K23" s="57">
+        <v>7.46E-2</v>
+      </c>
+      <c r="L23" s="84">
+        <v>-6.6199999999999995E-2</v>
+      </c>
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="274"/>
+      <c r="C24" s="240"/>
+      <c r="D24" s="190" t="s">
         <v>4</v>
       </c>
-      <c r="E22" s="241"/>
-      <c r="F22" s="242"/>
-      <c r="G22" s="243"/>
-      <c r="H22" s="244"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="245"/>
-      <c r="K22" s="245"/>
-      <c r="L22" s="246"/>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="2:23" ht="2.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="216"/>
-      <c r="C23" s="217"/>
-      <c r="D23" s="205"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="16"/>
-    </row>
-    <row r="24" spans="2:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B24" s="183" t="s">
+      <c r="E24" s="316">
+        <v>0.69699999999999995</v>
+      </c>
+      <c r="F24" s="317">
+        <v>1.18</v>
+      </c>
+      <c r="G24" s="309">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="H24" s="310">
+        <v>0.5</v>
+      </c>
+      <c r="I24" s="29"/>
+      <c r="J24" s="61">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="K24" s="61">
+        <v>-7.8299999999999995E-2</v>
+      </c>
+      <c r="L24" s="194">
+        <v>-6.7599999999999993E-2</v>
+      </c>
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="2:14" ht="2.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="191"/>
+      <c r="C25" s="192"/>
+      <c r="D25" s="181"/>
+      <c r="E25" s="280"/>
+      <c r="F25" s="280"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="16"/>
+    </row>
+    <row r="26" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B26" s="241" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="192" t="s">
+      <c r="C26" s="244" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="32" t="s">
+      <c r="D26" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="E24" s="221"/>
-      <c r="F24" s="222"/>
-      <c r="G24" s="223"/>
-      <c r="H24" s="222"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="225"/>
-      <c r="K24" s="225"/>
-      <c r="L24" s="224"/>
-    </row>
-    <row r="25" spans="2:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="184"/>
-      <c r="C25" s="193"/>
-      <c r="D25" s="31" t="s">
+      <c r="E26" s="50">
+        <v>0.63500000000000001</v>
+      </c>
+      <c r="F26" s="49">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G26" s="69">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="H26" s="349">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="I26" s="26"/>
+      <c r="J26" s="58">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="K26" s="58">
+        <v>-0.439</v>
+      </c>
+      <c r="L26" s="52">
+        <v>-0.129</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B27" s="242"/>
+      <c r="C27" s="245"/>
+      <c r="D27" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="227"/>
-      <c r="F25" s="229"/>
-      <c r="G25" s="228"/>
-      <c r="H25" s="229"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="231"/>
-      <c r="K25" s="231"/>
-      <c r="L25" s="230"/>
-    </row>
-    <row r="26" spans="2:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B26" s="184"/>
-      <c r="C26" s="193"/>
-      <c r="D26" s="31" t="s">
+      <c r="E27" s="47">
+        <v>0.51</v>
+      </c>
+      <c r="F27" s="51">
         <v>1</v>
       </c>
-      <c r="E26" s="249"/>
-      <c r="F26" s="250"/>
-      <c r="G26" s="234"/>
-      <c r="H26" s="224"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="235"/>
-      <c r="K26" s="235"/>
-      <c r="L26" s="255"/>
-    </row>
-    <row r="27" spans="2:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B27" s="184"/>
-      <c r="C27" s="193"/>
-      <c r="D27" s="31" t="s">
+      <c r="G27" s="63">
+        <v>0.182</v>
+      </c>
+      <c r="H27" s="51">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="I27" s="27"/>
+      <c r="J27" s="56">
+        <v>0.222</v>
+      </c>
+      <c r="K27" s="56">
+        <v>-0.60499999999999998</v>
+      </c>
+      <c r="L27" s="53">
+        <v>-0.16600000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B28" s="242"/>
+      <c r="C28" s="245"/>
+      <c r="D28" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="E28" s="76">
+        <v>0.6</v>
+      </c>
+      <c r="F28" s="77">
+        <v>1.18</v>
+      </c>
+      <c r="G28" s="64">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="H28" s="52">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="I28" s="26"/>
+      <c r="J28" s="59">
+        <v>0.122</v>
+      </c>
+      <c r="K28" s="59">
+        <v>-0.08</v>
+      </c>
+      <c r="L28" s="81">
+        <v>-0.14199999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B29" s="242"/>
+      <c r="C29" s="245"/>
+      <c r="D29" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="E27" s="239"/>
-      <c r="F27" s="240"/>
-      <c r="G27" s="236"/>
-      <c r="H27" s="230"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="238"/>
-      <c r="K27" s="238"/>
-      <c r="L27" s="256"/>
-    </row>
-    <row r="28" spans="2:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B28" s="184"/>
-      <c r="C28" s="193"/>
-      <c r="D28" s="31" t="s">
+      <c r="E29" s="346">
+        <v>0.41599999999999998</v>
+      </c>
+      <c r="F29" s="46">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="G29" s="66">
+        <v>0.152</v>
+      </c>
+      <c r="H29" s="350">
+        <v>0.4</v>
+      </c>
+      <c r="I29" s="27"/>
+      <c r="J29" s="57">
+        <v>0.129</v>
+      </c>
+      <c r="K29" s="57">
+        <v>4.5600000000000002E-2</v>
+      </c>
+      <c r="L29" s="82">
+        <v>-0.17199999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B30" s="242"/>
+      <c r="C30" s="245"/>
+      <c r="D30" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="E28" s="239"/>
-      <c r="F28" s="251"/>
-      <c r="G28" s="236"/>
-      <c r="H28" s="248"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="238"/>
-      <c r="K28" s="238"/>
-      <c r="L28" s="256"/>
-    </row>
-    <row r="29" spans="2:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="184"/>
-      <c r="C29" s="194"/>
-      <c r="D29" s="151" t="s">
+      <c r="E30" s="78">
+        <v>0.63200000000000001</v>
+      </c>
+      <c r="F30" s="195">
+        <v>1.2</v>
+      </c>
+      <c r="G30" s="66">
+        <v>0.217</v>
+      </c>
+      <c r="H30" s="74">
+        <v>0.5</v>
+      </c>
+      <c r="I30" s="28"/>
+      <c r="J30" s="57">
+        <v>7.0800000000000002E-2</v>
+      </c>
+      <c r="K30" s="118">
+        <v>2.87E-2</v>
+      </c>
+      <c r="L30" s="351">
+        <v>-0.109</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="242"/>
+      <c r="C31" s="246"/>
+      <c r="D31" s="151" t="s">
         <v>4</v>
       </c>
-      <c r="E29" s="241"/>
-      <c r="F29" s="242"/>
-      <c r="G29" s="243"/>
-      <c r="H29" s="244"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="245"/>
-      <c r="K29" s="245"/>
-      <c r="L29" s="257"/>
-    </row>
-    <row r="30" spans="2:23" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="184"/>
-      <c r="C30" s="195" t="s">
+      <c r="E31" s="79">
+        <v>0.45800000000000002</v>
+      </c>
+      <c r="F31" s="48">
+        <v>1</v>
+      </c>
+      <c r="G31" s="68">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="H31" s="54">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="I31" s="29"/>
+      <c r="J31" s="119">
+        <v>5.6599999999999998E-2</v>
+      </c>
+      <c r="K31" s="61">
+        <v>3.8899999999999997E-2</v>
+      </c>
+      <c r="L31" s="83">
+        <v>-0.113</v>
+      </c>
+      <c r="N31" s="12"/>
+    </row>
+    <row r="32" spans="2:14" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="242"/>
+      <c r="C32" s="247" t="s">
         <v>0</v>
       </c>
-      <c r="D30" s="219" t="s">
+      <c r="D32" s="193" t="s">
         <v>7</v>
       </c>
-      <c r="E30" s="252"/>
-      <c r="F30" s="253"/>
-      <c r="G30" s="254"/>
-      <c r="H30" s="253"/>
-      <c r="I30" s="210"/>
-      <c r="J30" s="258"/>
-      <c r="K30" s="258"/>
-      <c r="L30" s="259"/>
-    </row>
-    <row r="31" spans="2:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B31" s="184"/>
-      <c r="C31" s="193"/>
-      <c r="D31" s="31" t="s">
+      <c r="E32" s="183">
+        <v>0.64100000000000001</v>
+      </c>
+      <c r="F32" s="184">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G32" s="185">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="H32" s="184">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="I32" s="186"/>
+      <c r="J32" s="187">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="K32" s="187">
+        <v>-0.30599999999999999</v>
+      </c>
+      <c r="L32" s="188">
+        <v>-0.125</v>
+      </c>
+      <c r="N32" s="12"/>
+    </row>
+    <row r="33" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B33" s="242"/>
+      <c r="C33" s="245"/>
+      <c r="D33" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="E31" s="227"/>
-      <c r="F31" s="222"/>
-      <c r="G31" s="228"/>
-      <c r="H31" s="229"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="231"/>
-      <c r="K31" s="231"/>
-      <c r="L31" s="232"/>
-    </row>
-    <row r="32" spans="2:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B32" s="184"/>
-      <c r="C32" s="193"/>
-      <c r="D32" s="31" t="s">
+      <c r="E33" s="47">
+        <v>0.48299999999999998</v>
+      </c>
+      <c r="F33" s="49">
+        <v>1.05</v>
+      </c>
+      <c r="G33" s="63">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="H33" s="51">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="I33" s="27"/>
+      <c r="J33" s="56">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="K33" s="56">
+        <v>-0.60399999999999998</v>
+      </c>
+      <c r="L33" s="60">
+        <v>-0.16700000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B34" s="242"/>
+      <c r="C34" s="245"/>
+      <c r="D34" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="E32" s="221"/>
-      <c r="F32" s="233"/>
-      <c r="G32" s="234"/>
-      <c r="H32" s="224"/>
-      <c r="I32" s="26"/>
-      <c r="J32" s="235"/>
-      <c r="K32" s="235"/>
-      <c r="L32" s="232"/>
-    </row>
-    <row r="33" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B33" s="184"/>
-      <c r="C33" s="193"/>
-      <c r="D33" s="31" t="s">
+      <c r="E34" s="50">
+        <v>0.57199999999999995</v>
+      </c>
+      <c r="F34" s="80">
+        <v>1.18</v>
+      </c>
+      <c r="G34" s="64">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="H34" s="52">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="I34" s="26"/>
+      <c r="J34" s="59">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="K34" s="59">
+        <v>-0.314</v>
+      </c>
+      <c r="L34" s="60">
+        <v>-0.14499999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B35" s="242"/>
+      <c r="C35" s="245"/>
+      <c r="D35" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="E33" s="227"/>
-      <c r="F33" s="229"/>
-      <c r="G33" s="236"/>
-      <c r="H33" s="237"/>
-      <c r="I33" s="30"/>
-      <c r="J33" s="238"/>
-      <c r="K33" s="238"/>
-      <c r="L33" s="232"/>
-    </row>
-    <row r="34" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B34" s="184"/>
-      <c r="C34" s="193"/>
-      <c r="D34" s="31" t="s">
+      <c r="E35" s="109">
+        <v>0.41599999999999998</v>
+      </c>
+      <c r="F35" s="51">
+        <v>0.95</v>
+      </c>
+      <c r="G35" s="111">
+        <v>0.151</v>
+      </c>
+      <c r="H35" s="65">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="I35" s="30"/>
+      <c r="J35" s="57">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="K35" s="57">
+        <v>-0.438</v>
+      </c>
+      <c r="L35" s="124">
+        <v>-0.17799999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B36" s="242"/>
+      <c r="C36" s="245"/>
+      <c r="D36" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="E34" s="239"/>
-      <c r="F34" s="240"/>
-      <c r="G34" s="236"/>
-      <c r="H34" s="237"/>
-      <c r="I34" s="30"/>
-      <c r="J34" s="238"/>
-      <c r="K34" s="238"/>
-      <c r="L34" s="226"/>
-    </row>
-    <row r="35" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="184"/>
-      <c r="C35" s="194"/>
-      <c r="D35" s="151" t="s">
+      <c r="E36" s="78">
+        <v>0.63</v>
+      </c>
+      <c r="F36" s="46">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G36" s="66">
+        <v>0.215</v>
+      </c>
+      <c r="H36" s="65">
+        <v>0.5</v>
+      </c>
+      <c r="I36" s="30"/>
+      <c r="J36" s="57">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="K36" s="57">
+        <v>-5.8900000000000001E-2</v>
+      </c>
+      <c r="L36" s="120">
+        <v>-0.109</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="242"/>
+      <c r="C37" s="246"/>
+      <c r="D37" s="151" t="s">
         <v>4</v>
       </c>
-      <c r="E35" s="241"/>
-      <c r="F35" s="242"/>
-      <c r="G35" s="243"/>
-      <c r="H35" s="244"/>
-      <c r="I35" s="29"/>
-      <c r="J35" s="245"/>
-      <c r="K35" s="245"/>
-      <c r="L35" s="246"/>
-    </row>
-    <row r="36" spans="2:12" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="184"/>
-      <c r="C36" s="193" t="s">
+      <c r="E37" s="79">
+        <v>0.46600000000000003</v>
+      </c>
+      <c r="F37" s="131">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="G37" s="68">
+        <v>0.17</v>
+      </c>
+      <c r="H37" s="132">
+        <v>0.4</v>
+      </c>
+      <c r="I37" s="29"/>
+      <c r="J37" s="61">
+        <v>5.8299999999999998E-2</v>
+      </c>
+      <c r="K37" s="61">
+        <v>8.2900000000000001E-2</v>
+      </c>
+      <c r="L37" s="194">
+        <v>-0.11</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="242"/>
+      <c r="C38" s="245" t="s">
         <v>30</v>
       </c>
-      <c r="D36" s="214" t="s">
+      <c r="D38" s="189" t="s">
         <v>7</v>
       </c>
-      <c r="E36" s="221"/>
-      <c r="F36" s="222"/>
-      <c r="G36" s="223"/>
-      <c r="H36" s="222"/>
-      <c r="I36" s="26"/>
-      <c r="J36" s="225"/>
-      <c r="K36" s="225"/>
-      <c r="L36" s="226"/>
-    </row>
-    <row r="37" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B37" s="184"/>
-      <c r="C37" s="193"/>
-      <c r="D37" s="31" t="s">
+      <c r="E38" s="50">
+        <v>0.66500000000000004</v>
+      </c>
+      <c r="F38" s="49">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G38" s="348">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="H38" s="49">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="I38" s="26"/>
+      <c r="J38" s="58">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="K38" s="58">
+        <v>-0.30399999999999999</v>
+      </c>
+      <c r="L38" s="84">
+        <v>-0.127</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B39" s="242"/>
+      <c r="C39" s="245"/>
+      <c r="D39" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="E37" s="227"/>
-      <c r="F37" s="222"/>
-      <c r="G37" s="228"/>
-      <c r="H37" s="229"/>
-      <c r="I37" s="27"/>
-      <c r="J37" s="231"/>
-      <c r="K37" s="231"/>
-      <c r="L37" s="232"/>
-    </row>
-    <row r="38" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B38" s="184"/>
-      <c r="C38" s="193"/>
-      <c r="D38" s="31" t="s">
+      <c r="E39" s="47">
+        <v>0.51300000000000001</v>
+      </c>
+      <c r="F39" s="110">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="G39" s="63">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="H39" s="112">
+        <v>0.4</v>
+      </c>
+      <c r="I39" s="27"/>
+      <c r="J39" s="122">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="K39" s="122">
+        <v>-1.1200000000000001</v>
+      </c>
+      <c r="L39" s="60">
+        <v>-0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B40" s="242"/>
+      <c r="C40" s="245"/>
+      <c r="D40" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="E38" s="221"/>
-      <c r="F38" s="233"/>
-      <c r="G38" s="234"/>
-      <c r="H38" s="224"/>
-      <c r="I38" s="26"/>
-      <c r="J38" s="235"/>
-      <c r="K38" s="235"/>
-      <c r="L38" s="232"/>
-    </row>
-    <row r="39" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B39" s="184"/>
-      <c r="C39" s="193"/>
-      <c r="D39" s="31" t="s">
+      <c r="E40" s="50">
+        <v>0.60799999999999998</v>
+      </c>
+      <c r="F40" s="80">
+        <v>1.2</v>
+      </c>
+      <c r="G40" s="64">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="H40" s="52">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="I40" s="26"/>
+      <c r="J40" s="59">
+        <v>0.124</v>
+      </c>
+      <c r="K40" s="59">
+        <v>-0.27700000000000002</v>
+      </c>
+      <c r="L40" s="60">
+        <v>-0.13600000000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B41" s="242"/>
+      <c r="C41" s="245"/>
+      <c r="D41" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="E39" s="227"/>
-      <c r="F39" s="229"/>
-      <c r="G39" s="236"/>
-      <c r="H39" s="237"/>
-      <c r="I39" s="30"/>
-      <c r="J39" s="238"/>
-      <c r="K39" s="238"/>
-      <c r="L39" s="232"/>
-    </row>
-    <row r="40" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="184"/>
-      <c r="C40" s="193"/>
-      <c r="D40" s="31" t="s">
+      <c r="E41" s="47">
+        <v>0.443</v>
+      </c>
+      <c r="F41" s="51">
+        <v>1.05</v>
+      </c>
+      <c r="G41" s="66">
+        <v>0.159</v>
+      </c>
+      <c r="H41" s="113">
+        <v>0.4</v>
+      </c>
+      <c r="I41" s="30"/>
+      <c r="J41" s="57">
+        <v>0.126</v>
+      </c>
+      <c r="K41" s="57">
+        <v>-0.69399999999999995</v>
+      </c>
+      <c r="L41" s="60">
+        <v>-0.158</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B42" s="242"/>
+      <c r="C42" s="245"/>
+      <c r="D42" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="E40" s="239"/>
-      <c r="F40" s="240"/>
-      <c r="G40" s="236"/>
-      <c r="H40" s="237"/>
-      <c r="I40" s="30"/>
-      <c r="J40" s="238"/>
-      <c r="K40" s="238"/>
-      <c r="L40" s="226"/>
-    </row>
-    <row r="41" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="185"/>
-      <c r="C41" s="196"/>
-      <c r="D41" s="215" t="s">
+      <c r="E42" s="116">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="F42" s="347">
+        <v>1.25</v>
+      </c>
+      <c r="G42" s="66">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="H42" s="65">
+        <v>0.5</v>
+      </c>
+      <c r="I42" s="30"/>
+      <c r="J42" s="57">
+        <v>8.1199999999999994E-2</v>
+      </c>
+      <c r="K42" s="57">
+        <v>-0.42399999999999999</v>
+      </c>
+      <c r="L42" s="84">
+        <v>-0.11</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="243"/>
+      <c r="C43" s="248"/>
+      <c r="D43" s="190" t="s">
         <v>4</v>
       </c>
-      <c r="E41" s="241"/>
-      <c r="F41" s="242"/>
-      <c r="G41" s="243"/>
-      <c r="H41" s="244"/>
-      <c r="I41" s="29"/>
-      <c r="J41" s="245"/>
-      <c r="K41" s="245"/>
-      <c r="L41" s="246"/>
-    </row>
-    <row r="42" spans="2:12" ht="2.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="262"/>
-      <c r="C42" s="263"/>
-      <c r="D42" s="264"/>
-      <c r="E42" s="101"/>
-      <c r="F42" s="102"/>
-      <c r="G42" s="265"/>
-      <c r="H42" s="206"/>
-      <c r="I42" s="206"/>
-      <c r="J42" s="266"/>
-      <c r="K42" s="266"/>
-      <c r="L42" s="206"/>
-    </row>
-    <row r="43" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B43" s="183" t="s">
+      <c r="E43" s="79">
+        <v>0.48599999999999999</v>
+      </c>
+      <c r="F43" s="48">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G43" s="68">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="H43" s="54">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="I43" s="29"/>
+      <c r="J43" s="61">
+        <v>7.3700000000000002E-2</v>
+      </c>
+      <c r="K43" s="61">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="L43" s="194">
+        <v>-0.112</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" ht="2.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="198"/>
+      <c r="C44" s="199"/>
+      <c r="D44" s="200"/>
+      <c r="E44" s="101"/>
+      <c r="F44" s="102"/>
+      <c r="G44" s="201"/>
+      <c r="H44" s="182"/>
+      <c r="I44" s="182"/>
+      <c r="J44" s="202"/>
+      <c r="K44" s="202"/>
+      <c r="L44" s="182"/>
+    </row>
+    <row r="45" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B45" s="241" t="s">
         <v>14</v>
       </c>
-      <c r="C43" s="192" t="s">
+      <c r="C45" s="244" t="s">
         <v>9</v>
       </c>
-      <c r="D43" s="32" t="s">
+      <c r="D45" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="E43" s="267"/>
-      <c r="F43" s="268"/>
-      <c r="G43" s="269"/>
-      <c r="H43" s="268"/>
-      <c r="I43" s="261"/>
-      <c r="J43" s="270"/>
-      <c r="K43" s="270"/>
-      <c r="L43" s="271"/>
-    </row>
-    <row r="44" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B44" s="184"/>
-      <c r="C44" s="193"/>
-      <c r="D44" s="31" t="s">
+      <c r="E45" s="45"/>
+      <c r="F45" s="73"/>
+      <c r="G45" s="62"/>
+      <c r="H45" s="73"/>
+      <c r="I45" s="197"/>
+      <c r="J45" s="55"/>
+      <c r="K45" s="55"/>
+      <c r="L45" s="72"/>
+    </row>
+    <row r="46" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B46" s="242"/>
+      <c r="C46" s="245"/>
+      <c r="D46" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="E44" s="227"/>
-      <c r="F44" s="229"/>
-      <c r="G44" s="228"/>
-      <c r="H44" s="229"/>
-      <c r="I44" s="27"/>
-      <c r="J44" s="231"/>
-      <c r="K44" s="231"/>
-      <c r="L44" s="230"/>
-    </row>
-    <row r="45" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B45" s="184"/>
-      <c r="C45" s="193"/>
-      <c r="D45" s="31" t="s">
+      <c r="E46" s="47"/>
+      <c r="F46" s="51"/>
+      <c r="G46" s="63"/>
+      <c r="H46" s="51"/>
+      <c r="I46" s="27"/>
+      <c r="J46" s="56"/>
+      <c r="K46" s="56"/>
+      <c r="L46" s="53"/>
+    </row>
+    <row r="47" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B47" s="242"/>
+      <c r="C47" s="245"/>
+      <c r="D47" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="E45" s="249"/>
-      <c r="F45" s="250"/>
-      <c r="G45" s="234"/>
-      <c r="H45" s="224"/>
-      <c r="I45" s="26"/>
-      <c r="J45" s="235"/>
-      <c r="K45" s="235"/>
-      <c r="L45" s="255"/>
-    </row>
-    <row r="46" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B46" s="184"/>
-      <c r="C46" s="193"/>
-      <c r="D46" s="31" t="s">
+      <c r="E47" s="76"/>
+      <c r="F47" s="77"/>
+      <c r="G47" s="64"/>
+      <c r="H47" s="52"/>
+      <c r="I47" s="26"/>
+      <c r="J47" s="59"/>
+      <c r="K47" s="59"/>
+      <c r="L47" s="81"/>
+    </row>
+    <row r="48" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B48" s="242"/>
+      <c r="C48" s="245"/>
+      <c r="D48" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="E46" s="239"/>
-      <c r="F46" s="240"/>
-      <c r="G46" s="236"/>
-      <c r="H46" s="230"/>
-      <c r="I46" s="27"/>
-      <c r="J46" s="238"/>
-      <c r="K46" s="238"/>
-      <c r="L46" s="256"/>
-    </row>
-    <row r="47" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B47" s="184"/>
-      <c r="C47" s="193"/>
-      <c r="D47" s="31" t="s">
+      <c r="E48" s="78"/>
+      <c r="F48" s="46"/>
+      <c r="G48" s="66"/>
+      <c r="H48" s="53"/>
+      <c r="I48" s="27"/>
+      <c r="J48" s="57"/>
+      <c r="K48" s="57"/>
+      <c r="L48" s="82"/>
+    </row>
+    <row r="49" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B49" s="242"/>
+      <c r="C49" s="245"/>
+      <c r="D49" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="E47" s="239"/>
-      <c r="F47" s="251"/>
-      <c r="G47" s="236"/>
-      <c r="H47" s="248"/>
-      <c r="I47" s="28"/>
-      <c r="J47" s="238"/>
-      <c r="K47" s="238"/>
-      <c r="L47" s="256"/>
-    </row>
-    <row r="48" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="184"/>
-      <c r="C48" s="194"/>
-      <c r="D48" s="151" t="s">
+      <c r="E49" s="78"/>
+      <c r="F49" s="195"/>
+      <c r="G49" s="66"/>
+      <c r="H49" s="74"/>
+      <c r="I49" s="28"/>
+      <c r="J49" s="57"/>
+      <c r="K49" s="57"/>
+      <c r="L49" s="82"/>
+    </row>
+    <row r="50" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="242"/>
+      <c r="C50" s="246"/>
+      <c r="D50" s="151" t="s">
         <v>4</v>
       </c>
-      <c r="E48" s="241"/>
-      <c r="F48" s="242"/>
-      <c r="G48" s="243"/>
-      <c r="H48" s="244"/>
-      <c r="I48" s="29"/>
-      <c r="J48" s="245"/>
-      <c r="K48" s="245"/>
-      <c r="L48" s="257"/>
-    </row>
-    <row r="49" spans="2:12" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="184"/>
-      <c r="C49" s="195" t="s">
+      <c r="E50" s="79"/>
+      <c r="F50" s="48"/>
+      <c r="G50" s="68"/>
+      <c r="H50" s="54"/>
+      <c r="I50" s="29"/>
+      <c r="J50" s="61"/>
+      <c r="K50" s="61"/>
+      <c r="L50" s="83"/>
+    </row>
+    <row r="51" spans="2:12" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="242"/>
+      <c r="C51" s="247" t="s">
         <v>0</v>
       </c>
-      <c r="D49" s="219" t="s">
+      <c r="D51" s="193" t="s">
         <v>7</v>
       </c>
-      <c r="E49" s="252"/>
-      <c r="F49" s="253"/>
-      <c r="G49" s="254"/>
-      <c r="H49" s="253"/>
-      <c r="I49" s="210"/>
-      <c r="J49" s="258"/>
-      <c r="K49" s="258"/>
-      <c r="L49" s="259"/>
-    </row>
-    <row r="50" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B50" s="184"/>
-      <c r="C50" s="193"/>
-      <c r="D50" s="31" t="s">
+      <c r="E51" s="183"/>
+      <c r="F51" s="184"/>
+      <c r="G51" s="185"/>
+      <c r="H51" s="184"/>
+      <c r="I51" s="186"/>
+      <c r="J51" s="187"/>
+      <c r="K51" s="187"/>
+      <c r="L51" s="188"/>
+    </row>
+    <row r="52" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B52" s="242"/>
+      <c r="C52" s="245"/>
+      <c r="D52" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="E50" s="227"/>
-      <c r="F50" s="222"/>
-      <c r="G50" s="228"/>
-      <c r="H50" s="229"/>
-      <c r="I50" s="27"/>
-      <c r="J50" s="231"/>
-      <c r="K50" s="231"/>
-      <c r="L50" s="232"/>
-    </row>
-    <row r="51" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B51" s="184"/>
-      <c r="C51" s="193"/>
-      <c r="D51" s="31" t="s">
+      <c r="E52" s="47"/>
+      <c r="F52" s="49"/>
+      <c r="G52" s="63"/>
+      <c r="H52" s="51"/>
+      <c r="I52" s="27"/>
+      <c r="J52" s="56"/>
+      <c r="K52" s="56"/>
+      <c r="L52" s="60"/>
+    </row>
+    <row r="53" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B53" s="242"/>
+      <c r="C53" s="245"/>
+      <c r="D53" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="E51" s="221"/>
-      <c r="F51" s="233"/>
-      <c r="G51" s="234"/>
-      <c r="H51" s="224"/>
-      <c r="I51" s="26"/>
-      <c r="J51" s="235"/>
-      <c r="K51" s="235"/>
-      <c r="L51" s="232"/>
-    </row>
-    <row r="52" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B52" s="184"/>
-      <c r="C52" s="193"/>
-      <c r="D52" s="31" t="s">
+      <c r="E53" s="50"/>
+      <c r="F53" s="80"/>
+      <c r="G53" s="64"/>
+      <c r="H53" s="52"/>
+      <c r="I53" s="26"/>
+      <c r="J53" s="59"/>
+      <c r="K53" s="59"/>
+      <c r="L53" s="60"/>
+    </row>
+    <row r="54" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B54" s="242"/>
+      <c r="C54" s="245"/>
+      <c r="D54" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="E52" s="227"/>
-      <c r="F52" s="229"/>
-      <c r="G52" s="236"/>
-      <c r="H52" s="237"/>
-      <c r="I52" s="30"/>
-      <c r="J52" s="238"/>
-      <c r="K52" s="238"/>
-      <c r="L52" s="232"/>
-    </row>
-    <row r="53" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B53" s="184"/>
-      <c r="C53" s="193"/>
-      <c r="D53" s="31" t="s">
+      <c r="E54" s="47"/>
+      <c r="F54" s="51"/>
+      <c r="G54" s="66"/>
+      <c r="H54" s="65"/>
+      <c r="I54" s="30"/>
+      <c r="J54" s="57"/>
+      <c r="K54" s="57"/>
+      <c r="L54" s="60"/>
+    </row>
+    <row r="55" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B55" s="242"/>
+      <c r="C55" s="245"/>
+      <c r="D55" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="E53" s="239"/>
-      <c r="F53" s="240"/>
-      <c r="G53" s="236"/>
-      <c r="H53" s="237"/>
-      <c r="I53" s="30"/>
-      <c r="J53" s="238"/>
-      <c r="K53" s="238"/>
-      <c r="L53" s="226"/>
-    </row>
-    <row r="54" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="184"/>
-      <c r="C54" s="194"/>
-      <c r="D54" s="151" t="s">
+      <c r="E55" s="78"/>
+      <c r="F55" s="46"/>
+      <c r="G55" s="66"/>
+      <c r="H55" s="65"/>
+      <c r="I55" s="30"/>
+      <c r="J55" s="57"/>
+      <c r="K55" s="57"/>
+      <c r="L55" s="84"/>
+    </row>
+    <row r="56" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="242"/>
+      <c r="C56" s="246"/>
+      <c r="D56" s="151" t="s">
         <v>4</v>
       </c>
-      <c r="E54" s="241"/>
-      <c r="F54" s="242"/>
-      <c r="G54" s="243"/>
-      <c r="H54" s="244"/>
-      <c r="I54" s="29"/>
-      <c r="J54" s="245"/>
-      <c r="K54" s="245"/>
-      <c r="L54" s="246"/>
-    </row>
-    <row r="55" spans="2:12" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="184"/>
-      <c r="C55" s="193" t="s">
+      <c r="E56" s="79"/>
+      <c r="F56" s="48"/>
+      <c r="G56" s="68"/>
+      <c r="H56" s="54"/>
+      <c r="I56" s="29"/>
+      <c r="J56" s="61"/>
+      <c r="K56" s="61"/>
+      <c r="L56" s="194"/>
+    </row>
+    <row r="57" spans="2:12" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="242"/>
+      <c r="C57" s="245" t="s">
         <v>30</v>
       </c>
-      <c r="D55" s="214" t="s">
+      <c r="D57" s="189" t="s">
         <v>7</v>
       </c>
-      <c r="E55" s="221"/>
-      <c r="F55" s="222"/>
-      <c r="G55" s="223"/>
-      <c r="H55" s="222"/>
-      <c r="I55" s="26"/>
-      <c r="J55" s="225"/>
-      <c r="K55" s="225"/>
-      <c r="L55" s="226"/>
-    </row>
-    <row r="56" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B56" s="184"/>
-      <c r="C56" s="193"/>
-      <c r="D56" s="31" t="s">
+      <c r="E57" s="50"/>
+      <c r="F57" s="49"/>
+      <c r="G57" s="69"/>
+      <c r="H57" s="49"/>
+      <c r="I57" s="26"/>
+      <c r="J57" s="58"/>
+      <c r="K57" s="58"/>
+      <c r="L57" s="84"/>
+    </row>
+    <row r="58" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B58" s="242"/>
+      <c r="C58" s="245"/>
+      <c r="D58" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="E56" s="227"/>
-      <c r="F56" s="222"/>
-      <c r="G56" s="228"/>
-      <c r="H56" s="229"/>
-      <c r="I56" s="27"/>
-      <c r="J56" s="231"/>
-      <c r="K56" s="231"/>
-      <c r="L56" s="232"/>
-    </row>
-    <row r="57" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B57" s="184"/>
-      <c r="C57" s="193"/>
-      <c r="D57" s="31" t="s">
+      <c r="E58" s="47"/>
+      <c r="F58" s="49"/>
+      <c r="G58" s="63"/>
+      <c r="H58" s="51"/>
+      <c r="I58" s="27"/>
+      <c r="J58" s="56"/>
+      <c r="K58" s="56"/>
+      <c r="L58" s="60"/>
+    </row>
+    <row r="59" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B59" s="242"/>
+      <c r="C59" s="245"/>
+      <c r="D59" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="E57" s="221"/>
-      <c r="F57" s="233"/>
-      <c r="G57" s="234"/>
-      <c r="H57" s="224"/>
-      <c r="I57" s="26"/>
-      <c r="J57" s="235"/>
-      <c r="K57" s="235"/>
-      <c r="L57" s="232"/>
-    </row>
-    <row r="58" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B58" s="184"/>
-      <c r="C58" s="193"/>
-      <c r="D58" s="31" t="s">
+      <c r="E59" s="50"/>
+      <c r="F59" s="80"/>
+      <c r="G59" s="64"/>
+      <c r="H59" s="52"/>
+      <c r="I59" s="26"/>
+      <c r="J59" s="59"/>
+      <c r="K59" s="59"/>
+      <c r="L59" s="60"/>
+    </row>
+    <row r="60" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B60" s="242"/>
+      <c r="C60" s="245"/>
+      <c r="D60" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="E58" s="227"/>
-      <c r="F58" s="229"/>
-      <c r="G58" s="236"/>
-      <c r="H58" s="237"/>
-      <c r="I58" s="30"/>
-      <c r="J58" s="238"/>
-      <c r="K58" s="238"/>
-      <c r="L58" s="232"/>
-    </row>
-    <row r="59" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B59" s="184"/>
-      <c r="C59" s="193"/>
-      <c r="D59" s="31" t="s">
+      <c r="E60" s="47"/>
+      <c r="F60" s="51"/>
+      <c r="G60" s="66"/>
+      <c r="H60" s="65"/>
+      <c r="I60" s="30"/>
+      <c r="J60" s="57"/>
+      <c r="K60" s="57"/>
+      <c r="L60" s="60"/>
+    </row>
+    <row r="61" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B61" s="242"/>
+      <c r="C61" s="245"/>
+      <c r="D61" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="E59" s="239"/>
-      <c r="F59" s="240"/>
-      <c r="G59" s="236"/>
-      <c r="H59" s="237"/>
-      <c r="I59" s="30"/>
-      <c r="J59" s="238"/>
-      <c r="K59" s="238"/>
-      <c r="L59" s="226"/>
-    </row>
-    <row r="60" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="185"/>
-      <c r="C60" s="196"/>
-      <c r="D60" s="215" t="s">
+      <c r="E61" s="78"/>
+      <c r="F61" s="46"/>
+      <c r="G61" s="66"/>
+      <c r="H61" s="65"/>
+      <c r="I61" s="30"/>
+      <c r="J61" s="57"/>
+      <c r="K61" s="57"/>
+      <c r="L61" s="84"/>
+    </row>
+    <row r="62" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="243"/>
+      <c r="C62" s="248"/>
+      <c r="D62" s="190" t="s">
         <v>4</v>
       </c>
-      <c r="E60" s="272"/>
-      <c r="F60" s="273"/>
-      <c r="G60" s="274"/>
-      <c r="H60" s="275"/>
-      <c r="I60" s="276"/>
-      <c r="J60" s="277"/>
-      <c r="K60" s="277"/>
-      <c r="L60" s="278"/>
+      <c r="E62" s="86"/>
+      <c r="F62" s="87"/>
+      <c r="G62" s="203"/>
+      <c r="H62" s="71"/>
+      <c r="I62" s="204"/>
+      <c r="J62" s="75"/>
+      <c r="K62" s="75"/>
+      <c r="L62" s="205"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="C17:C22"/>
-    <mergeCell ref="B24:B41"/>
-    <mergeCell ref="C24:C29"/>
-    <mergeCell ref="C30:C35"/>
-    <mergeCell ref="C36:C41"/>
-    <mergeCell ref="B43:B60"/>
-    <mergeCell ref="C43:C48"/>
-    <mergeCell ref="C49:C54"/>
-    <mergeCell ref="C55:C60"/>
-    <mergeCell ref="E2:H2"/>
     <mergeCell ref="J2:L2"/>
-    <mergeCell ref="B5:B22"/>
+    <mergeCell ref="B7:B24"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="G3:H3"/>
-    <mergeCell ref="C5:C10"/>
+    <mergeCell ref="C7:C12"/>
     <mergeCell ref="B3:D3"/>
-    <mergeCell ref="C11:C16"/>
+    <mergeCell ref="C13:C18"/>
+    <mergeCell ref="B45:B62"/>
+    <mergeCell ref="C45:C50"/>
+    <mergeCell ref="C51:C56"/>
+    <mergeCell ref="C57:C62"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="C19:C24"/>
+    <mergeCell ref="B26:B43"/>
+    <mergeCell ref="C26:C31"/>
+    <mergeCell ref="C32:C37"/>
+    <mergeCell ref="C38:C43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3881,11 +4515,1103 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B231CC3-D9AD-455D-ADFE-35ECD82C214F}">
+  <dimension ref="B1:V46"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="50" zoomScalePageLayoutView="40" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="10" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" customWidth="1"/>
+    <col min="7" max="7" width="9" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" customWidth="1"/>
+    <col min="9" max="9" width="0.42578125" customWidth="1"/>
+    <col min="10" max="11" width="11" customWidth="1"/>
+    <col min="12" max="12" width="10.42578125" customWidth="1"/>
+    <col min="13" max="13" width="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:22" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E2" s="249" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="250"/>
+      <c r="G2" s="250"/>
+      <c r="H2" s="251"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="252" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="250"/>
+      <c r="L2" s="251"/>
+    </row>
+    <row r="3" spans="2:22" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="270" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="271"/>
+      <c r="D3" s="272"/>
+      <c r="E3" s="256" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="257"/>
+      <c r="G3" s="258" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="257"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="13"/>
+    </row>
+    <row r="4" spans="2:22" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="275" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="149" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="267" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="269" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="25"/>
+      <c r="J4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="2:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="403" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="404" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="291" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="400">
+        <v>0.93400000000000005</v>
+      </c>
+      <c r="F5" s="401">
+        <v>1.3</v>
+      </c>
+      <c r="G5" s="402">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="H5" s="401">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="I5" s="268"/>
+      <c r="J5" s="331" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" s="332" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5" s="333" t="s">
+        <v>31</v>
+      </c>
+      <c r="M5" s="1"/>
+    </row>
+    <row r="6" spans="2:22" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="283"/>
+      <c r="C6" s="284"/>
+      <c r="D6" s="285"/>
+      <c r="E6" s="286"/>
+      <c r="F6" s="287"/>
+      <c r="G6" s="288"/>
+      <c r="H6" s="287"/>
+      <c r="I6" s="268"/>
+      <c r="J6" s="233"/>
+      <c r="K6" s="289"/>
+      <c r="L6" s="290"/>
+      <c r="M6" s="1"/>
+    </row>
+    <row r="7" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="372" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="373" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="381" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="374">
+        <v>0.66800000000000004</v>
+      </c>
+      <c r="F7" s="375">
+        <v>1.23</v>
+      </c>
+      <c r="G7" s="376">
+        <v>0.223</v>
+      </c>
+      <c r="H7" s="375">
+        <v>0.5</v>
+      </c>
+      <c r="I7" s="27"/>
+      <c r="J7" s="122">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="K7" s="320">
+        <v>-0.57899999999999996</v>
+      </c>
+      <c r="L7" s="305">
+        <v>-8.1299999999999997E-2</v>
+      </c>
+      <c r="M7" s="3"/>
+    </row>
+    <row r="8" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="273"/>
+      <c r="C8" s="245"/>
+      <c r="D8" s="380" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="70">
+        <v>0.63800000000000001</v>
+      </c>
+      <c r="F8" s="46">
+        <v>1.18</v>
+      </c>
+      <c r="G8" s="78">
+        <v>0.217</v>
+      </c>
+      <c r="H8" s="46">
+        <v>0.5</v>
+      </c>
+      <c r="I8" s="367"/>
+      <c r="J8" s="368">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="K8" s="368">
+        <v>-0.58899999999999997</v>
+      </c>
+      <c r="L8" s="369">
+        <v>-7.0999999999999994E-2</v>
+      </c>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="2:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="273"/>
+      <c r="C9" s="246"/>
+      <c r="D9" s="382" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="370">
+        <v>0.78200000000000003</v>
+      </c>
+      <c r="F9" s="364">
+        <v>1.38</v>
+      </c>
+      <c r="G9" s="371">
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="H9" s="365">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="I9" s="366"/>
+      <c r="J9" s="325">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="K9" s="325">
+        <v>5.0200000000000002E-2</v>
+      </c>
+      <c r="L9" s="326">
+        <v>-6.6500000000000004E-2</v>
+      </c>
+      <c r="M9" s="2"/>
+      <c r="N9" s="12"/>
+    </row>
+    <row r="10" spans="2:22" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="273"/>
+      <c r="C10" s="239" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="383" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="292">
+        <v>0.63600000000000001</v>
+      </c>
+      <c r="F10" s="110">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G10" s="294">
+        <v>0.218</v>
+      </c>
+      <c r="H10" s="293">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="I10" s="26"/>
+      <c r="J10" s="339">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="K10" s="339">
+        <v>-0.65600000000000003</v>
+      </c>
+      <c r="L10" s="363">
+        <v>-8.5300000000000001E-2</v>
+      </c>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="273"/>
+      <c r="C11" s="239"/>
+      <c r="D11" s="380" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="282">
+        <v>0.61799999999999999</v>
+      </c>
+      <c r="F11" s="296">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="G11" s="279">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="H11" s="315">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="I11" s="30"/>
+      <c r="J11" s="323">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="K11" s="123">
+        <v>-0.89800000000000002</v>
+      </c>
+      <c r="L11" s="329">
+        <v>-6.6000000000000003E-2</v>
+      </c>
+      <c r="M11" s="3"/>
+      <c r="P11" s="43"/>
+      <c r="Q11" s="43"/>
+      <c r="R11" s="43"/>
+      <c r="S11" s="43"/>
+      <c r="T11" s="206"/>
+      <c r="U11" s="206"/>
+      <c r="V11" s="206"/>
+    </row>
+    <row r="12" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="273"/>
+      <c r="C12" s="239"/>
+      <c r="D12" s="380" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="302">
+        <v>0.77200000000000002</v>
+      </c>
+      <c r="F12" s="303">
+        <v>1.27</v>
+      </c>
+      <c r="G12" s="304">
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="H12" s="117">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="I12" s="30"/>
+      <c r="J12" s="118">
+        <v>0.13</v>
+      </c>
+      <c r="K12" s="323">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="L12" s="120">
+        <v>-6.2899999999999998E-2</v>
+      </c>
+      <c r="M12" s="3"/>
+      <c r="N12" s="12"/>
+    </row>
+    <row r="13" spans="2:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="273"/>
+      <c r="C13" s="259"/>
+      <c r="D13" s="384" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="307">
+        <v>0.69099999999999995</v>
+      </c>
+      <c r="F13" s="308">
+        <v>1.18</v>
+      </c>
+      <c r="G13" s="309">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="H13" s="310">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="I13" s="29"/>
+      <c r="J13" s="325">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="K13" s="119">
+        <v>1.7299999999999999E-2</v>
+      </c>
+      <c r="L13" s="330">
+        <v>-6.25E-2</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="2:22" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="273"/>
+      <c r="C14" s="239" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="380" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="295">
+        <v>0.64700000000000002</v>
+      </c>
+      <c r="F14" s="296">
+        <v>1.18</v>
+      </c>
+      <c r="G14" s="304">
+        <v>0.219</v>
+      </c>
+      <c r="H14" s="113">
+        <v>0.45</v>
+      </c>
+      <c r="I14" s="30"/>
+      <c r="J14" s="323">
+        <v>0.19</v>
+      </c>
+      <c r="K14" s="323">
+        <v>-0.56599999999999995</v>
+      </c>
+      <c r="L14" s="329">
+        <v>-6.59E-2</v>
+      </c>
+      <c r="M14" s="3"/>
+      <c r="N14" s="12"/>
+    </row>
+    <row r="15" spans="2:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="274"/>
+      <c r="C15" s="240"/>
+      <c r="D15" s="385" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="377">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="F15" s="317">
+        <v>1.27</v>
+      </c>
+      <c r="G15" s="378">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="H15" s="379">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="I15" s="30"/>
+      <c r="J15" s="57">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="K15" s="57">
+        <v>7.46E-2</v>
+      </c>
+      <c r="L15" s="84">
+        <v>-6.6199999999999995E-2</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="2:22" ht="2.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="191"/>
+      <c r="C16" s="192"/>
+      <c r="D16" s="181"/>
+      <c r="E16" s="280"/>
+      <c r="F16" s="280"/>
+      <c r="G16" s="280"/>
+      <c r="H16" s="280"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="16"/>
+    </row>
+    <row r="17" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B17" s="241" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="244" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="50">
+        <v>0.63500000000000001</v>
+      </c>
+      <c r="F17" s="49">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G17" s="69">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="H17" s="349">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="I17" s="26"/>
+      <c r="J17" s="58">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="K17" s="58">
+        <v>-0.439</v>
+      </c>
+      <c r="L17" s="52">
+        <v>-0.129</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B18" s="242"/>
+      <c r="C18" s="245"/>
+      <c r="D18" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" s="346">
+        <v>0.41599999999999998</v>
+      </c>
+      <c r="F18" s="46">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="G18" s="66">
+        <v>0.152</v>
+      </c>
+      <c r="H18" s="350">
+        <v>0.4</v>
+      </c>
+      <c r="I18" s="27"/>
+      <c r="J18" s="57">
+        <v>0.129</v>
+      </c>
+      <c r="K18" s="57">
+        <v>4.5600000000000002E-2</v>
+      </c>
+      <c r="L18" s="82">
+        <v>-0.17199999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B19" s="242"/>
+      <c r="C19" s="245"/>
+      <c r="D19" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="78">
+        <v>0.63200000000000001</v>
+      </c>
+      <c r="F19" s="195">
+        <v>1.2</v>
+      </c>
+      <c r="G19" s="66">
+        <v>0.217</v>
+      </c>
+      <c r="H19" s="74">
+        <v>0.5</v>
+      </c>
+      <c r="I19" s="28"/>
+      <c r="J19" s="57">
+        <v>7.0800000000000002E-2</v>
+      </c>
+      <c r="K19" s="118">
+        <v>2.87E-2</v>
+      </c>
+      <c r="L19" s="351">
+        <v>-0.109</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="242"/>
+      <c r="C20" s="246"/>
+      <c r="D20" s="151" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="79">
+        <v>0.45800000000000002</v>
+      </c>
+      <c r="F20" s="48">
+        <v>1</v>
+      </c>
+      <c r="G20" s="68">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="H20" s="54">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="I20" s="29"/>
+      <c r="J20" s="119">
+        <v>5.6599999999999998E-2</v>
+      </c>
+      <c r="K20" s="61">
+        <v>3.8899999999999997E-2</v>
+      </c>
+      <c r="L20" s="83">
+        <v>-0.113</v>
+      </c>
+      <c r="N20" s="12"/>
+    </row>
+    <row r="21" spans="2:14" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="242"/>
+      <c r="C21" s="245" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" s="109">
+        <v>0.41599999999999998</v>
+      </c>
+      <c r="F21" s="51">
+        <v>0.95</v>
+      </c>
+      <c r="G21" s="111">
+        <v>0.151</v>
+      </c>
+      <c r="H21" s="65">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="I21" s="30"/>
+      <c r="J21" s="57">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="K21" s="57">
+        <v>-0.438</v>
+      </c>
+      <c r="L21" s="124">
+        <v>-0.17799999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B22" s="242"/>
+      <c r="C22" s="245"/>
+      <c r="D22" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="78">
+        <v>0.63</v>
+      </c>
+      <c r="F22" s="46">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G22" s="66">
+        <v>0.215</v>
+      </c>
+      <c r="H22" s="65">
+        <v>0.5</v>
+      </c>
+      <c r="I22" s="30"/>
+      <c r="J22" s="57">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="K22" s="57">
+        <v>-5.8900000000000001E-2</v>
+      </c>
+      <c r="L22" s="120">
+        <v>-0.109</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="242"/>
+      <c r="C23" s="246"/>
+      <c r="D23" s="151" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="79">
+        <v>0.46600000000000003</v>
+      </c>
+      <c r="F23" s="131">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="G23" s="68">
+        <v>0.17</v>
+      </c>
+      <c r="H23" s="132">
+        <v>0.4</v>
+      </c>
+      <c r="I23" s="29"/>
+      <c r="J23" s="61">
+        <v>5.8299999999999998E-2</v>
+      </c>
+      <c r="K23" s="61">
+        <v>8.2900000000000001E-2</v>
+      </c>
+      <c r="L23" s="194">
+        <v>-0.11</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="242"/>
+      <c r="C24" s="245" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="189" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="50">
+        <v>0.66500000000000004</v>
+      </c>
+      <c r="F24" s="49">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G24" s="348">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="H24" s="49">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="I24" s="26"/>
+      <c r="J24" s="58">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="K24" s="58">
+        <v>-0.30399999999999999</v>
+      </c>
+      <c r="L24" s="84">
+        <v>-0.127</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B25" s="242"/>
+      <c r="C25" s="245"/>
+      <c r="D25" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="47">
+        <v>0.51300000000000001</v>
+      </c>
+      <c r="F25" s="110">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="G25" s="63">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="H25" s="112">
+        <v>0.4</v>
+      </c>
+      <c r="I25" s="27"/>
+      <c r="J25" s="122">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="K25" s="122">
+        <v>-1.1200000000000001</v>
+      </c>
+      <c r="L25" s="60">
+        <v>-0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B26" s="242"/>
+      <c r="C26" s="245"/>
+      <c r="D26" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26" s="47">
+        <v>0.443</v>
+      </c>
+      <c r="F26" s="51">
+        <v>1.05</v>
+      </c>
+      <c r="G26" s="66">
+        <v>0.159</v>
+      </c>
+      <c r="H26" s="113">
+        <v>0.4</v>
+      </c>
+      <c r="I26" s="30"/>
+      <c r="J26" s="57">
+        <v>0.126</v>
+      </c>
+      <c r="K26" s="57">
+        <v>-0.69399999999999995</v>
+      </c>
+      <c r="L26" s="60">
+        <v>-0.158</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B27" s="242"/>
+      <c r="C27" s="245"/>
+      <c r="D27" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="116">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="F27" s="347">
+        <v>1.25</v>
+      </c>
+      <c r="G27" s="66">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="H27" s="65">
+        <v>0.5</v>
+      </c>
+      <c r="I27" s="30"/>
+      <c r="J27" s="57">
+        <v>8.1199999999999994E-2</v>
+      </c>
+      <c r="K27" s="57">
+        <v>-0.42399999999999999</v>
+      </c>
+      <c r="L27" s="84">
+        <v>-0.11</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" ht="2.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="198"/>
+      <c r="C28" s="199"/>
+      <c r="D28" s="200"/>
+      <c r="E28" s="101"/>
+      <c r="F28" s="102"/>
+      <c r="G28" s="201"/>
+      <c r="H28" s="182"/>
+      <c r="I28" s="182"/>
+      <c r="J28" s="202"/>
+      <c r="K28" s="202"/>
+      <c r="L28" s="182"/>
+    </row>
+    <row r="29" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B29" s="241" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="244" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" s="45"/>
+      <c r="F29" s="73"/>
+      <c r="G29" s="62"/>
+      <c r="H29" s="73"/>
+      <c r="I29" s="197"/>
+      <c r="J29" s="55"/>
+      <c r="K29" s="55"/>
+      <c r="L29" s="72"/>
+    </row>
+    <row r="30" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B30" s="242"/>
+      <c r="C30" s="245"/>
+      <c r="D30" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="47"/>
+      <c r="F30" s="51"/>
+      <c r="G30" s="63"/>
+      <c r="H30" s="51"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="56"/>
+      <c r="K30" s="56"/>
+      <c r="L30" s="53"/>
+    </row>
+    <row r="31" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B31" s="242"/>
+      <c r="C31" s="245"/>
+      <c r="D31" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="E31" s="76"/>
+      <c r="F31" s="77"/>
+      <c r="G31" s="64"/>
+      <c r="H31" s="52"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="59"/>
+      <c r="K31" s="59"/>
+      <c r="L31" s="81"/>
+    </row>
+    <row r="32" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B32" s="242"/>
+      <c r="C32" s="245"/>
+      <c r="D32" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="E32" s="78"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="66"/>
+      <c r="H32" s="53"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="57"/>
+      <c r="K32" s="57"/>
+      <c r="L32" s="82"/>
+    </row>
+    <row r="33" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B33" s="242"/>
+      <c r="C33" s="245"/>
+      <c r="D33" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="78"/>
+      <c r="F33" s="195"/>
+      <c r="G33" s="66"/>
+      <c r="H33" s="74"/>
+      <c r="I33" s="28"/>
+      <c r="J33" s="57"/>
+      <c r="K33" s="57"/>
+      <c r="L33" s="82"/>
+    </row>
+    <row r="34" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="242"/>
+      <c r="C34" s="246"/>
+      <c r="D34" s="151" t="s">
+        <v>4</v>
+      </c>
+      <c r="E34" s="79"/>
+      <c r="F34" s="48"/>
+      <c r="G34" s="68"/>
+      <c r="H34" s="54"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="61"/>
+      <c r="K34" s="61"/>
+      <c r="L34" s="83"/>
+    </row>
+    <row r="35" spans="2:12" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="242"/>
+      <c r="C35" s="247" t="s">
+        <v>0</v>
+      </c>
+      <c r="D35" s="193" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" s="183"/>
+      <c r="F35" s="184"/>
+      <c r="G35" s="185"/>
+      <c r="H35" s="184"/>
+      <c r="I35" s="186"/>
+      <c r="J35" s="187"/>
+      <c r="K35" s="187"/>
+      <c r="L35" s="188"/>
+    </row>
+    <row r="36" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B36" s="242"/>
+      <c r="C36" s="245"/>
+      <c r="D36" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="47"/>
+      <c r="F36" s="49"/>
+      <c r="G36" s="63"/>
+      <c r="H36" s="51"/>
+      <c r="I36" s="27"/>
+      <c r="J36" s="56"/>
+      <c r="K36" s="56"/>
+      <c r="L36" s="60"/>
+    </row>
+    <row r="37" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B37" s="242"/>
+      <c r="C37" s="245"/>
+      <c r="D37" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="E37" s="50"/>
+      <c r="F37" s="80"/>
+      <c r="G37" s="64"/>
+      <c r="H37" s="52"/>
+      <c r="I37" s="26"/>
+      <c r="J37" s="59"/>
+      <c r="K37" s="59"/>
+      <c r="L37" s="60"/>
+    </row>
+    <row r="38" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B38" s="242"/>
+      <c r="C38" s="245"/>
+      <c r="D38" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="E38" s="47"/>
+      <c r="F38" s="51"/>
+      <c r="G38" s="66"/>
+      <c r="H38" s="65"/>
+      <c r="I38" s="30"/>
+      <c r="J38" s="57"/>
+      <c r="K38" s="57"/>
+      <c r="L38" s="60"/>
+    </row>
+    <row r="39" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B39" s="242"/>
+      <c r="C39" s="245"/>
+      <c r="D39" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="E39" s="78"/>
+      <c r="F39" s="46"/>
+      <c r="G39" s="66"/>
+      <c r="H39" s="65"/>
+      <c r="I39" s="30"/>
+      <c r="J39" s="57"/>
+      <c r="K39" s="57"/>
+      <c r="L39" s="84"/>
+    </row>
+    <row r="40" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="242"/>
+      <c r="C40" s="246"/>
+      <c r="D40" s="151" t="s">
+        <v>4</v>
+      </c>
+      <c r="E40" s="79"/>
+      <c r="F40" s="48"/>
+      <c r="G40" s="68"/>
+      <c r="H40" s="54"/>
+      <c r="I40" s="29"/>
+      <c r="J40" s="61"/>
+      <c r="K40" s="61"/>
+      <c r="L40" s="194"/>
+    </row>
+    <row r="41" spans="2:12" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="242"/>
+      <c r="C41" s="245" t="s">
+        <v>30</v>
+      </c>
+      <c r="D41" s="189" t="s">
+        <v>7</v>
+      </c>
+      <c r="E41" s="50"/>
+      <c r="F41" s="49"/>
+      <c r="G41" s="69"/>
+      <c r="H41" s="49"/>
+      <c r="I41" s="26"/>
+      <c r="J41" s="58"/>
+      <c r="K41" s="58"/>
+      <c r="L41" s="84"/>
+    </row>
+    <row r="42" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B42" s="242"/>
+      <c r="C42" s="245"/>
+      <c r="D42" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" s="47"/>
+      <c r="F42" s="49"/>
+      <c r="G42" s="63"/>
+      <c r="H42" s="51"/>
+      <c r="I42" s="27"/>
+      <c r="J42" s="56"/>
+      <c r="K42" s="56"/>
+      <c r="L42" s="60"/>
+    </row>
+    <row r="43" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B43" s="242"/>
+      <c r="C43" s="245"/>
+      <c r="D43" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="E43" s="50"/>
+      <c r="F43" s="80"/>
+      <c r="G43" s="64"/>
+      <c r="H43" s="52"/>
+      <c r="I43" s="26"/>
+      <c r="J43" s="59"/>
+      <c r="K43" s="59"/>
+      <c r="L43" s="60"/>
+    </row>
+    <row r="44" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B44" s="242"/>
+      <c r="C44" s="245"/>
+      <c r="D44" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="E44" s="47"/>
+      <c r="F44" s="51"/>
+      <c r="G44" s="66"/>
+      <c r="H44" s="65"/>
+      <c r="I44" s="30"/>
+      <c r="J44" s="57"/>
+      <c r="K44" s="57"/>
+      <c r="L44" s="60"/>
+    </row>
+    <row r="45" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B45" s="242"/>
+      <c r="C45" s="245"/>
+      <c r="D45" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="E45" s="78"/>
+      <c r="F45" s="46"/>
+      <c r="G45" s="66"/>
+      <c r="H45" s="65"/>
+      <c r="I45" s="30"/>
+      <c r="J45" s="57"/>
+      <c r="K45" s="57"/>
+      <c r="L45" s="84"/>
+    </row>
+    <row r="46" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="243"/>
+      <c r="C46" s="248"/>
+      <c r="D46" s="190" t="s">
+        <v>4</v>
+      </c>
+      <c r="E46" s="86"/>
+      <c r="F46" s="87"/>
+      <c r="G46" s="203"/>
+      <c r="H46" s="71"/>
+      <c r="I46" s="204"/>
+      <c r="J46" s="75"/>
+      <c r="K46" s="75"/>
+      <c r="L46" s="205"/>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="B17:B27"/>
+    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="B29:B46"/>
+    <mergeCell ref="C29:C34"/>
+    <mergeCell ref="C35:C40"/>
+    <mergeCell ref="C41:C46"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="B7:B15"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="C14:C15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5764096-CBDC-48A7-984B-BFD813F170CD}">
-  <dimension ref="B1:W27"/>
+  <dimension ref="B1:V27"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="50" zoomScalePageLayoutView="40" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3903,7 +5629,7 @@
     <col min="11" max="12" width="7.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:23" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:22" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="42"/>
       <c r="C1" s="42"/>
       <c r="D1" s="35"/>
@@ -3914,7 +5640,7 @@
       <c r="I1" s="38"/>
       <c r="J1" s="41"/>
     </row>
-    <row r="2" spans="2:23" s="39" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:22" s="39" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2"/>
       <c r="C2"/>
       <c r="D2"/>
@@ -3924,37 +5650,37 @@
       <c r="H2"/>
       <c r="I2"/>
     </row>
-    <row r="3" spans="2:23" s="39" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:22" s="39" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3"/>
       <c r="C3"/>
       <c r="D3"/>
-      <c r="E3" s="179" t="s">
+      <c r="E3" s="249" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="180"/>
-      <c r="G3" s="180"/>
-      <c r="H3" s="181"/>
+      <c r="F3" s="250"/>
+      <c r="G3" s="250"/>
+      <c r="H3" s="251"/>
       <c r="I3" s="23"/>
-      <c r="J3" s="182" t="s">
+      <c r="J3" s="252" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="180"/>
-      <c r="L3" s="181"/>
-    </row>
-    <row r="4" spans="2:23" s="39" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="189" t="s">
+      <c r="K3" s="250"/>
+      <c r="L3" s="251"/>
+    </row>
+    <row r="4" spans="2:22" s="39" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="260" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="190"/>
-      <c r="D4" s="191"/>
-      <c r="E4" s="186" t="s">
+      <c r="C4" s="261"/>
+      <c r="D4" s="262"/>
+      <c r="E4" s="256" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="187"/>
-      <c r="G4" s="188" t="s">
+      <c r="F4" s="257"/>
+      <c r="G4" s="258" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="187"/>
+      <c r="H4" s="257"/>
       <c r="I4" s="24"/>
       <c r="J4" s="19" t="s">
         <v>20</v>
@@ -3966,7 +5692,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="2:23" s="39" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:22" s="39" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="139" t="s">
         <v>12</v>
       </c>
@@ -3988,7 +5714,7 @@
       <c r="H5" s="143" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="317"/>
+      <c r="I5" s="233"/>
       <c r="J5" s="141" t="s">
         <v>5</v>
       </c>
@@ -3999,143 +5725,197 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:23" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="204" t="s">
+    <row r="6" spans="2:22" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="253" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="201" t="s">
+      <c r="C6" s="263" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="146" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="292">
+      <c r="E6" s="147">
         <v>0.63800000000000001</v>
       </c>
-      <c r="F6" s="293">
+      <c r="F6" s="44">
         <v>1.18</v>
       </c>
-      <c r="G6" s="294">
+      <c r="G6" s="163">
         <v>0.217</v>
       </c>
-      <c r="H6" s="268">
+      <c r="H6" s="73">
         <v>0.5</v>
       </c>
-      <c r="I6" s="261"/>
+      <c r="I6" s="197"/>
       <c r="J6" s="156">
         <v>0.16600000000000001</v>
       </c>
-      <c r="K6" s="295">
+      <c r="K6" s="137">
         <v>-0.58899999999999997</v>
       </c>
-      <c r="L6" s="296">
+      <c r="L6" s="164">
         <v>-7.0999999999999994E-2</v>
       </c>
     </row>
-    <row r="7" spans="2:23" s="39" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="197"/>
-      <c r="C7" s="203"/>
+    <row r="7" spans="2:22" s="39" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="254"/>
+      <c r="C7" s="264"/>
       <c r="D7" s="151" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="289">
+      <c r="E7" s="152">
         <v>0.63600000000000001</v>
       </c>
-      <c r="F7" s="242">
+      <c r="F7" s="48">
         <v>1.3</v>
       </c>
-      <c r="G7" s="289">
+      <c r="G7" s="152">
         <v>0.21299999999999999</v>
       </c>
-      <c r="H7" s="242">
+      <c r="H7" s="48">
         <v>0.5</v>
       </c>
       <c r="I7" s="29"/>
-      <c r="J7" s="290">
+      <c r="J7" s="158">
         <v>0.216</v>
       </c>
-      <c r="K7" s="307">
+      <c r="K7" s="223">
         <v>1.4E-2</v>
       </c>
-      <c r="L7" s="291">
+      <c r="L7" s="213">
         <v>-0.12</v>
       </c>
-    </row>
-    <row r="8" spans="2:23" s="39" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="197"/>
-      <c r="C8" s="282" t="s">
+      <c r="N7" s="334"/>
+      <c r="O7" s="334"/>
+      <c r="P7" s="334"/>
+      <c r="Q7" s="334"/>
+      <c r="R7" s="334"/>
+      <c r="S7" s="334"/>
+      <c r="T7" s="334"/>
+      <c r="U7" s="334"/>
+      <c r="V7" s="334"/>
+    </row>
+    <row r="8" spans="2:22" s="39" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="254"/>
+      <c r="C8" s="265" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="283" t="s">
+      <c r="D8" s="207" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="284"/>
-      <c r="F8" s="285"/>
-      <c r="G8" s="286"/>
-      <c r="H8" s="253"/>
-      <c r="I8" s="210"/>
-      <c r="J8" s="287"/>
-      <c r="K8" s="287"/>
-      <c r="L8" s="288"/>
-    </row>
-    <row r="9" spans="2:23" s="39" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="197"/>
-      <c r="C9" s="203"/>
+      <c r="E8" s="208">
+        <v>0.64700000000000002</v>
+      </c>
+      <c r="F8" s="209">
+        <v>1.18</v>
+      </c>
+      <c r="G8" s="210">
+        <v>0.219</v>
+      </c>
+      <c r="H8" s="184">
+        <v>0.45</v>
+      </c>
+      <c r="I8" s="186"/>
+      <c r="J8" s="211">
+        <v>0.19</v>
+      </c>
+      <c r="K8" s="211">
+        <v>-0.56599999999999995</v>
+      </c>
+      <c r="L8" s="212">
+        <v>-6.59E-2</v>
+      </c>
+      <c r="N8" s="334"/>
+      <c r="O8" s="334"/>
+      <c r="P8" s="334"/>
+      <c r="Q8" s="334"/>
+      <c r="R8" s="334"/>
+      <c r="S8" s="334"/>
+      <c r="T8" s="334"/>
+      <c r="U8" s="334"/>
+      <c r="V8" s="334"/>
+    </row>
+    <row r="9" spans="2:22" s="39" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="254"/>
+      <c r="C9" s="264"/>
       <c r="D9" s="151" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="289"/>
-      <c r="F9" s="242"/>
-      <c r="G9" s="289"/>
-      <c r="H9" s="242"/>
+      <c r="E9" s="152">
+        <v>0.65</v>
+      </c>
+      <c r="F9" s="48">
+        <v>1.23</v>
+      </c>
+      <c r="G9" s="152">
+        <v>0.218</v>
+      </c>
+      <c r="H9" s="48">
+        <v>0.52500000000000002</v>
+      </c>
       <c r="I9" s="29"/>
-      <c r="J9" s="290"/>
-      <c r="K9" s="290"/>
-      <c r="L9" s="291"/>
-    </row>
-    <row r="10" spans="2:23" s="39" customFormat="1" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="197"/>
+      <c r="J9" s="158">
+        <v>0.214</v>
+      </c>
+      <c r="K9" s="158">
+        <v>-0.58199999999999996</v>
+      </c>
+      <c r="L9" s="213">
+        <v>-0.111</v>
+      </c>
+      <c r="N9" s="335"/>
+      <c r="O9" s="335"/>
+      <c r="P9" s="336"/>
+      <c r="Q9" s="337"/>
+      <c r="R9" s="336"/>
+      <c r="S9" s="336"/>
+      <c r="T9" s="337"/>
+      <c r="U9" s="334"/>
+      <c r="V9" s="334"/>
+    </row>
+    <row r="10" spans="2:22" s="39" customFormat="1" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="254"/>
       <c r="C10" s="108" t="s">
         <v>0</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="303">
+      <c r="E10" s="219">
         <v>0.61799999999999999</v>
       </c>
-      <c r="F10" s="304">
+      <c r="F10" s="220">
         <v>1.1200000000000001</v>
       </c>
-      <c r="G10" s="305">
+      <c r="G10" s="221">
         <v>0.21099999999999999</v>
       </c>
-      <c r="H10" s="306">
+      <c r="H10" s="222">
         <v>0.47499999999999998</v>
       </c>
-      <c r="I10" s="318"/>
-      <c r="J10" s="301">
+      <c r="I10" s="234"/>
+      <c r="J10" s="159">
         <v>0.16700000000000001</v>
       </c>
-      <c r="K10" s="301">
+      <c r="K10" s="159">
         <v>-0.89800000000000002</v>
       </c>
-      <c r="L10" s="308">
+      <c r="L10" s="224">
         <v>-6.6000000000000003E-2</v>
       </c>
       <c r="M10" s="150"/>
-      <c r="N10"/>
-      <c r="O10"/>
-      <c r="P10"/>
-      <c r="Q10"/>
-      <c r="R10"/>
-      <c r="S10"/>
-      <c r="T10"/>
-      <c r="U10"/>
-      <c r="V10"/>
-      <c r="W10"/>
-    </row>
-    <row r="11" spans="2:23" s="39" customFormat="1" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N10" s="338"/>
+      <c r="O10" s="338"/>
+      <c r="P10" s="338"/>
+      <c r="Q10" s="338"/>
+      <c r="R10" s="338"/>
+      <c r="S10" s="338"/>
+      <c r="T10" s="338"/>
+      <c r="U10" s="338"/>
+      <c r="V10" s="338"/>
+    </row>
+    <row r="11" spans="2:22" s="39" customFormat="1" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="98"/>
       <c r="C11" s="99"/>
       <c r="D11" s="100"/>
@@ -4143,245 +5923,314 @@
       <c r="F11" s="102"/>
       <c r="G11" s="103"/>
       <c r="H11" s="128"/>
-      <c r="I11" s="313"/>
+      <c r="I11" s="229"/>
       <c r="J11" s="104"/>
       <c r="K11" s="105"/>
       <c r="L11" s="106"/>
-      <c r="N11"/>
-      <c r="O11"/>
-      <c r="P11"/>
-      <c r="Q11"/>
-      <c r="R11"/>
-      <c r="S11"/>
-      <c r="T11"/>
-      <c r="U11"/>
-      <c r="V11"/>
-      <c r="W11"/>
-    </row>
-    <row r="12" spans="2:23" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="204" t="s">
+      <c r="N11" s="338"/>
+      <c r="O11" s="338"/>
+      <c r="P11" s="338"/>
+      <c r="Q11" s="338"/>
+      <c r="R11" s="338"/>
+      <c r="S11" s="338"/>
+      <c r="T11" s="338"/>
+      <c r="U11" s="338"/>
+      <c r="V11" s="338"/>
+    </row>
+    <row r="12" spans="2:22" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="253" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="201" t="s">
+      <c r="C12" s="263" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="146" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="292"/>
-      <c r="F12" s="293"/>
-      <c r="G12" s="294"/>
-      <c r="H12" s="268"/>
-      <c r="I12" s="261"/>
-      <c r="J12" s="295"/>
-      <c r="K12" s="295"/>
-      <c r="L12" s="296"/>
-      <c r="M12" s="247"/>
-    </row>
-    <row r="13" spans="2:23" s="39" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="197"/>
-      <c r="C13" s="203"/>
+      <c r="E12" s="352">
+        <v>0.41599999999999998</v>
+      </c>
+      <c r="F12" s="44">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="G12" s="163">
+        <v>0.152</v>
+      </c>
+      <c r="H12" s="342">
+        <v>0.4</v>
+      </c>
+      <c r="I12" s="197"/>
+      <c r="J12" s="137">
+        <v>0.129</v>
+      </c>
+      <c r="K12" s="137">
+        <v>4.5600000000000002E-2</v>
+      </c>
+      <c r="L12" s="164">
+        <v>-0.17199999999999999</v>
+      </c>
+      <c r="M12"/>
+    </row>
+    <row r="13" spans="2:22" s="39" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="254"/>
+      <c r="C13" s="264"/>
       <c r="D13" s="151" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="289"/>
-      <c r="F13" s="242"/>
-      <c r="G13" s="289"/>
-      <c r="H13" s="242"/>
+      <c r="E13" s="152">
+        <v>0.41699999999999998</v>
+      </c>
+      <c r="F13" s="48">
+        <v>1.05</v>
+      </c>
+      <c r="G13" s="353">
+        <v>0.15</v>
+      </c>
+      <c r="H13" s="48">
+        <v>0.42499999999999999</v>
+      </c>
       <c r="I13" s="29"/>
-      <c r="J13" s="290"/>
-      <c r="K13" s="290"/>
-      <c r="L13" s="291"/>
-      <c r="M13" s="247"/>
-    </row>
-    <row r="14" spans="2:23" s="39" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="197"/>
-      <c r="C14" s="282" t="s">
+      <c r="J13" s="158">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="K13" s="223">
+        <v>-1.4E-2</v>
+      </c>
+      <c r="L13" s="213">
+        <v>-0.21</v>
+      </c>
+      <c r="M13"/>
+    </row>
+    <row r="14" spans="2:22" s="39" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="254"/>
+      <c r="C14" s="265" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="283" t="s">
+      <c r="D14" s="207" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="284"/>
-      <c r="F14" s="285"/>
-      <c r="G14" s="286"/>
-      <c r="H14" s="253"/>
-      <c r="I14" s="210"/>
-      <c r="J14" s="287"/>
-      <c r="K14" s="287"/>
-      <c r="L14" s="288"/>
-      <c r="M14" s="247"/>
-    </row>
-    <row r="15" spans="2:23" s="39" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="197"/>
-      <c r="C15" s="203"/>
+      <c r="E14" s="208">
+        <v>0.443</v>
+      </c>
+      <c r="F14" s="209">
+        <v>1.05</v>
+      </c>
+      <c r="G14" s="210">
+        <v>0.159</v>
+      </c>
+      <c r="H14" s="354">
+        <v>0.4</v>
+      </c>
+      <c r="I14" s="186"/>
+      <c r="J14" s="343">
+        <v>0.126</v>
+      </c>
+      <c r="K14" s="211">
+        <v>-0.69399999999999995</v>
+      </c>
+      <c r="L14" s="345">
+        <v>-0.158</v>
+      </c>
+      <c r="M14"/>
+    </row>
+    <row r="15" spans="2:22" s="39" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="254"/>
+      <c r="C15" s="264"/>
       <c r="D15" s="151" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="289"/>
-      <c r="F15" s="242"/>
-      <c r="G15" s="289"/>
-      <c r="H15" s="242"/>
+      <c r="E15" s="152">
+        <v>0.43</v>
+      </c>
+      <c r="F15" s="48">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="G15" s="353">
+        <v>0.15</v>
+      </c>
+      <c r="H15" s="131">
+        <v>0.4</v>
+      </c>
       <c r="I15" s="29"/>
-      <c r="J15" s="290"/>
-      <c r="K15" s="290"/>
-      <c r="L15" s="291"/>
-      <c r="M15" s="247"/>
+      <c r="J15" s="158">
+        <v>0.153</v>
+      </c>
+      <c r="K15" s="158">
+        <v>-0.61399999999999999</v>
+      </c>
+      <c r="L15" s="213">
+        <v>-0.19900000000000001</v>
+      </c>
+      <c r="M15"/>
       <c r="N15"/>
       <c r="O15"/>
     </row>
-    <row r="16" spans="2:23" s="39" customFormat="1" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="197"/>
+    <row r="16" spans="2:22" s="39" customFormat="1" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="254"/>
       <c r="C16" s="108" t="s">
         <v>0</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="297"/>
-      <c r="F16" s="298"/>
-      <c r="G16" s="299"/>
-      <c r="H16" s="300"/>
-      <c r="I16" s="318"/>
-      <c r="J16" s="301"/>
-      <c r="K16" s="301"/>
-      <c r="L16" s="302"/>
-      <c r="M16" s="247"/>
+      <c r="E16" s="219">
+        <v>0.41599999999999998</v>
+      </c>
+      <c r="F16" s="220">
+        <v>0.95</v>
+      </c>
+      <c r="G16" s="216">
+        <v>0.151</v>
+      </c>
+      <c r="H16" s="217">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="I16" s="234"/>
+      <c r="J16" s="159">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="K16" s="159">
+        <v>-0.438</v>
+      </c>
+      <c r="L16" s="218">
+        <v>-0.17799999999999999</v>
+      </c>
+      <c r="M16"/>
       <c r="N16"/>
       <c r="O16"/>
     </row>
     <row r="17" spans="2:15" s="39" customFormat="1" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="309"/>
-      <c r="C17" s="310"/>
-      <c r="D17" s="311"/>
-      <c r="E17" s="312"/>
-      <c r="F17" s="313"/>
-      <c r="G17" s="313"/>
-      <c r="H17" s="314"/>
-      <c r="I17" s="314"/>
-      <c r="J17" s="315"/>
-      <c r="K17" s="315"/>
+      <c r="B17" s="225"/>
+      <c r="C17" s="226"/>
+      <c r="D17" s="227"/>
+      <c r="E17" s="228"/>
+      <c r="F17" s="229"/>
+      <c r="G17" s="229"/>
+      <c r="H17" s="230"/>
+      <c r="I17" s="230"/>
+      <c r="J17" s="231"/>
+      <c r="K17" s="231"/>
       <c r="L17" s="28"/>
       <c r="M17" s="67"/>
       <c r="N17" s="67"/>
       <c r="O17"/>
     </row>
     <row r="18" spans="2:15" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="204" t="s">
+      <c r="B18" s="253" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="201" t="s">
+      <c r="C18" s="263" t="s">
         <v>9</v>
       </c>
       <c r="D18" s="146" t="s">
         <v>24</v>
       </c>
-      <c r="E18" s="292"/>
-      <c r="F18" s="293"/>
-      <c r="G18" s="294"/>
-      <c r="H18" s="268"/>
-      <c r="I18" s="261"/>
-      <c r="J18" s="295"/>
-      <c r="K18" s="295"/>
-      <c r="L18" s="296"/>
-      <c r="M18" s="247"/>
-      <c r="N18" s="247"/>
+      <c r="E18" s="147"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="163"/>
+      <c r="H18" s="73"/>
+      <c r="I18" s="197"/>
+      <c r="J18" s="137"/>
+      <c r="K18" s="137"/>
+      <c r="L18" s="164"/>
+      <c r="M18"/>
+      <c r="N18"/>
       <c r="O18"/>
     </row>
     <row r="19" spans="2:15" s="39" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="197"/>
-      <c r="C19" s="203"/>
+      <c r="B19" s="254"/>
+      <c r="C19" s="264"/>
       <c r="D19" s="151" t="s">
         <v>26</v>
       </c>
-      <c r="E19" s="289"/>
-      <c r="F19" s="242"/>
-      <c r="G19" s="289"/>
-      <c r="H19" s="242"/>
+      <c r="E19" s="152"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="152"/>
+      <c r="H19" s="48"/>
       <c r="I19" s="29"/>
-      <c r="J19" s="290"/>
-      <c r="K19" s="290"/>
-      <c r="L19" s="291"/>
-      <c r="M19" s="247"/>
-      <c r="N19" s="247"/>
+      <c r="J19" s="158"/>
+      <c r="K19" s="158"/>
+      <c r="L19" s="213"/>
+      <c r="M19"/>
+      <c r="N19"/>
       <c r="O19"/>
     </row>
     <row r="20" spans="2:15" s="39" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="197"/>
-      <c r="C20" s="282" t="s">
+      <c r="B20" s="254"/>
+      <c r="C20" s="265" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="283" t="s">
+      <c r="D20" s="207" t="s">
         <v>24</v>
       </c>
-      <c r="E20" s="284"/>
-      <c r="F20" s="285"/>
-      <c r="G20" s="286"/>
-      <c r="H20" s="253"/>
-      <c r="I20" s="210"/>
-      <c r="J20" s="287"/>
-      <c r="K20" s="287"/>
-      <c r="L20" s="288"/>
-      <c r="M20" s="247"/>
-      <c r="N20" s="247"/>
+      <c r="E20" s="208"/>
+      <c r="F20" s="209"/>
+      <c r="G20" s="210"/>
+      <c r="H20" s="184"/>
+      <c r="I20" s="186"/>
+      <c r="J20" s="211"/>
+      <c r="K20" s="211"/>
+      <c r="L20" s="212"/>
+      <c r="M20"/>
+      <c r="N20"/>
     </row>
     <row r="21" spans="2:15" s="39" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="197"/>
-      <c r="C21" s="203"/>
+      <c r="B21" s="254"/>
+      <c r="C21" s="264"/>
       <c r="D21" s="151" t="s">
         <v>26</v>
       </c>
-      <c r="E21" s="289"/>
-      <c r="F21" s="242"/>
-      <c r="G21" s="289"/>
-      <c r="H21" s="242"/>
+      <c r="E21" s="152"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="152"/>
+      <c r="H21" s="48"/>
       <c r="I21" s="29"/>
-      <c r="J21" s="290"/>
-      <c r="K21" s="290"/>
-      <c r="L21" s="291"/>
-      <c r="M21" s="247"/>
-      <c r="N21" s="247"/>
+      <c r="J21" s="158"/>
+      <c r="K21" s="158"/>
+      <c r="L21" s="213"/>
+      <c r="M21"/>
+      <c r="N21"/>
     </row>
     <row r="22" spans="2:15" s="39" customFormat="1" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="198"/>
+      <c r="B22" s="255"/>
       <c r="C22" s="140" t="s">
         <v>0</v>
       </c>
-      <c r="D22" s="316" t="s">
+      <c r="D22" s="232" t="s">
         <v>24</v>
       </c>
-      <c r="E22" s="297"/>
-      <c r="F22" s="298"/>
-      <c r="G22" s="299"/>
-      <c r="H22" s="300"/>
-      <c r="I22" s="318"/>
-      <c r="J22" s="301"/>
-      <c r="K22" s="301"/>
-      <c r="L22" s="302"/>
-      <c r="M22" s="247"/>
-      <c r="N22" s="247"/>
+      <c r="E22" s="214"/>
+      <c r="F22" s="215"/>
+      <c r="G22" s="216"/>
+      <c r="H22" s="217"/>
+      <c r="I22" s="234"/>
+      <c r="J22" s="159"/>
+      <c r="K22" s="159"/>
+      <c r="L22" s="218"/>
+      <c r="M22"/>
+      <c r="N22"/>
     </row>
     <row r="23" spans="2:15" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="42"/>
       <c r="C23" s="42"/>
       <c r="D23" s="35"/>
-      <c r="E23" s="319"/>
-      <c r="F23" s="320"/>
-      <c r="G23" s="321"/>
-      <c r="H23" s="322"/>
+      <c r="E23" s="125"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="67"/>
+      <c r="H23" s="126"/>
       <c r="I23" s="38"/>
-      <c r="J23" s="247"/>
-      <c r="K23" s="247"/>
-      <c r="L23" s="247"/>
-      <c r="M23" s="247"/>
-      <c r="N23" s="247"/>
+      <c r="J23"/>
+      <c r="K23"/>
+      <c r="L23"/>
+      <c r="M23"/>
+      <c r="N23"/>
     </row>
     <row r="24" spans="2:15" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="J24" s="247"/>
-      <c r="K24" s="247"/>
-      <c r="L24" s="247"/>
-      <c r="M24" s="247"/>
-      <c r="N24" s="247"/>
+      <c r="J24"/>
+      <c r="K24"/>
+      <c r="L24"/>
+      <c r="M24"/>
+      <c r="N24"/>
     </row>
     <row r="25" spans="2:15" s="39" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="2:15" s="39" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -4408,12 +6257,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C63A179C-A39D-4F54-8121-5C3E8B4CB3C9}">
-  <dimension ref="B1:N60"/>
+  <dimension ref="B1:N62"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="50" zoomScalePageLayoutView="40" workbookViewId="0">
-      <selection activeCell="P40" sqref="P40"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="50" zoomScalePageLayoutView="40" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4426,7 +6275,7 @@
     <col min="6" max="6" width="9.140625" customWidth="1"/>
     <col min="7" max="7" width="8.85546875" customWidth="1"/>
     <col min="8" max="8" width="9" customWidth="1"/>
-    <col min="9" max="9" width="0.42578125" style="247" customWidth="1"/>
+    <col min="9" max="9" width="0.42578125" customWidth="1"/>
     <col min="10" max="10" width="10.28515625" customWidth="1"/>
     <col min="11" max="11" width="10.140625" customWidth="1"/>
     <col min="12" max="12" width="10" customWidth="1"/>
@@ -4435,33 +6284,33 @@
   <sheetData>
     <row r="1" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:14" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E2" s="179" t="s">
+      <c r="E2" s="249" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="181"/>
+      <c r="F2" s="250"/>
+      <c r="G2" s="250"/>
+      <c r="H2" s="251"/>
       <c r="I2" s="23"/>
-      <c r="J2" s="182" t="s">
+      <c r="J2" s="252" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="180"/>
-      <c r="L2" s="181"/>
+      <c r="K2" s="250"/>
+      <c r="L2" s="251"/>
     </row>
     <row r="3" spans="2:14" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="189" t="s">
+      <c r="B3" s="260" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="190"/>
-      <c r="D3" s="191"/>
-      <c r="E3" s="186" t="s">
+      <c r="C3" s="261"/>
+      <c r="D3" s="262"/>
+      <c r="E3" s="256" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="187"/>
-      <c r="G3" s="188" t="s">
+      <c r="F3" s="257"/>
+      <c r="G3" s="258" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="187"/>
+      <c r="H3" s="257"/>
       <c r="I3" s="24"/>
       <c r="J3" s="19" t="s">
         <v>20</v>
@@ -4508,1089 +6357,2560 @@
       </c>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="183" t="s">
+    <row r="5" spans="2:14" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="180" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="179" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="386" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="397">
+        <v>0.94099999999999995</v>
+      </c>
+      <c r="F5" s="398">
+        <v>1.375</v>
+      </c>
+      <c r="G5" s="399">
+        <v>0.31</v>
+      </c>
+      <c r="H5" s="398">
+        <v>0.6</v>
+      </c>
+      <c r="I5" s="268"/>
+      <c r="J5" s="331" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" s="332" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5" s="333" t="s">
+        <v>31</v>
+      </c>
+      <c r="M5" s="1"/>
+    </row>
+    <row r="6" spans="2:14" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="389"/>
+      <c r="C6" s="390"/>
+      <c r="D6" s="391"/>
+      <c r="E6" s="392"/>
+      <c r="F6" s="393"/>
+      <c r="G6" s="392"/>
+      <c r="H6" s="393"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="394"/>
+      <c r="K6" s="395"/>
+      <c r="L6" s="396"/>
+      <c r="M6" s="1"/>
+    </row>
+    <row r="7" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="242" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="192" t="s">
+      <c r="C7" s="387" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="50">
+      <c r="E7" s="50">
         <v>0.753</v>
       </c>
-      <c r="F5" s="49">
+      <c r="F7" s="49">
         <v>1.38</v>
       </c>
-      <c r="G5" s="69">
+      <c r="G7" s="69">
         <v>0.254</v>
       </c>
-      <c r="H5" s="49">
+      <c r="H7" s="49">
         <v>0.55000000000000004</v>
       </c>
-      <c r="I5" s="26"/>
-      <c r="J5" s="58">
+      <c r="I7" s="26"/>
+      <c r="J7" s="58">
         <v>0.21299999999999999</v>
       </c>
-      <c r="K5" s="58">
+      <c r="K7" s="58">
         <v>-0.64800000000000002</v>
       </c>
-      <c r="L5" s="52">
+      <c r="L7" s="52">
         <v>-5.6599999999999998E-2</v>
       </c>
-      <c r="M5" s="3"/>
-    </row>
-    <row r="6" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="184"/>
-      <c r="C6" s="193"/>
-      <c r="D6" s="9" t="s">
+      <c r="M7" s="3"/>
+    </row>
+    <row r="8" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="242"/>
+      <c r="C8" s="245"/>
+      <c r="D8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="47">
+      <c r="E8" s="47">
         <v>0.66300000000000003</v>
       </c>
-      <c r="F6" s="51">
+      <c r="F8" s="51">
         <v>1.27</v>
       </c>
-      <c r="G6" s="63">
+      <c r="G8" s="63">
         <v>0.22800000000000001</v>
       </c>
-      <c r="H6" s="51">
+      <c r="H8" s="51">
         <v>0.5</v>
       </c>
-      <c r="I6" s="27"/>
-      <c r="J6" s="56">
+      <c r="I8" s="27"/>
+      <c r="J8" s="56">
         <v>0.22800000000000001</v>
       </c>
-      <c r="K6" s="122">
+      <c r="K8" s="320">
         <v>-0.876</v>
       </c>
-      <c r="L6" s="53">
+      <c r="L8" s="53">
         <v>-6.6299999999999998E-2</v>
       </c>
-      <c r="M6" s="3"/>
-      <c r="N6" s="12"/>
-    </row>
-    <row r="7" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="184"/>
-      <c r="C7" s="193"/>
-      <c r="D7" s="10" t="s">
+      <c r="M8" s="3"/>
+      <c r="N8" s="12"/>
+    </row>
+    <row r="9" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="242"/>
+      <c r="C9" s="245"/>
+      <c r="D9" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="76">
+      <c r="E9" s="76">
         <v>0.745</v>
       </c>
-      <c r="F7" s="77">
+      <c r="F9" s="77">
         <v>1.2</v>
       </c>
-      <c r="G7" s="64">
+      <c r="G9" s="64">
         <v>0.25</v>
       </c>
-      <c r="H7" s="52">
+      <c r="H9" s="52">
         <v>0.52500000000000002</v>
       </c>
-      <c r="I7" s="26"/>
-      <c r="J7" s="59">
+      <c r="I9" s="26"/>
+      <c r="J9" s="59">
         <v>0.159</v>
       </c>
-      <c r="K7" s="59">
+      <c r="K9" s="59">
         <v>-0.72</v>
       </c>
-      <c r="L7" s="81">
+      <c r="L9" s="81">
         <v>-5.0599999999999999E-2</v>
       </c>
-      <c r="M7" s="3"/>
-      <c r="N7" s="12"/>
-    </row>
-    <row r="8" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="184"/>
-      <c r="C8" s="193"/>
-      <c r="D8" s="9" t="s">
+      <c r="M9" s="3"/>
+      <c r="N9" s="12"/>
+    </row>
+    <row r="10" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="242"/>
+      <c r="C10" s="245"/>
+      <c r="D10" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="78">
+      <c r="E10" s="78">
         <v>0.63100000000000001</v>
       </c>
-      <c r="F8" s="46">
+      <c r="F10" s="46">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G8" s="66">
+      <c r="G10" s="66">
         <v>0.216</v>
       </c>
-      <c r="H8" s="53">
+      <c r="H10" s="53">
         <v>0.45</v>
       </c>
-      <c r="I8" s="27"/>
-      <c r="J8" s="57">
+      <c r="I10" s="27"/>
+      <c r="J10" s="57">
         <v>0.17799999999999999</v>
       </c>
-      <c r="K8" s="57">
+      <c r="K10" s="57">
         <v>-0.39500000000000002</v>
       </c>
-      <c r="L8" s="82">
+      <c r="L10" s="82">
         <v>-5.1700000000000003E-2</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="184"/>
-      <c r="C9" s="193"/>
-      <c r="D9" s="9" t="s">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="242"/>
+      <c r="C11" s="245"/>
+      <c r="D11" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="116">
+      <c r="E11" s="116">
         <v>0.78400000000000003</v>
       </c>
-      <c r="F9" s="115">
+      <c r="F11" s="115">
         <v>1.42</v>
       </c>
-      <c r="G9" s="114">
+      <c r="G11" s="114">
         <v>0.26200000000000001</v>
       </c>
-      <c r="H9" s="134">
+      <c r="H11" s="134">
         <v>0.65</v>
       </c>
-      <c r="I9" s="28"/>
-      <c r="J9" s="118">
+      <c r="I11" s="28"/>
+      <c r="J11" s="323">
         <v>0.13</v>
       </c>
-      <c r="K9" s="57">
+      <c r="K11" s="57">
         <v>-0.35799999999999998</v>
       </c>
-      <c r="L9" s="82">
+      <c r="L11" s="82">
         <v>-4.6899999999999997E-2</v>
       </c>
-      <c r="M9" s="2"/>
-    </row>
-    <row r="10" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="184"/>
-      <c r="C10" s="194"/>
-      <c r="D10" s="11" t="s">
+      <c r="M11" s="2"/>
+    </row>
+    <row r="12" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="242"/>
+      <c r="C12" s="246"/>
+      <c r="D12" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="79">
+      <c r="E12" s="79">
         <v>0.68500000000000005</v>
       </c>
-      <c r="F10" s="131">
+      <c r="F12" s="131">
         <v>1.02</v>
       </c>
-      <c r="G10" s="68">
+      <c r="G12" s="68">
         <v>0.224</v>
       </c>
-      <c r="H10" s="132">
+      <c r="H12" s="132">
         <v>0.4</v>
       </c>
-      <c r="I10" s="29"/>
-      <c r="J10" s="61">
+      <c r="I12" s="29"/>
+      <c r="J12" s="61">
         <v>0.14399999999999999</v>
       </c>
-      <c r="K10" s="61">
+      <c r="K12" s="61">
         <v>-0.52600000000000002</v>
       </c>
-      <c r="L10" s="83">
+      <c r="L12" s="83">
         <v>-4.7199999999999999E-2</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="184"/>
-      <c r="C11" s="195" t="s">
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="242"/>
+      <c r="C13" s="247" t="s">
         <v>0</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D13" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="50">
+      <c r="E13" s="50">
         <v>0.76</v>
       </c>
-      <c r="F11" s="49">
+      <c r="F13" s="49">
         <v>1.18</v>
       </c>
-      <c r="G11" s="69">
+      <c r="G13" s="69">
         <v>0.25600000000000001</v>
       </c>
-      <c r="H11" s="49">
+      <c r="H13" s="49">
         <v>0.47499999999999998</v>
       </c>
-      <c r="I11" s="26"/>
-      <c r="J11" s="133">
+      <c r="I13" s="26"/>
+      <c r="J13" s="339">
         <v>0.23100000000000001</v>
       </c>
-      <c r="K11" s="58">
+      <c r="K13" s="58">
         <v>-0.71099999999999997</v>
       </c>
-      <c r="L11" s="84">
+      <c r="L13" s="84">
         <v>-6.13E-2</v>
       </c>
-      <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="184"/>
-      <c r="C12" s="193"/>
-      <c r="D12" s="9" t="s">
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="242"/>
+      <c r="C14" s="245"/>
+      <c r="D14" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="47">
+      <c r="E14" s="47">
         <v>0.64800000000000002</v>
       </c>
-      <c r="F12" s="49">
+      <c r="F14" s="49">
         <v>1.18</v>
       </c>
-      <c r="G12" s="63">
+      <c r="G14" s="63">
         <v>0.218</v>
       </c>
-      <c r="H12" s="51">
+      <c r="H14" s="51">
         <v>0.45</v>
       </c>
-      <c r="I12" s="27"/>
-      <c r="J12" s="56">
+      <c r="I14" s="27"/>
+      <c r="J14" s="56">
         <v>0.224</v>
       </c>
-      <c r="K12" s="56">
+      <c r="K14" s="56">
         <v>-0.82199999999999995</v>
       </c>
-      <c r="L12" s="124">
+      <c r="L14" s="124">
         <v>-6.7299999999999999E-2</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="184"/>
-      <c r="C13" s="193"/>
-      <c r="D13" s="10" t="s">
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="242"/>
+      <c r="C15" s="245"/>
+      <c r="D15" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E13" s="50">
+      <c r="E15" s="50">
         <v>0.72399999999999998</v>
       </c>
-      <c r="F13" s="80">
+      <c r="F15" s="80">
         <v>1.3</v>
       </c>
-      <c r="G13" s="64">
+      <c r="G15" s="64">
         <v>0.23499999999999999</v>
       </c>
-      <c r="H13" s="52">
+      <c r="H15" s="52">
         <v>0.57499999999999996</v>
       </c>
-      <c r="I13" s="26"/>
-      <c r="J13" s="59">
+      <c r="I15" s="26"/>
+      <c r="J15" s="59">
         <v>0.16</v>
       </c>
-      <c r="K13" s="59">
+      <c r="K15" s="59">
         <v>-0.80100000000000005</v>
       </c>
-      <c r="L13" s="60">
+      <c r="L15" s="60">
         <v>-4.6899999999999997E-2</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="184"/>
-      <c r="C14" s="193"/>
-      <c r="D14" s="9" t="s">
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="242"/>
+      <c r="C16" s="245"/>
+      <c r="D16" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E14" s="109">
+      <c r="E16" s="109">
         <v>0.61199999999999999</v>
       </c>
-      <c r="F14" s="51">
+      <c r="F16" s="51">
         <v>1.1499999999999999</v>
       </c>
-      <c r="G14" s="111">
+      <c r="G16" s="111">
         <v>0.20699999999999999</v>
       </c>
-      <c r="H14" s="65">
+      <c r="H16" s="65">
         <v>0.52500000000000002</v>
       </c>
-      <c r="I14" s="30"/>
-      <c r="J14" s="57">
+      <c r="I16" s="30"/>
+      <c r="J16" s="57">
         <v>0.17499999999999999</v>
       </c>
-      <c r="K14" s="57">
+      <c r="K16" s="57">
         <v>-0.69799999999999995</v>
       </c>
-      <c r="L14" s="60">
+      <c r="L16" s="60">
         <v>-4.7899999999999998E-2</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="184"/>
-      <c r="C15" s="193"/>
-      <c r="D15" s="9" t="s">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="242"/>
+      <c r="C17" s="245"/>
+      <c r="D17" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="78">
+      <c r="E17" s="78">
         <v>0.77400000000000002</v>
       </c>
-      <c r="F15" s="46">
+      <c r="F17" s="46">
         <v>1.2</v>
       </c>
-      <c r="G15" s="66">
+      <c r="G17" s="66">
         <v>0.253</v>
       </c>
-      <c r="H15" s="65">
+      <c r="H17" s="65">
         <v>0.47499999999999998</v>
       </c>
-      <c r="I15" s="30"/>
-      <c r="J15" s="57">
+      <c r="I17" s="30"/>
+      <c r="J17" s="57">
         <v>0.13900000000000001</v>
       </c>
-      <c r="K15" s="118">
+      <c r="K17" s="323">
         <v>-0.317</v>
       </c>
-      <c r="L15" s="84">
+      <c r="L17" s="84">
         <v>-4.3200000000000002E-2</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="184"/>
-      <c r="C16" s="194"/>
-      <c r="D16" s="11" t="s">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="242"/>
+      <c r="C18" s="246"/>
+      <c r="D18" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="79">
+      <c r="E18" s="79">
         <v>0.69799999999999995</v>
       </c>
-      <c r="F16" s="48">
+      <c r="F18" s="48">
         <v>1.08</v>
       </c>
-      <c r="G16" s="68">
+      <c r="G18" s="68">
         <v>0.23599999999999999</v>
       </c>
-      <c r="H16" s="54">
+      <c r="H18" s="54">
         <v>0.42499999999999999</v>
       </c>
-      <c r="I16" s="29"/>
-      <c r="J16" s="61">
+      <c r="I18" s="29"/>
+      <c r="J18" s="61">
         <v>0.13800000000000001</v>
       </c>
-      <c r="K16" s="61">
+      <c r="K18" s="61">
         <v>-0.72299999999999998</v>
       </c>
-      <c r="L16" s="121">
+      <c r="L18" s="121">
         <v>-4.2000000000000003E-2</v>
       </c>
-      <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="184"/>
-      <c r="C17" s="195" t="s">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="242"/>
+      <c r="C19" s="247" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D19" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E17" s="221"/>
-      <c r="F17" s="222"/>
-      <c r="G17" s="223"/>
-      <c r="H17" s="222"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="225"/>
-      <c r="K17" s="225"/>
-      <c r="L17" s="226"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="12"/>
-    </row>
-    <row r="18" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="184"/>
-      <c r="C18" s="193"/>
-      <c r="D18" s="9" t="s">
+      <c r="E19" s="50">
+        <v>0.77600000000000002</v>
+      </c>
+      <c r="F19" s="49">
+        <v>1.18</v>
+      </c>
+      <c r="G19" s="69">
+        <v>0.254</v>
+      </c>
+      <c r="H19" s="49">
+        <v>0.45</v>
+      </c>
+      <c r="I19" s="26"/>
+      <c r="J19" s="58">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="K19" s="58">
+        <v>-0.53800000000000003</v>
+      </c>
+      <c r="L19" s="84">
+        <v>-5.4100000000000002E-2</v>
+      </c>
+      <c r="M19" s="5"/>
+      <c r="N19" s="12"/>
+    </row>
+    <row r="20" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="242"/>
+      <c r="C20" s="245"/>
+      <c r="D20" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E18" s="227"/>
-      <c r="F18" s="222"/>
-      <c r="G18" s="228"/>
-      <c r="H18" s="229"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="231"/>
-      <c r="K18" s="231"/>
-      <c r="L18" s="232"/>
-      <c r="M18" s="130"/>
-      <c r="N18" s="12"/>
-    </row>
-    <row r="19" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="184"/>
-      <c r="C19" s="193"/>
-      <c r="D19" s="10" t="s">
+      <c r="E20" s="47">
+        <v>0.67600000000000005</v>
+      </c>
+      <c r="F20" s="49">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G20" s="63">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="H20" s="51">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="I20" s="27"/>
+      <c r="J20" s="122">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="K20" s="56">
+        <v>-0.60099999999999998</v>
+      </c>
+      <c r="L20" s="60">
+        <v>-5.4100000000000002E-2</v>
+      </c>
+      <c r="M20" s="130"/>
+      <c r="N20" s="12"/>
+    </row>
+    <row r="21" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="242"/>
+      <c r="C21" s="245"/>
+      <c r="D21" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E19" s="221"/>
-      <c r="F19" s="233"/>
-      <c r="G19" s="234"/>
-      <c r="H19" s="224"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="235"/>
-      <c r="K19" s="235"/>
-      <c r="L19" s="232"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="12"/>
-    </row>
-    <row r="20" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="184"/>
-      <c r="C20" s="193"/>
-      <c r="D20" s="9" t="s">
+      <c r="E21" s="50">
+        <v>0.751</v>
+      </c>
+      <c r="F21" s="80">
+        <v>1.32</v>
+      </c>
+      <c r="G21" s="64">
+        <v>0.251</v>
+      </c>
+      <c r="H21" s="52">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="I21" s="26"/>
+      <c r="J21" s="59">
+        <v>0.17</v>
+      </c>
+      <c r="K21" s="59">
+        <v>-0.52200000000000002</v>
+      </c>
+      <c r="L21" s="60">
+        <v>-4.4999999999999998E-2</v>
+      </c>
+      <c r="M21" s="4"/>
+      <c r="N21" s="12"/>
+    </row>
+    <row r="22" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="242"/>
+      <c r="C22" s="245"/>
+      <c r="D22" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E20" s="227"/>
-      <c r="F20" s="229"/>
-      <c r="G20" s="236"/>
-      <c r="H20" s="237"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="238"/>
-      <c r="K20" s="238"/>
-      <c r="L20" s="232"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="12"/>
-    </row>
-    <row r="21" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="184"/>
-      <c r="C21" s="193"/>
-      <c r="D21" s="9" t="s">
+      <c r="E22" s="47">
+        <v>0.64700000000000002</v>
+      </c>
+      <c r="F22" s="51">
+        <v>1.35</v>
+      </c>
+      <c r="G22" s="66">
+        <v>0.218</v>
+      </c>
+      <c r="H22" s="65">
+        <v>0.6</v>
+      </c>
+      <c r="I22" s="30"/>
+      <c r="J22" s="57">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="K22" s="123">
+        <v>-1.4</v>
+      </c>
+      <c r="L22" s="60">
+        <v>-4.5999999999999999E-2</v>
+      </c>
+      <c r="M22" s="3"/>
+      <c r="N22" s="12"/>
+    </row>
+    <row r="23" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="242"/>
+      <c r="C23" s="245"/>
+      <c r="D23" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="239"/>
-      <c r="F21" s="240"/>
-      <c r="G21" s="236"/>
-      <c r="H21" s="237"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="238"/>
-      <c r="K21" s="238"/>
-      <c r="L21" s="226"/>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="184"/>
-      <c r="C22" s="194"/>
-      <c r="D22" s="11" t="s">
+      <c r="E23" s="116">
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="F23" s="46">
+        <v>1.35</v>
+      </c>
+      <c r="G23" s="66">
+        <v>0.255</v>
+      </c>
+      <c r="H23" s="65">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="I23" s="30"/>
+      <c r="J23" s="57">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="K23" s="118">
+        <v>2.5899999999999999E-2</v>
+      </c>
+      <c r="L23" s="84">
+        <v>-4.7500000000000001E-2</v>
+      </c>
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="242"/>
+      <c r="C24" s="246"/>
+      <c r="D24" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E22" s="241"/>
-      <c r="F22" s="242"/>
-      <c r="G22" s="243"/>
-      <c r="H22" s="244"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="245"/>
-      <c r="K22" s="245"/>
-      <c r="L22" s="246"/>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="2:14" ht="6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="33"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="16"/>
-    </row>
-    <row r="24" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B24" s="183" t="s">
+      <c r="E24" s="79">
+        <v>0.72599999999999998</v>
+      </c>
+      <c r="F24" s="48">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="G24" s="68">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="H24" s="54">
+        <v>0.5</v>
+      </c>
+      <c r="I24" s="29"/>
+      <c r="J24" s="119">
+        <v>0.129</v>
+      </c>
+      <c r="K24" s="61">
+        <v>-0.39300000000000002</v>
+      </c>
+      <c r="L24" s="194">
+        <v>-4.7500000000000001E-2</v>
+      </c>
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="2:14" ht="6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="33"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="16"/>
+    </row>
+    <row r="26" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B26" s="241" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="192" t="s">
+      <c r="C26" s="244" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="146" t="s">
+      <c r="D26" s="146" t="s">
         <v>7</v>
       </c>
-      <c r="E24" s="267"/>
-      <c r="F24" s="268"/>
-      <c r="G24" s="269"/>
-      <c r="H24" s="268"/>
-      <c r="I24" s="261"/>
-      <c r="J24" s="270"/>
-      <c r="K24" s="270"/>
-      <c r="L24" s="271"/>
-    </row>
-    <row r="25" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="184"/>
-      <c r="C25" s="193"/>
-      <c r="D25" s="9" t="s">
+      <c r="E26" s="45">
+        <v>0.64800000000000002</v>
+      </c>
+      <c r="F26" s="73">
+        <v>1.08</v>
+      </c>
+      <c r="G26" s="62">
+        <v>0.222</v>
+      </c>
+      <c r="H26" s="73">
+        <v>0.45</v>
+      </c>
+      <c r="I26" s="197"/>
+      <c r="J26" s="55">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="K26" s="55">
+        <v>-5.3600000000000002E-2</v>
+      </c>
+      <c r="L26" s="72">
+        <v>-0.11700000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B27" s="242"/>
+      <c r="C27" s="245"/>
+      <c r="D27" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="227"/>
-      <c r="F25" s="229"/>
-      <c r="G25" s="228"/>
-      <c r="H25" s="229"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="231"/>
-      <c r="K25" s="231"/>
-      <c r="L25" s="230"/>
-    </row>
-    <row r="26" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B26" s="184"/>
-      <c r="C26" s="193"/>
-      <c r="D26" s="10" t="s">
+      <c r="E27" s="47">
+        <v>0.504</v>
+      </c>
+      <c r="F27" s="51">
+        <v>1.08</v>
+      </c>
+      <c r="G27" s="63">
+        <v>0.185</v>
+      </c>
+      <c r="H27" s="51">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="I27" s="27"/>
+      <c r="J27" s="56">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="K27" s="56">
+        <v>-0.36099999999999999</v>
+      </c>
+      <c r="L27" s="53">
+        <v>-0.153</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B28" s="242"/>
+      <c r="C28" s="245"/>
+      <c r="D28" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E26" s="249"/>
-      <c r="F26" s="250"/>
-      <c r="G26" s="234"/>
-      <c r="H26" s="224"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="235"/>
-      <c r="K26" s="235"/>
-      <c r="L26" s="255"/>
-    </row>
-    <row r="27" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B27" s="184"/>
-      <c r="C27" s="193"/>
-      <c r="D27" s="9" t="s">
+      <c r="E28" s="76">
+        <v>0.58699999999999997</v>
+      </c>
+      <c r="F28" s="77">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G28" s="64">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="H28" s="52">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="I28" s="26"/>
+      <c r="J28" s="59">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="K28" s="59">
+        <v>0.159</v>
+      </c>
+      <c r="L28" s="81">
+        <v>-0.129</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B29" s="242"/>
+      <c r="C29" s="245"/>
+      <c r="D29" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E27" s="239"/>
-      <c r="F27" s="240"/>
-      <c r="G27" s="236"/>
-      <c r="H27" s="230"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="238"/>
-      <c r="K27" s="238"/>
-      <c r="L27" s="256"/>
-    </row>
-    <row r="28" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B28" s="184"/>
-      <c r="C28" s="193"/>
-      <c r="D28" s="9" t="s">
+      <c r="E29" s="78">
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="F29" s="356">
+        <v>0.95</v>
+      </c>
+      <c r="G29" s="66">
+        <v>0.152</v>
+      </c>
+      <c r="H29" s="350">
+        <v>0.4</v>
+      </c>
+      <c r="I29" s="27"/>
+      <c r="J29" s="57">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="K29" s="57">
+        <v>-0.30599999999999999</v>
+      </c>
+      <c r="L29" s="82">
+        <v>-0.156</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B30" s="242"/>
+      <c r="C30" s="245"/>
+      <c r="D30" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E28" s="239"/>
-      <c r="F28" s="251"/>
-      <c r="G28" s="236"/>
-      <c r="H28" s="248"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="238"/>
-      <c r="K28" s="238"/>
-      <c r="L28" s="256"/>
-    </row>
-    <row r="29" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="184"/>
-      <c r="C29" s="194"/>
-      <c r="D29" s="11" t="s">
+      <c r="E30" s="78">
+        <v>0.63400000000000001</v>
+      </c>
+      <c r="F30" s="115">
+        <v>1.23</v>
+      </c>
+      <c r="G30" s="66">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="H30" s="74">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="I30" s="28"/>
+      <c r="J30" s="57">
+        <v>7.2400000000000006E-2</v>
+      </c>
+      <c r="K30" s="57">
+        <v>-0.496</v>
+      </c>
+      <c r="L30" s="82">
+        <v>-9.6600000000000005E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="242"/>
+      <c r="C31" s="246"/>
+      <c r="D31" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E29" s="241"/>
-      <c r="F29" s="242"/>
-      <c r="G29" s="243"/>
-      <c r="H29" s="244"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="245"/>
-      <c r="K29" s="245"/>
-      <c r="L29" s="257"/>
-    </row>
-    <row r="30" spans="2:14" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="184"/>
-      <c r="C30" s="195" t="s">
+      <c r="E31" s="79">
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="F31" s="48">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="G31" s="68">
+        <v>0.17</v>
+      </c>
+      <c r="H31" s="54">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="I31" s="29"/>
+      <c r="J31" s="61">
+        <v>6.1699999999999998E-2</v>
+      </c>
+      <c r="K31" s="119">
+        <v>2.3699999999999999E-2</v>
+      </c>
+      <c r="L31" s="83">
+        <v>-0.10100000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="242"/>
+      <c r="C32" s="247" t="s">
         <v>0</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="D32" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E30" s="221"/>
-      <c r="F30" s="222"/>
-      <c r="G30" s="223"/>
-      <c r="H30" s="222"/>
-      <c r="I30" s="26"/>
-      <c r="J30" s="225"/>
-      <c r="K30" s="225"/>
-      <c r="L30" s="226"/>
-    </row>
-    <row r="31" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B31" s="184"/>
-      <c r="C31" s="193"/>
-      <c r="D31" s="9" t="s">
+      <c r="E32" s="50">
+        <v>0.64200000000000002</v>
+      </c>
+      <c r="F32" s="49">
+        <v>1.2</v>
+      </c>
+      <c r="G32" s="69">
+        <v>0.224</v>
+      </c>
+      <c r="H32" s="349">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="I32" s="26"/>
+      <c r="J32" s="58">
+        <v>0.192</v>
+      </c>
+      <c r="K32" s="58">
+        <v>-2.5499999999999998E-2</v>
+      </c>
+      <c r="L32" s="84">
+        <v>-0.11899999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B33" s="242"/>
+      <c r="C33" s="245"/>
+      <c r="D33" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E31" s="227"/>
-      <c r="F31" s="222"/>
-      <c r="G31" s="228"/>
-      <c r="H31" s="229"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="231"/>
-      <c r="K31" s="231"/>
-      <c r="L31" s="232"/>
-    </row>
-    <row r="32" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B32" s="184"/>
-      <c r="C32" s="193"/>
-      <c r="D32" s="10" t="s">
+      <c r="E33" s="47">
+        <v>0.49399999999999999</v>
+      </c>
+      <c r="F33" s="49">
         <v>1</v>
       </c>
-      <c r="E32" s="221"/>
-      <c r="F32" s="233"/>
-      <c r="G32" s="234"/>
-      <c r="H32" s="224"/>
-      <c r="I32" s="26"/>
-      <c r="J32" s="235"/>
-      <c r="K32" s="235"/>
-      <c r="L32" s="232"/>
-    </row>
-    <row r="33" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B33" s="184"/>
-      <c r="C33" s="193"/>
-      <c r="D33" s="9" t="s">
+      <c r="G33" s="63">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="H33" s="51">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="I33" s="27"/>
+      <c r="J33" s="56">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="K33" s="56">
+        <v>-0.40300000000000002</v>
+      </c>
+      <c r="L33" s="60">
+        <v>-0.157</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B34" s="242"/>
+      <c r="C34" s="245"/>
+      <c r="D34" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E34" s="50">
+        <v>0.56599999999999995</v>
+      </c>
+      <c r="F34" s="80">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="G34" s="64">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="H34" s="52">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="I34" s="26"/>
+      <c r="J34" s="59">
+        <v>0.129</v>
+      </c>
+      <c r="K34" s="59">
+        <v>-0.13400000000000001</v>
+      </c>
+      <c r="L34" s="60">
+        <v>-0.13300000000000001</v>
+      </c>
+      <c r="N34" s="12"/>
+    </row>
+    <row r="35" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B35" s="242"/>
+      <c r="C35" s="245"/>
+      <c r="D35" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E33" s="227"/>
-      <c r="F33" s="229"/>
-      <c r="G33" s="236"/>
-      <c r="H33" s="237"/>
-      <c r="I33" s="30"/>
-      <c r="J33" s="238"/>
-      <c r="K33" s="238"/>
-      <c r="L33" s="232"/>
-    </row>
-    <row r="34" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B34" s="184"/>
-      <c r="C34" s="193"/>
-      <c r="D34" s="9" t="s">
+      <c r="E35" s="109">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="F35" s="51">
+        <v>1.05</v>
+      </c>
+      <c r="G35" s="111">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="H35" s="65">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="I35" s="30"/>
+      <c r="J35" s="57">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="K35" s="57">
+        <v>-0.27500000000000002</v>
+      </c>
+      <c r="L35" s="124">
+        <v>-0.158</v>
+      </c>
+      <c r="N35" s="12"/>
+    </row>
+    <row r="36" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B36" s="242"/>
+      <c r="C36" s="245"/>
+      <c r="D36" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E34" s="239"/>
-      <c r="F34" s="240"/>
-      <c r="G34" s="236"/>
-      <c r="H34" s="237"/>
-      <c r="I34" s="30"/>
-      <c r="J34" s="238"/>
-      <c r="K34" s="238"/>
-      <c r="L34" s="226"/>
-    </row>
-    <row r="35" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="184"/>
-      <c r="C35" s="194"/>
-      <c r="D35" s="11" t="s">
+      <c r="E36" s="78">
+        <v>0.63500000000000001</v>
+      </c>
+      <c r="F36" s="46">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="G36" s="66">
+        <v>0.216</v>
+      </c>
+      <c r="H36" s="65">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="I36" s="30"/>
+      <c r="J36" s="57">
+        <v>6.6699999999999995E-2</v>
+      </c>
+      <c r="K36" s="57">
+        <v>-0.17299999999999999</v>
+      </c>
+      <c r="L36" s="84">
+        <v>-9.5100000000000004E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="242"/>
+      <c r="C37" s="246"/>
+      <c r="D37" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E35" s="241"/>
-      <c r="F35" s="242"/>
-      <c r="G35" s="243"/>
-      <c r="H35" s="244"/>
-      <c r="I35" s="29"/>
-      <c r="J35" s="245"/>
-      <c r="K35" s="245"/>
-      <c r="L35" s="246"/>
-    </row>
-    <row r="36" spans="2:12" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="184"/>
-      <c r="C36" s="195" t="s">
+      <c r="E37" s="79">
+        <v>0.47</v>
+      </c>
+      <c r="F37" s="48">
+        <v>1</v>
+      </c>
+      <c r="G37" s="68">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="H37" s="132">
+        <v>0.4</v>
+      </c>
+      <c r="I37" s="29"/>
+      <c r="J37" s="119">
+        <v>6.13E-2</v>
+      </c>
+      <c r="K37" s="61">
+        <v>-8.5199999999999998E-2</v>
+      </c>
+      <c r="L37" s="121">
+        <v>-9.1800000000000007E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="242"/>
+      <c r="C38" s="247" t="s">
         <v>30</v>
       </c>
-      <c r="D36" s="10" t="s">
+      <c r="D38" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E36" s="221"/>
-      <c r="F36" s="222"/>
-      <c r="G36" s="223"/>
-      <c r="H36" s="222"/>
-      <c r="I36" s="26"/>
-      <c r="J36" s="225"/>
-      <c r="K36" s="225"/>
-      <c r="L36" s="226"/>
-    </row>
-    <row r="37" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B37" s="184"/>
-      <c r="C37" s="193"/>
-      <c r="D37" s="9" t="s">
+      <c r="E38" s="355">
+        <v>0.66200000000000003</v>
+      </c>
+      <c r="F38" s="49">
+        <v>1.18</v>
+      </c>
+      <c r="G38" s="348">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="H38" s="49">
+        <v>0.5</v>
+      </c>
+      <c r="I38" s="26"/>
+      <c r="J38" s="58">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="K38" s="133">
+        <v>-0.56699999999999995</v>
+      </c>
+      <c r="L38" s="84">
+        <v>-0.115</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B39" s="242"/>
+      <c r="C39" s="245"/>
+      <c r="D39" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E37" s="227"/>
-      <c r="F37" s="222"/>
-      <c r="G37" s="228"/>
-      <c r="H37" s="229"/>
-      <c r="I37" s="27"/>
-      <c r="J37" s="231"/>
-      <c r="K37" s="231"/>
-      <c r="L37" s="232"/>
-    </row>
-    <row r="38" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B38" s="184"/>
-      <c r="C38" s="193"/>
-      <c r="D38" s="10" t="s">
+      <c r="E39" s="47">
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="F39" s="49">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="G39" s="63">
+        <v>0.19</v>
+      </c>
+      <c r="H39" s="51">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="I39" s="27"/>
+      <c r="J39" s="122">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="K39" s="56">
+        <v>-0.29099999999999998</v>
+      </c>
+      <c r="L39" s="60">
+        <v>-0.153</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B40" s="242"/>
+      <c r="C40" s="245"/>
+      <c r="D40" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E38" s="221"/>
-      <c r="F38" s="233"/>
-      <c r="G38" s="234"/>
-      <c r="H38" s="224"/>
-      <c r="I38" s="26"/>
-      <c r="J38" s="235"/>
-      <c r="K38" s="235"/>
-      <c r="L38" s="232"/>
-    </row>
-    <row r="39" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B39" s="184"/>
-      <c r="C39" s="193"/>
-      <c r="D39" s="9" t="s">
+      <c r="E40" s="50">
+        <v>0.61099999999999999</v>
+      </c>
+      <c r="F40" s="80">
+        <v>1.18</v>
+      </c>
+      <c r="G40" s="64">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="H40" s="52">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="I40" s="26"/>
+      <c r="J40" s="59">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="K40" s="59">
+        <v>-0.35499999999999998</v>
+      </c>
+      <c r="L40" s="60">
+        <v>-0.123</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B41" s="242"/>
+      <c r="C41" s="245"/>
+      <c r="D41" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E39" s="227"/>
-      <c r="F39" s="229"/>
-      <c r="G39" s="236"/>
-      <c r="H39" s="237"/>
-      <c r="I39" s="30"/>
-      <c r="J39" s="238"/>
-      <c r="K39" s="238"/>
-      <c r="L39" s="232"/>
-    </row>
-    <row r="40" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="184"/>
-      <c r="C40" s="193"/>
-      <c r="D40" s="9" t="s">
+      <c r="E41" s="47">
+        <v>0.439</v>
+      </c>
+      <c r="F41" s="51">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="G41" s="66">
+        <v>0.157</v>
+      </c>
+      <c r="H41" s="65">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="I41" s="30"/>
+      <c r="J41" s="57">
+        <v>0.125</v>
+      </c>
+      <c r="K41" s="57">
+        <v>-0.373</v>
+      </c>
+      <c r="L41" s="60">
+        <v>-0.14299999999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B42" s="242"/>
+      <c r="C42" s="245"/>
+      <c r="D42" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E40" s="239"/>
-      <c r="F40" s="240"/>
-      <c r="G40" s="236"/>
-      <c r="H40" s="237"/>
-      <c r="I40" s="30"/>
-      <c r="J40" s="238"/>
-      <c r="K40" s="238"/>
-      <c r="L40" s="226"/>
-    </row>
-    <row r="41" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="185"/>
-      <c r="C41" s="196"/>
-      <c r="D41" s="34" t="s">
+      <c r="E42" s="78">
+        <v>0.66100000000000003</v>
+      </c>
+      <c r="F42" s="46">
+        <v>1.18</v>
+      </c>
+      <c r="G42" s="66">
+        <v>0.224</v>
+      </c>
+      <c r="H42" s="117">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="I42" s="30"/>
+      <c r="J42" s="57">
+        <v>8.8599999999999998E-2</v>
+      </c>
+      <c r="K42" s="57">
+        <v>-0.24099999999999999</v>
+      </c>
+      <c r="L42" s="84">
+        <v>-9.74E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="243"/>
+      <c r="C43" s="248"/>
+      <c r="D43" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="E41" s="272"/>
-      <c r="F41" s="273"/>
-      <c r="G41" s="274"/>
-      <c r="H41" s="275"/>
-      <c r="I41" s="276"/>
-      <c r="J41" s="277"/>
-      <c r="K41" s="277"/>
-      <c r="L41" s="278"/>
-    </row>
-    <row r="42" spans="2:12" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="33"/>
-      <c r="C42" s="21"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="15"/>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="15"/>
-      <c r="K42" s="15"/>
-      <c r="L42" s="16"/>
-    </row>
-    <row r="43" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B43" s="183" t="s">
+      <c r="E43" s="86">
+        <v>0.48399999999999999</v>
+      </c>
+      <c r="F43" s="87">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="G43" s="203">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="H43" s="71">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="I43" s="204"/>
+      <c r="J43" s="75">
+        <v>7.3200000000000001E-2</v>
+      </c>
+      <c r="K43" s="75">
+        <v>6.6600000000000006E-2</v>
+      </c>
+      <c r="L43" s="205">
+        <v>-9.4799999999999995E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="33"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="15"/>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="15"/>
+      <c r="K44" s="15"/>
+      <c r="L44" s="16"/>
+    </row>
+    <row r="45" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B45" s="241" t="s">
         <v>14</v>
       </c>
-      <c r="C43" s="192" t="s">
+      <c r="C45" s="244" t="s">
         <v>9</v>
       </c>
-      <c r="D43" s="146" t="s">
+      <c r="D45" s="146" t="s">
         <v>7</v>
       </c>
-      <c r="E43" s="267"/>
-      <c r="F43" s="268"/>
-      <c r="G43" s="269"/>
-      <c r="H43" s="268"/>
-      <c r="I43" s="261"/>
-      <c r="J43" s="270"/>
-      <c r="K43" s="270"/>
-      <c r="L43" s="271"/>
-    </row>
-    <row r="44" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B44" s="184"/>
-      <c r="C44" s="193"/>
-      <c r="D44" s="9" t="s">
+      <c r="E45" s="45"/>
+      <c r="F45" s="73"/>
+      <c r="G45" s="62"/>
+      <c r="H45" s="73"/>
+      <c r="I45" s="197"/>
+      <c r="J45" s="55"/>
+      <c r="K45" s="55"/>
+      <c r="L45" s="72"/>
+    </row>
+    <row r="46" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B46" s="242"/>
+      <c r="C46" s="245"/>
+      <c r="D46" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E44" s="227"/>
-      <c r="F44" s="229"/>
-      <c r="G44" s="228"/>
-      <c r="H44" s="229"/>
-      <c r="I44" s="27"/>
-      <c r="J44" s="231"/>
-      <c r="K44" s="231"/>
-      <c r="L44" s="230"/>
-    </row>
-    <row r="45" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B45" s="184"/>
-      <c r="C45" s="193"/>
-      <c r="D45" s="10" t="s">
+      <c r="E46" s="47"/>
+      <c r="F46" s="51"/>
+      <c r="G46" s="63"/>
+      <c r="H46" s="51"/>
+      <c r="I46" s="27"/>
+      <c r="J46" s="56"/>
+      <c r="K46" s="56"/>
+      <c r="L46" s="53"/>
+    </row>
+    <row r="47" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B47" s="242"/>
+      <c r="C47" s="245"/>
+      <c r="D47" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E45" s="249"/>
-      <c r="F45" s="250"/>
-      <c r="G45" s="234"/>
-      <c r="H45" s="224"/>
-      <c r="I45" s="26"/>
-      <c r="J45" s="235"/>
-      <c r="K45" s="235"/>
-      <c r="L45" s="255"/>
-    </row>
-    <row r="46" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B46" s="184"/>
-      <c r="C46" s="193"/>
-      <c r="D46" s="9" t="s">
+      <c r="E47" s="76"/>
+      <c r="F47" s="77"/>
+      <c r="G47" s="64"/>
+      <c r="H47" s="52"/>
+      <c r="I47" s="26"/>
+      <c r="J47" s="59"/>
+      <c r="K47" s="59"/>
+      <c r="L47" s="81"/>
+    </row>
+    <row r="48" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B48" s="242"/>
+      <c r="C48" s="245"/>
+      <c r="D48" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E46" s="239"/>
-      <c r="F46" s="240"/>
-      <c r="G46" s="236"/>
-      <c r="H46" s="230"/>
-      <c r="I46" s="27"/>
-      <c r="J46" s="238"/>
-      <c r="K46" s="238"/>
-      <c r="L46" s="256"/>
-    </row>
-    <row r="47" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B47" s="184"/>
-      <c r="C47" s="193"/>
-      <c r="D47" s="9" t="s">
+      <c r="E48" s="78"/>
+      <c r="F48" s="46"/>
+      <c r="G48" s="66"/>
+      <c r="H48" s="53"/>
+      <c r="I48" s="27"/>
+      <c r="J48" s="57"/>
+      <c r="K48" s="57"/>
+      <c r="L48" s="82"/>
+    </row>
+    <row r="49" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B49" s="242"/>
+      <c r="C49" s="245"/>
+      <c r="D49" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E47" s="239"/>
-      <c r="F47" s="251"/>
-      <c r="G47" s="236"/>
-      <c r="H47" s="248"/>
-      <c r="I47" s="28"/>
-      <c r="J47" s="238"/>
-      <c r="K47" s="238"/>
-      <c r="L47" s="256"/>
-    </row>
-    <row r="48" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="184"/>
-      <c r="C48" s="194"/>
-      <c r="D48" s="11" t="s">
+      <c r="E49" s="78"/>
+      <c r="F49" s="195"/>
+      <c r="G49" s="66"/>
+      <c r="H49" s="74"/>
+      <c r="I49" s="28"/>
+      <c r="J49" s="57"/>
+      <c r="K49" s="57"/>
+      <c r="L49" s="82"/>
+    </row>
+    <row r="50" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="242"/>
+      <c r="C50" s="246"/>
+      <c r="D50" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E48" s="241"/>
-      <c r="F48" s="242"/>
-      <c r="G48" s="243"/>
-      <c r="H48" s="244"/>
-      <c r="I48" s="29"/>
-      <c r="J48" s="245"/>
-      <c r="K48" s="245"/>
-      <c r="L48" s="257"/>
-    </row>
-    <row r="49" spans="2:12" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="184"/>
-      <c r="C49" s="195" t="s">
+      <c r="E50" s="79"/>
+      <c r="F50" s="48"/>
+      <c r="G50" s="68"/>
+      <c r="H50" s="54"/>
+      <c r="I50" s="29"/>
+      <c r="J50" s="61"/>
+      <c r="K50" s="61"/>
+      <c r="L50" s="83"/>
+    </row>
+    <row r="51" spans="2:12" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="242"/>
+      <c r="C51" s="247" t="s">
         <v>0</v>
       </c>
-      <c r="D49" s="10" t="s">
+      <c r="D51" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E49" s="221"/>
-      <c r="F49" s="222"/>
-      <c r="G49" s="223"/>
-      <c r="H49" s="222"/>
-      <c r="I49" s="26"/>
-      <c r="J49" s="225"/>
-      <c r="K49" s="225"/>
-      <c r="L49" s="226"/>
-    </row>
-    <row r="50" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B50" s="184"/>
-      <c r="C50" s="193"/>
-      <c r="D50" s="9" t="s">
+      <c r="E51" s="50"/>
+      <c r="F51" s="49"/>
+      <c r="G51" s="69"/>
+      <c r="H51" s="49"/>
+      <c r="I51" s="26"/>
+      <c r="J51" s="58"/>
+      <c r="K51" s="58"/>
+      <c r="L51" s="84"/>
+    </row>
+    <row r="52" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B52" s="242"/>
+      <c r="C52" s="245"/>
+      <c r="D52" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E50" s="227"/>
-      <c r="F50" s="222"/>
-      <c r="G50" s="228"/>
-      <c r="H50" s="229"/>
-      <c r="I50" s="27"/>
-      <c r="J50" s="231"/>
-      <c r="K50" s="231"/>
-      <c r="L50" s="232"/>
-    </row>
-    <row r="51" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B51" s="184"/>
-      <c r="C51" s="193"/>
-      <c r="D51" s="10" t="s">
+      <c r="E52" s="47"/>
+      <c r="F52" s="49"/>
+      <c r="G52" s="63"/>
+      <c r="H52" s="51"/>
+      <c r="I52" s="27"/>
+      <c r="J52" s="56"/>
+      <c r="K52" s="56"/>
+      <c r="L52" s="60"/>
+    </row>
+    <row r="53" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B53" s="242"/>
+      <c r="C53" s="245"/>
+      <c r="D53" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E51" s="221"/>
-      <c r="F51" s="233"/>
-      <c r="G51" s="234"/>
-      <c r="H51" s="224"/>
-      <c r="I51" s="26"/>
-      <c r="J51" s="235"/>
-      <c r="K51" s="235"/>
-      <c r="L51" s="232"/>
-    </row>
-    <row r="52" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B52" s="184"/>
-      <c r="C52" s="193"/>
-      <c r="D52" s="9" t="s">
+      <c r="E53" s="50"/>
+      <c r="F53" s="80"/>
+      <c r="G53" s="64"/>
+      <c r="H53" s="52"/>
+      <c r="I53" s="26"/>
+      <c r="J53" s="59"/>
+      <c r="K53" s="59"/>
+      <c r="L53" s="60"/>
+    </row>
+    <row r="54" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B54" s="242"/>
+      <c r="C54" s="245"/>
+      <c r="D54" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E52" s="227"/>
-      <c r="F52" s="229"/>
-      <c r="G52" s="236"/>
-      <c r="H52" s="237"/>
-      <c r="I52" s="30"/>
-      <c r="J52" s="238"/>
-      <c r="K52" s="238"/>
-      <c r="L52" s="232"/>
-    </row>
-    <row r="53" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B53" s="184"/>
-      <c r="C53" s="193"/>
-      <c r="D53" s="9" t="s">
+      <c r="E54" s="47"/>
+      <c r="F54" s="51"/>
+      <c r="G54" s="66"/>
+      <c r="H54" s="65"/>
+      <c r="I54" s="30"/>
+      <c r="J54" s="57"/>
+      <c r="K54" s="57"/>
+      <c r="L54" s="60"/>
+    </row>
+    <row r="55" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B55" s="242"/>
+      <c r="C55" s="245"/>
+      <c r="D55" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E53" s="239"/>
-      <c r="F53" s="240"/>
-      <c r="G53" s="236"/>
-      <c r="H53" s="237"/>
-      <c r="I53" s="30"/>
-      <c r="J53" s="238"/>
-      <c r="K53" s="238"/>
-      <c r="L53" s="226"/>
-    </row>
-    <row r="54" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="184"/>
-      <c r="C54" s="194"/>
-      <c r="D54" s="11" t="s">
+      <c r="E55" s="78"/>
+      <c r="F55" s="46"/>
+      <c r="G55" s="66"/>
+      <c r="H55" s="65"/>
+      <c r="I55" s="30"/>
+      <c r="J55" s="57"/>
+      <c r="K55" s="57"/>
+      <c r="L55" s="84"/>
+    </row>
+    <row r="56" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="242"/>
+      <c r="C56" s="246"/>
+      <c r="D56" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E54" s="241"/>
-      <c r="F54" s="242"/>
-      <c r="G54" s="243"/>
-      <c r="H54" s="244"/>
-      <c r="I54" s="29"/>
-      <c r="J54" s="245"/>
-      <c r="K54" s="245"/>
-      <c r="L54" s="246"/>
-    </row>
-    <row r="55" spans="2:12" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="184"/>
-      <c r="C55" s="195" t="s">
+      <c r="E56" s="79"/>
+      <c r="F56" s="48"/>
+      <c r="G56" s="68"/>
+      <c r="H56" s="54"/>
+      <c r="I56" s="29"/>
+      <c r="J56" s="61"/>
+      <c r="K56" s="61"/>
+      <c r="L56" s="194"/>
+    </row>
+    <row r="57" spans="2:12" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="242"/>
+      <c r="C57" s="247" t="s">
         <v>30</v>
       </c>
-      <c r="D55" s="10" t="s">
+      <c r="D57" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E55" s="221"/>
-      <c r="F55" s="222"/>
-      <c r="G55" s="223"/>
-      <c r="H55" s="222"/>
-      <c r="I55" s="26"/>
-      <c r="J55" s="225"/>
-      <c r="K55" s="225"/>
-      <c r="L55" s="226"/>
-    </row>
-    <row r="56" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B56" s="184"/>
-      <c r="C56" s="193"/>
-      <c r="D56" s="9" t="s">
+      <c r="E57" s="50"/>
+      <c r="F57" s="49"/>
+      <c r="G57" s="69"/>
+      <c r="H57" s="49"/>
+      <c r="I57" s="26"/>
+      <c r="J57" s="58"/>
+      <c r="K57" s="58"/>
+      <c r="L57" s="84"/>
+    </row>
+    <row r="58" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B58" s="242"/>
+      <c r="C58" s="245"/>
+      <c r="D58" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E56" s="227"/>
-      <c r="F56" s="222"/>
-      <c r="G56" s="228"/>
-      <c r="H56" s="229"/>
-      <c r="I56" s="27"/>
-      <c r="J56" s="231"/>
-      <c r="K56" s="231"/>
-      <c r="L56" s="232"/>
-    </row>
-    <row r="57" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B57" s="184"/>
-      <c r="C57" s="193"/>
-      <c r="D57" s="10" t="s">
+      <c r="E58" s="47"/>
+      <c r="F58" s="49"/>
+      <c r="G58" s="63"/>
+      <c r="H58" s="51"/>
+      <c r="I58" s="27"/>
+      <c r="J58" s="56"/>
+      <c r="K58" s="56"/>
+      <c r="L58" s="60"/>
+    </row>
+    <row r="59" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B59" s="242"/>
+      <c r="C59" s="245"/>
+      <c r="D59" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E57" s="221"/>
-      <c r="F57" s="233"/>
-      <c r="G57" s="234"/>
-      <c r="H57" s="224"/>
-      <c r="I57" s="26"/>
-      <c r="J57" s="235"/>
-      <c r="K57" s="235"/>
-      <c r="L57" s="232"/>
-    </row>
-    <row r="58" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B58" s="184"/>
-      <c r="C58" s="193"/>
-      <c r="D58" s="9" t="s">
+      <c r="E59" s="50"/>
+      <c r="F59" s="80"/>
+      <c r="G59" s="64"/>
+      <c r="H59" s="52"/>
+      <c r="I59" s="26"/>
+      <c r="J59" s="59"/>
+      <c r="K59" s="59"/>
+      <c r="L59" s="60"/>
+    </row>
+    <row r="60" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B60" s="242"/>
+      <c r="C60" s="245"/>
+      <c r="D60" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E58" s="227"/>
-      <c r="F58" s="229"/>
-      <c r="G58" s="236"/>
-      <c r="H58" s="237"/>
-      <c r="I58" s="30"/>
-      <c r="J58" s="238"/>
-      <c r="K58" s="238"/>
-      <c r="L58" s="232"/>
-    </row>
-    <row r="59" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B59" s="184"/>
-      <c r="C59" s="193"/>
-      <c r="D59" s="9" t="s">
+      <c r="E60" s="47"/>
+      <c r="F60" s="51"/>
+      <c r="G60" s="66"/>
+      <c r="H60" s="65"/>
+      <c r="I60" s="30"/>
+      <c r="J60" s="57"/>
+      <c r="K60" s="57"/>
+      <c r="L60" s="60"/>
+    </row>
+    <row r="61" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B61" s="242"/>
+      <c r="C61" s="245"/>
+      <c r="D61" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E59" s="239"/>
-      <c r="F59" s="240"/>
-      <c r="G59" s="236"/>
-      <c r="H59" s="237"/>
-      <c r="I59" s="30"/>
-      <c r="J59" s="238"/>
-      <c r="K59" s="238"/>
-      <c r="L59" s="226"/>
-    </row>
-    <row r="60" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="185"/>
-      <c r="C60" s="196"/>
-      <c r="D60" s="34" t="s">
+      <c r="E61" s="78"/>
+      <c r="F61" s="46"/>
+      <c r="G61" s="66"/>
+      <c r="H61" s="65"/>
+      <c r="I61" s="30"/>
+      <c r="J61" s="57"/>
+      <c r="K61" s="57"/>
+      <c r="L61" s="84"/>
+    </row>
+    <row r="62" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="243"/>
+      <c r="C62" s="248"/>
+      <c r="D62" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="E60" s="272"/>
-      <c r="F60" s="273"/>
-      <c r="G60" s="274"/>
-      <c r="H60" s="275"/>
-      <c r="I60" s="276"/>
-      <c r="J60" s="277"/>
-      <c r="K60" s="277"/>
-      <c r="L60" s="278"/>
+      <c r="E62" s="86"/>
+      <c r="F62" s="87"/>
+      <c r="G62" s="203"/>
+      <c r="H62" s="71"/>
+      <c r="I62" s="204"/>
+      <c r="J62" s="75"/>
+      <c r="K62" s="75"/>
+      <c r="L62" s="205"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B5:B22"/>
-    <mergeCell ref="C5:C10"/>
-    <mergeCell ref="C17:C22"/>
+    <mergeCell ref="C26:C31"/>
+    <mergeCell ref="C32:C37"/>
+    <mergeCell ref="C45:C50"/>
+    <mergeCell ref="B26:B43"/>
+    <mergeCell ref="C38:C43"/>
+    <mergeCell ref="B45:B62"/>
+    <mergeCell ref="C51:C56"/>
+    <mergeCell ref="C57:C62"/>
+    <mergeCell ref="B7:B24"/>
+    <mergeCell ref="C7:C12"/>
+    <mergeCell ref="C19:C24"/>
     <mergeCell ref="E2:H2"/>
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="G3:H3"/>
-    <mergeCell ref="C11:C16"/>
-    <mergeCell ref="C24:C29"/>
-    <mergeCell ref="C30:C35"/>
-    <mergeCell ref="C43:C48"/>
-    <mergeCell ref="B24:B41"/>
-    <mergeCell ref="C36:C41"/>
-    <mergeCell ref="B43:B60"/>
-    <mergeCell ref="C49:C54"/>
-    <mergeCell ref="C55:C60"/>
+    <mergeCell ref="C13:C18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{268D9461-552D-4144-9352-1B89312DCF25}">
+  <dimension ref="B1:N46"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="50" zoomScalePageLayoutView="40" workbookViewId="0">
+      <selection activeCell="R18" sqref="R18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="4" width="12.85546875" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" customWidth="1"/>
+    <col min="8" max="8" width="9" customWidth="1"/>
+    <col min="9" max="9" width="0.42578125" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" customWidth="1"/>
+    <col min="12" max="12" width="10" customWidth="1"/>
+    <col min="13" max="13" width="12.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:14" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E2" s="249" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="250"/>
+      <c r="G2" s="250"/>
+      <c r="H2" s="251"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="252" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="250"/>
+      <c r="L2" s="251"/>
+    </row>
+    <row r="3" spans="2:14" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="260" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="261"/>
+      <c r="D3" s="262"/>
+      <c r="E3" s="256" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="257"/>
+      <c r="G3" s="258" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="257"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="13"/>
+    </row>
+    <row r="4" spans="2:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="388" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="25"/>
+      <c r="J4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="2:14" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="180" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="179" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="386" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="397">
+        <v>0.94099999999999995</v>
+      </c>
+      <c r="F5" s="398">
+        <v>1.375</v>
+      </c>
+      <c r="G5" s="399">
+        <v>0.31</v>
+      </c>
+      <c r="H5" s="398">
+        <v>0.6</v>
+      </c>
+      <c r="I5" s="268"/>
+      <c r="J5" s="331" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" s="332" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5" s="333" t="s">
+        <v>31</v>
+      </c>
+      <c r="M5" s="1"/>
+    </row>
+    <row r="6" spans="2:14" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="389"/>
+      <c r="C6" s="390"/>
+      <c r="D6" s="391"/>
+      <c r="E6" s="392"/>
+      <c r="F6" s="393"/>
+      <c r="G6" s="392"/>
+      <c r="H6" s="393"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="394"/>
+      <c r="K6" s="395"/>
+      <c r="L6" s="396"/>
+      <c r="M6" s="1"/>
+    </row>
+    <row r="7" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="242" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="245" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="78">
+        <v>0.63100000000000001</v>
+      </c>
+      <c r="F7" s="46">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G7" s="66">
+        <v>0.216</v>
+      </c>
+      <c r="H7" s="53">
+        <v>0.45</v>
+      </c>
+      <c r="I7" s="27"/>
+      <c r="J7" s="57">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="K7" s="57">
+        <v>-0.39500000000000002</v>
+      </c>
+      <c r="L7" s="82">
+        <v>-5.1700000000000003E-2</v>
+      </c>
+      <c r="M7" s="3"/>
+    </row>
+    <row r="8" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="242"/>
+      <c r="C8" s="245"/>
+      <c r="D8" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="116">
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="F8" s="115">
+        <v>1.42</v>
+      </c>
+      <c r="G8" s="114">
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="H8" s="134">
+        <v>0.65</v>
+      </c>
+      <c r="I8" s="28"/>
+      <c r="J8" s="323">
+        <v>0.13</v>
+      </c>
+      <c r="K8" s="57">
+        <v>-0.35799999999999998</v>
+      </c>
+      <c r="L8" s="82">
+        <v>-4.6899999999999997E-2</v>
+      </c>
+      <c r="M8" s="2"/>
+    </row>
+    <row r="9" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="242"/>
+      <c r="C9" s="246"/>
+      <c r="D9" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="79">
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="F9" s="131">
+        <v>1.02</v>
+      </c>
+      <c r="G9" s="68">
+        <v>0.224</v>
+      </c>
+      <c r="H9" s="132">
+        <v>0.4</v>
+      </c>
+      <c r="I9" s="29"/>
+      <c r="J9" s="61">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="K9" s="61">
+        <v>-0.52600000000000002</v>
+      </c>
+      <c r="L9" s="83">
+        <v>-4.7199999999999999E-2</v>
+      </c>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="242"/>
+      <c r="C10" s="245" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="47">
+        <v>0.64800000000000002</v>
+      </c>
+      <c r="F10" s="49">
+        <v>1.18</v>
+      </c>
+      <c r="G10" s="63">
+        <v>0.218</v>
+      </c>
+      <c r="H10" s="51">
+        <v>0.45</v>
+      </c>
+      <c r="I10" s="27"/>
+      <c r="J10" s="56">
+        <v>0.224</v>
+      </c>
+      <c r="K10" s="56">
+        <v>-0.82199999999999995</v>
+      </c>
+      <c r="L10" s="124">
+        <v>-6.7299999999999999E-2</v>
+      </c>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="242"/>
+      <c r="C11" s="245"/>
+      <c r="D11" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="109">
+        <v>0.61199999999999999</v>
+      </c>
+      <c r="F11" s="51">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G11" s="111">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="H11" s="65">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="I11" s="30"/>
+      <c r="J11" s="57">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="K11" s="57">
+        <v>-0.69799999999999995</v>
+      </c>
+      <c r="L11" s="60">
+        <v>-4.7899999999999998E-2</v>
+      </c>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="242"/>
+      <c r="C12" s="246"/>
+      <c r="D12" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="79">
+        <v>0.69799999999999995</v>
+      </c>
+      <c r="F12" s="48">
+        <v>1.08</v>
+      </c>
+      <c r="G12" s="68">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="H12" s="54">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="I12" s="29"/>
+      <c r="J12" s="61">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="K12" s="61">
+        <v>-0.72299999999999998</v>
+      </c>
+      <c r="L12" s="121">
+        <v>-4.2000000000000003E-2</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="242"/>
+      <c r="C13" s="245" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="47">
+        <v>0.67600000000000005</v>
+      </c>
+      <c r="F13" s="49">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G13" s="63">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="H13" s="51">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="I13" s="27"/>
+      <c r="J13" s="122">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="K13" s="56">
+        <v>-0.60099999999999998</v>
+      </c>
+      <c r="L13" s="60">
+        <v>-5.4100000000000002E-2</v>
+      </c>
+      <c r="M13" s="130"/>
+      <c r="N13" s="12"/>
+    </row>
+    <row r="14" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="242"/>
+      <c r="C14" s="245"/>
+      <c r="D14" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="47">
+        <v>0.64700000000000002</v>
+      </c>
+      <c r="F14" s="51">
+        <v>1.35</v>
+      </c>
+      <c r="G14" s="66">
+        <v>0.218</v>
+      </c>
+      <c r="H14" s="65">
+        <v>0.6</v>
+      </c>
+      <c r="I14" s="30"/>
+      <c r="J14" s="57">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="K14" s="123">
+        <v>-1.4</v>
+      </c>
+      <c r="L14" s="60">
+        <v>-4.5999999999999999E-2</v>
+      </c>
+      <c r="M14" s="3"/>
+      <c r="N14" s="12"/>
+    </row>
+    <row r="15" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="242"/>
+      <c r="C15" s="245"/>
+      <c r="D15" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="116">
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="F15" s="46">
+        <v>1.35</v>
+      </c>
+      <c r="G15" s="66">
+        <v>0.255</v>
+      </c>
+      <c r="H15" s="65">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="I15" s="30"/>
+      <c r="J15" s="57">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="K15" s="118">
+        <v>2.5899999999999999E-2</v>
+      </c>
+      <c r="L15" s="84">
+        <v>-4.7500000000000001E-2</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="242"/>
+      <c r="C16" s="246"/>
+      <c r="D16" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="79">
+        <v>0.72599999999999998</v>
+      </c>
+      <c r="F16" s="48">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="G16" s="68">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="H16" s="54">
+        <v>0.5</v>
+      </c>
+      <c r="I16" s="29"/>
+      <c r="J16" s="119">
+        <v>0.129</v>
+      </c>
+      <c r="K16" s="61">
+        <v>-0.39300000000000002</v>
+      </c>
+      <c r="L16" s="194">
+        <v>-4.7500000000000001E-2</v>
+      </c>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="2:14" ht="6" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="33"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="16"/>
+    </row>
+    <row r="18" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B18" s="242" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="245" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" s="78">
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="F18" s="356">
+        <v>0.95</v>
+      </c>
+      <c r="G18" s="66">
+        <v>0.152</v>
+      </c>
+      <c r="H18" s="350">
+        <v>0.4</v>
+      </c>
+      <c r="I18" s="27"/>
+      <c r="J18" s="57">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="K18" s="57">
+        <v>-0.30599999999999999</v>
+      </c>
+      <c r="L18" s="82">
+        <v>-0.156</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B19" s="242"/>
+      <c r="C19" s="245"/>
+      <c r="D19" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="78">
+        <v>0.63400000000000001</v>
+      </c>
+      <c r="F19" s="115">
+        <v>1.23</v>
+      </c>
+      <c r="G19" s="66">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="H19" s="74">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="I19" s="28"/>
+      <c r="J19" s="57">
+        <v>7.2400000000000006E-2</v>
+      </c>
+      <c r="K19" s="57">
+        <v>-0.496</v>
+      </c>
+      <c r="L19" s="82">
+        <v>-9.6600000000000005E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="242"/>
+      <c r="C20" s="246"/>
+      <c r="D20" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="79">
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="F20" s="48">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="G20" s="68">
+        <v>0.17</v>
+      </c>
+      <c r="H20" s="54">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="I20" s="29"/>
+      <c r="J20" s="61">
+        <v>6.1699999999999998E-2</v>
+      </c>
+      <c r="K20" s="119">
+        <v>2.3699999999999999E-2</v>
+      </c>
+      <c r="L20" s="83">
+        <v>-0.10100000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="242"/>
+      <c r="C21" s="247" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="50">
+        <v>0.64200000000000002</v>
+      </c>
+      <c r="F21" s="49">
+        <v>1.2</v>
+      </c>
+      <c r="G21" s="69">
+        <v>0.224</v>
+      </c>
+      <c r="H21" s="349">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="I21" s="26"/>
+      <c r="J21" s="58">
+        <v>0.192</v>
+      </c>
+      <c r="K21" s="58">
+        <v>-2.5499999999999998E-2</v>
+      </c>
+      <c r="L21" s="84">
+        <v>-0.11899999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B22" s="242"/>
+      <c r="C22" s="245"/>
+      <c r="D22" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" s="109">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="F22" s="51">
+        <v>1.05</v>
+      </c>
+      <c r="G22" s="111">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="H22" s="65">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="I22" s="30"/>
+      <c r="J22" s="57">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="K22" s="57">
+        <v>-0.27500000000000002</v>
+      </c>
+      <c r="L22" s="124">
+        <v>-0.158</v>
+      </c>
+      <c r="N22" s="12"/>
+    </row>
+    <row r="23" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="242"/>
+      <c r="C23" s="246"/>
+      <c r="D23" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="79">
+        <v>0.47</v>
+      </c>
+      <c r="F23" s="48">
+        <v>1</v>
+      </c>
+      <c r="G23" s="68">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="H23" s="132">
+        <v>0.4</v>
+      </c>
+      <c r="I23" s="29"/>
+      <c r="J23" s="119">
+        <v>6.13E-2</v>
+      </c>
+      <c r="K23" s="61">
+        <v>-8.5199999999999998E-2</v>
+      </c>
+      <c r="L23" s="121">
+        <v>-9.1800000000000007E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="242"/>
+      <c r="C24" s="247" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="355">
+        <v>0.66200000000000003</v>
+      </c>
+      <c r="F24" s="49">
+        <v>1.18</v>
+      </c>
+      <c r="G24" s="348">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="H24" s="49">
+        <v>0.5</v>
+      </c>
+      <c r="I24" s="26"/>
+      <c r="J24" s="58">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="K24" s="133">
+        <v>-0.56699999999999995</v>
+      </c>
+      <c r="L24" s="84">
+        <v>-0.115</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B25" s="242"/>
+      <c r="C25" s="245"/>
+      <c r="D25" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="47">
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="F25" s="49">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="G25" s="63">
+        <v>0.19</v>
+      </c>
+      <c r="H25" s="51">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="I25" s="27"/>
+      <c r="J25" s="122">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="K25" s="56">
+        <v>-0.29099999999999998</v>
+      </c>
+      <c r="L25" s="60">
+        <v>-0.153</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B26" s="242"/>
+      <c r="C26" s="245"/>
+      <c r="D26" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26" s="47">
+        <v>0.439</v>
+      </c>
+      <c r="F26" s="51">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="G26" s="66">
+        <v>0.157</v>
+      </c>
+      <c r="H26" s="65">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="I26" s="30"/>
+      <c r="J26" s="57">
+        <v>0.125</v>
+      </c>
+      <c r="K26" s="57">
+        <v>-0.373</v>
+      </c>
+      <c r="L26" s="60">
+        <v>-0.14299999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="242"/>
+      <c r="C27" s="245"/>
+      <c r="D27" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="78">
+        <v>0.66100000000000003</v>
+      </c>
+      <c r="F27" s="46">
+        <v>1.18</v>
+      </c>
+      <c r="G27" s="66">
+        <v>0.224</v>
+      </c>
+      <c r="H27" s="117">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="I27" s="30"/>
+      <c r="J27" s="57">
+        <v>8.8599999999999998E-2</v>
+      </c>
+      <c r="K27" s="57">
+        <v>-0.24099999999999999</v>
+      </c>
+      <c r="L27" s="84">
+        <v>-9.74E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="33"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="16"/>
+    </row>
+    <row r="29" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B29" s="241" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="244" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="146" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" s="45"/>
+      <c r="F29" s="73"/>
+      <c r="G29" s="62"/>
+      <c r="H29" s="73"/>
+      <c r="I29" s="197"/>
+      <c r="J29" s="55"/>
+      <c r="K29" s="55"/>
+      <c r="L29" s="72"/>
+    </row>
+    <row r="30" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B30" s="242"/>
+      <c r="C30" s="245"/>
+      <c r="D30" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="47"/>
+      <c r="F30" s="51"/>
+      <c r="G30" s="63"/>
+      <c r="H30" s="51"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="56"/>
+      <c r="K30" s="56"/>
+      <c r="L30" s="53"/>
+    </row>
+    <row r="31" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B31" s="242"/>
+      <c r="C31" s="245"/>
+      <c r="D31" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E31" s="76"/>
+      <c r="F31" s="77"/>
+      <c r="G31" s="64"/>
+      <c r="H31" s="52"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="59"/>
+      <c r="K31" s="59"/>
+      <c r="L31" s="81"/>
+    </row>
+    <row r="32" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B32" s="242"/>
+      <c r="C32" s="245"/>
+      <c r="D32" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E32" s="78"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="66"/>
+      <c r="H32" s="53"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="57"/>
+      <c r="K32" s="57"/>
+      <c r="L32" s="82"/>
+    </row>
+    <row r="33" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B33" s="242"/>
+      <c r="C33" s="245"/>
+      <c r="D33" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="78"/>
+      <c r="F33" s="195"/>
+      <c r="G33" s="66"/>
+      <c r="H33" s="74"/>
+      <c r="I33" s="28"/>
+      <c r="J33" s="57"/>
+      <c r="K33" s="57"/>
+      <c r="L33" s="82"/>
+    </row>
+    <row r="34" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="242"/>
+      <c r="C34" s="246"/>
+      <c r="D34" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E34" s="79"/>
+      <c r="F34" s="48"/>
+      <c r="G34" s="68"/>
+      <c r="H34" s="54"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="61"/>
+      <c r="K34" s="61"/>
+      <c r="L34" s="83"/>
+    </row>
+    <row r="35" spans="2:12" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="242"/>
+      <c r="C35" s="247" t="s">
+        <v>0</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" s="50"/>
+      <c r="F35" s="49"/>
+      <c r="G35" s="69"/>
+      <c r="H35" s="49"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="58"/>
+      <c r="K35" s="58"/>
+      <c r="L35" s="84"/>
+    </row>
+    <row r="36" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B36" s="242"/>
+      <c r="C36" s="245"/>
+      <c r="D36" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="47"/>
+      <c r="F36" s="49"/>
+      <c r="G36" s="63"/>
+      <c r="H36" s="51"/>
+      <c r="I36" s="27"/>
+      <c r="J36" s="56"/>
+      <c r="K36" s="56"/>
+      <c r="L36" s="60"/>
+    </row>
+    <row r="37" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B37" s="242"/>
+      <c r="C37" s="245"/>
+      <c r="D37" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E37" s="50"/>
+      <c r="F37" s="80"/>
+      <c r="G37" s="64"/>
+      <c r="H37" s="52"/>
+      <c r="I37" s="26"/>
+      <c r="J37" s="59"/>
+      <c r="K37" s="59"/>
+      <c r="L37" s="60"/>
+    </row>
+    <row r="38" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B38" s="242"/>
+      <c r="C38" s="245"/>
+      <c r="D38" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E38" s="47"/>
+      <c r="F38" s="51"/>
+      <c r="G38" s="66"/>
+      <c r="H38" s="65"/>
+      <c r="I38" s="30"/>
+      <c r="J38" s="57"/>
+      <c r="K38" s="57"/>
+      <c r="L38" s="60"/>
+    </row>
+    <row r="39" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B39" s="242"/>
+      <c r="C39" s="245"/>
+      <c r="D39" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E39" s="78"/>
+      <c r="F39" s="46"/>
+      <c r="G39" s="66"/>
+      <c r="H39" s="65"/>
+      <c r="I39" s="30"/>
+      <c r="J39" s="57"/>
+      <c r="K39" s="57"/>
+      <c r="L39" s="84"/>
+    </row>
+    <row r="40" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="242"/>
+      <c r="C40" s="246"/>
+      <c r="D40" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E40" s="79"/>
+      <c r="F40" s="48"/>
+      <c r="G40" s="68"/>
+      <c r="H40" s="54"/>
+      <c r="I40" s="29"/>
+      <c r="J40" s="61"/>
+      <c r="K40" s="61"/>
+      <c r="L40" s="194"/>
+    </row>
+    <row r="41" spans="2:12" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="242"/>
+      <c r="C41" s="247" t="s">
+        <v>30</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E41" s="50"/>
+      <c r="F41" s="49"/>
+      <c r="G41" s="69"/>
+      <c r="H41" s="49"/>
+      <c r="I41" s="26"/>
+      <c r="J41" s="58"/>
+      <c r="K41" s="58"/>
+      <c r="L41" s="84"/>
+    </row>
+    <row r="42" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B42" s="242"/>
+      <c r="C42" s="245"/>
+      <c r="D42" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" s="47"/>
+      <c r="F42" s="49"/>
+      <c r="G42" s="63"/>
+      <c r="H42" s="51"/>
+      <c r="I42" s="27"/>
+      <c r="J42" s="56"/>
+      <c r="K42" s="56"/>
+      <c r="L42" s="60"/>
+    </row>
+    <row r="43" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B43" s="242"/>
+      <c r="C43" s="245"/>
+      <c r="D43" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E43" s="50"/>
+      <c r="F43" s="80"/>
+      <c r="G43" s="64"/>
+      <c r="H43" s="52"/>
+      <c r="I43" s="26"/>
+      <c r="J43" s="59"/>
+      <c r="K43" s="59"/>
+      <c r="L43" s="60"/>
+    </row>
+    <row r="44" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B44" s="242"/>
+      <c r="C44" s="245"/>
+      <c r="D44" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E44" s="47"/>
+      <c r="F44" s="51"/>
+      <c r="G44" s="66"/>
+      <c r="H44" s="65"/>
+      <c r="I44" s="30"/>
+      <c r="J44" s="57"/>
+      <c r="K44" s="57"/>
+      <c r="L44" s="60"/>
+    </row>
+    <row r="45" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B45" s="242"/>
+      <c r="C45" s="245"/>
+      <c r="D45" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E45" s="78"/>
+      <c r="F45" s="46"/>
+      <c r="G45" s="66"/>
+      <c r="H45" s="65"/>
+      <c r="I45" s="30"/>
+      <c r="J45" s="57"/>
+      <c r="K45" s="57"/>
+      <c r="L45" s="84"/>
+    </row>
+    <row r="46" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="243"/>
+      <c r="C46" s="248"/>
+      <c r="D46" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="E46" s="86"/>
+      <c r="F46" s="87"/>
+      <c r="G46" s="203"/>
+      <c r="H46" s="71"/>
+      <c r="I46" s="204"/>
+      <c r="J46" s="75"/>
+      <c r="K46" s="75"/>
+      <c r="L46" s="205"/>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="B18:B27"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="B29:B46"/>
+    <mergeCell ref="C29:C34"/>
+    <mergeCell ref="C35:C40"/>
+    <mergeCell ref="C41:C46"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="B7:B16"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="C13:C16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19302950-C106-4780-AFCB-B595BCCB0D58}">
   <dimension ref="B1:U27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="50" zoomScalePageLayoutView="40" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5601,7 +8921,7 @@
     <col min="4" max="4" width="17.5703125" customWidth="1"/>
     <col min="5" max="8" width="7.140625" customWidth="1"/>
     <col min="9" max="9" width="0.7109375" customWidth="1"/>
-    <col min="10" max="10" width="6.85546875" customWidth="1"/>
+    <col min="10" max="10" width="6.7109375" style="12" customWidth="1"/>
     <col min="11" max="11" width="7.42578125" customWidth="1"/>
     <col min="12" max="12" width="7.5703125" customWidth="1"/>
   </cols>
@@ -5626,40 +8946,41 @@
       <c r="G2"/>
       <c r="H2"/>
       <c r="I2"/>
+      <c r="J2" s="41"/>
     </row>
     <row r="3" spans="2:21" s="39" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3"/>
       <c r="C3"/>
       <c r="D3"/>
-      <c r="E3" s="179" t="s">
+      <c r="E3" s="249" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="180"/>
-      <c r="G3" s="180"/>
-      <c r="H3" s="181"/>
+      <c r="F3" s="250"/>
+      <c r="G3" s="250"/>
+      <c r="H3" s="251"/>
       <c r="I3" s="23"/>
-      <c r="J3" s="182" t="s">
+      <c r="J3" s="252" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="180"/>
-      <c r="L3" s="181"/>
+      <c r="K3" s="250"/>
+      <c r="L3" s="251"/>
     </row>
     <row r="4" spans="2:21" s="39" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="189" t="s">
+      <c r="B4" s="260" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="190"/>
-      <c r="D4" s="191"/>
-      <c r="E4" s="186" t="s">
+      <c r="C4" s="261"/>
+      <c r="D4" s="262"/>
+      <c r="E4" s="256" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="187"/>
-      <c r="G4" s="188" t="s">
+      <c r="F4" s="257"/>
+      <c r="G4" s="258" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="187"/>
+      <c r="H4" s="257"/>
       <c r="I4" s="24"/>
-      <c r="J4" s="19" t="s">
+      <c r="J4" s="359" t="s">
         <v>20</v>
       </c>
       <c r="K4" s="20" t="s">
@@ -5691,8 +9012,8 @@
       <c r="H5" s="144" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="317"/>
-      <c r="J5" s="141" t="s">
+      <c r="I5" s="233"/>
+      <c r="J5" s="360" t="s">
         <v>5</v>
       </c>
       <c r="K5" s="144" t="s">
@@ -5703,127 +9024,155 @@
       </c>
     </row>
     <row r="6" spans="2:21" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="204" t="s">
+      <c r="B6" s="253" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="201" t="s">
+      <c r="C6" s="263" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="292">
+      <c r="E6" s="147">
         <v>0.63100000000000001</v>
       </c>
-      <c r="F6" s="293">
+      <c r="F6" s="340">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G6" s="326">
+      <c r="G6" s="153">
         <v>0.216</v>
       </c>
-      <c r="H6" s="268">
+      <c r="H6" s="342">
         <v>0.45</v>
       </c>
-      <c r="I6" s="261"/>
-      <c r="J6" s="295">
+      <c r="I6" s="197"/>
+      <c r="J6" s="137">
         <v>0.17799999999999999</v>
       </c>
-      <c r="K6" s="295">
+      <c r="K6" s="137">
         <v>-0.39500000000000002</v>
       </c>
-      <c r="L6" s="296">
+      <c r="L6" s="164">
         <v>-5.1700000000000003E-2</v>
       </c>
     </row>
     <row r="7" spans="2:21" s="39" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="197"/>
-      <c r="C7" s="203"/>
+      <c r="B7" s="254"/>
+      <c r="C7" s="264"/>
       <c r="D7" s="151" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="289">
+      <c r="E7" s="152">
         <v>0.63500000000000001</v>
       </c>
-      <c r="F7" s="242">
+      <c r="F7" s="131">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G7" s="241">
+      <c r="G7" s="79">
         <v>0.21099999999999999</v>
       </c>
-      <c r="H7" s="242">
+      <c r="H7" s="131">
         <v>0.45</v>
       </c>
       <c r="I7" s="29"/>
-      <c r="J7" s="290">
+      <c r="J7" s="194">
         <v>0.19900000000000001</v>
       </c>
-      <c r="K7" s="327">
+      <c r="K7" s="344">
         <v>-6.9099999999999995E-2</v>
       </c>
-      <c r="L7" s="291">
+      <c r="L7" s="213">
         <v>-0.115</v>
       </c>
     </row>
     <row r="8" spans="2:21" s="39" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="197"/>
-      <c r="C8" s="282" t="s">
+      <c r="B8" s="254"/>
+      <c r="C8" s="265" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="219" t="s">
+      <c r="D8" s="193" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="284"/>
-      <c r="F8" s="285"/>
-      <c r="G8" s="329"/>
-      <c r="H8" s="253"/>
-      <c r="I8" s="210"/>
-      <c r="J8" s="287"/>
-      <c r="K8" s="287"/>
-      <c r="L8" s="288"/>
+      <c r="E8" s="208">
+        <v>0.64700000000000002</v>
+      </c>
+      <c r="F8" s="209">
+        <v>1.35</v>
+      </c>
+      <c r="G8" s="237">
+        <v>0.218</v>
+      </c>
+      <c r="H8" s="184">
+        <v>0.6</v>
+      </c>
+      <c r="I8" s="186"/>
+      <c r="J8" s="343">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="K8" s="211">
+        <v>-1.4</v>
+      </c>
+      <c r="L8" s="345">
+        <v>-4.5999999999999999E-2</v>
+      </c>
     </row>
     <row r="9" spans="2:21" s="39" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="197"/>
-      <c r="C9" s="203"/>
+      <c r="B9" s="254"/>
+      <c r="C9" s="264"/>
       <c r="D9" s="151" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="289"/>
-      <c r="F9" s="242"/>
-      <c r="G9" s="241"/>
-      <c r="H9" s="242"/>
+      <c r="E9" s="152">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="F9" s="48">
+        <v>1.25</v>
+      </c>
+      <c r="G9" s="79">
+        <v>0.222</v>
+      </c>
+      <c r="H9" s="48">
+        <v>0.55000000000000004</v>
+      </c>
       <c r="I9" s="29"/>
-      <c r="J9" s="290"/>
-      <c r="K9" s="327"/>
-      <c r="L9" s="291"/>
+      <c r="J9" s="194">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="K9" s="235">
+        <v>-0.313</v>
+      </c>
+      <c r="L9" s="213">
+        <v>-0.108</v>
+      </c>
     </row>
     <row r="10" spans="2:21" s="39" customFormat="1" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="197"/>
+      <c r="B10" s="254"/>
       <c r="C10" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="D10" s="214" t="s">
+      <c r="D10" s="189" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="297">
+      <c r="E10" s="219">
         <v>0.61199999999999999</v>
       </c>
-      <c r="F10" s="298">
+      <c r="F10" s="215">
         <v>1.1499999999999999</v>
       </c>
-      <c r="G10" s="328">
+      <c r="G10" s="341">
         <v>0.20699999999999999</v>
       </c>
-      <c r="H10" s="300">
+      <c r="H10" s="217">
         <v>0.52500000000000002</v>
       </c>
-      <c r="I10" s="318"/>
-      <c r="J10" s="301">
+      <c r="I10" s="234"/>
+      <c r="J10" s="159">
         <v>0.17499999999999999</v>
       </c>
-      <c r="K10" s="301">
+      <c r="K10" s="159">
         <v>-0.69799999999999995</v>
       </c>
-      <c r="L10" s="300">
+      <c r="L10" s="217">
         <v>-4.7899999999999998E-2</v>
       </c>
       <c r="N10"/>
@@ -5843,8 +9192,8 @@
       <c r="F11" s="102"/>
       <c r="G11" s="103"/>
       <c r="H11" s="102"/>
-      <c r="I11" s="313"/>
-      <c r="J11" s="104"/>
+      <c r="I11" s="229"/>
+      <c r="J11" s="361"/>
       <c r="K11" s="105"/>
       <c r="L11" s="106"/>
       <c r="N11"/>
@@ -5857,90 +9206,160 @@
       <c r="U11"/>
     </row>
     <row r="12" spans="2:21" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="204" t="s">
+      <c r="B12" s="253" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="201" t="s">
+      <c r="C12" s="263" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="292"/>
-      <c r="F12" s="293"/>
-      <c r="G12" s="326"/>
-      <c r="H12" s="268"/>
-      <c r="I12" s="261"/>
-      <c r="J12" s="295"/>
-      <c r="K12" s="295"/>
-      <c r="L12" s="296"/>
+      <c r="E12" s="357">
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="F12" s="303">
+        <v>0.95</v>
+      </c>
+      <c r="G12" s="358">
+        <v>0.152</v>
+      </c>
+      <c r="H12" s="350">
+        <v>0.4</v>
+      </c>
+      <c r="I12" s="197"/>
+      <c r="J12" s="57">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="K12" s="57">
+        <v>-0.30599999999999999</v>
+      </c>
+      <c r="L12" s="82">
+        <v>-0.156</v>
+      </c>
     </row>
     <row r="13" spans="2:21" s="39" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="197"/>
-      <c r="C13" s="203"/>
+      <c r="B13" s="254"/>
+      <c r="C13" s="264"/>
       <c r="D13" s="151" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="289"/>
-      <c r="F13" s="242"/>
-      <c r="G13" s="241"/>
-      <c r="H13" s="242"/>
+      <c r="E13" s="152">
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="F13" s="131">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="G13" s="79">
+        <v>0.153</v>
+      </c>
+      <c r="H13" s="131">
+        <v>0.4</v>
+      </c>
       <c r="I13" s="29"/>
-      <c r="J13" s="290"/>
-      <c r="K13" s="327"/>
-      <c r="L13" s="291"/>
+      <c r="J13" s="194">
+        <v>0.15</v>
+      </c>
+      <c r="K13" s="235">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="L13" s="213">
+        <v>-0.20599999999999999</v>
+      </c>
       <c r="M13"/>
     </row>
     <row r="14" spans="2:21" s="39" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="197"/>
-      <c r="C14" s="282" t="s">
+      <c r="B14" s="254"/>
+      <c r="C14" s="265" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="219" t="s">
+      <c r="D14" s="193" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="284"/>
-      <c r="F14" s="285"/>
-      <c r="G14" s="329"/>
-      <c r="H14" s="253"/>
-      <c r="I14" s="210"/>
-      <c r="J14" s="287"/>
-      <c r="K14" s="287"/>
-      <c r="L14" s="288"/>
+      <c r="E14" s="208">
+        <v>0.439</v>
+      </c>
+      <c r="F14" s="209">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="G14" s="237">
+        <v>0.157</v>
+      </c>
+      <c r="H14" s="184">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="I14" s="186"/>
+      <c r="J14" s="118">
+        <v>0.125</v>
+      </c>
+      <c r="K14" s="57">
+        <v>-0.373</v>
+      </c>
+      <c r="L14" s="362">
+        <v>-0.14299999999999999</v>
+      </c>
       <c r="M14"/>
     </row>
     <row r="15" spans="2:21" s="39" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="197"/>
-      <c r="C15" s="203"/>
+      <c r="B15" s="254"/>
+      <c r="C15" s="264"/>
       <c r="D15" s="151" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="289"/>
-      <c r="F15" s="242"/>
-      <c r="G15" s="241"/>
-      <c r="H15" s="242"/>
+      <c r="E15" s="152">
+        <v>0.45</v>
+      </c>
+      <c r="F15" s="48">
+        <v>1.08</v>
+      </c>
+      <c r="G15" s="79">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="H15" s="131">
+        <v>0.4</v>
+      </c>
       <c r="I15" s="29"/>
-      <c r="J15" s="290"/>
-      <c r="K15" s="327"/>
-      <c r="L15" s="291"/>
+      <c r="J15" s="194">
+        <v>0.152</v>
+      </c>
+      <c r="K15" s="344">
+        <v>-0.13700000000000001</v>
+      </c>
+      <c r="L15" s="213">
+        <v>-0.19800000000000001</v>
+      </c>
       <c r="M15"/>
     </row>
     <row r="16" spans="2:21" s="39" customFormat="1" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="197"/>
+      <c r="B16" s="254"/>
       <c r="C16" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="D16" s="214" t="s">
+      <c r="D16" s="189" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="297"/>
-      <c r="F16" s="298"/>
-      <c r="G16" s="328"/>
-      <c r="H16" s="300"/>
-      <c r="I16" s="318"/>
-      <c r="J16" s="301"/>
-      <c r="K16" s="301"/>
-      <c r="L16" s="300"/>
+      <c r="E16" s="109">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="F16" s="296">
+        <v>1.05</v>
+      </c>
+      <c r="G16" s="111">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="H16" s="315">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="I16" s="234"/>
+      <c r="J16" s="57">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="K16" s="57">
+        <v>-0.27500000000000002</v>
+      </c>
+      <c r="L16" s="329">
+        <v>-0.158</v>
+      </c>
       <c r="M16"/>
     </row>
     <row r="17" spans="2:12" s="39" customFormat="1" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5951,93 +9370,93 @@
       <c r="F17" s="102"/>
       <c r="G17" s="103"/>
       <c r="H17" s="102"/>
-      <c r="I17" s="313"/>
-      <c r="J17" s="104"/>
+      <c r="I17" s="229"/>
+      <c r="J17" s="361"/>
       <c r="K17" s="105"/>
       <c r="L17" s="106"/>
     </row>
     <row r="18" spans="2:12" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="204" t="s">
+      <c r="B18" s="253" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="201" t="s">
+      <c r="C18" s="263" t="s">
         <v>9</v>
       </c>
       <c r="D18" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="E18" s="292"/>
-      <c r="F18" s="293"/>
-      <c r="G18" s="326"/>
-      <c r="H18" s="268"/>
-      <c r="I18" s="261"/>
-      <c r="J18" s="295"/>
-      <c r="K18" s="295"/>
-      <c r="L18" s="296"/>
+      <c r="E18" s="147"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="153"/>
+      <c r="H18" s="73"/>
+      <c r="I18" s="197"/>
+      <c r="J18" s="137"/>
+      <c r="K18" s="137"/>
+      <c r="L18" s="164"/>
     </row>
     <row r="19" spans="2:12" s="39" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="197"/>
-      <c r="C19" s="203"/>
+      <c r="B19" s="254"/>
+      <c r="C19" s="264"/>
       <c r="D19" s="151" t="s">
         <v>26</v>
       </c>
-      <c r="E19" s="289"/>
-      <c r="F19" s="242"/>
-      <c r="G19" s="241"/>
-      <c r="H19" s="242"/>
+      <c r="E19" s="152"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="79"/>
+      <c r="H19" s="48"/>
       <c r="I19" s="29"/>
-      <c r="J19" s="290"/>
-      <c r="K19" s="327"/>
-      <c r="L19" s="291"/>
+      <c r="J19" s="194"/>
+      <c r="K19" s="235"/>
+      <c r="L19" s="213"/>
     </row>
     <row r="20" spans="2:12" s="39" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="197"/>
-      <c r="C20" s="282" t="s">
+      <c r="B20" s="254"/>
+      <c r="C20" s="265" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="219" t="s">
+      <c r="D20" s="193" t="s">
         <v>24</v>
       </c>
-      <c r="E20" s="284"/>
-      <c r="F20" s="285"/>
-      <c r="G20" s="329"/>
-      <c r="H20" s="253"/>
-      <c r="I20" s="210"/>
-      <c r="J20" s="287"/>
-      <c r="K20" s="287"/>
-      <c r="L20" s="288"/>
+      <c r="E20" s="208"/>
+      <c r="F20" s="209"/>
+      <c r="G20" s="237"/>
+      <c r="H20" s="184"/>
+      <c r="I20" s="186"/>
+      <c r="J20" s="211"/>
+      <c r="K20" s="211"/>
+      <c r="L20" s="212"/>
     </row>
     <row r="21" spans="2:12" s="39" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="197"/>
-      <c r="C21" s="203"/>
+      <c r="B21" s="254"/>
+      <c r="C21" s="264"/>
       <c r="D21" s="151" t="s">
         <v>26</v>
       </c>
-      <c r="E21" s="289"/>
-      <c r="F21" s="242"/>
-      <c r="G21" s="241"/>
-      <c r="H21" s="242"/>
+      <c r="E21" s="152"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="79"/>
+      <c r="H21" s="48"/>
       <c r="I21" s="29"/>
-      <c r="J21" s="290"/>
-      <c r="K21" s="327"/>
-      <c r="L21" s="291"/>
+      <c r="J21" s="194"/>
+      <c r="K21" s="235"/>
+      <c r="L21" s="213"/>
     </row>
     <row r="22" spans="2:12" s="39" customFormat="1" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="198"/>
+      <c r="B22" s="255"/>
       <c r="C22" s="140" t="s">
         <v>0</v>
       </c>
-      <c r="D22" s="260" t="s">
+      <c r="D22" s="196" t="s">
         <v>24</v>
       </c>
-      <c r="E22" s="297"/>
-      <c r="F22" s="298"/>
-      <c r="G22" s="328"/>
-      <c r="H22" s="300"/>
-      <c r="I22" s="318"/>
-      <c r="J22" s="301"/>
-      <c r="K22" s="301"/>
-      <c r="L22" s="300"/>
+      <c r="E22" s="214"/>
+      <c r="F22" s="215"/>
+      <c r="G22" s="236"/>
+      <c r="H22" s="217"/>
+      <c r="I22" s="234"/>
+      <c r="J22" s="159"/>
+      <c r="K22" s="159"/>
+      <c r="L22" s="217"/>
     </row>
     <row r="23" spans="2:12" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="42"/>
@@ -6048,11 +9467,20 @@
       <c r="G23" s="40"/>
       <c r="H23" s="38"/>
       <c r="I23" s="38"/>
-    </row>
-    <row r="24" spans="2:12" s="39" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="2:12" s="39" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="2:12" s="39" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="2:12" s="39" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="J23" s="41"/>
+    </row>
+    <row r="24" spans="2:12" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J24" s="41"/>
+    </row>
+    <row r="25" spans="2:12" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J25" s="41"/>
+    </row>
+    <row r="26" spans="2:12" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J26" s="41"/>
+    </row>
+    <row r="27" spans="2:12" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J27" s="41"/>
+    </row>
   </sheetData>
   <mergeCells count="14">
     <mergeCell ref="B18:B22"/>
@@ -6075,7 +9503,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF7434C0-2E16-4CCA-AEE7-0E8ADEF04189}">
   <dimension ref="B1:V33"/>
   <sheetViews>
@@ -6120,32 +9548,32 @@
       <c r="B3"/>
       <c r="C3"/>
       <c r="D3"/>
-      <c r="E3" s="179" t="s">
+      <c r="E3" s="249" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="180"/>
-      <c r="G3" s="180"/>
-      <c r="H3" s="181"/>
-      <c r="I3" s="182" t="s">
+      <c r="F3" s="250"/>
+      <c r="G3" s="250"/>
+      <c r="H3" s="251"/>
+      <c r="I3" s="252" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="180"/>
-      <c r="K3" s="181"/>
+      <c r="J3" s="250"/>
+      <c r="K3" s="251"/>
     </row>
     <row r="4" spans="2:22" s="39" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="189" t="s">
+      <c r="B4" s="260" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="190"/>
-      <c r="D4" s="191"/>
-      <c r="E4" s="186" t="s">
+      <c r="C4" s="261"/>
+      <c r="D4" s="262"/>
+      <c r="E4" s="256" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="187"/>
-      <c r="G4" s="188" t="s">
+      <c r="F4" s="257"/>
+      <c r="G4" s="258" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="187"/>
+      <c r="H4" s="257"/>
       <c r="I4" s="19" t="s">
         <v>20</v>
       </c>
@@ -6189,10 +9617,10 @@
       </c>
     </row>
     <row r="6" spans="2:22" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="204" t="s">
+      <c r="B6" s="253" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="201" t="s">
+      <c r="C6" s="263" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="146" t="s">
@@ -6221,8 +9649,8 @@
       </c>
     </row>
     <row r="7" spans="2:22" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="197"/>
-      <c r="C7" s="202"/>
+      <c r="B7" s="254"/>
+      <c r="C7" s="266"/>
       <c r="D7" s="31" t="s">
         <v>26</v>
       </c>
@@ -6249,8 +9677,8 @@
       </c>
     </row>
     <row r="8" spans="2:22" s="39" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="197"/>
-      <c r="C8" s="203"/>
+      <c r="B8" s="254"/>
+      <c r="C8" s="264"/>
       <c r="D8" s="151" t="s">
         <v>28</v>
       </c>
@@ -6343,10 +9771,10 @@
       <c r="V10"/>
     </row>
     <row r="11" spans="2:22" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="197" t="s">
+      <c r="B11" s="254" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="199" t="s">
+      <c r="C11" s="239" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="10" t="s">
@@ -6372,8 +9800,8 @@
       <c r="V11"/>
     </row>
     <row r="12" spans="2:22" s="39" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="198"/>
-      <c r="C12" s="200"/>
+      <c r="B12" s="255"/>
+      <c r="C12" s="240"/>
       <c r="D12" s="34" t="s">
         <v>25</v>
       </c>
@@ -6411,10 +9839,10 @@
       <c r="M13"/>
     </row>
     <row r="14" spans="2:22" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="197" t="s">
+      <c r="B14" s="254" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="199" t="s">
+      <c r="C14" s="239" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="10" t="s">
@@ -6431,8 +9859,8 @@
       <c r="M14"/>
     </row>
     <row r="15" spans="2:22" s="39" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="198"/>
-      <c r="C15" s="200"/>
+      <c r="B15" s="255"/>
+      <c r="C15" s="240"/>
       <c r="D15" s="34" t="s">
         <v>25</v>
       </c>
@@ -6609,24 +10037,24 @@
     <row r="33" s="39" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="E3:H3"/>
     <mergeCell ref="I3:K3"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="B6:B8"/>
     <mergeCell ref="C6:C8"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="E3:H3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A4322A8-99D6-4CC6-84C4-443750EF92BD}">
   <dimension ref="B1:T32"/>
   <sheetViews>
@@ -6669,32 +10097,32 @@
       <c r="B3"/>
       <c r="C3"/>
       <c r="D3"/>
-      <c r="E3" s="179" t="s">
+      <c r="E3" s="249" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="180"/>
-      <c r="G3" s="180"/>
-      <c r="H3" s="181"/>
-      <c r="I3" s="182" t="s">
+      <c r="F3" s="250"/>
+      <c r="G3" s="250"/>
+      <c r="H3" s="251"/>
+      <c r="I3" s="252" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="180"/>
-      <c r="K3" s="181"/>
+      <c r="J3" s="250"/>
+      <c r="K3" s="251"/>
     </row>
     <row r="4" spans="2:20" s="39" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="189" t="s">
+      <c r="B4" s="260" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="190"/>
-      <c r="D4" s="191"/>
-      <c r="E4" s="186" t="s">
+      <c r="C4" s="261"/>
+      <c r="D4" s="262"/>
+      <c r="E4" s="256" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="187"/>
-      <c r="G4" s="188" t="s">
+      <c r="F4" s="257"/>
+      <c r="G4" s="258" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="187"/>
+      <c r="H4" s="257"/>
       <c r="I4" s="19" t="s">
         <v>20</v>
       </c>
@@ -6738,10 +10166,10 @@
       </c>
     </row>
     <row r="6" spans="2:20" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="204" t="s">
+      <c r="B6" s="253" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="201" t="s">
+      <c r="C6" s="263" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="32" t="s">
@@ -6770,8 +10198,8 @@
       </c>
     </row>
     <row r="7" spans="2:20" s="39" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="197"/>
-      <c r="C7" s="202"/>
+      <c r="B7" s="254"/>
+      <c r="C7" s="266"/>
       <c r="D7" s="31" t="s">
         <v>26</v>
       </c>
@@ -6856,10 +10284,10 @@
       <c r="T9"/>
     </row>
     <row r="10" spans="2:20" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="197" t="s">
+      <c r="B10" s="254" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="199" t="s">
+      <c r="C10" s="239" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="10" t="s">
@@ -6883,8 +10311,8 @@
       <c r="T10"/>
     </row>
     <row r="11" spans="2:20" s="39" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="198"/>
-      <c r="C11" s="200"/>
+      <c r="B11" s="255"/>
+      <c r="C11" s="240"/>
       <c r="D11" s="34" t="s">
         <v>26</v>
       </c>
@@ -6927,10 +10355,10 @@
       <c r="T12"/>
     </row>
     <row r="13" spans="2:20" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="197" t="s">
+      <c r="B13" s="254" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="199" t="s">
+      <c r="C13" s="239" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="10" t="s">
@@ -6954,8 +10382,8 @@
       <c r="T13"/>
     </row>
     <row r="14" spans="2:20" s="39" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="198"/>
-      <c r="C14" s="200"/>
+      <c r="B14" s="255"/>
+      <c r="C14" s="240"/>
       <c r="D14" s="34" t="s">
         <v>26</v>
       </c>
@@ -7132,17 +10560,17 @@
     <row r="32" spans="2:12" s="39" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="E3:H3"/>
     <mergeCell ref="I3:K3"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:C7"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="E3:H3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7150,18 +10578,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7341,14 +10769,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06DA2F1B-717B-4D32-8536-28EBD29FAA3A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A6A8E2B-A170-438C-86CD-560003D30CAB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -7360,6 +10780,14 @@
     <ds:schemaRef ds:uri="756e89ea-a5fb-4d06-a9be-9b8635efcbbf"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06DA2F1B-717B-4D32-8536-28EBD29FAA3A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/tables.xlsx
+++ b/tables.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdolden\Desktop\Ch3_floweringrush\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thomp\Desktop\Ch3_floweringrush\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79E46291-7A98-483B-96EE-4F2873610950}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{444BA63A-8724-4C57-ADDF-3293CB9752AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="300" windowWidth="25440" windowHeight="15390" activeTab="3" xr2:uid="{94130567-C790-4197-BF09-72317C0E58C5}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{94130567-C790-4197-BF09-72317C0E58C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Space 1" sheetId="1" r:id="rId1"/>
@@ -1332,7 +1332,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="277">
+  <cellXfs count="264">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1861,6 +1861,127 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1936,168 +2057,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="6" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="6" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="6" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="6" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2443,57 +2406,57 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A735158-88E3-4592-A032-033FAF873106}">
   <dimension ref="B1:N74"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="50" zoomScalePageLayoutView="40" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="50" zoomScalePageLayoutView="40" workbookViewId="0">
       <selection activeCell="E14" sqref="E14:L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="1" max="1" width="17.54296875" customWidth="1"/>
+    <col min="2" max="2" width="11.26953125" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" customWidth="1"/>
+    <col min="6" max="6" width="9.26953125" customWidth="1"/>
     <col min="7" max="7" width="9" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" customWidth="1"/>
-    <col min="9" max="9" width="0.42578125" style="32" customWidth="1"/>
+    <col min="8" max="8" width="8.81640625" customWidth="1"/>
+    <col min="9" max="9" width="0.453125" style="32" customWidth="1"/>
     <col min="10" max="11" width="11" customWidth="1"/>
-    <col min="12" max="12" width="10.42578125" customWidth="1"/>
+    <col min="12" max="12" width="10.453125" customWidth="1"/>
     <col min="13" max="13" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="I1"/>
     </row>
-    <row r="2" spans="2:14" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E2" s="194" t="s">
+    <row r="2" spans="2:14" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E2" s="237" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="195"/>
-      <c r="G2" s="195"/>
-      <c r="H2" s="196"/>
+      <c r="F2" s="238"/>
+      <c r="G2" s="238"/>
+      <c r="H2" s="239"/>
       <c r="I2" s="33"/>
-      <c r="J2" s="197" t="s">
+      <c r="J2" s="240" t="s">
         <v>28</v>
       </c>
-      <c r="K2" s="195"/>
-      <c r="L2" s="196"/>
-    </row>
-    <row r="3" spans="2:14" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="204" t="s">
+      <c r="K2" s="238"/>
+      <c r="L2" s="239"/>
+    </row>
+    <row r="3" spans="2:14" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="247" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="205"/>
-      <c r="D3" s="206"/>
-      <c r="E3" s="201" t="s">
+      <c r="C3" s="248"/>
+      <c r="D3" s="249"/>
+      <c r="E3" s="244" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="202"/>
-      <c r="G3" s="203" t="s">
+      <c r="F3" s="245"/>
+      <c r="G3" s="246" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="202"/>
+      <c r="H3" s="245"/>
       <c r="I3" s="34"/>
       <c r="J3" s="28" t="s">
         <v>21</v>
@@ -2506,7 +2469,7 @@
       </c>
       <c r="M3" s="16"/>
     </row>
-    <row r="4" spans="2:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B4" s="27" t="s">
         <v>13</v>
       </c>
@@ -2540,11 +2503,11 @@
       </c>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="198" t="s">
+    <row r="5" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B5" s="241" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="207" t="s">
+      <c r="C5" s="250" t="s">
         <v>29</v>
       </c>
       <c r="D5" s="13" t="s">
@@ -2574,9 +2537,9 @@
       </c>
       <c r="M5" s="3"/>
     </row>
-    <row r="6" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="199"/>
-      <c r="C6" s="208"/>
+    <row r="6" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="242"/>
+      <c r="C6" s="251"/>
       <c r="D6" s="12" t="s">
         <v>9</v>
       </c>
@@ -2604,9 +2567,9 @@
       </c>
       <c r="M6" s="3"/>
     </row>
-    <row r="7" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="199"/>
-      <c r="C7" s="208"/>
+    <row r="7" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="242"/>
+      <c r="C7" s="251"/>
       <c r="D7" s="13" t="s">
         <v>2</v>
       </c>
@@ -2634,9 +2597,9 @@
       </c>
       <c r="M7" s="3"/>
     </row>
-    <row r="8" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="199"/>
-      <c r="C8" s="208"/>
+    <row r="8" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="242"/>
+      <c r="C8" s="251"/>
       <c r="D8" s="12" t="s">
         <v>3</v>
       </c>
@@ -2664,9 +2627,9 @@
       </c>
       <c r="M8" s="3"/>
     </row>
-    <row r="9" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="199"/>
-      <c r="C9" s="208"/>
+    <row r="9" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="242"/>
+      <c r="C9" s="251"/>
       <c r="D9" s="12" t="s">
         <v>4</v>
       </c>
@@ -2695,9 +2658,9 @@
       <c r="M9" s="2"/>
       <c r="N9" s="15"/>
     </row>
-    <row r="10" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="199"/>
-      <c r="C10" s="209"/>
+    <row r="10" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B10" s="242"/>
+      <c r="C10" s="252"/>
       <c r="D10" s="14" t="s">
         <v>5</v>
       </c>
@@ -2725,9 +2688,9 @@
       </c>
       <c r="M10" s="3"/>
     </row>
-    <row r="11" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="199"/>
-      <c r="C11" s="210" t="s">
+    <row r="11" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="B11" s="242"/>
+      <c r="C11" s="253" t="s">
         <v>1</v>
       </c>
       <c r="D11" s="13" t="s">
@@ -2758,9 +2721,9 @@
       <c r="M11" s="5"/>
       <c r="N11" s="15"/>
     </row>
-    <row r="12" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="199"/>
-      <c r="C12" s="208"/>
+    <row r="12" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B12" s="242"/>
+      <c r="C12" s="251"/>
       <c r="D12" s="12" t="s">
         <v>9</v>
       </c>
@@ -2789,9 +2752,9 @@
       <c r="M12" s="5"/>
       <c r="N12" s="15"/>
     </row>
-    <row r="13" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="199"/>
-      <c r="C13" s="208"/>
+    <row r="13" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="242"/>
+      <c r="C13" s="251"/>
       <c r="D13" s="13" t="s">
         <v>2</v>
       </c>
@@ -2820,9 +2783,9 @@
       <c r="M13" s="4"/>
       <c r="N13" s="15"/>
     </row>
-    <row r="14" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="199"/>
-      <c r="C14" s="208"/>
+    <row r="14" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B14" s="242"/>
+      <c r="C14" s="251"/>
       <c r="D14" s="12" t="s">
         <v>3</v>
       </c>
@@ -2851,9 +2814,9 @@
       <c r="M14" s="3"/>
       <c r="N14" s="15"/>
     </row>
-    <row r="15" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="199"/>
-      <c r="C15" s="208"/>
+    <row r="15" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B15" s="242"/>
+      <c r="C15" s="251"/>
       <c r="D15" s="12" t="s">
         <v>4</v>
       </c>
@@ -2881,9 +2844,9 @@
       </c>
       <c r="M15" s="3"/>
     </row>
-    <row r="16" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="199"/>
-      <c r="C16" s="209"/>
+    <row r="16" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B16" s="242"/>
+      <c r="C16" s="252"/>
       <c r="D16" s="14" t="s">
         <v>5</v>
       </c>
@@ -2911,7 +2874,7 @@
       </c>
       <c r="M16" s="3"/>
     </row>
-    <row r="17" spans="2:14" ht="6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:14" ht="6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B17" s="51"/>
       <c r="C17" s="30"/>
       <c r="D17" s="23"/>
@@ -2924,11 +2887,11 @@
       <c r="K17" s="23"/>
       <c r="L17" s="24"/>
     </row>
-    <row r="18" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="198" t="s">
+    <row r="18" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="241" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="211" t="s">
+      <c r="C18" s="254" t="s">
         <v>0</v>
       </c>
       <c r="D18" s="50" t="s">
@@ -2943,9 +2906,9 @@
       <c r="K18" s="95"/>
       <c r="L18" s="95"/>
     </row>
-    <row r="19" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="199"/>
-      <c r="C19" s="208"/>
+    <row r="19" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="242"/>
+      <c r="C19" s="251"/>
       <c r="D19" s="49" t="s">
         <v>9</v>
       </c>
@@ -2958,9 +2921,9 @@
       <c r="K19" s="96"/>
       <c r="L19" s="96"/>
     </row>
-    <row r="20" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="199"/>
-      <c r="C20" s="208"/>
+    <row r="20" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="242"/>
+      <c r="C20" s="251"/>
       <c r="D20" s="49" t="s">
         <v>2</v>
       </c>
@@ -2973,9 +2936,9 @@
       <c r="K20" s="96"/>
       <c r="L20" s="97"/>
     </row>
-    <row r="21" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="199"/>
-      <c r="C21" s="208"/>
+    <row r="21" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="242"/>
+      <c r="C21" s="251"/>
       <c r="D21" s="13" t="s">
         <v>3</v>
       </c>
@@ -2988,9 +2951,9 @@
       <c r="K21" s="96"/>
       <c r="L21" s="97"/>
     </row>
-    <row r="22" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="199"/>
-      <c r="C22" s="208"/>
+    <row r="22" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="242"/>
+      <c r="C22" s="251"/>
       <c r="D22" s="12" t="s">
         <v>4</v>
       </c>
@@ -3003,9 +2966,9 @@
       <c r="K22" s="97"/>
       <c r="L22" s="97"/>
     </row>
-    <row r="23" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="199"/>
-      <c r="C23" s="209"/>
+    <row r="23" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B23" s="242"/>
+      <c r="C23" s="252"/>
       <c r="D23" s="14" t="s">
         <v>5</v>
       </c>
@@ -3018,9 +2981,9 @@
       <c r="K23" s="99"/>
       <c r="L23" s="98"/>
     </row>
-    <row r="24" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="199"/>
-      <c r="C24" s="210" t="s">
+    <row r="24" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="242"/>
+      <c r="C24" s="253" t="s">
         <v>1</v>
       </c>
       <c r="D24" s="13" t="s">
@@ -3037,9 +3000,9 @@
       <c r="M24" s="15"/>
       <c r="N24" s="15"/>
     </row>
-    <row r="25" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="199"/>
-      <c r="C25" s="208"/>
+    <row r="25" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="242"/>
+      <c r="C25" s="251"/>
       <c r="D25" s="12" t="s">
         <v>9</v>
       </c>
@@ -3052,9 +3015,9 @@
       <c r="K25" s="96"/>
       <c r="L25" s="96"/>
     </row>
-    <row r="26" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="199"/>
-      <c r="C26" s="208"/>
+    <row r="26" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="242"/>
+      <c r="C26" s="251"/>
       <c r="D26" s="13" t="s">
         <v>2</v>
       </c>
@@ -3068,9 +3031,9 @@
       <c r="L26" s="101"/>
       <c r="M26" s="15"/>
     </row>
-    <row r="27" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="199"/>
-      <c r="C27" s="208"/>
+    <row r="27" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="242"/>
+      <c r="C27" s="251"/>
       <c r="D27" s="12" t="s">
         <v>3</v>
       </c>
@@ -3084,9 +3047,9 @@
       <c r="L27" s="97"/>
       <c r="N27" s="15"/>
     </row>
-    <row r="28" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="199"/>
-      <c r="C28" s="208"/>
+    <row r="28" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="242"/>
+      <c r="C28" s="251"/>
       <c r="D28" s="12" t="s">
         <v>4</v>
       </c>
@@ -3099,9 +3062,9 @@
       <c r="K28" s="102"/>
       <c r="L28" s="97"/>
     </row>
-    <row r="29" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="199"/>
-      <c r="C29" s="209"/>
+    <row r="29" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B29" s="242"/>
+      <c r="C29" s="252"/>
       <c r="D29" s="14" t="s">
         <v>5</v>
       </c>
@@ -3114,7 +3077,7 @@
       <c r="K29" s="104"/>
       <c r="L29" s="103"/>
     </row>
-    <row r="30" spans="2:14" ht="3.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:14" ht="3.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B30" s="18"/>
       <c r="C30" s="19"/>
       <c r="D30" s="20"/>
@@ -3127,11 +3090,11 @@
       <c r="K30" s="20"/>
       <c r="L30" s="21"/>
     </row>
-    <row r="31" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="198" t="s">
+    <row r="31" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="241" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="211" t="s">
+      <c r="C31" s="254" t="s">
         <v>0</v>
       </c>
       <c r="D31" s="25" t="s">
@@ -3146,9 +3109,9 @@
       <c r="K31" s="122"/>
       <c r="L31" s="123"/>
     </row>
-    <row r="32" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="199"/>
-      <c r="C32" s="208"/>
+    <row r="32" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="242"/>
+      <c r="C32" s="251"/>
       <c r="D32" s="7" t="s">
         <v>9</v>
       </c>
@@ -3161,9 +3124,9 @@
       <c r="K32" s="90"/>
       <c r="L32" s="85"/>
     </row>
-    <row r="33" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="199"/>
-      <c r="C33" s="208"/>
+    <row r="33" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="242"/>
+      <c r="C33" s="251"/>
       <c r="D33" s="8" t="s">
         <v>2</v>
       </c>
@@ -3176,9 +3139,9 @@
       <c r="K33" s="87"/>
       <c r="L33" s="124"/>
     </row>
-    <row r="34" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="199"/>
-      <c r="C34" s="208"/>
+    <row r="34" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="242"/>
+      <c r="C34" s="251"/>
       <c r="D34" s="7" t="s">
         <v>3</v>
       </c>
@@ -3191,9 +3154,9 @@
       <c r="K34" s="90"/>
       <c r="L34" s="125"/>
     </row>
-    <row r="35" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="199"/>
-      <c r="C35" s="208"/>
+    <row r="35" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="242"/>
+      <c r="C35" s="251"/>
       <c r="D35" s="7" t="s">
         <v>4</v>
       </c>
@@ -3206,9 +3169,9 @@
       <c r="K35" s="126"/>
       <c r="L35" s="125"/>
     </row>
-    <row r="36" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="199"/>
-      <c r="C36" s="209"/>
+    <row r="36" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B36" s="242"/>
+      <c r="C36" s="252"/>
       <c r="D36" s="9" t="s">
         <v>5</v>
       </c>
@@ -3221,9 +3184,9 @@
       <c r="K36" s="93"/>
       <c r="L36" s="127"/>
     </row>
-    <row r="37" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="199"/>
-      <c r="C37" s="210" t="s">
+    <row r="37" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="242"/>
+      <c r="C37" s="253" t="s">
         <v>1</v>
       </c>
       <c r="D37" s="8" t="s">
@@ -3238,9 +3201,9 @@
       <c r="K37" s="87"/>
       <c r="L37" s="81"/>
     </row>
-    <row r="38" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="199"/>
-      <c r="C38" s="208"/>
+    <row r="38" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="242"/>
+      <c r="C38" s="251"/>
       <c r="D38" s="7" t="s">
         <v>9</v>
       </c>
@@ -3253,9 +3216,9 @@
       <c r="K38" s="90"/>
       <c r="L38" s="85"/>
     </row>
-    <row r="39" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="199"/>
-      <c r="C39" s="208"/>
+    <row r="39" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="242"/>
+      <c r="C39" s="251"/>
       <c r="D39" s="8" t="s">
         <v>2</v>
       </c>
@@ -3269,9 +3232,9 @@
       <c r="L39" s="124"/>
       <c r="N39" s="15"/>
     </row>
-    <row r="40" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="199"/>
-      <c r="C40" s="208"/>
+    <row r="40" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="242"/>
+      <c r="C40" s="251"/>
       <c r="D40" s="7" t="s">
         <v>3</v>
       </c>
@@ -3284,9 +3247,9 @@
       <c r="K40" s="109"/>
       <c r="L40" s="125"/>
     </row>
-    <row r="41" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="199"/>
-      <c r="C41" s="208"/>
+    <row r="41" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="242"/>
+      <c r="C41" s="251"/>
       <c r="D41" s="7" t="s">
         <v>4</v>
       </c>
@@ -3300,9 +3263,9 @@
       <c r="L41" s="125"/>
       <c r="N41" s="15"/>
     </row>
-    <row r="42" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="200"/>
-      <c r="C42" s="212"/>
+    <row r="42" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B42" s="243"/>
+      <c r="C42" s="255"/>
       <c r="D42" s="22" t="s">
         <v>5</v>
       </c>
@@ -3315,100 +3278,100 @@
       <c r="K42" s="119"/>
       <c r="L42" s="129"/>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.35">
       <c r="I43"/>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.35">
       <c r="I44"/>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.35">
       <c r="I45"/>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.35">
       <c r="I46"/>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.35">
       <c r="I47"/>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.35">
       <c r="I48"/>
     </row>
-    <row r="49" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I49"/>
     </row>
-    <row r="50" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I50"/>
     </row>
-    <row r="51" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I51"/>
     </row>
-    <row r="52" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I52"/>
     </row>
-    <row r="53" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I53"/>
     </row>
-    <row r="54" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I54"/>
     </row>
-    <row r="55" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I55"/>
     </row>
-    <row r="56" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I56"/>
     </row>
-    <row r="57" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I57"/>
     </row>
-    <row r="58" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I58"/>
     </row>
-    <row r="59" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I59"/>
     </row>
-    <row r="60" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I60"/>
     </row>
-    <row r="61" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I61"/>
     </row>
-    <row r="62" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I62"/>
     </row>
-    <row r="63" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I63"/>
     </row>
-    <row r="64" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I64"/>
     </row>
-    <row r="65" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I65"/>
     </row>
-    <row r="66" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I66"/>
     </row>
-    <row r="67" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I67"/>
     </row>
-    <row r="68" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I68"/>
     </row>
-    <row r="69" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I69"/>
     </row>
-    <row r="70" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I70"/>
     </row>
-    <row r="71" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I71"/>
     </row>
-    <row r="72" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I72"/>
     </row>
-    <row r="73" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I73"/>
     </row>
-    <row r="74" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I74"/>
     </row>
   </sheetData>
@@ -3438,24 +3401,24 @@
   <dimension ref="B1:V33"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="50" zoomScalePageLayoutView="40" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="10.7265625" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="6.42578125" customWidth="1"/>
-    <col min="6" max="6" width="6.28515625" customWidth="1"/>
-    <col min="7" max="7" width="6.85546875" customWidth="1"/>
-    <col min="8" max="8" width="6.42578125" customWidth="1"/>
-    <col min="9" max="9" width="7.5703125" customWidth="1"/>
-    <col min="10" max="11" width="7.85546875" customWidth="1"/>
+    <col min="5" max="5" width="6.453125" customWidth="1"/>
+    <col min="6" max="6" width="6.26953125" customWidth="1"/>
+    <col min="7" max="7" width="6.81640625" customWidth="1"/>
+    <col min="8" max="8" width="6.453125" customWidth="1"/>
+    <col min="9" max="9" width="7.54296875" customWidth="1"/>
+    <col min="10" max="11" width="7.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:22" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1" s="60"/>
       <c r="C1" s="60"/>
       <c r="D1" s="53"/>
@@ -3465,7 +3428,7 @@
       <c r="H1" s="56"/>
       <c r="I1" s="59"/>
     </row>
-    <row r="2" spans="2:22" s="57" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:22" s="57" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2"/>
       <c r="C2"/>
       <c r="D2"/>
@@ -3474,36 +3437,36 @@
       <c r="G2"/>
       <c r="H2"/>
     </row>
-    <row r="3" spans="2:22" s="57" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:22" s="57" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3"/>
       <c r="C3"/>
       <c r="D3"/>
-      <c r="E3" s="194" t="s">
+      <c r="E3" s="237" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="195"/>
-      <c r="G3" s="195"/>
-      <c r="H3" s="196"/>
-      <c r="I3" s="197" t="s">
+      <c r="F3" s="238"/>
+      <c r="G3" s="238"/>
+      <c r="H3" s="239"/>
+      <c r="I3" s="240" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="195"/>
-      <c r="K3" s="196"/>
-    </row>
-    <row r="4" spans="2:22" s="57" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="204" t="s">
+      <c r="J3" s="238"/>
+      <c r="K3" s="239"/>
+    </row>
+    <row r="4" spans="2:22" s="57" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="247" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="205"/>
-      <c r="D4" s="206"/>
-      <c r="E4" s="201" t="s">
+      <c r="C4" s="248"/>
+      <c r="D4" s="249"/>
+      <c r="E4" s="244" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="202"/>
-      <c r="G4" s="203" t="s">
+      <c r="F4" s="245"/>
+      <c r="G4" s="246" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="202"/>
+      <c r="H4" s="245"/>
       <c r="I4" s="28" t="s">
         <v>21</v>
       </c>
@@ -3514,7 +3477,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="2:22" s="57" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:22" s="57" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B5" s="193" t="s">
         <v>13</v>
       </c>
@@ -3524,161 +3487,161 @@
       <c r="D5" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="220" t="s">
+      <c r="E5" s="194" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="221" t="s">
+      <c r="F5" s="195" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="222" t="s">
+      <c r="G5" s="196" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="222" t="s">
+      <c r="H5" s="196" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="220" t="s">
+      <c r="I5" s="194" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="223" t="s">
+      <c r="J5" s="197" t="s">
         <v>6</v>
       </c>
-      <c r="K5" s="223" t="s">
+      <c r="K5" s="197" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:22" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="219" t="s">
+    <row r="6" spans="2:22" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="263" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="217" t="s">
+      <c r="C6" s="260" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="225" t="s">
+      <c r="D6" s="199" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="226">
+      <c r="E6" s="200">
         <v>0.63800000000000001</v>
       </c>
-      <c r="F6" s="242">
+      <c r="F6" s="65">
         <v>1.18</v>
       </c>
-      <c r="G6" s="254">
+      <c r="G6" s="217">
         <v>0.217</v>
       </c>
-      <c r="H6" s="238">
+      <c r="H6" s="123">
         <v>0.5</v>
       </c>
-      <c r="I6" s="273">
+      <c r="I6" s="233">
         <v>0.16600000000000001</v>
       </c>
-      <c r="J6" s="255">
+      <c r="J6" s="191">
         <v>-0.58899999999999997</v>
       </c>
-      <c r="K6" s="256">
+      <c r="K6" s="218">
         <v>-7.0999999999999994E-2</v>
       </c>
     </row>
-    <row r="7" spans="2:22" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="213"/>
-      <c r="C7" s="218"/>
+    <row r="7" spans="2:22" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="256"/>
+      <c r="C7" s="261"/>
       <c r="D7" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="224">
+      <c r="E7" s="198">
         <v>0.63600000000000001</v>
       </c>
-      <c r="F7" s="239">
+      <c r="F7" s="69">
         <v>1.3</v>
       </c>
-      <c r="G7" s="224">
+      <c r="G7" s="198">
         <v>0.21299999999999999</v>
       </c>
-      <c r="H7" s="239">
+      <c r="H7" s="69">
         <v>0.5</v>
       </c>
-      <c r="I7" s="257">
+      <c r="I7" s="210">
         <v>0.216</v>
       </c>
-      <c r="J7" s="274">
+      <c r="J7" s="234">
         <v>1.4E-2</v>
       </c>
-      <c r="K7" s="258">
+      <c r="K7" s="214">
         <v>-0.12</v>
       </c>
     </row>
-    <row r="8" spans="2:22" s="57" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="213"/>
-      <c r="C8" s="231"/>
-      <c r="D8" s="232" t="s">
+    <row r="8" spans="2:22" s="57" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="256"/>
+      <c r="C8" s="262"/>
+      <c r="D8" s="204" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="233">
+      <c r="E8" s="205">
         <v>0.65200000000000002</v>
       </c>
-      <c r="F8" s="261">
+      <c r="F8" s="221">
         <v>1.1200000000000001</v>
       </c>
-      <c r="G8" s="233">
+      <c r="G8" s="205">
         <v>0.22</v>
       </c>
-      <c r="H8" s="240">
+      <c r="H8" s="77">
         <v>0.5</v>
       </c>
-      <c r="I8" s="247">
+      <c r="I8" s="211">
         <v>0.217</v>
       </c>
-      <c r="J8" s="247">
+      <c r="J8" s="211">
         <v>-0.219</v>
       </c>
-      <c r="K8" s="253">
+      <c r="K8" s="216">
         <v>-0.16</v>
       </c>
-      <c r="L8" s="230" t="s">
+      <c r="L8" s="203" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="2:22" s="57" customFormat="1" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:22" s="57" customFormat="1" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B9" s="161"/>
       <c r="C9" s="162" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="225" t="s">
+      <c r="D9" s="199" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="259">
+      <c r="E9" s="219">
         <v>0.61799999999999999</v>
       </c>
-      <c r="F9" s="262">
+      <c r="F9" s="222">
         <v>1.1200000000000001</v>
       </c>
-      <c r="G9" s="260">
+      <c r="G9" s="220">
         <v>0.21099999999999999</v>
       </c>
-      <c r="H9" s="263">
+      <c r="H9" s="223">
         <v>0.47499999999999998</v>
       </c>
-      <c r="I9" s="248">
+      <c r="I9" s="212">
         <v>0.16700000000000001</v>
       </c>
-      <c r="J9" s="252">
+      <c r="J9" s="212">
         <v>-0.89800000000000002</v>
       </c>
-      <c r="K9" s="275">
+      <c r="K9" s="235">
         <v>-6.6000000000000003E-2</v>
       </c>
-      <c r="L9" s="230"/>
-      <c r="M9" s="234"/>
-      <c r="N9" s="234"/>
-      <c r="O9" s="234"/>
-      <c r="P9" s="234"/>
-      <c r="Q9" s="234"/>
-      <c r="R9" s="234"/>
-      <c r="S9" s="234"/>
-      <c r="T9" s="234"/>
-      <c r="U9" s="234"/>
-      <c r="V9" s="234"/>
-    </row>
-    <row r="10" spans="2:22" s="57" customFormat="1" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L9" s="203"/>
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9"/>
+      <c r="P9"/>
+      <c r="Q9"/>
+      <c r="R9"/>
+      <c r="S9"/>
+      <c r="T9"/>
+      <c r="U9"/>
+      <c r="V9"/>
+    </row>
+    <row r="10" spans="2:22" s="57" customFormat="1" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B10" s="152"/>
       <c r="C10" s="153"/>
       <c r="D10" s="154"/>
@@ -3689,22 +3652,22 @@
       <c r="I10" s="158"/>
       <c r="J10" s="159"/>
       <c r="K10" s="160"/>
-      <c r="M10" s="234"/>
-      <c r="N10" s="234"/>
-      <c r="O10" s="234"/>
-      <c r="P10" s="234"/>
-      <c r="Q10" s="234"/>
-      <c r="R10" s="234"/>
-      <c r="S10" s="234"/>
-      <c r="T10" s="234"/>
-      <c r="U10" s="234"/>
-      <c r="V10" s="234"/>
-    </row>
-    <row r="11" spans="2:22" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="213" t="s">
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10"/>
+      <c r="P10"/>
+      <c r="Q10"/>
+      <c r="R10"/>
+      <c r="S10"/>
+      <c r="T10"/>
+      <c r="U10"/>
+      <c r="V10"/>
+    </row>
+    <row r="11" spans="2:22" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="256" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="215" t="s">
+      <c r="C11" s="258" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="13" t="s">
@@ -3718,20 +3681,20 @@
       <c r="J11" s="150"/>
       <c r="K11" s="151"/>
       <c r="L11" s="61"/>
-      <c r="M11" s="234"/>
-      <c r="N11" s="235"/>
-      <c r="O11" s="235"/>
-      <c r="P11" s="236"/>
-      <c r="Q11" s="237"/>
-      <c r="R11" s="237"/>
-      <c r="S11" s="236"/>
-      <c r="T11" s="236"/>
-      <c r="U11" s="237"/>
-      <c r="V11" s="234"/>
-    </row>
-    <row r="12" spans="2:22" s="57" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="214"/>
-      <c r="C12" s="216"/>
+      <c r="M11"/>
+      <c r="N11" s="180"/>
+      <c r="O11" s="180"/>
+      <c r="P11" s="112"/>
+      <c r="Q11" s="61"/>
+      <c r="R11" s="61"/>
+      <c r="S11" s="112"/>
+      <c r="T11" s="112"/>
+      <c r="U11" s="61"/>
+      <c r="V11"/>
+    </row>
+    <row r="12" spans="2:22" s="57" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="257"/>
+      <c r="C12" s="259"/>
       <c r="D12" s="52" t="s">
         <v>26</v>
       </c>
@@ -3743,18 +3706,18 @@
       <c r="J12" s="144"/>
       <c r="K12" s="145"/>
       <c r="L12" s="61"/>
-      <c r="M12" s="234"/>
-      <c r="N12" s="234"/>
-      <c r="O12" s="234"/>
-      <c r="P12" s="234"/>
-      <c r="Q12" s="234"/>
-      <c r="R12" s="234"/>
-      <c r="S12" s="234"/>
-      <c r="T12" s="234"/>
-      <c r="U12" s="234"/>
-      <c r="V12" s="234"/>
-    </row>
-    <row r="13" spans="2:22" s="57" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M12"/>
+      <c r="N12"/>
+      <c r="O12"/>
+      <c r="P12"/>
+      <c r="Q12"/>
+      <c r="R12"/>
+      <c r="S12"/>
+      <c r="T12"/>
+      <c r="U12"/>
+      <c r="V12"/>
+    </row>
+    <row r="13" spans="2:22" s="57" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="152"/>
       <c r="C13" s="153"/>
       <c r="D13" s="154"/>
@@ -3768,11 +3731,11 @@
       <c r="L13" s="61"/>
       <c r="M13"/>
     </row>
-    <row r="14" spans="2:22" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="213" t="s">
+    <row r="14" spans="2:22" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="256" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="215" t="s">
+      <c r="C14" s="258" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="13" t="s">
@@ -3788,9 +3751,9 @@
       <c r="L14"/>
       <c r="M14"/>
     </row>
-    <row r="15" spans="2:22" s="57" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="214"/>
-      <c r="C15" s="216"/>
+    <row r="15" spans="2:22" s="57" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="257"/>
+      <c r="C15" s="259"/>
       <c r="D15" s="52" t="s">
         <v>26</v>
       </c>
@@ -3804,7 +3767,7 @@
       <c r="L15"/>
       <c r="M15"/>
     </row>
-    <row r="16" spans="2:22" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:22" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="60"/>
       <c r="C16" s="60"/>
       <c r="D16" s="53"/>
@@ -3813,7 +3776,7 @@
       <c r="G16" s="58"/>
       <c r="H16" s="58"/>
     </row>
-    <row r="17" spans="2:14" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="60"/>
       <c r="C17" s="60"/>
       <c r="D17" s="53"/>
@@ -3822,7 +3785,7 @@
       <c r="G17" s="58"/>
       <c r="H17" s="56"/>
     </row>
-    <row r="18" spans="2:14" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="60"/>
       <c r="C18" s="60"/>
       <c r="D18" s="53"/>
@@ -3831,7 +3794,7 @@
       <c r="G18" s="56"/>
       <c r="H18" s="56"/>
     </row>
-    <row r="19" spans="2:14" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="60"/>
       <c r="C19" s="60"/>
       <c r="D19" s="53"/>
@@ -3840,7 +3803,7 @@
       <c r="G19" s="56"/>
       <c r="H19" s="56"/>
     </row>
-    <row r="20" spans="2:14" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="60"/>
       <c r="C20" s="60"/>
       <c r="D20" s="53"/>
@@ -3850,7 +3813,7 @@
       <c r="H20" s="56"/>
       <c r="I20" s="59"/>
     </row>
-    <row r="21" spans="2:14" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="60"/>
       <c r="C21" s="60"/>
       <c r="D21" s="53"/>
@@ -3865,7 +3828,7 @@
       <c r="M21"/>
       <c r="N21"/>
     </row>
-    <row r="22" spans="2:14" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="60"/>
       <c r="C22" s="60"/>
       <c r="D22" s="53"/>
@@ -3880,7 +3843,7 @@
       <c r="M22"/>
       <c r="N22"/>
     </row>
-    <row r="23" spans="2:14" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="60"/>
       <c r="C23" s="60"/>
       <c r="D23" s="53"/>
@@ -3895,7 +3858,7 @@
       <c r="M23" s="112"/>
       <c r="N23"/>
     </row>
-    <row r="24" spans="2:14" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="60"/>
       <c r="C24" s="60"/>
       <c r="D24" s="53"/>
@@ -3910,7 +3873,7 @@
       <c r="M24"/>
       <c r="N24"/>
     </row>
-    <row r="25" spans="2:14" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="60"/>
       <c r="C25" s="60"/>
       <c r="D25" s="53"/>
@@ -3925,7 +3888,7 @@
       <c r="M25"/>
       <c r="N25"/>
     </row>
-    <row r="26" spans="2:14" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="60"/>
       <c r="C26" s="60"/>
       <c r="D26" s="53"/>
@@ -3934,7 +3897,7 @@
       <c r="G26" s="58"/>
       <c r="H26" s="56"/>
     </row>
-    <row r="27" spans="2:14" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="60"/>
       <c r="C27" s="60"/>
       <c r="D27" s="53"/>
@@ -3943,7 +3906,7 @@
       <c r="G27" s="58"/>
       <c r="H27" s="56"/>
     </row>
-    <row r="28" spans="2:14" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="60"/>
       <c r="C28" s="60"/>
       <c r="D28" s="53"/>
@@ -3952,7 +3915,7 @@
       <c r="G28" s="58"/>
       <c r="H28" s="58"/>
     </row>
-    <row r="29" spans="2:14" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="60"/>
       <c r="C29" s="60"/>
       <c r="D29" s="53"/>
@@ -3961,10 +3924,10 @@
       <c r="G29" s="58"/>
       <c r="H29" s="56"/>
     </row>
-    <row r="30" spans="2:14" s="57" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="2:14" s="57" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="2:14" s="57" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="33" s="57" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="2:14" s="57" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="31" spans="2:14" s="57" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="32" spans="2:14" s="57" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="33" s="57" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="B11:B12"/>
@@ -3992,54 +3955,54 @@
       <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" customWidth="1"/>
+    <col min="1" max="1" width="17.54296875" customWidth="1"/>
+    <col min="2" max="2" width="11.26953125" customWidth="1"/>
+    <col min="3" max="3" width="13.7265625" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" customWidth="1"/>
+    <col min="5" max="5" width="8.7265625" customWidth="1"/>
+    <col min="6" max="6" width="9.1796875" customWidth="1"/>
+    <col min="7" max="7" width="8.81640625" customWidth="1"/>
     <col min="8" max="8" width="9" customWidth="1"/>
-    <col min="9" max="9" width="0.42578125" style="32" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" customWidth="1"/>
+    <col min="9" max="9" width="0.453125" style="32" customWidth="1"/>
+    <col min="10" max="10" width="10.26953125" customWidth="1"/>
+    <col min="11" max="11" width="10.1796875" customWidth="1"/>
     <col min="12" max="12" width="10" customWidth="1"/>
-    <col min="13" max="13" width="12.5703125" customWidth="1"/>
+    <col min="13" max="13" width="12.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="I1"/>
     </row>
-    <row r="2" spans="2:14" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E2" s="194" t="s">
+    <row r="2" spans="2:14" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E2" s="237" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="195"/>
-      <c r="G2" s="195"/>
-      <c r="H2" s="196"/>
+      <c r="F2" s="238"/>
+      <c r="G2" s="238"/>
+      <c r="H2" s="239"/>
       <c r="I2" s="33"/>
-      <c r="J2" s="197" t="s">
+      <c r="J2" s="240" t="s">
         <v>28</v>
       </c>
-      <c r="K2" s="195"/>
-      <c r="L2" s="196"/>
-    </row>
-    <row r="3" spans="2:14" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="204" t="s">
+      <c r="K2" s="238"/>
+      <c r="L2" s="239"/>
+    </row>
+    <row r="3" spans="2:14" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="247" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="205"/>
-      <c r="D3" s="206"/>
-      <c r="E3" s="201" t="s">
+      <c r="C3" s="248"/>
+      <c r="D3" s="249"/>
+      <c r="E3" s="244" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="202"/>
-      <c r="G3" s="203" t="s">
+      <c r="F3" s="245"/>
+      <c r="G3" s="246" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="202"/>
+      <c r="H3" s="245"/>
       <c r="I3" s="34"/>
       <c r="J3" s="28" t="s">
         <v>21</v>
@@ -4052,7 +4015,7 @@
       </c>
       <c r="M3" s="16"/>
     </row>
-    <row r="4" spans="2:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B4" s="27" t="s">
         <v>13</v>
       </c>
@@ -4086,11 +4049,11 @@
       </c>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="198" t="s">
+    <row r="5" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B5" s="241" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="207" t="s">
+      <c r="C5" s="250" t="s">
         <v>29</v>
       </c>
       <c r="D5" s="13" t="s">
@@ -4120,9 +4083,9 @@
       </c>
       <c r="M5" s="3"/>
     </row>
-    <row r="6" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="199"/>
-      <c r="C6" s="208"/>
+    <row r="6" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="242"/>
+      <c r="C6" s="251"/>
       <c r="D6" s="12" t="s">
         <v>9</v>
       </c>
@@ -4151,9 +4114,9 @@
       <c r="M6" s="3"/>
       <c r="N6" s="15"/>
     </row>
-    <row r="7" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="199"/>
-      <c r="C7" s="208"/>
+    <row r="7" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="242"/>
+      <c r="C7" s="251"/>
       <c r="D7" s="13" t="s">
         <v>2</v>
       </c>
@@ -4182,9 +4145,9 @@
       <c r="M7" s="3"/>
       <c r="N7" s="15"/>
     </row>
-    <row r="8" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="199"/>
-      <c r="C8" s="208"/>
+    <row r="8" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="242"/>
+      <c r="C8" s="251"/>
       <c r="D8" s="12" t="s">
         <v>3</v>
       </c>
@@ -4212,9 +4175,9 @@
       </c>
       <c r="M8" s="3"/>
     </row>
-    <row r="9" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="199"/>
-      <c r="C9" s="208"/>
+    <row r="9" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="242"/>
+      <c r="C9" s="251"/>
       <c r="D9" s="12" t="s">
         <v>4</v>
       </c>
@@ -4242,9 +4205,9 @@
       </c>
       <c r="M9" s="2"/>
     </row>
-    <row r="10" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="199"/>
-      <c r="C10" s="209"/>
+    <row r="10" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B10" s="242"/>
+      <c r="C10" s="252"/>
       <c r="D10" s="14" t="s">
         <v>5</v>
       </c>
@@ -4272,9 +4235,9 @@
       </c>
       <c r="M10" s="3"/>
     </row>
-    <row r="11" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="199"/>
-      <c r="C11" s="210" t="s">
+    <row r="11" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="B11" s="242"/>
+      <c r="C11" s="253" t="s">
         <v>1</v>
       </c>
       <c r="D11" s="13" t="s">
@@ -4305,9 +4268,9 @@
       <c r="M11" s="5"/>
       <c r="N11" s="15"/>
     </row>
-    <row r="12" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="199"/>
-      <c r="C12" s="208"/>
+    <row r="12" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B12" s="242"/>
+      <c r="C12" s="251"/>
       <c r="D12" s="12" t="s">
         <v>9</v>
       </c>
@@ -4336,9 +4299,9 @@
       <c r="M12" s="184"/>
       <c r="N12" s="15"/>
     </row>
-    <row r="13" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="199"/>
-      <c r="C13" s="208"/>
+    <row r="13" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="242"/>
+      <c r="C13" s="251"/>
       <c r="D13" s="13" t="s">
         <v>2</v>
       </c>
@@ -4367,9 +4330,9 @@
       <c r="M13" s="4"/>
       <c r="N13" s="15"/>
     </row>
-    <row r="14" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="199"/>
-      <c r="C14" s="208"/>
+    <row r="14" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B14" s="242"/>
+      <c r="C14" s="251"/>
       <c r="D14" s="12" t="s">
         <v>3</v>
       </c>
@@ -4398,9 +4361,9 @@
       <c r="M14" s="3"/>
       <c r="N14" s="15"/>
     </row>
-    <row r="15" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="199"/>
-      <c r="C15" s="208"/>
+    <row r="15" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B15" s="242"/>
+      <c r="C15" s="251"/>
       <c r="D15" s="12" t="s">
         <v>4</v>
       </c>
@@ -4428,9 +4391,9 @@
       </c>
       <c r="M15" s="3"/>
     </row>
-    <row r="16" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="199"/>
-      <c r="C16" s="209"/>
+    <row r="16" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B16" s="242"/>
+      <c r="C16" s="252"/>
       <c r="D16" s="14" t="s">
         <v>5</v>
       </c>
@@ -4458,7 +4421,7 @@
       </c>
       <c r="M16" s="3"/>
     </row>
-    <row r="17" spans="2:14" ht="6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:14" ht="6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B17" s="51"/>
       <c r="C17" s="30"/>
       <c r="D17" s="23"/>
@@ -4471,11 +4434,11 @@
       <c r="K17" s="23"/>
       <c r="L17" s="24"/>
     </row>
-    <row r="18" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="198" t="s">
+    <row r="18" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="241" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="211" t="s">
+      <c r="C18" s="254" t="s">
         <v>0</v>
       </c>
       <c r="D18" s="50" t="s">
@@ -4490,9 +4453,9 @@
       <c r="K18" s="95"/>
       <c r="L18" s="95"/>
     </row>
-    <row r="19" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="199"/>
-      <c r="C19" s="208"/>
+    <row r="19" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="242"/>
+      <c r="C19" s="251"/>
       <c r="D19" s="49" t="s">
         <v>9</v>
       </c>
@@ -4505,9 +4468,9 @@
       <c r="K19" s="96"/>
       <c r="L19" s="96"/>
     </row>
-    <row r="20" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="199"/>
-      <c r="C20" s="208"/>
+    <row r="20" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="242"/>
+      <c r="C20" s="251"/>
       <c r="D20" s="49" t="s">
         <v>2</v>
       </c>
@@ -4520,9 +4483,9 @@
       <c r="K20" s="96"/>
       <c r="L20" s="97"/>
     </row>
-    <row r="21" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="199"/>
-      <c r="C21" s="208"/>
+    <row r="21" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="242"/>
+      <c r="C21" s="251"/>
       <c r="D21" s="13" t="s">
         <v>3</v>
       </c>
@@ -4535,9 +4498,9 @@
       <c r="K21" s="96"/>
       <c r="L21" s="97"/>
     </row>
-    <row r="22" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="199"/>
-      <c r="C22" s="208"/>
+    <row r="22" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="242"/>
+      <c r="C22" s="251"/>
       <c r="D22" s="12" t="s">
         <v>4</v>
       </c>
@@ -4550,9 +4513,9 @@
       <c r="K22" s="97"/>
       <c r="L22" s="97"/>
     </row>
-    <row r="23" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="199"/>
-      <c r="C23" s="209"/>
+    <row r="23" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B23" s="242"/>
+      <c r="C23" s="252"/>
       <c r="D23" s="14" t="s">
         <v>5</v>
       </c>
@@ -4565,9 +4528,9 @@
       <c r="K23" s="99"/>
       <c r="L23" s="98"/>
     </row>
-    <row r="24" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="199"/>
-      <c r="C24" s="210" t="s">
+    <row r="24" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="242"/>
+      <c r="C24" s="253" t="s">
         <v>1</v>
       </c>
       <c r="D24" s="13" t="s">
@@ -4584,9 +4547,9 @@
       <c r="M24" s="15"/>
       <c r="N24" s="15"/>
     </row>
-    <row r="25" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="199"/>
-      <c r="C25" s="208"/>
+    <row r="25" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="242"/>
+      <c r="C25" s="251"/>
       <c r="D25" s="12" t="s">
         <v>9</v>
       </c>
@@ -4599,9 +4562,9 @@
       <c r="K25" s="96"/>
       <c r="L25" s="96"/>
     </row>
-    <row r="26" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="199"/>
-      <c r="C26" s="208"/>
+    <row r="26" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="242"/>
+      <c r="C26" s="251"/>
       <c r="D26" s="13" t="s">
         <v>2</v>
       </c>
@@ -4615,9 +4578,9 @@
       <c r="L26" s="101"/>
       <c r="M26" s="15"/>
     </row>
-    <row r="27" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="199"/>
-      <c r="C27" s="208"/>
+    <row r="27" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="242"/>
+      <c r="C27" s="251"/>
       <c r="D27" s="12" t="s">
         <v>3</v>
       </c>
@@ -4631,9 +4594,9 @@
       <c r="L27" s="97"/>
       <c r="N27" s="15"/>
     </row>
-    <row r="28" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="199"/>
-      <c r="C28" s="208"/>
+    <row r="28" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="242"/>
+      <c r="C28" s="251"/>
       <c r="D28" s="12" t="s">
         <v>4</v>
       </c>
@@ -4646,9 +4609,9 @@
       <c r="K28" s="102"/>
       <c r="L28" s="97"/>
     </row>
-    <row r="29" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="199"/>
-      <c r="C29" s="209"/>
+    <row r="29" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B29" s="242"/>
+      <c r="C29" s="252"/>
       <c r="D29" s="14" t="s">
         <v>5</v>
       </c>
@@ -4661,7 +4624,7 @@
       <c r="K29" s="104"/>
       <c r="L29" s="103"/>
     </row>
-    <row r="30" spans="2:14" ht="3.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:14" ht="3.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B30" s="18"/>
       <c r="C30" s="19"/>
       <c r="D30" s="20"/>
@@ -4674,11 +4637,11 @@
       <c r="K30" s="20"/>
       <c r="L30" s="21"/>
     </row>
-    <row r="31" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="198" t="s">
+    <row r="31" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="241" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="211" t="s">
+      <c r="C31" s="254" t="s">
         <v>0</v>
       </c>
       <c r="D31" s="25" t="s">
@@ -4693,9 +4656,9 @@
       <c r="K31" s="122"/>
       <c r="L31" s="123"/>
     </row>
-    <row r="32" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="199"/>
-      <c r="C32" s="208"/>
+    <row r="32" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="242"/>
+      <c r="C32" s="251"/>
       <c r="D32" s="7" t="s">
         <v>9</v>
       </c>
@@ -4708,9 +4671,9 @@
       <c r="K32" s="90"/>
       <c r="L32" s="85"/>
     </row>
-    <row r="33" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="199"/>
-      <c r="C33" s="208"/>
+    <row r="33" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="242"/>
+      <c r="C33" s="251"/>
       <c r="D33" s="8" t="s">
         <v>2</v>
       </c>
@@ -4723,9 +4686,9 @@
       <c r="K33" s="87"/>
       <c r="L33" s="124"/>
     </row>
-    <row r="34" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="199"/>
-      <c r="C34" s="208"/>
+    <row r="34" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="242"/>
+      <c r="C34" s="251"/>
       <c r="D34" s="7" t="s">
         <v>3</v>
       </c>
@@ -4738,9 +4701,9 @@
       <c r="K34" s="90"/>
       <c r="L34" s="125"/>
     </row>
-    <row r="35" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="199"/>
-      <c r="C35" s="208"/>
+    <row r="35" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="242"/>
+      <c r="C35" s="251"/>
       <c r="D35" s="7" t="s">
         <v>4</v>
       </c>
@@ -4753,9 +4716,9 @@
       <c r="K35" s="126"/>
       <c r="L35" s="125"/>
     </row>
-    <row r="36" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="199"/>
-      <c r="C36" s="209"/>
+    <row r="36" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B36" s="242"/>
+      <c r="C36" s="252"/>
       <c r="D36" s="9" t="s">
         <v>5</v>
       </c>
@@ -4768,9 +4731,9 @@
       <c r="K36" s="93"/>
       <c r="L36" s="127"/>
     </row>
-    <row r="37" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="199"/>
-      <c r="C37" s="210" t="s">
+    <row r="37" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="242"/>
+      <c r="C37" s="253" t="s">
         <v>1</v>
       </c>
       <c r="D37" s="8" t="s">
@@ -4785,9 +4748,9 @@
       <c r="K37" s="87"/>
       <c r="L37" s="81"/>
     </row>
-    <row r="38" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="199"/>
-      <c r="C38" s="208"/>
+    <row r="38" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="242"/>
+      <c r="C38" s="251"/>
       <c r="D38" s="7" t="s">
         <v>9</v>
       </c>
@@ -4800,9 +4763,9 @@
       <c r="K38" s="90"/>
       <c r="L38" s="85"/>
     </row>
-    <row r="39" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="199"/>
-      <c r="C39" s="208"/>
+    <row r="39" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="242"/>
+      <c r="C39" s="251"/>
       <c r="D39" s="8" t="s">
         <v>2</v>
       </c>
@@ -4816,9 +4779,9 @@
       <c r="L39" s="124"/>
       <c r="N39" s="15"/>
     </row>
-    <row r="40" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="199"/>
-      <c r="C40" s="208"/>
+    <row r="40" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="242"/>
+      <c r="C40" s="251"/>
       <c r="D40" s="7" t="s">
         <v>3</v>
       </c>
@@ -4831,9 +4794,9 @@
       <c r="K40" s="109"/>
       <c r="L40" s="125"/>
     </row>
-    <row r="41" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="199"/>
-      <c r="C41" s="208"/>
+    <row r="41" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="242"/>
+      <c r="C41" s="251"/>
       <c r="D41" s="7" t="s">
         <v>4</v>
       </c>
@@ -4847,9 +4810,9 @@
       <c r="L41" s="125"/>
       <c r="N41" s="15"/>
     </row>
-    <row r="42" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="200"/>
-      <c r="C42" s="212"/>
+    <row r="42" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B42" s="243"/>
+      <c r="C42" s="255"/>
       <c r="D42" s="22" t="s">
         <v>5</v>
       </c>
@@ -4862,110 +4825,104 @@
       <c r="K42" s="119"/>
       <c r="L42" s="129"/>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.35">
       <c r="I43"/>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.35">
       <c r="I44"/>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.35">
       <c r="I45"/>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.35">
       <c r="I46"/>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.35">
       <c r="I47"/>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.35">
       <c r="I48"/>
     </row>
-    <row r="49" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I49"/>
     </row>
-    <row r="50" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I50"/>
     </row>
-    <row r="51" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I51"/>
     </row>
-    <row r="52" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I52"/>
     </row>
-    <row r="53" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I53"/>
     </row>
-    <row r="54" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I54"/>
     </row>
-    <row r="55" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I55"/>
     </row>
-    <row r="56" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I56"/>
     </row>
-    <row r="57" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I57"/>
     </row>
-    <row r="58" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I58"/>
     </row>
-    <row r="59" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I59"/>
     </row>
-    <row r="60" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I60"/>
     </row>
-    <row r="61" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I61"/>
     </row>
-    <row r="62" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I62"/>
     </row>
-    <row r="63" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I63"/>
     </row>
-    <row r="64" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I64"/>
     </row>
-    <row r="65" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I65"/>
     </row>
-    <row r="66" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I66"/>
     </row>
-    <row r="67" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I67"/>
     </row>
-    <row r="68" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I68"/>
     </row>
-    <row r="69" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I69"/>
     </row>
-    <row r="70" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I70"/>
     </row>
-    <row r="71" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I71"/>
     </row>
-    <row r="72" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I72"/>
     </row>
-    <row r="73" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I73"/>
     </row>
-    <row r="74" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I74"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B18:B29"/>
-    <mergeCell ref="C18:C23"/>
-    <mergeCell ref="C24:C29"/>
-    <mergeCell ref="B31:B42"/>
-    <mergeCell ref="C31:C36"/>
-    <mergeCell ref="C37:C42"/>
     <mergeCell ref="B5:B16"/>
     <mergeCell ref="C5:C10"/>
     <mergeCell ref="C11:C16"/>
@@ -4974,6 +4931,12 @@
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="G3:H3"/>
+    <mergeCell ref="B18:B29"/>
+    <mergeCell ref="C18:C23"/>
+    <mergeCell ref="C24:C29"/>
+    <mergeCell ref="B31:B42"/>
+    <mergeCell ref="C31:C36"/>
+    <mergeCell ref="C37:C42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4984,23 +4947,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19302950-C106-4780-AFCB-B595BCCB0D58}">
   <dimension ref="B1:T33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="50" zoomScalePageLayoutView="40" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView showGridLines="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="50" zoomScalePageLayoutView="40" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.42578125" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" customWidth="1"/>
-    <col min="5" max="8" width="7.140625" customWidth="1"/>
-    <col min="9" max="9" width="6.85546875" customWidth="1"/>
-    <col min="10" max="10" width="7.42578125" customWidth="1"/>
-    <col min="11" max="11" width="7.5703125" customWidth="1"/>
+    <col min="1" max="1" width="8.453125" customWidth="1"/>
+    <col min="2" max="2" width="9.26953125" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" customWidth="1"/>
+    <col min="4" max="4" width="17.54296875" customWidth="1"/>
+    <col min="5" max="8" width="7.1796875" customWidth="1"/>
+    <col min="9" max="9" width="6.81640625" customWidth="1"/>
+    <col min="10" max="10" width="7.453125" customWidth="1"/>
+    <col min="11" max="11" width="7.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:20" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1" s="60"/>
       <c r="C1" s="60"/>
       <c r="D1" s="53"/>
@@ -5010,7 +4973,7 @@
       <c r="H1" s="56"/>
       <c r="I1" s="59"/>
     </row>
-    <row r="2" spans="2:20" s="57" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:20" s="57" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2"/>
       <c r="C2"/>
       <c r="D2"/>
@@ -5019,36 +4982,36 @@
       <c r="G2"/>
       <c r="H2"/>
     </row>
-    <row r="3" spans="2:20" s="57" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:20" s="57" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3"/>
       <c r="C3"/>
       <c r="D3"/>
-      <c r="E3" s="194" t="s">
+      <c r="E3" s="237" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="195"/>
-      <c r="G3" s="195"/>
-      <c r="H3" s="196"/>
-      <c r="I3" s="197" t="s">
+      <c r="F3" s="238"/>
+      <c r="G3" s="238"/>
+      <c r="H3" s="239"/>
+      <c r="I3" s="240" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="195"/>
-      <c r="K3" s="196"/>
-    </row>
-    <row r="4" spans="2:20" s="57" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="204" t="s">
+      <c r="J3" s="238"/>
+      <c r="K3" s="239"/>
+    </row>
+    <row r="4" spans="2:20" s="57" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="247" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="205"/>
-      <c r="D4" s="206"/>
-      <c r="E4" s="201" t="s">
+      <c r="C4" s="248"/>
+      <c r="D4" s="249"/>
+      <c r="E4" s="244" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="202"/>
-      <c r="G4" s="203" t="s">
+      <c r="F4" s="245"/>
+      <c r="G4" s="246" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="202"/>
+      <c r="H4" s="245"/>
       <c r="I4" s="28" t="s">
         <v>21</v>
       </c>
@@ -5059,130 +5022,130 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="2:20" s="57" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:20" s="57" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B5" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="228" t="s">
+      <c r="C5" s="202" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="227" t="s">
+      <c r="D5" s="201" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="220" t="s">
+      <c r="E5" s="194" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="221" t="s">
+      <c r="F5" s="195" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="222" t="s">
+      <c r="G5" s="196" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="223" t="s">
+      <c r="H5" s="197" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="220" t="s">
+      <c r="I5" s="194" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="223" t="s">
+      <c r="J5" s="197" t="s">
         <v>6</v>
       </c>
-      <c r="K5" s="223" t="s">
+      <c r="K5" s="197" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:20" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="219" t="s">
+    <row r="6" spans="2:20" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="263" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="217" t="s">
+      <c r="C6" s="260" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="226">
+      <c r="E6" s="200">
         <v>0.63100000000000001</v>
       </c>
-      <c r="F6" s="268">
+      <c r="F6" s="228">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G6" s="241">
+      <c r="G6" s="206">
         <v>0.216</v>
       </c>
-      <c r="H6" s="270">
+      <c r="H6" s="230">
         <v>0.45</v>
       </c>
-      <c r="I6" s="245">
+      <c r="I6" s="209">
         <v>0.17799999999999999</v>
       </c>
       <c r="J6" s="191">
         <v>-0.39500000000000002</v>
       </c>
-      <c r="K6" s="249">
+      <c r="K6" s="213">
         <v>-5.1700000000000003E-2</v>
       </c>
     </row>
-    <row r="7" spans="2:20" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="213"/>
-      <c r="C7" s="218"/>
+    <row r="7" spans="2:20" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="256"/>
+      <c r="C7" s="261"/>
       <c r="D7" s="49" t="s">
         <v>27</v>
       </c>
       <c r="E7" s="117">
         <v>0.63500000000000001</v>
       </c>
-      <c r="F7" s="269">
+      <c r="F7" s="229">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G7" s="229">
+      <c r="G7" s="132">
         <v>0.21099999999999999</v>
       </c>
-      <c r="H7" s="269">
+      <c r="H7" s="229">
         <v>0.45</v>
       </c>
-      <c r="I7" s="246">
+      <c r="I7" s="210">
         <v>0.19900000000000001</v>
       </c>
-      <c r="J7" s="272">
+      <c r="J7" s="232">
         <v>-6.9099999999999995E-2</v>
       </c>
-      <c r="K7" s="250">
+      <c r="K7" s="214">
         <v>-0.115</v>
       </c>
     </row>
-    <row r="8" spans="2:20" s="57" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="213"/>
-      <c r="C8" s="231"/>
-      <c r="D8" s="264" t="s">
+    <row r="8" spans="2:20" s="57" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="256"/>
+      <c r="C8" s="262"/>
+      <c r="D8" s="224" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="265">
+      <c r="E8" s="225">
         <v>0.60799999999999998</v>
       </c>
-      <c r="F8" s="240">
+      <c r="F8" s="77">
         <v>1.23</v>
       </c>
-      <c r="G8" s="266">
+      <c r="G8" s="226">
         <v>0.20499999999999999</v>
       </c>
-      <c r="H8" s="240">
+      <c r="H8" s="77">
         <v>0.5</v>
       </c>
-      <c r="I8" s="247">
+      <c r="I8" s="211">
         <v>0.185</v>
       </c>
-      <c r="J8" s="267">
+      <c r="J8" s="227">
         <v>0.14499999999999999</v>
       </c>
-      <c r="K8" s="251">
+      <c r="K8" s="215">
         <v>-0.14099999999999999</v>
       </c>
-      <c r="L8" s="230" t="s">
+      <c r="L8" s="203" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="2:20" s="57" customFormat="1" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:20" s="57" customFormat="1" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B9" s="161"/>
       <c r="C9" s="162" t="s">
         <v>1</v>
@@ -5190,37 +5153,37 @@
       <c r="D9" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="243">
+      <c r="E9" s="207">
         <v>0.61199999999999999</v>
       </c>
-      <c r="F9" s="244">
+      <c r="F9" s="208">
         <v>1.1499999999999999</v>
       </c>
-      <c r="G9" s="276">
+      <c r="G9" s="236">
         <v>0.20699999999999999</v>
       </c>
       <c r="H9" s="119">
         <v>0.52500000000000002</v>
       </c>
-      <c r="I9" s="271">
+      <c r="I9" s="231">
         <v>0.17499999999999999</v>
       </c>
       <c r="J9" s="128">
         <v>-0.69799999999999995</v>
       </c>
-      <c r="K9" s="263">
+      <c r="K9" s="223">
         <v>-4.7899999999999998E-2</v>
       </c>
-      <c r="M9" s="234"/>
-      <c r="N9" s="234"/>
-      <c r="O9" s="234"/>
-      <c r="P9" s="234"/>
-      <c r="Q9" s="234"/>
-      <c r="R9" s="234"/>
-      <c r="S9" s="234"/>
-      <c r="T9" s="234"/>
-    </row>
-    <row r="10" spans="2:20" s="57" customFormat="1" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9"/>
+      <c r="P9"/>
+      <c r="Q9"/>
+      <c r="R9"/>
+      <c r="S9"/>
+      <c r="T9"/>
+    </row>
+    <row r="10" spans="2:20" s="57" customFormat="1" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B10" s="152"/>
       <c r="C10" s="153"/>
       <c r="D10" s="154"/>
@@ -5231,20 +5194,20 @@
       <c r="I10" s="158"/>
       <c r="J10" s="159"/>
       <c r="K10" s="160"/>
-      <c r="M10" s="234"/>
-      <c r="N10" s="234"/>
-      <c r="O10" s="234"/>
-      <c r="P10" s="234"/>
-      <c r="Q10" s="234"/>
-      <c r="R10" s="234"/>
-      <c r="S10" s="234"/>
-      <c r="T10" s="234"/>
-    </row>
-    <row r="11" spans="2:20" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="213" t="s">
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10"/>
+      <c r="P10"/>
+      <c r="Q10"/>
+      <c r="R10"/>
+      <c r="S10"/>
+      <c r="T10"/>
+    </row>
+    <row r="11" spans="2:20" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="256" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="215" t="s">
+      <c r="C11" s="258" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="13" t="s">
@@ -5258,18 +5221,18 @@
       <c r="J11" s="150"/>
       <c r="K11" s="151"/>
       <c r="L11" s="61"/>
-      <c r="M11" s="234"/>
-      <c r="N11" s="234"/>
-      <c r="O11" s="234"/>
-      <c r="P11" s="234"/>
-      <c r="Q11" s="234"/>
-      <c r="R11" s="234"/>
-      <c r="S11" s="234"/>
-      <c r="T11" s="234"/>
-    </row>
-    <row r="12" spans="2:20" s="57" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="214"/>
-      <c r="C12" s="216"/>
+      <c r="M11"/>
+      <c r="N11"/>
+      <c r="O11"/>
+      <c r="P11"/>
+      <c r="Q11"/>
+      <c r="R11"/>
+      <c r="S11"/>
+      <c r="T11"/>
+    </row>
+    <row r="12" spans="2:20" s="57" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="257"/>
+      <c r="C12" s="259"/>
       <c r="D12" s="52" t="s">
         <v>27</v>
       </c>
@@ -5281,16 +5244,16 @@
       <c r="J12" s="144"/>
       <c r="K12" s="145"/>
       <c r="L12" s="61"/>
-      <c r="M12" s="235"/>
-      <c r="N12" s="235"/>
-      <c r="O12" s="236"/>
-      <c r="P12" s="237"/>
-      <c r="Q12" s="236"/>
-      <c r="R12" s="236"/>
-      <c r="S12" s="237"/>
-      <c r="T12" s="234"/>
-    </row>
-    <row r="13" spans="2:20" s="57" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M12" s="180"/>
+      <c r="N12" s="180"/>
+      <c r="O12" s="112"/>
+      <c r="P12" s="61"/>
+      <c r="Q12" s="112"/>
+      <c r="R12" s="112"/>
+      <c r="S12" s="61"/>
+      <c r="T12"/>
+    </row>
+    <row r="13" spans="2:20" s="57" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="152"/>
       <c r="C13" s="153"/>
       <c r="D13" s="154"/>
@@ -5302,20 +5265,20 @@
       <c r="J13" s="159"/>
       <c r="K13" s="160"/>
       <c r="L13" s="61"/>
-      <c r="M13" s="234"/>
-      <c r="N13" s="234"/>
-      <c r="O13" s="234"/>
-      <c r="P13" s="234"/>
-      <c r="Q13" s="234"/>
-      <c r="R13" s="234"/>
-      <c r="S13" s="234"/>
-      <c r="T13" s="234"/>
-    </row>
-    <row r="14" spans="2:20" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="213" t="s">
+      <c r="M13"/>
+      <c r="N13"/>
+      <c r="O13"/>
+      <c r="P13"/>
+      <c r="Q13"/>
+      <c r="R13"/>
+      <c r="S13"/>
+      <c r="T13"/>
+    </row>
+    <row r="14" spans="2:20" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="256" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="215" t="s">
+      <c r="C14" s="258" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="13" t="s">
@@ -5329,18 +5292,18 @@
       <c r="J14" s="147"/>
       <c r="K14" s="148"/>
       <c r="L14"/>
-      <c r="M14" s="234"/>
-      <c r="N14" s="234"/>
-      <c r="O14" s="234"/>
-      <c r="P14" s="234"/>
-      <c r="Q14" s="234"/>
-      <c r="R14" s="234"/>
-      <c r="S14" s="234"/>
-      <c r="T14" s="234"/>
-    </row>
-    <row r="15" spans="2:20" s="57" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="214"/>
-      <c r="C15" s="216"/>
+      <c r="M14"/>
+      <c r="N14"/>
+      <c r="O14"/>
+      <c r="P14"/>
+      <c r="Q14"/>
+      <c r="R14"/>
+      <c r="S14"/>
+      <c r="T14"/>
+    </row>
+    <row r="15" spans="2:20" s="57" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="257"/>
+      <c r="C15" s="259"/>
       <c r="D15" s="52" t="s">
         <v>27</v>
       </c>
@@ -5352,16 +5315,16 @@
       <c r="J15" s="144"/>
       <c r="K15" s="145"/>
       <c r="L15"/>
-      <c r="M15" s="234"/>
-      <c r="N15" s="234"/>
-      <c r="O15" s="234"/>
-      <c r="P15" s="234"/>
-      <c r="Q15" s="234"/>
-      <c r="R15" s="234"/>
-      <c r="S15" s="234"/>
-      <c r="T15" s="234"/>
-    </row>
-    <row r="16" spans="2:20" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M15"/>
+      <c r="N15"/>
+      <c r="O15"/>
+      <c r="P15"/>
+      <c r="Q15"/>
+      <c r="R15"/>
+      <c r="S15"/>
+      <c r="T15"/>
+    </row>
+    <row r="16" spans="2:20" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="60"/>
       <c r="C16" s="60"/>
       <c r="D16" s="53"/>
@@ -5369,16 +5332,16 @@
       <c r="F16" s="54"/>
       <c r="G16" s="58"/>
       <c r="H16" s="58"/>
-      <c r="M16" s="234"/>
-      <c r="N16" s="234"/>
-      <c r="O16" s="234"/>
-      <c r="P16" s="234"/>
-      <c r="Q16" s="234"/>
-      <c r="R16" s="234"/>
-      <c r="S16" s="234"/>
-      <c r="T16" s="234"/>
-    </row>
-    <row r="17" spans="2:12" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M16"/>
+      <c r="N16"/>
+      <c r="O16"/>
+      <c r="P16"/>
+      <c r="Q16"/>
+      <c r="R16"/>
+      <c r="S16"/>
+      <c r="T16"/>
+    </row>
+    <row r="17" spans="2:12" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="60"/>
       <c r="C17" s="60"/>
       <c r="D17" s="53"/>
@@ -5387,7 +5350,7 @@
       <c r="G17" s="58"/>
       <c r="H17" s="56"/>
     </row>
-    <row r="18" spans="2:12" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="60"/>
       <c r="C18" s="60"/>
       <c r="D18" s="53"/>
@@ -5396,7 +5359,7 @@
       <c r="G18" s="56"/>
       <c r="H18" s="56"/>
     </row>
-    <row r="19" spans="2:12" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="60"/>
       <c r="C19" s="189"/>
       <c r="D19" s="190"/>
@@ -5409,7 +5372,7 @@
       <c r="K19"/>
       <c r="L19"/>
     </row>
-    <row r="20" spans="2:12" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="60"/>
       <c r="C20" s="189"/>
       <c r="D20" s="190"/>
@@ -5422,7 +5385,7 @@
       <c r="K20"/>
       <c r="L20"/>
     </row>
-    <row r="21" spans="2:12" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:12" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="60"/>
       <c r="C21" s="189"/>
       <c r="D21" s="61"/>
@@ -5435,7 +5398,7 @@
       <c r="K21" s="112"/>
       <c r="L21"/>
     </row>
-    <row r="22" spans="2:12" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="60"/>
       <c r="C22" s="189"/>
       <c r="D22" s="190"/>
@@ -5448,7 +5411,7 @@
       <c r="K22"/>
       <c r="L22"/>
     </row>
-    <row r="23" spans="2:12" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="60"/>
       <c r="C23" s="60"/>
       <c r="D23" s="53"/>
@@ -5457,7 +5420,7 @@
       <c r="G23" s="58"/>
       <c r="H23" s="56"/>
     </row>
-    <row r="24" spans="2:12" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="60"/>
       <c r="C24" s="60"/>
       <c r="D24" s="53"/>
@@ -5466,7 +5429,7 @@
       <c r="G24" s="56"/>
       <c r="H24" s="56"/>
     </row>
-    <row r="25" spans="2:12" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="60"/>
       <c r="C25" s="60"/>
       <c r="D25" s="53"/>
@@ -5475,7 +5438,7 @@
       <c r="G25" s="56"/>
       <c r="H25" s="56"/>
     </row>
-    <row r="26" spans="2:12" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:12" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="60"/>
       <c r="C26" s="60"/>
       <c r="D26" s="53"/>
@@ -5484,7 +5447,7 @@
       <c r="G26" s="58"/>
       <c r="H26" s="56"/>
     </row>
-    <row r="27" spans="2:12" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:12" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="60"/>
       <c r="C27" s="60"/>
       <c r="D27" s="53"/>
@@ -5493,7 +5456,7 @@
       <c r="G27" s="58"/>
       <c r="H27" s="56"/>
     </row>
-    <row r="28" spans="2:12" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:12" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="60"/>
       <c r="C28" s="60"/>
       <c r="D28" s="53"/>
@@ -5502,7 +5465,7 @@
       <c r="G28" s="58"/>
       <c r="H28" s="58"/>
     </row>
-    <row r="29" spans="2:12" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:12" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="60"/>
       <c r="C29" s="60"/>
       <c r="D29" s="53"/>
@@ -5511,12 +5474,16 @@
       <c r="G29" s="58"/>
       <c r="H29" s="56"/>
     </row>
-    <row r="30" spans="2:12" s="57" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="2:12" s="57" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="2:12" s="57" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="33" s="57" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="2:12" s="57" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="31" spans="2:12" s="57" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="32" spans="2:12" s="57" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="33" s="57" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="B14:B15"/>
@@ -5524,10 +5491,6 @@
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="C6:C8"/>
     <mergeCell ref="B6:B8"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5535,6 +5498,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A69AE6C51AEE6142AD84D9FB7E253133" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="688ae3312de6a1cdf808e1735a79ca91">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="756e89ea-a5fb-4d06-a9be-9b8635efcbbf" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7ae5de413dc6742d84d7e8ba9b183640" ns3:_="">
     <xsd:import namespace="756e89ea-a5fb-4d06-a9be-9b8635efcbbf"/>
@@ -5710,12 +5679,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -5726,6 +5689,22 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A6A8E2B-A170-438C-86CD-560003D30CAB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="756e89ea-a5fb-4d06-a9be-9b8635efcbbf"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F55020E-069C-4126-815D-85E5FA260EED}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5743,22 +5722,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A6A8E2B-A170-438C-86CD-560003D30CAB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="756e89ea-a5fb-4d06-a9be-9b8635efcbbf"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06DA2F1B-717B-4D32-8536-28EBD29FAA3A}">
   <ds:schemaRefs>
